--- a/Comparaçoes/BuscasLocais.xlsx
+++ b/Comparaçoes/BuscasLocais.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="pdezi"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" xWindow="240" yWindow="60" windowWidth="9570" windowHeight="8265" tabRatio="500"/>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="9570" windowHeight="8265" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="k = n|4" sheetId="1" r:id="rId4"/>
@@ -15,10 +15,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1643156947" val="1042" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1643156947" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1643156947" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1643156947"/>
+      <pm:revision xmlns:pm="smNativeData" day="1643157189" val="1042" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1643157189" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1643157189" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1643157189"/>
     </ext>
   </extLst>
 </workbook>
@@ -283,7 +283,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="13">
+  <numFmts count="17">
     <numFmt numFmtId="5" formatCode="#,##0\ &quot;R$&quot;;\-#,##0\ &quot;R$&quot;"/>
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;R$&quot;;[Red]\-#,##0\ &quot;R$&quot;"/>
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;R$&quot;;\-#,##0.00\ &quot;R$&quot;"/>
@@ -297,6 +297,10 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="9" formatCode="0%"/>
+    <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0"/>
+    <numFmt numFmtId="3" formatCode="#,##0"/>
+    <numFmt numFmtId="169" formatCode="[$R$-416]\ #,##0.00"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -306,7 +310,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643156947" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -321,7 +325,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643156947" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -336,7 +340,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643156947" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -351,7 +355,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643156947" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -367,7 +371,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643156947" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -383,7 +387,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643156947" fgClr="FA7D00" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" fgClr="FA7D00" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -398,7 +402,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643156947" fgClr="FA7D00" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" fgClr="FA7D00" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -414,7 +418,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643156947" fgClr="800080" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" fgClr="800080" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -430,7 +434,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643156947" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -446,7 +450,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643156947" fgClr="7F7F7F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" fgClr="7F7F7F" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" i="1"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" i="1"/>
             <pm:ea face="SimSun" sz="220" lang="default" i="1"/>
@@ -461,7 +465,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643156947" fgClr="FF0000" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" fgClr="FF0000" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -477,7 +481,7 @@
       <sz val="18"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643156947" fgClr="44546A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" fgClr="44546A" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="360" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="360" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="360" lang="default" weight="bold"/>
@@ -492,7 +496,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643156947" fgClr="9C6500" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" fgClr="9C6500" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -508,7 +512,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643156947" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -524,7 +528,7 @@
       <sz val="15"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643156947" fgClr="44546A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" fgClr="44546A" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="300" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="300" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="300" lang="default" weight="bold"/>
@@ -540,7 +544,7 @@
       <sz val="13"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643156947" fgClr="44546A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" fgClr="44546A" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="260" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="260" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="260" lang="default" weight="bold"/>
@@ -556,7 +560,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643156947" fgClr="44546A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" fgClr="44546A" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -572,7 +576,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643156947" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -587,7 +591,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643156947" fgClr="3F3F76" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" fgClr="3F3F76" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -602,7 +606,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643156947" fgClr="006100" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" fgClr="006100" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -617,7 +621,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643156947" fgClr="9C0006" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" fgClr="9C0006" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -639,7 +643,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643156947" type="1" fgLvl="100" fgClr="00FFE697" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00FFE697" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -653,7 +657,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643156947" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -664,7 +668,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643156947" type="1" fgLvl="100" fgClr="00EBEBEB" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00EBEBEB" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -675,7 +679,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643156947" type="1" fgLvl="100" fgClr="00F8CAAB" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00F8CAAB" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -686,7 +690,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643156947" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -697,7 +701,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643156947" type="1" fgLvl="100" fgClr="00C5DFB3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00C5DFB3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -708,7 +712,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643156947" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -722,7 +726,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643156947" type="1" fgLvl="100" fgClr="00FFC000" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00FFC000" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -733,7 +737,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643156947" type="1" fgLvl="100" fgClr="004472C4" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="004472C4" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -747,7 +751,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643156947" type="1" fgLvl="100" fgClr="0070AD47" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="0070AD47" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -758,7 +762,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643156947" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -769,7 +773,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643156947" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -780,7 +784,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643156947" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -794,7 +798,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643156947" type="1" fgLvl="100" fgClr="00BDD7EE" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00BDD7EE" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -805,7 +809,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643156947" type="1" fgLvl="100" fgClr="00C6EFCE" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00C6EFCE" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -816,7 +820,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643156947" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -827,7 +831,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643156947" type="1" fgLvl="100" fgClr="00FFEB9C" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00FFEB9C" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -838,7 +842,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643156947" type="1" fgLvl="100" fgClr="00D9E1F2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00D9E1F2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -849,7 +853,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643156947" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -860,7 +864,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643156947" type="1" fgLvl="100" fgClr="00DDEBF7" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00DDEBF7" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -871,7 +875,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643156947" type="1" fgLvl="100" fgClr="009BC2E6" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="009BC2E6" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -882,7 +886,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643156947" type="1" fgLvl="100" fgClr="00E1EFD8" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00E1EFD8" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -893,7 +897,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643156947" type="1" fgLvl="100" fgClr="00ED7D31" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00ED7D31" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -904,7 +908,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643156947" type="1" fgLvl="100" fgClr="00FBE3D5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00FBE3D5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -915,7 +919,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643156947" type="1" fgLvl="100" fgClr="00F4AF82" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00F4AF82" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -926,7 +930,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643156947" type="1" fgLvl="100" fgClr="00D9D9D9" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00D9D9D9" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -937,7 +941,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643156947" type="1" fgLvl="100" fgClr="00C7C7C7" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00C7C7C7" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -948,7 +952,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643156947" type="1" fgLvl="100" fgClr="00FFF2CA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00FFF2CA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -959,7 +963,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643156947" type="1" fgLvl="100" fgClr="00FFD964" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00FFD964" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -970,7 +974,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643156947" type="1" fgLvl="100" fgClr="00B4C6E7" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00B4C6E7" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -981,7 +985,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643156947" type="1" fgLvl="100" fgClr="008EA9DB" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="008EA9DB" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -992,7 +996,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643156947" type="1" fgLvl="100" fgClr="00A8D08C" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00A8D08C" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1006,7 +1010,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643156947" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1017,7 +1021,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643156947" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1039,7 +1043,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947"/>
+          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
         </ext>
       </extLst>
     </border>
@@ -1058,7 +1062,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947"/>
+          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
         </ext>
       </extLst>
     </border>
@@ -1077,7 +1081,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947">
+          <pm:border xmlns:pm="smNativeData" id="1643157189">
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="FF8001"/>
           </pm:border>
         </ext>
@@ -1098,7 +1102,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947">
+          <pm:border xmlns:pm="smNativeData" id="1643157189">
             <pm:line position="top" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -1122,7 +1126,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947"/>
+          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
         </ext>
       </extLst>
     </border>
@@ -1141,7 +1145,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947"/>
+          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
         </ext>
       </extLst>
     </border>
@@ -1160,7 +1164,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947">
+          <pm:border xmlns:pm="smNativeData" id="1643157189">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
@@ -1184,7 +1188,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947"/>
+          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
         </ext>
       </extLst>
     </border>
@@ -1203,7 +1207,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947"/>
+          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
         </ext>
       </extLst>
     </border>
@@ -1222,7 +1226,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947">
+          <pm:border xmlns:pm="smNativeData" id="1643157189">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="5B9BD5"/>
           </pm:border>
         </ext>
@@ -1243,7 +1247,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947"/>
+          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
         </ext>
       </extLst>
     </border>
@@ -1262,7 +1266,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947"/>
+          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
         </ext>
       </extLst>
     </border>
@@ -1281,7 +1285,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947">
+          <pm:border xmlns:pm="smNativeData" id="1643157189">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="ACCCEA"/>
           </pm:border>
         </ext>
@@ -1302,7 +1306,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947"/>
+          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
         </ext>
       </extLst>
     </border>
@@ -1321,7 +1325,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947">
+          <pm:border xmlns:pm="smNativeData" id="1643157189">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
@@ -1345,7 +1349,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947">
+          <pm:border xmlns:pm="smNativeData" id="1643157189">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -1369,7 +1373,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947">
+          <pm:border xmlns:pm="smNativeData" id="1643157189">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
@@ -1393,7 +1397,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947">
+          <pm:border xmlns:pm="smNativeData" id="1643157189">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="5B9BD5"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="5B9BD5"/>
           </pm:border>
@@ -1415,7 +1419,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947"/>
+          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
         </ext>
       </extLst>
     </border>
@@ -1434,7 +1438,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947"/>
+          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
         </ext>
       </extLst>
     </border>
@@ -1453,7 +1457,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947"/>
+          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
         </ext>
       </extLst>
     </border>
@@ -1472,7 +1476,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947"/>
+          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
         </ext>
       </extLst>
     </border>
@@ -1491,7 +1495,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947"/>
+          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
         </ext>
       </extLst>
     </border>
@@ -1510,7 +1514,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947"/>
+          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
         </ext>
       </extLst>
     </border>
@@ -1529,7 +1533,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947"/>
+          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
         </ext>
       </extLst>
     </border>
@@ -1548,7 +1552,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947"/>
+          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
         </ext>
       </extLst>
     </border>
@@ -1567,7 +1571,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947"/>
+          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
         </ext>
       </extLst>
     </border>
@@ -1586,7 +1590,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947"/>
+          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
         </ext>
       </extLst>
     </border>
@@ -1605,7 +1609,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947"/>
+          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
         </ext>
       </extLst>
     </border>
@@ -1624,7 +1628,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947"/>
+          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
         </ext>
       </extLst>
     </border>
@@ -1643,7 +1647,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947"/>
+          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
         </ext>
       </extLst>
     </border>
@@ -1662,7 +1666,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947"/>
+          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
         </ext>
       </extLst>
     </border>
@@ -1681,7 +1685,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947"/>
+          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
         </ext>
       </extLst>
     </border>
@@ -1700,7 +1704,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947"/>
+          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
         </ext>
       </extLst>
     </border>
@@ -1719,7 +1723,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947"/>
+          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
         </ext>
       </extLst>
     </border>
@@ -1738,7 +1742,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947"/>
+          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
         </ext>
       </extLst>
     </border>
@@ -1757,7 +1761,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947"/>
+          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
         </ext>
       </extLst>
     </border>
@@ -1776,7 +1780,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947">
+          <pm:border xmlns:pm="smNativeData" id="1643157189">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1800,7 +1804,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947">
+          <pm:border xmlns:pm="smNativeData" id="1643157189">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1824,7 +1828,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643156947"/>
+          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
         </ext>
       </extLst>
     </border>
@@ -1978,7 +1982,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2132,10 +2136,22 @@
     <xf numFmtId="0" fontId="2" fillId="39" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="39" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2193,10 +2209,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1643156947" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1643157189" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1643156947" count="41">
+      <pm:colors xmlns:pm="smNativeData" id="1643157189" count="41">
         <pm:color name="Cor 24" rgb="FA7D00"/>
         <pm:color name="Cor 25" rgb="800080"/>
         <pm:color name="Cor 26" rgb="44546A"/>
@@ -2500,28 +2516,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:AJ28"/>
+  <dimension ref="A1:XFD28"/>
   <sheetViews>
-    <sheetView view="normal" topLeftCell="Z6" workbookViewId="0">
-      <selection activeCell="AG29" sqref="AG29"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.20"/>
   <cols>
-    <col min="3" max="3" width="19.138614" customWidth="1"/>
-    <col min="4" max="4" width="8.138614" customWidth="1"/>
-    <col min="5" max="5" width="10.574257" customWidth="1"/>
-    <col min="7" max="8" width="9.574257" customWidth="1"/>
-    <col min="15" max="15" width="19.138614" customWidth="1"/>
-    <col min="17" max="17" width="10.574257" customWidth="1"/>
-    <col min="27" max="27" width="19.138614" customWidth="1"/>
-    <col min="29" max="29" width="10.574257" customWidth="1"/>
-    <col min="31" max="32" width="9.574257" customWidth="1"/>
+    <col min="1" max="2" width="9.138614" style="54"/>
+    <col min="3" max="3" width="19.138614" customWidth="1" style="54"/>
+    <col min="4" max="4" width="9.752475" customWidth="1" style="54"/>
+    <col min="5" max="5" width="10.574257" customWidth="1" style="54"/>
+    <col min="6" max="6" width="9.752475" customWidth="1" style="54"/>
+    <col min="7" max="8" width="9.574257" customWidth="1" style="54"/>
+    <col min="9" max="14" width="9.138614" style="54"/>
+    <col min="15" max="15" width="19.138614" customWidth="1" style="54"/>
+    <col min="16" max="16" width="9.752475" customWidth="1" style="54"/>
+    <col min="17" max="17" width="10.574257" customWidth="1" style="54"/>
+    <col min="18" max="18" width="9.752475" customWidth="1" style="54"/>
+    <col min="19" max="26" width="9.138614" style="54"/>
+    <col min="27" max="27" width="19.138614" customWidth="1" style="54"/>
+    <col min="28" max="28" width="9.752475" customWidth="1" style="54"/>
+    <col min="29" max="29" width="10.574257" customWidth="1" style="54"/>
+    <col min="30" max="30" width="9.752475" customWidth="1" style="54"/>
+    <col min="31" max="32" width="9.574257" customWidth="1" style="54"/>
+    <col min="33" max="16384" width="9.138614" style="54"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:36">
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="49" t="s">
         <v>0</v>
       </c>
@@ -2533,8 +2558,8 @@
       <c r="J2" s="49"/>
       <c r="K2" s="49"/>
       <c r="L2" s="49"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
       <c r="P2" s="49" t="s">
         <v>0</v>
       </c>
@@ -2546,8 +2571,8 @@
       <c r="V2" s="49"/>
       <c r="W2" s="49"/>
       <c r="X2" s="49"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
       <c r="AB2" s="49" t="s">
         <v>0</v>
       </c>
@@ -2561,8 +2586,8 @@
       <c r="AJ2" s="49"/>
     </row>
     <row r="3" spans="2:36">
-      <c r="B3" s="52"/>
-      <c r="C3" s="52" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="49" t="s">
@@ -2580,8 +2605,8 @@
       </c>
       <c r="K3" s="49"/>
       <c r="L3" s="49"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52" t="s">
+      <c r="N3" s="51"/>
+      <c r="O3" s="51" t="s">
         <v>1</v>
       </c>
       <c r="P3" s="49" t="s">
@@ -2599,8 +2624,8 @@
       </c>
       <c r="W3" s="49"/>
       <c r="X3" s="49"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52" t="s">
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51" t="s">
         <v>1</v>
       </c>
       <c r="AB3" s="49" t="s">
@@ -2626,97 +2651,97 @@
       <c r="C4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="J4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="51" t="s">
+      <c r="K4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="52" t="s">
+      <c r="N4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="52" t="s">
+      <c r="O4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="51" t="s">
+      <c r="P4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="51" t="s">
+      <c r="Q4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="51" t="s">
+      <c r="R4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="51" t="s">
+      <c r="S4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="51" t="s">
+      <c r="T4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="51" t="s">
+      <c r="U4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="V4" s="51" t="s">
+      <c r="V4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="W4" s="51" t="s">
+      <c r="W4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="51" t="s">
+      <c r="X4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="52" t="s">
+      <c r="Z4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="AA4" s="52" t="s">
+      <c r="AA4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="AB4" s="51" t="s">
+      <c r="AB4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AC4" s="51" t="s">
+      <c r="AC4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AD4" s="51" t="s">
+      <c r="AD4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AE4" s="51" t="s">
+      <c r="AE4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AF4" s="51" t="s">
+      <c r="AF4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AG4" s="51" t="s">
+      <c r="AG4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AH4" s="51" t="s">
+      <c r="AH4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AI4" s="51" t="s">
+      <c r="AI4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AJ4" s="51" t="s">
+      <c r="AJ4" s="55" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2727,81 +2752,81 @@
       <c r="C5" s="50" t="n">
         <v>70</v>
       </c>
-      <c r="D5" s="50" t="n">
+      <c r="D5" s="52" t="n">
         <v>625.970000000000027</v>
       </c>
-      <c r="E5" s="50" t="n">
+      <c r="E5" s="52" t="n">
         <v>625.970000000000027</v>
       </c>
-      <c r="F5" s="50" t="n">
+      <c r="F5" s="52" t="n">
         <v>625.970000000000027</v>
       </c>
-      <c r="G5" s="51" t="n">
+      <c r="G5" s="56" t="n">
         <v>707.340000000000032</v>
       </c>
-      <c r="H5" s="51" t="n">
+      <c r="H5" s="56" t="n">
         <v>678.440000000000055</v>
       </c>
-      <c r="I5" s="51" t="n">
+      <c r="I5" s="56" t="n">
         <v>683.649999999999977</v>
       </c>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="N5" s="52" t="s">
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="N5" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="52" t="n">
+      <c r="O5" s="51" t="n">
         <v>12</v>
       </c>
-      <c r="P5" s="52" t="n">
+      <c r="P5" s="53" t="n">
         <v>668</v>
       </c>
-      <c r="Q5" s="52" t="n">
+      <c r="Q5" s="53" t="n">
         <v>668</v>
       </c>
-      <c r="R5" s="52" t="n">
+      <c r="R5" s="53" t="n">
         <v>668</v>
       </c>
-      <c r="S5" s="51" t="n">
+      <c r="S5" s="56" t="n">
         <v>558</v>
       </c>
-      <c r="T5" s="51" t="n">
+      <c r="T5" s="56" t="n">
         <v>558</v>
       </c>
-      <c r="U5" s="51" t="n">
+      <c r="U5" s="56" t="n">
         <v>558</v>
       </c>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51"/>
-      <c r="Z5" s="52" t="s">
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Z5" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="AA5" s="52" t="n">
+      <c r="AA5" s="51" t="n">
         <v>19</v>
       </c>
-      <c r="AB5" s="52" t="n">
+      <c r="AB5" s="53" t="n">
         <v>25126.8400000000001</v>
       </c>
-      <c r="AC5" s="52" t="n">
+      <c r="AC5" s="53" t="n">
         <v>25126.8400000000001</v>
       </c>
-      <c r="AD5" s="52" t="n">
+      <c r="AD5" s="53" t="n">
         <v>25126.8400000000001</v>
       </c>
-      <c r="AE5" s="51" t="n">
+      <c r="AE5" s="56" t="n">
         <v>25126.8400000000001</v>
       </c>
-      <c r="AF5" s="51" t="n">
+      <c r="AF5" s="56" t="n">
         <v>25126.8400000000001</v>
       </c>
-      <c r="AG5" s="51" t="n">
+      <c r="AG5" s="56" t="n">
         <v>25126.8400000000001</v>
       </c>
-      <c r="AH5" s="51"/>
-      <c r="AI5" s="51"/>
-      <c r="AJ5" s="51"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
     </row>
     <row r="6" spans="2:36">
       <c r="B6" s="50" t="s">
@@ -2810,69 +2835,69 @@
       <c r="C6" s="50" t="n">
         <v>133</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="N6" s="52" t="s">
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="N6" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="52" t="n">
+      <c r="O6" s="51" t="n">
         <v>24</v>
       </c>
-      <c r="P6" s="52" t="n">
+      <c r="P6" s="53" t="n">
         <v>10630.3899999999994</v>
       </c>
-      <c r="Q6" s="52" t="n">
+      <c r="Q6" s="53" t="n">
         <v>10068.3899999999994</v>
       </c>
-      <c r="R6" s="52" t="n">
+      <c r="R6" s="53" t="n">
         <v>10660.3099999999995</v>
       </c>
-      <c r="S6" s="51" t="n">
+      <c r="S6" s="56" t="n">
         <v>9818.95000000000073</v>
       </c>
-      <c r="T6" s="51" t="n">
+      <c r="T6" s="56" t="n">
         <v>9818.95000000000073</v>
       </c>
-      <c r="U6" s="51" t="n">
+      <c r="U6" s="56" t="n">
         <v>9818.95000000000073</v>
       </c>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="51"/>
-      <c r="Z6" s="52" t="s">
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Z6" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="52" t="n">
+      <c r="AA6" s="51" t="n">
         <v>26</v>
       </c>
-      <c r="AB6" s="52" t="n">
+      <c r="AB6" s="53" t="n">
         <v>7769.73999999999978</v>
       </c>
-      <c r="AC6" s="52" t="n">
+      <c r="AC6" s="53" t="n">
         <v>7564.9399999999996</v>
       </c>
-      <c r="AD6" s="52" t="n">
+      <c r="AD6" s="53" t="n">
         <v>7359.17000000000007</v>
       </c>
-      <c r="AE6" s="51" t="n">
+      <c r="AE6" s="56" t="n">
         <v>7165.82999999999993</v>
       </c>
-      <c r="AF6" s="51" t="n">
+      <c r="AF6" s="56" t="n">
         <v>7165.82999999999993</v>
       </c>
-      <c r="AG6" s="51" t="n">
+      <c r="AG6" s="56" t="n">
         <v>7165.82999999999993</v>
       </c>
-      <c r="AH6" s="51"/>
-      <c r="AI6" s="51"/>
-      <c r="AJ6" s="51"/>
+      <c r="AH6" s="56"/>
+      <c r="AI6" s="56"/>
+      <c r="AJ6" s="56"/>
     </row>
     <row r="7" spans="2:36">
       <c r="B7" s="50" t="s">
@@ -2881,81 +2906,81 @@
       <c r="C7" s="50" t="n">
         <v>12</v>
       </c>
-      <c r="D7" s="50" t="n">
+      <c r="D7" s="52" t="n">
         <v>1373</v>
       </c>
-      <c r="E7" s="50" t="n">
+      <c r="E7" s="52" t="n">
         <v>1373</v>
       </c>
-      <c r="F7" s="50" t="n">
+      <c r="F7" s="52" t="n">
         <v>1373</v>
       </c>
-      <c r="G7" s="51" t="n">
+      <c r="G7" s="56" t="n">
         <v>1373</v>
       </c>
-      <c r="H7" s="51" t="n">
+      <c r="H7" s="56" t="n">
         <v>1373</v>
       </c>
-      <c r="I7" s="51" t="n">
+      <c r="I7" s="56" t="n">
         <v>1373</v>
       </c>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="N7" s="52" t="s">
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="N7" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="52" t="n">
+      <c r="O7" s="51" t="n">
         <v>30</v>
       </c>
-      <c r="P7" s="52" t="n">
+      <c r="P7" s="53" t="n">
         <v>1376</v>
       </c>
-      <c r="Q7" s="52" t="n">
+      <c r="Q7" s="53" t="n">
         <v>1376</v>
       </c>
-      <c r="R7" s="52" t="n">
+      <c r="R7" s="53" t="n">
         <v>1376</v>
       </c>
-      <c r="S7" s="51" t="n">
+      <c r="S7" s="56" t="n">
         <v>1404</v>
       </c>
-      <c r="T7" s="51" t="n">
+      <c r="T7" s="56" t="n">
         <v>1404</v>
       </c>
-      <c r="U7" s="51" t="n">
+      <c r="U7" s="56" t="n">
         <v>1404</v>
       </c>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Z7" s="52" t="s">
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Z7" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="AA7" s="52" t="n">
+      <c r="AA7" s="51" t="n">
         <v>31</v>
       </c>
-      <c r="AB7" s="52" t="n">
+      <c r="AB7" s="53" t="n">
         <v>10765.7800000000007</v>
       </c>
-      <c r="AC7" s="52" t="n">
+      <c r="AC7" s="53" t="n">
         <v>10765.7800000000007</v>
       </c>
-      <c r="AD7" s="52" t="n">
+      <c r="AD7" s="53" t="n">
         <v>10765.7800000000007</v>
       </c>
-      <c r="AE7" s="51" t="n">
+      <c r="AE7" s="56" t="n">
         <v>14065.4400000000005</v>
       </c>
-      <c r="AF7" s="51" t="n">
+      <c r="AF7" s="56" t="n">
         <v>14065.4400000000005</v>
       </c>
-      <c r="AG7" s="51" t="n">
+      <c r="AG7" s="56" t="n">
         <v>13755.2299999999996</v>
       </c>
-      <c r="AH7" s="51"/>
-      <c r="AI7" s="51"/>
-      <c r="AJ7" s="51"/>
+      <c r="AH7" s="56"/>
+      <c r="AI7" s="56"/>
+      <c r="AJ7" s="56"/>
     </row>
     <row r="8" spans="2:36">
       <c r="B8" s="50" t="s">
@@ -2964,69 +2989,69 @@
       <c r="C8" s="50" t="n">
         <v>133</v>
       </c>
-      <c r="D8" s="50" t="n">
+      <c r="D8" s="52" t="n">
         <v>5619</v>
       </c>
-      <c r="E8" s="50" t="n">
+      <c r="E8" s="52" t="n">
         <v>5553</v>
       </c>
-      <c r="F8" s="50" t="n">
+      <c r="F8" s="52" t="n">
         <v>5550</v>
       </c>
-      <c r="G8" s="51" t="n">
+      <c r="G8" s="56" t="n">
         <v>4347</v>
       </c>
-      <c r="H8" s="51" t="n">
+      <c r="H8" s="56" t="n">
         <v>4172</v>
       </c>
-      <c r="I8" s="51" t="n">
+      <c r="I8" s="56" t="n">
         <v>4334</v>
       </c>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="N8" s="52" t="s">
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="N8" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="52" t="n">
+      <c r="O8" s="51" t="n">
         <v>34</v>
       </c>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-      <c r="Z8" s="52" t="s">
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Z8" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="AA8" s="52" t="n">
+      <c r="AA8" s="51" t="n">
         <v>34</v>
       </c>
-      <c r="AB8" s="52" t="n">
+      <c r="AB8" s="53" t="n">
         <v>22828.7400000000016</v>
       </c>
-      <c r="AC8" s="52" t="n">
+      <c r="AC8" s="53" t="n">
         <v>22109.2999999999993</v>
       </c>
-      <c r="AD8" s="52" t="n">
+      <c r="AD8" s="53" t="n">
         <v>21887.3199999999997</v>
       </c>
-      <c r="AE8" s="51" t="n">
+      <c r="AE8" s="56" t="n">
         <v>23341.4599999999991</v>
       </c>
-      <c r="AF8" s="51" t="n">
+      <c r="AF8" s="56" t="n">
         <v>22776.4099999999999</v>
       </c>
-      <c r="AG8" s="51" t="n">
+      <c r="AG8" s="56" t="n">
         <v>23341.4599999999991</v>
       </c>
-      <c r="AH8" s="51"/>
-      <c r="AI8" s="51"/>
-      <c r="AJ8" s="51"/>
+      <c r="AH8" s="56"/>
+      <c r="AI8" s="56"/>
+      <c r="AJ8" s="56"/>
     </row>
     <row r="9" spans="2:36">
       <c r="B9" s="50" t="s">
@@ -3035,69 +3060,69 @@
       <c r="C9" s="50" t="n">
         <v>7</v>
       </c>
-      <c r="D9" s="50" t="n">
+      <c r="D9" s="52" t="n">
         <v>292</v>
       </c>
-      <c r="E9" s="50" t="n">
+      <c r="E9" s="52" t="n">
         <v>292</v>
       </c>
-      <c r="F9" s="50" t="n">
+      <c r="F9" s="52" t="n">
         <v>292</v>
       </c>
-      <c r="G9" s="51" t="n">
+      <c r="G9" s="56" t="n">
         <v>292</v>
       </c>
-      <c r="H9" s="51" t="n">
+      <c r="H9" s="56" t="n">
         <v>292</v>
       </c>
-      <c r="I9" s="51" t="n">
+      <c r="I9" s="56" t="n">
         <v>292</v>
       </c>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="N9" s="52" t="s">
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="N9" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="52" t="n">
+      <c r="O9" s="51" t="n">
         <v>50</v>
       </c>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="51"/>
-      <c r="Z9" s="52" t="s">
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Z9" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="AA9" s="52" t="n">
+      <c r="AA9" s="51" t="n">
         <v>36</v>
       </c>
-      <c r="AB9" s="52" t="n">
+      <c r="AB9" s="53" t="n">
         <v>10778.3400000000001</v>
       </c>
-      <c r="AC9" s="52" t="n">
+      <c r="AC9" s="53" t="n">
         <v>10742.8600000000006</v>
       </c>
-      <c r="AD9" s="52" t="n">
+      <c r="AD9" s="53" t="n">
         <v>10778.4300000000003</v>
       </c>
-      <c r="AE9" s="51" t="n">
+      <c r="AE9" s="56" t="n">
         <v>12001.0300000000007</v>
       </c>
-      <c r="AF9" s="51" t="n">
+      <c r="AF9" s="56" t="n">
         <v>11847.5599999999995</v>
       </c>
-      <c r="AG9" s="51" t="n">
+      <c r="AG9" s="56" t="n">
         <v>12001.0300000000007</v>
       </c>
-      <c r="AH9" s="51"/>
-      <c r="AI9" s="51"/>
-      <c r="AJ9" s="51"/>
+      <c r="AH9" s="56"/>
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="56"/>
     </row>
     <row r="10" spans="2:36">
       <c r="B10" s="50" t="s">
@@ -3106,69 +3131,69 @@
       <c r="C10" s="50" t="n">
         <v>7</v>
       </c>
-      <c r="D10" s="50" t="n">
+      <c r="D10" s="52" t="n">
         <v>352</v>
       </c>
-      <c r="E10" s="50" t="n">
+      <c r="E10" s="52" t="n">
         <v>352</v>
       </c>
-      <c r="F10" s="50" t="n">
+      <c r="F10" s="52" t="n">
         <v>352</v>
       </c>
-      <c r="G10" s="51" t="n">
+      <c r="G10" s="56" t="n">
         <v>352</v>
       </c>
-      <c r="H10" s="51" t="n">
+      <c r="H10" s="56" t="n">
         <v>352</v>
       </c>
-      <c r="I10" s="51" t="n">
+      <c r="I10" s="56" t="n">
         <v>352</v>
       </c>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="N10" s="52" t="s">
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="N10" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="52" t="n">
+      <c r="O10" s="51" t="n">
         <v>57</v>
       </c>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="51"/>
-      <c r="X10" s="51"/>
-      <c r="Z10" s="52" t="s">
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Z10" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="AA10" s="52" t="n">
+      <c r="AA10" s="51" t="n">
         <v>38</v>
       </c>
-      <c r="AB10" s="52" t="n">
+      <c r="AB10" s="53" t="n">
         <v>15403.2600000000002</v>
       </c>
-      <c r="AC10" s="52" t="n">
+      <c r="AC10" s="53" t="n">
         <v>15403.2600000000002</v>
       </c>
-      <c r="AD10" s="52" t="n">
+      <c r="AD10" s="53" t="n">
         <v>15403.2600000000002</v>
       </c>
-      <c r="AE10" s="51" t="n">
+      <c r="AE10" s="56" t="n">
         <v>15403.2600000000002</v>
       </c>
-      <c r="AF10" s="51" t="n">
+      <c r="AF10" s="56" t="n">
         <v>15403.25</v>
       </c>
-      <c r="AG10" s="51" t="n">
+      <c r="AG10" s="56" t="n">
         <v>15403.25</v>
       </c>
-      <c r="AH10" s="51"/>
-      <c r="AI10" s="51"/>
-      <c r="AJ10" s="51"/>
+      <c r="AH10" s="56"/>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="56"/>
     </row>
     <row r="11" spans="2:36">
       <c r="B11" s="50" t="s">
@@ -3177,69 +3202,69 @@
       <c r="C11" s="50" t="n">
         <v>13</v>
       </c>
-      <c r="D11" s="50" t="n">
+      <c r="D11" s="52" t="n">
         <v>556.809999999999945</v>
       </c>
-      <c r="E11" s="50" t="n">
+      <c r="E11" s="52" t="n">
         <v>556.809999999999945</v>
       </c>
-      <c r="F11" s="50" t="n">
+      <c r="F11" s="52" t="n">
         <v>556.809999999999945</v>
       </c>
-      <c r="G11" s="51" t="n">
+      <c r="G11" s="56" t="n">
         <v>556.809999999999945</v>
       </c>
-      <c r="H11" s="51" t="n">
+      <c r="H11" s="56" t="n">
         <v>556.809999999999945</v>
       </c>
-      <c r="I11" s="51" t="n">
+      <c r="I11" s="56" t="n">
         <v>556.809999999999945</v>
       </c>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="N11" s="52" t="s">
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="N11" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="O11" s="52" t="n">
+      <c r="O11" s="51" t="n">
         <v>107</v>
       </c>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="51"/>
-      <c r="W11" s="51"/>
-      <c r="X11" s="51"/>
-      <c r="Z11" s="52" t="s">
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Z11" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="AA11" s="52" t="n">
+      <c r="AA11" s="51" t="n">
         <v>56</v>
       </c>
-      <c r="AB11" s="52" t="n">
+      <c r="AB11" s="53" t="n">
         <v>22868.630000000001</v>
       </c>
-      <c r="AC11" s="52" t="n">
+      <c r="AC11" s="53" t="n">
         <v>22375.0999999999985</v>
       </c>
-      <c r="AD11" s="52" t="n">
+      <c r="AD11" s="53" t="n">
         <v>21631.4300000000003</v>
       </c>
-      <c r="AE11" s="51" t="n">
+      <c r="AE11" s="56" t="n">
         <v>23231.1899999999987</v>
       </c>
-      <c r="AF11" s="51" t="n">
+      <c r="AF11" s="56" t="n">
         <v>22003.0400000000009</v>
       </c>
-      <c r="AG11" s="51" t="n">
+      <c r="AG11" s="56" t="n">
         <v>23231.1899999999987</v>
       </c>
-      <c r="AH11" s="51"/>
-      <c r="AI11" s="51"/>
-      <c r="AJ11" s="51"/>
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="56"/>
+      <c r="AJ11" s="56"/>
     </row>
     <row r="12" spans="2:36">
       <c r="B12" s="50" t="s">
@@ -3248,69 +3273,69 @@
       <c r="C12" s="50" t="n">
         <v>31</v>
       </c>
-      <c r="D12" s="50" t="n">
+      <c r="D12" s="52" t="n">
         <v>14272</v>
       </c>
-      <c r="E12" s="50" t="n">
+      <c r="E12" s="52" t="n">
         <v>14272.2999999999993</v>
       </c>
-      <c r="F12" s="50" t="n">
+      <c r="F12" s="52" t="n">
         <v>14272.2999999999993</v>
       </c>
-      <c r="G12" s="51" t="n">
+      <c r="G12" s="56" t="n">
         <v>11580.3199999999997</v>
       </c>
-      <c r="H12" s="51" t="n">
+      <c r="H12" s="56" t="n">
         <v>11551.4599999999991</v>
       </c>
-      <c r="I12" s="51" t="n">
+      <c r="I12" s="56" t="n">
         <v>11580.3199999999997</v>
       </c>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="N12" s="52" t="s">
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="N12" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="O12" s="52" t="n">
+      <c r="O12" s="51" t="n">
         <v>166</v>
       </c>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-      <c r="Z12" s="52" t="s">
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Z12" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="AA12" s="52" t="n">
+      <c r="AA12" s="51" t="n">
         <v>66</v>
       </c>
-      <c r="AB12" s="52" t="n">
+      <c r="AB12" s="53" t="n">
         <v>8023.60999999999967</v>
       </c>
-      <c r="AC12" s="52" t="n">
+      <c r="AC12" s="53" t="n">
         <v>8023.60999999999967</v>
       </c>
-      <c r="AD12" s="52" t="n">
+      <c r="AD12" s="53" t="n">
         <v>8023.60999999999967</v>
       </c>
-      <c r="AE12" s="51" t="n">
+      <c r="AE12" s="56" t="n">
         <v>8023.60999999999967</v>
       </c>
-      <c r="AF12" s="51" t="n">
+      <c r="AF12" s="56" t="n">
         <v>8023.60999999999967</v>
       </c>
-      <c r="AG12" s="51" t="n">
+      <c r="AG12" s="56" t="n">
         <v>8023.60999999999967</v>
       </c>
-      <c r="AH12" s="51"/>
-      <c r="AI12" s="51"/>
-      <c r="AJ12" s="51"/>
+      <c r="AH12" s="56"/>
+      <c r="AI12" s="56"/>
+      <c r="AJ12" s="56"/>
     </row>
     <row r="13" spans="2:36">
       <c r="B13" s="50" t="s">
@@ -3319,81 +3344,81 @@
       <c r="C13" s="50" t="n">
         <v>14</v>
       </c>
-      <c r="D13" s="50" t="n">
+      <c r="D13" s="52" t="n">
         <v>6116</v>
       </c>
-      <c r="E13" s="50" t="n">
+      <c r="E13" s="52" t="n">
         <v>6116</v>
       </c>
-      <c r="F13" s="50" t="n">
+      <c r="F13" s="52" t="n">
         <v>6116</v>
       </c>
-      <c r="G13" s="51" t="n">
+      <c r="G13" s="56" t="n">
         <v>4607</v>
       </c>
-      <c r="H13" s="51" t="n">
+      <c r="H13" s="56" t="n">
         <v>4607</v>
       </c>
-      <c r="I13" s="51" t="n">
+      <c r="I13" s="56" t="n">
         <v>4607</v>
       </c>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="N13" s="52" t="s">
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="N13" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="O13" s="52" t="n">
+      <c r="O13" s="51" t="n">
         <v>12</v>
       </c>
-      <c r="P13" s="52" t="n">
+      <c r="P13" s="53" t="n">
         <v>3454</v>
       </c>
-      <c r="Q13" s="52" t="n">
+      <c r="Q13" s="53" t="n">
         <v>3454</v>
       </c>
-      <c r="R13" s="52" t="n">
+      <c r="R13" s="53" t="n">
         <v>3454</v>
       </c>
-      <c r="S13" s="51" t="n">
+      <c r="S13" s="56" t="n">
         <v>3155</v>
       </c>
-      <c r="T13" s="51" t="n">
+      <c r="T13" s="56" t="n">
         <v>3155</v>
       </c>
-      <c r="U13" s="51" t="n">
+      <c r="U13" s="56" t="n">
         <v>3155</v>
       </c>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Z13" s="52" t="s">
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Z13" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="AA13" s="52" t="n">
+      <c r="AA13" s="51" t="n">
         <v>74</v>
       </c>
-      <c r="AB13" s="52" t="n">
+      <c r="AB13" s="53" t="n">
         <v>12311.5300000000007</v>
       </c>
-      <c r="AC13" s="52" t="n">
+      <c r="AC13" s="53" t="n">
         <v>12311.5300000000007</v>
       </c>
-      <c r="AD13" s="52" t="n">
+      <c r="AD13" s="53" t="n">
         <v>11960.0200000000004</v>
       </c>
-      <c r="AE13" s="51" t="n">
+      <c r="AE13" s="56" t="n">
         <v>12127.2900000000009</v>
       </c>
-      <c r="AF13" s="51" t="n">
+      <c r="AF13" s="56" t="n">
         <v>11699.6599999999999</v>
       </c>
-      <c r="AG13" s="51" t="n">
+      <c r="AG13" s="56" t="n">
         <v>11699.6599999999999</v>
       </c>
-      <c r="AH13" s="51"/>
-      <c r="AI13" s="51"/>
-      <c r="AJ13" s="51"/>
+      <c r="AH13" s="56"/>
+      <c r="AI13" s="56"/>
+      <c r="AJ13" s="56"/>
     </row>
     <row r="14" spans="2:36">
       <c r="B14" s="50" t="s">
@@ -3402,81 +3427,81 @@
       <c r="C14" s="50" t="n">
         <v>45</v>
       </c>
-      <c r="D14" s="50" t="n">
+      <c r="D14" s="52" t="n">
         <v>16600</v>
       </c>
-      <c r="E14" s="50" t="n">
+      <c r="E14" s="52" t="n">
         <v>11050</v>
       </c>
-      <c r="F14" s="50" t="n">
+      <c r="F14" s="52" t="n">
         <v>11010</v>
       </c>
-      <c r="G14" s="51" t="n">
+      <c r="G14" s="56" t="n">
         <v>480</v>
       </c>
-      <c r="H14" s="51" t="n">
+      <c r="H14" s="56" t="n">
         <v>480</v>
       </c>
-      <c r="I14" s="51" t="n">
+      <c r="I14" s="56" t="n">
         <v>480</v>
       </c>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="N14" s="52" t="s">
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="N14" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="O14" s="52" t="n">
+      <c r="O14" s="51" t="n">
         <v>25</v>
       </c>
-      <c r="P14" s="52" t="n">
+      <c r="P14" s="53" t="n">
         <v>5015.02000000000044</v>
       </c>
-      <c r="Q14" s="52" t="n">
+      <c r="Q14" s="53" t="n">
         <v>5015.02000000000044</v>
       </c>
-      <c r="R14" s="52" t="n">
+      <c r="R14" s="53" t="n">
         <v>5015.02000000000044</v>
       </c>
-      <c r="S14" s="51" t="n">
+      <c r="S14" s="56" t="n">
         <v>4792.3100000000004</v>
       </c>
-      <c r="T14" s="51" t="n">
+      <c r="T14" s="56" t="n">
         <v>4792.3100000000004</v>
       </c>
-      <c r="U14" s="51" t="n">
+      <c r="U14" s="56" t="n">
         <v>4792.3100000000004</v>
       </c>
-      <c r="V14" s="51"/>
-      <c r="W14" s="51"/>
-      <c r="X14" s="51"/>
-      <c r="Z14" s="52" t="s">
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Z14" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="AA14" s="52" t="n">
+      <c r="AA14" s="51" t="n">
         <v>109</v>
       </c>
-      <c r="AB14" s="52" t="n">
+      <c r="AB14" s="53" t="n">
         <v>22324.3100000000013</v>
       </c>
-      <c r="AC14" s="52" t="n">
+      <c r="AC14" s="53" t="n">
         <v>22074.3199999999997</v>
       </c>
-      <c r="AD14" s="52" t="n">
+      <c r="AD14" s="53" t="n">
         <v>21798.4399999999987</v>
       </c>
-      <c r="AE14" s="51" t="n">
+      <c r="AE14" s="56" t="n">
         <v>22904.630000000001</v>
       </c>
-      <c r="AF14" s="51" t="n">
+      <c r="AF14" s="56" t="n">
         <v>21931.380000000001</v>
       </c>
-      <c r="AG14" s="51" t="n">
+      <c r="AG14" s="56" t="n">
         <v>22573.2900000000009</v>
       </c>
-      <c r="AH14" s="51"/>
-      <c r="AI14" s="51"/>
-      <c r="AJ14" s="51"/>
+      <c r="AH14" s="56"/>
+      <c r="AI14" s="56"/>
+      <c r="AJ14" s="56"/>
     </row>
     <row r="15" spans="2:36">
       <c r="B15" s="50" t="s">
@@ -3485,75 +3510,75 @@
       <c r="C15" s="50" t="n">
         <v>3</v>
       </c>
-      <c r="D15" s="50" t="n">
+      <c r="D15" s="52" t="n">
         <v>249.879999999999995</v>
       </c>
-      <c r="E15" s="50" t="n">
+      <c r="E15" s="52" t="n">
         <v>249.879999999999995</v>
       </c>
-      <c r="F15" s="50" t="n">
+      <c r="F15" s="52" t="n">
         <v>249.879999999999995</v>
       </c>
-      <c r="G15" s="51" t="n">
+      <c r="G15" s="56" t="n">
         <v>249.879999999999995</v>
       </c>
-      <c r="H15" s="51" t="n">
+      <c r="H15" s="56" t="n">
         <v>249.879999999999995</v>
       </c>
-      <c r="I15" s="51" t="n">
+      <c r="I15" s="56" t="n">
         <v>249.879999999999995</v>
       </c>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="N15" s="52" t="s">
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="N15" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="O15" s="52" t="n">
+      <c r="O15" s="51" t="n">
         <v>37</v>
       </c>
-      <c r="P15" s="52" t="n">
+      <c r="P15" s="53" t="n">
         <v>6632.55000000000018</v>
       </c>
-      <c r="Q15" s="52" t="n">
+      <c r="Q15" s="53" t="n">
         <v>6632.55000000000018</v>
       </c>
-      <c r="R15" s="52" t="n">
+      <c r="R15" s="53" t="n">
         <v>6632.55000000000018</v>
       </c>
-      <c r="S15" s="51" t="n">
+      <c r="S15" s="56" t="n">
         <v>7646.89999999999964</v>
       </c>
-      <c r="T15" s="51" t="n">
+      <c r="T15" s="56" t="n">
         <v>7538.64999999999964</v>
       </c>
-      <c r="U15" s="51" t="n">
+      <c r="U15" s="56" t="n">
         <v>7222.10000000000036</v>
       </c>
-      <c r="V15" s="51"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="51"/>
-      <c r="Z15" s="52" t="s">
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Z15" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="AA15" s="52" t="n">
+      <c r="AA15" s="51" t="n">
         <v>250</v>
       </c>
-      <c r="AB15" s="52" t="n">
+      <c r="AB15" s="53" t="n">
         <v>67085.4100000000035</v>
       </c>
-      <c r="AC15" s="52" t="n">
+      <c r="AC15" s="53" t="n">
         <v>66266.2100000000064</v>
       </c>
-      <c r="AD15" s="52" t="n">
+      <c r="AD15" s="53" t="n">
         <v>66267.6300000000047</v>
       </c>
-      <c r="AE15" s="51"/>
-      <c r="AF15" s="51"/>
-      <c r="AG15" s="51"/>
-      <c r="AH15" s="51"/>
-      <c r="AI15" s="51"/>
-      <c r="AJ15" s="51"/>
+      <c r="AE15" s="56"/>
+      <c r="AF15" s="56"/>
+      <c r="AG15" s="56"/>
+      <c r="AH15" s="56"/>
+      <c r="AI15" s="56"/>
+      <c r="AJ15" s="56"/>
     </row>
     <row r="16" spans="2:36">
       <c r="B16" s="50" t="s">
@@ -3562,81 +3587,81 @@
       <c r="C16" s="50" t="n">
         <v>32</v>
       </c>
-      <c r="D16" s="50" t="n">
+      <c r="D16" s="52" t="n">
         <v>1207.15000000000009</v>
       </c>
-      <c r="E16" s="50" t="n">
+      <c r="E16" s="52" t="n">
         <v>1205.20000000000005</v>
       </c>
-      <c r="F16" s="50" t="n">
+      <c r="F16" s="52" t="n">
         <v>1207.15000000000009</v>
       </c>
-      <c r="G16" s="51" t="n">
+      <c r="G16" s="56" t="n">
         <v>1215.96000000000004</v>
       </c>
-      <c r="H16" s="51" t="n">
+      <c r="H16" s="56" t="n">
         <v>1154.49000000000001</v>
       </c>
-      <c r="I16" s="51" t="n">
+      <c r="I16" s="56" t="n">
         <v>1215.96000000000004</v>
       </c>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="N16" s="52" t="s">
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="N16" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="O16" s="52" t="n">
+      <c r="O16" s="51" t="n">
         <v>50</v>
       </c>
-      <c r="P16" s="52" t="n">
+      <c r="P16" s="53" t="n">
         <v>6767.06999999999971</v>
       </c>
-      <c r="Q16" s="52" t="n">
+      <c r="Q16" s="53" t="n">
         <v>6767.06999999999971</v>
       </c>
-      <c r="R16" s="52" t="n">
+      <c r="R16" s="53" t="n">
         <v>6767.06999999999971</v>
       </c>
-      <c r="S16" s="51" t="n">
+      <c r="S16" s="56" t="n">
         <v>6772.97000000000025</v>
       </c>
-      <c r="T16" s="51" t="n">
+      <c r="T16" s="56" t="n">
         <v>6659.9399999999996</v>
       </c>
-      <c r="U16" s="51" t="n">
+      <c r="U16" s="56" t="n">
         <v>6846.38000000000011</v>
       </c>
-      <c r="V16" s="51"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="51"/>
-      <c r="Z16" s="52" t="s">
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Z16" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="AA16" s="52" t="n">
+      <c r="AA16" s="51" t="n">
         <v>24</v>
       </c>
-      <c r="AB16" s="52" t="n">
+      <c r="AB16" s="53" t="n">
         <v>266.870000000000005</v>
       </c>
-      <c r="AC16" s="52" t="n">
+      <c r="AC16" s="53" t="n">
         <v>263.300000000000011</v>
       </c>
-      <c r="AD16" s="52" t="n">
+      <c r="AD16" s="53" t="n">
         <v>266.870000000000005</v>
       </c>
-      <c r="AE16" s="51" t="n">
+      <c r="AE16" s="56" t="n">
         <v>323.189999999999998</v>
       </c>
-      <c r="AF16" s="51" t="n">
+      <c r="AF16" s="56" t="n">
         <v>307.649999999999977</v>
       </c>
-      <c r="AG16" s="51" t="n">
+      <c r="AG16" s="56" t="n">
         <v>306.990000000000009</v>
       </c>
-      <c r="AH16" s="51"/>
-      <c r="AI16" s="51"/>
-      <c r="AJ16" s="51"/>
+      <c r="AH16" s="56"/>
+      <c r="AI16" s="56"/>
+      <c r="AJ16" s="56"/>
     </row>
     <row r="17" spans="2:36">
       <c r="B17" s="50" t="s">
@@ -3645,81 +3670,81 @@
       <c r="C17" s="50" t="n">
         <v>37</v>
       </c>
-      <c r="D17" s="50" t="n">
+      <c r="D17" s="52" t="n">
         <v>1304.56999999999994</v>
       </c>
-      <c r="E17" s="50" t="n">
+      <c r="E17" s="52" t="n">
         <v>1304.56999999999994</v>
       </c>
-      <c r="F17" s="50" t="n">
+      <c r="F17" s="52" t="n">
         <v>1304.56999999999994</v>
       </c>
-      <c r="G17" s="51" t="n">
+      <c r="G17" s="56" t="n">
         <v>1445.04999999999995</v>
       </c>
-      <c r="H17" s="51" t="n">
+      <c r="H17" s="56" t="n">
         <v>1340.57999999999993</v>
       </c>
-      <c r="I17" s="51" t="n">
+      <c r="I17" s="56" t="n">
         <v>1381.34999999999991</v>
       </c>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="N17" s="52" t="s">
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="N17" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="O17" s="52" t="n">
+      <c r="O17" s="51" t="n">
         <v>25</v>
       </c>
-      <c r="P17" s="52" t="n">
+      <c r="P17" s="53" t="n">
         <v>5507.89000000000033</v>
       </c>
-      <c r="Q17" s="52" t="n">
+      <c r="Q17" s="53" t="n">
         <v>5507.89000000000033</v>
       </c>
-      <c r="R17" s="52" t="n">
+      <c r="R17" s="53" t="n">
         <v>5507.89000000000033</v>
       </c>
-      <c r="S17" s="51" t="n">
+      <c r="S17" s="56" t="n">
         <v>4469.8100000000004</v>
       </c>
-      <c r="T17" s="51" t="n">
+      <c r="T17" s="56" t="n">
         <v>4469.8100000000004</v>
       </c>
-      <c r="U17" s="51" t="n">
+      <c r="U17" s="56" t="n">
         <v>4469.8100000000004</v>
       </c>
-      <c r="V17" s="51"/>
-      <c r="W17" s="51"/>
-      <c r="X17" s="51"/>
-      <c r="Z17" s="52" t="s">
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Z17" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="AA17" s="52" t="n">
+      <c r="AA17" s="51" t="n">
         <v>48</v>
       </c>
-      <c r="AB17" s="52" t="n">
+      <c r="AB17" s="53" t="n">
         <v>560.07000000000005</v>
       </c>
-      <c r="AC17" s="52" t="n">
+      <c r="AC17" s="53" t="n">
         <v>558.639999999999986</v>
       </c>
-      <c r="AD17" s="52" t="n">
+      <c r="AD17" s="53" t="n">
         <v>553.950000000000045</v>
       </c>
-      <c r="AE17" s="51" t="n">
+      <c r="AE17" s="56" t="n">
         <v>593.080000000000041</v>
       </c>
-      <c r="AF17" s="51" t="n">
+      <c r="AF17" s="56" t="n">
         <v>563.110000000000014</v>
       </c>
-      <c r="AG17" s="51" t="n">
+      <c r="AG17" s="56" t="n">
         <v>593.080000000000041</v>
       </c>
-      <c r="AH17" s="51"/>
-      <c r="AI17" s="51"/>
-      <c r="AJ17" s="51"/>
+      <c r="AH17" s="56"/>
+      <c r="AI17" s="56"/>
+      <c r="AJ17" s="56"/>
     </row>
     <row r="18" spans="2:36">
       <c r="B18" s="50" t="s">
@@ -3728,81 +3753,81 @@
       <c r="C18" s="50" t="n">
         <v>10</v>
       </c>
-      <c r="D18" s="50" t="n">
+      <c r="D18" s="52" t="n">
         <v>100</v>
       </c>
-      <c r="E18" s="50" t="n">
+      <c r="E18" s="52" t="n">
         <v>100</v>
       </c>
-      <c r="F18" s="50" t="n">
+      <c r="F18" s="52" t="n">
         <v>100</v>
       </c>
-      <c r="G18" s="51" t="n">
+      <c r="G18" s="56" t="n">
         <v>100</v>
       </c>
-      <c r="H18" s="51" t="n">
+      <c r="H18" s="56" t="n">
         <v>100</v>
       </c>
-      <c r="I18" s="51" t="n">
+      <c r="I18" s="56" t="n">
         <v>100</v>
       </c>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="N18" s="52" t="s">
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="N18" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="O18" s="52" t="n">
+      <c r="O18" s="51" t="n">
         <v>37</v>
       </c>
-      <c r="P18" s="52" t="n">
+      <c r="P18" s="53" t="n">
         <v>5119.53999999999996</v>
       </c>
-      <c r="Q18" s="52" t="n">
+      <c r="Q18" s="53" t="n">
         <v>5119.53999999999996</v>
       </c>
-      <c r="R18" s="52" t="n">
+      <c r="R18" s="53" t="n">
         <v>5119.53999999999996</v>
       </c>
-      <c r="S18" s="51" t="n">
+      <c r="S18" s="56" t="n">
         <v>5396.32999999999993</v>
       </c>
-      <c r="T18" s="51" t="n">
+      <c r="T18" s="56" t="n">
         <v>5396.32999999999993</v>
       </c>
-      <c r="U18" s="51" t="n">
+      <c r="U18" s="56" t="n">
         <v>5396.32999999999993</v>
       </c>
-      <c r="V18" s="51"/>
-      <c r="W18" s="51"/>
-      <c r="X18" s="51"/>
-      <c r="Z18" s="52" t="s">
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Z18" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="AA18" s="52" t="n">
+      <c r="AA18" s="51" t="n">
         <v>143</v>
       </c>
-      <c r="AB18" s="52" t="n">
+      <c r="AB18" s="53" t="n">
         <v>1733.53999999999996</v>
       </c>
-      <c r="AC18" s="52" t="n">
+      <c r="AC18" s="53" t="n">
         <v>1724.97000000000003</v>
       </c>
-      <c r="AD18" s="52" t="n">
+      <c r="AD18" s="53" t="n">
         <v>1670.86999999999989</v>
       </c>
-      <c r="AE18" s="51" t="n">
+      <c r="AE18" s="56" t="n">
         <v>1730.98000000000002</v>
       </c>
-      <c r="AF18" s="51" t="n">
+      <c r="AF18" s="56" t="n">
         <v>1699.81999999999994</v>
       </c>
-      <c r="AG18" s="51" t="n">
+      <c r="AG18" s="56" t="n">
         <v>1696.54999999999995</v>
       </c>
-      <c r="AH18" s="51"/>
-      <c r="AI18" s="51"/>
-      <c r="AJ18" s="51"/>
+      <c r="AH18" s="56"/>
+      <c r="AI18" s="56"/>
+      <c r="AJ18" s="56"/>
     </row>
     <row r="19" spans="2:36">
       <c r="B19" s="50" t="s">
@@ -3811,77 +3836,77 @@
       <c r="C19" s="50" t="n">
         <v>12</v>
       </c>
-      <c r="D19" s="50" t="n">
+      <c r="D19" s="52" t="n">
         <v>77.0400000000000063</v>
       </c>
-      <c r="E19" s="50" t="n">
+      <c r="E19" s="52" t="n">
         <v>77.0400000000000063</v>
       </c>
-      <c r="F19" s="50" t="n">
+      <c r="F19" s="52" t="n">
         <v>77.0400000000000063</v>
       </c>
-      <c r="G19" s="51" t="n">
+      <c r="G19" s="56" t="n">
         <v>77.0400000000000063</v>
       </c>
-      <c r="H19" s="51" t="n">
+      <c r="H19" s="56" t="n">
         <v>77.0400000000000063</v>
       </c>
-      <c r="I19" s="51" t="n">
+      <c r="I19" s="56" t="n">
         <v>77.0400000000000063</v>
       </c>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="N19" s="52" t="s">
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="N19" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="O19" s="52" t="n">
+      <c r="O19" s="51" t="n">
         <v>50</v>
       </c>
-      <c r="P19" s="52" t="s">
+      <c r="P19" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="Q19" s="52" t="n">
+      <c r="Q19" s="53" t="n">
         <v>6789.90999999999985</v>
       </c>
-      <c r="R19" s="52" t="n">
+      <c r="R19" s="53" t="n">
         <v>6789.90999999999985</v>
       </c>
-      <c r="S19" s="51" t="n">
+      <c r="S19" s="56" t="n">
         <v>8301.60000000000036</v>
       </c>
-      <c r="T19" s="51" t="n">
+      <c r="T19" s="56" t="n">
         <v>7923.69999999999982</v>
       </c>
-      <c r="U19" s="51" t="n">
+      <c r="U19" s="56" t="n">
         <v>8120.14000000000033</v>
       </c>
-      <c r="V19" s="51"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="51"/>
-      <c r="Z19" s="52" t="s">
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Z19" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="AA19" s="52" t="n">
+      <c r="AA19" s="51" t="n">
         <v>195</v>
       </c>
-      <c r="AB19" s="52" t="n">
+      <c r="AB19" s="53" t="n">
         <v>2260.05999999999995</v>
       </c>
-      <c r="AC19" s="52" t="n">
+      <c r="AC19" s="53" t="n">
         <v>2280.65000000000009</v>
       </c>
-      <c r="AD19" s="52" t="n">
+      <c r="AD19" s="53" t="n">
         <v>2236.98999999999978</v>
       </c>
-      <c r="AE19" s="51"/>
-      <c r="AF19" s="51"/>
-      <c r="AG19" s="51" t="n">
+      <c r="AE19" s="56"/>
+      <c r="AF19" s="56"/>
+      <c r="AG19" s="56" t="n">
         <v>2352.71000000000004</v>
       </c>
-      <c r="AH19" s="51"/>
-      <c r="AI19" s="51"/>
-      <c r="AJ19" s="51"/>
+      <c r="AH19" s="56"/>
+      <c r="AI19" s="56"/>
+      <c r="AJ19" s="56"/>
     </row>
     <row r="20" spans="2:36">
       <c r="B20" s="50" t="s">
@@ -3890,81 +3915,81 @@
       <c r="C20" s="50" t="n">
         <v>19</v>
       </c>
-      <c r="D20" s="50" t="n">
+      <c r="D20" s="52" t="n">
         <v>97.3799999999999955</v>
       </c>
-      <c r="E20" s="50" t="n">
+      <c r="E20" s="52" t="n">
         <v>97.3799999999999955</v>
       </c>
-      <c r="F20" s="50" t="n">
+      <c r="F20" s="52" t="n">
         <v>97.3799999999999955</v>
       </c>
-      <c r="G20" s="51" t="n">
+      <c r="G20" s="56" t="n">
         <v>99.4500000000000028</v>
       </c>
-      <c r="H20" s="51" t="n">
+      <c r="H20" s="56" t="n">
         <v>99.4500000000000028</v>
       </c>
-      <c r="I20" s="51" t="n">
+      <c r="I20" s="56" t="n">
         <v>99.4500000000000028</v>
       </c>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="N20" s="52" t="s">
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="N20" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="O20" s="52" t="n">
+      <c r="O20" s="51" t="n">
         <v>25</v>
       </c>
-      <c r="P20" s="52" t="n">
+      <c r="P20" s="53" t="n">
         <v>4293.02000000000044</v>
       </c>
-      <c r="Q20" s="52" t="n">
+      <c r="Q20" s="53" t="n">
         <v>4293.02000000000044</v>
       </c>
-      <c r="R20" s="52" t="n">
+      <c r="R20" s="53" t="n">
         <v>4293.02000000000044</v>
       </c>
-      <c r="S20" s="51" t="n">
+      <c r="S20" s="56" t="n">
         <v>5853.32999999999993</v>
       </c>
-      <c r="T20" s="51" t="n">
+      <c r="T20" s="56" t="n">
         <v>5775.96000000000004</v>
       </c>
-      <c r="U20" s="51" t="n">
+      <c r="U20" s="56" t="n">
         <v>5775.96000000000004</v>
       </c>
-      <c r="V20" s="51"/>
-      <c r="W20" s="51"/>
-      <c r="X20" s="51"/>
-      <c r="Z20" s="52" t="s">
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Z20" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="AA20" s="52" t="n">
+      <c r="AA20" s="51" t="n">
         <v>43</v>
       </c>
-      <c r="AB20" s="52" t="n">
+      <c r="AB20" s="53" t="n">
         <v>5243</v>
       </c>
-      <c r="AC20" s="52" t="n">
+      <c r="AC20" s="53" t="n">
         <v>5238</v>
       </c>
-      <c r="AD20" s="52" t="n">
+      <c r="AD20" s="53" t="n">
         <v>5225</v>
       </c>
-      <c r="AE20" s="51" t="n">
+      <c r="AE20" s="56" t="n">
         <v>5478</v>
       </c>
-      <c r="AF20" s="51" t="n">
+      <c r="AF20" s="56" t="n">
         <v>5392</v>
       </c>
-      <c r="AG20" s="51" t="n">
+      <c r="AG20" s="56" t="n">
         <v>5476</v>
       </c>
-      <c r="AH20" s="51"/>
-      <c r="AI20" s="51"/>
-      <c r="AJ20" s="51"/>
+      <c r="AH20" s="56"/>
+      <c r="AI20" s="56"/>
+      <c r="AJ20" s="56"/>
     </row>
     <row r="21" spans="2:36">
       <c r="B21" s="50" t="s">
@@ -3973,81 +3998,81 @@
       <c r="C21" s="50" t="n">
         <v>25</v>
       </c>
-      <c r="D21" s="50" t="n">
+      <c r="D21" s="52" t="n">
         <v>150.400000000000006</v>
       </c>
-      <c r="E21" s="50" t="n">
+      <c r="E21" s="52" t="n">
         <v>150.400000000000006</v>
       </c>
-      <c r="F21" s="50" t="n">
+      <c r="F21" s="52" t="n">
         <v>150.400000000000006</v>
       </c>
-      <c r="G21" s="51" t="n">
+      <c r="G21" s="56" t="n">
         <v>132.75</v>
       </c>
-      <c r="H21" s="51" t="n">
+      <c r="H21" s="56" t="n">
         <v>132.75</v>
       </c>
-      <c r="I21" s="51" t="n">
+      <c r="I21" s="56" t="n">
         <v>132.75</v>
       </c>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="N21" s="52" t="s">
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="N21" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="O21" s="52" t="n">
+      <c r="O21" s="51" t="n">
         <v>25</v>
       </c>
-      <c r="P21" s="52" t="n">
+      <c r="P21" s="53" t="n">
         <v>5246.27999999999975</v>
       </c>
-      <c r="Q21" s="52" t="n">
+      <c r="Q21" s="53" t="n">
         <v>5246.27999999999975</v>
       </c>
-      <c r="R21" s="52" t="n">
+      <c r="R21" s="53" t="n">
         <v>5246.27999999999975</v>
       </c>
-      <c r="S21" s="51" t="n">
+      <c r="S21" s="56" t="n">
         <v>5246.27999999999975</v>
       </c>
-      <c r="T21" s="51" t="n">
+      <c r="T21" s="56" t="n">
         <v>5246.27999999999975</v>
       </c>
-      <c r="U21" s="51" t="n">
+      <c r="U21" s="56" t="n">
         <v>5246.27999999999975</v>
       </c>
-      <c r="V21" s="51"/>
-      <c r="W21" s="51"/>
-      <c r="X21" s="51"/>
-      <c r="Z21" s="52" t="s">
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
+      <c r="Z21" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="AA21" s="52" t="n">
+      <c r="AA21" s="51" t="n">
         <v>133</v>
       </c>
-      <c r="AB21" s="52" t="n">
+      <c r="AB21" s="53" t="n">
         <v>12275</v>
       </c>
-      <c r="AC21" s="52" t="n">
+      <c r="AC21" s="53" t="n">
         <v>12252</v>
       </c>
-      <c r="AD21" s="52" t="n">
+      <c r="AD21" s="53" t="n">
         <v>12083</v>
       </c>
-      <c r="AE21" s="51" t="n">
+      <c r="AE21" s="56" t="n">
         <v>12196</v>
       </c>
-      <c r="AF21" s="51" t="n">
+      <c r="AF21" s="56" t="n">
         <v>12194</v>
       </c>
-      <c r="AG21" s="51" t="n">
+      <c r="AG21" s="56" t="n">
         <v>12012</v>
       </c>
-      <c r="AH21" s="51"/>
-      <c r="AI21" s="51"/>
-      <c r="AJ21" s="51"/>
+      <c r="AH21" s="56"/>
+      <c r="AI21" s="56"/>
+      <c r="AJ21" s="56"/>
     </row>
     <row r="22" spans="2:36">
       <c r="B22" s="50" t="s">
@@ -4056,79 +4081,79 @@
       <c r="C22" s="50" t="n">
         <v>6</v>
       </c>
-      <c r="D22" s="50" t="n">
+      <c r="D22" s="52" t="n">
         <v>147</v>
       </c>
-      <c r="E22" s="50" t="n">
+      <c r="E22" s="52" t="n">
         <v>147</v>
       </c>
-      <c r="F22" s="50" t="n">
+      <c r="F22" s="52" t="n">
         <v>147</v>
       </c>
-      <c r="G22" s="51" t="n">
+      <c r="G22" s="56" t="n">
         <v>147</v>
       </c>
-      <c r="H22" s="51" t="n">
+      <c r="H22" s="56" t="n">
         <v>147</v>
       </c>
-      <c r="I22" s="51" t="n">
+      <c r="I22" s="56" t="n">
         <v>147</v>
       </c>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="N22" s="52" t="s">
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="N22" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="O22" s="52" t="n">
+      <c r="O22" s="51" t="n">
         <v>25</v>
       </c>
-      <c r="P22" s="52" t="n">
+      <c r="P22" s="53" t="n">
         <v>4087.21000000000004</v>
       </c>
-      <c r="Q22" s="52" t="n">
+      <c r="Q22" s="53" t="n">
         <v>4087.21000000000004</v>
       </c>
-      <c r="R22" s="52" t="n">
+      <c r="R22" s="53" t="n">
         <v>4087.21000000000004</v>
       </c>
-      <c r="S22" s="51" t="n">
+      <c r="S22" s="56" t="n">
         <v>3842.76000000000022</v>
       </c>
-      <c r="T22" s="51" t="n">
+      <c r="T22" s="56" t="n">
         <v>3842.76000000000022</v>
       </c>
-      <c r="U22" s="51" t="n">
+      <c r="U22" s="56" t="n">
         <v>3842.76000000000022</v>
       </c>
-      <c r="V22" s="51"/>
-      <c r="W22" s="51"/>
-      <c r="X22" s="51"/>
-      <c r="Z22" s="52" t="s">
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Z22" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="AA22" s="52" t="n">
+      <c r="AA22" s="51" t="n">
         <v>258</v>
       </c>
-      <c r="AB22" s="52" t="n">
+      <c r="AB22" s="53" t="n">
         <v>22289</v>
       </c>
-      <c r="AC22" s="52" t="n">
+      <c r="AC22" s="53" t="n">
         <v>22289</v>
       </c>
-      <c r="AD22" s="52" t="n">
+      <c r="AD22" s="53" t="n">
         <v>22289</v>
       </c>
-      <c r="AE22" s="51" t="n">
+      <c r="AE22" s="56" t="n">
         <v>22414</v>
       </c>
-      <c r="AF22" s="51" t="n">
+      <c r="AF22" s="56" t="n">
         <v>22414</v>
       </c>
-      <c r="AG22" s="51"/>
-      <c r="AH22" s="51"/>
-      <c r="AI22" s="51"/>
-      <c r="AJ22" s="51"/>
+      <c r="AG22" s="56"/>
+      <c r="AH22" s="56"/>
+      <c r="AI22" s="56"/>
+      <c r="AJ22" s="56"/>
     </row>
     <row r="23" spans="2:36">
       <c r="B23" s="50" t="s">
@@ -4137,81 +4162,81 @@
       <c r="C23" s="50" t="n">
         <v>65</v>
       </c>
-      <c r="D23" s="50" t="n">
+      <c r="D23" s="52" t="n">
         <v>559.009999999999991</v>
       </c>
-      <c r="E23" s="50" t="n">
+      <c r="E23" s="52" t="n">
         <v>559.009999999999991</v>
       </c>
-      <c r="F23" s="50" t="n">
+      <c r="F23" s="52" t="n">
         <v>559.009999999999991</v>
       </c>
-      <c r="G23" s="51" t="n">
+      <c r="G23" s="56" t="n">
         <v>655.799999999999955</v>
       </c>
-      <c r="H23" s="51" t="n">
+      <c r="H23" s="56" t="n">
         <v>633.590000000000032</v>
       </c>
-      <c r="I23" s="51" t="n">
+      <c r="I23" s="56" t="n">
         <v>652.590000000000032</v>
       </c>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="N23" s="52" t="s">
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="N23" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="O23" s="52" t="n">
+      <c r="O23" s="51" t="n">
         <v>26</v>
       </c>
-      <c r="P23" s="52" t="n">
+      <c r="P23" s="53" t="n">
         <v>2109.42999999999984</v>
       </c>
-      <c r="Q23" s="52" t="n">
+      <c r="Q23" s="53" t="n">
         <v>2109.42999999999984</v>
       </c>
-      <c r="R23" s="52" t="n">
+      <c r="R23" s="53" t="n">
         <v>2109.42999999999984</v>
       </c>
-      <c r="S23" s="51" t="n">
+      <c r="S23" s="56" t="n">
         <v>2067.86999999999989</v>
       </c>
-      <c r="T23" s="51" t="n">
+      <c r="T23" s="56" t="n">
         <v>2033.3599999999999</v>
       </c>
-      <c r="U23" s="51" t="n">
+      <c r="U23" s="56" t="n">
         <v>2033.3599999999999</v>
       </c>
-      <c r="V23" s="51"/>
-      <c r="W23" s="51"/>
-      <c r="X23" s="51"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
       <c r="Z23" s="50" t="s">
         <v>67</v>
       </c>
       <c r="AA23" s="50" t="n">
         <v>17</v>
       </c>
-      <c r="AB23" s="52" t="n">
+      <c r="AB23" s="53" t="n">
         <v>129.150000000000006</v>
       </c>
-      <c r="AC23" s="52" t="n">
+      <c r="AC23" s="53" t="n">
         <v>129.150000000000006</v>
       </c>
-      <c r="AD23" s="52" t="n">
+      <c r="AD23" s="53" t="n">
         <v>129.150000000000006</v>
       </c>
-      <c r="AE23" s="51" t="n">
+      <c r="AE23" s="56" t="n">
         <v>127.180000000000007</v>
       </c>
-      <c r="AF23" s="51" t="n">
+      <c r="AF23" s="56" t="n">
         <v>127.180000000000007</v>
       </c>
-      <c r="AG23" s="51" t="n">
+      <c r="AG23" s="56" t="n">
         <v>127.180000000000007</v>
       </c>
-      <c r="AH23" s="51"/>
-      <c r="AI23" s="51"/>
-      <c r="AJ23" s="51"/>
+      <c r="AH23" s="56"/>
+      <c r="AI23" s="56"/>
+      <c r="AJ23" s="56"/>
     </row>
     <row r="24" spans="2:36">
       <c r="B24" s="50" t="s">
@@ -4220,81 +4245,81 @@
       <c r="C24" s="50" t="n">
         <v>4</v>
       </c>
-      <c r="D24" s="50" t="n">
+      <c r="D24" s="52" t="n">
         <v>154</v>
       </c>
-      <c r="E24" s="50" t="n">
+      <c r="E24" s="52" t="n">
         <v>165</v>
       </c>
-      <c r="F24" s="50" t="n">
+      <c r="F24" s="52" t="n">
         <v>154</v>
       </c>
-      <c r="G24" s="51" t="n">
+      <c r="G24" s="56" t="n">
         <v>154</v>
       </c>
-      <c r="H24" s="51" t="n">
+      <c r="H24" s="56" t="n">
         <v>154</v>
       </c>
-      <c r="I24" s="51" t="n">
+      <c r="I24" s="56" t="n">
         <v>154</v>
       </c>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="N24" s="52" t="s">
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="N24" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="O24" s="52" t="n">
+      <c r="O24" s="51" t="n">
         <v>79</v>
       </c>
-      <c r="P24" s="52" t="n">
+      <c r="P24" s="53" t="n">
         <v>9035.18000000000029</v>
       </c>
-      <c r="Q24" s="52" t="n">
+      <c r="Q24" s="53" t="n">
         <v>8860.46999999999935</v>
       </c>
-      <c r="R24" s="52" t="n">
+      <c r="R24" s="53" t="n">
         <v>8865.38999999999942</v>
       </c>
-      <c r="S24" s="51" t="n">
+      <c r="S24" s="56" t="n">
         <v>9230.75</v>
       </c>
-      <c r="T24" s="51" t="n">
+      <c r="T24" s="56" t="n">
         <v>8973</v>
       </c>
-      <c r="U24" s="51" t="n">
+      <c r="U24" s="56" t="n">
         <v>8969.48999999999978</v>
       </c>
-      <c r="V24" s="51"/>
-      <c r="W24" s="51"/>
-      <c r="X24" s="51"/>
-      <c r="Z24" s="52" t="s">
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Z24" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="AA24" s="52" t="n">
+      <c r="AA24" s="51" t="n">
         <v>10</v>
       </c>
-      <c r="AB24" s="52" t="n">
+      <c r="AB24" s="53" t="n">
         <v>146</v>
       </c>
-      <c r="AC24" s="52" t="n">
+      <c r="AC24" s="53" t="n">
         <v>146</v>
       </c>
-      <c r="AD24" s="52" t="n">
+      <c r="AD24" s="53" t="n">
         <v>146</v>
       </c>
-      <c r="AE24" s="51" t="n">
+      <c r="AE24" s="56" t="n">
         <v>146</v>
       </c>
-      <c r="AF24" s="51" t="n">
+      <c r="AF24" s="56" t="n">
         <v>146</v>
       </c>
-      <c r="AG24" s="51" t="n">
+      <c r="AG24" s="56" t="n">
         <v>146</v>
       </c>
-      <c r="AH24" s="51"/>
-      <c r="AI24" s="51"/>
-      <c r="AJ24" s="51"/>
+      <c r="AH24" s="56"/>
+      <c r="AI24" s="56"/>
+      <c r="AJ24" s="56"/>
     </row>
     <row r="25" spans="2:36">
       <c r="B25" s="50" t="s">
@@ -4303,75 +4328,75 @@
       <c r="C25" s="50" t="n">
         <v>5</v>
       </c>
-      <c r="D25" s="50" t="n">
+      <c r="D25" s="52" t="n">
         <v>258</v>
       </c>
-      <c r="E25" s="50" t="n">
+      <c r="E25" s="52" t="n">
         <v>258</v>
       </c>
-      <c r="F25" s="50" t="n">
+      <c r="F25" s="52" t="n">
         <v>258</v>
       </c>
-      <c r="G25" s="51" t="n">
+      <c r="G25" s="56" t="n">
         <v>248</v>
       </c>
-      <c r="H25" s="51" t="n">
+      <c r="H25" s="56" t="n">
         <v>248</v>
       </c>
-      <c r="I25" s="51" t="n">
+      <c r="I25" s="56" t="n">
         <v>248</v>
       </c>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="N25" s="52" t="s">
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="N25" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="O25" s="52" t="n">
+      <c r="O25" s="51" t="n">
         <v>344</v>
       </c>
-      <c r="P25" s="52" t="n">
+      <c r="P25" s="53" t="n">
         <v>13172.6499999999996</v>
       </c>
-      <c r="Q25" s="52" t="n">
+      <c r="Q25" s="53" t="n">
         <v>13194.0300000000007</v>
       </c>
-      <c r="R25" s="52" t="n">
+      <c r="R25" s="53" t="n">
         <v>13100.4699999999993</v>
       </c>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="51"/>
-      <c r="Z25" s="52" t="s">
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
+      <c r="Z25" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="AA25" s="52" t="n">
+      <c r="AA25" s="51" t="n">
         <v>56</v>
       </c>
-      <c r="AB25" s="52" t="n">
+      <c r="AB25" s="53" t="n">
         <v>27500</v>
       </c>
-      <c r="AC25" s="52" t="n">
+      <c r="AC25" s="53" t="n">
         <v>27500</v>
       </c>
-      <c r="AD25" s="52" t="n">
+      <c r="AD25" s="53" t="n">
         <v>27500</v>
       </c>
-      <c r="AE25" s="51" t="n">
+      <c r="AE25" s="56" t="n">
         <v>27500</v>
       </c>
-      <c r="AF25" s="51" t="n">
+      <c r="AF25" s="56" t="n">
         <v>27500</v>
       </c>
-      <c r="AG25" s="51" t="n">
+      <c r="AG25" s="56" t="n">
         <v>27500</v>
       </c>
-      <c r="AH25" s="51"/>
-      <c r="AI25" s="51"/>
-      <c r="AJ25" s="51"/>
+      <c r="AH25" s="56"/>
+      <c r="AI25" s="56"/>
+      <c r="AJ25" s="56"/>
     </row>
     <row r="26" spans="2:36">
       <c r="B26" s="50" t="s">
@@ -4380,81 +4405,81 @@
       <c r="C26" s="50" t="n">
         <v>6</v>
       </c>
-      <c r="D26" s="50" t="n">
+      <c r="D26" s="52" t="n">
         <v>162</v>
       </c>
-      <c r="E26" s="50" t="n">
+      <c r="E26" s="52" t="n">
         <v>162</v>
       </c>
-      <c r="F26" s="50" t="n">
+      <c r="F26" s="52" t="n">
         <v>162</v>
       </c>
-      <c r="G26" s="51" t="n">
+      <c r="G26" s="56" t="n">
         <v>162</v>
       </c>
-      <c r="H26" s="51" t="n">
+      <c r="H26" s="56" t="n">
         <v>162</v>
       </c>
-      <c r="I26" s="51" t="n">
+      <c r="I26" s="56" t="n">
         <v>162</v>
       </c>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="N26" s="52" t="s">
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="N26" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="O26" s="52" t="n">
+      <c r="O26" s="51" t="n">
         <v>140</v>
       </c>
-      <c r="P26" s="52" t="n">
+      <c r="P26" s="53" t="n">
         <v>726</v>
       </c>
-      <c r="Q26" s="52" t="n">
+      <c r="Q26" s="53" t="n">
         <v>720</v>
       </c>
-      <c r="R26" s="52" t="n">
+      <c r="R26" s="53" t="n">
         <v>718</v>
       </c>
-      <c r="S26" s="51" t="n">
+      <c r="S26" s="56" t="n">
         <v>554</v>
       </c>
-      <c r="T26" s="51" t="n">
+      <c r="T26" s="56" t="n">
         <v>538</v>
       </c>
-      <c r="U26" s="51" t="n">
+      <c r="U26" s="56" t="n">
         <v>535</v>
       </c>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="X26" s="51"/>
-      <c r="Z26" s="52" t="s">
+      <c r="V26" s="56"/>
+      <c r="W26" s="56"/>
+      <c r="X26" s="56"/>
+      <c r="Z26" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="AA26" s="52" t="n">
+      <c r="AA26" s="51" t="n">
         <v>56</v>
       </c>
-      <c r="AB26" s="52" t="n">
+      <c r="AB26" s="53" t="n">
         <v>964.259999999999991</v>
       </c>
-      <c r="AC26" s="52" t="n">
+      <c r="AC26" s="53" t="n">
         <v>964.259999999999991</v>
       </c>
-      <c r="AD26" s="52" t="n">
+      <c r="AD26" s="53" t="n">
         <v>996.509999999999991</v>
       </c>
-      <c r="AE26" s="51" t="n">
+      <c r="AE26" s="56" t="n">
         <v>1038.02999999999997</v>
       </c>
-      <c r="AF26" s="51" t="n">
+      <c r="AF26" s="56" t="n">
         <v>1027.23000000000002</v>
       </c>
-      <c r="AG26" s="51" t="n">
+      <c r="AG26" s="56" t="n">
         <v>1038.02999999999997</v>
       </c>
-      <c r="AH26" s="51"/>
-      <c r="AI26" s="51"/>
-      <c r="AJ26" s="51"/>
+      <c r="AH26" s="56"/>
+      <c r="AI26" s="56"/>
+      <c r="AJ26" s="56"/>
     </row>
     <row r="27" spans="26:36">
       <c r="Z27" s="50" t="s">
@@ -4463,27 +4488,27 @@
       <c r="AA27" s="50" t="n">
         <v>4</v>
       </c>
-      <c r="AB27" s="50" t="n">
+      <c r="AB27" s="52" t="n">
         <v>826.080000000000041</v>
       </c>
-      <c r="AC27" s="50" t="n">
+      <c r="AC27" s="52" t="n">
         <v>826.080000000000041</v>
       </c>
-      <c r="AD27" s="50" t="n">
+      <c r="AD27" s="52" t="n">
         <v>826.080000000000041</v>
       </c>
-      <c r="AE27" s="51" t="n">
+      <c r="AE27" s="56" t="n">
         <v>751.059999999999945</v>
       </c>
-      <c r="AF27" s="51" t="n">
+      <c r="AF27" s="56" t="n">
         <v>751.059999999999945</v>
       </c>
-      <c r="AG27" s="51" t="n">
+      <c r="AG27" s="56" t="n">
         <v>751.059999999999945</v>
       </c>
-      <c r="AH27" s="51"/>
-      <c r="AI27" s="51"/>
-      <c r="AJ27" s="51"/>
+      <c r="AH27" s="56"/>
+      <c r="AI27" s="56"/>
+      <c r="AJ27" s="56"/>
     </row>
     <row r="28" spans="26:36">
       <c r="Z28" s="50" t="s">
@@ -4492,27 +4517,27 @@
       <c r="AA28" s="50" t="n">
         <v>5</v>
       </c>
-      <c r="AB28" s="50" t="n">
+      <c r="AB28" s="52" t="n">
         <v>456.579999999999984</v>
       </c>
-      <c r="AC28" s="50" t="n">
+      <c r="AC28" s="52" t="n">
         <v>456.579999999999984</v>
       </c>
-      <c r="AD28" s="50" t="n">
+      <c r="AD28" s="52" t="n">
         <v>456.579999999999984</v>
       </c>
-      <c r="AE28" s="51" t="n">
+      <c r="AE28" s="56" t="n">
         <v>456.579999999999984</v>
       </c>
-      <c r="AF28" s="51" t="n">
+      <c r="AF28" s="56" t="n">
         <v>456.579999999999984</v>
       </c>
-      <c r="AG28" s="51" t="n">
+      <c r="AG28" s="56" t="n">
         <v>456.579999999999984</v>
       </c>
-      <c r="AH28" s="51"/>
-      <c r="AI28" s="51"/>
-      <c r="AJ28" s="51"/>
+      <c r="AH28" s="56"/>
+      <c r="AI28" s="56"/>
+      <c r="AJ28" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -4532,7 +4557,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1643156947" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1643157189" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4541,16 +4566,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1643156947" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1643156947" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1643156947" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1643156947" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1643157189" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1643157189" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1643157189" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1643157189" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1643156947" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1643157189" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -4561,23 +4586,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:AJ28"/>
+  <dimension ref="A1:XFD28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="Z6" workbookViewId="0">
-      <selection activeCell="AG29" sqref="AG29"/>
+    <sheetView view="normal" topLeftCell="T13" workbookViewId="0">
+      <selection activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.20"/>
   <cols>
-    <col min="3" max="3" width="19.138614" customWidth="1"/>
-    <col min="5" max="5" width="10.574257" customWidth="1"/>
-    <col min="7" max="7" width="9.574257" customWidth="1"/>
-    <col min="15" max="15" width="19.138614" customWidth="1"/>
-    <col min="17" max="17" width="10.574257" customWidth="1"/>
-    <col min="19" max="20" width="9.574257" customWidth="1"/>
-    <col min="27" max="27" width="19.138614" customWidth="1"/>
-    <col min="29" max="29" width="10.574257" customWidth="1"/>
-    <col min="31" max="32" width="9.574257" customWidth="1"/>
+    <col min="1" max="2" width="9.138614" style="54"/>
+    <col min="3" max="3" width="19.138614" customWidth="1" style="54"/>
+    <col min="4" max="4" width="9.752475" customWidth="1" style="54"/>
+    <col min="5" max="5" width="10.574257" customWidth="1" style="54"/>
+    <col min="6" max="6" width="9.752475" customWidth="1" style="54"/>
+    <col min="7" max="7" width="9.574257" customWidth="1" style="54"/>
+    <col min="8" max="14" width="9.138614" style="54"/>
+    <col min="15" max="15" width="19.138614" customWidth="1" style="54"/>
+    <col min="16" max="16" width="9.752475" customWidth="1" style="54"/>
+    <col min="17" max="17" width="10.574257" customWidth="1" style="54"/>
+    <col min="18" max="18" width="9.752475" customWidth="1" style="54"/>
+    <col min="19" max="20" width="9.574257" customWidth="1" style="54"/>
+    <col min="21" max="26" width="9.138614" style="54"/>
+    <col min="27" max="27" width="19.138614" customWidth="1" style="54"/>
+    <col min="28" max="30" width="10.861386" customWidth="1" style="54"/>
+    <col min="31" max="32" width="9.574257" customWidth="1" style="54"/>
+    <col min="33" max="16384" width="9.138614" style="54"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:36">
@@ -4616,8 +4649,8 @@
       <c r="AJ2" s="49"/>
     </row>
     <row r="3" spans="2:36">
-      <c r="B3" s="52"/>
-      <c r="C3" s="52" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51" t="s">
         <v>79</v>
       </c>
       <c r="D3" s="49" t="s">
@@ -4635,8 +4668,8 @@
       </c>
       <c r="K3" s="49"/>
       <c r="L3" s="49"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52" t="s">
+      <c r="N3" s="51"/>
+      <c r="O3" s="51" t="s">
         <v>79</v>
       </c>
       <c r="P3" s="49" t="s">
@@ -4654,8 +4687,8 @@
       </c>
       <c r="W3" s="49"/>
       <c r="X3" s="49"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52" t="s">
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51" t="s">
         <v>79</v>
       </c>
       <c r="AB3" s="49" t="s">
@@ -4675,103 +4708,103 @@
       <c r="AJ3" s="49"/>
     </row>
     <row r="4" spans="2:36">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="J4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="51" t="s">
+      <c r="K4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="52" t="s">
+      <c r="N4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="52" t="s">
+      <c r="O4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="51" t="s">
+      <c r="P4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="51" t="s">
+      <c r="Q4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="51" t="s">
+      <c r="R4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="51" t="s">
+      <c r="S4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="51" t="s">
+      <c r="T4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="51" t="s">
+      <c r="U4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="V4" s="51" t="s">
+      <c r="V4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="W4" s="51" t="s">
+      <c r="W4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="51" t="s">
+      <c r="X4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="52" t="s">
+      <c r="Z4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="AA4" s="52" t="s">
+      <c r="AA4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="AB4" s="51" t="s">
+      <c r="AB4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AC4" s="51" t="s">
+      <c r="AC4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AD4" s="51" t="s">
+      <c r="AD4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AE4" s="51" t="s">
+      <c r="AE4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AF4" s="51" t="s">
+      <c r="AF4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AG4" s="51" t="s">
+      <c r="AG4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AH4" s="51" t="s">
+      <c r="AH4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AI4" s="51" t="s">
+      <c r="AI4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AJ4" s="51" t="s">
+      <c r="AJ4" s="55" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4782,81 +4815,81 @@
       <c r="C5" s="50" t="n">
         <v>140</v>
       </c>
-      <c r="D5" s="50" t="n">
+      <c r="D5" s="52" t="n">
         <v>1322.1099999999999</v>
       </c>
-      <c r="E5" s="50" t="n">
+      <c r="E5" s="52" t="n">
         <v>1318.02999999999997</v>
       </c>
-      <c r="F5" s="50" t="n">
+      <c r="F5" s="52" t="n">
         <v>1309.68000000000006</v>
       </c>
-      <c r="G5" s="51" t="n">
+      <c r="G5" s="56" t="n">
         <v>1484.38000000000011</v>
       </c>
-      <c r="H5" s="51" t="n">
+      <c r="H5" s="56" t="n">
         <v>1435.76999999999998</v>
       </c>
-      <c r="I5" s="51" t="n">
+      <c r="I5" s="56" t="n">
         <v>1425.65000000000009</v>
       </c>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="N5" s="52" t="s">
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="N5" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="52" t="n">
+      <c r="O5" s="51" t="n">
         <v>24</v>
       </c>
-      <c r="P5" s="52" t="n">
+      <c r="P5" s="53" t="n">
         <v>2139</v>
       </c>
-      <c r="Q5" s="52" t="n">
+      <c r="Q5" s="53" t="n">
         <v>2122</v>
       </c>
-      <c r="R5" s="52" t="n">
+      <c r="R5" s="53" t="n">
         <v>2011</v>
       </c>
-      <c r="S5" s="51" t="n">
+      <c r="S5" s="56" t="n">
         <v>1691</v>
       </c>
-      <c r="T5" s="51" t="n">
+      <c r="T5" s="56" t="n">
         <v>1691</v>
       </c>
-      <c r="U5" s="51" t="n">
+      <c r="U5" s="56" t="n">
         <v>1691</v>
       </c>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51"/>
-      <c r="Z5" s="52" t="s">
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Z5" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="AA5" s="52" t="n">
+      <c r="AA5" s="51" t="n">
         <v>38</v>
       </c>
-      <c r="AB5" s="52" t="n">
+      <c r="AB5" s="53" t="n">
         <v>42676.7699999999968</v>
       </c>
-      <c r="AC5" s="52" t="n">
+      <c r="AC5" s="53" t="n">
         <v>42676.7699999999968</v>
       </c>
-      <c r="AD5" s="52" t="n">
+      <c r="AD5" s="53" t="n">
         <v>42676.7699999999968</v>
       </c>
-      <c r="AE5" s="51" t="n">
+      <c r="AE5" s="56" t="n">
         <v>44106.739999999998</v>
       </c>
-      <c r="AF5" s="51" t="n">
+      <c r="AF5" s="56" t="n">
         <v>43770.4100000000035</v>
       </c>
-      <c r="AG5" s="51" t="n">
+      <c r="AG5" s="56" t="n">
         <v>44106.739999999998</v>
       </c>
-      <c r="AH5" s="51"/>
-      <c r="AI5" s="51"/>
-      <c r="AJ5" s="51"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
     </row>
     <row r="6" spans="2:36">
       <c r="B6" s="50" t="s">
@@ -4865,69 +4898,69 @@
       <c r="C6" s="50" t="n">
         <v>267</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="N6" s="52" t="s">
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="N6" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="52" t="n">
+      <c r="O6" s="51" t="n">
         <v>48</v>
       </c>
-      <c r="P6" s="52" t="n">
+      <c r="P6" s="53" t="n">
         <v>21617.4500000000007</v>
       </c>
-      <c r="Q6" s="52" t="n">
+      <c r="Q6" s="53" t="n">
         <v>21055.4500000000007</v>
       </c>
-      <c r="R6" s="52" t="n">
+      <c r="R6" s="53" t="n">
         <v>21657.369999999999</v>
       </c>
-      <c r="S6" s="51" t="n">
+      <c r="S6" s="56" t="n">
         <v>23146.5900000000001</v>
       </c>
-      <c r="T6" s="51" t="n">
+      <c r="T6" s="56" t="n">
         <v>23140.3199999999997</v>
       </c>
-      <c r="U6" s="51" t="n">
+      <c r="U6" s="56" t="n">
         <v>22425.0299999999988</v>
       </c>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="51"/>
-      <c r="Z6" s="52" t="s">
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Z6" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="52" t="n">
+      <c r="AA6" s="51" t="n">
         <v>52</v>
       </c>
-      <c r="AB6" s="52" t="n">
+      <c r="AB6" s="53" t="n">
         <v>16472.9799999999996</v>
       </c>
-      <c r="AC6" s="52" t="n">
+      <c r="AC6" s="53" t="n">
         <v>15960.9799999999996</v>
       </c>
-      <c r="AD6" s="52" t="n">
+      <c r="AD6" s="53" t="n">
         <v>15262.3500000000004</v>
       </c>
-      <c r="AE6" s="51" t="n">
+      <c r="AE6" s="56" t="n">
         <v>15274.4300000000003</v>
       </c>
-      <c r="AF6" s="51" t="n">
+      <c r="AF6" s="56" t="n">
         <v>15271.7399999999998</v>
       </c>
-      <c r="AG6" s="51" t="n">
+      <c r="AG6" s="56" t="n">
         <v>15274.4300000000003</v>
       </c>
-      <c r="AH6" s="51"/>
-      <c r="AI6" s="51"/>
-      <c r="AJ6" s="51"/>
+      <c r="AH6" s="56"/>
+      <c r="AI6" s="56"/>
+      <c r="AJ6" s="56"/>
     </row>
     <row r="7" spans="2:36">
       <c r="B7" s="50" t="s">
@@ -4936,81 +4969,81 @@
       <c r="C7" s="50" t="n">
         <v>24</v>
       </c>
-      <c r="D7" s="50" t="n">
+      <c r="D7" s="52" t="n">
         <v>3447</v>
       </c>
-      <c r="E7" s="50" t="n">
+      <c r="E7" s="52" t="n">
         <v>3231</v>
       </c>
-      <c r="F7" s="50" t="n">
+      <c r="F7" s="52" t="n">
         <v>3231</v>
       </c>
-      <c r="G7" s="51" t="n">
+      <c r="G7" s="56" t="n">
         <v>3674</v>
       </c>
-      <c r="H7" s="51" t="n">
+      <c r="H7" s="56" t="n">
         <v>3452</v>
       </c>
-      <c r="I7" s="51" t="n">
+      <c r="I7" s="56" t="n">
         <v>3674</v>
       </c>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="N7" s="52" t="s">
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="N7" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="52" t="n">
+      <c r="O7" s="51" t="n">
         <v>60</v>
       </c>
-      <c r="P7" s="52" t="n">
+      <c r="P7" s="53" t="n">
         <v>3120</v>
       </c>
-      <c r="Q7" s="52" t="n">
+      <c r="Q7" s="53" t="n">
         <v>3120</v>
       </c>
-      <c r="R7" s="52" t="n">
+      <c r="R7" s="53" t="n">
         <v>3120</v>
       </c>
-      <c r="S7" s="51" t="n">
+      <c r="S7" s="56" t="n">
         <v>3062</v>
       </c>
-      <c r="T7" s="51" t="n">
+      <c r="T7" s="56" t="n">
         <v>3052</v>
       </c>
-      <c r="U7" s="51" t="n">
+      <c r="U7" s="56" t="n">
         <v>3062</v>
       </c>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Z7" s="52" t="s">
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Z7" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="AA7" s="52" t="n">
+      <c r="AA7" s="51" t="n">
         <v>62</v>
       </c>
-      <c r="AB7" s="52" t="n">
+      <c r="AB7" s="53" t="n">
         <v>24187.5099999999984</v>
       </c>
-      <c r="AC7" s="52" t="n">
+      <c r="AC7" s="53" t="n">
         <v>25633.6500000000015</v>
       </c>
-      <c r="AD7" s="52" t="n">
+      <c r="AD7" s="53" t="n">
         <v>23691.5</v>
       </c>
-      <c r="AE7" s="51" t="n">
+      <c r="AE7" s="56" t="n">
         <v>22514.5200000000004</v>
       </c>
-      <c r="AF7" s="51" t="n">
+      <c r="AF7" s="56" t="n">
         <v>22543.2900000000009</v>
       </c>
-      <c r="AG7" s="51" t="n">
+      <c r="AG7" s="56" t="n">
         <v>22298.2299999999996</v>
       </c>
-      <c r="AH7" s="51"/>
-      <c r="AI7" s="51"/>
-      <c r="AJ7" s="51"/>
+      <c r="AH7" s="56"/>
+      <c r="AI7" s="56"/>
+      <c r="AJ7" s="56"/>
     </row>
     <row r="8" spans="2:36">
       <c r="B8" s="50" t="s">
@@ -5019,69 +5052,69 @@
       <c r="C8" s="50" t="n">
         <v>266</v>
       </c>
-      <c r="D8" s="50" t="n">
+      <c r="D8" s="52" t="n">
         <v>14250</v>
       </c>
-      <c r="E8" s="50" t="n">
+      <c r="E8" s="52" t="n">
         <v>14128</v>
       </c>
-      <c r="F8" s="50" t="n">
+      <c r="F8" s="52" t="n">
         <v>14036</v>
       </c>
-      <c r="G8" s="51" t="n">
+      <c r="G8" s="56" t="n">
         <v>10150</v>
       </c>
-      <c r="H8" s="51" t="n">
+      <c r="H8" s="56" t="n">
         <v>9594</v>
       </c>
-      <c r="I8" s="51" t="n">
+      <c r="I8" s="56" t="n">
         <v>9700</v>
       </c>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="N8" s="52" t="s">
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="N8" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="52" t="n">
+      <c r="O8" s="51" t="n">
         <v>68</v>
       </c>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-      <c r="Z8" s="52" t="s">
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Z8" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="AA8" s="52" t="n">
+      <c r="AA8" s="51" t="n">
         <v>68</v>
       </c>
-      <c r="AB8" s="52" t="n">
+      <c r="AB8" s="53" t="n">
         <v>53346.760000000002</v>
       </c>
-      <c r="AC8" s="52" t="n">
+      <c r="AC8" s="53" t="n">
         <v>46726.9100000000035</v>
       </c>
-      <c r="AD8" s="52" t="n">
+      <c r="AD8" s="53" t="n">
         <v>50028.989999999998</v>
       </c>
-      <c r="AE8" s="51" t="n">
+      <c r="AE8" s="56" t="n">
         <v>49348.6699999999983</v>
       </c>
-      <c r="AF8" s="51" t="n">
+      <c r="AF8" s="56" t="n">
         <v>48783.6200000000026</v>
       </c>
-      <c r="AG8" s="51" t="n">
+      <c r="AG8" s="56" t="n">
         <v>49348.6699999999983</v>
       </c>
-      <c r="AH8" s="51"/>
-      <c r="AI8" s="51"/>
-      <c r="AJ8" s="51"/>
+      <c r="AH8" s="56"/>
+      <c r="AI8" s="56"/>
+      <c r="AJ8" s="56"/>
     </row>
     <row r="9" spans="2:36">
       <c r="B9" s="50" t="s">
@@ -5090,69 +5123,69 @@
       <c r="C9" s="50" t="n">
         <v>14</v>
       </c>
-      <c r="D9" s="50" t="n">
+      <c r="D9" s="52" t="n">
         <v>581</v>
       </c>
-      <c r="E9" s="50" t="n">
+      <c r="E9" s="52" t="n">
         <v>581</v>
       </c>
-      <c r="F9" s="50" t="n">
+      <c r="F9" s="52" t="n">
         <v>581</v>
       </c>
-      <c r="G9" s="51" t="n">
+      <c r="G9" s="56" t="n">
         <v>581</v>
       </c>
-      <c r="H9" s="51" t="n">
+      <c r="H9" s="56" t="n">
         <v>581</v>
       </c>
-      <c r="I9" s="51" t="n">
+      <c r="I9" s="56" t="n">
         <v>581</v>
       </c>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="N9" s="52" t="s">
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="N9" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="52" t="n">
+      <c r="O9" s="51" t="n">
         <v>101</v>
       </c>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="51"/>
-      <c r="Z9" s="52" t="s">
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Z9" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="AA9" s="52" t="n">
+      <c r="AA9" s="51" t="n">
         <v>72</v>
       </c>
-      <c r="AB9" s="52" t="n">
+      <c r="AB9" s="53" t="n">
         <v>26341.8199999999997</v>
       </c>
-      <c r="AC9" s="52" t="n">
+      <c r="AC9" s="53" t="n">
         <v>26306.3400000000001</v>
       </c>
-      <c r="AD9" s="52" t="n">
+      <c r="AD9" s="53" t="n">
         <v>26331.4700000000012</v>
       </c>
-      <c r="AE9" s="51" t="n">
+      <c r="AE9" s="56" t="n">
         <v>28353.7000000000007</v>
       </c>
-      <c r="AF9" s="51" t="n">
+      <c r="AF9" s="56" t="n">
         <v>28200.2299999999996</v>
       </c>
-      <c r="AG9" s="51" t="n">
+      <c r="AG9" s="56" t="n">
         <v>28343.3400000000001</v>
       </c>
-      <c r="AH9" s="51"/>
-      <c r="AI9" s="51"/>
-      <c r="AJ9" s="51"/>
+      <c r="AH9" s="56"/>
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="56"/>
     </row>
     <row r="10" spans="2:36">
       <c r="B10" s="50" t="s">
@@ -5161,69 +5194,69 @@
       <c r="C10" s="50" t="n">
         <v>14</v>
       </c>
-      <c r="D10" s="50" t="n">
+      <c r="D10" s="52" t="n">
         <v>816</v>
       </c>
-      <c r="E10" s="50" t="n">
+      <c r="E10" s="52" t="n">
         <v>816</v>
       </c>
-      <c r="F10" s="50" t="n">
+      <c r="F10" s="52" t="n">
         <v>816</v>
       </c>
-      <c r="G10" s="51" t="n">
+      <c r="G10" s="56" t="n">
         <v>818</v>
       </c>
-      <c r="H10" s="51" t="n">
+      <c r="H10" s="56" t="n">
         <v>818</v>
       </c>
-      <c r="I10" s="51" t="n">
+      <c r="I10" s="56" t="n">
         <v>818</v>
       </c>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="N10" s="52" t="s">
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="N10" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="52" t="n">
+      <c r="O10" s="51" t="n">
         <v>114</v>
       </c>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="51"/>
-      <c r="X10" s="51"/>
-      <c r="Z10" s="52" t="s">
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Z10" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="AA10" s="52" t="n">
+      <c r="AA10" s="51" t="n">
         <v>76</v>
       </c>
-      <c r="AB10" s="52" t="n">
+      <c r="AB10" s="53" t="n">
         <v>33363.8600000000006</v>
       </c>
-      <c r="AC10" s="52" t="n">
+      <c r="AC10" s="53" t="n">
         <v>32745.6699999999983</v>
       </c>
-      <c r="AD10" s="52" t="n">
+      <c r="AD10" s="53" t="n">
         <v>32794.5299999999988</v>
       </c>
-      <c r="AE10" s="51" t="n">
+      <c r="AE10" s="56" t="n">
         <v>34036.7300000000032</v>
       </c>
-      <c r="AF10" s="51" t="n">
+      <c r="AF10" s="56" t="n">
         <v>33537.8899999999994</v>
       </c>
-      <c r="AG10" s="51" t="n">
+      <c r="AG10" s="56" t="n">
         <v>34036.7300000000032</v>
       </c>
-      <c r="AH10" s="51"/>
-      <c r="AI10" s="51"/>
-      <c r="AJ10" s="51"/>
+      <c r="AH10" s="56"/>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="56"/>
     </row>
     <row r="11" spans="2:36">
       <c r="B11" s="50" t="s">
@@ -5232,69 +5265,69 @@
       <c r="C11" s="50" t="n">
         <v>26</v>
       </c>
-      <c r="D11" s="50" t="n">
+      <c r="D11" s="52" t="n">
         <v>1766.5</v>
       </c>
-      <c r="E11" s="50" t="n">
+      <c r="E11" s="52" t="n">
         <v>1766.5</v>
       </c>
-      <c r="F11" s="50" t="n">
+      <c r="F11" s="52" t="n">
         <v>1766.5</v>
       </c>
-      <c r="G11" s="51" t="n">
+      <c r="G11" s="56" t="n">
         <v>1813.95000000000005</v>
       </c>
-      <c r="H11" s="51" t="n">
+      <c r="H11" s="56" t="n">
         <v>1766.5</v>
       </c>
-      <c r="I11" s="51" t="n">
+      <c r="I11" s="56" t="n">
         <v>1813.95000000000005</v>
       </c>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="N11" s="52" t="s">
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="N11" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="O11" s="52" t="n">
+      <c r="O11" s="51" t="n">
         <v>215</v>
       </c>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="51"/>
-      <c r="W11" s="51"/>
-      <c r="X11" s="51"/>
-      <c r="Z11" s="52" t="s">
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Z11" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="AA11" s="52" t="n">
+      <c r="AA11" s="51" t="n">
         <v>113</v>
       </c>
-      <c r="AB11" s="52" t="n">
+      <c r="AB11" s="53" t="n">
         <v>49141.6200000000026</v>
       </c>
-      <c r="AC11" s="52" t="n">
+      <c r="AC11" s="53" t="n">
         <v>48156.0299999999988</v>
       </c>
-      <c r="AD11" s="52" t="n">
+      <c r="AD11" s="53" t="n">
         <v>47039.2900000000009</v>
       </c>
-      <c r="AE11" s="51" t="n">
+      <c r="AE11" s="56" t="n">
         <v>53134.3300000000017</v>
       </c>
-      <c r="AF11" s="51" t="n">
+      <c r="AF11" s="56" t="n">
         <v>50123.4400000000023</v>
       </c>
-      <c r="AG11" s="51" t="n">
+      <c r="AG11" s="56" t="n">
         <v>52534.3300000000017</v>
       </c>
-      <c r="AH11" s="51"/>
-      <c r="AI11" s="51"/>
-      <c r="AJ11" s="51"/>
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="56"/>
+      <c r="AJ11" s="56"/>
     </row>
     <row r="12" spans="2:36">
       <c r="B12" s="50" t="s">
@@ -5303,69 +5336,69 @@
       <c r="C12" s="50" t="n">
         <v>63</v>
       </c>
-      <c r="D12" s="50" t="n">
+      <c r="D12" s="52" t="n">
         <v>29120.1699999999983</v>
       </c>
-      <c r="E12" s="50" t="n">
+      <c r="E12" s="52" t="n">
         <v>28429.0499999999993</v>
       </c>
-      <c r="F12" s="50" t="n">
+      <c r="F12" s="52" t="n">
         <v>27862.6399999999994</v>
       </c>
-      <c r="G12" s="51" t="n">
+      <c r="G12" s="56" t="n">
         <v>29206.9399999999987</v>
       </c>
-      <c r="H12" s="51" t="n">
+      <c r="H12" s="56" t="n">
         <v>27949.2999999999993</v>
       </c>
-      <c r="I12" s="51" t="n">
+      <c r="I12" s="56" t="n">
         <v>29059.75</v>
       </c>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="N12" s="52" t="s">
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="N12" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="O12" s="52" t="n">
+      <c r="O12" s="51" t="n">
         <v>333</v>
       </c>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-      <c r="Z12" s="52" t="s">
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Z12" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="AA12" s="52" t="n">
+      <c r="AA12" s="51" t="n">
         <v>132</v>
       </c>
-      <c r="AB12" s="52" t="n">
+      <c r="AB12" s="53" t="n">
         <v>22934.7900000000009</v>
       </c>
-      <c r="AC12" s="52" t="n">
+      <c r="AC12" s="53" t="n">
         <v>21889.1500000000015</v>
       </c>
-      <c r="AD12" s="52" t="n">
+      <c r="AD12" s="53" t="n">
         <v>22363.5</v>
       </c>
-      <c r="AE12" s="51" t="n">
+      <c r="AE12" s="56" t="n">
         <v>21636.7400000000016</v>
       </c>
-      <c r="AF12" s="51" t="n">
+      <c r="AF12" s="56" t="n">
         <v>21554.2900000000009</v>
       </c>
-      <c r="AG12" s="51" t="n">
+      <c r="AG12" s="56" t="n">
         <v>21514.7599999999984</v>
       </c>
-      <c r="AH12" s="51"/>
-      <c r="AI12" s="51"/>
-      <c r="AJ12" s="51"/>
+      <c r="AH12" s="56"/>
+      <c r="AI12" s="56"/>
+      <c r="AJ12" s="56"/>
     </row>
     <row r="13" spans="2:36">
       <c r="B13" s="50" t="s">
@@ -5374,81 +5407,81 @@
       <c r="C13" s="50" t="n">
         <v>29</v>
       </c>
-      <c r="D13" s="50" t="n">
+      <c r="D13" s="52" t="n">
         <v>10262</v>
       </c>
-      <c r="E13" s="50" t="n">
+      <c r="E13" s="52" t="n">
         <v>10262</v>
       </c>
-      <c r="F13" s="50" t="n">
+      <c r="F13" s="52" t="n">
         <v>10262</v>
       </c>
-      <c r="G13" s="51" t="n">
+      <c r="G13" s="56" t="n">
         <v>9812</v>
       </c>
-      <c r="H13" s="51" t="n">
+      <c r="H13" s="56" t="n">
         <v>9828</v>
       </c>
-      <c r="I13" s="51" t="n">
+      <c r="I13" s="56" t="n">
         <v>9455</v>
       </c>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="N13" s="52" t="s">
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="N13" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="O13" s="52" t="n">
+      <c r="O13" s="51" t="n">
         <v>24</v>
       </c>
-      <c r="P13" s="52" t="n">
+      <c r="P13" s="53" t="n">
         <v>6284</v>
       </c>
-      <c r="Q13" s="52" t="n">
+      <c r="Q13" s="53" t="n">
         <v>6284</v>
       </c>
-      <c r="R13" s="52" t="n">
+      <c r="R13" s="53" t="n">
         <v>6284</v>
       </c>
-      <c r="S13" s="51" t="n">
+      <c r="S13" s="56" t="n">
         <v>5381</v>
       </c>
-      <c r="T13" s="51" t="n">
+      <c r="T13" s="56" t="n">
         <v>5216</v>
       </c>
-      <c r="U13" s="51" t="n">
+      <c r="U13" s="56" t="n">
         <v>5381</v>
       </c>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Z13" s="52" t="s">
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Z13" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="AA13" s="52" t="n">
+      <c r="AA13" s="51" t="n">
         <v>149</v>
       </c>
-      <c r="AB13" s="52" t="n">
+      <c r="AB13" s="53" t="n">
         <v>26442.7700000000004</v>
       </c>
-      <c r="AC13" s="52" t="n">
+      <c r="AC13" s="53" t="n">
         <v>25630.0099999999984</v>
       </c>
-      <c r="AD13" s="52" t="n">
+      <c r="AD13" s="53" t="n">
         <v>24829.0999999999985</v>
       </c>
-      <c r="AE13" s="51" t="n">
+      <c r="AE13" s="56" t="n">
         <v>25418.4700000000012</v>
       </c>
-      <c r="AF13" s="51" t="n">
+      <c r="AF13" s="56" t="n">
         <v>24152.3100000000013</v>
       </c>
-      <c r="AG13" s="51" t="n">
+      <c r="AG13" s="56" t="n">
         <v>24326.7099999999991</v>
       </c>
-      <c r="AH13" s="51"/>
-      <c r="AI13" s="51"/>
-      <c r="AJ13" s="51"/>
+      <c r="AH13" s="56"/>
+      <c r="AI13" s="56"/>
+      <c r="AJ13" s="56"/>
     </row>
     <row r="14" spans="2:36">
       <c r="B14" s="50" t="s">
@@ -5457,81 +5490,81 @@
       <c r="C14" s="50" t="n">
         <v>90</v>
       </c>
-      <c r="D14" s="50" t="n">
+      <c r="D14" s="52" t="n">
         <v>22550</v>
       </c>
-      <c r="E14" s="50" t="n">
+      <c r="E14" s="52" t="n">
         <v>25610</v>
       </c>
-      <c r="F14" s="50" t="n">
+      <c r="F14" s="52" t="n">
         <v>4770</v>
       </c>
-      <c r="G14" s="51" t="n">
+      <c r="G14" s="56" t="n">
         <v>980</v>
       </c>
-      <c r="H14" s="51" t="n">
+      <c r="H14" s="56" t="n">
         <v>980</v>
       </c>
-      <c r="I14" s="51" t="n">
+      <c r="I14" s="56" t="n">
         <v>980</v>
       </c>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="N14" s="52" t="s">
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="N14" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="O14" s="52" t="n">
+      <c r="O14" s="51" t="n">
         <v>50</v>
       </c>
-      <c r="P14" s="52" t="n">
+      <c r="P14" s="53" t="n">
         <v>11430.2199999999993</v>
       </c>
-      <c r="Q14" s="52" t="n">
+      <c r="Q14" s="53" t="n">
         <v>10638.4099999999999</v>
       </c>
-      <c r="R14" s="52" t="n">
+      <c r="R14" s="53" t="n">
         <v>10809.4699999999993</v>
       </c>
-      <c r="S14" s="51" t="n">
+      <c r="S14" s="56" t="n">
         <v>10171.1700000000001</v>
       </c>
-      <c r="T14" s="51" t="n">
+      <c r="T14" s="56" t="n">
         <v>10171.1700000000001</v>
       </c>
-      <c r="U14" s="51" t="n">
+      <c r="U14" s="56" t="n">
         <v>9744.28000000000065</v>
       </c>
-      <c r="V14" s="51"/>
-      <c r="W14" s="51"/>
-      <c r="X14" s="51"/>
-      <c r="Z14" s="52" t="s">
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Z14" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="AA14" s="52" t="n">
+      <c r="AA14" s="51" t="n">
         <v>219</v>
       </c>
-      <c r="AB14" s="52" t="n">
+      <c r="AB14" s="53" t="n">
         <v>40759.2900000000009</v>
       </c>
-      <c r="AC14" s="52" t="n">
+      <c r="AC14" s="53" t="n">
         <v>40496.9000000000015</v>
       </c>
-      <c r="AD14" s="52" t="n">
+      <c r="AD14" s="53" t="n">
         <v>39951.510000000002</v>
       </c>
-      <c r="AE14" s="51" t="n">
+      <c r="AE14" s="56" t="n">
         <v>43380.2099999999991</v>
       </c>
-      <c r="AF14" s="51" t="n">
+      <c r="AF14" s="56" t="n">
         <v>40835.739999999998</v>
       </c>
-      <c r="AG14" s="51" t="n">
+      <c r="AG14" s="56" t="n">
         <v>42428.8499999999985</v>
       </c>
-      <c r="AH14" s="51"/>
-      <c r="AI14" s="51"/>
-      <c r="AJ14" s="51"/>
+      <c r="AH14" s="56"/>
+      <c r="AI14" s="56"/>
+      <c r="AJ14" s="56"/>
     </row>
     <row r="15" spans="2:36">
       <c r="B15" s="50" t="s">
@@ -5540,75 +5573,75 @@
       <c r="C15" s="50" t="n">
         <v>7</v>
       </c>
-      <c r="D15" s="50" t="n">
+      <c r="D15" s="52" t="n">
         <v>1454.83999999999992</v>
       </c>
-      <c r="E15" s="50" t="n">
+      <c r="E15" s="52" t="n">
         <v>1454.83999999999992</v>
       </c>
-      <c r="F15" s="50" t="n">
+      <c r="F15" s="52" t="n">
         <v>1454.83999999999992</v>
       </c>
-      <c r="G15" s="51" t="n">
+      <c r="G15" s="56" t="n">
         <v>1339.11999999999989</v>
       </c>
-      <c r="H15" s="51" t="n">
+      <c r="H15" s="56" t="n">
         <v>1339.11999999999989</v>
       </c>
-      <c r="I15" s="51" t="n">
+      <c r="I15" s="56" t="n">
         <v>1339.11999999999989</v>
       </c>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="N15" s="52" t="s">
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="N15" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="O15" s="52" t="n">
+      <c r="O15" s="51" t="n">
         <v>75</v>
       </c>
-      <c r="P15" s="52" t="n">
+      <c r="P15" s="53" t="n">
         <v>15430.0100000000002</v>
       </c>
-      <c r="Q15" s="52" t="n">
+      <c r="Q15" s="53" t="n">
         <v>14772.0799999999999</v>
       </c>
-      <c r="R15" s="52" t="n">
+      <c r="R15" s="53" t="n">
         <v>14026.1800000000003</v>
       </c>
-      <c r="S15" s="51" t="n">
+      <c r="S15" s="56" t="n">
         <v>15194.75</v>
       </c>
-      <c r="T15" s="51" t="n">
+      <c r="T15" s="56" t="n">
         <v>14693.2999999999993</v>
       </c>
-      <c r="U15" s="51" t="n">
+      <c r="U15" s="56" t="n">
         <v>14150.0799999999999</v>
       </c>
-      <c r="V15" s="51"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="51"/>
-      <c r="Z15" s="52" t="s">
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Z15" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="AA15" s="52" t="n">
+      <c r="AA15" s="51" t="n">
         <v>501</v>
       </c>
-      <c r="AB15" s="52" t="n">
+      <c r="AB15" s="53" t="n">
         <v>131441.760000000009</v>
       </c>
-      <c r="AC15" s="52" t="n">
+      <c r="AC15" s="53" t="n">
         <v>129086.309999999998</v>
       </c>
-      <c r="AD15" s="52" t="n">
+      <c r="AD15" s="53" t="n">
         <v>128728.119999999995</v>
       </c>
-      <c r="AE15" s="51"/>
-      <c r="AF15" s="51"/>
-      <c r="AG15" s="51"/>
-      <c r="AH15" s="51"/>
-      <c r="AI15" s="51"/>
-      <c r="AJ15" s="51"/>
+      <c r="AE15" s="56"/>
+      <c r="AF15" s="56"/>
+      <c r="AG15" s="56"/>
+      <c r="AH15" s="56"/>
+      <c r="AI15" s="56"/>
+      <c r="AJ15" s="56"/>
     </row>
     <row r="16" spans="2:36">
       <c r="B16" s="50" t="s">
@@ -5617,81 +5650,81 @@
       <c r="C16" s="50" t="n">
         <v>65</v>
       </c>
-      <c r="D16" s="50" t="n">
+      <c r="D16" s="52" t="n">
         <v>2710.19000000000005</v>
       </c>
-      <c r="E16" s="50" t="n">
+      <c r="E16" s="52" t="n">
         <v>2708.23999999999978</v>
       </c>
-      <c r="F16" s="50" t="n">
+      <c r="F16" s="52" t="n">
         <v>2710.19000000000005</v>
       </c>
-      <c r="G16" s="51" t="n">
+      <c r="G16" s="56" t="n">
         <v>2726.80000000000018</v>
       </c>
-      <c r="H16" s="51" t="n">
+      <c r="H16" s="56" t="n">
         <v>2601.23000000000002</v>
       </c>
-      <c r="I16" s="51" t="n">
+      <c r="I16" s="56" t="n">
         <v>2726.80000000000018</v>
       </c>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="N16" s="52" t="s">
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="N16" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="O16" s="52" t="n">
+      <c r="O16" s="51" t="n">
         <v>100</v>
       </c>
-      <c r="P16" s="52" t="n">
+      <c r="P16" s="53" t="n">
         <v>13485.4500000000007</v>
       </c>
-      <c r="Q16" s="52" t="n">
+      <c r="Q16" s="53" t="n">
         <v>13485.4500000000007</v>
       </c>
-      <c r="R16" s="52" t="n">
+      <c r="R16" s="53" t="n">
         <v>13485.4500000000007</v>
       </c>
-      <c r="S16" s="51" t="n">
+      <c r="S16" s="56" t="n">
         <v>15518.8099999999995</v>
       </c>
-      <c r="T16" s="51" t="n">
+      <c r="T16" s="56" t="n">
         <v>15174.2399999999998</v>
       </c>
-      <c r="U16" s="51" t="n">
+      <c r="U16" s="56" t="n">
         <v>15446.0200000000004</v>
       </c>
-      <c r="V16" s="51"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="51"/>
-      <c r="Z16" s="52" t="s">
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Z16" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="AA16" s="52" t="n">
+      <c r="AA16" s="51" t="n">
         <v>49</v>
       </c>
-      <c r="AB16" s="52" t="n">
+      <c r="AB16" s="53" t="n">
         <v>584.590000000000032</v>
       </c>
-      <c r="AC16" s="52" t="n">
+      <c r="AC16" s="53" t="n">
         <v>578.700000000000045</v>
       </c>
-      <c r="AD16" s="52" t="n">
+      <c r="AD16" s="53" t="n">
         <v>571.600000000000023</v>
       </c>
-      <c r="AE16" s="51" t="n">
+      <c r="AE16" s="56" t="n">
         <v>644.080000000000041</v>
       </c>
-      <c r="AF16" s="51" t="n">
+      <c r="AF16" s="56" t="n">
         <v>596.919999999999959</v>
       </c>
-      <c r="AG16" s="51" t="n">
+      <c r="AG16" s="56" t="n">
         <v>599.440000000000055</v>
       </c>
-      <c r="AH16" s="51"/>
-      <c r="AI16" s="51"/>
-      <c r="AJ16" s="51"/>
+      <c r="AH16" s="56"/>
+      <c r="AI16" s="56"/>
+      <c r="AJ16" s="56"/>
     </row>
     <row r="17" spans="2:36">
       <c r="B17" s="50" t="s">
@@ -5700,81 +5733,81 @@
       <c r="C17" s="50" t="n">
         <v>75</v>
       </c>
-      <c r="D17" s="50" t="n">
+      <c r="D17" s="52" t="n">
         <v>3169.82000000000016</v>
       </c>
-      <c r="E17" s="50" t="n">
+      <c r="E17" s="52" t="n">
         <v>3082.53999999999996</v>
       </c>
-      <c r="F17" s="50" t="n">
+      <c r="F17" s="52" t="n">
         <v>3087.17999999999984</v>
       </c>
-      <c r="G17" s="51" t="n">
+      <c r="G17" s="56" t="n">
         <v>3564.32000000000016</v>
       </c>
-      <c r="H17" s="51" t="n">
+      <c r="H17" s="56" t="n">
         <v>3395.88000000000011</v>
       </c>
-      <c r="I17" s="51" t="n">
+      <c r="I17" s="56" t="n">
         <v>3345.19999999999982</v>
       </c>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="N17" s="52" t="s">
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="N17" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="O17" s="52" t="n">
+      <c r="O17" s="51" t="n">
         <v>50</v>
       </c>
-      <c r="P17" s="52" t="n">
+      <c r="P17" s="53" t="n">
         <v>11418.4200000000001</v>
       </c>
-      <c r="Q17" s="52" t="n">
+      <c r="Q17" s="53" t="n">
         <v>11366.4699999999993</v>
       </c>
-      <c r="R17" s="52" t="n">
+      <c r="R17" s="53" t="n">
         <v>11184.6000000000004</v>
       </c>
-      <c r="S17" s="51" t="n">
+      <c r="S17" s="56" t="n">
         <v>11529.8099999999995</v>
       </c>
-      <c r="T17" s="51" t="n">
+      <c r="T17" s="56" t="n">
         <v>11211.7999999999993</v>
       </c>
-      <c r="U17" s="51" t="n">
+      <c r="U17" s="56" t="n">
         <v>11037.6000000000004</v>
       </c>
-      <c r="V17" s="51"/>
-      <c r="W17" s="51"/>
-      <c r="X17" s="51"/>
-      <c r="Z17" s="52" t="s">
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Z17" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="AA17" s="52" t="n">
+      <c r="AA17" s="51" t="n">
         <v>97</v>
       </c>
-      <c r="AB17" s="52" t="n">
+      <c r="AB17" s="53" t="n">
         <v>1135.38000000000011</v>
       </c>
-      <c r="AC17" s="52" t="n">
+      <c r="AC17" s="53" t="n">
         <v>1133.95000000000005</v>
       </c>
-      <c r="AD17" s="52" t="n">
+      <c r="AD17" s="53" t="n">
         <v>1125.23000000000002</v>
       </c>
-      <c r="AE17" s="51" t="n">
+      <c r="AE17" s="56" t="n">
         <v>1253.26999999999998</v>
       </c>
-      <c r="AF17" s="51" t="n">
+      <c r="AF17" s="56" t="n">
         <v>1215.80999999999995</v>
       </c>
-      <c r="AG17" s="51" t="n">
+      <c r="AG17" s="56" t="n">
         <v>1253.26999999999998</v>
       </c>
-      <c r="AH17" s="51"/>
-      <c r="AI17" s="51"/>
-      <c r="AJ17" s="51"/>
+      <c r="AH17" s="56"/>
+      <c r="AI17" s="56"/>
+      <c r="AJ17" s="56"/>
     </row>
     <row r="18" spans="2:36">
       <c r="B18" s="50" t="s">
@@ -5783,81 +5816,81 @@
       <c r="C18" s="50" t="n">
         <v>21</v>
       </c>
-      <c r="D18" s="50" t="n">
+      <c r="D18" s="52" t="n">
         <v>239</v>
       </c>
-      <c r="E18" s="50" t="n">
+      <c r="E18" s="52" t="n">
         <v>239</v>
       </c>
-      <c r="F18" s="50" t="n">
+      <c r="F18" s="52" t="n">
         <v>239</v>
       </c>
-      <c r="G18" s="51" t="n">
+      <c r="G18" s="56" t="n">
         <v>248</v>
       </c>
-      <c r="H18" s="51" t="n">
+      <c r="H18" s="56" t="n">
         <v>248</v>
       </c>
-      <c r="I18" s="51" t="n">
+      <c r="I18" s="56" t="n">
         <v>248</v>
       </c>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="N18" s="52" t="s">
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="N18" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="O18" s="52" t="n">
+      <c r="O18" s="51" t="n">
         <v>75</v>
       </c>
-      <c r="P18" s="52" t="n">
+      <c r="P18" s="53" t="n">
         <v>12099.4300000000003</v>
       </c>
-      <c r="Q18" s="52" t="n">
+      <c r="Q18" s="53" t="n">
         <v>11909.8700000000008</v>
       </c>
-      <c r="R18" s="52" t="n">
+      <c r="R18" s="53" t="n">
         <v>12016.9300000000003</v>
       </c>
-      <c r="S18" s="51" t="n">
+      <c r="S18" s="56" t="n">
         <v>13325.3899999999994</v>
       </c>
-      <c r="T18" s="51" t="n">
+      <c r="T18" s="56" t="n">
         <v>13161.8799999999992</v>
       </c>
-      <c r="U18" s="51" t="n">
+      <c r="U18" s="56" t="n">
         <v>12931.0400000000009</v>
       </c>
-      <c r="V18" s="51"/>
-      <c r="W18" s="51"/>
-      <c r="X18" s="51"/>
-      <c r="Z18" s="52" t="s">
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Z18" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="AA18" s="52" t="n">
+      <c r="AA18" s="51" t="n">
         <v>287</v>
       </c>
-      <c r="AB18" s="52" t="n">
+      <c r="AB18" s="53" t="n">
         <v>3448.28999999999996</v>
       </c>
-      <c r="AC18" s="52" t="n">
+      <c r="AC18" s="53" t="n">
         <v>3407.23000000000002</v>
       </c>
-      <c r="AD18" s="52" t="n">
+      <c r="AD18" s="53" t="n">
         <v>3354.21000000000004</v>
       </c>
-      <c r="AE18" s="51" t="n">
+      <c r="AE18" s="56" t="n">
         <v>3630.7800000000002</v>
       </c>
-      <c r="AF18" s="51" t="n">
+      <c r="AF18" s="56" t="n">
         <v>3490.69000000000005</v>
       </c>
-      <c r="AG18" s="51" t="n">
+      <c r="AG18" s="56" t="n">
         <v>3569.88000000000011</v>
       </c>
-      <c r="AH18" s="51"/>
-      <c r="AI18" s="51"/>
-      <c r="AJ18" s="51"/>
+      <c r="AH18" s="56"/>
+      <c r="AI18" s="56"/>
+      <c r="AJ18" s="56"/>
     </row>
     <row r="19" spans="2:36">
       <c r="B19" s="50" t="s">
@@ -5866,75 +5899,75 @@
       <c r="C19" s="50" t="n">
         <v>25</v>
       </c>
-      <c r="D19" s="50" t="n">
+      <c r="D19" s="52" t="n">
         <v>181.409999999999997</v>
       </c>
-      <c r="E19" s="50" t="n">
+      <c r="E19" s="52" t="n">
         <v>181.409999999999997</v>
       </c>
-      <c r="F19" s="50" t="n">
+      <c r="F19" s="52" t="n">
         <v>181.409999999999997</v>
       </c>
-      <c r="G19" s="51" t="n">
+      <c r="G19" s="56" t="n">
         <v>190.340000000000003</v>
       </c>
-      <c r="H19" s="51" t="n">
+      <c r="H19" s="56" t="n">
         <v>190.340000000000003</v>
       </c>
-      <c r="I19" s="51" t="n">
+      <c r="I19" s="56" t="n">
         <v>190.340000000000003</v>
       </c>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="N19" s="52" t="s">
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="N19" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="O19" s="52" t="n">
+      <c r="O19" s="51" t="n">
         <v>100</v>
       </c>
-      <c r="P19" s="52" t="n">
+      <c r="P19" s="53" t="n">
         <v>17110.4700000000012</v>
       </c>
-      <c r="Q19" s="52" t="n">
+      <c r="Q19" s="53" t="n">
         <v>16276.0300000000007</v>
       </c>
-      <c r="R19" s="52" t="n">
+      <c r="R19" s="53" t="n">
         <v>15963.6599999999999</v>
       </c>
-      <c r="S19" s="51" t="n">
+      <c r="S19" s="56" t="n">
         <v>17045.0499999999993</v>
       </c>
-      <c r="T19" s="51" t="n">
+      <c r="T19" s="56" t="n">
         <v>15944.4799999999996</v>
       </c>
-      <c r="U19" s="51" t="n">
+      <c r="U19" s="56" t="n">
         <v>16340.7299999999996</v>
       </c>
-      <c r="V19" s="51"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="51"/>
-      <c r="Z19" s="52" t="s">
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Z19" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="AA19" s="52" t="n">
+      <c r="AA19" s="51" t="n">
         <v>391</v>
       </c>
-      <c r="AB19" s="52" t="n">
+      <c r="AB19" s="53" t="n">
         <v>4617.92000000000007</v>
       </c>
-      <c r="AC19" s="52" t="n">
+      <c r="AC19" s="53" t="n">
         <v>4535.42000000000007</v>
       </c>
-      <c r="AD19" s="52" t="n">
+      <c r="AD19" s="53" t="n">
         <v>4472.01000000000022</v>
       </c>
-      <c r="AE19" s="51"/>
-      <c r="AF19" s="51"/>
-      <c r="AG19" s="51"/>
-      <c r="AH19" s="51"/>
-      <c r="AI19" s="51"/>
-      <c r="AJ19" s="51"/>
+      <c r="AE19" s="56"/>
+      <c r="AF19" s="56"/>
+      <c r="AG19" s="56"/>
+      <c r="AH19" s="56"/>
+      <c r="AI19" s="56"/>
+      <c r="AJ19" s="56"/>
     </row>
     <row r="20" spans="2:36">
       <c r="B20" s="50" t="s">
@@ -5943,81 +5976,81 @@
       <c r="C20" s="50" t="n">
         <v>38</v>
       </c>
-      <c r="D20" s="50" t="n">
+      <c r="D20" s="52" t="n">
         <v>229.639999999999986</v>
       </c>
-      <c r="E20" s="50" t="n">
+      <c r="E20" s="52" t="n">
         <v>229.639999999999986</v>
       </c>
-      <c r="F20" s="50" t="n">
+      <c r="F20" s="52" t="n">
         <v>229.639999999999986</v>
       </c>
-      <c r="G20" s="51" t="n">
+      <c r="G20" s="56" t="n">
         <v>240.5</v>
       </c>
-      <c r="H20" s="51" t="n">
+      <c r="H20" s="56" t="n">
         <v>238.319999999999993</v>
       </c>
-      <c r="I20" s="51" t="n">
+      <c r="I20" s="56" t="n">
         <v>240.5</v>
       </c>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="N20" s="52" t="s">
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="N20" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="O20" s="52" t="n">
+      <c r="O20" s="51" t="n">
         <v>50</v>
       </c>
-      <c r="P20" s="52" t="n">
+      <c r="P20" s="53" t="n">
         <v>9555.72999999999956</v>
       </c>
-      <c r="Q20" s="52" t="n">
+      <c r="Q20" s="53" t="n">
         <v>9555.72999999999956</v>
       </c>
-      <c r="R20" s="52" t="n">
+      <c r="R20" s="53" t="n">
         <v>9555.72999999999956</v>
       </c>
-      <c r="S20" s="51" t="n">
+      <c r="S20" s="56" t="n">
         <v>11703.5799999999999</v>
       </c>
-      <c r="T20" s="51" t="n">
+      <c r="T20" s="56" t="n">
         <v>11550.1599999999999</v>
       </c>
-      <c r="U20" s="51" t="n">
+      <c r="U20" s="56" t="n">
         <v>11626.2099999999991</v>
       </c>
-      <c r="V20" s="51"/>
-      <c r="W20" s="51"/>
-      <c r="X20" s="51"/>
-      <c r="Z20" s="52" t="s">
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Z20" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="AA20" s="52" t="n">
+      <c r="AA20" s="51" t="n">
         <v>87</v>
       </c>
-      <c r="AB20" s="52" t="n">
+      <c r="AB20" s="53" t="n">
         <v>10537</v>
       </c>
-      <c r="AC20" s="52" t="n">
+      <c r="AC20" s="53" t="n">
         <v>10528</v>
       </c>
-      <c r="AD20" s="52" t="n">
+      <c r="AD20" s="53" t="n">
         <v>10498</v>
       </c>
-      <c r="AE20" s="51" t="n">
+      <c r="AE20" s="56" t="n">
         <v>10638</v>
       </c>
-      <c r="AF20" s="51" t="n">
+      <c r="AF20" s="56" t="n">
         <v>10486</v>
       </c>
-      <c r="AG20" s="51" t="n">
+      <c r="AG20" s="56" t="n">
         <v>10488</v>
       </c>
-      <c r="AH20" s="51"/>
-      <c r="AI20" s="51"/>
-      <c r="AJ20" s="51"/>
+      <c r="AH20" s="56"/>
+      <c r="AI20" s="56"/>
+      <c r="AJ20" s="56"/>
     </row>
     <row r="21" spans="2:36">
       <c r="B21" s="50" t="s">
@@ -6026,81 +6059,81 @@
       <c r="C21" s="50" t="n">
         <v>50</v>
       </c>
-      <c r="D21" s="50" t="n">
+      <c r="D21" s="52" t="n">
         <v>314.430000000000007</v>
       </c>
-      <c r="E21" s="50" t="n">
+      <c r="E21" s="52" t="n">
         <v>314.430000000000007</v>
       </c>
-      <c r="F21" s="50" t="n">
+      <c r="F21" s="52" t="n">
         <v>314.430000000000007</v>
       </c>
-      <c r="G21" s="51" t="n">
+      <c r="G21" s="56" t="n">
         <v>266.889999999999986</v>
       </c>
-      <c r="H21" s="51" t="n">
+      <c r="H21" s="56" t="n">
         <v>265.75</v>
       </c>
-      <c r="I21" s="51" t="n">
+      <c r="I21" s="56" t="n">
         <v>266.889999999999986</v>
       </c>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="N21" s="52" t="s">
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="N21" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="O21" s="52" t="n">
+      <c r="O21" s="51" t="n">
         <v>50</v>
       </c>
-      <c r="P21" s="52" t="n">
+      <c r="P21" s="53" t="n">
         <v>10636.8500000000004</v>
       </c>
-      <c r="Q21" s="52" t="n">
+      <c r="Q21" s="53" t="n">
         <v>10587.1700000000001</v>
       </c>
-      <c r="R21" s="52" t="n">
+      <c r="R21" s="53" t="n">
         <v>10205.0699999999997</v>
       </c>
-      <c r="S21" s="51" t="n">
+      <c r="S21" s="56" t="n">
         <v>11197.7299999999996</v>
       </c>
-      <c r="T21" s="51" t="n">
+      <c r="T21" s="56" t="n">
         <v>11197.7299999999996</v>
       </c>
-      <c r="U21" s="51" t="n">
+      <c r="U21" s="56" t="n">
         <v>11210.2600000000002</v>
       </c>
-      <c r="V21" s="51"/>
-      <c r="W21" s="51"/>
-      <c r="X21" s="51"/>
-      <c r="Z21" s="52" t="s">
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
+      <c r="Z21" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="AA21" s="52" t="n">
+      <c r="AA21" s="51" t="n">
         <v>267</v>
       </c>
-      <c r="AB21" s="52" t="n">
+      <c r="AB21" s="53" t="n">
         <v>23558</v>
       </c>
-      <c r="AC21" s="52" t="n">
+      <c r="AC21" s="53" t="n">
         <v>23495</v>
       </c>
-      <c r="AD21" s="52" t="n">
+      <c r="AD21" s="53" t="n">
         <v>23164</v>
       </c>
-      <c r="AE21" s="51" t="n">
+      <c r="AE21" s="56" t="n">
         <v>23512</v>
       </c>
-      <c r="AF21" s="51" t="n">
+      <c r="AF21" s="56" t="n">
         <v>23516</v>
       </c>
-      <c r="AG21" s="51" t="n">
+      <c r="AG21" s="56" t="n">
         <v>23179</v>
       </c>
-      <c r="AH21" s="51"/>
-      <c r="AI21" s="51"/>
-      <c r="AJ21" s="51"/>
+      <c r="AH21" s="56"/>
+      <c r="AI21" s="56"/>
+      <c r="AJ21" s="56"/>
     </row>
     <row r="22" spans="2:36">
       <c r="B22" s="50" t="s">
@@ -6109,75 +6142,75 @@
       <c r="C22" s="50" t="n">
         <v>13</v>
       </c>
-      <c r="D22" s="50" t="n">
+      <c r="D22" s="52" t="n">
         <v>334</v>
       </c>
-      <c r="E22" s="50" t="n">
+      <c r="E22" s="52" t="n">
         <v>331</v>
       </c>
-      <c r="F22" s="50" t="n">
+      <c r="F22" s="52" t="n">
         <v>334</v>
       </c>
-      <c r="G22" s="51" t="n">
+      <c r="G22" s="56" t="n">
         <v>391</v>
       </c>
-      <c r="H22" s="51" t="n">
+      <c r="H22" s="56" t="n">
         <v>391</v>
       </c>
-      <c r="I22" s="51" t="n">
+      <c r="I22" s="56" t="n">
         <v>391</v>
       </c>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="N22" s="52" t="s">
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="N22" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="O22" s="52" t="n">
+      <c r="O22" s="51" t="n">
         <v>50</v>
       </c>
-      <c r="P22" s="52" t="n">
+      <c r="P22" s="53" t="n">
         <v>10167.7999999999993</v>
       </c>
-      <c r="Q22" s="52" t="n">
+      <c r="Q22" s="53" t="n">
         <v>9911.8700000000008</v>
       </c>
-      <c r="R22" s="52" t="n">
+      <c r="R22" s="53" t="n">
         <v>9424.10000000000036</v>
       </c>
-      <c r="S22" s="51" t="n">
+      <c r="S22" s="56" t="n">
         <v>10160.4099999999999</v>
       </c>
-      <c r="T22" s="51" t="n">
+      <c r="T22" s="56" t="n">
         <v>9777.09000000000015</v>
       </c>
-      <c r="U22" s="51" t="n">
+      <c r="U22" s="56" t="n">
         <v>9883.1299999999992</v>
       </c>
-      <c r="V22" s="51"/>
-      <c r="W22" s="51"/>
-      <c r="X22" s="51"/>
-      <c r="Z22" s="52" t="s">
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Z22" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="AA22" s="52" t="n">
+      <c r="AA22" s="51" t="n">
         <v>516</v>
       </c>
-      <c r="AB22" s="52" t="n">
+      <c r="AB22" s="53" t="n">
         <v>46817</v>
       </c>
-      <c r="AC22" s="52" t="n">
+      <c r="AC22" s="53" t="n">
         <v>46817</v>
       </c>
-      <c r="AD22" s="52" t="n">
+      <c r="AD22" s="53" t="n">
         <v>46591</v>
       </c>
-      <c r="AE22" s="51"/>
-      <c r="AF22" s="51"/>
-      <c r="AG22" s="51"/>
-      <c r="AH22" s="51"/>
-      <c r="AI22" s="51"/>
-      <c r="AJ22" s="51"/>
+      <c r="AE22" s="56"/>
+      <c r="AF22" s="56"/>
+      <c r="AG22" s="56"/>
+      <c r="AH22" s="56"/>
+      <c r="AI22" s="56"/>
+      <c r="AJ22" s="56"/>
     </row>
     <row r="23" spans="2:36">
       <c r="B23" s="50" t="s">
@@ -6186,81 +6219,81 @@
       <c r="C23" s="50" t="n">
         <v>131</v>
       </c>
-      <c r="D23" s="50" t="n">
+      <c r="D23" s="52" t="n">
         <v>1176.36999999999989</v>
       </c>
-      <c r="E23" s="50" t="n">
+      <c r="E23" s="52" t="n">
         <v>1176.36999999999989</v>
       </c>
-      <c r="F23" s="50" t="n">
+      <c r="F23" s="52" t="n">
         <v>1169.16000000000008</v>
       </c>
-      <c r="G23" s="51" t="n">
+      <c r="G23" s="56" t="n">
         <v>1353.50999999999999</v>
       </c>
-      <c r="H23" s="51" t="n">
+      <c r="H23" s="56" t="n">
         <v>1315.95000000000005</v>
       </c>
-      <c r="I23" s="51" t="n">
+      <c r="I23" s="56" t="n">
         <v>1350.29999999999995</v>
       </c>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="N23" s="52" t="s">
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="N23" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="O23" s="52" t="n">
+      <c r="O23" s="51" t="n">
         <v>52</v>
       </c>
-      <c r="P23" s="52" t="n">
+      <c r="P23" s="53" t="n">
         <v>5848.46000000000004</v>
       </c>
-      <c r="Q23" s="52" t="n">
+      <c r="Q23" s="53" t="n">
         <v>5673.73999999999978</v>
       </c>
-      <c r="R23" s="52" t="n">
+      <c r="R23" s="53" t="n">
         <v>5691.96000000000004</v>
       </c>
-      <c r="S23" s="51" t="n">
+      <c r="S23" s="56" t="n">
         <v>5290</v>
       </c>
-      <c r="T23" s="51" t="n">
+      <c r="T23" s="56" t="n">
         <v>5255.48999999999978</v>
       </c>
-      <c r="U23" s="51" t="n">
+      <c r="U23" s="56" t="n">
         <v>5255.48999999999978</v>
       </c>
-      <c r="V23" s="51"/>
-      <c r="W23" s="51"/>
-      <c r="X23" s="51"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
       <c r="Z23" s="50" t="s">
         <v>67</v>
       </c>
       <c r="AA23" s="50" t="n">
         <v>35</v>
       </c>
-      <c r="AB23" s="52" t="n">
+      <c r="AB23" s="53" t="n">
         <v>320.009999999999991</v>
       </c>
-      <c r="AC23" s="52" t="n">
+      <c r="AC23" s="53" t="n">
         <v>323.069999999999993</v>
       </c>
-      <c r="AD23" s="52" t="n">
+      <c r="AD23" s="53" t="n">
         <v>308.25</v>
       </c>
-      <c r="AE23" s="51" t="n">
+      <c r="AE23" s="56" t="n">
         <v>248.689999999999998</v>
       </c>
-      <c r="AF23" s="51" t="n">
+      <c r="AF23" s="56" t="n">
         <v>248.689999999999998</v>
       </c>
-      <c r="AG23" s="51" t="n">
+      <c r="AG23" s="56" t="n">
         <v>248.689999999999998</v>
       </c>
-      <c r="AH23" s="51"/>
-      <c r="AI23" s="51"/>
-      <c r="AJ23" s="51"/>
+      <c r="AH23" s="56"/>
+      <c r="AI23" s="56"/>
+      <c r="AJ23" s="56"/>
     </row>
     <row r="24" spans="2:36">
       <c r="B24" s="50" t="s">
@@ -6269,81 +6302,81 @@
       <c r="C24" s="50" t="n">
         <v>8</v>
       </c>
-      <c r="D24" s="50" t="n">
+      <c r="D24" s="52" t="n">
         <v>359</v>
       </c>
-      <c r="E24" s="50" t="n">
+      <c r="E24" s="52" t="n">
         <v>359</v>
       </c>
-      <c r="F24" s="50" t="n">
+      <c r="F24" s="52" t="n">
         <v>359</v>
       </c>
-      <c r="G24" s="51" t="n">
+      <c r="G24" s="56" t="n">
         <v>426</v>
       </c>
-      <c r="H24" s="51" t="n">
+      <c r="H24" s="56" t="n">
         <v>426</v>
       </c>
-      <c r="I24" s="51" t="n">
+      <c r="I24" s="56" t="n">
         <v>426</v>
       </c>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="N24" s="52" t="s">
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="N24" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="O24" s="52" t="n">
+      <c r="O24" s="51" t="n">
         <v>159</v>
       </c>
-      <c r="P24" s="52" t="n">
+      <c r="P24" s="53" t="n">
         <v>22464.9900000000016</v>
       </c>
-      <c r="Q24" s="52" t="n">
+      <c r="Q24" s="53" t="n">
         <v>21495.0200000000004</v>
       </c>
-      <c r="R24" s="52" t="n">
+      <c r="R24" s="53" t="n">
         <v>20813.25</v>
       </c>
-      <c r="S24" s="51" t="n">
+      <c r="S24" s="56" t="n">
         <v>20659.25</v>
       </c>
-      <c r="T24" s="51" t="n">
+      <c r="T24" s="56" t="n">
         <v>19870.1599999999999</v>
       </c>
-      <c r="U24" s="51" t="n">
+      <c r="U24" s="56" t="n">
         <v>20147.5999999999985</v>
       </c>
-      <c r="V24" s="51"/>
-      <c r="W24" s="51"/>
-      <c r="X24" s="51"/>
-      <c r="Z24" s="52" t="s">
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Z24" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="AA24" s="52" t="n">
+      <c r="AA24" s="51" t="n">
         <v>21</v>
       </c>
-      <c r="AB24" s="52" t="n">
+      <c r="AB24" s="53" t="n">
         <v>425</v>
       </c>
-      <c r="AC24" s="52" t="n">
+      <c r="AC24" s="53" t="n">
         <v>425</v>
       </c>
-      <c r="AD24" s="52" t="n">
+      <c r="AD24" s="53" t="n">
         <v>425</v>
       </c>
-      <c r="AE24" s="51" t="n">
+      <c r="AE24" s="56" t="n">
         <v>448</v>
       </c>
-      <c r="AF24" s="51" t="n">
+      <c r="AF24" s="56" t="n">
         <v>448</v>
       </c>
-      <c r="AG24" s="51" t="n">
+      <c r="AG24" s="56" t="n">
         <v>425</v>
       </c>
-      <c r="AH24" s="51"/>
-      <c r="AI24" s="51"/>
-      <c r="AJ24" s="51"/>
+      <c r="AH24" s="56"/>
+      <c r="AI24" s="56"/>
+      <c r="AJ24" s="56"/>
     </row>
     <row r="25" spans="2:36">
       <c r="B25" s="50" t="s">
@@ -6352,75 +6385,75 @@
       <c r="C25" s="50" t="n">
         <v>10</v>
       </c>
-      <c r="D25" s="50" t="n">
+      <c r="D25" s="52" t="n">
         <v>989</v>
       </c>
-      <c r="E25" s="50" t="n">
+      <c r="E25" s="52" t="n">
         <v>989</v>
       </c>
-      <c r="F25" s="50" t="n">
+      <c r="F25" s="52" t="n">
         <v>989</v>
       </c>
-      <c r="G25" s="51" t="n">
+      <c r="G25" s="56" t="n">
         <v>683</v>
       </c>
-      <c r="H25" s="51" t="n">
+      <c r="H25" s="56" t="n">
         <v>683</v>
       </c>
-      <c r="I25" s="51" t="n">
+      <c r="I25" s="56" t="n">
         <v>683</v>
       </c>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="N25" s="52" t="s">
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="N25" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="O25" s="52" t="n">
+      <c r="O25" s="51" t="n">
         <v>689</v>
       </c>
-      <c r="P25" s="52" t="n">
+      <c r="P25" s="53" t="n">
         <v>28386.6399999999994</v>
       </c>
-      <c r="Q25" s="52" t="n">
+      <c r="Q25" s="53" t="n">
         <v>28189.25</v>
       </c>
-      <c r="R25" s="52" t="n">
+      <c r="R25" s="53" t="n">
         <v>28110.7299999999996</v>
       </c>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="51"/>
-      <c r="Z25" s="52" t="s">
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
+      <c r="Z25" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="AA25" s="52" t="n">
+      <c r="AA25" s="51" t="n">
         <v>112</v>
       </c>
-      <c r="AB25" s="52" t="n">
+      <c r="AB25" s="53" t="n">
         <v>55500</v>
       </c>
-      <c r="AC25" s="52" t="n">
+      <c r="AC25" s="53" t="n">
         <v>55500</v>
       </c>
-      <c r="AD25" s="52" t="n">
+      <c r="AD25" s="53" t="n">
         <v>55500</v>
       </c>
-      <c r="AE25" s="51" t="n">
+      <c r="AE25" s="56" t="n">
         <v>73643.8600000000006</v>
       </c>
-      <c r="AF25" s="51" t="n">
+      <c r="AF25" s="56" t="n">
         <v>69439.8000000000029</v>
       </c>
-      <c r="AG25" s="51" t="n">
+      <c r="AG25" s="56" t="n">
         <v>69730.6699999999983</v>
       </c>
-      <c r="AH25" s="51"/>
-      <c r="AI25" s="51"/>
-      <c r="AJ25" s="51"/>
+      <c r="AH25" s="56"/>
+      <c r="AI25" s="56"/>
+      <c r="AJ25" s="56"/>
     </row>
     <row r="26" spans="2:36">
       <c r="B26" s="50" t="s">
@@ -6429,81 +6462,81 @@
       <c r="C26" s="50" t="n">
         <v>12</v>
       </c>
-      <c r="D26" s="50" t="n">
+      <c r="D26" s="52" t="n">
         <v>490</v>
       </c>
-      <c r="E26" s="50" t="n">
+      <c r="E26" s="52" t="n">
         <v>490</v>
       </c>
-      <c r="F26" s="50" t="n">
+      <c r="F26" s="52" t="n">
         <v>490</v>
       </c>
-      <c r="G26" s="51" t="n">
+      <c r="G26" s="56" t="n">
         <v>413</v>
       </c>
-      <c r="H26" s="51" t="n">
+      <c r="H26" s="56" t="n">
         <v>413</v>
       </c>
-      <c r="I26" s="51" t="n">
+      <c r="I26" s="56" t="n">
         <v>413</v>
       </c>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="N26" s="52" t="s">
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="N26" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="O26" s="52" t="n">
+      <c r="O26" s="51" t="n">
         <v>280</v>
       </c>
-      <c r="P26" s="52" t="n">
+      <c r="P26" s="53" t="n">
         <v>1356</v>
       </c>
-      <c r="Q26" s="52" t="n">
+      <c r="Q26" s="53" t="n">
         <v>1341</v>
       </c>
-      <c r="R26" s="52" t="n">
+      <c r="R26" s="53" t="n">
         <v>1336</v>
       </c>
-      <c r="S26" s="51" t="n">
+      <c r="S26" s="56" t="n">
         <v>1219</v>
       </c>
-      <c r="T26" s="51" t="n">
+      <c r="T26" s="56" t="n">
         <v>1192</v>
       </c>
-      <c r="U26" s="51" t="n">
+      <c r="U26" s="56" t="n">
         <v>1161</v>
       </c>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="X26" s="51"/>
-      <c r="Z26" s="52" t="s">
+      <c r="V26" s="56"/>
+      <c r="W26" s="56"/>
+      <c r="X26" s="56"/>
+      <c r="Z26" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="AA26" s="52" t="n">
+      <c r="AA26" s="51" t="n">
         <v>112</v>
       </c>
-      <c r="AB26" s="52" t="n">
+      <c r="AB26" s="53" t="n">
         <v>1803.8900000000001</v>
       </c>
-      <c r="AC26" s="52" t="n">
+      <c r="AC26" s="53" t="n">
         <v>1803.8900000000001</v>
       </c>
-      <c r="AD26" s="52" t="n">
+      <c r="AD26" s="53" t="n">
         <v>1836.1400000000001</v>
       </c>
-      <c r="AE26" s="51" t="n">
+      <c r="AE26" s="56" t="n">
         <v>2121.32999999999993</v>
       </c>
-      <c r="AF26" s="51" t="n">
+      <c r="AF26" s="56" t="n">
         <v>2049.57000000000016</v>
       </c>
-      <c r="AG26" s="51" t="s">
+      <c r="AG26" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="AH26" s="51"/>
-      <c r="AI26" s="51"/>
-      <c r="AJ26" s="51"/>
+      <c r="AH26" s="56"/>
+      <c r="AI26" s="56"/>
+      <c r="AJ26" s="56"/>
     </row>
     <row r="27" spans="26:36">
       <c r="Z27" s="50" t="s">
@@ -6512,27 +6545,27 @@
       <c r="AA27" s="50" t="n">
         <v>8</v>
       </c>
-      <c r="AB27" s="50" t="n">
+      <c r="AB27" s="52" t="n">
         <v>1981.71000000000004</v>
       </c>
-      <c r="AC27" s="50" t="n">
+      <c r="AC27" s="52" t="n">
         <v>1981.71000000000004</v>
       </c>
-      <c r="AD27" s="50" t="n">
+      <c r="AD27" s="52" t="n">
         <v>1981.71000000000004</v>
       </c>
-      <c r="AE27" s="51" t="n">
+      <c r="AE27" s="56" t="n">
         <v>1981.15000000000009</v>
       </c>
-      <c r="AF27" s="51" t="n">
+      <c r="AF27" s="56" t="n">
         <v>1981.15000000000009</v>
       </c>
-      <c r="AG27" s="51" t="s">
+      <c r="AG27" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="AH27" s="51"/>
-      <c r="AI27" s="51"/>
-      <c r="AJ27" s="51"/>
+      <c r="AH27" s="56"/>
+      <c r="AI27" s="56"/>
+      <c r="AJ27" s="56"/>
     </row>
     <row r="28" spans="26:36">
       <c r="Z28" s="50" t="s">
@@ -6541,27 +6574,27 @@
       <c r="AA28" s="50" t="n">
         <v>11</v>
       </c>
-      <c r="AB28" s="50" t="n">
+      <c r="AB28" s="52" t="n">
         <v>2062.92000000000007</v>
       </c>
-      <c r="AC28" s="50" t="n">
+      <c r="AC28" s="52" t="n">
         <v>2062.92000000000007</v>
       </c>
-      <c r="AD28" s="50" t="n">
+      <c r="AD28" s="52" t="n">
         <v>2062.92000000000007</v>
       </c>
-      <c r="AE28" s="51" t="n">
+      <c r="AE28" s="56" t="n">
         <v>2062.34999999999991</v>
       </c>
-      <c r="AF28" s="51" t="n">
+      <c r="AF28" s="56" t="n">
         <v>2062.34999999999991</v>
       </c>
-      <c r="AG28" s="51" t="s">
+      <c r="AG28" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="AH28" s="51"/>
-      <c r="AI28" s="51"/>
-      <c r="AJ28" s="51"/>
+      <c r="AH28" s="56"/>
+      <c r="AI28" s="56"/>
+      <c r="AJ28" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6581,7 +6614,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1643156947" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1643157189" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6590,16 +6623,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1643156947" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1643156947" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1643156947" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1643156947" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1643157189" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1643157189" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1643157189" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1643157189" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1643156947" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1643157189" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6610,23 +6643,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:AJ28"/>
+  <dimension ref="A1:XFD28"/>
   <sheetViews>
-    <sheetView view="normal" topLeftCell="Z4" workbookViewId="0">
-      <selection activeCell="AF29" sqref="AF29"/>
+    <sheetView view="normal" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.20"/>
   <cols>
-    <col min="3" max="3" width="19.138614" customWidth="1"/>
-    <col min="5" max="5" width="10.574257" customWidth="1"/>
-    <col min="7" max="7" width="9.574257" customWidth="1"/>
-    <col min="15" max="15" width="19.138614" customWidth="1"/>
-    <col min="17" max="17" width="10.574257" customWidth="1"/>
-    <col min="19" max="20" width="9.574257" customWidth="1"/>
-    <col min="27" max="27" width="19.138614" customWidth="1"/>
-    <col min="29" max="29" width="10.574257" customWidth="1"/>
-    <col min="31" max="32" width="10.574257" customWidth="1"/>
+    <col min="1" max="2" width="9.138614" style="54"/>
+    <col min="3" max="3" width="19.138614" customWidth="1" style="54"/>
+    <col min="4" max="4" width="9.752475" customWidth="1" style="54"/>
+    <col min="5" max="5" width="10.574257" customWidth="1" style="54"/>
+    <col min="6" max="6" width="9.752475" customWidth="1" style="54"/>
+    <col min="7" max="7" width="9.574257" customWidth="1" style="54"/>
+    <col min="8" max="14" width="9.138614" style="54"/>
+    <col min="15" max="15" width="19.138614" customWidth="1" style="54"/>
+    <col min="16" max="16" width="9.752475" customWidth="1" style="54"/>
+    <col min="17" max="17" width="10.574257" customWidth="1" style="54"/>
+    <col min="18" max="18" width="9.752475" customWidth="1" style="54"/>
+    <col min="19" max="20" width="9.574257" customWidth="1" style="54"/>
+    <col min="21" max="26" width="9.138614" style="54"/>
+    <col min="27" max="27" width="19.138614" customWidth="1" style="54"/>
+    <col min="28" max="30" width="10.861386" customWidth="1" style="54"/>
+    <col min="31" max="32" width="10.574257" customWidth="1" style="54"/>
+    <col min="33" max="16384" width="9.138614" style="54"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:36">
@@ -6684,8 +6725,8 @@
       </c>
       <c r="K3" s="49"/>
       <c r="L3" s="49"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52" t="s">
+      <c r="N3" s="51"/>
+      <c r="O3" s="51" t="s">
         <v>83</v>
       </c>
       <c r="P3" s="49" t="s">
@@ -6730,64 +6771,64 @@
       <c r="C4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="J4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="51" t="s">
+      <c r="K4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="52" t="s">
+      <c r="N4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="52" t="s">
+      <c r="O4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="51" t="s">
+      <c r="P4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="51" t="s">
+      <c r="Q4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="51" t="s">
+      <c r="R4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="51" t="s">
+      <c r="S4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="51" t="s">
+      <c r="T4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="51" t="s">
+      <c r="U4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="V4" s="51" t="s">
+      <c r="V4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="W4" s="51" t="s">
+      <c r="W4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="51" t="s">
+      <c r="X4" s="55" t="s">
         <v>9</v>
       </c>
       <c r="Z4" s="50" t="s">
@@ -6796,31 +6837,31 @@
       <c r="AA4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AB4" s="51" t="s">
+      <c r="AB4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AC4" s="51" t="s">
+      <c r="AC4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AD4" s="51" t="s">
+      <c r="AD4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AE4" s="51" t="s">
+      <c r="AE4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AF4" s="51" t="s">
+      <c r="AF4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AG4" s="51" t="s">
+      <c r="AG4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AH4" s="51" t="s">
+      <c r="AH4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AI4" s="51" t="s">
+      <c r="AI4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AJ4" s="51" t="s">
+      <c r="AJ4" s="55" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6831,75 +6872,75 @@
       <c r="C5" s="50" t="n">
         <v>210</v>
       </c>
-      <c r="D5" s="50" t="n">
+      <c r="D5" s="52" t="n">
         <v>2071.57000000000016</v>
       </c>
-      <c r="E5" s="50" t="n">
+      <c r="E5" s="52" t="n">
         <v>2055.26000000000022</v>
       </c>
-      <c r="F5" s="50" t="n">
+      <c r="F5" s="52" t="n">
         <v>2024.94000000000005</v>
       </c>
-      <c r="G5" s="51" t="n">
+      <c r="G5" s="56" t="n">
         <v>2263.90999999999985</v>
       </c>
-      <c r="H5" s="51" t="n">
+      <c r="H5" s="56" t="n">
         <v>2179.01000000000022</v>
       </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="N5" s="52" t="s">
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="N5" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="52" t="n">
+      <c r="O5" s="51" t="n">
         <v>36</v>
       </c>
-      <c r="P5" s="52" t="n">
+      <c r="P5" s="53" t="n">
         <v>3456</v>
       </c>
-      <c r="Q5" s="52" t="n">
+      <c r="Q5" s="53" t="n">
         <v>3340</v>
       </c>
-      <c r="R5" s="52" t="n">
+      <c r="R5" s="53" t="n">
         <v>3164</v>
       </c>
-      <c r="S5" s="51" t="n">
+      <c r="S5" s="56" t="n">
         <v>3442</v>
       </c>
-      <c r="T5" s="51" t="n">
+      <c r="T5" s="56" t="n">
         <v>3366</v>
       </c>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
       <c r="Z5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="AA5" s="50" t="n">
         <v>57</v>
       </c>
-      <c r="AB5" s="50" t="n">
+      <c r="AB5" s="52" t="n">
         <v>63830.1200000000026</v>
       </c>
-      <c r="AC5" s="50" t="n">
+      <c r="AC5" s="52" t="n">
         <v>63719.25</v>
       </c>
-      <c r="AD5" s="50" t="n">
+      <c r="AD5" s="52" t="n">
         <v>62471.5899999999965</v>
       </c>
-      <c r="AE5" s="51" t="n">
+      <c r="AE5" s="56" t="n">
         <v>69677.3399999999965</v>
       </c>
-      <c r="AF5" s="51" t="n">
+      <c r="AF5" s="56" t="n">
         <v>69084.5500000000029</v>
       </c>
-      <c r="AG5" s="51"/>
-      <c r="AH5" s="51"/>
-      <c r="AI5" s="51"/>
-      <c r="AJ5" s="51"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
     </row>
     <row r="6" spans="2:36">
       <c r="B6" s="50" t="s">
@@ -6908,65 +6949,65 @@
       <c r="C6" s="50" t="n">
         <v>401</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="N6" s="52" t="s">
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="N6" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="52" t="n">
+      <c r="O6" s="51" t="n">
         <v>72</v>
       </c>
-      <c r="P6" s="52" t="n">
+      <c r="P6" s="53" t="n">
         <v>40637.25</v>
       </c>
-      <c r="Q6" s="52" t="n">
+      <c r="Q6" s="53" t="n">
         <v>39556.9300000000003</v>
       </c>
-      <c r="R6" s="52" t="n">
+      <c r="R6" s="53" t="n">
         <v>40066.0800000000017</v>
       </c>
-      <c r="S6" s="51" t="n">
+      <c r="S6" s="56" t="n">
         <v>37592.1399999999994</v>
       </c>
-      <c r="T6" s="51" t="n">
+      <c r="T6" s="56" t="n">
         <v>37585.8700000000026</v>
       </c>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="51"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
       <c r="Z6" s="50" t="s">
         <v>15</v>
       </c>
       <c r="AA6" s="50" t="n">
         <v>80</v>
       </c>
-      <c r="AB6" s="50" t="n">
+      <c r="AB6" s="52" t="n">
         <v>32157.0400000000009</v>
       </c>
-      <c r="AC6" s="50" t="n">
+      <c r="AC6" s="52" t="n">
         <v>31557.5400000000009</v>
       </c>
-      <c r="AD6" s="50" t="n">
+      <c r="AD6" s="52" t="n">
         <v>30370.619999999999</v>
       </c>
-      <c r="AE6" s="51" t="n">
+      <c r="AE6" s="56" t="n">
         <v>30902.1399999999994</v>
       </c>
-      <c r="AF6" s="51" t="n">
+      <c r="AF6" s="56" t="n">
         <v>30316.6500000000015</v>
       </c>
-      <c r="AG6" s="51"/>
-      <c r="AH6" s="51"/>
-      <c r="AI6" s="51"/>
-      <c r="AJ6" s="51"/>
+      <c r="AG6" s="56"/>
+      <c r="AH6" s="56"/>
+      <c r="AI6" s="56"/>
+      <c r="AJ6" s="56"/>
     </row>
     <row r="7" spans="2:36">
       <c r="B7" s="50" t="s">
@@ -6975,75 +7016,75 @@
       <c r="C7" s="50" t="n">
         <v>36</v>
       </c>
-      <c r="D7" s="50" t="n">
+      <c r="D7" s="52" t="n">
         <v>6962</v>
       </c>
-      <c r="E7" s="50" t="n">
+      <c r="E7" s="52" t="n">
         <v>6649</v>
       </c>
-      <c r="F7" s="50" t="n">
+      <c r="F7" s="52" t="n">
         <v>6505</v>
       </c>
-      <c r="G7" s="51" t="n">
+      <c r="G7" s="56" t="n">
         <v>6635</v>
       </c>
-      <c r="H7" s="51" t="n">
+      <c r="H7" s="56" t="n">
         <v>6348</v>
       </c>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="N7" s="52" t="s">
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="N7" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="52" t="n">
+      <c r="O7" s="51" t="n">
         <v>90</v>
       </c>
-      <c r="P7" s="52" t="n">
+      <c r="P7" s="53" t="n">
         <v>4673</v>
       </c>
-      <c r="Q7" s="52" t="n">
+      <c r="Q7" s="53" t="n">
         <v>4643</v>
       </c>
-      <c r="R7" s="52" t="n">
+      <c r="R7" s="53" t="n">
         <v>4635</v>
       </c>
-      <c r="S7" s="51" t="n">
+      <c r="S7" s="56" t="n">
         <v>4810</v>
       </c>
-      <c r="T7" s="51" t="n">
+      <c r="T7" s="56" t="n">
         <v>4742</v>
       </c>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
       <c r="Z7" s="50" t="s">
         <v>18</v>
       </c>
       <c r="AA7" s="50" t="n">
         <v>93</v>
       </c>
-      <c r="AB7" s="50" t="n">
+      <c r="AB7" s="52" t="n">
         <v>38002.0999999999985</v>
       </c>
-      <c r="AC7" s="50" t="n">
+      <c r="AC7" s="52" t="n">
         <v>39424.6299999999974</v>
       </c>
-      <c r="AD7" s="50" t="n">
+      <c r="AD7" s="52" t="n">
         <v>37725.6399999999994</v>
       </c>
-      <c r="AE7" s="51" t="n">
+      <c r="AE7" s="56" t="n">
         <v>41103.5899999999965</v>
       </c>
-      <c r="AF7" s="51" t="n">
+      <c r="AF7" s="56" t="n">
         <v>39323.8000000000029</v>
       </c>
-      <c r="AG7" s="51"/>
-      <c r="AH7" s="51"/>
-      <c r="AI7" s="51"/>
-      <c r="AJ7" s="51"/>
+      <c r="AG7" s="56"/>
+      <c r="AH7" s="56"/>
+      <c r="AI7" s="56"/>
+      <c r="AJ7" s="56"/>
     </row>
     <row r="8" spans="2:36">
       <c r="B8" s="50" t="s">
@@ -7052,65 +7093,65 @@
       <c r="C8" s="50" t="n">
         <v>399</v>
       </c>
-      <c r="D8" s="50" t="n">
+      <c r="D8" s="52" t="n">
         <v>22861</v>
       </c>
-      <c r="E8" s="50" t="n">
+      <c r="E8" s="52" t="n">
         <v>22317</v>
       </c>
-      <c r="F8" s="50" t="n">
+      <c r="F8" s="52" t="n">
         <v>21862</v>
       </c>
-      <c r="G8" s="51" t="n">
+      <c r="G8" s="56" t="n">
         <v>18469</v>
       </c>
-      <c r="H8" s="51" t="n">
+      <c r="H8" s="56" t="n">
         <v>17680</v>
       </c>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="N8" s="52" t="s">
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="N8" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="52" t="n">
+      <c r="O8" s="51" t="n">
         <v>102</v>
       </c>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
       <c r="Z8" s="50" t="s">
         <v>21</v>
       </c>
       <c r="AA8" s="50" t="n">
         <v>102</v>
       </c>
-      <c r="AB8" s="50" t="n">
+      <c r="AB8" s="52" t="n">
         <v>83744.6100000000006</v>
       </c>
-      <c r="AC8" s="50" t="n">
+      <c r="AC8" s="52" t="n">
         <v>77379.0899999999965</v>
       </c>
-      <c r="AD8" s="50" t="n">
+      <c r="AD8" s="52" t="n">
         <v>76340.25</v>
       </c>
-      <c r="AE8" s="51" t="n">
+      <c r="AE8" s="56" t="n">
         <v>79330.7599999999948</v>
       </c>
-      <c r="AF8" s="51" t="n">
+      <c r="AF8" s="56" t="n">
         <v>77785.0599999999977</v>
       </c>
-      <c r="AG8" s="51"/>
-      <c r="AH8" s="51"/>
-      <c r="AI8" s="51"/>
-      <c r="AJ8" s="51"/>
+      <c r="AG8" s="56"/>
+      <c r="AH8" s="56"/>
+      <c r="AI8" s="56"/>
+      <c r="AJ8" s="56"/>
     </row>
     <row r="9" spans="2:36">
       <c r="B9" s="50" t="s">
@@ -7119,65 +7160,65 @@
       <c r="C9" s="50" t="n">
         <v>21</v>
       </c>
-      <c r="D9" s="50" t="n">
+      <c r="D9" s="52" t="n">
         <v>1035</v>
       </c>
-      <c r="E9" s="50" t="n">
+      <c r="E9" s="52" t="n">
         <v>1035</v>
       </c>
-      <c r="F9" s="50" t="n">
+      <c r="F9" s="52" t="n">
         <v>1035</v>
       </c>
-      <c r="G9" s="51" t="n">
+      <c r="G9" s="56" t="n">
         <v>1068</v>
       </c>
-      <c r="H9" s="51" t="n">
+      <c r="H9" s="56" t="n">
         <v>1012</v>
       </c>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="N9" s="52" t="s">
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="N9" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="52" t="n">
+      <c r="O9" s="51" t="n">
         <v>151</v>
       </c>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="51"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
       <c r="Z9" s="50" t="s">
         <v>24</v>
       </c>
       <c r="AA9" s="50" t="n">
         <v>108</v>
       </c>
-      <c r="AB9" s="50" t="n">
+      <c r="AB9" s="52" t="n">
         <v>41096.1500000000015</v>
       </c>
-      <c r="AC9" s="50" t="n">
+      <c r="AC9" s="52" t="n">
         <v>40842.5599999999977</v>
       </c>
-      <c r="AD9" s="50" t="n">
+      <c r="AD9" s="52" t="n">
         <v>40842.5599999999977</v>
       </c>
-      <c r="AE9" s="51" t="n">
+      <c r="AE9" s="56" t="n">
         <v>42919.1500000000015</v>
       </c>
-      <c r="AF9" s="51" t="n">
+      <c r="AF9" s="56" t="n">
         <v>42612.2099999999991</v>
       </c>
-      <c r="AG9" s="51"/>
-      <c r="AH9" s="51"/>
-      <c r="AI9" s="51"/>
-      <c r="AJ9" s="51"/>
+      <c r="AG9" s="56"/>
+      <c r="AH9" s="56"/>
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="56"/>
     </row>
     <row r="10" spans="2:36">
       <c r="B10" s="50" t="s">
@@ -7186,65 +7227,65 @@
       <c r="C10" s="50" t="n">
         <v>21</v>
       </c>
-      <c r="D10" s="50" t="n">
+      <c r="D10" s="52" t="n">
         <v>1218</v>
       </c>
-      <c r="E10" s="50" t="n">
+      <c r="E10" s="52" t="n">
         <v>1218</v>
       </c>
-      <c r="F10" s="50" t="n">
+      <c r="F10" s="52" t="n">
         <v>1218</v>
       </c>
-      <c r="G10" s="51" t="n">
+      <c r="G10" s="56" t="n">
         <v>1174</v>
       </c>
-      <c r="H10" s="51" t="n">
+      <c r="H10" s="56" t="n">
         <v>1174</v>
       </c>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="N10" s="52" t="s">
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="N10" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="52" t="n">
+      <c r="O10" s="51" t="n">
         <v>171</v>
       </c>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="51"/>
-      <c r="X10" s="51"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
       <c r="Z10" s="50" t="s">
         <v>27</v>
       </c>
       <c r="AA10" s="50" t="n">
         <v>114</v>
       </c>
-      <c r="AB10" s="50" t="n">
+      <c r="AB10" s="52" t="n">
         <v>49580.4400000000023</v>
       </c>
-      <c r="AC10" s="50" t="n">
+      <c r="AC10" s="52" t="n">
         <v>46572.1800000000003</v>
       </c>
-      <c r="AD10" s="50" t="n">
+      <c r="AD10" s="52" t="n">
         <v>46589.2300000000032</v>
       </c>
-      <c r="AE10" s="51" t="n">
+      <c r="AE10" s="56" t="n">
         <v>50601.8799999999974</v>
       </c>
-      <c r="AF10" s="51" t="n">
+      <c r="AF10" s="56" t="n">
         <v>48427.5599999999977</v>
       </c>
-      <c r="AG10" s="51"/>
-      <c r="AH10" s="51"/>
-      <c r="AI10" s="51"/>
-      <c r="AJ10" s="51"/>
+      <c r="AG10" s="56"/>
+      <c r="AH10" s="56"/>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="56"/>
     </row>
     <row r="11" spans="2:36">
       <c r="B11" s="50" t="s">
@@ -7253,65 +7294,65 @@
       <c r="C11" s="50" t="n">
         <v>39</v>
       </c>
-      <c r="D11" s="50" t="n">
+      <c r="D11" s="52" t="n">
         <v>4246.84000000000015</v>
       </c>
-      <c r="E11" s="50" t="n">
+      <c r="E11" s="52" t="n">
         <v>4246.84000000000015</v>
       </c>
-      <c r="F11" s="50" t="n">
+      <c r="F11" s="52" t="n">
         <v>4246.84000000000015</v>
       </c>
-      <c r="G11" s="51" t="n">
+      <c r="G11" s="56" t="n">
         <v>4586.39999999999964</v>
       </c>
-      <c r="H11" s="51" t="n">
+      <c r="H11" s="56" t="n">
         <v>4538.96000000000004</v>
       </c>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="N11" s="52" t="s">
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="N11" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="O11" s="52" t="n">
+      <c r="O11" s="51" t="n">
         <v>323</v>
       </c>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="51"/>
-      <c r="W11" s="51"/>
-      <c r="X11" s="51"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
       <c r="Z11" s="50" t="s">
         <v>30</v>
       </c>
       <c r="AA11" s="50" t="n">
         <v>169</v>
       </c>
-      <c r="AB11" s="50" t="n">
+      <c r="AB11" s="52" t="n">
         <v>64612.260000000002</v>
       </c>
-      <c r="AC11" s="50" t="n">
+      <c r="AC11" s="52" t="n">
         <v>63619.9800000000032</v>
       </c>
-      <c r="AD11" s="50" t="n">
+      <c r="AD11" s="52" t="n">
         <v>62428.3799999999974</v>
       </c>
-      <c r="AE11" s="51" t="n">
+      <c r="AE11" s="56" t="n">
         <v>70509.4400000000023</v>
       </c>
-      <c r="AF11" s="51" t="n">
+      <c r="AF11" s="56" t="n">
         <v>67482.4199999999983</v>
       </c>
-      <c r="AG11" s="51"/>
-      <c r="AH11" s="51"/>
-      <c r="AI11" s="51"/>
-      <c r="AJ11" s="51"/>
+      <c r="AG11" s="56"/>
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="56"/>
+      <c r="AJ11" s="56"/>
     </row>
     <row r="12" spans="2:36">
       <c r="B12" s="50" t="s">
@@ -7320,65 +7361,65 @@
       <c r="C12" s="50" t="n">
         <v>95</v>
       </c>
-      <c r="D12" s="50" t="n">
+      <c r="D12" s="52" t="n">
         <v>55846.9100000000035</v>
       </c>
-      <c r="E12" s="50" t="n">
+      <c r="E12" s="52" t="n">
         <v>54985.6500000000015</v>
       </c>
-      <c r="F12" s="50" t="n">
+      <c r="F12" s="52" t="n">
         <v>54589.3899999999994</v>
       </c>
-      <c r="G12" s="51" t="n">
+      <c r="G12" s="56" t="n">
         <v>52738.0199999999968</v>
       </c>
-      <c r="H12" s="51" t="n">
+      <c r="H12" s="56" t="n">
         <v>50057.8000000000029</v>
       </c>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="N12" s="52" t="s">
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="N12" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="O12" s="52" t="n">
+      <c r="O12" s="51" t="n">
         <v>499</v>
       </c>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
       <c r="Z12" s="50" t="s">
         <v>33</v>
       </c>
       <c r="AA12" s="50" t="n">
         <v>198</v>
       </c>
-      <c r="AB12" s="50" t="n">
+      <c r="AB12" s="52" t="n">
         <v>36678.9700000000012</v>
       </c>
-      <c r="AC12" s="50" t="n">
+      <c r="AC12" s="52" t="n">
         <v>35636.3300000000017</v>
       </c>
-      <c r="AD12" s="50" t="n">
+      <c r="AD12" s="52" t="n">
         <v>36106.6800000000003</v>
       </c>
-      <c r="AE12" s="51" t="n">
+      <c r="AE12" s="56" t="n">
         <v>35648.8700000000026</v>
       </c>
-      <c r="AF12" s="51" t="n">
+      <c r="AF12" s="56" t="n">
         <v>35079.739999999998</v>
       </c>
-      <c r="AG12" s="51"/>
-      <c r="AH12" s="51"/>
-      <c r="AI12" s="51"/>
-      <c r="AJ12" s="51"/>
+      <c r="AG12" s="56"/>
+      <c r="AH12" s="56"/>
+      <c r="AI12" s="56"/>
+      <c r="AJ12" s="56"/>
     </row>
     <row r="13" spans="2:36">
       <c r="B13" s="50" t="s">
@@ -7387,75 +7428,75 @@
       <c r="C13" s="50" t="n">
         <v>43</v>
       </c>
-      <c r="D13" s="50" t="n">
+      <c r="D13" s="52" t="n">
         <v>13127</v>
       </c>
-      <c r="E13" s="50" t="n">
+      <c r="E13" s="52" t="n">
         <v>13072</v>
       </c>
-      <c r="F13" s="50" t="n">
+      <c r="F13" s="52" t="n">
         <v>13109</v>
       </c>
-      <c r="G13" s="51" t="n">
+      <c r="G13" s="56" t="n">
         <v>13041</v>
       </c>
-      <c r="H13" s="51" t="n">
+      <c r="H13" s="56" t="n">
         <v>13041</v>
       </c>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="N13" s="52" t="s">
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="N13" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="O13" s="52" t="n">
+      <c r="O13" s="51" t="n">
         <v>36</v>
       </c>
-      <c r="P13" s="52" t="n">
+      <c r="P13" s="53" t="n">
         <v>8459</v>
       </c>
-      <c r="Q13" s="52" t="n">
+      <c r="Q13" s="53" t="n">
         <v>8459</v>
       </c>
-      <c r="R13" s="52" t="n">
+      <c r="R13" s="53" t="n">
         <v>8308</v>
       </c>
-      <c r="S13" s="51" t="n">
+      <c r="S13" s="56" t="n">
         <v>7839</v>
       </c>
-      <c r="T13" s="51" t="n">
+      <c r="T13" s="56" t="n">
         <v>7737</v>
       </c>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
       <c r="Z13" s="50" t="s">
         <v>36</v>
       </c>
       <c r="AA13" s="50" t="n">
         <v>224</v>
       </c>
-      <c r="AB13" s="50" t="n">
+      <c r="AB13" s="52" t="n">
         <v>37664.6200000000026</v>
       </c>
-      <c r="AC13" s="50" t="n">
+      <c r="AC13" s="52" t="n">
         <v>36725.0599999999977</v>
       </c>
-      <c r="AD13" s="50" t="n">
+      <c r="AD13" s="52" t="n">
         <v>36050.9499999999971</v>
       </c>
-      <c r="AE13" s="51" t="n">
+      <c r="AE13" s="56" t="n">
         <v>39656.989999999998</v>
       </c>
-      <c r="AF13" s="51" t="n">
+      <c r="AF13" s="56" t="n">
         <v>37003.6399999999994</v>
       </c>
-      <c r="AG13" s="51"/>
-      <c r="AH13" s="51"/>
-      <c r="AI13" s="51"/>
-      <c r="AJ13" s="51"/>
+      <c r="AG13" s="56"/>
+      <c r="AH13" s="56"/>
+      <c r="AI13" s="56"/>
+      <c r="AJ13" s="56"/>
     </row>
     <row r="14" spans="2:36">
       <c r="B14" s="50" t="s">
@@ -7464,75 +7505,75 @@
       <c r="C14" s="50" t="n">
         <v>135</v>
       </c>
-      <c r="D14" s="50" t="n">
+      <c r="D14" s="52" t="n">
         <v>9360</v>
       </c>
-      <c r="E14" s="50" t="n">
+      <c r="E14" s="52" t="n">
         <v>26510</v>
       </c>
-      <c r="F14" s="50" t="n">
+      <c r="F14" s="52" t="n">
         <v>1830</v>
       </c>
-      <c r="G14" s="51" t="n">
+      <c r="G14" s="56" t="n">
         <v>1490</v>
       </c>
-      <c r="H14" s="51" t="n">
+      <c r="H14" s="56" t="n">
         <v>1480</v>
       </c>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="N14" s="52" t="s">
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="N14" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="O14" s="52" t="n">
+      <c r="O14" s="51" t="n">
         <v>75</v>
       </c>
-      <c r="P14" s="52" t="n">
+      <c r="P14" s="53" t="n">
         <v>17585.8300000000017</v>
       </c>
-      <c r="Q14" s="52" t="n">
+      <c r="Q14" s="53" t="n">
         <v>15968.7800000000007</v>
       </c>
-      <c r="R14" s="52" t="n">
+      <c r="R14" s="53" t="n">
         <v>15544.8799999999992</v>
       </c>
-      <c r="S14" s="51" t="n">
+      <c r="S14" s="56" t="n">
         <v>17292</v>
       </c>
-      <c r="T14" s="51" t="n">
+      <c r="T14" s="56" t="n">
         <v>16419.5200000000004</v>
       </c>
-      <c r="U14" s="51"/>
-      <c r="V14" s="51"/>
-      <c r="W14" s="51"/>
-      <c r="X14" s="51"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
       <c r="Z14" s="50" t="s">
         <v>39</v>
       </c>
       <c r="AA14" s="50" t="n">
         <v>329</v>
       </c>
-      <c r="AB14" s="50" t="n">
+      <c r="AB14" s="52" t="n">
         <v>65334.9499999999971</v>
       </c>
-      <c r="AC14" s="50" t="n">
+      <c r="AC14" s="52" t="n">
         <v>64446.8700000000026</v>
       </c>
-      <c r="AD14" s="50" t="n">
+      <c r="AD14" s="52" t="n">
         <v>64127.510000000002</v>
       </c>
-      <c r="AE14" s="51" t="n">
+      <c r="AE14" s="56" t="n">
         <v>69225.1499999999942</v>
       </c>
-      <c r="AF14" s="51" t="n">
+      <c r="AF14" s="56" t="n">
         <v>66432.5399999999936</v>
       </c>
-      <c r="AG14" s="51"/>
-      <c r="AH14" s="51"/>
-      <c r="AI14" s="51"/>
-      <c r="AJ14" s="51"/>
+      <c r="AG14" s="56"/>
+      <c r="AH14" s="56"/>
+      <c r="AI14" s="56"/>
+      <c r="AJ14" s="56"/>
     </row>
     <row r="15" spans="2:36">
       <c r="B15" s="50" t="s">
@@ -7541,71 +7582,71 @@
       <c r="C15" s="50" t="n">
         <v>10</v>
       </c>
-      <c r="D15" s="50" t="n">
+      <c r="D15" s="52" t="n">
         <v>1943.98000000000002</v>
       </c>
-      <c r="E15" s="50" t="n">
+      <c r="E15" s="52" t="n">
         <v>1943.98000000000002</v>
       </c>
-      <c r="F15" s="50" t="n">
+      <c r="F15" s="52" t="n">
         <v>1943.98000000000002</v>
       </c>
-      <c r="G15" s="51" t="n">
+      <c r="G15" s="56" t="n">
         <v>1884.68000000000006</v>
       </c>
-      <c r="H15" s="51" t="n">
+      <c r="H15" s="56" t="n">
         <v>1856.48000000000002</v>
       </c>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="N15" s="52" t="s">
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="N15" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="O15" s="52" t="n">
+      <c r="O15" s="51" t="n">
         <v>112</v>
       </c>
-      <c r="P15" s="52" t="n">
+      <c r="P15" s="53" t="n">
         <v>22681.1100000000006</v>
       </c>
-      <c r="Q15" s="52" t="n">
+      <c r="Q15" s="53" t="n">
         <v>21220.7200000000012</v>
       </c>
-      <c r="R15" s="52" t="n">
+      <c r="R15" s="53" t="n">
         <v>20322.5499999999993</v>
       </c>
-      <c r="S15" s="51" t="n">
+      <c r="S15" s="56" t="n">
         <v>21707.8600000000006</v>
       </c>
-      <c r="T15" s="51" t="n">
+      <c r="T15" s="56" t="n">
         <v>21088.5499999999993</v>
       </c>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="51"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
       <c r="Z15" s="50" t="s">
         <v>42</v>
       </c>
       <c r="AA15" s="50" t="n">
         <v>751</v>
       </c>
-      <c r="AB15" s="50" t="n">
+      <c r="AB15" s="52" t="n">
         <v>205376.76999999999</v>
       </c>
-      <c r="AC15" s="50" t="n">
+      <c r="AC15" s="52" t="n">
         <v>201207.829999999987</v>
       </c>
-      <c r="AD15" s="50" t="n">
+      <c r="AD15" s="52" t="n">
         <v>197692.25</v>
       </c>
-      <c r="AE15" s="51"/>
-      <c r="AF15" s="51"/>
-      <c r="AG15" s="51"/>
-      <c r="AH15" s="51"/>
-      <c r="AI15" s="51"/>
-      <c r="AJ15" s="51"/>
+      <c r="AE15" s="56"/>
+      <c r="AF15" s="56"/>
+      <c r="AG15" s="56"/>
+      <c r="AH15" s="56"/>
+      <c r="AI15" s="56"/>
+      <c r="AJ15" s="56"/>
     </row>
     <row r="16" spans="2:36">
       <c r="B16" s="50" t="s">
@@ -7614,75 +7655,75 @@
       <c r="C16" s="50" t="n">
         <v>97</v>
       </c>
-      <c r="D16" s="50" t="n">
+      <c r="D16" s="52" t="n">
         <v>4152.75</v>
       </c>
-      <c r="E16" s="50" t="n">
+      <c r="E16" s="52" t="n">
         <v>4150.80000000000018</v>
       </c>
-      <c r="F16" s="50" t="n">
+      <c r="F16" s="52" t="n">
         <v>4141.5</v>
       </c>
-      <c r="G16" s="51" t="n">
+      <c r="G16" s="56" t="n">
         <v>4678.47000000000025</v>
       </c>
-      <c r="H16" s="51" t="n">
+      <c r="H16" s="56" t="n">
         <v>4475.78999999999996</v>
       </c>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="N16" s="52" t="s">
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="N16" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="O16" s="52" t="n">
+      <c r="O16" s="51" t="n">
         <v>150</v>
       </c>
-      <c r="P16" s="52" t="n">
+      <c r="P16" s="53" t="n">
         <v>20952.5699999999997</v>
       </c>
-      <c r="Q16" s="52" t="n">
+      <c r="Q16" s="53" t="n">
         <v>21135.2700000000004</v>
       </c>
-      <c r="R16" s="52" t="n">
+      <c r="R16" s="53" t="n">
         <v>20907.7400000000016</v>
       </c>
-      <c r="S16" s="51" t="n">
+      <c r="S16" s="56" t="n">
         <v>23768.7299999999996</v>
       </c>
-      <c r="T16" s="51" t="n">
+      <c r="T16" s="56" t="n">
         <v>22885.1599999999999</v>
       </c>
-      <c r="U16" s="51"/>
-      <c r="V16" s="51"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="51"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
       <c r="Z16" s="50" t="s">
         <v>45</v>
       </c>
       <c r="AA16" s="50" t="n">
         <v>74</v>
       </c>
-      <c r="AB16" s="50" t="n">
+      <c r="AB16" s="52" t="n">
         <v>900.629999999999995</v>
       </c>
-      <c r="AC16" s="50" t="n">
+      <c r="AC16" s="52" t="n">
         <v>894.740000000000009</v>
       </c>
-      <c r="AD16" s="50" t="n">
+      <c r="AD16" s="52" t="n">
         <v>887.639999999999986</v>
       </c>
-      <c r="AE16" s="51" t="n">
+      <c r="AE16" s="56" t="n">
         <v>990.649999999999977</v>
       </c>
-      <c r="AF16" s="51" t="n">
+      <c r="AF16" s="56" t="n">
         <v>909.899999999999977</v>
       </c>
-      <c r="AG16" s="51"/>
-      <c r="AH16" s="51"/>
-      <c r="AI16" s="51"/>
-      <c r="AJ16" s="51"/>
+      <c r="AG16" s="56"/>
+      <c r="AH16" s="56"/>
+      <c r="AI16" s="56"/>
+      <c r="AJ16" s="56"/>
     </row>
     <row r="17" spans="2:36">
       <c r="B17" s="50" t="s">
@@ -7691,75 +7732,75 @@
       <c r="C17" s="50" t="n">
         <v>112</v>
       </c>
-      <c r="D17" s="50" t="n">
+      <c r="D17" s="52" t="n">
         <v>4898.31999999999971</v>
       </c>
-      <c r="E17" s="50" t="n">
+      <c r="E17" s="52" t="n">
         <v>4802.63000000000011</v>
       </c>
-      <c r="F17" s="50" t="n">
+      <c r="F17" s="52" t="n">
         <v>4751.72000000000025</v>
       </c>
-      <c r="G17" s="51" t="n">
+      <c r="G17" s="56" t="n">
         <v>5320.4399999999996</v>
       </c>
-      <c r="H17" s="51" t="n">
+      <c r="H17" s="56" t="n">
         <v>4953.72000000000025</v>
       </c>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="N17" s="52" t="s">
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="N17" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="O17" s="52" t="n">
+      <c r="O17" s="51" t="n">
         <v>75</v>
       </c>
-      <c r="P17" s="52" t="n">
+      <c r="P17" s="53" t="n">
         <v>17195.8400000000001</v>
       </c>
-      <c r="Q17" s="52" t="n">
+      <c r="Q17" s="53" t="n">
         <v>17065.9599999999991</v>
       </c>
-      <c r="R17" s="52" t="n">
+      <c r="R17" s="53" t="n">
         <v>16962.0099999999984</v>
       </c>
-      <c r="S17" s="51" t="n">
+      <c r="S17" s="56" t="n">
         <v>18500.2099999999991</v>
       </c>
-      <c r="T17" s="51" t="n">
+      <c r="T17" s="56" t="n">
         <v>18227</v>
       </c>
-      <c r="U17" s="51"/>
-      <c r="V17" s="51"/>
-      <c r="W17" s="51"/>
-      <c r="X17" s="51"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
       <c r="Z17" s="50" t="s">
         <v>48</v>
       </c>
       <c r="AA17" s="50" t="n">
         <v>146</v>
       </c>
-      <c r="AB17" s="50" t="n">
+      <c r="AB17" s="52" t="n">
         <v>1695.6099999999999</v>
       </c>
-      <c r="AC17" s="50" t="n">
+      <c r="AC17" s="52" t="n">
         <v>1694.18000000000006</v>
       </c>
-      <c r="AD17" s="50" t="n">
+      <c r="AD17" s="52" t="n">
         <v>1685.46000000000004</v>
       </c>
-      <c r="AE17" s="51" t="n">
+      <c r="AE17" s="56" t="n">
         <v>1867.75</v>
       </c>
-      <c r="AF17" s="51" t="n">
+      <c r="AF17" s="56" t="n">
         <v>1815.57999999999993</v>
       </c>
-      <c r="AG17" s="51"/>
-      <c r="AH17" s="51"/>
-      <c r="AI17" s="51"/>
-      <c r="AJ17" s="51"/>
+      <c r="AG17" s="56"/>
+      <c r="AH17" s="56"/>
+      <c r="AI17" s="56"/>
+      <c r="AJ17" s="56"/>
     </row>
     <row r="18" spans="2:36">
       <c r="B18" s="50" t="s">
@@ -7768,75 +7809,75 @@
       <c r="C18" s="50" t="n">
         <v>31</v>
       </c>
-      <c r="D18" s="50" t="n">
+      <c r="D18" s="52" t="n">
         <v>486</v>
       </c>
-      <c r="E18" s="50" t="n">
+      <c r="E18" s="52" t="n">
         <v>438</v>
       </c>
-      <c r="F18" s="50" t="n">
+      <c r="F18" s="52" t="n">
         <v>441</v>
       </c>
-      <c r="G18" s="51" t="n">
+      <c r="G18" s="56" t="n">
         <v>390</v>
       </c>
-      <c r="H18" s="51" t="n">
+      <c r="H18" s="56" t="n">
         <v>390</v>
       </c>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="N18" s="52" t="s">
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="N18" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="O18" s="52" t="n">
+      <c r="O18" s="51" t="n">
         <v>112</v>
       </c>
-      <c r="P18" s="52" t="n">
+      <c r="P18" s="53" t="n">
         <v>17422.9300000000003</v>
       </c>
-      <c r="Q18" s="52" t="n">
+      <c r="Q18" s="53" t="n">
         <v>17327.3400000000001</v>
       </c>
-      <c r="R18" s="52" t="n">
+      <c r="R18" s="53" t="n">
         <v>17311.4399999999987</v>
       </c>
-      <c r="S18" s="51" t="n">
+      <c r="S18" s="56" t="n">
         <v>19871.7999999999993</v>
       </c>
-      <c r="T18" s="51" t="n">
+      <c r="T18" s="56" t="n">
         <v>19101.0699999999997</v>
       </c>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="51"/>
-      <c r="X18" s="51"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
       <c r="Z18" s="50" t="s">
         <v>51</v>
       </c>
       <c r="AA18" s="50" t="n">
         <v>431</v>
       </c>
-      <c r="AB18" s="50" t="n">
+      <c r="AB18" s="52" t="n">
         <v>5770.27999999999975</v>
       </c>
-      <c r="AC18" s="50" t="n">
+      <c r="AC18" s="52" t="n">
         <v>5518.61999999999989</v>
       </c>
-      <c r="AD18" s="50" t="n">
+      <c r="AD18" s="52" t="n">
         <v>5282.6899999999996</v>
       </c>
-      <c r="AE18" s="51" t="n">
+      <c r="AE18" s="56" t="n">
         <v>5601.44999999999982</v>
       </c>
-      <c r="AF18" s="51" t="n">
+      <c r="AF18" s="56" t="n">
         <v>5334.69999999999982</v>
       </c>
-      <c r="AG18" s="51"/>
-      <c r="AH18" s="51"/>
-      <c r="AI18" s="51"/>
-      <c r="AJ18" s="51"/>
+      <c r="AG18" s="56"/>
+      <c r="AH18" s="56"/>
+      <c r="AI18" s="56"/>
+      <c r="AJ18" s="56"/>
     </row>
     <row r="19" spans="2:36">
       <c r="B19" s="50" t="s">
@@ -7845,71 +7886,71 @@
       <c r="C19" s="50" t="n">
         <v>38</v>
       </c>
-      <c r="D19" s="50" t="n">
+      <c r="D19" s="52" t="n">
         <v>291.589999999999975</v>
       </c>
-      <c r="E19" s="50" t="n">
+      <c r="E19" s="52" t="n">
         <v>291.589999999999975</v>
       </c>
-      <c r="F19" s="50" t="n">
+      <c r="F19" s="52" t="n">
         <v>291.589999999999975</v>
       </c>
-      <c r="G19" s="51" t="n">
+      <c r="G19" s="56" t="n">
         <v>323.660000000000025</v>
       </c>
-      <c r="H19" s="51" t="n">
+      <c r="H19" s="56" t="n">
         <v>319.910000000000025</v>
       </c>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="N19" s="52" t="s">
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="N19" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="O19" s="52" t="n">
+      <c r="O19" s="51" t="n">
         <v>150</v>
       </c>
-      <c r="P19" s="52" t="n">
+      <c r="P19" s="53" t="n">
         <v>24207.5499999999993</v>
       </c>
-      <c r="Q19" s="52" t="n">
+      <c r="Q19" s="53" t="n">
         <v>23373.1100000000006</v>
       </c>
-      <c r="R19" s="52" t="n">
+      <c r="R19" s="53" t="n">
         <v>23060.7400000000016</v>
       </c>
-      <c r="S19" s="51" t="n">
+      <c r="S19" s="56" t="n">
         <v>24698.5099999999984</v>
       </c>
-      <c r="T19" s="51" t="n">
+      <c r="T19" s="56" t="n">
         <v>22756.2299999999996</v>
       </c>
-      <c r="U19" s="51"/>
-      <c r="V19" s="51"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="51"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
       <c r="Z19" s="50" t="s">
         <v>55</v>
       </c>
       <c r="AA19" s="50" t="n">
         <v>587</v>
       </c>
-      <c r="AB19" s="50" t="n">
+      <c r="AB19" s="52" t="n">
         <v>7263.55000000000018</v>
       </c>
-      <c r="AC19" s="50" t="n">
+      <c r="AC19" s="52" t="n">
         <v>6992.52999999999975</v>
       </c>
-      <c r="AD19" s="50" t="n">
+      <c r="AD19" s="52" t="n">
         <v>6847.52999999999975</v>
       </c>
-      <c r="AE19" s="51"/>
-      <c r="AF19" s="51"/>
-      <c r="AG19" s="51"/>
-      <c r="AH19" s="51"/>
-      <c r="AI19" s="51"/>
-      <c r="AJ19" s="51"/>
+      <c r="AE19" s="56"/>
+      <c r="AF19" s="56"/>
+      <c r="AG19" s="56"/>
+      <c r="AH19" s="56"/>
+      <c r="AI19" s="56"/>
+      <c r="AJ19" s="56"/>
     </row>
     <row r="20" spans="2:36">
       <c r="B20" s="50" t="s">
@@ -7918,75 +7959,75 @@
       <c r="C20" s="50" t="n">
         <v>57</v>
       </c>
-      <c r="D20" s="50" t="n">
+      <c r="D20" s="52" t="n">
         <v>353.560000000000002</v>
       </c>
-      <c r="E20" s="50" t="n">
+      <c r="E20" s="52" t="n">
         <v>353.560000000000002</v>
       </c>
-      <c r="F20" s="50" t="n">
+      <c r="F20" s="52" t="n">
         <v>350.839999999999975</v>
       </c>
-      <c r="G20" s="51" t="n">
+      <c r="G20" s="56" t="n">
         <v>373.069999999999993</v>
       </c>
-      <c r="H20" s="51" t="n">
+      <c r="H20" s="56" t="n">
         <v>369.110000000000014</v>
       </c>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="N20" s="52" t="s">
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="N20" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="O20" s="52" t="n">
+      <c r="O20" s="51" t="n">
         <v>75</v>
       </c>
-      <c r="P20" s="52" t="n">
+      <c r="P20" s="53" t="n">
         <v>14510</v>
       </c>
-      <c r="Q20" s="52" t="n">
+      <c r="Q20" s="53" t="n">
         <v>14305.6399999999994</v>
       </c>
-      <c r="R20" s="52" t="n">
+      <c r="R20" s="53" t="n">
         <v>14510</v>
       </c>
-      <c r="S20" s="51" t="n">
+      <c r="S20" s="56" t="n">
         <v>18433.5099999999984</v>
       </c>
-      <c r="T20" s="51" t="n">
+      <c r="T20" s="56" t="n">
         <v>16830.6100000000006</v>
       </c>
-      <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="51"/>
-      <c r="X20" s="51"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
       <c r="Z20" s="50" t="s">
         <v>58</v>
       </c>
       <c r="AA20" s="50" t="n">
         <v>131</v>
       </c>
-      <c r="AB20" s="50" t="n">
+      <c r="AB20" s="52" t="n">
         <v>15988</v>
       </c>
-      <c r="AC20" s="50" t="n">
+      <c r="AC20" s="52" t="n">
         <v>15995</v>
       </c>
-      <c r="AD20" s="50" t="n">
+      <c r="AD20" s="52" t="n">
         <v>15870</v>
       </c>
-      <c r="AE20" s="51" t="n">
+      <c r="AE20" s="56" t="n">
         <v>16297</v>
       </c>
-      <c r="AF20" s="51" t="n">
+      <c r="AF20" s="56" t="n">
         <v>16152</v>
       </c>
-      <c r="AG20" s="51"/>
-      <c r="AH20" s="51"/>
-      <c r="AI20" s="51"/>
-      <c r="AJ20" s="51"/>
+      <c r="AG20" s="56"/>
+      <c r="AH20" s="56"/>
+      <c r="AI20" s="56"/>
+      <c r="AJ20" s="56"/>
     </row>
     <row r="21" spans="2:36">
       <c r="B21" s="50" t="s">
@@ -7995,75 +8036,75 @@
       <c r="C21" s="50" t="n">
         <v>75</v>
       </c>
-      <c r="D21" s="50" t="n">
+      <c r="D21" s="52" t="n">
         <v>479.740000000000009</v>
       </c>
-      <c r="E21" s="50" t="n">
+      <c r="E21" s="52" t="n">
         <v>461.5</v>
       </c>
-      <c r="F21" s="50" t="n">
+      <c r="F21" s="52" t="n">
         <v>454.54000000000002</v>
       </c>
-      <c r="G21" s="51" t="n">
+      <c r="G21" s="56" t="n">
         <v>445.589999999999975</v>
       </c>
-      <c r="H21" s="51" t="n">
+      <c r="H21" s="56" t="n">
         <v>442.850000000000023</v>
       </c>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="N21" s="52" t="s">
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="N21" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="O21" s="52" t="n">
+      <c r="O21" s="51" t="n">
         <v>75</v>
       </c>
-      <c r="P21" s="52" t="n">
+      <c r="P21" s="53" t="n">
         <v>16131.1499999999996</v>
       </c>
-      <c r="Q21" s="52" t="n">
+      <c r="Q21" s="53" t="n">
         <v>15374.8899999999994</v>
       </c>
-      <c r="R21" s="52" t="n">
+      <c r="R21" s="53" t="n">
         <v>15399.6599999999999</v>
       </c>
-      <c r="S21" s="51" t="n">
+      <c r="S21" s="56" t="n">
         <v>16977.3499999999985</v>
       </c>
-      <c r="T21" s="51" t="n">
+      <c r="T21" s="56" t="n">
         <v>16977.3499999999985</v>
       </c>
-      <c r="U21" s="51"/>
-      <c r="V21" s="51"/>
-      <c r="W21" s="51"/>
-      <c r="X21" s="51"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
       <c r="Z21" s="50" t="s">
         <v>61</v>
       </c>
       <c r="AA21" s="50" t="n">
         <v>401</v>
       </c>
-      <c r="AB21" s="50" t="n">
+      <c r="AB21" s="52" t="n">
         <v>36577</v>
       </c>
-      <c r="AC21" s="50" t="n">
+      <c r="AC21" s="52" t="n">
         <v>36505</v>
       </c>
-      <c r="AD21" s="50" t="n">
+      <c r="AD21" s="52" t="n">
         <v>35922</v>
       </c>
-      <c r="AE21" s="51" t="n">
+      <c r="AE21" s="56" t="n">
         <v>35921</v>
       </c>
-      <c r="AF21" s="51" t="n">
+      <c r="AF21" s="56" t="n">
         <v>35875</v>
       </c>
-      <c r="AG21" s="51"/>
-      <c r="AH21" s="51"/>
-      <c r="AI21" s="51"/>
-      <c r="AJ21" s="51"/>
+      <c r="AG21" s="56"/>
+      <c r="AH21" s="56"/>
+      <c r="AI21" s="56"/>
+      <c r="AJ21" s="56"/>
     </row>
     <row r="22" spans="2:36">
       <c r="B22" s="50" t="s">
@@ -8072,71 +8113,71 @@
       <c r="C22" s="50" t="n">
         <v>19</v>
       </c>
-      <c r="D22" s="50" t="n">
+      <c r="D22" s="52" t="n">
         <v>684</v>
       </c>
-      <c r="E22" s="50" t="n">
+      <c r="E22" s="52" t="n">
         <v>672</v>
       </c>
-      <c r="F22" s="50" t="n">
+      <c r="F22" s="52" t="n">
         <v>602</v>
       </c>
-      <c r="G22" s="51" t="n">
+      <c r="G22" s="56" t="n">
         <v>585</v>
       </c>
-      <c r="H22" s="51" t="n">
+      <c r="H22" s="56" t="n">
         <v>591</v>
       </c>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="N22" s="52" t="s">
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="N22" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="O22" s="52" t="n">
+      <c r="O22" s="51" t="n">
         <v>75</v>
       </c>
-      <c r="P22" s="52" t="n">
+      <c r="P22" s="53" t="n">
         <v>16256.5300000000007</v>
       </c>
-      <c r="Q22" s="52" t="n">
+      <c r="Q22" s="53" t="n">
         <v>15982.9799999999996</v>
       </c>
-      <c r="R22" s="52" t="n">
+      <c r="R22" s="53" t="n">
         <v>15400.3500000000004</v>
       </c>
-      <c r="S22" s="51" t="n">
+      <c r="S22" s="56" t="n">
         <v>17023.9799999999996</v>
       </c>
-      <c r="T22" s="51" t="n">
+      <c r="T22" s="56" t="n">
         <v>16640.5499999999993</v>
       </c>
-      <c r="U22" s="51"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="51"/>
-      <c r="X22" s="51"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
       <c r="Z22" s="50" t="s">
         <v>64</v>
       </c>
       <c r="AA22" s="50" t="n">
         <v>774</v>
       </c>
-      <c r="AB22" s="50" t="n">
+      <c r="AB22" s="52" t="n">
         <v>70571</v>
       </c>
-      <c r="AC22" s="50" t="n">
+      <c r="AC22" s="52" t="n">
         <v>70401</v>
       </c>
-      <c r="AD22" s="50" t="n">
+      <c r="AD22" s="52" t="n">
         <v>70120</v>
       </c>
-      <c r="AE22" s="51"/>
-      <c r="AF22" s="51"/>
-      <c r="AG22" s="51"/>
-      <c r="AH22" s="51"/>
-      <c r="AI22" s="51"/>
-      <c r="AJ22" s="51"/>
+      <c r="AE22" s="56"/>
+      <c r="AF22" s="56"/>
+      <c r="AG22" s="56"/>
+      <c r="AH22" s="56"/>
+      <c r="AI22" s="56"/>
+      <c r="AJ22" s="56"/>
     </row>
     <row r="23" spans="2:36">
       <c r="B23" s="50" t="s">
@@ -8145,75 +8186,75 @@
       <c r="C23" s="50" t="n">
         <v>196</v>
       </c>
-      <c r="D23" s="50" t="n">
+      <c r="D23" s="52" t="n">
         <v>1733.51999999999998</v>
       </c>
-      <c r="E23" s="50" t="n">
+      <c r="E23" s="52" t="n">
         <v>1721.15000000000009</v>
       </c>
-      <c r="F23" s="50" t="n">
+      <c r="F23" s="52" t="n">
         <v>1707.45000000000005</v>
       </c>
-      <c r="G23" s="51" t="n">
+      <c r="G23" s="56" t="n">
         <v>1914.67000000000007</v>
       </c>
-      <c r="H23" s="51" t="n">
+      <c r="H23" s="56" t="n">
         <v>1840.86999999999989</v>
       </c>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="N23" s="52" t="s">
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="N23" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="O23" s="52" t="n">
+      <c r="O23" s="51" t="n">
         <v>78</v>
       </c>
-      <c r="P23" s="52" t="n">
+      <c r="P23" s="53" t="n">
         <v>8932.8700000000008</v>
       </c>
-      <c r="Q23" s="52" t="n">
+      <c r="Q23" s="53" t="n">
         <v>8758.15999999999985</v>
       </c>
-      <c r="R23" s="52" t="n">
+      <c r="R23" s="53" t="n">
         <v>8763.07999999999993</v>
       </c>
-      <c r="S23" s="51" t="n">
+      <c r="S23" s="56" t="n">
         <v>8933.96999999999935</v>
       </c>
-      <c r="T23" s="51" t="n">
+      <c r="T23" s="56" t="n">
         <v>8736.30999999999949</v>
       </c>
-      <c r="U23" s="51"/>
-      <c r="V23" s="51"/>
-      <c r="W23" s="51"/>
-      <c r="X23" s="51"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
       <c r="Z23" s="50" t="s">
         <v>67</v>
       </c>
       <c r="AA23" s="50" t="n">
         <v>52</v>
       </c>
-      <c r="AB23" s="50" t="n">
+      <c r="AB23" s="52" t="n">
         <v>514.700000000000045</v>
       </c>
-      <c r="AC23" s="50" t="n">
+      <c r="AC23" s="52" t="n">
         <v>516.139999999999986</v>
       </c>
-      <c r="AD23" s="50" t="n">
+      <c r="AD23" s="52" t="n">
         <v>476.470000000000027</v>
       </c>
-      <c r="AE23" s="51" t="n">
+      <c r="AE23" s="56" t="n">
         <v>433.589999999999975</v>
       </c>
-      <c r="AF23" s="51" t="n">
+      <c r="AF23" s="56" t="n">
         <v>433.589999999999975</v>
       </c>
-      <c r="AG23" s="51"/>
-      <c r="AH23" s="51"/>
-      <c r="AI23" s="51"/>
-      <c r="AJ23" s="51"/>
+      <c r="AG23" s="56"/>
+      <c r="AH23" s="56"/>
+      <c r="AI23" s="56"/>
+      <c r="AJ23" s="56"/>
     </row>
     <row r="24" spans="2:36">
       <c r="B24" s="50" t="s">
@@ -8222,75 +8263,75 @@
       <c r="C24" s="50" t="n">
         <v>12</v>
       </c>
-      <c r="D24" s="50" t="n">
+      <c r="D24" s="52" t="n">
         <v>640</v>
       </c>
-      <c r="E24" s="50" t="n">
+      <c r="E24" s="52" t="n">
         <v>640</v>
       </c>
-      <c r="F24" s="50" t="n">
+      <c r="F24" s="52" t="n">
         <v>640</v>
       </c>
-      <c r="G24" s="51" t="n">
+      <c r="G24" s="56" t="n">
         <v>813</v>
       </c>
-      <c r="H24" s="51" t="n">
+      <c r="H24" s="56" t="n">
         <v>813</v>
       </c>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="N24" s="52" t="s">
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="N24" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="O24" s="52" t="n">
+      <c r="O24" s="51" t="n">
         <v>238</v>
       </c>
-      <c r="P24" s="52" t="n">
+      <c r="P24" s="53" t="n">
         <v>32712.8199999999997</v>
       </c>
-      <c r="Q24" s="52" t="n">
+      <c r="Q24" s="53" t="n">
         <v>31655.1100000000006</v>
       </c>
-      <c r="R24" s="52" t="n">
+      <c r="R24" s="53" t="n">
         <v>30461.5</v>
       </c>
-      <c r="S24" s="51" t="n">
+      <c r="S24" s="56" t="n">
         <v>33941.1500000000015</v>
       </c>
-      <c r="T24" s="51" t="n">
+      <c r="T24" s="56" t="n">
         <v>32364.9000000000015</v>
       </c>
-      <c r="U24" s="51"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="51"/>
-      <c r="X24" s="51"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
       <c r="Z24" s="50" t="s">
         <v>70</v>
       </c>
       <c r="AA24" s="50" t="n">
         <v>31</v>
       </c>
-      <c r="AB24" s="50" t="n">
+      <c r="AB24" s="52" t="n">
         <v>732</v>
       </c>
-      <c r="AC24" s="50" t="n">
+      <c r="AC24" s="52" t="n">
         <v>720</v>
       </c>
-      <c r="AD24" s="50" t="n">
+      <c r="AD24" s="52" t="n">
         <v>732</v>
       </c>
-      <c r="AE24" s="51" t="n">
+      <c r="AE24" s="56" t="n">
         <v>772</v>
       </c>
-      <c r="AF24" s="51" t="n">
+      <c r="AF24" s="56" t="n">
         <v>755</v>
       </c>
-      <c r="AG24" s="51"/>
-      <c r="AH24" s="51"/>
-      <c r="AI24" s="51"/>
-      <c r="AJ24" s="51"/>
+      <c r="AG24" s="56"/>
+      <c r="AH24" s="56"/>
+      <c r="AI24" s="56"/>
+      <c r="AJ24" s="56"/>
     </row>
     <row r="25" spans="2:36">
       <c r="B25" s="50" t="s">
@@ -8299,71 +8340,71 @@
       <c r="C25" s="50" t="n">
         <v>15</v>
       </c>
-      <c r="D25" s="50" t="n">
+      <c r="D25" s="52" t="n">
         <v>1703</v>
       </c>
-      <c r="E25" s="50" t="n">
+      <c r="E25" s="52" t="n">
         <v>1697</v>
       </c>
-      <c r="F25" s="50" t="n">
+      <c r="F25" s="52" t="n">
         <v>1573</v>
       </c>
-      <c r="G25" s="51" t="n">
+      <c r="G25" s="56" t="n">
         <v>1276</v>
       </c>
-      <c r="H25" s="51" t="n">
+      <c r="H25" s="56" t="n">
         <v>1351</v>
       </c>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="N25" s="52" t="s">
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="N25" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="O25" s="52" t="n">
+      <c r="O25" s="51" t="n">
         <v>1034</v>
       </c>
-      <c r="P25" s="52" t="n">
+      <c r="P25" s="53" t="n">
         <v>46167.0199999999968</v>
       </c>
-      <c r="Q25" s="52" t="n">
+      <c r="Q25" s="53" t="n">
         <v>45404.9000000000015</v>
       </c>
-      <c r="R25" s="52" t="n">
+      <c r="R25" s="53" t="n">
         <v>44910.010000000002</v>
       </c>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="51"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
       <c r="Z25" s="50" t="s">
         <v>73</v>
       </c>
       <c r="AA25" s="50" t="n">
         <v>168</v>
       </c>
-      <c r="AB25" s="50" t="n">
+      <c r="AB25" s="52" t="n">
         <v>89500</v>
       </c>
-      <c r="AC25" s="50" t="n">
+      <c r="AC25" s="52" t="n">
         <v>88061.2100000000064</v>
       </c>
-      <c r="AD25" s="50" t="n">
+      <c r="AD25" s="52" t="n">
         <v>87156.8500000000058</v>
       </c>
-      <c r="AE25" s="51" t="n">
+      <c r="AE25" s="56" t="n">
         <v>117345.369999999995</v>
       </c>
-      <c r="AF25" s="51" t="n">
+      <c r="AF25" s="56" t="n">
         <v>102309.179999999993</v>
       </c>
-      <c r="AG25" s="51"/>
-      <c r="AH25" s="51"/>
-      <c r="AI25" s="51"/>
-      <c r="AJ25" s="51"/>
+      <c r="AG25" s="56"/>
+      <c r="AH25" s="56"/>
+      <c r="AI25" s="56"/>
+      <c r="AJ25" s="56"/>
     </row>
     <row r="26" spans="2:36">
       <c r="B26" s="50" t="s">
@@ -8372,75 +8413,75 @@
       <c r="C26" s="50" t="n">
         <v>18</v>
       </c>
-      <c r="D26" s="50" t="n">
+      <c r="D26" s="52" t="n">
         <v>794</v>
       </c>
-      <c r="E26" s="50" t="n">
+      <c r="E26" s="52" t="n">
         <v>794</v>
       </c>
-      <c r="F26" s="50" t="n">
+      <c r="F26" s="52" t="n">
         <v>794</v>
       </c>
-      <c r="G26" s="51" t="n">
+      <c r="G26" s="56" t="n">
         <v>802</v>
       </c>
-      <c r="H26" s="51" t="n">
+      <c r="H26" s="56" t="n">
         <v>802</v>
       </c>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="N26" s="52" t="s">
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="N26" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="O26" s="52" t="n">
+      <c r="O26" s="51" t="n">
         <v>420</v>
       </c>
-      <c r="P26" s="52" t="n">
+      <c r="P26" s="53" t="n">
         <v>2300</v>
       </c>
-      <c r="Q26" s="52" t="n">
+      <c r="Q26" s="53" t="n">
         <v>2246</v>
       </c>
-      <c r="R26" s="52" t="n">
+      <c r="R26" s="53" t="n">
         <v>2207</v>
       </c>
-      <c r="S26" s="51" t="n">
+      <c r="S26" s="56" t="n">
         <v>2096</v>
       </c>
-      <c r="T26" s="51" t="n">
+      <c r="T26" s="56" t="n">
         <v>2047</v>
       </c>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="X26" s="51"/>
+      <c r="U26" s="56"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="56"/>
+      <c r="X26" s="56"/>
       <c r="Z26" s="50" t="s">
         <v>76</v>
       </c>
       <c r="AA26" s="50" t="n">
         <v>168</v>
       </c>
-      <c r="AB26" s="50" t="n">
+      <c r="AB26" s="52" t="n">
         <v>2794.98999999999978</v>
       </c>
-      <c r="AC26" s="50" t="n">
+      <c r="AC26" s="52" t="n">
         <v>2751.96000000000004</v>
       </c>
-      <c r="AD26" s="50" t="n">
+      <c r="AD26" s="52" t="n">
         <v>2767.73999999999978</v>
       </c>
-      <c r="AE26" s="51" t="n">
+      <c r="AE26" s="56" t="n">
         <v>3177.40999999999985</v>
       </c>
-      <c r="AF26" s="51" t="n">
+      <c r="AF26" s="56" t="n">
         <v>3068.48999999999978</v>
       </c>
-      <c r="AG26" s="51"/>
-      <c r="AH26" s="51"/>
-      <c r="AI26" s="51"/>
-      <c r="AJ26" s="51"/>
+      <c r="AG26" s="56"/>
+      <c r="AH26" s="56"/>
+      <c r="AI26" s="56"/>
+      <c r="AJ26" s="56"/>
     </row>
     <row r="27" spans="26:36">
       <c r="Z27" s="50" t="s">
@@ -8449,25 +8490,25 @@
       <c r="AA27" s="50" t="n">
         <v>12</v>
       </c>
-      <c r="AB27" s="50" t="n">
+      <c r="AB27" s="52" t="n">
         <v>2741.09999999999991</v>
       </c>
-      <c r="AC27" s="50" t="n">
+      <c r="AC27" s="52" t="n">
         <v>2741.09999999999991</v>
       </c>
-      <c r="AD27" s="50" t="n">
+      <c r="AD27" s="52" t="n">
         <v>2741.09999999999991</v>
       </c>
-      <c r="AE27" s="51" t="n">
+      <c r="AE27" s="56" t="n">
         <v>2852.11000000000013</v>
       </c>
-      <c r="AF27" s="51" t="n">
+      <c r="AF27" s="56" t="n">
         <v>2808.82999999999993</v>
       </c>
-      <c r="AG27" s="51"/>
-      <c r="AH27" s="51"/>
-      <c r="AI27" s="51"/>
-      <c r="AJ27" s="51"/>
+      <c r="AG27" s="56"/>
+      <c r="AH27" s="56"/>
+      <c r="AI27" s="56"/>
+      <c r="AJ27" s="56"/>
     </row>
     <row r="28" spans="26:36">
       <c r="Z28" s="50" t="s">
@@ -8476,25 +8517,25 @@
       <c r="AA28" s="50" t="n">
         <v>16</v>
       </c>
-      <c r="AB28" s="50" t="n">
+      <c r="AB28" s="52" t="n">
         <v>3049.84999999999991</v>
       </c>
-      <c r="AC28" s="50" t="n">
+      <c r="AC28" s="52" t="n">
         <v>3049.84999999999991</v>
       </c>
-      <c r="AD28" s="50" t="n">
+      <c r="AD28" s="52" t="n">
         <v>3049.84999999999991</v>
       </c>
-      <c r="AE28" s="51" t="n">
+      <c r="AE28" s="56" t="n">
         <v>2936.28999999999996</v>
       </c>
-      <c r="AF28" s="51" t="n">
+      <c r="AF28" s="56" t="n">
         <v>2936.28999999999996</v>
       </c>
-      <c r="AG28" s="51"/>
-      <c r="AH28" s="51"/>
-      <c r="AI28" s="51"/>
-      <c r="AJ28" s="51"/>
+      <c r="AG28" s="56"/>
+      <c r="AH28" s="56"/>
+      <c r="AI28" s="56"/>
+      <c r="AJ28" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -8514,7 +8555,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1643156947" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1643157189" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -8523,16 +8564,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1643156947" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1643156947" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1643156947" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1643156947" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1643157189" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1643157189" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1643157189" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1643157189" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1643156947" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1643157189" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Comparaçoes/BuscasLocais.xlsx
+++ b/Comparaçoes/BuscasLocais.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="pdezi"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="9570" windowHeight="8265" tabRatio="500"/>
+    <workbookView activeTab="2" xWindow="240" yWindow="60" windowWidth="9570" windowHeight="8265" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="k = n|4" sheetId="1" r:id="rId4"/>
@@ -15,10 +15,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1643157189" val="1042" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1643157189" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1643157189" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1643157189"/>
+      <pm:revision xmlns:pm="smNativeData" day="1643199832" val="1042" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1643199832" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1643199832" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1643199832"/>
     </ext>
   </extLst>
 </workbook>
@@ -283,7 +283,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="17">
+  <numFmts count="14">
     <numFmt numFmtId="5" formatCode="#,##0\ &quot;R$&quot;;\-#,##0\ &quot;R$&quot;"/>
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;R$&quot;;[Red]\-#,##0\ &quot;R$&quot;"/>
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;R$&quot;;\-#,##0.00\ &quot;R$&quot;"/>
@@ -297,10 +297,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="9" formatCode="0%"/>
-    <numFmt numFmtId="4" formatCode="#,##0.00"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
     <numFmt numFmtId="3" formatCode="#,##0"/>
-    <numFmt numFmtId="169" formatCode="[$R$-416]\ #,##0.00"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -310,7 +307,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -325,7 +322,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -340,7 +337,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -355,7 +352,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -371,7 +368,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -387,7 +384,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" fgClr="FA7D00" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" fgClr="FA7D00" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -402,7 +399,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" fgClr="FA7D00" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" fgClr="FA7D00" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -418,7 +415,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" fgClr="800080" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" fgClr="800080" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -434,7 +431,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -450,7 +447,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" fgClr="7F7F7F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" fgClr="7F7F7F" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" i="1"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" i="1"/>
             <pm:ea face="SimSun" sz="220" lang="default" i="1"/>
@@ -465,7 +462,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" fgClr="FF0000" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" fgClr="FF0000" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -481,7 +478,7 @@
       <sz val="18"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" fgClr="44546A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" fgClr="44546A" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="360" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="360" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="360" lang="default" weight="bold"/>
@@ -496,7 +493,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" fgClr="9C6500" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" fgClr="9C6500" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -512,7 +509,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -528,7 +525,7 @@
       <sz val="15"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" fgClr="44546A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" fgClr="44546A" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="300" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="300" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="300" lang="default" weight="bold"/>
@@ -544,7 +541,7 @@
       <sz val="13"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" fgClr="44546A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" fgClr="44546A" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="260" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="260" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="260" lang="default" weight="bold"/>
@@ -560,7 +557,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" fgClr="44546A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" fgClr="44546A" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -576,7 +573,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -591,7 +588,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" fgClr="3F3F76" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" fgClr="3F3F76" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -606,7 +603,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" fgClr="006100" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" fgClr="006100" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -621,7 +618,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643157189" fgClr="9C0006" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" fgClr="9C0006" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -643,7 +640,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00FFE697" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00FFE697" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -657,7 +654,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -668,7 +665,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00EBEBEB" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00EBEBEB" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -679,7 +676,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00F8CAAB" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00F8CAAB" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -690,7 +687,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -701,7 +698,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00C5DFB3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00C5DFB3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -712,7 +709,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -726,7 +723,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00FFC000" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00FFC000" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -737,7 +734,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="004472C4" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="004472C4" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -751,7 +748,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="0070AD47" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="0070AD47" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -762,7 +759,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -773,7 +770,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -784,7 +781,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -798,7 +795,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00BDD7EE" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00BDD7EE" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -809,7 +806,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00C6EFCE" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00C6EFCE" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -820,7 +817,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -831,7 +828,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00FFEB9C" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00FFEB9C" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -842,7 +839,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00D9E1F2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00D9E1F2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -853,7 +850,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -864,7 +861,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00DDEBF7" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00DDEBF7" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -875,7 +872,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="009BC2E6" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="009BC2E6" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -886,7 +883,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00E1EFD8" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00E1EFD8" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -897,7 +894,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00ED7D31" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00ED7D31" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -908,7 +905,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00FBE3D5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00FBE3D5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -919,7 +916,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00F4AF82" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00F4AF82" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -930,7 +927,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00D9D9D9" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00D9D9D9" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -941,7 +938,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00C7C7C7" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00C7C7C7" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -952,7 +949,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00FFF2CA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00FFF2CA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -963,7 +960,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00FFD964" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00FFD964" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -974,7 +971,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00B4C6E7" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00B4C6E7" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -985,7 +982,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="008EA9DB" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="008EA9DB" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -996,7 +993,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00A8D08C" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00A8D08C" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1010,7 +1007,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1021,7 +1018,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643157189" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1043,7 +1040,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
+          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
         </ext>
       </extLst>
     </border>
@@ -1062,7 +1059,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
+          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
         </ext>
       </extLst>
     </border>
@@ -1081,7 +1078,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189">
+          <pm:border xmlns:pm="smNativeData" id="1643199832">
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="FF8001"/>
           </pm:border>
         </ext>
@@ -1102,7 +1099,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189">
+          <pm:border xmlns:pm="smNativeData" id="1643199832">
             <pm:line position="top" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -1126,7 +1123,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
+          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
         </ext>
       </extLst>
     </border>
@@ -1145,7 +1142,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
+          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
         </ext>
       </extLst>
     </border>
@@ -1164,7 +1161,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189">
+          <pm:border xmlns:pm="smNativeData" id="1643199832">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
@@ -1188,7 +1185,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
+          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
         </ext>
       </extLst>
     </border>
@@ -1207,7 +1204,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
+          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
         </ext>
       </extLst>
     </border>
@@ -1226,7 +1223,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189">
+          <pm:border xmlns:pm="smNativeData" id="1643199832">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="5B9BD5"/>
           </pm:border>
         </ext>
@@ -1247,7 +1244,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
+          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
         </ext>
       </extLst>
     </border>
@@ -1266,7 +1263,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
+          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
         </ext>
       </extLst>
     </border>
@@ -1285,7 +1282,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189">
+          <pm:border xmlns:pm="smNativeData" id="1643199832">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="ACCCEA"/>
           </pm:border>
         </ext>
@@ -1306,7 +1303,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
+          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
         </ext>
       </extLst>
     </border>
@@ -1325,7 +1322,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189">
+          <pm:border xmlns:pm="smNativeData" id="1643199832">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
@@ -1349,7 +1346,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189">
+          <pm:border xmlns:pm="smNativeData" id="1643199832">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -1373,7 +1370,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189">
+          <pm:border xmlns:pm="smNativeData" id="1643199832">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
@@ -1397,7 +1394,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189">
+          <pm:border xmlns:pm="smNativeData" id="1643199832">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="5B9BD5"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="5B9BD5"/>
           </pm:border>
@@ -1419,7 +1416,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
+          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
         </ext>
       </extLst>
     </border>
@@ -1438,7 +1435,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
+          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
         </ext>
       </extLst>
     </border>
@@ -1457,7 +1454,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
+          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
         </ext>
       </extLst>
     </border>
@@ -1476,7 +1473,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
+          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
         </ext>
       </extLst>
     </border>
@@ -1495,7 +1492,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
+          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
         </ext>
       </extLst>
     </border>
@@ -1514,7 +1511,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
+          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
         </ext>
       </extLst>
     </border>
@@ -1533,7 +1530,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
+          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
         </ext>
       </extLst>
     </border>
@@ -1552,7 +1549,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
+          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
         </ext>
       </extLst>
     </border>
@@ -1571,7 +1568,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
+          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
         </ext>
       </extLst>
     </border>
@@ -1590,7 +1587,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
+          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
         </ext>
       </extLst>
     </border>
@@ -1609,7 +1606,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
+          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
         </ext>
       </extLst>
     </border>
@@ -1628,7 +1625,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
+          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
         </ext>
       </extLst>
     </border>
@@ -1647,7 +1644,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
+          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
         </ext>
       </extLst>
     </border>
@@ -1666,7 +1663,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
+          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
         </ext>
       </extLst>
     </border>
@@ -1685,7 +1682,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
+          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
         </ext>
       </extLst>
     </border>
@@ -1704,7 +1701,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
+          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
         </ext>
       </extLst>
     </border>
@@ -1723,7 +1720,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
+          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
         </ext>
       </extLst>
     </border>
@@ -1742,7 +1739,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
+          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
         </ext>
       </extLst>
     </border>
@@ -1761,7 +1758,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
+          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
         </ext>
       </extLst>
     </border>
@@ -1780,7 +1777,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189">
+          <pm:border xmlns:pm="smNativeData" id="1643199832">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1804,7 +1801,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189">
+          <pm:border xmlns:pm="smNativeData" id="1643199832">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1828,7 +1825,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643157189"/>
+          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
         </ext>
       </extLst>
     </border>
@@ -1982,7 +1979,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2146,9 +2143,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2209,10 +2203,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1643157189" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1643199832" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1643157189" count="41">
+      <pm:colors xmlns:pm="smNativeData" id="1643199832" count="41">
         <pm:color name="Cor 24" rgb="FA7D00"/>
         <pm:color name="Cor 25" rgb="800080"/>
         <pm:color name="Cor 26" rgb="44546A"/>
@@ -2516,37 +2510,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD28"/>
+  <dimension ref="B2:AJ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="N1" workbookViewId="0">
+    <sheetView view="normal" topLeftCell="N4" workbookViewId="0">
       <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.20"/>
   <cols>
-    <col min="1" max="2" width="9.138614" style="54"/>
+    <col min="1" max="2" width="9.138614" customWidth="1" style="54"/>
     <col min="3" max="3" width="19.138614" customWidth="1" style="54"/>
     <col min="4" max="4" width="9.752475" customWidth="1" style="54"/>
     <col min="5" max="5" width="10.574257" customWidth="1" style="54"/>
     <col min="6" max="6" width="9.752475" customWidth="1" style="54"/>
     <col min="7" max="8" width="9.574257" customWidth="1" style="54"/>
-    <col min="9" max="14" width="9.138614" style="54"/>
+    <col min="9" max="14" width="9.138614" customWidth="1" style="54"/>
     <col min="15" max="15" width="19.138614" customWidth="1" style="54"/>
     <col min="16" max="16" width="9.752475" customWidth="1" style="54"/>
     <col min="17" max="17" width="10.574257" customWidth="1" style="54"/>
     <col min="18" max="18" width="9.752475" customWidth="1" style="54"/>
-    <col min="19" max="26" width="9.138614" style="54"/>
+    <col min="19" max="26" width="9.138614" customWidth="1" style="54"/>
     <col min="27" max="27" width="19.138614" customWidth="1" style="54"/>
     <col min="28" max="28" width="9.752475" customWidth="1" style="54"/>
     <col min="29" max="29" width="10.574257" customWidth="1" style="54"/>
     <col min="30" max="30" width="9.752475" customWidth="1" style="54"/>
     <col min="31" max="32" width="9.574257" customWidth="1" style="54"/>
-    <col min="33" max="16384" width="9.138614" style="54"/>
+    <col min="33" max="16384" width="9.138614" customWidth="1" style="54"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:36">
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="49" t="s">
         <v>0</v>
       </c>
@@ -2558,8 +2552,8 @@
       <c r="J2" s="49"/>
       <c r="K2" s="49"/>
       <c r="L2" s="49"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
       <c r="P2" s="49" t="s">
         <v>0</v>
       </c>
@@ -2571,8 +2565,8 @@
       <c r="V2" s="49"/>
       <c r="W2" s="49"/>
       <c r="X2" s="49"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
       <c r="AB2" s="49" t="s">
         <v>0</v>
       </c>
@@ -2651,31 +2645,31 @@
       <c r="C4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="55" t="s">
+      <c r="I4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="55" t="s">
+      <c r="J4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="55" t="s">
+      <c r="K4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="55" t="s">
+      <c r="L4" s="49" t="s">
         <v>9</v>
       </c>
       <c r="N4" s="51" t="s">
@@ -2684,31 +2678,31 @@
       <c r="O4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="55" t="s">
+      <c r="P4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="55" t="s">
+      <c r="Q4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="55" t="s">
+      <c r="R4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="55" t="s">
+      <c r="S4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="55" t="s">
+      <c r="T4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="55" t="s">
+      <c r="U4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="V4" s="55" t="s">
+      <c r="V4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="W4" s="55" t="s">
+      <c r="W4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="55" t="s">
+      <c r="X4" s="49" t="s">
         <v>9</v>
       </c>
       <c r="Z4" s="51" t="s">
@@ -2717,31 +2711,31 @@
       <c r="AA4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="AB4" s="55" t="s">
+      <c r="AB4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AC4" s="55" t="s">
+      <c r="AC4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="AD4" s="55" t="s">
+      <c r="AD4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="AE4" s="55" t="s">
+      <c r="AE4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AF4" s="55" t="s">
+      <c r="AF4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="AG4" s="55" t="s">
+      <c r="AG4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="AH4" s="55" t="s">
+      <c r="AH4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AI4" s="55" t="s">
+      <c r="AI4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="AJ4" s="55" t="s">
+      <c r="AJ4" s="49" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2761,18 +2755,18 @@
       <c r="F5" s="52" t="n">
         <v>625.970000000000027</v>
       </c>
-      <c r="G5" s="56" t="n">
+      <c r="G5" s="55" t="n">
         <v>707.340000000000032</v>
       </c>
-      <c r="H5" s="56" t="n">
-        <v>678.440000000000055</v>
-      </c>
-      <c r="I5" s="56" t="n">
+      <c r="H5" s="55" t="n">
+        <v>678.440000000000168</v>
+      </c>
+      <c r="I5" s="55" t="n">
         <v>683.649999999999977</v>
       </c>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
       <c r="N5" s="51" t="s">
         <v>11</v>
       </c>
@@ -2788,18 +2782,18 @@
       <c r="R5" s="53" t="n">
         <v>668</v>
       </c>
-      <c r="S5" s="56" t="n">
+      <c r="S5" s="55" t="n">
         <v>558</v>
       </c>
-      <c r="T5" s="56" t="n">
+      <c r="T5" s="55" t="n">
         <v>558</v>
       </c>
-      <c r="U5" s="56" t="n">
+      <c r="U5" s="55" t="n">
         <v>558</v>
       </c>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
       <c r="Z5" s="51" t="s">
         <v>12</v>
       </c>
@@ -2815,18 +2809,18 @@
       <c r="AD5" s="53" t="n">
         <v>25126.8400000000001</v>
       </c>
-      <c r="AE5" s="56" t="n">
+      <c r="AE5" s="55" t="n">
         <v>25126.8400000000001</v>
       </c>
-      <c r="AF5" s="56" t="n">
+      <c r="AF5" s="55" t="n">
         <v>25126.8400000000001</v>
       </c>
-      <c r="AG5" s="56" t="n">
+      <c r="AG5" s="55" t="n">
         <v>25126.8400000000001</v>
       </c>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
+      <c r="AH5" s="55"/>
+      <c r="AI5" s="55"/>
+      <c r="AJ5" s="55"/>
     </row>
     <row r="6" spans="2:36">
       <c r="B6" s="50" t="s">
@@ -2838,12 +2832,12 @@
       <c r="D6" s="52"/>
       <c r="E6" s="52"/>
       <c r="F6" s="52"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
       <c r="N6" s="51" t="s">
         <v>14</v>
       </c>
@@ -2859,18 +2853,18 @@
       <c r="R6" s="53" t="n">
         <v>10660.3099999999995</v>
       </c>
-      <c r="S6" s="56" t="n">
+      <c r="S6" s="55" t="n">
         <v>9818.95000000000073</v>
       </c>
-      <c r="T6" s="56" t="n">
+      <c r="T6" s="55" t="n">
         <v>9818.95000000000073</v>
       </c>
-      <c r="U6" s="56" t="n">
+      <c r="U6" s="55" t="n">
         <v>9818.95000000000073</v>
       </c>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="55"/>
       <c r="Z6" s="51" t="s">
         <v>15</v>
       </c>
@@ -2878,26 +2872,26 @@
         <v>26</v>
       </c>
       <c r="AB6" s="53" t="n">
-        <v>7769.73999999999978</v>
+        <v>7769.73999999999887</v>
       </c>
       <c r="AC6" s="53" t="n">
-        <v>7564.9399999999996</v>
+        <v>7564.93999999999869</v>
       </c>
       <c r="AD6" s="53" t="n">
         <v>7359.17000000000007</v>
       </c>
-      <c r="AE6" s="56" t="n">
+      <c r="AE6" s="55" t="n">
         <v>7165.82999999999993</v>
       </c>
-      <c r="AF6" s="56" t="n">
+      <c r="AF6" s="55" t="n">
         <v>7165.82999999999993</v>
       </c>
-      <c r="AG6" s="56" t="n">
+      <c r="AG6" s="55" t="n">
         <v>7165.82999999999993</v>
       </c>
-      <c r="AH6" s="56"/>
-      <c r="AI6" s="56"/>
-      <c r="AJ6" s="56"/>
+      <c r="AH6" s="55"/>
+      <c r="AI6" s="55"/>
+      <c r="AJ6" s="55"/>
     </row>
     <row r="7" spans="2:36">
       <c r="B7" s="50" t="s">
@@ -2915,18 +2909,18 @@
       <c r="F7" s="52" t="n">
         <v>1373</v>
       </c>
-      <c r="G7" s="56" t="n">
+      <c r="G7" s="55" t="n">
         <v>1373</v>
       </c>
-      <c r="H7" s="56" t="n">
+      <c r="H7" s="55" t="n">
         <v>1373</v>
       </c>
-      <c r="I7" s="56" t="n">
+      <c r="I7" s="55" t="n">
         <v>1373</v>
       </c>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
       <c r="N7" s="51" t="s">
         <v>17</v>
       </c>
@@ -2942,18 +2936,18 @@
       <c r="R7" s="53" t="n">
         <v>1376</v>
       </c>
-      <c r="S7" s="56" t="n">
+      <c r="S7" s="55" t="n">
         <v>1404</v>
       </c>
-      <c r="T7" s="56" t="n">
+      <c r="T7" s="55" t="n">
         <v>1404</v>
       </c>
-      <c r="U7" s="56" t="n">
+      <c r="U7" s="55" t="n">
         <v>1404</v>
       </c>
-      <c r="V7" s="56"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="56"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="55"/>
       <c r="Z7" s="51" t="s">
         <v>18</v>
       </c>
@@ -2969,18 +2963,18 @@
       <c r="AD7" s="53" t="n">
         <v>10765.7800000000007</v>
       </c>
-      <c r="AE7" s="56" t="n">
+      <c r="AE7" s="55" t="n">
         <v>14065.4400000000005</v>
       </c>
-      <c r="AF7" s="56" t="n">
+      <c r="AF7" s="55" t="n">
         <v>14065.4400000000005</v>
       </c>
-      <c r="AG7" s="56" t="n">
+      <c r="AG7" s="55" t="n">
         <v>13755.2299999999996</v>
       </c>
-      <c r="AH7" s="56"/>
-      <c r="AI7" s="56"/>
-      <c r="AJ7" s="56"/>
+      <c r="AH7" s="55"/>
+      <c r="AI7" s="55"/>
+      <c r="AJ7" s="55"/>
     </row>
     <row r="8" spans="2:36">
       <c r="B8" s="50" t="s">
@@ -2998,18 +2992,18 @@
       <c r="F8" s="52" t="n">
         <v>5550</v>
       </c>
-      <c r="G8" s="56" t="n">
+      <c r="G8" s="55" t="n">
         <v>4347</v>
       </c>
-      <c r="H8" s="56" t="n">
+      <c r="H8" s="55" t="n">
         <v>4172</v>
       </c>
-      <c r="I8" s="56" t="n">
+      <c r="I8" s="55" t="n">
         <v>4334</v>
       </c>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
       <c r="N8" s="51" t="s">
         <v>20</v>
       </c>
@@ -3019,12 +3013,12 @@
       <c r="P8" s="53"/>
       <c r="Q8" s="53"/>
       <c r="R8" s="53"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="56"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="55"/>
       <c r="Z8" s="51" t="s">
         <v>21</v>
       </c>
@@ -3040,18 +3034,18 @@
       <c r="AD8" s="53" t="n">
         <v>21887.3199999999997</v>
       </c>
-      <c r="AE8" s="56" t="n">
+      <c r="AE8" s="55" t="n">
         <v>23341.4599999999991</v>
       </c>
-      <c r="AF8" s="56" t="n">
+      <c r="AF8" s="55" t="n">
         <v>22776.4099999999999</v>
       </c>
-      <c r="AG8" s="56" t="n">
+      <c r="AG8" s="55" t="n">
         <v>23341.4599999999991</v>
       </c>
-      <c r="AH8" s="56"/>
-      <c r="AI8" s="56"/>
-      <c r="AJ8" s="56"/>
+      <c r="AH8" s="55"/>
+      <c r="AI8" s="55"/>
+      <c r="AJ8" s="55"/>
     </row>
     <row r="9" spans="2:36">
       <c r="B9" s="50" t="s">
@@ -3069,18 +3063,18 @@
       <c r="F9" s="52" t="n">
         <v>292</v>
       </c>
-      <c r="G9" s="56" t="n">
+      <c r="G9" s="55" t="n">
         <v>292</v>
       </c>
-      <c r="H9" s="56" t="n">
+      <c r="H9" s="55" t="n">
         <v>292</v>
       </c>
-      <c r="I9" s="56" t="n">
+      <c r="I9" s="55" t="n">
         <v>292</v>
       </c>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
       <c r="N9" s="51" t="s">
         <v>23</v>
       </c>
@@ -3090,12 +3084,12 @@
       <c r="P9" s="53"/>
       <c r="Q9" s="53"/>
       <c r="R9" s="53"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
       <c r="Z9" s="51" t="s">
         <v>24</v>
       </c>
@@ -3111,18 +3105,18 @@
       <c r="AD9" s="53" t="n">
         <v>10778.4300000000003</v>
       </c>
-      <c r="AE9" s="56" t="n">
+      <c r="AE9" s="55" t="n">
         <v>12001.0300000000007</v>
       </c>
-      <c r="AF9" s="56" t="n">
+      <c r="AF9" s="55" t="n">
         <v>11847.5599999999995</v>
       </c>
-      <c r="AG9" s="56" t="n">
+      <c r="AG9" s="55" t="n">
         <v>12001.0300000000007</v>
       </c>
-      <c r="AH9" s="56"/>
-      <c r="AI9" s="56"/>
-      <c r="AJ9" s="56"/>
+      <c r="AH9" s="55"/>
+      <c r="AI9" s="55"/>
+      <c r="AJ9" s="55"/>
     </row>
     <row r="10" spans="2:36">
       <c r="B10" s="50" t="s">
@@ -3140,18 +3134,18 @@
       <c r="F10" s="52" t="n">
         <v>352</v>
       </c>
-      <c r="G10" s="56" t="n">
+      <c r="G10" s="55" t="n">
         <v>352</v>
       </c>
-      <c r="H10" s="56" t="n">
+      <c r="H10" s="55" t="n">
         <v>352</v>
       </c>
-      <c r="I10" s="56" t="n">
+      <c r="I10" s="55" t="n">
         <v>352</v>
       </c>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
       <c r="N10" s="51" t="s">
         <v>26</v>
       </c>
@@ -3161,12 +3155,12 @@
       <c r="P10" s="53"/>
       <c r="Q10" s="53"/>
       <c r="R10" s="53"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
       <c r="Z10" s="51" t="s">
         <v>27</v>
       </c>
@@ -3182,18 +3176,18 @@
       <c r="AD10" s="53" t="n">
         <v>15403.2600000000002</v>
       </c>
-      <c r="AE10" s="56" t="n">
+      <c r="AE10" s="55" t="n">
         <v>15403.2600000000002</v>
       </c>
-      <c r="AF10" s="56" t="n">
+      <c r="AF10" s="55" t="n">
         <v>15403.25</v>
       </c>
-      <c r="AG10" s="56" t="n">
+      <c r="AG10" s="55" t="n">
         <v>15403.25</v>
       </c>
-      <c r="AH10" s="56"/>
-      <c r="AI10" s="56"/>
-      <c r="AJ10" s="56"/>
+      <c r="AH10" s="55"/>
+      <c r="AI10" s="55"/>
+      <c r="AJ10" s="55"/>
     </row>
     <row r="11" spans="2:36">
       <c r="B11" s="50" t="s">
@@ -3211,18 +3205,18 @@
       <c r="F11" s="52" t="n">
         <v>556.809999999999945</v>
       </c>
-      <c r="G11" s="56" t="n">
+      <c r="G11" s="55" t="n">
         <v>556.809999999999945</v>
       </c>
-      <c r="H11" s="56" t="n">
+      <c r="H11" s="55" t="n">
         <v>556.809999999999945</v>
       </c>
-      <c r="I11" s="56" t="n">
+      <c r="I11" s="55" t="n">
         <v>556.809999999999945</v>
       </c>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
       <c r="N11" s="51" t="s">
         <v>29</v>
       </c>
@@ -3232,12 +3226,12 @@
       <c r="P11" s="53"/>
       <c r="Q11" s="53"/>
       <c r="R11" s="53"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="55"/>
       <c r="Z11" s="51" t="s">
         <v>30</v>
       </c>
@@ -3253,18 +3247,18 @@
       <c r="AD11" s="53" t="n">
         <v>21631.4300000000003</v>
       </c>
-      <c r="AE11" s="56" t="n">
+      <c r="AE11" s="55" t="n">
         <v>23231.1899999999987</v>
       </c>
-      <c r="AF11" s="56" t="n">
+      <c r="AF11" s="55" t="n">
         <v>22003.0400000000009</v>
       </c>
-      <c r="AG11" s="56" t="n">
+      <c r="AG11" s="55" t="n">
         <v>23231.1899999999987</v>
       </c>
-      <c r="AH11" s="56"/>
-      <c r="AI11" s="56"/>
-      <c r="AJ11" s="56"/>
+      <c r="AH11" s="55"/>
+      <c r="AI11" s="55"/>
+      <c r="AJ11" s="55"/>
     </row>
     <row r="12" spans="2:36">
       <c r="B12" s="50" t="s">
@@ -3282,18 +3276,18 @@
       <c r="F12" s="52" t="n">
         <v>14272.2999999999993</v>
       </c>
-      <c r="G12" s="56" t="n">
+      <c r="G12" s="55" t="n">
         <v>11580.3199999999997</v>
       </c>
-      <c r="H12" s="56" t="n">
+      <c r="H12" s="55" t="n">
         <v>11551.4599999999991</v>
       </c>
-      <c r="I12" s="56" t="n">
+      <c r="I12" s="55" t="n">
         <v>11580.3199999999997</v>
       </c>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
       <c r="N12" s="51" t="s">
         <v>32</v>
       </c>
@@ -3303,12 +3297,12 @@
       <c r="P12" s="53"/>
       <c r="Q12" s="53"/>
       <c r="R12" s="53"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="55"/>
       <c r="Z12" s="51" t="s">
         <v>33</v>
       </c>
@@ -3316,26 +3310,26 @@
         <v>66</v>
       </c>
       <c r="AB12" s="53" t="n">
-        <v>8023.60999999999967</v>
+        <v>8023.60999999999876</v>
       </c>
       <c r="AC12" s="53" t="n">
-        <v>8023.60999999999967</v>
+        <v>8023.60999999999876</v>
       </c>
       <c r="AD12" s="53" t="n">
-        <v>8023.60999999999967</v>
-      </c>
-      <c r="AE12" s="56" t="n">
-        <v>8023.60999999999967</v>
-      </c>
-      <c r="AF12" s="56" t="n">
-        <v>8023.60999999999967</v>
-      </c>
-      <c r="AG12" s="56" t="n">
-        <v>8023.60999999999967</v>
-      </c>
-      <c r="AH12" s="56"/>
-      <c r="AI12" s="56"/>
-      <c r="AJ12" s="56"/>
+        <v>8023.60999999999876</v>
+      </c>
+      <c r="AE12" s="55" t="n">
+        <v>8023.60999999999876</v>
+      </c>
+      <c r="AF12" s="55" t="n">
+        <v>8023.60999999999876</v>
+      </c>
+      <c r="AG12" s="55" t="n">
+        <v>8023.60999999999876</v>
+      </c>
+      <c r="AH12" s="55"/>
+      <c r="AI12" s="55"/>
+      <c r="AJ12" s="55"/>
     </row>
     <row r="13" spans="2:36">
       <c r="B13" s="50" t="s">
@@ -3353,18 +3347,18 @@
       <c r="F13" s="52" t="n">
         <v>6116</v>
       </c>
-      <c r="G13" s="56" t="n">
+      <c r="G13" s="55" t="n">
         <v>4607</v>
       </c>
-      <c r="H13" s="56" t="n">
+      <c r="H13" s="55" t="n">
         <v>4607</v>
       </c>
-      <c r="I13" s="56" t="n">
+      <c r="I13" s="55" t="n">
         <v>4607</v>
       </c>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
       <c r="N13" s="51" t="s">
         <v>35</v>
       </c>
@@ -3380,18 +3374,18 @@
       <c r="R13" s="53" t="n">
         <v>3454</v>
       </c>
-      <c r="S13" s="56" t="n">
+      <c r="S13" s="55" t="n">
         <v>3155</v>
       </c>
-      <c r="T13" s="56" t="n">
+      <c r="T13" s="55" t="n">
         <v>3155</v>
       </c>
-      <c r="U13" s="56" t="n">
+      <c r="U13" s="55" t="n">
         <v>3155</v>
       </c>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="55"/>
       <c r="Z13" s="51" t="s">
         <v>36</v>
       </c>
@@ -3407,18 +3401,18 @@
       <c r="AD13" s="53" t="n">
         <v>11960.0200000000004</v>
       </c>
-      <c r="AE13" s="56" t="n">
+      <c r="AE13" s="55" t="n">
         <v>12127.2900000000009</v>
       </c>
-      <c r="AF13" s="56" t="n">
-        <v>11699.6599999999999</v>
-      </c>
-      <c r="AG13" s="56" t="n">
-        <v>11699.6599999999999</v>
-      </c>
-      <c r="AH13" s="56"/>
-      <c r="AI13" s="56"/>
-      <c r="AJ13" s="56"/>
+      <c r="AF13" s="55" t="n">
+        <v>11699.6600000000017</v>
+      </c>
+      <c r="AG13" s="55" t="n">
+        <v>11699.6600000000017</v>
+      </c>
+      <c r="AH13" s="55"/>
+      <c r="AI13" s="55"/>
+      <c r="AJ13" s="55"/>
     </row>
     <row r="14" spans="2:36">
       <c r="B14" s="50" t="s">
@@ -3436,18 +3430,18 @@
       <c r="F14" s="52" t="n">
         <v>11010</v>
       </c>
-      <c r="G14" s="56" t="n">
+      <c r="G14" s="55" t="n">
         <v>480</v>
       </c>
-      <c r="H14" s="56" t="n">
+      <c r="H14" s="55" t="n">
         <v>480</v>
       </c>
-      <c r="I14" s="56" t="n">
+      <c r="I14" s="55" t="n">
         <v>480</v>
       </c>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
       <c r="N14" s="51" t="s">
         <v>38</v>
       </c>
@@ -3463,18 +3457,18 @@
       <c r="R14" s="53" t="n">
         <v>5015.02000000000044</v>
       </c>
-      <c r="S14" s="56" t="n">
+      <c r="S14" s="55" t="n">
         <v>4792.3100000000004</v>
       </c>
-      <c r="T14" s="56" t="n">
+      <c r="T14" s="55" t="n">
         <v>4792.3100000000004</v>
       </c>
-      <c r="U14" s="56" t="n">
+      <c r="U14" s="55" t="n">
         <v>4792.3100000000004</v>
       </c>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="55"/>
       <c r="Z14" s="51" t="s">
         <v>39</v>
       </c>
@@ -3490,18 +3484,18 @@
       <c r="AD14" s="53" t="n">
         <v>21798.4399999999987</v>
       </c>
-      <c r="AE14" s="56" t="n">
+      <c r="AE14" s="55" t="n">
         <v>22904.630000000001</v>
       </c>
-      <c r="AF14" s="56" t="n">
+      <c r="AF14" s="55" t="n">
         <v>21931.380000000001</v>
       </c>
-      <c r="AG14" s="56" t="n">
+      <c r="AG14" s="55" t="n">
         <v>22573.2900000000009</v>
       </c>
-      <c r="AH14" s="56"/>
-      <c r="AI14" s="56"/>
-      <c r="AJ14" s="56"/>
+      <c r="AH14" s="55"/>
+      <c r="AI14" s="55"/>
+      <c r="AJ14" s="55"/>
     </row>
     <row r="15" spans="2:36">
       <c r="B15" s="50" t="s">
@@ -3519,18 +3513,18 @@
       <c r="F15" s="52" t="n">
         <v>249.879999999999995</v>
       </c>
-      <c r="G15" s="56" t="n">
+      <c r="G15" s="55" t="n">
         <v>249.879999999999995</v>
       </c>
-      <c r="H15" s="56" t="n">
+      <c r="H15" s="55" t="n">
         <v>249.879999999999995</v>
       </c>
-      <c r="I15" s="56" t="n">
+      <c r="I15" s="55" t="n">
         <v>249.879999999999995</v>
       </c>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
       <c r="N15" s="51" t="s">
         <v>41</v>
       </c>
@@ -3546,18 +3540,18 @@
       <c r="R15" s="53" t="n">
         <v>6632.55000000000018</v>
       </c>
-      <c r="S15" s="56" t="n">
-        <v>7646.89999999999964</v>
-      </c>
-      <c r="T15" s="56" t="n">
-        <v>7538.64999999999964</v>
-      </c>
-      <c r="U15" s="56" t="n">
+      <c r="S15" s="55" t="n">
+        <v>7646.89999999999873</v>
+      </c>
+      <c r="T15" s="55" t="n">
+        <v>7538.64999999999873</v>
+      </c>
+      <c r="U15" s="55" t="n">
         <v>7222.10000000000036</v>
       </c>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
+      <c r="V15" s="55"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="55"/>
       <c r="Z15" s="51" t="s">
         <v>42</v>
       </c>
@@ -3573,12 +3567,12 @@
       <c r="AD15" s="53" t="n">
         <v>66267.6300000000047</v>
       </c>
-      <c r="AE15" s="56"/>
-      <c r="AF15" s="56"/>
-      <c r="AG15" s="56"/>
-      <c r="AH15" s="56"/>
-      <c r="AI15" s="56"/>
-      <c r="AJ15" s="56"/>
+      <c r="AE15" s="55"/>
+      <c r="AF15" s="55"/>
+      <c r="AG15" s="55"/>
+      <c r="AH15" s="55"/>
+      <c r="AI15" s="55"/>
+      <c r="AJ15" s="55"/>
     </row>
     <row r="16" spans="2:36">
       <c r="B16" s="50" t="s">
@@ -3596,18 +3590,18 @@
       <c r="F16" s="52" t="n">
         <v>1207.15000000000009</v>
       </c>
-      <c r="G16" s="56" t="n">
+      <c r="G16" s="55" t="n">
         <v>1215.96000000000004</v>
       </c>
-      <c r="H16" s="56" t="n">
+      <c r="H16" s="55" t="n">
         <v>1154.49000000000001</v>
       </c>
-      <c r="I16" s="56" t="n">
+      <c r="I16" s="55" t="n">
         <v>1215.96000000000004</v>
       </c>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
       <c r="N16" s="51" t="s">
         <v>44</v>
       </c>
@@ -3623,18 +3617,18 @@
       <c r="R16" s="53" t="n">
         <v>6767.06999999999971</v>
       </c>
-      <c r="S16" s="56" t="n">
+      <c r="S16" s="55" t="n">
         <v>6772.97000000000025</v>
       </c>
-      <c r="T16" s="56" t="n">
+      <c r="T16" s="55" t="n">
         <v>6659.9399999999996</v>
       </c>
-      <c r="U16" s="56" t="n">
+      <c r="U16" s="55" t="n">
         <v>6846.38000000000011</v>
       </c>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="55"/>
       <c r="Z16" s="51" t="s">
         <v>45</v>
       </c>
@@ -3650,18 +3644,18 @@
       <c r="AD16" s="53" t="n">
         <v>266.870000000000005</v>
       </c>
-      <c r="AE16" s="56" t="n">
+      <c r="AE16" s="55" t="n">
         <v>323.189999999999998</v>
       </c>
-      <c r="AF16" s="56" t="n">
+      <c r="AF16" s="55" t="n">
         <v>307.649999999999977</v>
       </c>
-      <c r="AG16" s="56" t="n">
+      <c r="AG16" s="55" t="n">
         <v>306.990000000000009</v>
       </c>
-      <c r="AH16" s="56"/>
-      <c r="AI16" s="56"/>
-      <c r="AJ16" s="56"/>
+      <c r="AH16" s="55"/>
+      <c r="AI16" s="55"/>
+      <c r="AJ16" s="55"/>
     </row>
     <row r="17" spans="2:36">
       <c r="B17" s="50" t="s">
@@ -3679,18 +3673,18 @@
       <c r="F17" s="52" t="n">
         <v>1304.56999999999994</v>
       </c>
-      <c r="G17" s="56" t="n">
+      <c r="G17" s="55" t="n">
         <v>1445.04999999999995</v>
       </c>
-      <c r="H17" s="56" t="n">
+      <c r="H17" s="55" t="n">
         <v>1340.57999999999993</v>
       </c>
-      <c r="I17" s="56" t="n">
+      <c r="I17" s="55" t="n">
         <v>1381.34999999999991</v>
       </c>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
       <c r="N17" s="51" t="s">
         <v>47</v>
       </c>
@@ -3706,18 +3700,18 @@
       <c r="R17" s="53" t="n">
         <v>5507.89000000000033</v>
       </c>
-      <c r="S17" s="56" t="n">
+      <c r="S17" s="55" t="n">
         <v>4469.8100000000004</v>
       </c>
-      <c r="T17" s="56" t="n">
+      <c r="T17" s="55" t="n">
         <v>4469.8100000000004</v>
       </c>
-      <c r="U17" s="56" t="n">
+      <c r="U17" s="55" t="n">
         <v>4469.8100000000004</v>
       </c>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="55"/>
       <c r="Z17" s="51" t="s">
         <v>48</v>
       </c>
@@ -3733,18 +3727,18 @@
       <c r="AD17" s="53" t="n">
         <v>553.950000000000045</v>
       </c>
-      <c r="AE17" s="56" t="n">
+      <c r="AE17" s="55" t="n">
         <v>593.080000000000041</v>
       </c>
-      <c r="AF17" s="56" t="n">
+      <c r="AF17" s="55" t="n">
         <v>563.110000000000014</v>
       </c>
-      <c r="AG17" s="56" t="n">
+      <c r="AG17" s="55" t="n">
         <v>593.080000000000041</v>
       </c>
-      <c r="AH17" s="56"/>
-      <c r="AI17" s="56"/>
-      <c r="AJ17" s="56"/>
+      <c r="AH17" s="55"/>
+      <c r="AI17" s="55"/>
+      <c r="AJ17" s="55"/>
     </row>
     <row r="18" spans="2:36">
       <c r="B18" s="50" t="s">
@@ -3762,18 +3756,18 @@
       <c r="F18" s="52" t="n">
         <v>100</v>
       </c>
-      <c r="G18" s="56" t="n">
+      <c r="G18" s="55" t="n">
         <v>100</v>
       </c>
-      <c r="H18" s="56" t="n">
+      <c r="H18" s="55" t="n">
         <v>100</v>
       </c>
-      <c r="I18" s="56" t="n">
+      <c r="I18" s="55" t="n">
         <v>100</v>
       </c>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
       <c r="N18" s="51" t="s">
         <v>50</v>
       </c>
@@ -3789,18 +3783,18 @@
       <c r="R18" s="53" t="n">
         <v>5119.53999999999996</v>
       </c>
-      <c r="S18" s="56" t="n">
+      <c r="S18" s="55" t="n">
         <v>5396.32999999999993</v>
       </c>
-      <c r="T18" s="56" t="n">
+      <c r="T18" s="55" t="n">
         <v>5396.32999999999993</v>
       </c>
-      <c r="U18" s="56" t="n">
+      <c r="U18" s="55" t="n">
         <v>5396.32999999999993</v>
       </c>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="55"/>
       <c r="Z18" s="51" t="s">
         <v>51</v>
       </c>
@@ -3814,20 +3808,20 @@
         <v>1724.97000000000003</v>
       </c>
       <c r="AD18" s="53" t="n">
-        <v>1670.86999999999989</v>
-      </c>
-      <c r="AE18" s="56" t="n">
+        <v>1670.86999999999966</v>
+      </c>
+      <c r="AE18" s="55" t="n">
         <v>1730.98000000000002</v>
       </c>
-      <c r="AF18" s="56" t="n">
+      <c r="AF18" s="55" t="n">
         <v>1699.81999999999994</v>
       </c>
-      <c r="AG18" s="56" t="n">
+      <c r="AG18" s="55" t="n">
         <v>1696.54999999999995</v>
       </c>
-      <c r="AH18" s="56"/>
-      <c r="AI18" s="56"/>
-      <c r="AJ18" s="56"/>
+      <c r="AH18" s="55"/>
+      <c r="AI18" s="55"/>
+      <c r="AJ18" s="55"/>
     </row>
     <row r="19" spans="2:36">
       <c r="B19" s="50" t="s">
@@ -3845,18 +3839,18 @@
       <c r="F19" s="52" t="n">
         <v>77.0400000000000063</v>
       </c>
-      <c r="G19" s="56" t="n">
+      <c r="G19" s="55" t="n">
         <v>77.0400000000000063</v>
       </c>
-      <c r="H19" s="56" t="n">
+      <c r="H19" s="55" t="n">
         <v>77.0400000000000063</v>
       </c>
-      <c r="I19" s="56" t="n">
+      <c r="I19" s="55" t="n">
         <v>77.0400000000000063</v>
       </c>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
       <c r="N19" s="51" t="s">
         <v>53</v>
       </c>
@@ -3872,18 +3866,18 @@
       <c r="R19" s="53" t="n">
         <v>6789.90999999999985</v>
       </c>
-      <c r="S19" s="56" t="n">
+      <c r="S19" s="55" t="n">
         <v>8301.60000000000036</v>
       </c>
-      <c r="T19" s="56" t="n">
+      <c r="T19" s="55" t="n">
         <v>7923.69999999999982</v>
       </c>
-      <c r="U19" s="56" t="n">
+      <c r="U19" s="55" t="n">
         <v>8120.14000000000033</v>
       </c>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="55"/>
       <c r="Z19" s="51" t="s">
         <v>55</v>
       </c>
@@ -3899,14 +3893,14 @@
       <c r="AD19" s="53" t="n">
         <v>2236.98999999999978</v>
       </c>
-      <c r="AE19" s="56"/>
-      <c r="AF19" s="56"/>
-      <c r="AG19" s="56" t="n">
+      <c r="AE19" s="55"/>
+      <c r="AF19" s="55"/>
+      <c r="AG19" s="55" t="n">
         <v>2352.71000000000004</v>
       </c>
-      <c r="AH19" s="56"/>
-      <c r="AI19" s="56"/>
-      <c r="AJ19" s="56"/>
+      <c r="AH19" s="55"/>
+      <c r="AI19" s="55"/>
+      <c r="AJ19" s="55"/>
     </row>
     <row r="20" spans="2:36">
       <c r="B20" s="50" t="s">
@@ -3924,18 +3918,18 @@
       <c r="F20" s="52" t="n">
         <v>97.3799999999999955</v>
       </c>
-      <c r="G20" s="56" t="n">
+      <c r="G20" s="55" t="n">
         <v>99.4500000000000028</v>
       </c>
-      <c r="H20" s="56" t="n">
+      <c r="H20" s="55" t="n">
         <v>99.4500000000000028</v>
       </c>
-      <c r="I20" s="56" t="n">
+      <c r="I20" s="55" t="n">
         <v>99.4500000000000028</v>
       </c>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
       <c r="N20" s="51" t="s">
         <v>57</v>
       </c>
@@ -3951,18 +3945,18 @@
       <c r="R20" s="53" t="n">
         <v>4293.02000000000044</v>
       </c>
-      <c r="S20" s="56" t="n">
+      <c r="S20" s="55" t="n">
         <v>5853.32999999999993</v>
       </c>
-      <c r="T20" s="56" t="n">
+      <c r="T20" s="55" t="n">
         <v>5775.96000000000004</v>
       </c>
-      <c r="U20" s="56" t="n">
+      <c r="U20" s="55" t="n">
         <v>5775.96000000000004</v>
       </c>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="55"/>
       <c r="Z20" s="51" t="s">
         <v>58</v>
       </c>
@@ -3978,18 +3972,18 @@
       <c r="AD20" s="53" t="n">
         <v>5225</v>
       </c>
-      <c r="AE20" s="56" t="n">
+      <c r="AE20" s="55" t="n">
         <v>5478</v>
       </c>
-      <c r="AF20" s="56" t="n">
+      <c r="AF20" s="55" t="n">
         <v>5392</v>
       </c>
-      <c r="AG20" s="56" t="n">
+      <c r="AG20" s="55" t="n">
         <v>5476</v>
       </c>
-      <c r="AH20" s="56"/>
-      <c r="AI20" s="56"/>
-      <c r="AJ20" s="56"/>
+      <c r="AH20" s="55"/>
+      <c r="AI20" s="55"/>
+      <c r="AJ20" s="55"/>
     </row>
     <row r="21" spans="2:36">
       <c r="B21" s="50" t="s">
@@ -4007,18 +4001,18 @@
       <c r="F21" s="52" t="n">
         <v>150.400000000000006</v>
       </c>
-      <c r="G21" s="56" t="n">
+      <c r="G21" s="55" t="n">
         <v>132.75</v>
       </c>
-      <c r="H21" s="56" t="n">
+      <c r="H21" s="55" t="n">
         <v>132.75</v>
       </c>
-      <c r="I21" s="56" t="n">
+      <c r="I21" s="55" t="n">
         <v>132.75</v>
       </c>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
       <c r="N21" s="51" t="s">
         <v>60</v>
       </c>
@@ -4034,18 +4028,18 @@
       <c r="R21" s="53" t="n">
         <v>5246.27999999999975</v>
       </c>
-      <c r="S21" s="56" t="n">
+      <c r="S21" s="55" t="n">
         <v>5246.27999999999975</v>
       </c>
-      <c r="T21" s="56" t="n">
+      <c r="T21" s="55" t="n">
         <v>5246.27999999999975</v>
       </c>
-      <c r="U21" s="56" t="n">
+      <c r="U21" s="55" t="n">
         <v>5246.27999999999975</v>
       </c>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
       <c r="Z21" s="51" t="s">
         <v>61</v>
       </c>
@@ -4061,18 +4055,18 @@
       <c r="AD21" s="53" t="n">
         <v>12083</v>
       </c>
-      <c r="AE21" s="56" t="n">
+      <c r="AE21" s="55" t="n">
         <v>12196</v>
       </c>
-      <c r="AF21" s="56" t="n">
+      <c r="AF21" s="55" t="n">
         <v>12194</v>
       </c>
-      <c r="AG21" s="56" t="n">
+      <c r="AG21" s="55" t="n">
         <v>12012</v>
       </c>
-      <c r="AH21" s="56"/>
-      <c r="AI21" s="56"/>
-      <c r="AJ21" s="56"/>
+      <c r="AH21" s="55"/>
+      <c r="AI21" s="55"/>
+      <c r="AJ21" s="55"/>
     </row>
     <row r="22" spans="2:36">
       <c r="B22" s="50" t="s">
@@ -4090,18 +4084,18 @@
       <c r="F22" s="52" t="n">
         <v>147</v>
       </c>
-      <c r="G22" s="56" t="n">
+      <c r="G22" s="55" t="n">
         <v>147</v>
       </c>
-      <c r="H22" s="56" t="n">
+      <c r="H22" s="55" t="n">
         <v>147</v>
       </c>
-      <c r="I22" s="56" t="n">
+      <c r="I22" s="55" t="n">
         <v>147</v>
       </c>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
       <c r="N22" s="51" t="s">
         <v>63</v>
       </c>
@@ -4117,18 +4111,18 @@
       <c r="R22" s="53" t="n">
         <v>4087.21000000000004</v>
       </c>
-      <c r="S22" s="56" t="n">
+      <c r="S22" s="55" t="n">
         <v>3842.76000000000022</v>
       </c>
-      <c r="T22" s="56" t="n">
+      <c r="T22" s="55" t="n">
         <v>3842.76000000000022</v>
       </c>
-      <c r="U22" s="56" t="n">
+      <c r="U22" s="55" t="n">
         <v>3842.76000000000022</v>
       </c>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="55"/>
       <c r="Z22" s="51" t="s">
         <v>64</v>
       </c>
@@ -4144,16 +4138,16 @@
       <c r="AD22" s="53" t="n">
         <v>22289</v>
       </c>
-      <c r="AE22" s="56" t="n">
+      <c r="AE22" s="55" t="n">
         <v>22414</v>
       </c>
-      <c r="AF22" s="56" t="n">
+      <c r="AF22" s="55" t="n">
         <v>22414</v>
       </c>
-      <c r="AG22" s="56"/>
-      <c r="AH22" s="56"/>
-      <c r="AI22" s="56"/>
-      <c r="AJ22" s="56"/>
+      <c r="AG22" s="55"/>
+      <c r="AH22" s="55"/>
+      <c r="AI22" s="55"/>
+      <c r="AJ22" s="55"/>
     </row>
     <row r="23" spans="2:36">
       <c r="B23" s="50" t="s">
@@ -4171,18 +4165,18 @@
       <c r="F23" s="52" t="n">
         <v>559.009999999999991</v>
       </c>
-      <c r="G23" s="56" t="n">
+      <c r="G23" s="55" t="n">
         <v>655.799999999999955</v>
       </c>
-      <c r="H23" s="56" t="n">
+      <c r="H23" s="55" t="n">
         <v>633.590000000000032</v>
       </c>
-      <c r="I23" s="56" t="n">
+      <c r="I23" s="55" t="n">
         <v>652.590000000000032</v>
       </c>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
       <c r="N23" s="51" t="s">
         <v>66</v>
       </c>
@@ -4198,18 +4192,18 @@
       <c r="R23" s="53" t="n">
         <v>2109.42999999999984</v>
       </c>
-      <c r="S23" s="56" t="n">
+      <c r="S23" s="55" t="n">
         <v>2067.86999999999989</v>
       </c>
-      <c r="T23" s="56" t="n">
+      <c r="T23" s="55" t="n">
         <v>2033.3599999999999</v>
       </c>
-      <c r="U23" s="56" t="n">
+      <c r="U23" s="55" t="n">
         <v>2033.3599999999999</v>
       </c>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
       <c r="Z23" s="50" t="s">
         <v>67</v>
       </c>
@@ -4225,18 +4219,18 @@
       <c r="AD23" s="53" t="n">
         <v>129.150000000000006</v>
       </c>
-      <c r="AE23" s="56" t="n">
+      <c r="AE23" s="55" t="n">
         <v>127.180000000000007</v>
       </c>
-      <c r="AF23" s="56" t="n">
+      <c r="AF23" s="55" t="n">
         <v>127.180000000000007</v>
       </c>
-      <c r="AG23" s="56" t="n">
+      <c r="AG23" s="55" t="n">
         <v>127.180000000000007</v>
       </c>
-      <c r="AH23" s="56"/>
-      <c r="AI23" s="56"/>
-      <c r="AJ23" s="56"/>
+      <c r="AH23" s="55"/>
+      <c r="AI23" s="55"/>
+      <c r="AJ23" s="55"/>
     </row>
     <row r="24" spans="2:36">
       <c r="B24" s="50" t="s">
@@ -4254,18 +4248,18 @@
       <c r="F24" s="52" t="n">
         <v>154</v>
       </c>
-      <c r="G24" s="56" t="n">
+      <c r="G24" s="55" t="n">
         <v>154</v>
       </c>
-      <c r="H24" s="56" t="n">
+      <c r="H24" s="55" t="n">
         <v>154</v>
       </c>
-      <c r="I24" s="56" t="n">
+      <c r="I24" s="55" t="n">
         <v>154</v>
       </c>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
       <c r="N24" s="51" t="s">
         <v>69</v>
       </c>
@@ -4281,18 +4275,18 @@
       <c r="R24" s="53" t="n">
         <v>8865.38999999999942</v>
       </c>
-      <c r="S24" s="56" t="n">
+      <c r="S24" s="55" t="n">
         <v>9230.75</v>
       </c>
-      <c r="T24" s="56" t="n">
+      <c r="T24" s="55" t="n">
         <v>8973</v>
       </c>
-      <c r="U24" s="56" t="n">
-        <v>8969.48999999999978</v>
-      </c>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
+      <c r="U24" s="55" t="n">
+        <v>8969.48999999999796</v>
+      </c>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
       <c r="Z24" s="51" t="s">
         <v>70</v>
       </c>
@@ -4308,18 +4302,18 @@
       <c r="AD24" s="53" t="n">
         <v>146</v>
       </c>
-      <c r="AE24" s="56" t="n">
+      <c r="AE24" s="55" t="n">
         <v>146</v>
       </c>
-      <c r="AF24" s="56" t="n">
+      <c r="AF24" s="55" t="n">
         <v>146</v>
       </c>
-      <c r="AG24" s="56" t="n">
+      <c r="AG24" s="55" t="n">
         <v>146</v>
       </c>
-      <c r="AH24" s="56"/>
-      <c r="AI24" s="56"/>
-      <c r="AJ24" s="56"/>
+      <c r="AH24" s="55"/>
+      <c r="AI24" s="55"/>
+      <c r="AJ24" s="55"/>
     </row>
     <row r="25" spans="2:36">
       <c r="B25" s="50" t="s">
@@ -4337,18 +4331,18 @@
       <c r="F25" s="52" t="n">
         <v>258</v>
       </c>
-      <c r="G25" s="56" t="n">
+      <c r="G25" s="55" t="n">
         <v>248</v>
       </c>
-      <c r="H25" s="56" t="n">
+      <c r="H25" s="55" t="n">
         <v>248</v>
       </c>
-      <c r="I25" s="56" t="n">
+      <c r="I25" s="55" t="n">
         <v>248</v>
       </c>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
       <c r="N25" s="51" t="s">
         <v>72</v>
       </c>
@@ -4364,12 +4358,12 @@
       <c r="R25" s="53" t="n">
         <v>13100.4699999999993</v>
       </c>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="56"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="56"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
       <c r="Z25" s="51" t="s">
         <v>73</v>
       </c>
@@ -4385,18 +4379,18 @@
       <c r="AD25" s="53" t="n">
         <v>27500</v>
       </c>
-      <c r="AE25" s="56" t="n">
+      <c r="AE25" s="55" t="n">
         <v>27500</v>
       </c>
-      <c r="AF25" s="56" t="n">
+      <c r="AF25" s="55" t="n">
         <v>27500</v>
       </c>
-      <c r="AG25" s="56" t="n">
+      <c r="AG25" s="55" t="n">
         <v>27500</v>
       </c>
-      <c r="AH25" s="56"/>
-      <c r="AI25" s="56"/>
-      <c r="AJ25" s="56"/>
+      <c r="AH25" s="55"/>
+      <c r="AI25" s="55"/>
+      <c r="AJ25" s="55"/>
     </row>
     <row r="26" spans="2:36">
       <c r="B26" s="50" t="s">
@@ -4414,18 +4408,18 @@
       <c r="F26" s="52" t="n">
         <v>162</v>
       </c>
-      <c r="G26" s="56" t="n">
+      <c r="G26" s="55" t="n">
         <v>162</v>
       </c>
-      <c r="H26" s="56" t="n">
+      <c r="H26" s="55" t="n">
         <v>162</v>
       </c>
-      <c r="I26" s="56" t="n">
+      <c r="I26" s="55" t="n">
         <v>162</v>
       </c>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
       <c r="N26" s="51" t="s">
         <v>75</v>
       </c>
@@ -4441,18 +4435,18 @@
       <c r="R26" s="53" t="n">
         <v>718</v>
       </c>
-      <c r="S26" s="56" t="n">
+      <c r="S26" s="55" t="n">
         <v>554</v>
       </c>
-      <c r="T26" s="56" t="n">
+      <c r="T26" s="55" t="n">
         <v>538</v>
       </c>
-      <c r="U26" s="56" t="n">
+      <c r="U26" s="55" t="n">
         <v>535</v>
       </c>
-      <c r="V26" s="56"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
+      <c r="V26" s="55"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="55"/>
       <c r="Z26" s="51" t="s">
         <v>76</v>
       </c>
@@ -4460,26 +4454,26 @@
         <v>56</v>
       </c>
       <c r="AB26" s="53" t="n">
-        <v>964.259999999999991</v>
+        <v>964.260000000000105</v>
       </c>
       <c r="AC26" s="53" t="n">
-        <v>964.259999999999991</v>
+        <v>964.260000000000105</v>
       </c>
       <c r="AD26" s="53" t="n">
-        <v>996.509999999999991</v>
-      </c>
-      <c r="AE26" s="56" t="n">
+        <v>996.510000000000105</v>
+      </c>
+      <c r="AE26" s="55" t="n">
         <v>1038.02999999999997</v>
       </c>
-      <c r="AF26" s="56" t="n">
+      <c r="AF26" s="55" t="n">
         <v>1027.23000000000002</v>
       </c>
-      <c r="AG26" s="56" t="n">
+      <c r="AG26" s="55" t="n">
         <v>1038.02999999999997</v>
       </c>
-      <c r="AH26" s="56"/>
-      <c r="AI26" s="56"/>
-      <c r="AJ26" s="56"/>
+      <c r="AH26" s="55"/>
+      <c r="AI26" s="55"/>
+      <c r="AJ26" s="55"/>
     </row>
     <row r="27" spans="26:36">
       <c r="Z27" s="50" t="s">
@@ -4497,18 +4491,18 @@
       <c r="AD27" s="52" t="n">
         <v>826.080000000000041</v>
       </c>
-      <c r="AE27" s="56" t="n">
-        <v>751.059999999999945</v>
-      </c>
-      <c r="AF27" s="56" t="n">
-        <v>751.059999999999945</v>
-      </c>
-      <c r="AG27" s="56" t="n">
-        <v>751.059999999999945</v>
-      </c>
-      <c r="AH27" s="56"/>
-      <c r="AI27" s="56"/>
-      <c r="AJ27" s="56"/>
+      <c r="AE27" s="55" t="n">
+        <v>751.059999999999832</v>
+      </c>
+      <c r="AF27" s="55" t="n">
+        <v>751.059999999999832</v>
+      </c>
+      <c r="AG27" s="55" t="n">
+        <v>751.059999999999832</v>
+      </c>
+      <c r="AH27" s="55"/>
+      <c r="AI27" s="55"/>
+      <c r="AJ27" s="55"/>
     </row>
     <row r="28" spans="26:36">
       <c r="Z28" s="50" t="s">
@@ -4526,18 +4520,18 @@
       <c r="AD28" s="52" t="n">
         <v>456.579999999999984</v>
       </c>
-      <c r="AE28" s="56" t="n">
+      <c r="AE28" s="55" t="n">
         <v>456.579999999999984</v>
       </c>
-      <c r="AF28" s="56" t="n">
+      <c r="AF28" s="55" t="n">
         <v>456.579999999999984</v>
       </c>
-      <c r="AG28" s="56" t="n">
+      <c r="AG28" s="55" t="n">
         <v>456.579999999999984</v>
       </c>
-      <c r="AH28" s="56"/>
-      <c r="AI28" s="56"/>
-      <c r="AJ28" s="56"/>
+      <c r="AH28" s="55"/>
+      <c r="AI28" s="55"/>
+      <c r="AJ28" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -4557,7 +4551,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1643157189" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1643199832" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4566,16 +4560,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1643157189" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1643157189" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1643157189" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1643157189" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1643199832" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1643199832" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1643199832" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1643199832" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1643157189" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1643199832" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -4586,31 +4580,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD28"/>
+  <dimension ref="B2:AJ28"/>
   <sheetViews>
-    <sheetView view="normal" topLeftCell="T13" workbookViewId="0">
+    <sheetView view="normal" topLeftCell="AC4" workbookViewId="0">
       <selection activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.20"/>
   <cols>
-    <col min="1" max="2" width="9.138614" style="54"/>
+    <col min="1" max="2" width="9.138614" customWidth="1" style="54"/>
     <col min="3" max="3" width="19.138614" customWidth="1" style="54"/>
     <col min="4" max="4" width="9.752475" customWidth="1" style="54"/>
     <col min="5" max="5" width="10.574257" customWidth="1" style="54"/>
     <col min="6" max="6" width="9.752475" customWidth="1" style="54"/>
     <col min="7" max="7" width="9.574257" customWidth="1" style="54"/>
-    <col min="8" max="14" width="9.138614" style="54"/>
+    <col min="8" max="14" width="9.138614" customWidth="1" style="54"/>
     <col min="15" max="15" width="19.138614" customWidth="1" style="54"/>
     <col min="16" max="16" width="9.752475" customWidth="1" style="54"/>
     <col min="17" max="17" width="10.574257" customWidth="1" style="54"/>
     <col min="18" max="18" width="9.752475" customWidth="1" style="54"/>
     <col min="19" max="20" width="9.574257" customWidth="1" style="54"/>
-    <col min="21" max="26" width="9.138614" style="54"/>
+    <col min="21" max="26" width="9.138614" customWidth="1" style="54"/>
     <col min="27" max="27" width="19.138614" customWidth="1" style="54"/>
     <col min="28" max="30" width="10.861386" customWidth="1" style="54"/>
     <col min="31" max="32" width="9.574257" customWidth="1" style="54"/>
-    <col min="33" max="16384" width="9.138614" style="54"/>
+    <col min="33" max="16384" width="9.138614" customWidth="1" style="54"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:36">
@@ -4714,31 +4708,31 @@
       <c r="C4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="55" t="s">
+      <c r="I4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="55" t="s">
+      <c r="J4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="55" t="s">
+      <c r="K4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="55" t="s">
+      <c r="L4" s="49" t="s">
         <v>9</v>
       </c>
       <c r="N4" s="51" t="s">
@@ -4747,31 +4741,31 @@
       <c r="O4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="55" t="s">
+      <c r="P4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="55" t="s">
+      <c r="Q4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="55" t="s">
+      <c r="R4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="55" t="s">
+      <c r="S4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="55" t="s">
+      <c r="T4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="55" t="s">
+      <c r="U4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="V4" s="55" t="s">
+      <c r="V4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="W4" s="55" t="s">
+      <c r="W4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="55" t="s">
+      <c r="X4" s="49" t="s">
         <v>9</v>
       </c>
       <c r="Z4" s="51" t="s">
@@ -4780,31 +4774,31 @@
       <c r="AA4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="AB4" s="55" t="s">
+      <c r="AB4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AC4" s="55" t="s">
+      <c r="AC4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="AD4" s="55" t="s">
+      <c r="AD4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="AE4" s="55" t="s">
+      <c r="AE4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AF4" s="55" t="s">
+      <c r="AF4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="AG4" s="55" t="s">
+      <c r="AG4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="AH4" s="55" t="s">
+      <c r="AH4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AI4" s="55" t="s">
+      <c r="AI4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="AJ4" s="55" t="s">
+      <c r="AJ4" s="49" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4824,18 +4818,18 @@
       <c r="F5" s="52" t="n">
         <v>1309.68000000000006</v>
       </c>
-      <c r="G5" s="56" t="n">
+      <c r="G5" s="55" t="n">
         <v>1484.38000000000011</v>
       </c>
-      <c r="H5" s="56" t="n">
+      <c r="H5" s="55" t="n">
         <v>1435.76999999999998</v>
       </c>
-      <c r="I5" s="56" t="n">
+      <c r="I5" s="55" t="n">
         <v>1425.65000000000009</v>
       </c>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
       <c r="N5" s="51" t="s">
         <v>11</v>
       </c>
@@ -4851,18 +4845,18 @@
       <c r="R5" s="53" t="n">
         <v>2011</v>
       </c>
-      <c r="S5" s="56" t="n">
+      <c r="S5" s="55" t="n">
         <v>1691</v>
       </c>
-      <c r="T5" s="56" t="n">
+      <c r="T5" s="55" t="n">
         <v>1691</v>
       </c>
-      <c r="U5" s="56" t="n">
+      <c r="U5" s="55" t="n">
         <v>1691</v>
       </c>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
       <c r="Z5" s="51" t="s">
         <v>12</v>
       </c>
@@ -4878,18 +4872,18 @@
       <c r="AD5" s="53" t="n">
         <v>42676.7699999999968</v>
       </c>
-      <c r="AE5" s="56" t="n">
+      <c r="AE5" s="55" t="n">
         <v>44106.739999999998</v>
       </c>
-      <c r="AF5" s="56" t="n">
+      <c r="AF5" s="55" t="n">
         <v>43770.4100000000035</v>
       </c>
-      <c r="AG5" s="56" t="n">
+      <c r="AG5" s="55" t="n">
         <v>44106.739999999998</v>
       </c>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
+      <c r="AH5" s="55"/>
+      <c r="AI5" s="55"/>
+      <c r="AJ5" s="55"/>
     </row>
     <row r="6" spans="2:36">
       <c r="B6" s="50" t="s">
@@ -4901,12 +4895,12 @@
       <c r="D6" s="52"/>
       <c r="E6" s="52"/>
       <c r="F6" s="52"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
       <c r="N6" s="51" t="s">
         <v>14</v>
       </c>
@@ -4922,18 +4916,18 @@
       <c r="R6" s="53" t="n">
         <v>21657.369999999999</v>
       </c>
-      <c r="S6" s="56" t="n">
+      <c r="S6" s="55" t="n">
         <v>23146.5900000000001</v>
       </c>
-      <c r="T6" s="56" t="n">
+      <c r="T6" s="55" t="n">
         <v>23140.3199999999997</v>
       </c>
-      <c r="U6" s="56" t="n">
+      <c r="U6" s="55" t="n">
         <v>22425.0299999999988</v>
       </c>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="55"/>
       <c r="Z6" s="51" t="s">
         <v>15</v>
       </c>
@@ -4949,18 +4943,18 @@
       <c r="AD6" s="53" t="n">
         <v>15262.3500000000004</v>
       </c>
-      <c r="AE6" s="56" t="n">
+      <c r="AE6" s="55" t="n">
         <v>15274.4300000000003</v>
       </c>
-      <c r="AF6" s="56" t="n">
+      <c r="AF6" s="55" t="n">
         <v>15271.7399999999998</v>
       </c>
-      <c r="AG6" s="56" t="n">
+      <c r="AG6" s="55" t="n">
         <v>15274.4300000000003</v>
       </c>
-      <c r="AH6" s="56"/>
-      <c r="AI6" s="56"/>
-      <c r="AJ6" s="56"/>
+      <c r="AH6" s="55"/>
+      <c r="AI6" s="55"/>
+      <c r="AJ6" s="55"/>
     </row>
     <row r="7" spans="2:36">
       <c r="B7" s="50" t="s">
@@ -4978,18 +4972,18 @@
       <c r="F7" s="52" t="n">
         <v>3231</v>
       </c>
-      <c r="G7" s="56" t="n">
+      <c r="G7" s="55" t="n">
         <v>3674</v>
       </c>
-      <c r="H7" s="56" t="n">
+      <c r="H7" s="55" t="n">
         <v>3452</v>
       </c>
-      <c r="I7" s="56" t="n">
+      <c r="I7" s="55" t="n">
         <v>3674</v>
       </c>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
       <c r="N7" s="51" t="s">
         <v>17</v>
       </c>
@@ -5005,18 +4999,18 @@
       <c r="R7" s="53" t="n">
         <v>3120</v>
       </c>
-      <c r="S7" s="56" t="n">
+      <c r="S7" s="55" t="n">
         <v>3062</v>
       </c>
-      <c r="T7" s="56" t="n">
+      <c r="T7" s="55" t="n">
         <v>3052</v>
       </c>
-      <c r="U7" s="56" t="n">
+      <c r="U7" s="55" t="n">
         <v>3062</v>
       </c>
-      <c r="V7" s="56"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="56"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="55"/>
       <c r="Z7" s="51" t="s">
         <v>18</v>
       </c>
@@ -5032,18 +5026,18 @@
       <c r="AD7" s="53" t="n">
         <v>23691.5</v>
       </c>
-      <c r="AE7" s="56" t="n">
+      <c r="AE7" s="55" t="n">
         <v>22514.5200000000004</v>
       </c>
-      <c r="AF7" s="56" t="n">
+      <c r="AF7" s="55" t="n">
         <v>22543.2900000000009</v>
       </c>
-      <c r="AG7" s="56" t="n">
+      <c r="AG7" s="55" t="n">
         <v>22298.2299999999996</v>
       </c>
-      <c r="AH7" s="56"/>
-      <c r="AI7" s="56"/>
-      <c r="AJ7" s="56"/>
+      <c r="AH7" s="55"/>
+      <c r="AI7" s="55"/>
+      <c r="AJ7" s="55"/>
     </row>
     <row r="8" spans="2:36">
       <c r="B8" s="50" t="s">
@@ -5061,18 +5055,18 @@
       <c r="F8" s="52" t="n">
         <v>14036</v>
       </c>
-      <c r="G8" s="56" t="n">
+      <c r="G8" s="55" t="n">
         <v>10150</v>
       </c>
-      <c r="H8" s="56" t="n">
+      <c r="H8" s="55" t="n">
         <v>9594</v>
       </c>
-      <c r="I8" s="56" t="n">
+      <c r="I8" s="55" t="n">
         <v>9700</v>
       </c>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
       <c r="N8" s="51" t="s">
         <v>20</v>
       </c>
@@ -5082,12 +5076,12 @@
       <c r="P8" s="53"/>
       <c r="Q8" s="53"/>
       <c r="R8" s="53"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="56"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="55"/>
       <c r="Z8" s="51" t="s">
         <v>21</v>
       </c>
@@ -5103,18 +5097,18 @@
       <c r="AD8" s="53" t="n">
         <v>50028.989999999998</v>
       </c>
-      <c r="AE8" s="56" t="n">
+      <c r="AE8" s="55" t="n">
         <v>49348.6699999999983</v>
       </c>
-      <c r="AF8" s="56" t="n">
+      <c r="AF8" s="55" t="n">
         <v>48783.6200000000026</v>
       </c>
-      <c r="AG8" s="56" t="n">
+      <c r="AG8" s="55" t="n">
         <v>49348.6699999999983</v>
       </c>
-      <c r="AH8" s="56"/>
-      <c r="AI8" s="56"/>
-      <c r="AJ8" s="56"/>
+      <c r="AH8" s="55"/>
+      <c r="AI8" s="55"/>
+      <c r="AJ8" s="55"/>
     </row>
     <row r="9" spans="2:36">
       <c r="B9" s="50" t="s">
@@ -5132,18 +5126,18 @@
       <c r="F9" s="52" t="n">
         <v>581</v>
       </c>
-      <c r="G9" s="56" t="n">
+      <c r="G9" s="55" t="n">
         <v>581</v>
       </c>
-      <c r="H9" s="56" t="n">
+      <c r="H9" s="55" t="n">
         <v>581</v>
       </c>
-      <c r="I9" s="56" t="n">
+      <c r="I9" s="55" t="n">
         <v>581</v>
       </c>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
       <c r="N9" s="51" t="s">
         <v>23</v>
       </c>
@@ -5153,12 +5147,12 @@
       <c r="P9" s="53"/>
       <c r="Q9" s="53"/>
       <c r="R9" s="53"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
       <c r="Z9" s="51" t="s">
         <v>24</v>
       </c>
@@ -5174,18 +5168,18 @@
       <c r="AD9" s="53" t="n">
         <v>26331.4700000000012</v>
       </c>
-      <c r="AE9" s="56" t="n">
+      <c r="AE9" s="55" t="n">
         <v>28353.7000000000007</v>
       </c>
-      <c r="AF9" s="56" t="n">
+      <c r="AF9" s="55" t="n">
         <v>28200.2299999999996</v>
       </c>
-      <c r="AG9" s="56" t="n">
+      <c r="AG9" s="55" t="n">
         <v>28343.3400000000001</v>
       </c>
-      <c r="AH9" s="56"/>
-      <c r="AI9" s="56"/>
-      <c r="AJ9" s="56"/>
+      <c r="AH9" s="55"/>
+      <c r="AI9" s="55"/>
+      <c r="AJ9" s="55"/>
     </row>
     <row r="10" spans="2:36">
       <c r="B10" s="50" t="s">
@@ -5203,18 +5197,18 @@
       <c r="F10" s="52" t="n">
         <v>816</v>
       </c>
-      <c r="G10" s="56" t="n">
+      <c r="G10" s="55" t="n">
         <v>818</v>
       </c>
-      <c r="H10" s="56" t="n">
+      <c r="H10" s="55" t="n">
         <v>818</v>
       </c>
-      <c r="I10" s="56" t="n">
+      <c r="I10" s="55" t="n">
         <v>818</v>
       </c>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
       <c r="N10" s="51" t="s">
         <v>26</v>
       </c>
@@ -5224,12 +5218,12 @@
       <c r="P10" s="53"/>
       <c r="Q10" s="53"/>
       <c r="R10" s="53"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
       <c r="Z10" s="51" t="s">
         <v>27</v>
       </c>
@@ -5245,18 +5239,18 @@
       <c r="AD10" s="53" t="n">
         <v>32794.5299999999988</v>
       </c>
-      <c r="AE10" s="56" t="n">
+      <c r="AE10" s="55" t="n">
         <v>34036.7300000000032</v>
       </c>
-      <c r="AF10" s="56" t="n">
+      <c r="AF10" s="55" t="n">
         <v>33537.8899999999994</v>
       </c>
-      <c r="AG10" s="56" t="n">
+      <c r="AG10" s="55" t="n">
         <v>34036.7300000000032</v>
       </c>
-      <c r="AH10" s="56"/>
-      <c r="AI10" s="56"/>
-      <c r="AJ10" s="56"/>
+      <c r="AH10" s="55"/>
+      <c r="AI10" s="55"/>
+      <c r="AJ10" s="55"/>
     </row>
     <row r="11" spans="2:36">
       <c r="B11" s="50" t="s">
@@ -5274,18 +5268,18 @@
       <c r="F11" s="52" t="n">
         <v>1766.5</v>
       </c>
-      <c r="G11" s="56" t="n">
+      <c r="G11" s="55" t="n">
         <v>1813.95000000000005</v>
       </c>
-      <c r="H11" s="56" t="n">
+      <c r="H11" s="55" t="n">
         <v>1766.5</v>
       </c>
-      <c r="I11" s="56" t="n">
+      <c r="I11" s="55" t="n">
         <v>1813.95000000000005</v>
       </c>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
       <c r="N11" s="51" t="s">
         <v>29</v>
       </c>
@@ -5295,12 +5289,12 @@
       <c r="P11" s="53"/>
       <c r="Q11" s="53"/>
       <c r="R11" s="53"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="55"/>
       <c r="Z11" s="51" t="s">
         <v>30</v>
       </c>
@@ -5316,18 +5310,18 @@
       <c r="AD11" s="53" t="n">
         <v>47039.2900000000009</v>
       </c>
-      <c r="AE11" s="56" t="n">
+      <c r="AE11" s="55" t="n">
         <v>53134.3300000000017</v>
       </c>
-      <c r="AF11" s="56" t="n">
+      <c r="AF11" s="55" t="n">
         <v>50123.4400000000023</v>
       </c>
-      <c r="AG11" s="56" t="n">
+      <c r="AG11" s="55" t="n">
         <v>52534.3300000000017</v>
       </c>
-      <c r="AH11" s="56"/>
-      <c r="AI11" s="56"/>
-      <c r="AJ11" s="56"/>
+      <c r="AH11" s="55"/>
+      <c r="AI11" s="55"/>
+      <c r="AJ11" s="55"/>
     </row>
     <row r="12" spans="2:36">
       <c r="B12" s="50" t="s">
@@ -5345,18 +5339,18 @@
       <c r="F12" s="52" t="n">
         <v>27862.6399999999994</v>
       </c>
-      <c r="G12" s="56" t="n">
+      <c r="G12" s="55" t="n">
         <v>29206.9399999999987</v>
       </c>
-      <c r="H12" s="56" t="n">
+      <c r="H12" s="55" t="n">
         <v>27949.2999999999993</v>
       </c>
-      <c r="I12" s="56" t="n">
+      <c r="I12" s="55" t="n">
         <v>29059.75</v>
       </c>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
       <c r="N12" s="51" t="s">
         <v>32</v>
       </c>
@@ -5366,12 +5360,12 @@
       <c r="P12" s="53"/>
       <c r="Q12" s="53"/>
       <c r="R12" s="53"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="55"/>
       <c r="Z12" s="51" t="s">
         <v>33</v>
       </c>
@@ -5387,18 +5381,18 @@
       <c r="AD12" s="53" t="n">
         <v>22363.5</v>
       </c>
-      <c r="AE12" s="56" t="n">
+      <c r="AE12" s="55" t="n">
         <v>21636.7400000000016</v>
       </c>
-      <c r="AF12" s="56" t="n">
+      <c r="AF12" s="55" t="n">
         <v>21554.2900000000009</v>
       </c>
-      <c r="AG12" s="56" t="n">
+      <c r="AG12" s="55" t="n">
         <v>21514.7599999999984</v>
       </c>
-      <c r="AH12" s="56"/>
-      <c r="AI12" s="56"/>
-      <c r="AJ12" s="56"/>
+      <c r="AH12" s="55"/>
+      <c r="AI12" s="55"/>
+      <c r="AJ12" s="55"/>
     </row>
     <row r="13" spans="2:36">
       <c r="B13" s="50" t="s">
@@ -5416,18 +5410,18 @@
       <c r="F13" s="52" t="n">
         <v>10262</v>
       </c>
-      <c r="G13" s="56" t="n">
+      <c r="G13" s="55" t="n">
         <v>9812</v>
       </c>
-      <c r="H13" s="56" t="n">
+      <c r="H13" s="55" t="n">
         <v>9828</v>
       </c>
-      <c r="I13" s="56" t="n">
+      <c r="I13" s="55" t="n">
         <v>9455</v>
       </c>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
       <c r="N13" s="51" t="s">
         <v>35</v>
       </c>
@@ -5443,18 +5437,18 @@
       <c r="R13" s="53" t="n">
         <v>6284</v>
       </c>
-      <c r="S13" s="56" t="n">
+      <c r="S13" s="55" t="n">
         <v>5381</v>
       </c>
-      <c r="T13" s="56" t="n">
+      <c r="T13" s="55" t="n">
         <v>5216</v>
       </c>
-      <c r="U13" s="56" t="n">
+      <c r="U13" s="55" t="n">
         <v>5381</v>
       </c>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="55"/>
       <c r="Z13" s="51" t="s">
         <v>36</v>
       </c>
@@ -5470,18 +5464,18 @@
       <c r="AD13" s="53" t="n">
         <v>24829.0999999999985</v>
       </c>
-      <c r="AE13" s="56" t="n">
+      <c r="AE13" s="55" t="n">
         <v>25418.4700000000012</v>
       </c>
-      <c r="AF13" s="56" t="n">
+      <c r="AF13" s="55" t="n">
         <v>24152.3100000000013</v>
       </c>
-      <c r="AG13" s="56" t="n">
+      <c r="AG13" s="55" t="n">
         <v>24326.7099999999991</v>
       </c>
-      <c r="AH13" s="56"/>
-      <c r="AI13" s="56"/>
-      <c r="AJ13" s="56"/>
+      <c r="AH13" s="55"/>
+      <c r="AI13" s="55"/>
+      <c r="AJ13" s="55"/>
     </row>
     <row r="14" spans="2:36">
       <c r="B14" s="50" t="s">
@@ -5499,18 +5493,18 @@
       <c r="F14" s="52" t="n">
         <v>4770</v>
       </c>
-      <c r="G14" s="56" t="n">
+      <c r="G14" s="55" t="n">
         <v>980</v>
       </c>
-      <c r="H14" s="56" t="n">
+      <c r="H14" s="55" t="n">
         <v>980</v>
       </c>
-      <c r="I14" s="56" t="n">
+      <c r="I14" s="55" t="n">
         <v>980</v>
       </c>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
       <c r="N14" s="51" t="s">
         <v>38</v>
       </c>
@@ -5521,23 +5515,23 @@
         <v>11430.2199999999993</v>
       </c>
       <c r="Q14" s="53" t="n">
-        <v>10638.4099999999999</v>
+        <v>10638.4100000000017</v>
       </c>
       <c r="R14" s="53" t="n">
         <v>10809.4699999999993</v>
       </c>
-      <c r="S14" s="56" t="n">
+      <c r="S14" s="55" t="n">
         <v>10171.1700000000001</v>
       </c>
-      <c r="T14" s="56" t="n">
+      <c r="T14" s="55" t="n">
         <v>10171.1700000000001</v>
       </c>
-      <c r="U14" s="56" t="n">
+      <c r="U14" s="55" t="n">
         <v>9744.28000000000065</v>
       </c>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="55"/>
       <c r="Z14" s="51" t="s">
         <v>39</v>
       </c>
@@ -5553,18 +5547,18 @@
       <c r="AD14" s="53" t="n">
         <v>39951.510000000002</v>
       </c>
-      <c r="AE14" s="56" t="n">
+      <c r="AE14" s="55" t="n">
         <v>43380.2099999999991</v>
       </c>
-      <c r="AF14" s="56" t="n">
+      <c r="AF14" s="55" t="n">
         <v>40835.739999999998</v>
       </c>
-      <c r="AG14" s="56" t="n">
+      <c r="AG14" s="55" t="n">
         <v>42428.8499999999985</v>
       </c>
-      <c r="AH14" s="56"/>
-      <c r="AI14" s="56"/>
-      <c r="AJ14" s="56"/>
+      <c r="AH14" s="55"/>
+      <c r="AI14" s="55"/>
+      <c r="AJ14" s="55"/>
     </row>
     <row r="15" spans="2:36">
       <c r="B15" s="50" t="s">
@@ -5582,18 +5576,18 @@
       <c r="F15" s="52" t="n">
         <v>1454.83999999999992</v>
       </c>
-      <c r="G15" s="56" t="n">
+      <c r="G15" s="55" t="n">
         <v>1339.11999999999989</v>
       </c>
-      <c r="H15" s="56" t="n">
+      <c r="H15" s="55" t="n">
         <v>1339.11999999999989</v>
       </c>
-      <c r="I15" s="56" t="n">
+      <c r="I15" s="55" t="n">
         <v>1339.11999999999989</v>
       </c>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
       <c r="N15" s="51" t="s">
         <v>41</v>
       </c>
@@ -5609,18 +5603,18 @@
       <c r="R15" s="53" t="n">
         <v>14026.1800000000003</v>
       </c>
-      <c r="S15" s="56" t="n">
+      <c r="S15" s="55" t="n">
         <v>15194.75</v>
       </c>
-      <c r="T15" s="56" t="n">
+      <c r="T15" s="55" t="n">
         <v>14693.2999999999993</v>
       </c>
-      <c r="U15" s="56" t="n">
-        <v>14150.0799999999999</v>
-      </c>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
+      <c r="U15" s="55" t="n">
+        <v>14150.0800000000017</v>
+      </c>
+      <c r="V15" s="55"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="55"/>
       <c r="Z15" s="51" t="s">
         <v>42</v>
       </c>
@@ -5636,12 +5630,12 @@
       <c r="AD15" s="53" t="n">
         <v>128728.119999999995</v>
       </c>
-      <c r="AE15" s="56"/>
-      <c r="AF15" s="56"/>
-      <c r="AG15" s="56"/>
-      <c r="AH15" s="56"/>
-      <c r="AI15" s="56"/>
-      <c r="AJ15" s="56"/>
+      <c r="AE15" s="55"/>
+      <c r="AF15" s="55"/>
+      <c r="AG15" s="55"/>
+      <c r="AH15" s="55"/>
+      <c r="AI15" s="55"/>
+      <c r="AJ15" s="55"/>
     </row>
     <row r="16" spans="2:36">
       <c r="B16" s="50" t="s">
@@ -5659,18 +5653,18 @@
       <c r="F16" s="52" t="n">
         <v>2710.19000000000005</v>
       </c>
-      <c r="G16" s="56" t="n">
+      <c r="G16" s="55" t="n">
         <v>2726.80000000000018</v>
       </c>
-      <c r="H16" s="56" t="n">
+      <c r="H16" s="55" t="n">
         <v>2601.23000000000002</v>
       </c>
-      <c r="I16" s="56" t="n">
+      <c r="I16" s="55" t="n">
         <v>2726.80000000000018</v>
       </c>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
       <c r="N16" s="51" t="s">
         <v>44</v>
       </c>
@@ -5686,18 +5680,18 @@
       <c r="R16" s="53" t="n">
         <v>13485.4500000000007</v>
       </c>
-      <c r="S16" s="56" t="n">
+      <c r="S16" s="55" t="n">
         <v>15518.8099999999995</v>
       </c>
-      <c r="T16" s="56" t="n">
+      <c r="T16" s="55" t="n">
         <v>15174.2399999999998</v>
       </c>
-      <c r="U16" s="56" t="n">
+      <c r="U16" s="55" t="n">
         <v>15446.0200000000004</v>
       </c>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="55"/>
       <c r="Z16" s="51" t="s">
         <v>45</v>
       </c>
@@ -5713,18 +5707,18 @@
       <c r="AD16" s="53" t="n">
         <v>571.600000000000023</v>
       </c>
-      <c r="AE16" s="56" t="n">
+      <c r="AE16" s="55" t="n">
         <v>644.080000000000041</v>
       </c>
-      <c r="AF16" s="56" t="n">
+      <c r="AF16" s="55" t="n">
         <v>596.919999999999959</v>
       </c>
-      <c r="AG16" s="56" t="n">
-        <v>599.440000000000055</v>
-      </c>
-      <c r="AH16" s="56"/>
-      <c r="AI16" s="56"/>
-      <c r="AJ16" s="56"/>
+      <c r="AG16" s="55" t="n">
+        <v>599.440000000000168</v>
+      </c>
+      <c r="AH16" s="55"/>
+      <c r="AI16" s="55"/>
+      <c r="AJ16" s="55"/>
     </row>
     <row r="17" spans="2:36">
       <c r="B17" s="50" t="s">
@@ -5742,18 +5736,18 @@
       <c r="F17" s="52" t="n">
         <v>3087.17999999999984</v>
       </c>
-      <c r="G17" s="56" t="n">
+      <c r="G17" s="55" t="n">
         <v>3564.32000000000016</v>
       </c>
-      <c r="H17" s="56" t="n">
+      <c r="H17" s="55" t="n">
         <v>3395.88000000000011</v>
       </c>
-      <c r="I17" s="56" t="n">
+      <c r="I17" s="55" t="n">
         <v>3345.19999999999982</v>
       </c>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
       <c r="N17" s="51" t="s">
         <v>47</v>
       </c>
@@ -5769,18 +5763,18 @@
       <c r="R17" s="53" t="n">
         <v>11184.6000000000004</v>
       </c>
-      <c r="S17" s="56" t="n">
+      <c r="S17" s="55" t="n">
         <v>11529.8099999999995</v>
       </c>
-      <c r="T17" s="56" t="n">
+      <c r="T17" s="55" t="n">
         <v>11211.7999999999993</v>
       </c>
-      <c r="U17" s="56" t="n">
+      <c r="U17" s="55" t="n">
         <v>11037.6000000000004</v>
       </c>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="55"/>
       <c r="Z17" s="51" t="s">
         <v>48</v>
       </c>
@@ -5796,18 +5790,18 @@
       <c r="AD17" s="53" t="n">
         <v>1125.23000000000002</v>
       </c>
-      <c r="AE17" s="56" t="n">
+      <c r="AE17" s="55" t="n">
         <v>1253.26999999999998</v>
       </c>
-      <c r="AF17" s="56" t="n">
+      <c r="AF17" s="55" t="n">
         <v>1215.80999999999995</v>
       </c>
-      <c r="AG17" s="56" t="n">
+      <c r="AG17" s="55" t="n">
         <v>1253.26999999999998</v>
       </c>
-      <c r="AH17" s="56"/>
-      <c r="AI17" s="56"/>
-      <c r="AJ17" s="56"/>
+      <c r="AH17" s="55"/>
+      <c r="AI17" s="55"/>
+      <c r="AJ17" s="55"/>
     </row>
     <row r="18" spans="2:36">
       <c r="B18" s="50" t="s">
@@ -5825,18 +5819,18 @@
       <c r="F18" s="52" t="n">
         <v>239</v>
       </c>
-      <c r="G18" s="56" t="n">
+      <c r="G18" s="55" t="n">
         <v>248</v>
       </c>
-      <c r="H18" s="56" t="n">
+      <c r="H18" s="55" t="n">
         <v>248</v>
       </c>
-      <c r="I18" s="56" t="n">
+      <c r="I18" s="55" t="n">
         <v>248</v>
       </c>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
       <c r="N18" s="51" t="s">
         <v>50</v>
       </c>
@@ -5852,18 +5846,18 @@
       <c r="R18" s="53" t="n">
         <v>12016.9300000000003</v>
       </c>
-      <c r="S18" s="56" t="n">
+      <c r="S18" s="55" t="n">
         <v>13325.3899999999994</v>
       </c>
-      <c r="T18" s="56" t="n">
+      <c r="T18" s="55" t="n">
         <v>13161.8799999999992</v>
       </c>
-      <c r="U18" s="56" t="n">
+      <c r="U18" s="55" t="n">
         <v>12931.0400000000009</v>
       </c>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="55"/>
       <c r="Z18" s="51" t="s">
         <v>51</v>
       </c>
@@ -5879,18 +5873,18 @@
       <c r="AD18" s="53" t="n">
         <v>3354.21000000000004</v>
       </c>
-      <c r="AE18" s="56" t="n">
+      <c r="AE18" s="55" t="n">
         <v>3630.7800000000002</v>
       </c>
-      <c r="AF18" s="56" t="n">
+      <c r="AF18" s="55" t="n">
         <v>3490.69000000000005</v>
       </c>
-      <c r="AG18" s="56" t="n">
+      <c r="AG18" s="55" t="n">
         <v>3569.88000000000011</v>
       </c>
-      <c r="AH18" s="56"/>
-      <c r="AI18" s="56"/>
-      <c r="AJ18" s="56"/>
+      <c r="AH18" s="55"/>
+      <c r="AI18" s="55"/>
+      <c r="AJ18" s="55"/>
     </row>
     <row r="19" spans="2:36">
       <c r="B19" s="50" t="s">
@@ -5908,18 +5902,18 @@
       <c r="F19" s="52" t="n">
         <v>181.409999999999997</v>
       </c>
-      <c r="G19" s="56" t="n">
+      <c r="G19" s="55" t="n">
         <v>190.340000000000003</v>
       </c>
-      <c r="H19" s="56" t="n">
+      <c r="H19" s="55" t="n">
         <v>190.340000000000003</v>
       </c>
-      <c r="I19" s="56" t="n">
+      <c r="I19" s="55" t="n">
         <v>190.340000000000003</v>
       </c>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
       <c r="N19" s="51" t="s">
         <v>53</v>
       </c>
@@ -5935,18 +5929,18 @@
       <c r="R19" s="53" t="n">
         <v>15963.6599999999999</v>
       </c>
-      <c r="S19" s="56" t="n">
+      <c r="S19" s="55" t="n">
         <v>17045.0499999999993</v>
       </c>
-      <c r="T19" s="56" t="n">
+      <c r="T19" s="55" t="n">
         <v>15944.4799999999996</v>
       </c>
-      <c r="U19" s="56" t="n">
+      <c r="U19" s="55" t="n">
         <v>16340.7299999999996</v>
       </c>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="55"/>
       <c r="Z19" s="51" t="s">
         <v>55</v>
       </c>
@@ -5962,12 +5956,12 @@
       <c r="AD19" s="53" t="n">
         <v>4472.01000000000022</v>
       </c>
-      <c r="AE19" s="56"/>
-      <c r="AF19" s="56"/>
-      <c r="AG19" s="56"/>
-      <c r="AH19" s="56"/>
-      <c r="AI19" s="56"/>
-      <c r="AJ19" s="56"/>
+      <c r="AE19" s="55"/>
+      <c r="AF19" s="55"/>
+      <c r="AG19" s="55"/>
+      <c r="AH19" s="55"/>
+      <c r="AI19" s="55"/>
+      <c r="AJ19" s="55"/>
     </row>
     <row r="20" spans="2:36">
       <c r="B20" s="50" t="s">
@@ -5985,18 +5979,18 @@
       <c r="F20" s="52" t="n">
         <v>229.639999999999986</v>
       </c>
-      <c r="G20" s="56" t="n">
+      <c r="G20" s="55" t="n">
         <v>240.5</v>
       </c>
-      <c r="H20" s="56" t="n">
+      <c r="H20" s="55" t="n">
         <v>238.319999999999993</v>
       </c>
-      <c r="I20" s="56" t="n">
+      <c r="I20" s="55" t="n">
         <v>240.5</v>
       </c>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
       <c r="N20" s="51" t="s">
         <v>57</v>
       </c>
@@ -6012,18 +6006,18 @@
       <c r="R20" s="53" t="n">
         <v>9555.72999999999956</v>
       </c>
-      <c r="S20" s="56" t="n">
-        <v>11703.5799999999999</v>
-      </c>
-      <c r="T20" s="56" t="n">
-        <v>11550.1599999999999</v>
-      </c>
-      <c r="U20" s="56" t="n">
+      <c r="S20" s="55" t="n">
+        <v>11703.5800000000017</v>
+      </c>
+      <c r="T20" s="55" t="n">
+        <v>11550.1600000000017</v>
+      </c>
+      <c r="U20" s="55" t="n">
         <v>11626.2099999999991</v>
       </c>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="55"/>
       <c r="Z20" s="51" t="s">
         <v>58</v>
       </c>
@@ -6039,18 +6033,18 @@
       <c r="AD20" s="53" t="n">
         <v>10498</v>
       </c>
-      <c r="AE20" s="56" t="n">
+      <c r="AE20" s="55" t="n">
         <v>10638</v>
       </c>
-      <c r="AF20" s="56" t="n">
+      <c r="AF20" s="55" t="n">
         <v>10486</v>
       </c>
-      <c r="AG20" s="56" t="n">
+      <c r="AG20" s="55" t="n">
         <v>10488</v>
       </c>
-      <c r="AH20" s="56"/>
-      <c r="AI20" s="56"/>
-      <c r="AJ20" s="56"/>
+      <c r="AH20" s="55"/>
+      <c r="AI20" s="55"/>
+      <c r="AJ20" s="55"/>
     </row>
     <row r="21" spans="2:36">
       <c r="B21" s="50" t="s">
@@ -6068,18 +6062,18 @@
       <c r="F21" s="52" t="n">
         <v>314.430000000000007</v>
       </c>
-      <c r="G21" s="56" t="n">
+      <c r="G21" s="55" t="n">
         <v>266.889999999999986</v>
       </c>
-      <c r="H21" s="56" t="n">
+      <c r="H21" s="55" t="n">
         <v>265.75</v>
       </c>
-      <c r="I21" s="56" t="n">
+      <c r="I21" s="55" t="n">
         <v>266.889999999999986</v>
       </c>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
       <c r="N21" s="51" t="s">
         <v>60</v>
       </c>
@@ -6095,18 +6089,18 @@
       <c r="R21" s="53" t="n">
         <v>10205.0699999999997</v>
       </c>
-      <c r="S21" s="56" t="n">
+      <c r="S21" s="55" t="n">
         <v>11197.7299999999996</v>
       </c>
-      <c r="T21" s="56" t="n">
+      <c r="T21" s="55" t="n">
         <v>11197.7299999999996</v>
       </c>
-      <c r="U21" s="56" t="n">
+      <c r="U21" s="55" t="n">
         <v>11210.2600000000002</v>
       </c>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
       <c r="Z21" s="51" t="s">
         <v>61</v>
       </c>
@@ -6122,18 +6116,18 @@
       <c r="AD21" s="53" t="n">
         <v>23164</v>
       </c>
-      <c r="AE21" s="56" t="n">
+      <c r="AE21" s="55" t="n">
         <v>23512</v>
       </c>
-      <c r="AF21" s="56" t="n">
+      <c r="AF21" s="55" t="n">
         <v>23516</v>
       </c>
-      <c r="AG21" s="56" t="n">
+      <c r="AG21" s="55" t="n">
         <v>23179</v>
       </c>
-      <c r="AH21" s="56"/>
-      <c r="AI21" s="56"/>
-      <c r="AJ21" s="56"/>
+      <c r="AH21" s="55"/>
+      <c r="AI21" s="55"/>
+      <c r="AJ21" s="55"/>
     </row>
     <row r="22" spans="2:36">
       <c r="B22" s="50" t="s">
@@ -6151,18 +6145,18 @@
       <c r="F22" s="52" t="n">
         <v>334</v>
       </c>
-      <c r="G22" s="56" t="n">
+      <c r="G22" s="55" t="n">
         <v>391</v>
       </c>
-      <c r="H22" s="56" t="n">
+      <c r="H22" s="55" t="n">
         <v>391</v>
       </c>
-      <c r="I22" s="56" t="n">
+      <c r="I22" s="55" t="n">
         <v>391</v>
       </c>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
       <c r="N22" s="51" t="s">
         <v>63</v>
       </c>
@@ -6178,18 +6172,18 @@
       <c r="R22" s="53" t="n">
         <v>9424.10000000000036</v>
       </c>
-      <c r="S22" s="56" t="n">
-        <v>10160.4099999999999</v>
-      </c>
-      <c r="T22" s="56" t="n">
+      <c r="S22" s="55" t="n">
+        <v>10160.4100000000017</v>
+      </c>
+      <c r="T22" s="55" t="n">
         <v>9777.09000000000015</v>
       </c>
-      <c r="U22" s="56" t="n">
+      <c r="U22" s="55" t="n">
         <v>9883.1299999999992</v>
       </c>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="55"/>
       <c r="Z22" s="51" t="s">
         <v>64</v>
       </c>
@@ -6205,12 +6199,12 @@
       <c r="AD22" s="53" t="n">
         <v>46591</v>
       </c>
-      <c r="AE22" s="56"/>
-      <c r="AF22" s="56"/>
-      <c r="AG22" s="56"/>
-      <c r="AH22" s="56"/>
-      <c r="AI22" s="56"/>
-      <c r="AJ22" s="56"/>
+      <c r="AE22" s="55"/>
+      <c r="AF22" s="55"/>
+      <c r="AG22" s="55"/>
+      <c r="AH22" s="55"/>
+      <c r="AI22" s="55"/>
+      <c r="AJ22" s="55"/>
     </row>
     <row r="23" spans="2:36">
       <c r="B23" s="50" t="s">
@@ -6228,18 +6222,18 @@
       <c r="F23" s="52" t="n">
         <v>1169.16000000000008</v>
       </c>
-      <c r="G23" s="56" t="n">
-        <v>1353.50999999999999</v>
-      </c>
-      <c r="H23" s="56" t="n">
+      <c r="G23" s="55" t="n">
+        <v>1353.51000000000022</v>
+      </c>
+      <c r="H23" s="55" t="n">
         <v>1315.95000000000005</v>
       </c>
-      <c r="I23" s="56" t="n">
+      <c r="I23" s="55" t="n">
         <v>1350.29999999999995</v>
       </c>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
       <c r="N23" s="51" t="s">
         <v>66</v>
       </c>
@@ -6255,18 +6249,18 @@
       <c r="R23" s="53" t="n">
         <v>5691.96000000000004</v>
       </c>
-      <c r="S23" s="56" t="n">
+      <c r="S23" s="55" t="n">
         <v>5290</v>
       </c>
-      <c r="T23" s="56" t="n">
+      <c r="T23" s="55" t="n">
         <v>5255.48999999999978</v>
       </c>
-      <c r="U23" s="56" t="n">
+      <c r="U23" s="55" t="n">
         <v>5255.48999999999978</v>
       </c>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
       <c r="Z23" s="50" t="s">
         <v>67</v>
       </c>
@@ -6282,18 +6276,18 @@
       <c r="AD23" s="53" t="n">
         <v>308.25</v>
       </c>
-      <c r="AE23" s="56" t="n">
+      <c r="AE23" s="55" t="n">
         <v>248.689999999999998</v>
       </c>
-      <c r="AF23" s="56" t="n">
+      <c r="AF23" s="55" t="n">
         <v>248.689999999999998</v>
       </c>
-      <c r="AG23" s="56" t="n">
+      <c r="AG23" s="55" t="n">
         <v>248.689999999999998</v>
       </c>
-      <c r="AH23" s="56"/>
-      <c r="AI23" s="56"/>
-      <c r="AJ23" s="56"/>
+      <c r="AH23" s="55"/>
+      <c r="AI23" s="55"/>
+      <c r="AJ23" s="55"/>
     </row>
     <row r="24" spans="2:36">
       <c r="B24" s="50" t="s">
@@ -6311,18 +6305,18 @@
       <c r="F24" s="52" t="n">
         <v>359</v>
       </c>
-      <c r="G24" s="56" t="n">
+      <c r="G24" s="55" t="n">
         <v>426</v>
       </c>
-      <c r="H24" s="56" t="n">
+      <c r="H24" s="55" t="n">
         <v>426</v>
       </c>
-      <c r="I24" s="56" t="n">
+      <c r="I24" s="55" t="n">
         <v>426</v>
       </c>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
       <c r="N24" s="51" t="s">
         <v>69</v>
       </c>
@@ -6338,18 +6332,18 @@
       <c r="R24" s="53" t="n">
         <v>20813.25</v>
       </c>
-      <c r="S24" s="56" t="n">
+      <c r="S24" s="55" t="n">
         <v>20659.25</v>
       </c>
-      <c r="T24" s="56" t="n">
+      <c r="T24" s="55" t="n">
         <v>19870.1599999999999</v>
       </c>
-      <c r="U24" s="56" t="n">
+      <c r="U24" s="55" t="n">
         <v>20147.5999999999985</v>
       </c>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
       <c r="Z24" s="51" t="s">
         <v>70</v>
       </c>
@@ -6365,18 +6359,18 @@
       <c r="AD24" s="53" t="n">
         <v>425</v>
       </c>
-      <c r="AE24" s="56" t="n">
+      <c r="AE24" s="55" t="n">
         <v>448</v>
       </c>
-      <c r="AF24" s="56" t="n">
+      <c r="AF24" s="55" t="n">
         <v>448</v>
       </c>
-      <c r="AG24" s="56" t="n">
+      <c r="AG24" s="55" t="n">
         <v>425</v>
       </c>
-      <c r="AH24" s="56"/>
-      <c r="AI24" s="56"/>
-      <c r="AJ24" s="56"/>
+      <c r="AH24" s="55"/>
+      <c r="AI24" s="55"/>
+      <c r="AJ24" s="55"/>
     </row>
     <row r="25" spans="2:36">
       <c r="B25" s="50" t="s">
@@ -6394,18 +6388,18 @@
       <c r="F25" s="52" t="n">
         <v>989</v>
       </c>
-      <c r="G25" s="56" t="n">
+      <c r="G25" s="55" t="n">
         <v>683</v>
       </c>
-      <c r="H25" s="56" t="n">
+      <c r="H25" s="55" t="n">
         <v>683</v>
       </c>
-      <c r="I25" s="56" t="n">
+      <c r="I25" s="55" t="n">
         <v>683</v>
       </c>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
       <c r="N25" s="51" t="s">
         <v>72</v>
       </c>
@@ -6421,12 +6415,12 @@
       <c r="R25" s="53" t="n">
         <v>28110.7299999999996</v>
       </c>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="56"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="56"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
       <c r="Z25" s="51" t="s">
         <v>73</v>
       </c>
@@ -6442,18 +6436,18 @@
       <c r="AD25" s="53" t="n">
         <v>55500</v>
       </c>
-      <c r="AE25" s="56" t="n">
+      <c r="AE25" s="55" t="n">
         <v>73643.8600000000006</v>
       </c>
-      <c r="AF25" s="56" t="n">
+      <c r="AF25" s="55" t="n">
         <v>69439.8000000000029</v>
       </c>
-      <c r="AG25" s="56" t="n">
+      <c r="AG25" s="55" t="n">
         <v>69730.6699999999983</v>
       </c>
-      <c r="AH25" s="56"/>
-      <c r="AI25" s="56"/>
-      <c r="AJ25" s="56"/>
+      <c r="AH25" s="55"/>
+      <c r="AI25" s="55"/>
+      <c r="AJ25" s="55"/>
     </row>
     <row r="26" spans="2:36">
       <c r="B26" s="50" t="s">
@@ -6471,18 +6465,18 @@
       <c r="F26" s="52" t="n">
         <v>490</v>
       </c>
-      <c r="G26" s="56" t="n">
+      <c r="G26" s="55" t="n">
         <v>413</v>
       </c>
-      <c r="H26" s="56" t="n">
+      <c r="H26" s="55" t="n">
         <v>413</v>
       </c>
-      <c r="I26" s="56" t="n">
+      <c r="I26" s="55" t="n">
         <v>413</v>
       </c>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
       <c r="N26" s="51" t="s">
         <v>75</v>
       </c>
@@ -6498,18 +6492,18 @@
       <c r="R26" s="53" t="n">
         <v>1336</v>
       </c>
-      <c r="S26" s="56" t="n">
+      <c r="S26" s="55" t="n">
         <v>1219</v>
       </c>
-      <c r="T26" s="56" t="n">
+      <c r="T26" s="55" t="n">
         <v>1192</v>
       </c>
-      <c r="U26" s="56" t="n">
+      <c r="U26" s="55" t="n">
         <v>1161</v>
       </c>
-      <c r="V26" s="56"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
+      <c r="V26" s="55"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="55"/>
       <c r="Z26" s="51" t="s">
         <v>76</v>
       </c>
@@ -6525,18 +6519,18 @@
       <c r="AD26" s="53" t="n">
         <v>1836.1400000000001</v>
       </c>
-      <c r="AE26" s="56" t="n">
+      <c r="AE26" s="55" t="n">
         <v>2121.32999999999993</v>
       </c>
-      <c r="AF26" s="56" t="n">
+      <c r="AF26" s="55" t="n">
         <v>2049.57000000000016</v>
       </c>
-      <c r="AG26" s="56" t="s">
+      <c r="AG26" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="AH26" s="56"/>
-      <c r="AI26" s="56"/>
-      <c r="AJ26" s="56"/>
+      <c r="AH26" s="55"/>
+      <c r="AI26" s="55"/>
+      <c r="AJ26" s="55"/>
     </row>
     <row r="27" spans="26:36">
       <c r="Z27" s="50" t="s">
@@ -6554,18 +6548,18 @@
       <c r="AD27" s="52" t="n">
         <v>1981.71000000000004</v>
       </c>
-      <c r="AE27" s="56" t="n">
+      <c r="AE27" s="55" t="n">
         <v>1981.15000000000009</v>
       </c>
-      <c r="AF27" s="56" t="n">
+      <c r="AF27" s="55" t="n">
         <v>1981.15000000000009</v>
       </c>
-      <c r="AG27" s="56" t="s">
+      <c r="AG27" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="AH27" s="56"/>
-      <c r="AI27" s="56"/>
-      <c r="AJ27" s="56"/>
+      <c r="AH27" s="55"/>
+      <c r="AI27" s="55"/>
+      <c r="AJ27" s="55"/>
     </row>
     <row r="28" spans="26:36">
       <c r="Z28" s="50" t="s">
@@ -6583,18 +6577,18 @@
       <c r="AD28" s="52" t="n">
         <v>2062.92000000000007</v>
       </c>
-      <c r="AE28" s="56" t="n">
+      <c r="AE28" s="55" t="n">
         <v>2062.34999999999991</v>
       </c>
-      <c r="AF28" s="56" t="n">
+      <c r="AF28" s="55" t="n">
         <v>2062.34999999999991</v>
       </c>
-      <c r="AG28" s="56" t="s">
+      <c r="AG28" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="AH28" s="56"/>
-      <c r="AI28" s="56"/>
-      <c r="AJ28" s="56"/>
+      <c r="AH28" s="55"/>
+      <c r="AI28" s="55"/>
+      <c r="AJ28" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6614,7 +6608,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1643157189" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1643199832" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6623,16 +6617,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1643157189" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1643157189" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1643157189" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1643157189" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1643199832" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1643199832" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1643199832" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1643199832" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1643157189" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1643199832" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6643,31 +6637,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD28"/>
+  <dimension ref="B2:AJ28"/>
   <sheetViews>
-    <sheetView view="normal" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="Z6" workbookViewId="0">
+      <selection activeCell="AG29" sqref="AG29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.20"/>
   <cols>
-    <col min="1" max="2" width="9.138614" style="54"/>
+    <col min="1" max="2" width="9.138614" customWidth="1" style="54"/>
     <col min="3" max="3" width="19.138614" customWidth="1" style="54"/>
     <col min="4" max="4" width="9.752475" customWidth="1" style="54"/>
     <col min="5" max="5" width="10.574257" customWidth="1" style="54"/>
     <col min="6" max="6" width="9.752475" customWidth="1" style="54"/>
     <col min="7" max="7" width="9.574257" customWidth="1" style="54"/>
-    <col min="8" max="14" width="9.138614" style="54"/>
+    <col min="8" max="14" width="9.138614" customWidth="1" style="54"/>
     <col min="15" max="15" width="19.138614" customWidth="1" style="54"/>
     <col min="16" max="16" width="9.752475" customWidth="1" style="54"/>
     <col min="17" max="17" width="10.574257" customWidth="1" style="54"/>
     <col min="18" max="18" width="9.752475" customWidth="1" style="54"/>
     <col min="19" max="20" width="9.574257" customWidth="1" style="54"/>
-    <col min="21" max="26" width="9.138614" style="54"/>
+    <col min="21" max="26" width="9.138614" customWidth="1" style="54"/>
     <col min="27" max="27" width="19.138614" customWidth="1" style="54"/>
     <col min="28" max="30" width="10.861386" customWidth="1" style="54"/>
     <col min="31" max="32" width="10.574257" customWidth="1" style="54"/>
-    <col min="33" max="16384" width="9.138614" style="54"/>
+    <col min="33" max="16384" width="9.138614" customWidth="1" style="54"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:36">
@@ -6771,31 +6765,31 @@
       <c r="C4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="55" t="s">
+      <c r="I4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="55" t="s">
+      <c r="J4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="55" t="s">
+      <c r="K4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="55" t="s">
+      <c r="L4" s="49" t="s">
         <v>9</v>
       </c>
       <c r="N4" s="51" t="s">
@@ -6804,31 +6798,31 @@
       <c r="O4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="55" t="s">
+      <c r="P4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="55" t="s">
+      <c r="Q4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="55" t="s">
+      <c r="R4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="55" t="s">
+      <c r="S4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="55" t="s">
+      <c r="T4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="U4" s="55" t="s">
+      <c r="U4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="V4" s="55" t="s">
+      <c r="V4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="W4" s="55" t="s">
+      <c r="W4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="55" t="s">
+      <c r="X4" s="49" t="s">
         <v>9</v>
       </c>
       <c r="Z4" s="50" t="s">
@@ -6837,31 +6831,31 @@
       <c r="AA4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AB4" s="55" t="s">
+      <c r="AB4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AC4" s="55" t="s">
+      <c r="AC4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="AD4" s="55" t="s">
+      <c r="AD4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="AE4" s="55" t="s">
+      <c r="AE4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AF4" s="55" t="s">
+      <c r="AF4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="AG4" s="55" t="s">
+      <c r="AG4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="AH4" s="55" t="s">
+      <c r="AH4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AI4" s="55" t="s">
+      <c r="AI4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="AJ4" s="55" t="s">
+      <c r="AJ4" s="49" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6881,16 +6875,18 @@
       <c r="F5" s="52" t="n">
         <v>2024.94000000000005</v>
       </c>
-      <c r="G5" s="56" t="n">
+      <c r="G5" s="55" t="n">
         <v>2263.90999999999985</v>
       </c>
-      <c r="H5" s="56" t="n">
+      <c r="H5" s="55" t="n">
         <v>2179.01000000000022</v>
       </c>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
+      <c r="I5" s="55" t="n">
+        <v>2149.65000000000009</v>
+      </c>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
       <c r="N5" s="51" t="s">
         <v>11</v>
       </c>
@@ -6906,16 +6902,18 @@
       <c r="R5" s="53" t="n">
         <v>3164</v>
       </c>
-      <c r="S5" s="56" t="n">
+      <c r="S5" s="55" t="n">
         <v>3442</v>
       </c>
-      <c r="T5" s="56" t="n">
+      <c r="T5" s="55" t="n">
         <v>3366</v>
       </c>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
+      <c r="U5" s="55" t="n">
+        <v>3311</v>
+      </c>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
       <c r="Z5" s="50" t="s">
         <v>12</v>
       </c>
@@ -6931,16 +6929,18 @@
       <c r="AD5" s="52" t="n">
         <v>62471.5899999999965</v>
       </c>
-      <c r="AE5" s="56" t="n">
+      <c r="AE5" s="55" t="n">
         <v>69677.3399999999965</v>
       </c>
-      <c r="AF5" s="56" t="n">
+      <c r="AF5" s="55" t="n">
         <v>69084.5500000000029</v>
       </c>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
+      <c r="AG5" s="55" t="n">
+        <v>69677.3399999999965</v>
+      </c>
+      <c r="AH5" s="55"/>
+      <c r="AI5" s="55"/>
+      <c r="AJ5" s="55"/>
     </row>
     <row r="6" spans="2:36">
       <c r="B6" s="50" t="s">
@@ -6952,12 +6952,12 @@
       <c r="D6" s="52"/>
       <c r="E6" s="52"/>
       <c r="F6" s="52"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
       <c r="N6" s="51" t="s">
         <v>14</v>
       </c>
@@ -6973,16 +6973,18 @@
       <c r="R6" s="53" t="n">
         <v>40066.0800000000017</v>
       </c>
-      <c r="S6" s="56" t="n">
+      <c r="S6" s="55" t="n">
         <v>37592.1399999999994</v>
       </c>
-      <c r="T6" s="56" t="n">
+      <c r="T6" s="55" t="n">
         <v>37585.8700000000026</v>
       </c>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
+      <c r="U6" s="55" t="n">
+        <v>36870.5899999999965</v>
+      </c>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="55"/>
       <c r="Z6" s="50" t="s">
         <v>15</v>
       </c>
@@ -6998,16 +7000,18 @@
       <c r="AD6" s="52" t="n">
         <v>30370.619999999999</v>
       </c>
-      <c r="AE6" s="56" t="n">
+      <c r="AE6" s="55" t="n">
         <v>30902.1399999999994</v>
       </c>
-      <c r="AF6" s="56" t="n">
+      <c r="AF6" s="55" t="n">
         <v>30316.6500000000015</v>
       </c>
-      <c r="AG6" s="56"/>
-      <c r="AH6" s="56"/>
-      <c r="AI6" s="56"/>
-      <c r="AJ6" s="56"/>
+      <c r="AG6" s="55" t="n">
+        <v>31079.4199999999983</v>
+      </c>
+      <c r="AH6" s="55"/>
+      <c r="AI6" s="55"/>
+      <c r="AJ6" s="55"/>
     </row>
     <row r="7" spans="2:36">
       <c r="B7" s="50" t="s">
@@ -7025,16 +7029,18 @@
       <c r="F7" s="52" t="n">
         <v>6505</v>
       </c>
-      <c r="G7" s="56" t="n">
+      <c r="G7" s="55" t="n">
         <v>6635</v>
       </c>
-      <c r="H7" s="56" t="n">
+      <c r="H7" s="55" t="n">
         <v>6348</v>
       </c>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
+      <c r="I7" s="55" t="n">
+        <v>6635</v>
+      </c>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
       <c r="N7" s="51" t="s">
         <v>17</v>
       </c>
@@ -7050,16 +7056,18 @@
       <c r="R7" s="53" t="n">
         <v>4635</v>
       </c>
-      <c r="S7" s="56" t="n">
+      <c r="S7" s="55" t="n">
         <v>4810</v>
       </c>
-      <c r="T7" s="56" t="n">
+      <c r="T7" s="55" t="n">
         <v>4742</v>
       </c>
-      <c r="U7" s="56"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="56"/>
+      <c r="U7" s="55" t="n">
+        <v>4810</v>
+      </c>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="55"/>
       <c r="Z7" s="50" t="s">
         <v>18</v>
       </c>
@@ -7075,16 +7083,18 @@
       <c r="AD7" s="52" t="n">
         <v>37725.6399999999994</v>
       </c>
-      <c r="AE7" s="56" t="n">
+      <c r="AE7" s="55" t="n">
         <v>41103.5899999999965</v>
       </c>
-      <c r="AF7" s="56" t="n">
+      <c r="AF7" s="55" t="n">
         <v>39323.8000000000029</v>
       </c>
-      <c r="AG7" s="56"/>
-      <c r="AH7" s="56"/>
-      <c r="AI7" s="56"/>
-      <c r="AJ7" s="56"/>
+      <c r="AG7" s="55" t="n">
+        <v>39439.8899999999994</v>
+      </c>
+      <c r="AH7" s="55"/>
+      <c r="AI7" s="55"/>
+      <c r="AJ7" s="55"/>
     </row>
     <row r="8" spans="2:36">
       <c r="B8" s="50" t="s">
@@ -7102,16 +7112,18 @@
       <c r="F8" s="52" t="n">
         <v>21862</v>
       </c>
-      <c r="G8" s="56" t="n">
+      <c r="G8" s="55" t="n">
         <v>18469</v>
       </c>
-      <c r="H8" s="56" t="n">
+      <c r="H8" s="55" t="n">
         <v>17680</v>
       </c>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
+      <c r="I8" s="55" t="n">
+        <v>17882</v>
+      </c>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
       <c r="N8" s="51" t="s">
         <v>20</v>
       </c>
@@ -7121,12 +7133,12 @@
       <c r="P8" s="53"/>
       <c r="Q8" s="53"/>
       <c r="R8" s="53"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="56"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="55"/>
       <c r="Z8" s="50" t="s">
         <v>21</v>
       </c>
@@ -7137,21 +7149,23 @@
         <v>83744.6100000000006</v>
       </c>
       <c r="AC8" s="52" t="n">
-        <v>77379.0899999999965</v>
+        <v>77379.089999999982</v>
       </c>
       <c r="AD8" s="52" t="n">
         <v>76340.25</v>
       </c>
-      <c r="AE8" s="56" t="n">
-        <v>79330.7599999999948</v>
-      </c>
-      <c r="AF8" s="56" t="n">
-        <v>77785.0599999999977</v>
-      </c>
-      <c r="AG8" s="56"/>
-      <c r="AH8" s="56"/>
-      <c r="AI8" s="56"/>
-      <c r="AJ8" s="56"/>
+      <c r="AE8" s="55" t="n">
+        <v>79330.7599999999802</v>
+      </c>
+      <c r="AF8" s="55" t="n">
+        <v>77785.0599999999831</v>
+      </c>
+      <c r="AG8" s="55" t="n">
+        <v>78690.7200000000012</v>
+      </c>
+      <c r="AH8" s="55"/>
+      <c r="AI8" s="55"/>
+      <c r="AJ8" s="55"/>
     </row>
     <row r="9" spans="2:36">
       <c r="B9" s="50" t="s">
@@ -7169,16 +7183,18 @@
       <c r="F9" s="52" t="n">
         <v>1035</v>
       </c>
-      <c r="G9" s="56" t="n">
+      <c r="G9" s="55" t="n">
         <v>1068</v>
       </c>
-      <c r="H9" s="56" t="n">
+      <c r="H9" s="55" t="n">
         <v>1012</v>
       </c>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
+      <c r="I9" s="55" t="n">
+        <v>1068</v>
+      </c>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
       <c r="N9" s="51" t="s">
         <v>23</v>
       </c>
@@ -7188,12 +7204,12 @@
       <c r="P9" s="53"/>
       <c r="Q9" s="53"/>
       <c r="R9" s="53"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
       <c r="Z9" s="50" t="s">
         <v>24</v>
       </c>
@@ -7209,16 +7225,18 @@
       <c r="AD9" s="52" t="n">
         <v>40842.5599999999977</v>
       </c>
-      <c r="AE9" s="56" t="n">
+      <c r="AE9" s="55" t="n">
         <v>42919.1500000000015</v>
       </c>
-      <c r="AF9" s="56" t="n">
+      <c r="AF9" s="55" t="n">
         <v>42612.2099999999991</v>
       </c>
-      <c r="AG9" s="56"/>
-      <c r="AH9" s="56"/>
-      <c r="AI9" s="56"/>
-      <c r="AJ9" s="56"/>
+      <c r="AG9" s="55" t="n">
+        <v>42908.7900000000009</v>
+      </c>
+      <c r="AH9" s="55"/>
+      <c r="AI9" s="55"/>
+      <c r="AJ9" s="55"/>
     </row>
     <row r="10" spans="2:36">
       <c r="B10" s="50" t="s">
@@ -7236,16 +7254,18 @@
       <c r="F10" s="52" t="n">
         <v>1218</v>
       </c>
-      <c r="G10" s="56" t="n">
+      <c r="G10" s="55" t="n">
         <v>1174</v>
       </c>
-      <c r="H10" s="56" t="n">
+      <c r="H10" s="55" t="n">
         <v>1174</v>
       </c>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
+      <c r="I10" s="55" t="n">
+        <v>1174</v>
+      </c>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
       <c r="N10" s="51" t="s">
         <v>26</v>
       </c>
@@ -7255,12 +7275,12 @@
       <c r="P10" s="53"/>
       <c r="Q10" s="53"/>
       <c r="R10" s="53"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
       <c r="Z10" s="50" t="s">
         <v>27</v>
       </c>
@@ -7276,16 +7296,18 @@
       <c r="AD10" s="52" t="n">
         <v>46589.2300000000032</v>
       </c>
-      <c r="AE10" s="56" t="n">
+      <c r="AE10" s="55" t="n">
         <v>50601.8799999999974</v>
       </c>
-      <c r="AF10" s="56" t="n">
+      <c r="AF10" s="55" t="n">
         <v>48427.5599999999977</v>
       </c>
-      <c r="AG10" s="56"/>
-      <c r="AH10" s="56"/>
-      <c r="AI10" s="56"/>
-      <c r="AJ10" s="56"/>
+      <c r="AG10" s="55" t="n">
+        <v>49587.010000000002</v>
+      </c>
+      <c r="AH10" s="55"/>
+      <c r="AI10" s="55"/>
+      <c r="AJ10" s="55"/>
     </row>
     <row r="11" spans="2:36">
       <c r="B11" s="50" t="s">
@@ -7303,16 +7325,18 @@
       <c r="F11" s="52" t="n">
         <v>4246.84000000000015</v>
       </c>
-      <c r="G11" s="56" t="n">
+      <c r="G11" s="55" t="n">
         <v>4586.39999999999964</v>
       </c>
-      <c r="H11" s="56" t="n">
+      <c r="H11" s="55" t="n">
         <v>4538.96000000000004</v>
       </c>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
+      <c r="I11" s="55" t="n">
+        <v>4586.39999999999964</v>
+      </c>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
       <c r="N11" s="51" t="s">
         <v>29</v>
       </c>
@@ -7322,12 +7346,12 @@
       <c r="P11" s="53"/>
       <c r="Q11" s="53"/>
       <c r="R11" s="53"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="55"/>
       <c r="Z11" s="50" t="s">
         <v>30</v>
       </c>
@@ -7343,16 +7367,18 @@
       <c r="AD11" s="52" t="n">
         <v>62428.3799999999974</v>
       </c>
-      <c r="AE11" s="56" t="n">
+      <c r="AE11" s="55" t="n">
         <v>70509.4400000000023</v>
       </c>
-      <c r="AF11" s="56" t="n">
+      <c r="AF11" s="55" t="n">
         <v>67482.4199999999983</v>
       </c>
-      <c r="AG11" s="56"/>
-      <c r="AH11" s="56"/>
-      <c r="AI11" s="56"/>
-      <c r="AJ11" s="56"/>
+      <c r="AG11" s="55" t="n">
+        <v>69909.4400000000023</v>
+      </c>
+      <c r="AH11" s="55"/>
+      <c r="AI11" s="55"/>
+      <c r="AJ11" s="55"/>
     </row>
     <row r="12" spans="2:36">
       <c r="B12" s="50" t="s">
@@ -7370,16 +7396,18 @@
       <c r="F12" s="52" t="n">
         <v>54589.3899999999994</v>
       </c>
-      <c r="G12" s="56" t="n">
+      <c r="G12" s="55" t="n">
         <v>52738.0199999999968</v>
       </c>
-      <c r="H12" s="56" t="n">
+      <c r="H12" s="55" t="n">
         <v>50057.8000000000029</v>
       </c>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
+      <c r="I12" s="55" t="n">
+        <v>50245.0699999999997</v>
+      </c>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
       <c r="N12" s="51" t="s">
         <v>32</v>
       </c>
@@ -7389,12 +7417,12 @@
       <c r="P12" s="53"/>
       <c r="Q12" s="53"/>
       <c r="R12" s="53"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="55"/>
       <c r="Z12" s="50" t="s">
         <v>33</v>
       </c>
@@ -7410,16 +7438,18 @@
       <c r="AD12" s="52" t="n">
         <v>36106.6800000000003</v>
       </c>
-      <c r="AE12" s="56" t="n">
+      <c r="AE12" s="55" t="n">
         <v>35648.8700000000026</v>
       </c>
-      <c r="AF12" s="56" t="n">
+      <c r="AF12" s="55" t="n">
         <v>35079.739999999998</v>
       </c>
-      <c r="AG12" s="56"/>
-      <c r="AH12" s="56"/>
-      <c r="AI12" s="56"/>
-      <c r="AJ12" s="56"/>
+      <c r="AG12" s="55" t="n">
+        <v>34202.9599999999991</v>
+      </c>
+      <c r="AH12" s="55"/>
+      <c r="AI12" s="55"/>
+      <c r="AJ12" s="55"/>
     </row>
     <row r="13" spans="2:36">
       <c r="B13" s="50" t="s">
@@ -7437,16 +7467,18 @@
       <c r="F13" s="52" t="n">
         <v>13109</v>
       </c>
-      <c r="G13" s="56" t="n">
+      <c r="G13" s="55" t="n">
         <v>13041</v>
       </c>
-      <c r="H13" s="56" t="n">
+      <c r="H13" s="55" t="n">
         <v>13041</v>
       </c>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
+      <c r="I13" s="55" t="n">
+        <v>12573</v>
+      </c>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
       <c r="N13" s="51" t="s">
         <v>35</v>
       </c>
@@ -7462,16 +7494,18 @@
       <c r="R13" s="53" t="n">
         <v>8308</v>
       </c>
-      <c r="S13" s="56" t="n">
+      <c r="S13" s="55" t="n">
         <v>7839</v>
       </c>
-      <c r="T13" s="56" t="n">
+      <c r="T13" s="55" t="n">
         <v>7737</v>
       </c>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
+      <c r="U13" s="55" t="n">
+        <v>7839</v>
+      </c>
+      <c r="V13" s="55"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="55"/>
       <c r="Z13" s="50" t="s">
         <v>36</v>
       </c>
@@ -7487,16 +7521,18 @@
       <c r="AD13" s="52" t="n">
         <v>36050.9499999999971</v>
       </c>
-      <c r="AE13" s="56" t="n">
+      <c r="AE13" s="55" t="n">
         <v>39656.989999999998</v>
       </c>
-      <c r="AF13" s="56" t="n">
+      <c r="AF13" s="55" t="n">
         <v>37003.6399999999994</v>
       </c>
-      <c r="AG13" s="56"/>
-      <c r="AH13" s="56"/>
-      <c r="AI13" s="56"/>
-      <c r="AJ13" s="56"/>
+      <c r="AG13" s="55" t="n">
+        <v>38200.6500000000015</v>
+      </c>
+      <c r="AH13" s="55"/>
+      <c r="AI13" s="55"/>
+      <c r="AJ13" s="55"/>
     </row>
     <row r="14" spans="2:36">
       <c r="B14" s="50" t="s">
@@ -7514,16 +7550,18 @@
       <c r="F14" s="52" t="n">
         <v>1830</v>
       </c>
-      <c r="G14" s="56" t="n">
+      <c r="G14" s="55" t="n">
         <v>1490</v>
       </c>
-      <c r="H14" s="56" t="n">
+      <c r="H14" s="55" t="n">
         <v>1480</v>
       </c>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
+      <c r="I14" s="55" t="n">
+        <v>1490</v>
+      </c>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
       <c r="N14" s="51" t="s">
         <v>38</v>
       </c>
@@ -7539,16 +7577,18 @@
       <c r="R14" s="53" t="n">
         <v>15544.8799999999992</v>
       </c>
-      <c r="S14" s="56" t="n">
+      <c r="S14" s="55" t="n">
         <v>17292</v>
       </c>
-      <c r="T14" s="56" t="n">
+      <c r="T14" s="55" t="n">
         <v>16419.5200000000004</v>
       </c>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
+      <c r="U14" s="55" t="n">
+        <v>15712.9599999999991</v>
+      </c>
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="55"/>
       <c r="Z14" s="50" t="s">
         <v>39</v>
       </c>
@@ -7564,16 +7604,18 @@
       <c r="AD14" s="52" t="n">
         <v>64127.510000000002</v>
       </c>
-      <c r="AE14" s="56" t="n">
+      <c r="AE14" s="55" t="n">
         <v>69225.1499999999942</v>
       </c>
-      <c r="AF14" s="56" t="n">
+      <c r="AF14" s="55" t="n">
         <v>66432.5399999999936</v>
       </c>
-      <c r="AG14" s="56"/>
-      <c r="AH14" s="56"/>
-      <c r="AI14" s="56"/>
-      <c r="AJ14" s="56"/>
+      <c r="AG14" s="55" t="n">
+        <v>67419.5899999999965</v>
+      </c>
+      <c r="AH14" s="55"/>
+      <c r="AI14" s="55"/>
+      <c r="AJ14" s="55"/>
     </row>
     <row r="15" spans="2:36">
       <c r="B15" s="50" t="s">
@@ -7591,16 +7633,18 @@
       <c r="F15" s="52" t="n">
         <v>1943.98000000000002</v>
       </c>
-      <c r="G15" s="56" t="n">
+      <c r="G15" s="55" t="n">
         <v>1884.68000000000006</v>
       </c>
-      <c r="H15" s="56" t="n">
+      <c r="H15" s="55" t="n">
         <v>1856.48000000000002</v>
       </c>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
+      <c r="I15" s="55" t="n">
+        <v>1884.68000000000006</v>
+      </c>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
       <c r="N15" s="51" t="s">
         <v>41</v>
       </c>
@@ -7616,16 +7660,18 @@
       <c r="R15" s="53" t="n">
         <v>20322.5499999999993</v>
       </c>
-      <c r="S15" s="56" t="n">
+      <c r="S15" s="55" t="n">
         <v>21707.8600000000006</v>
       </c>
-      <c r="T15" s="56" t="n">
+      <c r="T15" s="55" t="n">
         <v>21088.5499999999993</v>
       </c>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
+      <c r="U15" s="55" t="n">
+        <v>20666.0699999999997</v>
+      </c>
+      <c r="V15" s="55"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="55"/>
       <c r="Z15" s="50" t="s">
         <v>42</v>
       </c>
@@ -7641,12 +7687,12 @@
       <c r="AD15" s="52" t="n">
         <v>197692.25</v>
       </c>
-      <c r="AE15" s="56"/>
-      <c r="AF15" s="56"/>
-      <c r="AG15" s="56"/>
-      <c r="AH15" s="56"/>
-      <c r="AI15" s="56"/>
-      <c r="AJ15" s="56"/>
+      <c r="AE15" s="55"/>
+      <c r="AF15" s="55"/>
+      <c r="AG15" s="55"/>
+      <c r="AH15" s="55"/>
+      <c r="AI15" s="55"/>
+      <c r="AJ15" s="55"/>
     </row>
     <row r="16" spans="2:36">
       <c r="B16" s="50" t="s">
@@ -7664,16 +7710,18 @@
       <c r="F16" s="52" t="n">
         <v>4141.5</v>
       </c>
-      <c r="G16" s="56" t="n">
+      <c r="G16" s="55" t="n">
         <v>4678.47000000000025</v>
       </c>
-      <c r="H16" s="56" t="n">
+      <c r="H16" s="55" t="n">
         <v>4475.78999999999996</v>
       </c>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
+      <c r="I16" s="55" t="n">
+        <v>4633.18000000000029</v>
+      </c>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
       <c r="N16" s="51" t="s">
         <v>44</v>
       </c>
@@ -7689,16 +7737,18 @@
       <c r="R16" s="53" t="n">
         <v>20907.7400000000016</v>
       </c>
-      <c r="S16" s="56" t="n">
+      <c r="S16" s="55" t="n">
         <v>23768.7299999999996</v>
       </c>
-      <c r="T16" s="56" t="n">
+      <c r="T16" s="55" t="n">
         <v>22885.1599999999999</v>
       </c>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
+      <c r="U16" s="55" t="n">
+        <v>23526.0600000000013</v>
+      </c>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="55"/>
       <c r="Z16" s="50" t="s">
         <v>45</v>
       </c>
@@ -7714,16 +7764,18 @@
       <c r="AD16" s="52" t="n">
         <v>887.639999999999986</v>
       </c>
-      <c r="AE16" s="56" t="n">
+      <c r="AE16" s="55" t="n">
         <v>990.649999999999977</v>
       </c>
-      <c r="AF16" s="56" t="n">
+      <c r="AF16" s="55" t="n">
         <v>909.899999999999977</v>
       </c>
-      <c r="AG16" s="56"/>
-      <c r="AH16" s="56"/>
-      <c r="AI16" s="56"/>
-      <c r="AJ16" s="56"/>
+      <c r="AG16" s="55" t="n">
+        <v>923.110000000000014</v>
+      </c>
+      <c r="AH16" s="55"/>
+      <c r="AI16" s="55"/>
+      <c r="AJ16" s="55"/>
     </row>
     <row r="17" spans="2:36">
       <c r="B17" s="50" t="s">
@@ -7741,16 +7793,18 @@
       <c r="F17" s="52" t="n">
         <v>4751.72000000000025</v>
       </c>
-      <c r="G17" s="56" t="n">
+      <c r="G17" s="55" t="n">
         <v>5320.4399999999996</v>
       </c>
-      <c r="H17" s="56" t="n">
+      <c r="H17" s="55" t="n">
         <v>4953.72000000000025</v>
       </c>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
+      <c r="I17" s="55" t="n">
+        <v>4874.36999999999989</v>
+      </c>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
       <c r="N17" s="51" t="s">
         <v>47</v>
       </c>
@@ -7766,16 +7820,18 @@
       <c r="R17" s="53" t="n">
         <v>16962.0099999999984</v>
       </c>
-      <c r="S17" s="56" t="n">
+      <c r="S17" s="55" t="n">
         <v>18500.2099999999991</v>
       </c>
-      <c r="T17" s="56" t="n">
+      <c r="T17" s="55" t="n">
         <v>18227</v>
       </c>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
+      <c r="U17" s="55" t="n">
+        <v>18160.3199999999997</v>
+      </c>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="55"/>
       <c r="Z17" s="50" t="s">
         <v>48</v>
       </c>
@@ -7791,16 +7847,18 @@
       <c r="AD17" s="52" t="n">
         <v>1685.46000000000004</v>
       </c>
-      <c r="AE17" s="56" t="n">
+      <c r="AE17" s="55" t="n">
         <v>1867.75</v>
       </c>
-      <c r="AF17" s="56" t="n">
+      <c r="AF17" s="55" t="n">
         <v>1815.57999999999993</v>
       </c>
-      <c r="AG17" s="56"/>
-      <c r="AH17" s="56"/>
-      <c r="AI17" s="56"/>
-      <c r="AJ17" s="56"/>
+      <c r="AG17" s="55" t="n">
+        <v>1867.75</v>
+      </c>
+      <c r="AH17" s="55"/>
+      <c r="AI17" s="55"/>
+      <c r="AJ17" s="55"/>
     </row>
     <row r="18" spans="2:36">
       <c r="B18" s="50" t="s">
@@ -7818,16 +7876,18 @@
       <c r="F18" s="52" t="n">
         <v>441</v>
       </c>
-      <c r="G18" s="56" t="n">
+      <c r="G18" s="55" t="n">
         <v>390</v>
       </c>
-      <c r="H18" s="56" t="n">
+      <c r="H18" s="55" t="n">
         <v>390</v>
       </c>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
+      <c r="I18" s="55" t="n">
+        <v>390</v>
+      </c>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
       <c r="N18" s="51" t="s">
         <v>50</v>
       </c>
@@ -7841,18 +7901,20 @@
         <v>17327.3400000000001</v>
       </c>
       <c r="R18" s="53" t="n">
-        <v>17311.4399999999987</v>
-      </c>
-      <c r="S18" s="56" t="n">
+        <v>17311.4399999999951</v>
+      </c>
+      <c r="S18" s="55" t="n">
         <v>19871.7999999999993</v>
       </c>
-      <c r="T18" s="56" t="n">
+      <c r="T18" s="55" t="n">
         <v>19101.0699999999997</v>
       </c>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
+      <c r="U18" s="55" t="n">
+        <v>19505.7599999999984</v>
+      </c>
+      <c r="V18" s="55"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="55"/>
       <c r="Z18" s="50" t="s">
         <v>51</v>
       </c>
@@ -7868,16 +7930,16 @@
       <c r="AD18" s="52" t="n">
         <v>5282.6899999999996</v>
       </c>
-      <c r="AE18" s="56" t="n">
+      <c r="AE18" s="55" t="n">
         <v>5601.44999999999982</v>
       </c>
-      <c r="AF18" s="56" t="n">
+      <c r="AF18" s="55" t="n">
         <v>5334.69999999999982</v>
       </c>
-      <c r="AG18" s="56"/>
-      <c r="AH18" s="56"/>
-      <c r="AI18" s="56"/>
-      <c r="AJ18" s="56"/>
+      <c r="AG18" s="55"/>
+      <c r="AH18" s="55"/>
+      <c r="AI18" s="55"/>
+      <c r="AJ18" s="55"/>
     </row>
     <row r="19" spans="2:36">
       <c r="B19" s="50" t="s">
@@ -7895,16 +7957,18 @@
       <c r="F19" s="52" t="n">
         <v>291.589999999999975</v>
       </c>
-      <c r="G19" s="56" t="n">
+      <c r="G19" s="55" t="n">
         <v>323.660000000000025</v>
       </c>
-      <c r="H19" s="56" t="n">
+      <c r="H19" s="55" t="n">
         <v>319.910000000000025</v>
       </c>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
+      <c r="I19" s="55" t="n">
+        <v>318.279999999999973</v>
+      </c>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
       <c r="N19" s="51" t="s">
         <v>53</v>
       </c>
@@ -7920,16 +7984,18 @@
       <c r="R19" s="53" t="n">
         <v>23060.7400000000016</v>
       </c>
-      <c r="S19" s="56" t="n">
+      <c r="S19" s="55" t="n">
         <v>24698.5099999999984</v>
       </c>
-      <c r="T19" s="56" t="n">
+      <c r="T19" s="55" t="n">
         <v>22756.2299999999996</v>
       </c>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
+      <c r="U19" s="55" t="n">
+        <v>23838.380000000001</v>
+      </c>
+      <c r="V19" s="55"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="55"/>
       <c r="Z19" s="50" t="s">
         <v>55</v>
       </c>
@@ -7945,12 +8011,12 @@
       <c r="AD19" s="52" t="n">
         <v>6847.52999999999975</v>
       </c>
-      <c r="AE19" s="56"/>
-      <c r="AF19" s="56"/>
-      <c r="AG19" s="56"/>
-      <c r="AH19" s="56"/>
-      <c r="AI19" s="56"/>
-      <c r="AJ19" s="56"/>
+      <c r="AE19" s="55"/>
+      <c r="AF19" s="55"/>
+      <c r="AG19" s="55"/>
+      <c r="AH19" s="55"/>
+      <c r="AI19" s="55"/>
+      <c r="AJ19" s="55"/>
     </row>
     <row r="20" spans="2:36">
       <c r="B20" s="50" t="s">
@@ -7968,16 +8034,18 @@
       <c r="F20" s="52" t="n">
         <v>350.839999999999975</v>
       </c>
-      <c r="G20" s="56" t="n">
+      <c r="G20" s="55" t="n">
         <v>373.069999999999993</v>
       </c>
-      <c r="H20" s="56" t="n">
+      <c r="H20" s="55" t="n">
         <v>369.110000000000014</v>
       </c>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
+      <c r="I20" s="55" t="n">
+        <v>373.069999999999993</v>
+      </c>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
       <c r="N20" s="51" t="s">
         <v>57</v>
       </c>
@@ -7993,16 +8061,18 @@
       <c r="R20" s="53" t="n">
         <v>14510</v>
       </c>
-      <c r="S20" s="56" t="n">
+      <c r="S20" s="55" t="n">
         <v>18433.5099999999984</v>
       </c>
-      <c r="T20" s="56" t="n">
+      <c r="T20" s="55" t="n">
         <v>16830.6100000000006</v>
       </c>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
+      <c r="U20" s="55" t="n">
+        <v>18188.3199999999997</v>
+      </c>
+      <c r="V20" s="55"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="55"/>
       <c r="Z20" s="50" t="s">
         <v>58</v>
       </c>
@@ -8018,16 +8088,18 @@
       <c r="AD20" s="52" t="n">
         <v>15870</v>
       </c>
-      <c r="AE20" s="56" t="n">
+      <c r="AE20" s="55" t="n">
         <v>16297</v>
       </c>
-      <c r="AF20" s="56" t="n">
+      <c r="AF20" s="55" t="n">
         <v>16152</v>
       </c>
-      <c r="AG20" s="56"/>
-      <c r="AH20" s="56"/>
-      <c r="AI20" s="56"/>
-      <c r="AJ20" s="56"/>
+      <c r="AG20" s="55" t="n">
+        <v>16073</v>
+      </c>
+      <c r="AH20" s="55"/>
+      <c r="AI20" s="55"/>
+      <c r="AJ20" s="55"/>
     </row>
     <row r="21" spans="2:36">
       <c r="B21" s="50" t="s">
@@ -8045,16 +8117,18 @@
       <c r="F21" s="52" t="n">
         <v>454.54000000000002</v>
       </c>
-      <c r="G21" s="56" t="n">
+      <c r="G21" s="55" t="n">
         <v>445.589999999999975</v>
       </c>
-      <c r="H21" s="56" t="n">
+      <c r="H21" s="55" t="n">
         <v>442.850000000000023</v>
       </c>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
+      <c r="I21" s="55" t="n">
+        <v>444.620000000000005</v>
+      </c>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
       <c r="N21" s="51" t="s">
         <v>60</v>
       </c>
@@ -8070,16 +8144,18 @@
       <c r="R21" s="53" t="n">
         <v>15399.6599999999999</v>
       </c>
-      <c r="S21" s="56" t="n">
+      <c r="S21" s="55" t="n">
         <v>16977.3499999999985</v>
       </c>
-      <c r="T21" s="56" t="n">
+      <c r="T21" s="55" t="n">
         <v>16977.3499999999985</v>
       </c>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
+      <c r="U21" s="55" t="n">
+        <v>16911.5200000000004</v>
+      </c>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
       <c r="Z21" s="50" t="s">
         <v>61</v>
       </c>
@@ -8095,16 +8171,18 @@
       <c r="AD21" s="52" t="n">
         <v>35922</v>
       </c>
-      <c r="AE21" s="56" t="n">
+      <c r="AE21" s="55" t="n">
         <v>35921</v>
       </c>
-      <c r="AF21" s="56" t="n">
+      <c r="AF21" s="55" t="n">
         <v>35875</v>
       </c>
-      <c r="AG21" s="56"/>
-      <c r="AH21" s="56"/>
-      <c r="AI21" s="56"/>
-      <c r="AJ21" s="56"/>
+      <c r="AG21" s="55" t="n">
+        <v>35323</v>
+      </c>
+      <c r="AH21" s="55"/>
+      <c r="AI21" s="55"/>
+      <c r="AJ21" s="55"/>
     </row>
     <row r="22" spans="2:36">
       <c r="B22" s="50" t="s">
@@ -8122,16 +8200,18 @@
       <c r="F22" s="52" t="n">
         <v>602</v>
       </c>
-      <c r="G22" s="56" t="n">
+      <c r="G22" s="55" t="n">
         <v>585</v>
       </c>
-      <c r="H22" s="56" t="n">
+      <c r="H22" s="55" t="n">
         <v>591</v>
       </c>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
+      <c r="I22" s="55" t="n">
+        <v>528</v>
+      </c>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
       <c r="N22" s="51" t="s">
         <v>63</v>
       </c>
@@ -8147,16 +8227,18 @@
       <c r="R22" s="53" t="n">
         <v>15400.3500000000004</v>
       </c>
-      <c r="S22" s="56" t="n">
+      <c r="S22" s="55" t="n">
         <v>17023.9799999999996</v>
       </c>
-      <c r="T22" s="56" t="n">
+      <c r="T22" s="55" t="n">
         <v>16640.5499999999993</v>
       </c>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
+      <c r="U22" s="55" t="n">
+        <v>16746.6899999999987</v>
+      </c>
+      <c r="V22" s="55"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="55"/>
       <c r="Z22" s="50" t="s">
         <v>64</v>
       </c>
@@ -8172,12 +8254,12 @@
       <c r="AD22" s="52" t="n">
         <v>70120</v>
       </c>
-      <c r="AE22" s="56"/>
-      <c r="AF22" s="56"/>
-      <c r="AG22" s="56"/>
-      <c r="AH22" s="56"/>
-      <c r="AI22" s="56"/>
-      <c r="AJ22" s="56"/>
+      <c r="AE22" s="55"/>
+      <c r="AF22" s="55"/>
+      <c r="AG22" s="55"/>
+      <c r="AH22" s="55"/>
+      <c r="AI22" s="55"/>
+      <c r="AJ22" s="55"/>
     </row>
     <row r="23" spans="2:36">
       <c r="B23" s="50" t="s">
@@ -8195,16 +8277,18 @@
       <c r="F23" s="52" t="n">
         <v>1707.45000000000005</v>
       </c>
-      <c r="G23" s="56" t="n">
+      <c r="G23" s="55" t="n">
         <v>1914.67000000000007</v>
       </c>
-      <c r="H23" s="56" t="n">
+      <c r="H23" s="55" t="n">
         <v>1840.86999999999989</v>
       </c>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
+      <c r="I23" s="55" t="n">
+        <v>1907.04999999999995</v>
+      </c>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
       <c r="N23" s="51" t="s">
         <v>66</v>
       </c>
@@ -8220,16 +8304,18 @@
       <c r="R23" s="53" t="n">
         <v>8763.07999999999993</v>
       </c>
-      <c r="S23" s="56" t="n">
+      <c r="S23" s="55" t="n">
         <v>8933.96999999999935</v>
       </c>
-      <c r="T23" s="56" t="n">
+      <c r="T23" s="55" t="n">
         <v>8736.30999999999949</v>
       </c>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
+      <c r="U23" s="55" t="n">
+        <v>8672.70999999999913</v>
+      </c>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
       <c r="Z23" s="50" t="s">
         <v>67</v>
       </c>
@@ -8245,16 +8331,18 @@
       <c r="AD23" s="52" t="n">
         <v>476.470000000000027</v>
       </c>
-      <c r="AE23" s="56" t="n">
+      <c r="AE23" s="55" t="n">
         <v>433.589999999999975</v>
       </c>
-      <c r="AF23" s="56" t="n">
+      <c r="AF23" s="55" t="n">
         <v>433.589999999999975</v>
       </c>
-      <c r="AG23" s="56"/>
-      <c r="AH23" s="56"/>
-      <c r="AI23" s="56"/>
-      <c r="AJ23" s="56"/>
+      <c r="AG23" s="55" t="n">
+        <v>433.589999999999975</v>
+      </c>
+      <c r="AH23" s="55"/>
+      <c r="AI23" s="55"/>
+      <c r="AJ23" s="55"/>
     </row>
     <row r="24" spans="2:36">
       <c r="B24" s="50" t="s">
@@ -8272,16 +8360,18 @@
       <c r="F24" s="52" t="n">
         <v>640</v>
       </c>
-      <c r="G24" s="56" t="n">
+      <c r="G24" s="55" t="n">
         <v>813</v>
       </c>
-      <c r="H24" s="56" t="n">
+      <c r="H24" s="55" t="n">
         <v>813</v>
       </c>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
+      <c r="I24" s="55" t="n">
+        <v>813</v>
+      </c>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
       <c r="N24" s="51" t="s">
         <v>69</v>
       </c>
@@ -8297,16 +8387,18 @@
       <c r="R24" s="53" t="n">
         <v>30461.5</v>
       </c>
-      <c r="S24" s="56" t="n">
+      <c r="S24" s="55" t="n">
         <v>33941.1500000000015</v>
       </c>
-      <c r="T24" s="56" t="n">
+      <c r="T24" s="55" t="n">
         <v>32364.9000000000015</v>
       </c>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
+      <c r="U24" s="55" t="n">
+        <v>32866.010000000002</v>
+      </c>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
       <c r="Z24" s="50" t="s">
         <v>70</v>
       </c>
@@ -8322,16 +8414,18 @@
       <c r="AD24" s="52" t="n">
         <v>732</v>
       </c>
-      <c r="AE24" s="56" t="n">
+      <c r="AE24" s="55" t="n">
         <v>772</v>
       </c>
-      <c r="AF24" s="56" t="n">
+      <c r="AF24" s="55" t="n">
         <v>755</v>
       </c>
-      <c r="AG24" s="56"/>
-      <c r="AH24" s="56"/>
-      <c r="AI24" s="56"/>
-      <c r="AJ24" s="56"/>
+      <c r="AG24" s="55" t="n">
+        <v>727</v>
+      </c>
+      <c r="AH24" s="55"/>
+      <c r="AI24" s="55"/>
+      <c r="AJ24" s="55"/>
     </row>
     <row r="25" spans="2:36">
       <c r="B25" s="50" t="s">
@@ -8349,16 +8443,18 @@
       <c r="F25" s="52" t="n">
         <v>1573</v>
       </c>
-      <c r="G25" s="56" t="n">
+      <c r="G25" s="55" t="n">
         <v>1276</v>
       </c>
-      <c r="H25" s="56" t="n">
+      <c r="H25" s="55" t="n">
         <v>1351</v>
       </c>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
+      <c r="I25" s="55" t="n">
+        <v>1276</v>
+      </c>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
       <c r="N25" s="51" t="s">
         <v>72</v>
       </c>
@@ -8374,12 +8470,12 @@
       <c r="R25" s="53" t="n">
         <v>44910.010000000002</v>
       </c>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="56"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="56"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
       <c r="Z25" s="50" t="s">
         <v>73</v>
       </c>
@@ -8395,16 +8491,18 @@
       <c r="AD25" s="52" t="n">
         <v>87156.8500000000058</v>
       </c>
-      <c r="AE25" s="56" t="n">
+      <c r="AE25" s="55" t="n">
         <v>117345.369999999995</v>
       </c>
-      <c r="AF25" s="56" t="n">
+      <c r="AF25" s="55" t="n">
         <v>102309.179999999993</v>
       </c>
-      <c r="AG25" s="56"/>
-      <c r="AH25" s="56"/>
-      <c r="AI25" s="56"/>
-      <c r="AJ25" s="56"/>
+      <c r="AG25" s="55" t="n">
+        <v>102850.229999999996</v>
+      </c>
+      <c r="AH25" s="55"/>
+      <c r="AI25" s="55"/>
+      <c r="AJ25" s="55"/>
     </row>
     <row r="26" spans="2:36">
       <c r="B26" s="50" t="s">
@@ -8422,16 +8520,18 @@
       <c r="F26" s="52" t="n">
         <v>794</v>
       </c>
-      <c r="G26" s="56" t="n">
+      <c r="G26" s="55" t="n">
         <v>802</v>
       </c>
-      <c r="H26" s="56" t="n">
+      <c r="H26" s="55" t="n">
         <v>802</v>
       </c>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
+      <c r="I26" s="55" t="n">
+        <v>802</v>
+      </c>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
       <c r="N26" s="51" t="s">
         <v>75</v>
       </c>
@@ -8447,16 +8547,18 @@
       <c r="R26" s="53" t="n">
         <v>2207</v>
       </c>
-      <c r="S26" s="56" t="n">
+      <c r="S26" s="55" t="n">
         <v>2096</v>
       </c>
-      <c r="T26" s="56" t="n">
+      <c r="T26" s="55" t="n">
         <v>2047</v>
       </c>
-      <c r="U26" s="56"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
+      <c r="U26" s="55" t="n">
+        <v>2012</v>
+      </c>
+      <c r="V26" s="55"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="55"/>
       <c r="Z26" s="50" t="s">
         <v>76</v>
       </c>
@@ -8472,16 +8574,18 @@
       <c r="AD26" s="52" t="n">
         <v>2767.73999999999978</v>
       </c>
-      <c r="AE26" s="56" t="n">
+      <c r="AE26" s="55" t="n">
         <v>3177.40999999999985</v>
       </c>
-      <c r="AF26" s="56" t="n">
+      <c r="AF26" s="55" t="n">
         <v>3068.48999999999978</v>
       </c>
-      <c r="AG26" s="56"/>
-      <c r="AH26" s="56"/>
-      <c r="AI26" s="56"/>
-      <c r="AJ26" s="56"/>
+      <c r="AG26" s="55" t="n">
+        <v>3123.67000000000007</v>
+      </c>
+      <c r="AH26" s="55"/>
+      <c r="AI26" s="55"/>
+      <c r="AJ26" s="55"/>
     </row>
     <row r="27" spans="26:36">
       <c r="Z27" s="50" t="s">
@@ -8499,16 +8603,18 @@
       <c r="AD27" s="52" t="n">
         <v>2741.09999999999991</v>
       </c>
-      <c r="AE27" s="56" t="n">
+      <c r="AE27" s="55" t="n">
         <v>2852.11000000000013</v>
       </c>
-      <c r="AF27" s="56" t="n">
+      <c r="AF27" s="55" t="n">
         <v>2808.82999999999993</v>
       </c>
-      <c r="AG27" s="56"/>
-      <c r="AH27" s="56"/>
-      <c r="AI27" s="56"/>
-      <c r="AJ27" s="56"/>
+      <c r="AG27" s="55" t="n">
+        <v>2852.11000000000013</v>
+      </c>
+      <c r="AH27" s="55"/>
+      <c r="AI27" s="55"/>
+      <c r="AJ27" s="55"/>
     </row>
     <row r="28" spans="26:36">
       <c r="Z28" s="50" t="s">
@@ -8526,16 +8632,18 @@
       <c r="AD28" s="52" t="n">
         <v>3049.84999999999991</v>
       </c>
-      <c r="AE28" s="56" t="n">
+      <c r="AE28" s="55" t="n">
         <v>2936.28999999999996</v>
       </c>
-      <c r="AF28" s="56" t="n">
+      <c r="AF28" s="55" t="n">
         <v>2936.28999999999996</v>
       </c>
-      <c r="AG28" s="56"/>
-      <c r="AH28" s="56"/>
-      <c r="AI28" s="56"/>
-      <c r="AJ28" s="56"/>
+      <c r="AG28" s="55" t="n">
+        <v>2936.28999999999996</v>
+      </c>
+      <c r="AH28" s="55"/>
+      <c r="AI28" s="55"/>
+      <c r="AJ28" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -8555,7 +8663,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1643157189" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1643199832" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -8564,16 +8672,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1643157189" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1643157189" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1643157189" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1643157189" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1643199832" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1643199832" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1643199832" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1643199832" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1643157189" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1643199832" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Comparaçoes/BuscasLocais.xlsx
+++ b/Comparaçoes/BuscasLocais.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="pdezi"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" xWindow="240" yWindow="60" windowWidth="9570" windowHeight="8265" tabRatio="500"/>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="9570" windowHeight="8265" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="k = n|4" sheetId="1" r:id="rId4"/>
@@ -15,17 +15,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1643199832" val="1042" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1643199832" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1643199832" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1643199832"/>
+      <pm:revision xmlns:pm="smNativeData" day="1643203916" val="1042" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1643203916" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1643203916" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1643203916"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="86">
   <si>
     <t>Solução original</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>pr152</t>
+  </si>
+  <si>
+    <t>15403.26</t>
   </si>
   <si>
     <t>berlin52</t>
@@ -278,6 +281,9 @@
   <si>
     <t>k = 3n/4</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -307,7 +313,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -322,7 +328,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -337,7 +343,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -352,7 +358,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -368,7 +374,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -384,7 +390,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" fgClr="FA7D00" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" fgClr="FA7D00" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -399,7 +405,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" fgClr="FA7D00" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" fgClr="FA7D00" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -415,7 +421,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" fgClr="800080" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" fgClr="800080" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -431,7 +437,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -447,7 +453,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" fgClr="7F7F7F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" fgClr="7F7F7F" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" i="1"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" i="1"/>
             <pm:ea face="SimSun" sz="220" lang="default" i="1"/>
@@ -462,7 +468,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" fgClr="FF0000" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" fgClr="FF0000" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -478,7 +484,7 @@
       <sz val="18"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" fgClr="44546A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" fgClr="44546A" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="360" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="360" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="360" lang="default" weight="bold"/>
@@ -493,7 +499,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" fgClr="9C6500" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" fgClr="9C6500" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -509,7 +515,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -525,7 +531,7 @@
       <sz val="15"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" fgClr="44546A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" fgClr="44546A" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="300" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="300" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="300" lang="default" weight="bold"/>
@@ -541,7 +547,7 @@
       <sz val="13"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" fgClr="44546A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" fgClr="44546A" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="260" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="260" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="260" lang="default" weight="bold"/>
@@ -557,7 +563,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" fgClr="44546A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" fgClr="44546A" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -573,7 +579,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -588,7 +594,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" fgClr="3F3F76" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" fgClr="3F3F76" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -603,7 +609,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" fgClr="006100" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" fgClr="006100" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -618,7 +624,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643199832" fgClr="9C0006" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" fgClr="9C0006" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -640,7 +646,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00FFE697" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00FFE697" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -654,7 +660,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -665,7 +671,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00EBEBEB" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00EBEBEB" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -676,7 +682,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00F8CAAB" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00F8CAAB" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -687,7 +693,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -698,7 +704,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00C5DFB3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00C5DFB3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -709,7 +715,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -723,7 +729,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00FFC000" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00FFC000" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -734,7 +740,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="004472C4" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="004472C4" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -748,7 +754,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="0070AD47" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="0070AD47" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -759,7 +765,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -770,7 +776,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -781,7 +787,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -795,7 +801,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00BDD7EE" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00BDD7EE" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -806,7 +812,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00C6EFCE" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00C6EFCE" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -817,7 +823,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -828,7 +834,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00FFEB9C" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00FFEB9C" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -839,7 +845,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00D9E1F2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00D9E1F2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -850,7 +856,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -861,7 +867,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00DDEBF7" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00DDEBF7" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -872,7 +878,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="009BC2E6" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="009BC2E6" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -883,7 +889,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00E1EFD8" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00E1EFD8" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -894,7 +900,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00ED7D31" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00ED7D31" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -905,7 +911,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00FBE3D5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00FBE3D5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -916,7 +922,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00F4AF82" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00F4AF82" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -927,7 +933,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00D9D9D9" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00D9D9D9" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -938,7 +944,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00C7C7C7" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00C7C7C7" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -949,7 +955,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00FFF2CA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00FFF2CA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -960,7 +966,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00FFD964" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00FFD964" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -971,7 +977,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00B4C6E7" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00B4C6E7" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -982,7 +988,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="008EA9DB" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="008EA9DB" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -993,7 +999,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00A8D08C" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00A8D08C" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1007,7 +1013,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1018,7 +1024,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643199832" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1040,7 +1046,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
+          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
         </ext>
       </extLst>
     </border>
@@ -1059,7 +1065,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
+          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
         </ext>
       </extLst>
     </border>
@@ -1078,7 +1084,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832">
+          <pm:border xmlns:pm="smNativeData" id="1643203916">
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="FF8001"/>
           </pm:border>
         </ext>
@@ -1099,7 +1105,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832">
+          <pm:border xmlns:pm="smNativeData" id="1643203916">
             <pm:line position="top" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -1123,7 +1129,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
+          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
         </ext>
       </extLst>
     </border>
@@ -1142,7 +1148,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
+          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
         </ext>
       </extLst>
     </border>
@@ -1161,7 +1167,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832">
+          <pm:border xmlns:pm="smNativeData" id="1643203916">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
@@ -1185,7 +1191,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
+          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
         </ext>
       </extLst>
     </border>
@@ -1204,7 +1210,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
+          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
         </ext>
       </extLst>
     </border>
@@ -1223,7 +1229,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832">
+          <pm:border xmlns:pm="smNativeData" id="1643203916">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="5B9BD5"/>
           </pm:border>
         </ext>
@@ -1244,7 +1250,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
+          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
         </ext>
       </extLst>
     </border>
@@ -1263,7 +1269,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
+          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
         </ext>
       </extLst>
     </border>
@@ -1282,7 +1288,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832">
+          <pm:border xmlns:pm="smNativeData" id="1643203916">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="ACCCEA"/>
           </pm:border>
         </ext>
@@ -1303,7 +1309,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
+          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
         </ext>
       </extLst>
     </border>
@@ -1322,7 +1328,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832">
+          <pm:border xmlns:pm="smNativeData" id="1643203916">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
@@ -1346,7 +1352,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832">
+          <pm:border xmlns:pm="smNativeData" id="1643203916">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -1370,7 +1376,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832">
+          <pm:border xmlns:pm="smNativeData" id="1643203916">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
@@ -1394,7 +1400,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832">
+          <pm:border xmlns:pm="smNativeData" id="1643203916">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="5B9BD5"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="5B9BD5"/>
           </pm:border>
@@ -1416,7 +1422,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
+          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
         </ext>
       </extLst>
     </border>
@@ -1435,7 +1441,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
+          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
         </ext>
       </extLst>
     </border>
@@ -1454,7 +1460,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
+          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
         </ext>
       </extLst>
     </border>
@@ -1473,7 +1479,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
+          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
         </ext>
       </extLst>
     </border>
@@ -1492,7 +1498,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
+          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
         </ext>
       </extLst>
     </border>
@@ -1511,7 +1517,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
+          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
         </ext>
       </extLst>
     </border>
@@ -1530,7 +1536,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
+          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
         </ext>
       </extLst>
     </border>
@@ -1549,7 +1555,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
+          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
         </ext>
       </extLst>
     </border>
@@ -1568,7 +1574,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
+          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
         </ext>
       </extLst>
     </border>
@@ -1587,7 +1593,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
+          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
         </ext>
       </extLst>
     </border>
@@ -1606,7 +1612,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
+          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
         </ext>
       </extLst>
     </border>
@@ -1625,7 +1631,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
+          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
         </ext>
       </extLst>
     </border>
@@ -1644,7 +1650,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
+          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
         </ext>
       </extLst>
     </border>
@@ -1663,7 +1669,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
+          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
         </ext>
       </extLst>
     </border>
@@ -1682,7 +1688,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
+          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
         </ext>
       </extLst>
     </border>
@@ -1701,7 +1707,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
+          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
         </ext>
       </extLst>
     </border>
@@ -1720,7 +1726,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
+          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
         </ext>
       </extLst>
     </border>
@@ -1739,7 +1745,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
+          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
         </ext>
       </extLst>
     </border>
@@ -1758,7 +1764,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
+          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
         </ext>
       </extLst>
     </border>
@@ -1777,7 +1783,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832">
+          <pm:border xmlns:pm="smNativeData" id="1643203916">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1801,7 +1807,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832">
+          <pm:border xmlns:pm="smNativeData" id="1643203916">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1825,7 +1831,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643199832"/>
+          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
         </ext>
       </extLst>
     </border>
@@ -2203,10 +2209,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1643199832" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1643203916" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1643199832" count="41">
+      <pm:colors xmlns:pm="smNativeData" id="1643203916" count="41">
         <pm:color name="Cor 24" rgb="FA7D00"/>
         <pm:color name="Cor 25" rgb="800080"/>
         <pm:color name="Cor 26" rgb="44546A"/>
@@ -2512,8 +2518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AJ28"/>
   <sheetViews>
-    <sheetView view="normal" topLeftCell="N4" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="Z4" zoomScale="90" workbookViewId="0">
+      <selection activeCell="AH29" sqref="AH29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.20"/>
@@ -2764,7 +2770,9 @@
       <c r="I5" s="55" t="n">
         <v>683.649999999999977</v>
       </c>
-      <c r="J5" s="55"/>
+      <c r="J5" s="55" t="n">
+        <v>707.340000000000032</v>
+      </c>
       <c r="K5" s="55"/>
       <c r="L5" s="55"/>
       <c r="N5" s="51" t="s">
@@ -2791,7 +2799,9 @@
       <c r="U5" s="55" t="n">
         <v>558</v>
       </c>
-      <c r="V5" s="55"/>
+      <c r="V5" s="55" t="n">
+        <v>582</v>
+      </c>
       <c r="W5" s="55"/>
       <c r="X5" s="55"/>
       <c r="Z5" s="51" t="s">
@@ -2818,7 +2828,9 @@
       <c r="AG5" s="55" t="n">
         <v>25126.8400000000001</v>
       </c>
-      <c r="AH5" s="55"/>
+      <c r="AH5" s="55" t="n">
+        <v>25126.8400000000001</v>
+      </c>
       <c r="AI5" s="55"/>
       <c r="AJ5" s="55"/>
     </row>
@@ -2862,7 +2874,9 @@
       <c r="U6" s="55" t="n">
         <v>9818.95000000000073</v>
       </c>
-      <c r="V6" s="55"/>
+      <c r="V6" s="55" t="n">
+        <v>10082.9699999999993</v>
+      </c>
       <c r="W6" s="55"/>
       <c r="X6" s="55"/>
       <c r="Z6" s="51" t="s">
@@ -2889,7 +2903,9 @@
       <c r="AG6" s="55" t="n">
         <v>7165.82999999999993</v>
       </c>
-      <c r="AH6" s="55"/>
+      <c r="AH6" s="55" t="n">
+        <v>7537.28999999999996</v>
+      </c>
       <c r="AI6" s="55"/>
       <c r="AJ6" s="55"/>
     </row>
@@ -2918,7 +2934,9 @@
       <c r="I7" s="55" t="n">
         <v>1373</v>
       </c>
-      <c r="J7" s="55"/>
+      <c r="J7" s="55" t="n">
+        <v>1373</v>
+      </c>
       <c r="K7" s="55"/>
       <c r="L7" s="55"/>
       <c r="N7" s="51" t="s">
@@ -2945,7 +2963,9 @@
       <c r="U7" s="55" t="n">
         <v>1404</v>
       </c>
-      <c r="V7" s="55"/>
+      <c r="V7" s="55" t="n">
+        <v>1356</v>
+      </c>
       <c r="W7" s="55"/>
       <c r="X7" s="55"/>
       <c r="Z7" s="51" t="s">
@@ -2972,7 +2992,9 @@
       <c r="AG7" s="55" t="n">
         <v>13755.2299999999996</v>
       </c>
-      <c r="AH7" s="55"/>
+      <c r="AH7" s="55" t="n">
+        <v>14065.4400000000005</v>
+      </c>
       <c r="AI7" s="55"/>
       <c r="AJ7" s="55"/>
     </row>
@@ -3001,7 +3023,9 @@
       <c r="I8" s="55" t="n">
         <v>4334</v>
       </c>
-      <c r="J8" s="55"/>
+      <c r="J8" s="55" t="n">
+        <v>4532</v>
+      </c>
       <c r="K8" s="55"/>
       <c r="L8" s="55"/>
       <c r="N8" s="51" t="s">
@@ -3043,7 +3067,9 @@
       <c r="AG8" s="55" t="n">
         <v>23341.4599999999991</v>
       </c>
-      <c r="AH8" s="55"/>
+      <c r="AH8" s="55" t="n">
+        <v>23147.119999999999</v>
+      </c>
       <c r="AI8" s="55"/>
       <c r="AJ8" s="55"/>
     </row>
@@ -3072,7 +3098,9 @@
       <c r="I9" s="55" t="n">
         <v>292</v>
       </c>
-      <c r="J9" s="55"/>
+      <c r="J9" s="55" t="n">
+        <v>292</v>
+      </c>
       <c r="K9" s="55"/>
       <c r="L9" s="55"/>
       <c r="N9" s="51" t="s">
@@ -3114,7 +3142,9 @@
       <c r="AG9" s="55" t="n">
         <v>12001.0300000000007</v>
       </c>
-      <c r="AH9" s="55"/>
+      <c r="AH9" s="55" t="n">
+        <v>11480.7299999999996</v>
+      </c>
       <c r="AI9" s="55"/>
       <c r="AJ9" s="55"/>
     </row>
@@ -3143,7 +3173,9 @@
       <c r="I10" s="55" t="n">
         <v>352</v>
       </c>
-      <c r="J10" s="55"/>
+      <c r="J10" s="55" t="n">
+        <v>352</v>
+      </c>
       <c r="K10" s="55"/>
       <c r="L10" s="55"/>
       <c r="N10" s="51" t="s">
@@ -3185,13 +3217,15 @@
       <c r="AG10" s="55" t="n">
         <v>15403.25</v>
       </c>
-      <c r="AH10" s="55"/>
+      <c r="AH10" s="55" t="s">
+        <v>28</v>
+      </c>
       <c r="AI10" s="55"/>
       <c r="AJ10" s="55"/>
     </row>
     <row r="11" spans="2:36">
       <c r="B11" s="50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="50" t="n">
         <v>13</v>
@@ -3214,11 +3248,13 @@
       <c r="I11" s="55" t="n">
         <v>556.809999999999945</v>
       </c>
-      <c r="J11" s="55"/>
+      <c r="J11" s="55" t="n">
+        <v>556.809999999999945</v>
+      </c>
       <c r="K11" s="55"/>
       <c r="L11" s="55"/>
       <c r="N11" s="51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="51" t="n">
         <v>107</v>
@@ -3233,7 +3269,7 @@
       <c r="W11" s="55"/>
       <c r="X11" s="55"/>
       <c r="Z11" s="51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA11" s="51" t="n">
         <v>56</v>
@@ -3256,13 +3292,15 @@
       <c r="AG11" s="55" t="n">
         <v>23231.1899999999987</v>
       </c>
-      <c r="AH11" s="55"/>
+      <c r="AH11" s="55" t="n">
+        <v>23231.1899999999987</v>
+      </c>
       <c r="AI11" s="55"/>
       <c r="AJ11" s="55"/>
     </row>
     <row r="12" spans="2:36">
       <c r="B12" s="50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="50" t="n">
         <v>31</v>
@@ -3285,11 +3323,13 @@
       <c r="I12" s="55" t="n">
         <v>11580.3199999999997</v>
       </c>
-      <c r="J12" s="55"/>
+      <c r="J12" s="55" t="n">
+        <v>12834.5799999999999</v>
+      </c>
       <c r="K12" s="55"/>
       <c r="L12" s="55"/>
       <c r="N12" s="51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="51" t="n">
         <v>166</v>
@@ -3304,7 +3344,7 @@
       <c r="W12" s="55"/>
       <c r="X12" s="55"/>
       <c r="Z12" s="51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AA12" s="51" t="n">
         <v>66</v>
@@ -3327,13 +3367,15 @@
       <c r="AG12" s="55" t="n">
         <v>8023.60999999999876</v>
       </c>
-      <c r="AH12" s="55"/>
+      <c r="AH12" s="55" t="n">
+        <v>8023.60999999999967</v>
+      </c>
       <c r="AI12" s="55"/>
       <c r="AJ12" s="55"/>
     </row>
     <row r="13" spans="2:36">
       <c r="B13" s="50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="50" t="n">
         <v>14</v>
@@ -3356,11 +3398,13 @@
       <c r="I13" s="55" t="n">
         <v>4607</v>
       </c>
-      <c r="J13" s="55"/>
+      <c r="J13" s="55" t="n">
+        <v>4607</v>
+      </c>
       <c r="K13" s="55"/>
       <c r="L13" s="55"/>
       <c r="N13" s="51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" s="51" t="n">
         <v>12</v>
@@ -3383,11 +3427,13 @@
       <c r="U13" s="55" t="n">
         <v>3155</v>
       </c>
-      <c r="V13" s="55"/>
+      <c r="V13" s="55" t="n">
+        <v>3155</v>
+      </c>
       <c r="W13" s="55"/>
       <c r="X13" s="55"/>
       <c r="Z13" s="51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA13" s="51" t="n">
         <v>74</v>
@@ -3410,13 +3456,15 @@
       <c r="AG13" s="55" t="n">
         <v>11699.6600000000017</v>
       </c>
-      <c r="AH13" s="55"/>
+      <c r="AH13" s="55" t="n">
+        <v>10546.9599999999991</v>
+      </c>
       <c r="AI13" s="55"/>
       <c r="AJ13" s="55"/>
     </row>
     <row r="14" spans="2:36">
       <c r="B14" s="50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="50" t="n">
         <v>45</v>
@@ -3439,11 +3487,13 @@
       <c r="I14" s="55" t="n">
         <v>480</v>
       </c>
-      <c r="J14" s="55"/>
+      <c r="J14" s="55" t="n">
+        <v>570</v>
+      </c>
       <c r="K14" s="55"/>
       <c r="L14" s="55"/>
       <c r="N14" s="51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O14" s="51" t="n">
         <v>25</v>
@@ -3466,11 +3516,13 @@
       <c r="U14" s="55" t="n">
         <v>4792.3100000000004</v>
       </c>
-      <c r="V14" s="55"/>
+      <c r="V14" s="55" t="n">
+        <v>4788.84000000000015</v>
+      </c>
       <c r="W14" s="55"/>
       <c r="X14" s="55"/>
       <c r="Z14" s="51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AA14" s="51" t="n">
         <v>109</v>
@@ -3493,13 +3545,15 @@
       <c r="AG14" s="55" t="n">
         <v>22573.2900000000009</v>
       </c>
-      <c r="AH14" s="55"/>
+      <c r="AH14" s="55" t="n">
+        <v>21586.4500000000007</v>
+      </c>
       <c r="AI14" s="55"/>
       <c r="AJ14" s="55"/>
     </row>
     <row r="15" spans="2:36">
       <c r="B15" s="50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="50" t="n">
         <v>3</v>
@@ -3522,11 +3576,13 @@
       <c r="I15" s="55" t="n">
         <v>249.879999999999995</v>
       </c>
-      <c r="J15" s="55"/>
+      <c r="J15" s="55" t="n">
+        <v>249.879999999999995</v>
+      </c>
       <c r="K15" s="55"/>
       <c r="L15" s="55"/>
       <c r="N15" s="51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O15" s="51" t="n">
         <v>37</v>
@@ -3549,11 +3605,13 @@
       <c r="U15" s="55" t="n">
         <v>7222.10000000000036</v>
       </c>
-      <c r="V15" s="55"/>
+      <c r="V15" s="55" t="n">
+        <v>7646.89999999999964</v>
+      </c>
       <c r="W15" s="55"/>
       <c r="X15" s="55"/>
       <c r="Z15" s="51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA15" s="51" t="n">
         <v>250</v>
@@ -3576,7 +3634,7 @@
     </row>
     <row r="16" spans="2:36">
       <c r="B16" s="50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="50" t="n">
         <v>32</v>
@@ -3599,11 +3657,13 @@
       <c r="I16" s="55" t="n">
         <v>1215.96000000000004</v>
       </c>
-      <c r="J16" s="55"/>
+      <c r="J16" s="55" t="n">
+        <v>1215.96000000000004</v>
+      </c>
       <c r="K16" s="55"/>
       <c r="L16" s="55"/>
       <c r="N16" s="51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O16" s="51" t="n">
         <v>50</v>
@@ -3626,11 +3686,13 @@
       <c r="U16" s="55" t="n">
         <v>6846.38000000000011</v>
       </c>
-      <c r="V16" s="55"/>
+      <c r="V16" s="55" t="n">
+        <v>6741.10999999999967</v>
+      </c>
       <c r="W16" s="55"/>
       <c r="X16" s="55"/>
       <c r="Z16" s="51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA16" s="51" t="n">
         <v>24</v>
@@ -3653,13 +3715,15 @@
       <c r="AG16" s="55" t="n">
         <v>306.990000000000009</v>
       </c>
-      <c r="AH16" s="55"/>
+      <c r="AH16" s="55" t="n">
+        <v>292.550000000000011</v>
+      </c>
       <c r="AI16" s="55"/>
       <c r="AJ16" s="55"/>
     </row>
     <row r="17" spans="2:36">
       <c r="B17" s="50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="50" t="n">
         <v>37</v>
@@ -3682,11 +3746,13 @@
       <c r="I17" s="55" t="n">
         <v>1381.34999999999991</v>
       </c>
-      <c r="J17" s="55"/>
+      <c r="J17" s="55" t="n">
+        <v>1245.96000000000004</v>
+      </c>
       <c r="K17" s="55"/>
       <c r="L17" s="55"/>
       <c r="N17" s="51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O17" s="51" t="n">
         <v>25</v>
@@ -3709,11 +3775,13 @@
       <c r="U17" s="55" t="n">
         <v>4469.8100000000004</v>
       </c>
-      <c r="V17" s="55"/>
+      <c r="V17" s="55" t="n">
+        <v>5384.90999999999985</v>
+      </c>
       <c r="W17" s="55"/>
       <c r="X17" s="55"/>
       <c r="Z17" s="51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AA17" s="51" t="n">
         <v>48</v>
@@ -3736,13 +3804,15 @@
       <c r="AG17" s="55" t="n">
         <v>593.080000000000041</v>
       </c>
-      <c r="AH17" s="55"/>
+      <c r="AH17" s="55" t="n">
+        <v>546.129999999999995</v>
+      </c>
       <c r="AI17" s="55"/>
       <c r="AJ17" s="55"/>
     </row>
     <row r="18" spans="2:36">
       <c r="B18" s="50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" s="50" t="n">
         <v>10</v>
@@ -3765,11 +3835,13 @@
       <c r="I18" s="55" t="n">
         <v>100</v>
       </c>
-      <c r="J18" s="55"/>
+      <c r="J18" s="55" t="n">
+        <v>100</v>
+      </c>
       <c r="K18" s="55"/>
       <c r="L18" s="55"/>
       <c r="N18" s="51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O18" s="51" t="n">
         <v>37</v>
@@ -3792,11 +3864,13 @@
       <c r="U18" s="55" t="n">
         <v>5396.32999999999993</v>
       </c>
-      <c r="V18" s="55"/>
+      <c r="V18" s="55" t="n">
+        <v>5396.32999999999993</v>
+      </c>
       <c r="W18" s="55"/>
       <c r="X18" s="55"/>
       <c r="Z18" s="51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AA18" s="51" t="n">
         <v>143</v>
@@ -3819,13 +3893,15 @@
       <c r="AG18" s="55" t="n">
         <v>1696.54999999999995</v>
       </c>
-      <c r="AH18" s="55"/>
+      <c r="AH18" s="55" t="n">
+        <v>1700.80999999999995</v>
+      </c>
       <c r="AI18" s="55"/>
       <c r="AJ18" s="55"/>
     </row>
     <row r="19" spans="2:36">
       <c r="B19" s="50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" s="50" t="n">
         <v>12</v>
@@ -3848,17 +3924,19 @@
       <c r="I19" s="55" t="n">
         <v>77.0400000000000063</v>
       </c>
-      <c r="J19" s="55"/>
+      <c r="J19" s="55" t="n">
+        <v>77.0400000000000063</v>
+      </c>
       <c r="K19" s="55"/>
       <c r="L19" s="55"/>
       <c r="N19" s="51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O19" s="51" t="n">
         <v>50</v>
       </c>
       <c r="P19" s="53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q19" s="53" t="n">
         <v>6789.90999999999985</v>
@@ -3875,11 +3953,13 @@
       <c r="U19" s="55" t="n">
         <v>8120.14000000000033</v>
       </c>
-      <c r="V19" s="55"/>
+      <c r="V19" s="55" t="n">
+        <v>7231.97999999999956</v>
+      </c>
       <c r="W19" s="55"/>
       <c r="X19" s="55"/>
       <c r="Z19" s="51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA19" s="51" t="n">
         <v>195</v>
@@ -3898,13 +3978,15 @@
       <c r="AG19" s="55" t="n">
         <v>2352.71000000000004</v>
       </c>
-      <c r="AH19" s="55"/>
+      <c r="AH19" s="55" t="n">
+        <v>2218.15999999999985</v>
+      </c>
       <c r="AI19" s="55"/>
       <c r="AJ19" s="55"/>
     </row>
     <row r="20" spans="2:36">
       <c r="B20" s="50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" s="50" t="n">
         <v>19</v>
@@ -3927,11 +4009,13 @@
       <c r="I20" s="55" t="n">
         <v>99.4500000000000028</v>
       </c>
-      <c r="J20" s="55"/>
+      <c r="J20" s="55" t="n">
+        <v>99.4500000000000028</v>
+      </c>
       <c r="K20" s="55"/>
       <c r="L20" s="55"/>
       <c r="N20" s="51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O20" s="51" t="n">
         <v>25</v>
@@ -3954,11 +4038,13 @@
       <c r="U20" s="55" t="n">
         <v>5775.96000000000004</v>
       </c>
-      <c r="V20" s="55"/>
+      <c r="V20" s="55" t="n">
+        <v>4293.02000000000044</v>
+      </c>
       <c r="W20" s="55"/>
       <c r="X20" s="55"/>
       <c r="Z20" s="51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA20" s="51" t="n">
         <v>43</v>
@@ -3981,13 +4067,15 @@
       <c r="AG20" s="55" t="n">
         <v>5476</v>
       </c>
-      <c r="AH20" s="55"/>
+      <c r="AH20" s="55" t="n">
+        <v>5420</v>
+      </c>
       <c r="AI20" s="55"/>
       <c r="AJ20" s="55"/>
     </row>
     <row r="21" spans="2:36">
       <c r="B21" s="50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" s="50" t="n">
         <v>25</v>
@@ -4010,11 +4098,13 @@
       <c r="I21" s="55" t="n">
         <v>132.75</v>
       </c>
-      <c r="J21" s="55"/>
+      <c r="J21" s="55" t="n">
+        <v>139.620000000000005</v>
+      </c>
       <c r="K21" s="55"/>
       <c r="L21" s="55"/>
       <c r="N21" s="51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O21" s="51" t="n">
         <v>25</v>
@@ -4037,11 +4127,13 @@
       <c r="U21" s="55" t="n">
         <v>5246.27999999999975</v>
       </c>
-      <c r="V21" s="55"/>
+      <c r="V21" s="55" t="n">
+        <v>5246.27999999999975</v>
+      </c>
       <c r="W21" s="55"/>
       <c r="X21" s="55"/>
       <c r="Z21" s="51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA21" s="51" t="n">
         <v>133</v>
@@ -4064,13 +4156,15 @@
       <c r="AG21" s="55" t="n">
         <v>12012</v>
       </c>
-      <c r="AH21" s="55"/>
+      <c r="AH21" s="55" t="n">
+        <v>12196</v>
+      </c>
       <c r="AI21" s="55"/>
       <c r="AJ21" s="55"/>
     </row>
     <row r="22" spans="2:36">
       <c r="B22" s="50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C22" s="50" t="n">
         <v>6</v>
@@ -4093,11 +4187,13 @@
       <c r="I22" s="55" t="n">
         <v>147</v>
       </c>
-      <c r="J22" s="55"/>
+      <c r="J22" s="55" t="n">
+        <v>147</v>
+      </c>
       <c r="K22" s="55"/>
       <c r="L22" s="55"/>
       <c r="N22" s="51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O22" s="51" t="n">
         <v>25</v>
@@ -4120,11 +4216,13 @@
       <c r="U22" s="55" t="n">
         <v>3842.76000000000022</v>
       </c>
-      <c r="V22" s="55"/>
+      <c r="V22" s="55" t="n">
+        <v>3919.57999999999993</v>
+      </c>
       <c r="W22" s="55"/>
       <c r="X22" s="55"/>
       <c r="Z22" s="51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AA22" s="51" t="n">
         <v>258</v>
@@ -4151,7 +4249,7 @@
     </row>
     <row r="23" spans="2:36">
       <c r="B23" s="50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C23" s="50" t="n">
         <v>65</v>
@@ -4174,11 +4272,13 @@
       <c r="I23" s="55" t="n">
         <v>652.590000000000032</v>
       </c>
-      <c r="J23" s="55"/>
+      <c r="J23" s="55" t="n">
+        <v>655.799999999999955</v>
+      </c>
       <c r="K23" s="55"/>
       <c r="L23" s="55"/>
       <c r="N23" s="51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O23" s="51" t="n">
         <v>26</v>
@@ -4201,11 +4301,13 @@
       <c r="U23" s="55" t="n">
         <v>2033.3599999999999</v>
       </c>
-      <c r="V23" s="55"/>
+      <c r="V23" s="55" t="n">
+        <v>2002.98000000000002</v>
+      </c>
       <c r="W23" s="55"/>
       <c r="X23" s="55"/>
       <c r="Z23" s="50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA23" s="50" t="n">
         <v>17</v>
@@ -4228,13 +4330,15 @@
       <c r="AG23" s="55" t="n">
         <v>127.180000000000007</v>
       </c>
-      <c r="AH23" s="55"/>
+      <c r="AH23" s="55" t="n">
+        <v>127.180000000000007</v>
+      </c>
       <c r="AI23" s="55"/>
       <c r="AJ23" s="55"/>
     </row>
     <row r="24" spans="2:36">
       <c r="B24" s="50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" s="50" t="n">
         <v>4</v>
@@ -4257,11 +4361,13 @@
       <c r="I24" s="55" t="n">
         <v>154</v>
       </c>
-      <c r="J24" s="55"/>
+      <c r="J24" s="55" t="n">
+        <v>154</v>
+      </c>
       <c r="K24" s="55"/>
       <c r="L24" s="55"/>
       <c r="N24" s="51" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O24" s="51" t="n">
         <v>79</v>
@@ -4284,11 +4390,13 @@
       <c r="U24" s="55" t="n">
         <v>8969.48999999999796</v>
       </c>
-      <c r="V24" s="55"/>
+      <c r="V24" s="55" t="n">
+        <v>9406.35000000000036</v>
+      </c>
       <c r="W24" s="55"/>
       <c r="X24" s="55"/>
       <c r="Z24" s="51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA24" s="51" t="n">
         <v>10</v>
@@ -4311,13 +4419,15 @@
       <c r="AG24" s="55" t="n">
         <v>146</v>
       </c>
-      <c r="AH24" s="55"/>
+      <c r="AH24" s="55" t="n">
+        <v>146</v>
+      </c>
       <c r="AI24" s="55"/>
       <c r="AJ24" s="55"/>
     </row>
     <row r="25" spans="2:36">
       <c r="B25" s="50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C25" s="50" t="n">
         <v>5</v>
@@ -4340,11 +4450,13 @@
       <c r="I25" s="55" t="n">
         <v>248</v>
       </c>
-      <c r="J25" s="55"/>
+      <c r="J25" s="55" t="n">
+        <v>248</v>
+      </c>
       <c r="K25" s="55"/>
       <c r="L25" s="55"/>
       <c r="N25" s="51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O25" s="51" t="n">
         <v>344</v>
@@ -4365,7 +4477,7 @@
       <c r="W25" s="55"/>
       <c r="X25" s="55"/>
       <c r="Z25" s="51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA25" s="51" t="n">
         <v>56</v>
@@ -4388,13 +4500,15 @@
       <c r="AG25" s="55" t="n">
         <v>27500</v>
       </c>
-      <c r="AH25" s="55"/>
+      <c r="AH25" s="55" t="n">
+        <v>27500</v>
+      </c>
       <c r="AI25" s="55"/>
       <c r="AJ25" s="55"/>
     </row>
     <row r="26" spans="2:36">
       <c r="B26" s="50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C26" s="50" t="n">
         <v>6</v>
@@ -4417,11 +4531,13 @@
       <c r="I26" s="55" t="n">
         <v>162</v>
       </c>
-      <c r="J26" s="55"/>
+      <c r="J26" s="55" t="n">
+        <v>162</v>
+      </c>
       <c r="K26" s="55"/>
       <c r="L26" s="55"/>
       <c r="N26" s="51" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O26" s="51" t="n">
         <v>140</v>
@@ -4444,11 +4560,13 @@
       <c r="U26" s="55" t="n">
         <v>535</v>
       </c>
-      <c r="V26" s="55"/>
+      <c r="V26" s="55" t="n">
+        <v>640</v>
+      </c>
       <c r="W26" s="55"/>
       <c r="X26" s="55"/>
       <c r="Z26" s="51" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA26" s="51" t="n">
         <v>56</v>
@@ -4471,13 +4589,15 @@
       <c r="AG26" s="55" t="n">
         <v>1038.02999999999997</v>
       </c>
-      <c r="AH26" s="55"/>
+      <c r="AH26" s="55" t="n">
+        <v>1094.8900000000001</v>
+      </c>
       <c r="AI26" s="55"/>
       <c r="AJ26" s="55"/>
     </row>
     <row r="27" spans="26:36">
       <c r="Z27" s="50" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA27" s="50" t="n">
         <v>4</v>
@@ -4500,13 +4620,15 @@
       <c r="AG27" s="55" t="n">
         <v>751.059999999999832</v>
       </c>
-      <c r="AH27" s="55"/>
+      <c r="AH27" s="55" t="n">
+        <v>751.059999999999945</v>
+      </c>
       <c r="AI27" s="55"/>
       <c r="AJ27" s="55"/>
     </row>
     <row r="28" spans="26:36">
       <c r="Z28" s="50" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA28" s="50" t="n">
         <v>5</v>
@@ -4529,7 +4651,9 @@
       <c r="AG28" s="55" t="n">
         <v>456.579999999999984</v>
       </c>
-      <c r="AH28" s="55"/>
+      <c r="AH28" s="55" t="n">
+        <v>456.579999999999984</v>
+      </c>
       <c r="AI28" s="55"/>
       <c r="AJ28" s="55"/>
     </row>
@@ -4551,7 +4675,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1643199832" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1643203916" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4560,16 +4684,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1643199832" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1643199832" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1643199832" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1643199832" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1643203916" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1643203916" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1643203916" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1643203916" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1643199832" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1643203916" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -4582,8 +4706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AJ28"/>
   <sheetViews>
-    <sheetView view="normal" topLeftCell="AC4" workbookViewId="0">
-      <selection activeCell="Z29" sqref="Z29"/>
+    <sheetView view="normal" topLeftCell="Z4" zoomScale="90" workbookViewId="0">
+      <selection activeCell="AH28" sqref="AH28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.20"/>
@@ -4645,7 +4769,7 @@
     <row r="3" spans="2:36">
       <c r="B3" s="51"/>
       <c r="C3" s="51" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D3" s="49" t="s">
         <v>2</v>
@@ -4664,7 +4788,7 @@
       <c r="L3" s="49"/>
       <c r="N3" s="51"/>
       <c r="O3" s="51" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P3" s="49" t="s">
         <v>2</v>
@@ -4683,7 +4807,7 @@
       <c r="X3" s="49"/>
       <c r="Z3" s="51"/>
       <c r="AA3" s="51" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB3" s="49" t="s">
         <v>2</v>
@@ -4827,7 +4951,9 @@
       <c r="I5" s="55" t="n">
         <v>1425.65000000000009</v>
       </c>
-      <c r="J5" s="55"/>
+      <c r="J5" s="55" t="n">
+        <v>1328.53999999999996</v>
+      </c>
       <c r="K5" s="55"/>
       <c r="L5" s="55"/>
       <c r="N5" s="51" t="s">
@@ -4854,7 +4980,9 @@
       <c r="U5" s="55" t="n">
         <v>1691</v>
       </c>
-      <c r="V5" s="55"/>
+      <c r="V5" s="55" t="n">
+        <v>1691</v>
+      </c>
       <c r="W5" s="55"/>
       <c r="X5" s="55"/>
       <c r="Z5" s="51" t="s">
@@ -4881,7 +5009,9 @@
       <c r="AG5" s="55" t="n">
         <v>44106.739999999998</v>
       </c>
-      <c r="AH5" s="55"/>
+      <c r="AH5" s="55" t="n">
+        <v>44106.739999999998</v>
+      </c>
       <c r="AI5" s="55"/>
       <c r="AJ5" s="55"/>
     </row>
@@ -4925,7 +5055,9 @@
       <c r="U6" s="55" t="n">
         <v>22425.0299999999988</v>
       </c>
-      <c r="V6" s="55"/>
+      <c r="V6" s="55" t="n">
+        <v>26964.5200000000004</v>
+      </c>
       <c r="W6" s="55"/>
       <c r="X6" s="55"/>
       <c r="Z6" s="51" t="s">
@@ -4952,7 +5084,9 @@
       <c r="AG6" s="55" t="n">
         <v>15274.4300000000003</v>
       </c>
-      <c r="AH6" s="55"/>
+      <c r="AH6" s="55" t="n">
+        <v>16472.9799999999996</v>
+      </c>
       <c r="AI6" s="55"/>
       <c r="AJ6" s="55"/>
     </row>
@@ -4981,7 +5115,9 @@
       <c r="I7" s="55" t="n">
         <v>3674</v>
       </c>
-      <c r="J7" s="55"/>
+      <c r="J7" s="55" t="n">
+        <v>3674</v>
+      </c>
       <c r="K7" s="55"/>
       <c r="L7" s="55"/>
       <c r="N7" s="51" t="s">
@@ -5008,7 +5144,9 @@
       <c r="U7" s="55" t="n">
         <v>3062</v>
       </c>
-      <c r="V7" s="55"/>
+      <c r="V7" s="55" t="n">
+        <v>2950</v>
+      </c>
       <c r="W7" s="55"/>
       <c r="X7" s="55"/>
       <c r="Z7" s="51" t="s">
@@ -5035,7 +5173,9 @@
       <c r="AG7" s="55" t="n">
         <v>22298.2299999999996</v>
       </c>
-      <c r="AH7" s="55"/>
+      <c r="AH7" s="55" t="n">
+        <v>21887.8899999999994</v>
+      </c>
       <c r="AI7" s="55"/>
       <c r="AJ7" s="55"/>
     </row>
@@ -5064,7 +5204,9 @@
       <c r="I8" s="55" t="n">
         <v>9700</v>
       </c>
-      <c r="J8" s="55"/>
+      <c r="J8" s="55" t="n">
+        <v>11824</v>
+      </c>
       <c r="K8" s="55"/>
       <c r="L8" s="55"/>
       <c r="N8" s="51" t="s">
@@ -5106,7 +5248,9 @@
       <c r="AG8" s="55" t="n">
         <v>49348.6699999999983</v>
       </c>
-      <c r="AH8" s="55"/>
+      <c r="AH8" s="55" t="n">
+        <v>48383.8099999999977</v>
+      </c>
       <c r="AI8" s="55"/>
       <c r="AJ8" s="55"/>
     </row>
@@ -5135,7 +5279,9 @@
       <c r="I9" s="55" t="n">
         <v>581</v>
       </c>
-      <c r="J9" s="55"/>
+      <c r="J9" s="55" t="n">
+        <v>581</v>
+      </c>
       <c r="K9" s="55"/>
       <c r="L9" s="55"/>
       <c r="N9" s="51" t="s">
@@ -5177,7 +5323,9 @@
       <c r="AG9" s="55" t="n">
         <v>28343.3400000000001</v>
       </c>
-      <c r="AH9" s="55"/>
+      <c r="AH9" s="55" t="n">
+        <v>26341.8199999999997</v>
+      </c>
       <c r="AI9" s="55"/>
       <c r="AJ9" s="55"/>
     </row>
@@ -5206,7 +5354,9 @@
       <c r="I10" s="55" t="n">
         <v>818</v>
       </c>
-      <c r="J10" s="55"/>
+      <c r="J10" s="55" t="n">
+        <v>818</v>
+      </c>
       <c r="K10" s="55"/>
       <c r="L10" s="55"/>
       <c r="N10" s="51" t="s">
@@ -5248,13 +5398,15 @@
       <c r="AG10" s="55" t="n">
         <v>34036.7300000000032</v>
       </c>
-      <c r="AH10" s="55"/>
+      <c r="AH10" s="55" t="n">
+        <v>34036.7300000000032</v>
+      </c>
       <c r="AI10" s="55"/>
       <c r="AJ10" s="55"/>
     </row>
     <row r="11" spans="2:36">
       <c r="B11" s="50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="50" t="n">
         <v>26</v>
@@ -5277,11 +5429,13 @@
       <c r="I11" s="55" t="n">
         <v>1813.95000000000005</v>
       </c>
-      <c r="J11" s="55"/>
+      <c r="J11" s="55" t="n">
+        <v>1813.95000000000005</v>
+      </c>
       <c r="K11" s="55"/>
       <c r="L11" s="55"/>
       <c r="N11" s="51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="51" t="n">
         <v>215</v>
@@ -5296,7 +5450,7 @@
       <c r="W11" s="55"/>
       <c r="X11" s="55"/>
       <c r="Z11" s="51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA11" s="51" t="n">
         <v>113</v>
@@ -5319,13 +5473,15 @@
       <c r="AG11" s="55" t="n">
         <v>52534.3300000000017</v>
       </c>
-      <c r="AH11" s="55"/>
+      <c r="AH11" s="55" t="n">
+        <v>52927.2699999999968</v>
+      </c>
       <c r="AI11" s="55"/>
       <c r="AJ11" s="55"/>
     </row>
     <row r="12" spans="2:36">
       <c r="B12" s="50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="50" t="n">
         <v>63</v>
@@ -5348,11 +5504,13 @@
       <c r="I12" s="55" t="n">
         <v>29059.75</v>
       </c>
-      <c r="J12" s="55"/>
+      <c r="J12" s="55" t="n">
+        <v>27954.9900000000016</v>
+      </c>
       <c r="K12" s="55"/>
       <c r="L12" s="55"/>
       <c r="N12" s="51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="51" t="n">
         <v>333</v>
@@ -5367,7 +5525,7 @@
       <c r="W12" s="55"/>
       <c r="X12" s="55"/>
       <c r="Z12" s="51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AA12" s="51" t="n">
         <v>132</v>
@@ -5390,13 +5548,15 @@
       <c r="AG12" s="55" t="n">
         <v>21514.7599999999984</v>
       </c>
-      <c r="AH12" s="55"/>
+      <c r="AH12" s="55" t="n">
+        <v>21495.7599999999984</v>
+      </c>
       <c r="AI12" s="55"/>
       <c r="AJ12" s="55"/>
     </row>
     <row r="13" spans="2:36">
       <c r="B13" s="50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="50" t="n">
         <v>29</v>
@@ -5419,11 +5579,13 @@
       <c r="I13" s="55" t="n">
         <v>9455</v>
       </c>
-      <c r="J13" s="55"/>
+      <c r="J13" s="55" t="n">
+        <v>9812</v>
+      </c>
       <c r="K13" s="55"/>
       <c r="L13" s="55"/>
       <c r="N13" s="51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" s="51" t="n">
         <v>24</v>
@@ -5446,11 +5608,13 @@
       <c r="U13" s="55" t="n">
         <v>5381</v>
       </c>
-      <c r="V13" s="55"/>
+      <c r="V13" s="55" t="n">
+        <v>6289</v>
+      </c>
       <c r="W13" s="55"/>
       <c r="X13" s="55"/>
       <c r="Z13" s="51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA13" s="51" t="n">
         <v>149</v>
@@ -5473,13 +5637,15 @@
       <c r="AG13" s="55" t="n">
         <v>24326.7099999999991</v>
       </c>
-      <c r="AH13" s="55"/>
+      <c r="AH13" s="55" t="n">
+        <v>24783.4700000000012</v>
+      </c>
       <c r="AI13" s="55"/>
       <c r="AJ13" s="55"/>
     </row>
     <row r="14" spans="2:36">
       <c r="B14" s="50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="50" t="n">
         <v>90</v>
@@ -5502,11 +5668,13 @@
       <c r="I14" s="55" t="n">
         <v>980</v>
       </c>
-      <c r="J14" s="55"/>
+      <c r="J14" s="55" t="n">
+        <v>1090</v>
+      </c>
       <c r="K14" s="55"/>
       <c r="L14" s="55"/>
       <c r="N14" s="51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O14" s="51" t="n">
         <v>50</v>
@@ -5529,11 +5697,13 @@
       <c r="U14" s="55" t="n">
         <v>9744.28000000000065</v>
       </c>
-      <c r="V14" s="55"/>
+      <c r="V14" s="55" t="n">
+        <v>10444.8999999999996</v>
+      </c>
       <c r="W14" s="55"/>
       <c r="X14" s="55"/>
       <c r="Z14" s="51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AA14" s="51" t="n">
         <v>219</v>
@@ -5556,13 +5726,15 @@
       <c r="AG14" s="55" t="n">
         <v>42428.8499999999985</v>
       </c>
-      <c r="AH14" s="55"/>
+      <c r="AH14" s="55" t="n">
+        <v>42621.9499999999971</v>
+      </c>
       <c r="AI14" s="55"/>
       <c r="AJ14" s="55"/>
     </row>
     <row r="15" spans="2:36">
       <c r="B15" s="50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="50" t="n">
         <v>7</v>
@@ -5585,11 +5757,13 @@
       <c r="I15" s="55" t="n">
         <v>1339.11999999999989</v>
       </c>
-      <c r="J15" s="55"/>
+      <c r="J15" s="55" t="n">
+        <v>1339.11999999999989</v>
+      </c>
       <c r="K15" s="55"/>
       <c r="L15" s="55"/>
       <c r="N15" s="51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O15" s="51" t="n">
         <v>75</v>
@@ -5612,11 +5786,13 @@
       <c r="U15" s="55" t="n">
         <v>14150.0800000000017</v>
       </c>
-      <c r="V15" s="55"/>
+      <c r="V15" s="55" t="n">
+        <v>13836.7999999999993</v>
+      </c>
       <c r="W15" s="55"/>
       <c r="X15" s="55"/>
       <c r="Z15" s="51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA15" s="51" t="n">
         <v>501</v>
@@ -5639,7 +5815,7 @@
     </row>
     <row r="16" spans="2:36">
       <c r="B16" s="50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="50" t="n">
         <v>65</v>
@@ -5662,11 +5838,13 @@
       <c r="I16" s="55" t="n">
         <v>2726.80000000000018</v>
       </c>
-      <c r="J16" s="55"/>
+      <c r="J16" s="55" t="n">
+        <v>2565.23000000000002</v>
+      </c>
       <c r="K16" s="55"/>
       <c r="L16" s="55"/>
       <c r="N16" s="51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O16" s="51" t="n">
         <v>100</v>
@@ -5689,11 +5867,13 @@
       <c r="U16" s="55" t="n">
         <v>15446.0200000000004</v>
       </c>
-      <c r="V16" s="55"/>
+      <c r="V16" s="55" t="n">
+        <v>15428.7999999999993</v>
+      </c>
       <c r="W16" s="55"/>
       <c r="X16" s="55"/>
       <c r="Z16" s="51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA16" s="51" t="n">
         <v>49</v>
@@ -5716,13 +5896,15 @@
       <c r="AG16" s="55" t="n">
         <v>599.440000000000168</v>
       </c>
-      <c r="AH16" s="55"/>
+      <c r="AH16" s="55" t="n">
+        <v>600.549999999999955</v>
+      </c>
       <c r="AI16" s="55"/>
       <c r="AJ16" s="55"/>
     </row>
     <row r="17" spans="2:36">
       <c r="B17" s="50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="50" t="n">
         <v>75</v>
@@ -5745,11 +5927,13 @@
       <c r="I17" s="55" t="n">
         <v>3345.19999999999982</v>
       </c>
-      <c r="J17" s="55"/>
+      <c r="J17" s="55" t="n">
+        <v>3089.53999999999996</v>
+      </c>
       <c r="K17" s="55"/>
       <c r="L17" s="55"/>
       <c r="N17" s="51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O17" s="51" t="n">
         <v>50</v>
@@ -5772,11 +5956,13 @@
       <c r="U17" s="55" t="n">
         <v>11037.6000000000004</v>
       </c>
-      <c r="V17" s="55"/>
+      <c r="V17" s="55" t="n">
+        <v>10913.6100000000006</v>
+      </c>
       <c r="W17" s="55"/>
       <c r="X17" s="55"/>
       <c r="Z17" s="51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AA17" s="51" t="n">
         <v>97</v>
@@ -5799,13 +5985,15 @@
       <c r="AG17" s="55" t="n">
         <v>1253.26999999999998</v>
       </c>
-      <c r="AH17" s="55"/>
+      <c r="AH17" s="55" t="n">
+        <v>1158.97000000000003</v>
+      </c>
       <c r="AI17" s="55"/>
       <c r="AJ17" s="55"/>
     </row>
     <row r="18" spans="2:36">
       <c r="B18" s="50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" s="50" t="n">
         <v>21</v>
@@ -5828,11 +6016,13 @@
       <c r="I18" s="55" t="n">
         <v>248</v>
       </c>
-      <c r="J18" s="55"/>
+      <c r="J18" s="55" t="n">
+        <v>248</v>
+      </c>
       <c r="K18" s="55"/>
       <c r="L18" s="55"/>
       <c r="N18" s="51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O18" s="51" t="n">
         <v>75</v>
@@ -5855,11 +6045,13 @@
       <c r="U18" s="55" t="n">
         <v>12931.0400000000009</v>
       </c>
-      <c r="V18" s="55"/>
+      <c r="V18" s="55" t="n">
+        <v>11828.9599999999991</v>
+      </c>
       <c r="W18" s="55"/>
       <c r="X18" s="55"/>
       <c r="Z18" s="51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AA18" s="51" t="n">
         <v>287</v>
@@ -5882,13 +6074,15 @@
       <c r="AG18" s="55" t="n">
         <v>3569.88000000000011</v>
       </c>
-      <c r="AH18" s="55"/>
+      <c r="AH18" s="55" t="n">
+        <v>3574.94999999999982</v>
+      </c>
       <c r="AI18" s="55"/>
       <c r="AJ18" s="55"/>
     </row>
     <row r="19" spans="2:36">
       <c r="B19" s="50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" s="50" t="n">
         <v>25</v>
@@ -5911,11 +6105,13 @@
       <c r="I19" s="55" t="n">
         <v>190.340000000000003</v>
       </c>
-      <c r="J19" s="55"/>
+      <c r="J19" s="55" t="n">
+        <v>190.340000000000003</v>
+      </c>
       <c r="K19" s="55"/>
       <c r="L19" s="55"/>
       <c r="N19" s="51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O19" s="51" t="n">
         <v>100</v>
@@ -5938,11 +6134,13 @@
       <c r="U19" s="55" t="n">
         <v>16340.7299999999996</v>
       </c>
-      <c r="V19" s="55"/>
+      <c r="V19" s="55" t="n">
+        <v>15996.6100000000006</v>
+      </c>
       <c r="W19" s="55"/>
       <c r="X19" s="55"/>
       <c r="Z19" s="51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA19" s="51" t="n">
         <v>391</v>
@@ -5965,7 +6163,7 @@
     </row>
     <row r="20" spans="2:36">
       <c r="B20" s="50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" s="50" t="n">
         <v>38</v>
@@ -5988,11 +6186,13 @@
       <c r="I20" s="55" t="n">
         <v>240.5</v>
       </c>
-      <c r="J20" s="55"/>
+      <c r="J20" s="55" t="n">
+        <v>224.719999999999999</v>
+      </c>
       <c r="K20" s="55"/>
       <c r="L20" s="55"/>
       <c r="N20" s="51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O20" s="51" t="n">
         <v>50</v>
@@ -6015,11 +6215,13 @@
       <c r="U20" s="55" t="n">
         <v>11626.2099999999991</v>
       </c>
-      <c r="V20" s="55"/>
+      <c r="V20" s="55" t="n">
+        <v>10824.7399999999998</v>
+      </c>
       <c r="W20" s="55"/>
       <c r="X20" s="55"/>
       <c r="Z20" s="51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA20" s="51" t="n">
         <v>87</v>
@@ -6042,13 +6244,15 @@
       <c r="AG20" s="55" t="n">
         <v>10488</v>
       </c>
-      <c r="AH20" s="55"/>
+      <c r="AH20" s="55" t="n">
+        <v>10384</v>
+      </c>
       <c r="AI20" s="55"/>
       <c r="AJ20" s="55"/>
     </row>
     <row r="21" spans="2:36">
       <c r="B21" s="50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" s="50" t="n">
         <v>50</v>
@@ -6071,11 +6275,13 @@
       <c r="I21" s="55" t="n">
         <v>266.889999999999986</v>
       </c>
-      <c r="J21" s="55"/>
+      <c r="J21" s="55" t="n">
+        <v>313.779999999999973</v>
+      </c>
       <c r="K21" s="55"/>
       <c r="L21" s="55"/>
       <c r="N21" s="51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O21" s="51" t="n">
         <v>50</v>
@@ -6098,11 +6304,13 @@
       <c r="U21" s="55" t="n">
         <v>11210.2600000000002</v>
       </c>
-      <c r="V21" s="55"/>
+      <c r="V21" s="55" t="n">
+        <v>11197.7299999999996</v>
+      </c>
       <c r="W21" s="55"/>
       <c r="X21" s="55"/>
       <c r="Z21" s="51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA21" s="51" t="n">
         <v>267</v>
@@ -6125,13 +6333,15 @@
       <c r="AG21" s="55" t="n">
         <v>23179</v>
       </c>
-      <c r="AH21" s="55"/>
+      <c r="AH21" s="55" t="n">
+        <v>23486</v>
+      </c>
       <c r="AI21" s="55"/>
       <c r="AJ21" s="55"/>
     </row>
     <row r="22" spans="2:36">
       <c r="B22" s="50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C22" s="50" t="n">
         <v>13</v>
@@ -6154,11 +6364,13 @@
       <c r="I22" s="55" t="n">
         <v>391</v>
       </c>
-      <c r="J22" s="55"/>
+      <c r="J22" s="55" t="n">
+        <v>391</v>
+      </c>
       <c r="K22" s="55"/>
       <c r="L22" s="55"/>
       <c r="N22" s="51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O22" s="51" t="n">
         <v>50</v>
@@ -6181,11 +6393,13 @@
       <c r="U22" s="55" t="n">
         <v>9883.1299999999992</v>
       </c>
-      <c r="V22" s="55"/>
+      <c r="V22" s="55" t="n">
+        <v>9449.57999999999993</v>
+      </c>
       <c r="W22" s="55"/>
       <c r="X22" s="55"/>
       <c r="Z22" s="51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AA22" s="51" t="n">
         <v>516</v>
@@ -6208,7 +6422,7 @@
     </row>
     <row r="23" spans="2:36">
       <c r="B23" s="50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C23" s="50" t="n">
         <v>131</v>
@@ -6231,11 +6445,13 @@
       <c r="I23" s="55" t="n">
         <v>1350.29999999999995</v>
       </c>
-      <c r="J23" s="55"/>
+      <c r="J23" s="55" t="n">
+        <v>1205.59999999999991</v>
+      </c>
       <c r="K23" s="55"/>
       <c r="L23" s="55"/>
       <c r="N23" s="51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O23" s="51" t="n">
         <v>52</v>
@@ -6258,11 +6474,13 @@
       <c r="U23" s="55" t="n">
         <v>5255.48999999999978</v>
       </c>
-      <c r="V23" s="55"/>
+      <c r="V23" s="55" t="n">
+        <v>5838.61999999999989</v>
+      </c>
       <c r="W23" s="55"/>
       <c r="X23" s="55"/>
       <c r="Z23" s="50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA23" s="50" t="n">
         <v>35</v>
@@ -6285,13 +6503,15 @@
       <c r="AG23" s="55" t="n">
         <v>248.689999999999998</v>
       </c>
-      <c r="AH23" s="55"/>
+      <c r="AH23" s="55" t="n">
+        <v>282.180000000000007</v>
+      </c>
       <c r="AI23" s="55"/>
       <c r="AJ23" s="55"/>
     </row>
     <row r="24" spans="2:36">
       <c r="B24" s="50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" s="50" t="n">
         <v>8</v>
@@ -6314,11 +6534,13 @@
       <c r="I24" s="55" t="n">
         <v>426</v>
       </c>
-      <c r="J24" s="55"/>
+      <c r="J24" s="55" t="n">
+        <v>359</v>
+      </c>
       <c r="K24" s="55"/>
       <c r="L24" s="55"/>
       <c r="N24" s="51" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O24" s="51" t="n">
         <v>159</v>
@@ -6341,11 +6563,13 @@
       <c r="U24" s="55" t="n">
         <v>20147.5999999999985</v>
       </c>
-      <c r="V24" s="55"/>
+      <c r="V24" s="55" t="n">
+        <v>21122.4700000000012</v>
+      </c>
       <c r="W24" s="55"/>
       <c r="X24" s="55"/>
       <c r="Z24" s="51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA24" s="51" t="n">
         <v>21</v>
@@ -6368,13 +6592,15 @@
       <c r="AG24" s="55" t="n">
         <v>425</v>
       </c>
-      <c r="AH24" s="55"/>
+      <c r="AH24" s="55" t="n">
+        <v>485</v>
+      </c>
       <c r="AI24" s="55"/>
       <c r="AJ24" s="55"/>
     </row>
     <row r="25" spans="2:36">
       <c r="B25" s="50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C25" s="50" t="n">
         <v>10</v>
@@ -6397,11 +6623,13 @@
       <c r="I25" s="55" t="n">
         <v>683</v>
       </c>
-      <c r="J25" s="55"/>
+      <c r="J25" s="55" t="n">
+        <v>732</v>
+      </c>
       <c r="K25" s="55"/>
       <c r="L25" s="55"/>
       <c r="N25" s="51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O25" s="51" t="n">
         <v>689</v>
@@ -6422,7 +6650,7 @@
       <c r="W25" s="55"/>
       <c r="X25" s="55"/>
       <c r="Z25" s="51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA25" s="51" t="n">
         <v>112</v>
@@ -6445,13 +6673,15 @@
       <c r="AG25" s="55" t="n">
         <v>69730.6699999999983</v>
       </c>
-      <c r="AH25" s="55"/>
+      <c r="AH25" s="55" t="n">
+        <v>73643.8600000000006</v>
+      </c>
       <c r="AI25" s="55"/>
       <c r="AJ25" s="55"/>
     </row>
     <row r="26" spans="2:36">
       <c r="B26" s="50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C26" s="50" t="n">
         <v>12</v>
@@ -6474,11 +6704,13 @@
       <c r="I26" s="55" t="n">
         <v>413</v>
       </c>
-      <c r="J26" s="55"/>
+      <c r="J26" s="55" t="n">
+        <v>413</v>
+      </c>
       <c r="K26" s="55"/>
       <c r="L26" s="55"/>
       <c r="N26" s="51" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O26" s="51" t="n">
         <v>280</v>
@@ -6501,11 +6733,13 @@
       <c r="U26" s="55" t="n">
         <v>1161</v>
       </c>
-      <c r="V26" s="55"/>
+      <c r="V26" s="55" t="n">
+        <v>1298</v>
+      </c>
       <c r="W26" s="55"/>
       <c r="X26" s="55"/>
       <c r="Z26" s="51" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA26" s="51" t="n">
         <v>112</v>
@@ -6526,15 +6760,17 @@
         <v>2049.57000000000016</v>
       </c>
       <c r="AG26" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH26" s="55"/>
+        <v>81</v>
+      </c>
+      <c r="AH26" s="55" t="n">
+        <v>2166.09999999999991</v>
+      </c>
       <c r="AI26" s="55"/>
       <c r="AJ26" s="55"/>
     </row>
     <row r="27" spans="26:36">
       <c r="Z27" s="50" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA27" s="50" t="n">
         <v>8</v>
@@ -6555,15 +6791,17 @@
         <v>1981.15000000000009</v>
       </c>
       <c r="AG27" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH27" s="55"/>
+        <v>82</v>
+      </c>
+      <c r="AH27" s="55" t="n">
+        <v>1981.15000000000009</v>
+      </c>
       <c r="AI27" s="55"/>
       <c r="AJ27" s="55"/>
     </row>
     <row r="28" spans="26:36">
       <c r="Z28" s="50" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA28" s="50" t="n">
         <v>11</v>
@@ -6584,9 +6822,11 @@
         <v>2062.34999999999991</v>
       </c>
       <c r="AG28" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH28" s="55"/>
+        <v>83</v>
+      </c>
+      <c r="AH28" s="55" t="n">
+        <v>2062.34999999999991</v>
+      </c>
       <c r="AI28" s="55"/>
       <c r="AJ28" s="55"/>
     </row>
@@ -6608,7 +6848,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1643199832" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1643203916" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6617,16 +6857,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1643199832" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1643199832" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1643199832" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1643199832" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1643203916" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1643203916" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1643203916" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1643203916" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1643199832" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1643203916" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6637,10 +6877,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:AJ28"/>
+  <dimension ref="B2:AJ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="Z6" workbookViewId="0">
-      <selection activeCell="AG29" sqref="AG29"/>
+    <sheetView view="normal" topLeftCell="Z4" zoomScale="90" workbookViewId="0">
+      <selection activeCell="AH29" sqref="AH29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.20"/>
@@ -6702,7 +6942,7 @@
     <row r="3" spans="2:36">
       <c r="B3" s="50"/>
       <c r="C3" s="50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D3" s="49" t="s">
         <v>2</v>
@@ -6721,7 +6961,7 @@
       <c r="L3" s="49"/>
       <c r="N3" s="51"/>
       <c r="O3" s="51" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P3" s="49" t="s">
         <v>2</v>
@@ -6740,7 +6980,7 @@
       <c r="X3" s="49"/>
       <c r="Z3" s="50"/>
       <c r="AA3" s="50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AB3" s="49" t="s">
         <v>2</v>
@@ -6884,7 +7124,9 @@
       <c r="I5" s="55" t="n">
         <v>2149.65000000000009</v>
       </c>
-      <c r="J5" s="55"/>
+      <c r="J5" s="55" t="n">
+        <v>1986.15000000000009</v>
+      </c>
       <c r="K5" s="55"/>
       <c r="L5" s="55"/>
       <c r="N5" s="51" t="s">
@@ -6911,7 +7153,9 @@
       <c r="U5" s="55" t="n">
         <v>3311</v>
       </c>
-      <c r="V5" s="55"/>
+      <c r="V5" s="55" t="n">
+        <v>3439</v>
+      </c>
       <c r="W5" s="55"/>
       <c r="X5" s="55"/>
       <c r="Z5" s="50" t="s">
@@ -6938,7 +7182,9 @@
       <c r="AG5" s="55" t="n">
         <v>69677.3399999999965</v>
       </c>
-      <c r="AH5" s="55"/>
+      <c r="AH5" s="55" t="n">
+        <v>62006.8099999999977</v>
+      </c>
       <c r="AI5" s="55"/>
       <c r="AJ5" s="55"/>
     </row>
@@ -6982,7 +7228,9 @@
       <c r="U6" s="55" t="n">
         <v>36870.5899999999965</v>
       </c>
-      <c r="V6" s="55"/>
+      <c r="V6" s="55" t="n">
+        <v>39977.8199999999997</v>
+      </c>
       <c r="W6" s="55"/>
       <c r="X6" s="55"/>
       <c r="Z6" s="50" t="s">
@@ -7009,7 +7257,9 @@
       <c r="AG6" s="55" t="n">
         <v>31079.4199999999983</v>
       </c>
-      <c r="AH6" s="55"/>
+      <c r="AH6" s="55" t="n">
+        <v>32380.7000000000007</v>
+      </c>
       <c r="AI6" s="55"/>
       <c r="AJ6" s="55"/>
     </row>
@@ -7038,7 +7288,9 @@
       <c r="I7" s="55" t="n">
         <v>6635</v>
       </c>
-      <c r="J7" s="55"/>
+      <c r="J7" s="55" t="n">
+        <v>6635</v>
+      </c>
       <c r="K7" s="55"/>
       <c r="L7" s="55"/>
       <c r="N7" s="51" t="s">
@@ -7065,7 +7317,9 @@
       <c r="U7" s="55" t="n">
         <v>4810</v>
       </c>
-      <c r="V7" s="55"/>
+      <c r="V7" s="55" t="n">
+        <v>4797</v>
+      </c>
       <c r="W7" s="55"/>
       <c r="X7" s="55"/>
       <c r="Z7" s="50" t="s">
@@ -7092,7 +7346,9 @@
       <c r="AG7" s="55" t="n">
         <v>39439.8899999999994</v>
       </c>
-      <c r="AH7" s="55"/>
+      <c r="AH7" s="55" t="n">
+        <v>40887.3000000000029</v>
+      </c>
       <c r="AI7" s="55"/>
       <c r="AJ7" s="55"/>
     </row>
@@ -7121,7 +7377,9 @@
       <c r="I8" s="55" t="n">
         <v>17882</v>
       </c>
-      <c r="J8" s="55"/>
+      <c r="J8" s="55" t="n">
+        <v>19769</v>
+      </c>
       <c r="K8" s="55"/>
       <c r="L8" s="55"/>
       <c r="N8" s="51" t="s">
@@ -7163,7 +7421,9 @@
       <c r="AG8" s="55" t="n">
         <v>78690.7200000000012</v>
       </c>
-      <c r="AH8" s="55"/>
+      <c r="AH8" s="55" t="n">
+        <v>82166.3800000000047</v>
+      </c>
       <c r="AI8" s="55"/>
       <c r="AJ8" s="55"/>
     </row>
@@ -7192,7 +7452,9 @@
       <c r="I9" s="55" t="n">
         <v>1068</v>
       </c>
-      <c r="J9" s="55"/>
+      <c r="J9" s="55" t="n">
+        <v>1068</v>
+      </c>
       <c r="K9" s="55"/>
       <c r="L9" s="55"/>
       <c r="N9" s="51" t="s">
@@ -7234,7 +7496,9 @@
       <c r="AG9" s="55" t="n">
         <v>42908.7900000000009</v>
       </c>
-      <c r="AH9" s="55"/>
+      <c r="AH9" s="55" t="n">
+        <v>42507.9499999999971</v>
+      </c>
       <c r="AI9" s="55"/>
       <c r="AJ9" s="55"/>
     </row>
@@ -7263,7 +7527,9 @@
       <c r="I10" s="55" t="n">
         <v>1174</v>
       </c>
-      <c r="J10" s="55"/>
+      <c r="J10" s="55" t="n">
+        <v>1174</v>
+      </c>
       <c r="K10" s="55"/>
       <c r="L10" s="55"/>
       <c r="N10" s="51" t="s">
@@ -7305,13 +7571,15 @@
       <c r="AG10" s="55" t="n">
         <v>49587.010000000002</v>
       </c>
-      <c r="AH10" s="55"/>
+      <c r="AH10" s="55" t="n">
+        <v>50601.8799999999974</v>
+      </c>
       <c r="AI10" s="55"/>
       <c r="AJ10" s="55"/>
     </row>
     <row r="11" spans="2:36">
       <c r="B11" s="50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="50" t="n">
         <v>39</v>
@@ -7334,11 +7602,13 @@
       <c r="I11" s="55" t="n">
         <v>4586.39999999999964</v>
       </c>
-      <c r="J11" s="55"/>
+      <c r="J11" s="55" t="n">
+        <v>4324.48999999999978</v>
+      </c>
       <c r="K11" s="55"/>
       <c r="L11" s="55"/>
       <c r="N11" s="51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="51" t="n">
         <v>323</v>
@@ -7353,7 +7623,7 @@
       <c r="W11" s="55"/>
       <c r="X11" s="55"/>
       <c r="Z11" s="50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA11" s="50" t="n">
         <v>169</v>
@@ -7376,13 +7646,15 @@
       <c r="AG11" s="55" t="n">
         <v>69909.4400000000023</v>
       </c>
-      <c r="AH11" s="55"/>
+      <c r="AH11" s="55" t="n">
+        <v>72191.5500000000029</v>
+      </c>
       <c r="AI11" s="55"/>
       <c r="AJ11" s="55"/>
     </row>
     <row r="12" spans="2:36">
       <c r="B12" s="50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="50" t="n">
         <v>95</v>
@@ -7405,11 +7677,13 @@
       <c r="I12" s="55" t="n">
         <v>50245.0699999999997</v>
       </c>
-      <c r="J12" s="55"/>
+      <c r="J12" s="55" t="n">
+        <v>53622.8899999999994</v>
+      </c>
       <c r="K12" s="55"/>
       <c r="L12" s="55"/>
       <c r="N12" s="51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="51" t="n">
         <v>499</v>
@@ -7424,7 +7698,7 @@
       <c r="W12" s="55"/>
       <c r="X12" s="55"/>
       <c r="Z12" s="50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AA12" s="50" t="n">
         <v>198</v>
@@ -7447,13 +7721,15 @@
       <c r="AG12" s="55" t="n">
         <v>34202.9599999999991</v>
       </c>
-      <c r="AH12" s="55"/>
+      <c r="AH12" s="55" t="n">
+        <v>39882.4300000000003</v>
+      </c>
       <c r="AI12" s="55"/>
       <c r="AJ12" s="55"/>
     </row>
     <row r="13" spans="2:36">
       <c r="B13" s="50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="50" t="n">
         <v>43</v>
@@ -7476,11 +7752,13 @@
       <c r="I13" s="55" t="n">
         <v>12573</v>
       </c>
-      <c r="J13" s="55"/>
+      <c r="J13" s="55" t="n">
+        <v>13041</v>
+      </c>
       <c r="K13" s="55"/>
       <c r="L13" s="55"/>
       <c r="N13" s="51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" s="51" t="n">
         <v>36</v>
@@ -7503,11 +7781,13 @@
       <c r="U13" s="55" t="n">
         <v>7839</v>
       </c>
-      <c r="V13" s="55"/>
+      <c r="V13" s="55" t="n">
+        <v>8281</v>
+      </c>
       <c r="W13" s="55"/>
       <c r="X13" s="55"/>
       <c r="Z13" s="50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA13" s="50" t="n">
         <v>224</v>
@@ -7530,13 +7810,15 @@
       <c r="AG13" s="55" t="n">
         <v>38200.6500000000015</v>
       </c>
-      <c r="AH13" s="55"/>
+      <c r="AH13" s="55" t="n">
+        <v>38509.5299999999988</v>
+      </c>
       <c r="AI13" s="55"/>
       <c r="AJ13" s="55"/>
     </row>
     <row r="14" spans="2:36">
       <c r="B14" s="50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="50" t="n">
         <v>135</v>
@@ -7559,11 +7841,13 @@
       <c r="I14" s="55" t="n">
         <v>1490</v>
       </c>
-      <c r="J14" s="55"/>
+      <c r="J14" s="55" t="n">
+        <v>1884.68000000000006</v>
+      </c>
       <c r="K14" s="55"/>
       <c r="L14" s="55"/>
       <c r="N14" s="51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O14" s="51" t="n">
         <v>75</v>
@@ -7586,11 +7870,13 @@
       <c r="U14" s="55" t="n">
         <v>15712.9599999999991</v>
       </c>
-      <c r="V14" s="55"/>
+      <c r="V14" s="55" t="n">
+        <v>16197.6200000000008</v>
+      </c>
       <c r="W14" s="55"/>
       <c r="X14" s="55"/>
       <c r="Z14" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AA14" s="50" t="n">
         <v>329</v>
@@ -7613,13 +7899,15 @@
       <c r="AG14" s="55" t="n">
         <v>67419.5899999999965</v>
       </c>
-      <c r="AH14" s="55"/>
+      <c r="AH14" s="55" t="n">
+        <v>62172.2799999999988</v>
+      </c>
       <c r="AI14" s="55"/>
       <c r="AJ14" s="55"/>
     </row>
     <row r="15" spans="2:36">
       <c r="B15" s="50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="50" t="n">
         <v>10</v>
@@ -7642,11 +7930,13 @@
       <c r="I15" s="55" t="n">
         <v>1884.68000000000006</v>
       </c>
-      <c r="J15" s="55"/>
+      <c r="J15" s="55" t="n">
+        <v>1884.68000000000006</v>
+      </c>
       <c r="K15" s="55"/>
       <c r="L15" s="55"/>
       <c r="N15" s="51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O15" s="51" t="n">
         <v>112</v>
@@ -7669,11 +7959,13 @@
       <c r="U15" s="55" t="n">
         <v>20666.0699999999997</v>
       </c>
-      <c r="V15" s="55"/>
+      <c r="V15" s="55" t="n">
+        <v>20349.9199999999983</v>
+      </c>
       <c r="W15" s="55"/>
       <c r="X15" s="55"/>
       <c r="Z15" s="50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA15" s="50" t="n">
         <v>751</v>
@@ -7696,7 +7988,7 @@
     </row>
     <row r="16" spans="2:36">
       <c r="B16" s="50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="50" t="n">
         <v>97</v>
@@ -7719,11 +8011,13 @@
       <c r="I16" s="55" t="n">
         <v>4633.18000000000029</v>
       </c>
-      <c r="J16" s="55"/>
+      <c r="J16" s="55" t="n">
+        <v>4510.59000000000015</v>
+      </c>
       <c r="K16" s="55"/>
       <c r="L16" s="55"/>
       <c r="N16" s="51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O16" s="51" t="n">
         <v>150</v>
@@ -7746,11 +8040,13 @@
       <c r="U16" s="55" t="n">
         <v>23526.0600000000013</v>
       </c>
-      <c r="V16" s="55"/>
+      <c r="V16" s="55" t="n">
+        <v>21685.4900000000016</v>
+      </c>
       <c r="W16" s="55"/>
       <c r="X16" s="55"/>
       <c r="Z16" s="50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA16" s="50" t="n">
         <v>74</v>
@@ -7773,13 +8069,15 @@
       <c r="AG16" s="55" t="n">
         <v>923.110000000000014</v>
       </c>
-      <c r="AH16" s="55"/>
+      <c r="AH16" s="55" t="n">
+        <v>946.850000000000023</v>
+      </c>
       <c r="AI16" s="55"/>
       <c r="AJ16" s="55"/>
     </row>
     <row r="17" spans="2:36">
       <c r="B17" s="50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="50" t="n">
         <v>112</v>
@@ -7802,11 +8100,13 @@
       <c r="I17" s="55" t="n">
         <v>4874.36999999999989</v>
       </c>
-      <c r="J17" s="55"/>
+      <c r="J17" s="55" t="n">
+        <v>4972.60000000000036</v>
+      </c>
       <c r="K17" s="55"/>
       <c r="L17" s="55"/>
       <c r="N17" s="51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O17" s="51" t="n">
         <v>75</v>
@@ -7829,11 +8129,13 @@
       <c r="U17" s="55" t="n">
         <v>18160.3199999999997</v>
       </c>
-      <c r="V17" s="55"/>
+      <c r="V17" s="55" t="n">
+        <v>17264.5499999999993</v>
+      </c>
       <c r="W17" s="55"/>
       <c r="X17" s="55"/>
       <c r="Z17" s="50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AA17" s="50" t="n">
         <v>146</v>
@@ -7856,13 +8158,15 @@
       <c r="AG17" s="55" t="n">
         <v>1867.75</v>
       </c>
-      <c r="AH17" s="55"/>
+      <c r="AH17" s="55" t="n">
+        <v>1804.08999999999992</v>
+      </c>
       <c r="AI17" s="55"/>
       <c r="AJ17" s="55"/>
     </row>
     <row r="18" spans="2:36">
       <c r="B18" s="50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" s="50" t="n">
         <v>31</v>
@@ -7885,11 +8189,13 @@
       <c r="I18" s="55" t="n">
         <v>390</v>
       </c>
-      <c r="J18" s="55"/>
+      <c r="J18" s="55" t="n">
+        <v>390</v>
+      </c>
       <c r="K18" s="55"/>
       <c r="L18" s="55"/>
       <c r="N18" s="51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O18" s="51" t="n">
         <v>112</v>
@@ -7912,11 +8218,13 @@
       <c r="U18" s="55" t="n">
         <v>19505.7599999999984</v>
       </c>
-      <c r="V18" s="55"/>
+      <c r="V18" s="55" t="n">
+        <v>19459.4000000000015</v>
+      </c>
       <c r="W18" s="55"/>
       <c r="X18" s="55"/>
       <c r="Z18" s="50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AA18" s="50" t="n">
         <v>431</v>
@@ -7937,13 +8245,15 @@
         <v>5334.69999999999982</v>
       </c>
       <c r="AG18" s="55"/>
-      <c r="AH18" s="55"/>
+      <c r="AH18" s="55" t="n">
+        <v>5421.56999999999971</v>
+      </c>
       <c r="AI18" s="55"/>
       <c r="AJ18" s="55"/>
     </row>
     <row r="19" spans="2:36">
       <c r="B19" s="50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" s="50" t="n">
         <v>38</v>
@@ -7966,11 +8276,13 @@
       <c r="I19" s="55" t="n">
         <v>318.279999999999973</v>
       </c>
-      <c r="J19" s="55"/>
+      <c r="J19" s="55" t="n">
+        <v>286.550000000000011</v>
+      </c>
       <c r="K19" s="55"/>
       <c r="L19" s="55"/>
       <c r="N19" s="51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O19" s="51" t="n">
         <v>150</v>
@@ -7993,11 +8305,13 @@
       <c r="U19" s="55" t="n">
         <v>23838.380000000001</v>
       </c>
-      <c r="V19" s="55"/>
+      <c r="V19" s="55" t="n">
+        <v>24834.4300000000003</v>
+      </c>
       <c r="W19" s="55"/>
       <c r="X19" s="55"/>
       <c r="Z19" s="50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA19" s="50" t="n">
         <v>587</v>
@@ -8020,7 +8334,7 @@
     </row>
     <row r="20" spans="2:36">
       <c r="B20" s="50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" s="50" t="n">
         <v>57</v>
@@ -8043,11 +8357,13 @@
       <c r="I20" s="55" t="n">
         <v>373.069999999999993</v>
       </c>
-      <c r="J20" s="55"/>
+      <c r="J20" s="55" t="n">
+        <v>365.110000000000014</v>
+      </c>
       <c r="K20" s="55"/>
       <c r="L20" s="55"/>
       <c r="N20" s="51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O20" s="51" t="n">
         <v>75</v>
@@ -8070,11 +8386,13 @@
       <c r="U20" s="55" t="n">
         <v>18188.3199999999997</v>
       </c>
-      <c r="V20" s="55"/>
+      <c r="V20" s="55" t="n">
+        <v>17267.5800000000017</v>
+      </c>
       <c r="W20" s="55"/>
       <c r="X20" s="55"/>
       <c r="Z20" s="50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA20" s="50" t="n">
         <v>131</v>
@@ -8097,13 +8415,15 @@
       <c r="AG20" s="55" t="n">
         <v>16073</v>
       </c>
-      <c r="AH20" s="55"/>
+      <c r="AH20" s="55" t="n">
+        <v>16124</v>
+      </c>
       <c r="AI20" s="55"/>
       <c r="AJ20" s="55"/>
     </row>
     <row r="21" spans="2:36">
       <c r="B21" s="50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" s="50" t="n">
         <v>75</v>
@@ -8126,11 +8446,13 @@
       <c r="I21" s="55" t="n">
         <v>444.620000000000005</v>
       </c>
-      <c r="J21" s="55"/>
+      <c r="J21" s="55" t="n">
+        <v>447.649999999999977</v>
+      </c>
       <c r="K21" s="55"/>
       <c r="L21" s="55"/>
       <c r="N21" s="51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O21" s="51" t="n">
         <v>75</v>
@@ -8153,11 +8475,13 @@
       <c r="U21" s="55" t="n">
         <v>16911.5200000000004</v>
       </c>
-      <c r="V21" s="55"/>
+      <c r="V21" s="55" t="n">
+        <v>16977.3499999999985</v>
+      </c>
       <c r="W21" s="55"/>
       <c r="X21" s="55"/>
       <c r="Z21" s="50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA21" s="50" t="n">
         <v>401</v>
@@ -8180,13 +8504,15 @@
       <c r="AG21" s="55" t="n">
         <v>35323</v>
       </c>
-      <c r="AH21" s="55"/>
+      <c r="AH21" s="55" t="n">
+        <v>35918</v>
+      </c>
       <c r="AI21" s="55"/>
       <c r="AJ21" s="55"/>
     </row>
     <row r="22" spans="2:36">
       <c r="B22" s="50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C22" s="50" t="n">
         <v>19</v>
@@ -8209,11 +8535,13 @@
       <c r="I22" s="55" t="n">
         <v>528</v>
       </c>
-      <c r="J22" s="55"/>
+      <c r="J22" s="55" t="n">
+        <v>553</v>
+      </c>
       <c r="K22" s="55"/>
       <c r="L22" s="55"/>
       <c r="N22" s="51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O22" s="51" t="n">
         <v>75</v>
@@ -8236,11 +8564,13 @@
       <c r="U22" s="55" t="n">
         <v>16746.6899999999987</v>
       </c>
-      <c r="V22" s="55"/>
+      <c r="V22" s="55" t="n">
+        <v>16892.0299999999988</v>
+      </c>
       <c r="W22" s="55"/>
       <c r="X22" s="55"/>
       <c r="Z22" s="50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AA22" s="50" t="n">
         <v>774</v>
@@ -8263,7 +8593,7 @@
     </row>
     <row r="23" spans="2:36">
       <c r="B23" s="50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C23" s="50" t="n">
         <v>196</v>
@@ -8286,11 +8616,13 @@
       <c r="I23" s="55" t="n">
         <v>1907.04999999999995</v>
       </c>
-      <c r="J23" s="55"/>
+      <c r="J23" s="55" t="n">
+        <v>1852.1099999999999</v>
+      </c>
       <c r="K23" s="55"/>
       <c r="L23" s="55"/>
       <c r="N23" s="51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O23" s="51" t="n">
         <v>78</v>
@@ -8313,11 +8645,13 @@
       <c r="U23" s="55" t="n">
         <v>8672.70999999999913</v>
       </c>
-      <c r="V23" s="55"/>
+      <c r="V23" s="55" t="n">
+        <v>9242.6200000000008</v>
+      </c>
       <c r="W23" s="55"/>
       <c r="X23" s="55"/>
       <c r="Z23" s="50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA23" s="50" t="n">
         <v>52</v>
@@ -8340,13 +8674,15 @@
       <c r="AG23" s="55" t="n">
         <v>433.589999999999975</v>
       </c>
-      <c r="AH23" s="55"/>
+      <c r="AH23" s="55" t="n">
+        <v>510.810000000000002</v>
+      </c>
       <c r="AI23" s="55"/>
       <c r="AJ23" s="55"/>
     </row>
     <row r="24" spans="2:36">
       <c r="B24" s="50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" s="50" t="n">
         <v>12</v>
@@ -8369,11 +8705,13 @@
       <c r="I24" s="55" t="n">
         <v>813</v>
       </c>
-      <c r="J24" s="55"/>
+      <c r="J24" s="55" t="n">
+        <v>640</v>
+      </c>
       <c r="K24" s="55"/>
       <c r="L24" s="55"/>
       <c r="N24" s="51" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O24" s="51" t="n">
         <v>238</v>
@@ -8396,11 +8734,13 @@
       <c r="U24" s="55" t="n">
         <v>32866.010000000002</v>
       </c>
-      <c r="V24" s="55"/>
+      <c r="V24" s="55" t="n">
+        <v>34393.5999999999985</v>
+      </c>
       <c r="W24" s="55"/>
       <c r="X24" s="55"/>
       <c r="Z24" s="50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA24" s="50" t="n">
         <v>31</v>
@@ -8423,13 +8763,15 @@
       <c r="AG24" s="55" t="n">
         <v>727</v>
       </c>
-      <c r="AH24" s="55"/>
+      <c r="AH24" s="55" t="n">
+        <v>719</v>
+      </c>
       <c r="AI24" s="55"/>
       <c r="AJ24" s="55"/>
     </row>
     <row r="25" spans="2:36">
       <c r="B25" s="50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C25" s="50" t="n">
         <v>15</v>
@@ -8452,11 +8794,13 @@
       <c r="I25" s="55" t="n">
         <v>1276</v>
       </c>
-      <c r="J25" s="55"/>
+      <c r="J25" s="55" t="n">
+        <v>1276</v>
+      </c>
       <c r="K25" s="55"/>
       <c r="L25" s="55"/>
       <c r="N25" s="51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O25" s="51" t="n">
         <v>1034</v>
@@ -8477,7 +8821,7 @@
       <c r="W25" s="55"/>
       <c r="X25" s="55"/>
       <c r="Z25" s="50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA25" s="50" t="n">
         <v>168</v>
@@ -8500,13 +8844,15 @@
       <c r="AG25" s="55" t="n">
         <v>102850.229999999996</v>
       </c>
-      <c r="AH25" s="55"/>
+      <c r="AH25" s="55" t="n">
+        <v>87227.9199999999983</v>
+      </c>
       <c r="AI25" s="55"/>
       <c r="AJ25" s="55"/>
     </row>
     <row r="26" spans="2:36">
       <c r="B26" s="50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C26" s="50" t="n">
         <v>18</v>
@@ -8529,11 +8875,13 @@
       <c r="I26" s="55" t="n">
         <v>802</v>
       </c>
-      <c r="J26" s="55"/>
+      <c r="J26" s="55" t="n">
+        <v>802</v>
+      </c>
       <c r="K26" s="55"/>
       <c r="L26" s="55"/>
       <c r="N26" s="51" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O26" s="51" t="n">
         <v>420</v>
@@ -8556,11 +8904,13 @@
       <c r="U26" s="55" t="n">
         <v>2012</v>
       </c>
-      <c r="V26" s="55"/>
+      <c r="V26" s="55" t="n">
+        <v>2114</v>
+      </c>
       <c r="W26" s="55"/>
       <c r="X26" s="55"/>
       <c r="Z26" s="50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA26" s="50" t="n">
         <v>168</v>
@@ -8583,13 +8933,15 @@
       <c r="AG26" s="55" t="n">
         <v>3123.67000000000007</v>
       </c>
-      <c r="AH26" s="55"/>
+      <c r="AH26" s="55" t="n">
+        <v>2844.80999999999995</v>
+      </c>
       <c r="AI26" s="55"/>
       <c r="AJ26" s="55"/>
     </row>
     <row r="27" spans="26:36">
       <c r="Z27" s="50" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA27" s="50" t="n">
         <v>12</v>
@@ -8612,13 +8964,15 @@
       <c r="AG27" s="55" t="n">
         <v>2852.11000000000013</v>
       </c>
-      <c r="AH27" s="55"/>
+      <c r="AH27" s="55" t="n">
+        <v>2852.11000000000013</v>
+      </c>
       <c r="AI27" s="55"/>
       <c r="AJ27" s="55"/>
     </row>
     <row r="28" spans="26:36">
       <c r="Z28" s="50" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA28" s="50" t="n">
         <v>16</v>
@@ -8641,9 +8995,16 @@
       <c r="AG28" s="55" t="n">
         <v>2936.28999999999996</v>
       </c>
-      <c r="AH28" s="55"/>
+      <c r="AH28" s="55" t="n">
+        <v>2936.28999999999996</v>
+      </c>
       <c r="AI28" s="55"/>
       <c r="AJ28" s="55"/>
+    </row>
+    <row r="29" spans="34:34">
+      <c r="AH29" s="54" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -8663,7 +9024,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1643199832" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1643203916" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -8672,16 +9033,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1643199832" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1643199832" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1643199832" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1643199832" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1643203916" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1643203916" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1643203916" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1643203916" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1643199832" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1643203916" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Comparaçoes/BuscasLocais.xlsx
+++ b/Comparaçoes/BuscasLocais.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="pdezi"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="9570" windowHeight="8265" tabRatio="500"/>
+    <workbookView activeTab="2" xWindow="240" yWindow="60" windowWidth="9570" windowHeight="8265" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="k = n|4" sheetId="1" r:id="rId4"/>
@@ -15,10 +15,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1643203916" val="1042" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1643203916" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1643203916" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1643203916"/>
+      <pm:revision xmlns:pm="smNativeData" day="1643288762" val="1042" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1643288762" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1643288762" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1643288762"/>
     </ext>
   </extLst>
 </workbook>
@@ -198,6 +198,9 @@
     <t>rat783</t>
   </si>
   <si>
+    <t>2207.6</t>
+  </si>
+  <si>
     <t>eil76</t>
   </si>
   <si>
@@ -270,16 +273,13 @@
     <t>k = n/2</t>
   </si>
   <si>
-    <t>2092.28</t>
+    <t>k = 3n/4</t>
   </si>
   <si>
-    <t>1981.15</t>
+    <t>37162.88</t>
   </si>
   <si>
-    <t>2062.35</t>
-  </si>
-  <si>
-    <t>k = 3n/4</t>
+    <t>802C:\Users\pdezi\Desktop\Iniciação Científica\GitHub\Instâncias\</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -313,7 +313,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -328,7 +328,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -343,7 +343,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -358,7 +358,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -374,7 +374,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -390,7 +390,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" fgClr="FA7D00" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" fgClr="FA7D00" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -405,7 +405,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" fgClr="FA7D00" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" fgClr="FA7D00" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -421,7 +421,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" fgClr="800080" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" fgClr="800080" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -437,7 +437,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -453,7 +453,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" fgClr="7F7F7F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" fgClr="7F7F7F" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" i="1"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" i="1"/>
             <pm:ea face="SimSun" sz="220" lang="default" i="1"/>
@@ -468,7 +468,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" fgClr="FF0000" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" fgClr="FF0000" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -484,7 +484,7 @@
       <sz val="18"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" fgClr="44546A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" fgClr="44546A" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="360" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="360" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="360" lang="default" weight="bold"/>
@@ -499,7 +499,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" fgClr="9C6500" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" fgClr="9C6500" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -515,7 +515,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -531,7 +531,7 @@
       <sz val="15"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" fgClr="44546A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" fgClr="44546A" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="300" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="300" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="300" lang="default" weight="bold"/>
@@ -547,7 +547,7 @@
       <sz val="13"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" fgClr="44546A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" fgClr="44546A" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="260" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="260" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="260" lang="default" weight="bold"/>
@@ -563,7 +563,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" fgClr="44546A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" fgClr="44546A" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -579,7 +579,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -594,7 +594,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" fgClr="3F3F76" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" fgClr="3F3F76" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -609,7 +609,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" fgClr="006100" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" fgClr="006100" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -624,7 +624,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643203916" fgClr="9C0006" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" fgClr="9C0006" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -646,7 +646,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00FFE697" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00FFE697" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -660,7 +660,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -671,7 +671,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00EBEBEB" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00EBEBEB" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -682,7 +682,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00F8CAAB" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00F8CAAB" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -693,7 +693,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -704,7 +704,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00C5DFB3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00C5DFB3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -715,7 +715,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -729,7 +729,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00FFC000" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00FFC000" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -740,7 +740,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="004472C4" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="004472C4" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -754,7 +754,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="0070AD47" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="0070AD47" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -765,7 +765,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -776,7 +776,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -787,7 +787,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -801,7 +801,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00BDD7EE" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00BDD7EE" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -812,7 +812,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00C6EFCE" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00C6EFCE" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -823,7 +823,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -834,7 +834,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00FFEB9C" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00FFEB9C" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -845,7 +845,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00D9E1F2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00D9E1F2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -856,7 +856,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -867,7 +867,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00DDEBF7" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00DDEBF7" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -878,7 +878,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="009BC2E6" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="009BC2E6" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -889,7 +889,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00E1EFD8" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00E1EFD8" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -900,7 +900,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00ED7D31" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00ED7D31" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -911,7 +911,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00FBE3D5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00FBE3D5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -922,7 +922,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00F4AF82" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00F4AF82" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -933,7 +933,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00D9D9D9" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00D9D9D9" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -944,7 +944,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00C7C7C7" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00C7C7C7" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -955,7 +955,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00FFF2CA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00FFF2CA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -966,7 +966,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00FFD964" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00FFD964" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -977,7 +977,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00B4C6E7" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00B4C6E7" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -988,7 +988,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="008EA9DB" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="008EA9DB" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -999,7 +999,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00A8D08C" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00A8D08C" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1013,7 +1013,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1024,7 +1024,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643203916" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1046,7 +1046,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
+          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
         </ext>
       </extLst>
     </border>
@@ -1065,7 +1065,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
+          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
         </ext>
       </extLst>
     </border>
@@ -1084,7 +1084,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916">
+          <pm:border xmlns:pm="smNativeData" id="1643288762">
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="FF8001"/>
           </pm:border>
         </ext>
@@ -1105,7 +1105,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916">
+          <pm:border xmlns:pm="smNativeData" id="1643288762">
             <pm:line position="top" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -1129,7 +1129,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
+          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
         </ext>
       </extLst>
     </border>
@@ -1148,7 +1148,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
+          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
         </ext>
       </extLst>
     </border>
@@ -1167,7 +1167,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916">
+          <pm:border xmlns:pm="smNativeData" id="1643288762">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
@@ -1191,7 +1191,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
+          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
         </ext>
       </extLst>
     </border>
@@ -1210,7 +1210,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
+          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
         </ext>
       </extLst>
     </border>
@@ -1229,7 +1229,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916">
+          <pm:border xmlns:pm="smNativeData" id="1643288762">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="5B9BD5"/>
           </pm:border>
         </ext>
@@ -1250,7 +1250,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
+          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
         </ext>
       </extLst>
     </border>
@@ -1269,7 +1269,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
+          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
         </ext>
       </extLst>
     </border>
@@ -1288,7 +1288,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916">
+          <pm:border xmlns:pm="smNativeData" id="1643288762">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="ACCCEA"/>
           </pm:border>
         </ext>
@@ -1309,7 +1309,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
+          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
         </ext>
       </extLst>
     </border>
@@ -1328,7 +1328,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916">
+          <pm:border xmlns:pm="smNativeData" id="1643288762">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
@@ -1352,7 +1352,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916">
+          <pm:border xmlns:pm="smNativeData" id="1643288762">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -1376,7 +1376,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916">
+          <pm:border xmlns:pm="smNativeData" id="1643288762">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
@@ -1400,7 +1400,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916">
+          <pm:border xmlns:pm="smNativeData" id="1643288762">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="5B9BD5"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="5B9BD5"/>
           </pm:border>
@@ -1422,7 +1422,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
+          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
         </ext>
       </extLst>
     </border>
@@ -1441,7 +1441,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
+          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
         </ext>
       </extLst>
     </border>
@@ -1460,7 +1460,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
+          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
         </ext>
       </extLst>
     </border>
@@ -1479,7 +1479,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
+          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
         </ext>
       </extLst>
     </border>
@@ -1498,7 +1498,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
+          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
         </ext>
       </extLst>
     </border>
@@ -1517,7 +1517,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
+          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
         </ext>
       </extLst>
     </border>
@@ -1536,7 +1536,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
+          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
         </ext>
       </extLst>
     </border>
@@ -1555,7 +1555,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
+          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
         </ext>
       </extLst>
     </border>
@@ -1574,7 +1574,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
+          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
         </ext>
       </extLst>
     </border>
@@ -1593,7 +1593,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
+          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
         </ext>
       </extLst>
     </border>
@@ -1612,7 +1612,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
+          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
         </ext>
       </extLst>
     </border>
@@ -1631,7 +1631,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
+          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
         </ext>
       </extLst>
     </border>
@@ -1650,7 +1650,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
+          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
         </ext>
       </extLst>
     </border>
@@ -1669,7 +1669,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
+          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
         </ext>
       </extLst>
     </border>
@@ -1688,7 +1688,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
+          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
         </ext>
       </extLst>
     </border>
@@ -1707,7 +1707,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
+          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
         </ext>
       </extLst>
     </border>
@@ -1726,7 +1726,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
+          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
         </ext>
       </extLst>
     </border>
@@ -1745,7 +1745,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
+          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
         </ext>
       </extLst>
     </border>
@@ -1764,7 +1764,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
+          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
         </ext>
       </extLst>
     </border>
@@ -1783,7 +1783,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916">
+          <pm:border xmlns:pm="smNativeData" id="1643288762">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1807,7 +1807,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916">
+          <pm:border xmlns:pm="smNativeData" id="1643288762">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1831,7 +1831,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643203916"/>
+          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
         </ext>
       </extLst>
     </border>
@@ -2209,10 +2209,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1643203916" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1643288762" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1643203916" count="41">
+      <pm:colors xmlns:pm="smNativeData" id="1643288762" count="41">
         <pm:color name="Cor 24" rgb="FA7D00"/>
         <pm:color name="Cor 25" rgb="800080"/>
         <pm:color name="Cor 26" rgb="44546A"/>
@@ -2518,8 +2518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AJ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="Z4" zoomScale="90" workbookViewId="0">
-      <selection activeCell="AH29" sqref="AH29"/>
+    <sheetView view="normal" topLeftCell="Z4" zoomScale="90" workbookViewId="0">
+      <selection activeCell="AI29" sqref="AI29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.20"/>
@@ -2773,7 +2773,9 @@
       <c r="J5" s="55" t="n">
         <v>707.340000000000032</v>
       </c>
-      <c r="K5" s="55"/>
+      <c r="K5" s="55" t="n">
+        <v>678.440000000000055</v>
+      </c>
       <c r="L5" s="55"/>
       <c r="N5" s="51" t="s">
         <v>11</v>
@@ -2802,7 +2804,9 @@
       <c r="V5" s="55" t="n">
         <v>582</v>
       </c>
-      <c r="W5" s="55"/>
+      <c r="W5" s="55" t="n">
+        <v>582</v>
+      </c>
       <c r="X5" s="55"/>
       <c r="Z5" s="51" t="s">
         <v>12</v>
@@ -2831,7 +2835,9 @@
       <c r="AH5" s="55" t="n">
         <v>25126.8400000000001</v>
       </c>
-      <c r="AI5" s="55"/>
+      <c r="AI5" s="55" t="n">
+        <v>25126.8400000000001</v>
+      </c>
       <c r="AJ5" s="55"/>
     </row>
     <row r="6" spans="2:36">
@@ -2877,7 +2883,9 @@
       <c r="V6" s="55" t="n">
         <v>10082.9699999999993</v>
       </c>
-      <c r="W6" s="55"/>
+      <c r="W6" s="55" t="n">
+        <v>10082.9699999999993</v>
+      </c>
       <c r="X6" s="55"/>
       <c r="Z6" s="51" t="s">
         <v>15</v>
@@ -2886,7 +2894,7 @@
         <v>26</v>
       </c>
       <c r="AB6" s="53" t="n">
-        <v>7769.73999999999887</v>
+        <v>7769.73999999999978</v>
       </c>
       <c r="AC6" s="53" t="n">
         <v>7564.93999999999869</v>
@@ -2906,7 +2914,9 @@
       <c r="AH6" s="55" t="n">
         <v>7537.28999999999996</v>
       </c>
-      <c r="AI6" s="55"/>
+      <c r="AI6" s="55" t="n">
+        <v>7305.55000000000018</v>
+      </c>
       <c r="AJ6" s="55"/>
     </row>
     <row r="7" spans="2:36">
@@ -2937,7 +2947,9 @@
       <c r="J7" s="55" t="n">
         <v>1373</v>
       </c>
-      <c r="K7" s="55"/>
+      <c r="K7" s="55" t="n">
+        <v>1373</v>
+      </c>
       <c r="L7" s="55"/>
       <c r="N7" s="51" t="s">
         <v>17</v>
@@ -2966,7 +2978,9 @@
       <c r="V7" s="55" t="n">
         <v>1356</v>
       </c>
-      <c r="W7" s="55"/>
+      <c r="W7" s="55" t="n">
+        <v>1356</v>
+      </c>
       <c r="X7" s="55"/>
       <c r="Z7" s="51" t="s">
         <v>18</v>
@@ -2995,7 +3009,9 @@
       <c r="AH7" s="55" t="n">
         <v>14065.4400000000005</v>
       </c>
-      <c r="AI7" s="55"/>
+      <c r="AI7" s="55" t="n">
+        <v>14065.4400000000005</v>
+      </c>
       <c r="AJ7" s="55"/>
     </row>
     <row r="8" spans="2:36">
@@ -3026,7 +3042,9 @@
       <c r="J8" s="55" t="n">
         <v>4532</v>
       </c>
-      <c r="K8" s="55"/>
+      <c r="K8" s="55" t="n">
+        <v>4397</v>
+      </c>
       <c r="L8" s="55"/>
       <c r="N8" s="51" t="s">
         <v>20</v>
@@ -3070,7 +3088,9 @@
       <c r="AH8" s="55" t="n">
         <v>23147.119999999999</v>
       </c>
-      <c r="AI8" s="55"/>
+      <c r="AI8" s="55" t="n">
+        <v>22717.369999999999</v>
+      </c>
       <c r="AJ8" s="55"/>
     </row>
     <row r="9" spans="2:36">
@@ -3101,7 +3121,9 @@
       <c r="J9" s="55" t="n">
         <v>292</v>
       </c>
-      <c r="K9" s="55"/>
+      <c r="K9" s="55" t="n">
+        <v>292</v>
+      </c>
       <c r="L9" s="55"/>
       <c r="N9" s="51" t="s">
         <v>23</v>
@@ -3145,7 +3167,9 @@
       <c r="AH9" s="55" t="n">
         <v>11480.7299999999996</v>
       </c>
-      <c r="AI9" s="55"/>
+      <c r="AI9" s="55" t="n">
+        <v>11325.3299999999999</v>
+      </c>
       <c r="AJ9" s="55"/>
     </row>
     <row r="10" spans="2:36">
@@ -3176,7 +3200,9 @@
       <c r="J10" s="55" t="n">
         <v>352</v>
       </c>
-      <c r="K10" s="55"/>
+      <c r="K10" s="55" t="n">
+        <v>352</v>
+      </c>
       <c r="L10" s="55"/>
       <c r="N10" s="51" t="s">
         <v>26</v>
@@ -3220,7 +3246,9 @@
       <c r="AH10" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="AI10" s="55"/>
+      <c r="AI10" s="55" t="n">
+        <v>15403.2600000000002</v>
+      </c>
       <c r="AJ10" s="55"/>
     </row>
     <row r="11" spans="2:36">
@@ -3251,7 +3279,9 @@
       <c r="J11" s="55" t="n">
         <v>556.809999999999945</v>
       </c>
-      <c r="K11" s="55"/>
+      <c r="K11" s="55" t="n">
+        <v>556.809999999999945</v>
+      </c>
       <c r="L11" s="55"/>
       <c r="N11" s="51" t="s">
         <v>30</v>
@@ -3295,7 +3325,9 @@
       <c r="AH11" s="55" t="n">
         <v>23231.1899999999987</v>
       </c>
-      <c r="AI11" s="55"/>
+      <c r="AI11" s="55" t="n">
+        <v>22003.0400000000009</v>
+      </c>
       <c r="AJ11" s="55"/>
     </row>
     <row r="12" spans="2:36">
@@ -3324,9 +3356,11 @@
         <v>11580.3199999999997</v>
       </c>
       <c r="J12" s="55" t="n">
-        <v>12834.5799999999999</v>
-      </c>
-      <c r="K12" s="55"/>
+        <v>12834.5800000000017</v>
+      </c>
+      <c r="K12" s="55" t="n">
+        <v>12805.7199999999993</v>
+      </c>
       <c r="L12" s="55"/>
       <c r="N12" s="51" t="s">
         <v>33</v>
@@ -3368,9 +3402,11 @@
         <v>8023.60999999999876</v>
       </c>
       <c r="AH12" s="55" t="n">
+        <v>8023.60999999999876</v>
+      </c>
+      <c r="AI12" s="55" t="n">
         <v>8023.60999999999967</v>
       </c>
-      <c r="AI12" s="55"/>
       <c r="AJ12" s="55"/>
     </row>
     <row r="13" spans="2:36">
@@ -3401,7 +3437,9 @@
       <c r="J13" s="55" t="n">
         <v>4607</v>
       </c>
-      <c r="K13" s="55"/>
+      <c r="K13" s="55" t="n">
+        <v>4607</v>
+      </c>
       <c r="L13" s="55"/>
       <c r="N13" s="51" t="s">
         <v>36</v>
@@ -3430,7 +3468,9 @@
       <c r="V13" s="55" t="n">
         <v>3155</v>
       </c>
-      <c r="W13" s="55"/>
+      <c r="W13" s="55" t="n">
+        <v>3155</v>
+      </c>
       <c r="X13" s="55"/>
       <c r="Z13" s="51" t="s">
         <v>37</v>
@@ -3451,15 +3491,17 @@
         <v>12127.2900000000009</v>
       </c>
       <c r="AF13" s="55" t="n">
-        <v>11699.6600000000017</v>
+        <v>11699.6599999999999</v>
       </c>
       <c r="AG13" s="55" t="n">
-        <v>11699.6600000000017</v>
+        <v>11699.6599999999999</v>
       </c>
       <c r="AH13" s="55" t="n">
         <v>10546.9599999999991</v>
       </c>
-      <c r="AI13" s="55"/>
+      <c r="AI13" s="55" t="n">
+        <v>10546.9599999999991</v>
+      </c>
       <c r="AJ13" s="55"/>
     </row>
     <row r="14" spans="2:36">
@@ -3490,7 +3532,9 @@
       <c r="J14" s="55" t="n">
         <v>570</v>
       </c>
-      <c r="K14" s="55"/>
+      <c r="K14" s="55" t="n">
+        <v>530</v>
+      </c>
       <c r="L14" s="55"/>
       <c r="N14" s="51" t="s">
         <v>39</v>
@@ -3519,7 +3563,9 @@
       <c r="V14" s="55" t="n">
         <v>4788.84000000000015</v>
       </c>
-      <c r="W14" s="55"/>
+      <c r="W14" s="55" t="n">
+        <v>4753.67000000000007</v>
+      </c>
       <c r="X14" s="55"/>
       <c r="Z14" s="51" t="s">
         <v>40</v>
@@ -3548,7 +3594,9 @@
       <c r="AH14" s="55" t="n">
         <v>21586.4500000000007</v>
       </c>
-      <c r="AI14" s="55"/>
+      <c r="AI14" s="55" t="n">
+        <v>21338.0400000000009</v>
+      </c>
       <c r="AJ14" s="55"/>
     </row>
     <row r="15" spans="2:36">
@@ -3579,7 +3627,9 @@
       <c r="J15" s="55" t="n">
         <v>249.879999999999995</v>
       </c>
-      <c r="K15" s="55"/>
+      <c r="K15" s="55" t="n">
+        <v>249.879999999999995</v>
+      </c>
       <c r="L15" s="55"/>
       <c r="N15" s="51" t="s">
         <v>42</v>
@@ -3606,9 +3656,11 @@
         <v>7222.10000000000036</v>
       </c>
       <c r="V15" s="55" t="n">
-        <v>7646.89999999999964</v>
-      </c>
-      <c r="W15" s="55"/>
+        <v>7646.89999999999873</v>
+      </c>
+      <c r="W15" s="55" t="n">
+        <v>7538.64999999999964</v>
+      </c>
       <c r="X15" s="55"/>
       <c r="Z15" s="51" t="s">
         <v>43</v>
@@ -3660,7 +3712,9 @@
       <c r="J16" s="55" t="n">
         <v>1215.96000000000004</v>
       </c>
-      <c r="K16" s="55"/>
+      <c r="K16" s="55" t="n">
+        <v>1154.49000000000001</v>
+      </c>
       <c r="L16" s="55"/>
       <c r="N16" s="51" t="s">
         <v>45</v>
@@ -3689,7 +3743,9 @@
       <c r="V16" s="55" t="n">
         <v>6741.10999999999967</v>
       </c>
-      <c r="W16" s="55"/>
+      <c r="W16" s="55" t="n">
+        <v>6821.1899999999996</v>
+      </c>
       <c r="X16" s="55"/>
       <c r="Z16" s="51" t="s">
         <v>46</v>
@@ -3718,7 +3774,9 @@
       <c r="AH16" s="55" t="n">
         <v>292.550000000000011</v>
       </c>
-      <c r="AI16" s="55"/>
+      <c r="AI16" s="55" t="n">
+        <v>272.980000000000018</v>
+      </c>
       <c r="AJ16" s="55"/>
     </row>
     <row r="17" spans="2:36">
@@ -3749,7 +3807,9 @@
       <c r="J17" s="55" t="n">
         <v>1245.96000000000004</v>
       </c>
-      <c r="K17" s="55"/>
+      <c r="K17" s="55" t="n">
+        <v>1245.96000000000004</v>
+      </c>
       <c r="L17" s="55"/>
       <c r="N17" s="51" t="s">
         <v>48</v>
@@ -3778,7 +3838,9 @@
       <c r="V17" s="55" t="n">
         <v>5384.90999999999985</v>
       </c>
-      <c r="W17" s="55"/>
+      <c r="W17" s="55" t="n">
+        <v>5384.90999999999985</v>
+      </c>
       <c r="X17" s="55"/>
       <c r="Z17" s="51" t="s">
         <v>49</v>
@@ -3807,7 +3869,9 @@
       <c r="AH17" s="55" t="n">
         <v>546.129999999999995</v>
       </c>
-      <c r="AI17" s="55"/>
+      <c r="AI17" s="55" t="n">
+        <v>546.129999999999995</v>
+      </c>
       <c r="AJ17" s="55"/>
     </row>
     <row r="18" spans="2:36">
@@ -3838,7 +3902,9 @@
       <c r="J18" s="55" t="n">
         <v>100</v>
       </c>
-      <c r="K18" s="55"/>
+      <c r="K18" s="55" t="n">
+        <v>100</v>
+      </c>
       <c r="L18" s="55"/>
       <c r="N18" s="51" t="s">
         <v>51</v>
@@ -3867,7 +3933,9 @@
       <c r="V18" s="55" t="n">
         <v>5396.32999999999993</v>
       </c>
-      <c r="W18" s="55"/>
+      <c r="W18" s="55" t="n">
+        <v>5396.32999999999993</v>
+      </c>
       <c r="X18" s="55"/>
       <c r="Z18" s="51" t="s">
         <v>52</v>
@@ -3896,7 +3964,9 @@
       <c r="AH18" s="55" t="n">
         <v>1700.80999999999995</v>
       </c>
-      <c r="AI18" s="55"/>
+      <c r="AI18" s="55" t="n">
+        <v>1698.68000000000006</v>
+      </c>
       <c r="AJ18" s="55"/>
     </row>
     <row r="19" spans="2:36">
@@ -3927,7 +3997,9 @@
       <c r="J19" s="55" t="n">
         <v>77.0400000000000063</v>
       </c>
-      <c r="K19" s="55"/>
+      <c r="K19" s="55" t="n">
+        <v>77.0400000000000063</v>
+      </c>
       <c r="L19" s="55"/>
       <c r="N19" s="51" t="s">
         <v>54</v>
@@ -3954,9 +4026,11 @@
         <v>8120.14000000000033</v>
       </c>
       <c r="V19" s="55" t="n">
-        <v>7231.97999999999956</v>
-      </c>
-      <c r="W19" s="55"/>
+        <v>7231.97999999999865</v>
+      </c>
+      <c r="W19" s="55" t="n">
+        <v>7202.14000000000033</v>
+      </c>
       <c r="X19" s="55"/>
       <c r="Z19" s="51" t="s">
         <v>56</v>
@@ -3981,12 +4055,14 @@
       <c r="AH19" s="55" t="n">
         <v>2218.15999999999985</v>
       </c>
-      <c r="AI19" s="55"/>
+      <c r="AI19" s="55" t="s">
+        <v>57</v>
+      </c>
       <c r="AJ19" s="55"/>
     </row>
     <row r="20" spans="2:36">
       <c r="B20" s="50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" s="50" t="n">
         <v>19</v>
@@ -4012,10 +4088,12 @@
       <c r="J20" s="55" t="n">
         <v>99.4500000000000028</v>
       </c>
-      <c r="K20" s="55"/>
+      <c r="K20" s="55" t="n">
+        <v>99.4500000000000028</v>
+      </c>
       <c r="L20" s="55"/>
       <c r="N20" s="51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O20" s="51" t="n">
         <v>25</v>
@@ -4041,10 +4119,12 @@
       <c r="V20" s="55" t="n">
         <v>4293.02000000000044</v>
       </c>
-      <c r="W20" s="55"/>
+      <c r="W20" s="55" t="n">
+        <v>4293.02000000000044</v>
+      </c>
       <c r="X20" s="55"/>
       <c r="Z20" s="51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA20" s="51" t="n">
         <v>43</v>
@@ -4070,12 +4150,14 @@
       <c r="AH20" s="55" t="n">
         <v>5420</v>
       </c>
-      <c r="AI20" s="55"/>
+      <c r="AI20" s="55" t="n">
+        <v>5382</v>
+      </c>
       <c r="AJ20" s="55"/>
     </row>
     <row r="21" spans="2:36">
       <c r="B21" s="50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21" s="50" t="n">
         <v>25</v>
@@ -4101,10 +4183,12 @@
       <c r="J21" s="55" t="n">
         <v>139.620000000000005</v>
       </c>
-      <c r="K21" s="55"/>
+      <c r="K21" s="55" t="n">
+        <v>139.330000000000013</v>
+      </c>
       <c r="L21" s="55"/>
       <c r="N21" s="51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O21" s="51" t="n">
         <v>25</v>
@@ -4130,10 +4214,12 @@
       <c r="V21" s="55" t="n">
         <v>5246.27999999999975</v>
       </c>
-      <c r="W21" s="55"/>
+      <c r="W21" s="55" t="n">
+        <v>5246.27999999999975</v>
+      </c>
       <c r="X21" s="55"/>
       <c r="Z21" s="51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA21" s="51" t="n">
         <v>133</v>
@@ -4159,12 +4245,14 @@
       <c r="AH21" s="55" t="n">
         <v>12196</v>
       </c>
-      <c r="AI21" s="55"/>
+      <c r="AI21" s="55" t="n">
+        <v>12194</v>
+      </c>
       <c r="AJ21" s="55"/>
     </row>
     <row r="22" spans="2:36">
       <c r="B22" s="50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" s="50" t="n">
         <v>6</v>
@@ -4190,10 +4278,12 @@
       <c r="J22" s="55" t="n">
         <v>147</v>
       </c>
-      <c r="K22" s="55"/>
+      <c r="K22" s="55" t="n">
+        <v>147</v>
+      </c>
       <c r="L22" s="55"/>
       <c r="N22" s="51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O22" s="51" t="n">
         <v>25</v>
@@ -4219,10 +4309,12 @@
       <c r="V22" s="55" t="n">
         <v>3919.57999999999993</v>
       </c>
-      <c r="W22" s="55"/>
+      <c r="W22" s="55" t="n">
+        <v>3919.59000000000015</v>
+      </c>
       <c r="X22" s="55"/>
       <c r="Z22" s="51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AA22" s="51" t="n">
         <v>258</v>
@@ -4249,7 +4341,7 @@
     </row>
     <row r="23" spans="2:36">
       <c r="B23" s="50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" s="50" t="n">
         <v>65</v>
@@ -4275,10 +4367,12 @@
       <c r="J23" s="55" t="n">
         <v>655.799999999999955</v>
       </c>
-      <c r="K23" s="55"/>
+      <c r="K23" s="55" t="n">
+        <v>633.590000000000032</v>
+      </c>
       <c r="L23" s="55"/>
       <c r="N23" s="51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O23" s="51" t="n">
         <v>26</v>
@@ -4304,10 +4398,12 @@
       <c r="V23" s="55" t="n">
         <v>2002.98000000000002</v>
       </c>
-      <c r="W23" s="55"/>
+      <c r="W23" s="55" t="n">
+        <v>2002.98000000000002</v>
+      </c>
       <c r="X23" s="55"/>
       <c r="Z23" s="50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AA23" s="50" t="n">
         <v>17</v>
@@ -4333,12 +4429,14 @@
       <c r="AH23" s="55" t="n">
         <v>127.180000000000007</v>
       </c>
-      <c r="AI23" s="55"/>
+      <c r="AI23" s="55" t="n">
+        <v>127.180000000000007</v>
+      </c>
       <c r="AJ23" s="55"/>
     </row>
     <row r="24" spans="2:36">
       <c r="B24" s="50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" s="50" t="n">
         <v>4</v>
@@ -4364,10 +4462,12 @@
       <c r="J24" s="55" t="n">
         <v>154</v>
       </c>
-      <c r="K24" s="55"/>
+      <c r="K24" s="55" t="n">
+        <v>154</v>
+      </c>
       <c r="L24" s="55"/>
       <c r="N24" s="51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O24" s="51" t="n">
         <v>79</v>
@@ -4393,10 +4493,12 @@
       <c r="V24" s="55" t="n">
         <v>9406.35000000000036</v>
       </c>
-      <c r="W24" s="55"/>
+      <c r="W24" s="55" t="n">
+        <v>9133.8799999999992</v>
+      </c>
       <c r="X24" s="55"/>
       <c r="Z24" s="51" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA24" s="51" t="n">
         <v>10</v>
@@ -4422,12 +4524,14 @@
       <c r="AH24" s="55" t="n">
         <v>146</v>
       </c>
-      <c r="AI24" s="55"/>
+      <c r="AI24" s="55" t="n">
+        <v>146</v>
+      </c>
       <c r="AJ24" s="55"/>
     </row>
     <row r="25" spans="2:36">
       <c r="B25" s="50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25" s="50" t="n">
         <v>5</v>
@@ -4453,10 +4557,12 @@
       <c r="J25" s="55" t="n">
         <v>248</v>
       </c>
-      <c r="K25" s="55"/>
+      <c r="K25" s="55" t="n">
+        <v>248</v>
+      </c>
       <c r="L25" s="55"/>
       <c r="N25" s="51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O25" s="51" t="n">
         <v>344</v>
@@ -4477,7 +4583,7 @@
       <c r="W25" s="55"/>
       <c r="X25" s="55"/>
       <c r="Z25" s="51" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA25" s="51" t="n">
         <v>56</v>
@@ -4503,12 +4609,14 @@
       <c r="AH25" s="55" t="n">
         <v>27500</v>
       </c>
-      <c r="AI25" s="55"/>
+      <c r="AI25" s="55" t="n">
+        <v>27500</v>
+      </c>
       <c r="AJ25" s="55"/>
     </row>
     <row r="26" spans="2:36">
       <c r="B26" s="50" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C26" s="50" t="n">
         <v>6</v>
@@ -4534,10 +4642,12 @@
       <c r="J26" s="55" t="n">
         <v>162</v>
       </c>
-      <c r="K26" s="55"/>
+      <c r="K26" s="55" t="n">
+        <v>162</v>
+      </c>
       <c r="L26" s="55"/>
       <c r="N26" s="51" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O26" s="51" t="n">
         <v>140</v>
@@ -4563,22 +4673,24 @@
       <c r="V26" s="55" t="n">
         <v>640</v>
       </c>
-      <c r="W26" s="55"/>
+      <c r="W26" s="55" t="n">
+        <v>636</v>
+      </c>
       <c r="X26" s="55"/>
       <c r="Z26" s="51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA26" s="51" t="n">
         <v>56</v>
       </c>
       <c r="AB26" s="53" t="n">
-        <v>964.260000000000105</v>
+        <v>964.259999999999991</v>
       </c>
       <c r="AC26" s="53" t="n">
-        <v>964.260000000000105</v>
+        <v>964.259999999999991</v>
       </c>
       <c r="AD26" s="53" t="n">
-        <v>996.510000000000105</v>
+        <v>996.509999999999991</v>
       </c>
       <c r="AE26" s="55" t="n">
         <v>1038.02999999999997</v>
@@ -4592,12 +4704,14 @@
       <c r="AH26" s="55" t="n">
         <v>1094.8900000000001</v>
       </c>
-      <c r="AI26" s="55"/>
+      <c r="AI26" s="55" t="n">
+        <v>1081.51999999999998</v>
+      </c>
       <c r="AJ26" s="55"/>
     </row>
     <row r="27" spans="26:36">
       <c r="Z27" s="50" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA27" s="50" t="n">
         <v>4</v>
@@ -4621,14 +4735,16 @@
         <v>751.059999999999832</v>
       </c>
       <c r="AH27" s="55" t="n">
+        <v>751.059999999999832</v>
+      </c>
+      <c r="AI27" s="55" t="n">
         <v>751.059999999999945</v>
       </c>
-      <c r="AI27" s="55"/>
       <c r="AJ27" s="55"/>
     </row>
     <row r="28" spans="26:36">
       <c r="Z28" s="50" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA28" s="50" t="n">
         <v>5</v>
@@ -4654,7 +4770,9 @@
       <c r="AH28" s="55" t="n">
         <v>456.579999999999984</v>
       </c>
-      <c r="AI28" s="55"/>
+      <c r="AI28" s="55" t="n">
+        <v>456.579999999999984</v>
+      </c>
       <c r="AJ28" s="55"/>
     </row>
   </sheetData>
@@ -4675,7 +4793,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1643203916" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1643288762" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4684,16 +4802,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1643203916" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1643203916" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1643203916" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1643203916" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1643288762" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1643288762" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1643288762" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1643288762" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1643203916" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1643288762" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -4707,7 +4825,7 @@
   <dimension ref="B2:AJ28"/>
   <sheetViews>
     <sheetView view="normal" topLeftCell="Z4" zoomScale="90" workbookViewId="0">
-      <selection activeCell="AH28" sqref="AH28"/>
+      <selection activeCell="AG29" sqref="AG29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.20"/>
@@ -4725,7 +4843,7 @@
     <col min="18" max="18" width="9.752475" customWidth="1" style="54"/>
     <col min="19" max="20" width="9.574257" customWidth="1" style="54"/>
     <col min="21" max="26" width="9.138614" customWidth="1" style="54"/>
-    <col min="27" max="27" width="19.138614" customWidth="1" style="54"/>
+    <col min="27" max="27" width="13.524752" customWidth="1" style="54"/>
     <col min="28" max="30" width="10.861386" customWidth="1" style="54"/>
     <col min="31" max="32" width="9.574257" customWidth="1" style="54"/>
     <col min="33" max="16384" width="9.138614" customWidth="1" style="54"/>
@@ -4769,7 +4887,7 @@
     <row r="3" spans="2:36">
       <c r="B3" s="51"/>
       <c r="C3" s="51" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D3" s="49" t="s">
         <v>2</v>
@@ -4788,7 +4906,7 @@
       <c r="L3" s="49"/>
       <c r="N3" s="51"/>
       <c r="O3" s="51" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P3" s="49" t="s">
         <v>2</v>
@@ -4807,7 +4925,7 @@
       <c r="X3" s="49"/>
       <c r="Z3" s="51"/>
       <c r="AA3" s="51" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB3" s="49" t="s">
         <v>2</v>
@@ -4954,7 +5072,9 @@
       <c r="J5" s="55" t="n">
         <v>1328.53999999999996</v>
       </c>
-      <c r="K5" s="55"/>
+      <c r="K5" s="55" t="n">
+        <v>1289.93000000000006</v>
+      </c>
       <c r="L5" s="55"/>
       <c r="N5" s="51" t="s">
         <v>11</v>
@@ -4983,7 +5103,9 @@
       <c r="V5" s="55" t="n">
         <v>1691</v>
       </c>
-      <c r="W5" s="55"/>
+      <c r="W5" s="55" t="n">
+        <v>1691</v>
+      </c>
       <c r="X5" s="55"/>
       <c r="Z5" s="51" t="s">
         <v>12</v>
@@ -5012,7 +5134,9 @@
       <c r="AH5" s="55" t="n">
         <v>44106.739999999998</v>
       </c>
-      <c r="AI5" s="55"/>
+      <c r="AI5" s="55" t="n">
+        <v>43770.4100000000035</v>
+      </c>
       <c r="AJ5" s="55"/>
     </row>
     <row r="6" spans="2:36">
@@ -5058,7 +5182,9 @@
       <c r="V6" s="55" t="n">
         <v>26964.5200000000004</v>
       </c>
-      <c r="W6" s="55"/>
+      <c r="W6" s="55" t="n">
+        <v>26610.1599999999999</v>
+      </c>
       <c r="X6" s="55"/>
       <c r="Z6" s="51" t="s">
         <v>15</v>
@@ -5087,7 +5213,9 @@
       <c r="AH6" s="55" t="n">
         <v>16472.9799999999996</v>
       </c>
-      <c r="AI6" s="55"/>
+      <c r="AI6" s="55" t="n">
+        <v>15831.6499999999996</v>
+      </c>
       <c r="AJ6" s="55"/>
     </row>
     <row r="7" spans="2:36">
@@ -5118,7 +5246,9 @@
       <c r="J7" s="55" t="n">
         <v>3674</v>
       </c>
-      <c r="K7" s="55"/>
+      <c r="K7" s="55" t="n">
+        <v>3452</v>
+      </c>
       <c r="L7" s="55"/>
       <c r="N7" s="51" t="s">
         <v>17</v>
@@ -5147,7 +5277,9 @@
       <c r="V7" s="55" t="n">
         <v>2950</v>
       </c>
-      <c r="W7" s="55"/>
+      <c r="W7" s="55" t="n">
+        <v>2950</v>
+      </c>
       <c r="X7" s="55"/>
       <c r="Z7" s="51" t="s">
         <v>18</v>
@@ -5176,7 +5308,9 @@
       <c r="AH7" s="55" t="n">
         <v>21887.8899999999994</v>
       </c>
-      <c r="AI7" s="55"/>
+      <c r="AI7" s="55" t="n">
+        <v>21887.8899999999994</v>
+      </c>
       <c r="AJ7" s="55"/>
     </row>
     <row r="8" spans="2:36">
@@ -5207,7 +5341,9 @@
       <c r="J8" s="55" t="n">
         <v>11824</v>
       </c>
-      <c r="K8" s="55"/>
+      <c r="K8" s="55" t="n">
+        <v>11686</v>
+      </c>
       <c r="L8" s="55"/>
       <c r="N8" s="51" t="s">
         <v>20</v>
@@ -5251,7 +5387,9 @@
       <c r="AH8" s="55" t="n">
         <v>48383.8099999999977</v>
       </c>
-      <c r="AI8" s="55"/>
+      <c r="AI8" s="55" t="n">
+        <v>47304.6600000000035</v>
+      </c>
       <c r="AJ8" s="55"/>
     </row>
     <row r="9" spans="2:36">
@@ -5282,7 +5420,9 @@
       <c r="J9" s="55" t="n">
         <v>581</v>
       </c>
-      <c r="K9" s="55"/>
+      <c r="K9" s="55" t="n">
+        <v>581</v>
+      </c>
       <c r="L9" s="55"/>
       <c r="N9" s="51" t="s">
         <v>23</v>
@@ -5326,7 +5466,9 @@
       <c r="AH9" s="55" t="n">
         <v>26341.8199999999997</v>
       </c>
-      <c r="AI9" s="55"/>
+      <c r="AI9" s="55" t="n">
+        <v>26306.3400000000001</v>
+      </c>
       <c r="AJ9" s="55"/>
     </row>
     <row r="10" spans="2:36">
@@ -5357,7 +5499,9 @@
       <c r="J10" s="55" t="n">
         <v>818</v>
       </c>
-      <c r="K10" s="55"/>
+      <c r="K10" s="55" t="n">
+        <v>818</v>
+      </c>
       <c r="L10" s="55"/>
       <c r="N10" s="51" t="s">
         <v>26</v>
@@ -5401,7 +5545,9 @@
       <c r="AH10" s="55" t="n">
         <v>34036.7300000000032</v>
       </c>
-      <c r="AI10" s="55"/>
+      <c r="AI10" s="55" t="n">
+        <v>33537.8899999999994</v>
+      </c>
       <c r="AJ10" s="55"/>
     </row>
     <row r="11" spans="2:36">
@@ -5432,7 +5578,9 @@
       <c r="J11" s="55" t="n">
         <v>1813.95000000000005</v>
       </c>
-      <c r="K11" s="55"/>
+      <c r="K11" s="55" t="n">
+        <v>1766.55999999999995</v>
+      </c>
       <c r="L11" s="55"/>
       <c r="N11" s="51" t="s">
         <v>30</v>
@@ -5476,7 +5624,9 @@
       <c r="AH11" s="55" t="n">
         <v>52927.2699999999968</v>
       </c>
-      <c r="AI11" s="55"/>
+      <c r="AI11" s="55" t="n">
+        <v>52745.3600000000006</v>
+      </c>
       <c r="AJ11" s="55"/>
     </row>
     <row r="12" spans="2:36">
@@ -5507,7 +5657,9 @@
       <c r="J12" s="55" t="n">
         <v>27954.9900000000016</v>
       </c>
-      <c r="K12" s="55"/>
+      <c r="K12" s="55" t="n">
+        <v>27447.7099999999991</v>
+      </c>
       <c r="L12" s="55"/>
       <c r="N12" s="51" t="s">
         <v>33</v>
@@ -5551,7 +5703,9 @@
       <c r="AH12" s="55" t="n">
         <v>21495.7599999999984</v>
       </c>
-      <c r="AI12" s="55"/>
+      <c r="AI12" s="55" t="n">
+        <v>21327.2299999999996</v>
+      </c>
       <c r="AJ12" s="55"/>
     </row>
     <row r="13" spans="2:36">
@@ -5582,7 +5736,9 @@
       <c r="J13" s="55" t="n">
         <v>9812</v>
       </c>
-      <c r="K13" s="55"/>
+      <c r="K13" s="55" t="n">
+        <v>9828</v>
+      </c>
       <c r="L13" s="55"/>
       <c r="N13" s="51" t="s">
         <v>36</v>
@@ -5611,7 +5767,9 @@
       <c r="V13" s="55" t="n">
         <v>6289</v>
       </c>
-      <c r="W13" s="55"/>
+      <c r="W13" s="55" t="n">
+        <v>6199</v>
+      </c>
       <c r="X13" s="55"/>
       <c r="Z13" s="51" t="s">
         <v>37</v>
@@ -5640,7 +5798,9 @@
       <c r="AH13" s="55" t="n">
         <v>24783.4700000000012</v>
       </c>
-      <c r="AI13" s="55"/>
+      <c r="AI13" s="55" t="n">
+        <v>24364.1899999999987</v>
+      </c>
       <c r="AJ13" s="55"/>
     </row>
     <row r="14" spans="2:36">
@@ -5671,7 +5831,9 @@
       <c r="J14" s="55" t="n">
         <v>1090</v>
       </c>
-      <c r="K14" s="55"/>
+      <c r="K14" s="55" t="n">
+        <v>1000</v>
+      </c>
       <c r="L14" s="55"/>
       <c r="N14" s="51" t="s">
         <v>39</v>
@@ -5683,7 +5845,7 @@
         <v>11430.2199999999993</v>
       </c>
       <c r="Q14" s="53" t="n">
-        <v>10638.4100000000017</v>
+        <v>10638.4099999999999</v>
       </c>
       <c r="R14" s="53" t="n">
         <v>10809.4699999999993</v>
@@ -5700,7 +5862,9 @@
       <c r="V14" s="55" t="n">
         <v>10444.8999999999996</v>
       </c>
-      <c r="W14" s="55"/>
+      <c r="W14" s="55" t="n">
+        <v>10405.0799999999999</v>
+      </c>
       <c r="X14" s="55"/>
       <c r="Z14" s="51" t="s">
         <v>40</v>
@@ -5729,7 +5893,9 @@
       <c r="AH14" s="55" t="n">
         <v>42621.9499999999971</v>
       </c>
-      <c r="AI14" s="55"/>
+      <c r="AI14" s="55" t="n">
+        <v>40395.7300000000032</v>
+      </c>
       <c r="AJ14" s="55"/>
     </row>
     <row r="15" spans="2:36">
@@ -5760,7 +5926,9 @@
       <c r="J15" s="55" t="n">
         <v>1339.11999999999989</v>
       </c>
-      <c r="K15" s="55"/>
+      <c r="K15" s="55" t="n">
+        <v>1339.11999999999989</v>
+      </c>
       <c r="L15" s="55"/>
       <c r="N15" s="51" t="s">
         <v>42</v>
@@ -5784,12 +5952,14 @@
         <v>14693.2999999999993</v>
       </c>
       <c r="U15" s="55" t="n">
-        <v>14150.0800000000017</v>
+        <v>14150.0799999999999</v>
       </c>
       <c r="V15" s="55" t="n">
         <v>13836.7999999999993</v>
       </c>
-      <c r="W15" s="55"/>
+      <c r="W15" s="55" t="n">
+        <v>13836.7999999999993</v>
+      </c>
       <c r="X15" s="55"/>
       <c r="Z15" s="51" t="s">
         <v>43</v>
@@ -5841,7 +6011,9 @@
       <c r="J16" s="55" t="n">
         <v>2565.23000000000002</v>
       </c>
-      <c r="K16" s="55"/>
+      <c r="K16" s="55" t="n">
+        <v>2563.2800000000002</v>
+      </c>
       <c r="L16" s="55"/>
       <c r="N16" s="51" t="s">
         <v>45</v>
@@ -5870,7 +6042,9 @@
       <c r="V16" s="55" t="n">
         <v>15428.7999999999993</v>
       </c>
-      <c r="W16" s="55"/>
+      <c r="W16" s="55" t="n">
+        <v>15350.3700000000008</v>
+      </c>
       <c r="X16" s="55"/>
       <c r="Z16" s="51" t="s">
         <v>46</v>
@@ -5899,7 +6073,9 @@
       <c r="AH16" s="55" t="n">
         <v>600.549999999999955</v>
       </c>
-      <c r="AI16" s="55"/>
+      <c r="AI16" s="55" t="n">
+        <v>586.059999999999945</v>
+      </c>
       <c r="AJ16" s="55"/>
     </row>
     <row r="17" spans="2:36">
@@ -5930,7 +6106,9 @@
       <c r="J17" s="55" t="n">
         <v>3089.53999999999996</v>
       </c>
-      <c r="K17" s="55"/>
+      <c r="K17" s="55" t="n">
+        <v>3069.09999999999991</v>
+      </c>
       <c r="L17" s="55"/>
       <c r="N17" s="51" t="s">
         <v>48</v>
@@ -5959,7 +6137,9 @@
       <c r="V17" s="55" t="n">
         <v>10913.6100000000006</v>
       </c>
-      <c r="W17" s="55"/>
+      <c r="W17" s="55" t="n">
+        <v>10880.7399999999998</v>
+      </c>
       <c r="X17" s="55"/>
       <c r="Z17" s="51" t="s">
         <v>49</v>
@@ -5988,7 +6168,9 @@
       <c r="AH17" s="55" t="n">
         <v>1158.97000000000003</v>
       </c>
-      <c r="AI17" s="55"/>
+      <c r="AI17" s="55" t="n">
+        <v>1154.55999999999995</v>
+      </c>
       <c r="AJ17" s="55"/>
     </row>
     <row r="18" spans="2:36">
@@ -6019,7 +6201,9 @@
       <c r="J18" s="55" t="n">
         <v>248</v>
       </c>
-      <c r="K18" s="55"/>
+      <c r="K18" s="55" t="n">
+        <v>248</v>
+      </c>
       <c r="L18" s="55"/>
       <c r="N18" s="51" t="s">
         <v>51</v>
@@ -6048,7 +6232,9 @@
       <c r="V18" s="55" t="n">
         <v>11828.9599999999991</v>
       </c>
-      <c r="W18" s="55"/>
+      <c r="W18" s="55" t="n">
+        <v>11639.3999999999996</v>
+      </c>
       <c r="X18" s="55"/>
       <c r="Z18" s="51" t="s">
         <v>52</v>
@@ -6077,7 +6263,9 @@
       <c r="AH18" s="55" t="n">
         <v>3574.94999999999982</v>
       </c>
-      <c r="AI18" s="55"/>
+      <c r="AI18" s="55" t="n">
+        <v>3505.75</v>
+      </c>
       <c r="AJ18" s="55"/>
     </row>
     <row r="19" spans="2:36">
@@ -6108,7 +6296,9 @@
       <c r="J19" s="55" t="n">
         <v>190.340000000000003</v>
       </c>
-      <c r="K19" s="55"/>
+      <c r="K19" s="55" t="n">
+        <v>188.75</v>
+      </c>
       <c r="L19" s="55"/>
       <c r="N19" s="51" t="s">
         <v>54</v>
@@ -6137,7 +6327,9 @@
       <c r="V19" s="55" t="n">
         <v>15996.6100000000006</v>
       </c>
-      <c r="W19" s="55"/>
+      <c r="W19" s="55" t="n">
+        <v>15788.5200000000004</v>
+      </c>
       <c r="X19" s="55"/>
       <c r="Z19" s="51" t="s">
         <v>56</v>
@@ -6158,12 +6350,14 @@
       <c r="AF19" s="55"/>
       <c r="AG19" s="55"/>
       <c r="AH19" s="55"/>
-      <c r="AI19" s="55"/>
+      <c r="AI19" s="55" t="n">
+        <v>4603.60999999999967</v>
+      </c>
       <c r="AJ19" s="55"/>
     </row>
     <row r="20" spans="2:36">
       <c r="B20" s="50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" s="50" t="n">
         <v>38</v>
@@ -6189,10 +6383,12 @@
       <c r="J20" s="55" t="n">
         <v>224.719999999999999</v>
       </c>
-      <c r="K20" s="55"/>
+      <c r="K20" s="55" t="n">
+        <v>224.719999999999999</v>
+      </c>
       <c r="L20" s="55"/>
       <c r="N20" s="51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O20" s="51" t="n">
         <v>50</v>
@@ -6207,10 +6403,10 @@
         <v>9555.72999999999956</v>
       </c>
       <c r="S20" s="55" t="n">
-        <v>11703.5800000000017</v>
+        <v>11703.5799999999999</v>
       </c>
       <c r="T20" s="55" t="n">
-        <v>11550.1600000000017</v>
+        <v>11550.1599999999999</v>
       </c>
       <c r="U20" s="55" t="n">
         <v>11626.2099999999991</v>
@@ -6218,10 +6414,12 @@
       <c r="V20" s="55" t="n">
         <v>10824.7399999999998</v>
       </c>
-      <c r="W20" s="55"/>
+      <c r="W20" s="55" t="n">
+        <v>10690.6900000000005</v>
+      </c>
       <c r="X20" s="55"/>
       <c r="Z20" s="51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA20" s="51" t="n">
         <v>87</v>
@@ -6247,12 +6445,14 @@
       <c r="AH20" s="55" t="n">
         <v>10384</v>
       </c>
-      <c r="AI20" s="55"/>
+      <c r="AI20" s="55" t="n">
+        <v>10336</v>
+      </c>
       <c r="AJ20" s="55"/>
     </row>
     <row r="21" spans="2:36">
       <c r="B21" s="50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21" s="50" t="n">
         <v>50</v>
@@ -6278,10 +6478,12 @@
       <c r="J21" s="55" t="n">
         <v>313.779999999999973</v>
       </c>
-      <c r="K21" s="55"/>
+      <c r="K21" s="55" t="n">
+        <v>313.490000000000009</v>
+      </c>
       <c r="L21" s="55"/>
       <c r="N21" s="51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O21" s="51" t="n">
         <v>50</v>
@@ -6307,10 +6509,12 @@
       <c r="V21" s="55" t="n">
         <v>11197.7299999999996</v>
       </c>
-      <c r="W21" s="55"/>
+      <c r="W21" s="55" t="n">
+        <v>11197.7299999999996</v>
+      </c>
       <c r="X21" s="55"/>
       <c r="Z21" s="51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA21" s="51" t="n">
         <v>267</v>
@@ -6336,12 +6540,14 @@
       <c r="AH21" s="55" t="n">
         <v>23486</v>
       </c>
-      <c r="AI21" s="55"/>
+      <c r="AI21" s="55" t="n">
+        <v>23426</v>
+      </c>
       <c r="AJ21" s="55"/>
     </row>
     <row r="22" spans="2:36">
       <c r="B22" s="50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" s="50" t="n">
         <v>13</v>
@@ -6367,10 +6573,12 @@
       <c r="J22" s="55" t="n">
         <v>391</v>
       </c>
-      <c r="K22" s="55"/>
+      <c r="K22" s="55" t="n">
+        <v>391</v>
+      </c>
       <c r="L22" s="55"/>
       <c r="N22" s="51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O22" s="51" t="n">
         <v>50</v>
@@ -6385,7 +6593,7 @@
         <v>9424.10000000000036</v>
       </c>
       <c r="S22" s="55" t="n">
-        <v>10160.4100000000017</v>
+        <v>10160.4099999999999</v>
       </c>
       <c r="T22" s="55" t="n">
         <v>9777.09000000000015</v>
@@ -6394,12 +6602,14 @@
         <v>9883.1299999999992</v>
       </c>
       <c r="V22" s="55" t="n">
+        <v>9449.58000000000175</v>
+      </c>
+      <c r="W22" s="55" t="n">
         <v>9449.57999999999993</v>
       </c>
-      <c r="W22" s="55"/>
       <c r="X22" s="55"/>
       <c r="Z22" s="51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AA22" s="51" t="n">
         <v>516</v>
@@ -6422,7 +6632,7 @@
     </row>
     <row r="23" spans="2:36">
       <c r="B23" s="50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" s="50" t="n">
         <v>131</v>
@@ -6448,10 +6658,12 @@
       <c r="J23" s="55" t="n">
         <v>1205.59999999999991</v>
       </c>
-      <c r="K23" s="55"/>
+      <c r="K23" s="55" t="n">
+        <v>1202.25</v>
+      </c>
       <c r="L23" s="55"/>
       <c r="N23" s="51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O23" s="51" t="n">
         <v>52</v>
@@ -6477,10 +6689,12 @@
       <c r="V23" s="55" t="n">
         <v>5838.61999999999989</v>
       </c>
-      <c r="W23" s="55"/>
+      <c r="W23" s="55" t="n">
+        <v>5666.11999999999989</v>
+      </c>
       <c r="X23" s="55"/>
       <c r="Z23" s="50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AA23" s="50" t="n">
         <v>35</v>
@@ -6506,12 +6720,14 @@
       <c r="AH23" s="55" t="n">
         <v>282.180000000000007</v>
       </c>
-      <c r="AI23" s="55"/>
+      <c r="AI23" s="55" t="n">
+        <v>282.180000000000007</v>
+      </c>
       <c r="AJ23" s="55"/>
     </row>
     <row r="24" spans="2:36">
       <c r="B24" s="50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" s="50" t="n">
         <v>8</v>
@@ -6537,10 +6753,12 @@
       <c r="J24" s="55" t="n">
         <v>359</v>
       </c>
-      <c r="K24" s="55"/>
+      <c r="K24" s="55" t="n">
+        <v>359</v>
+      </c>
       <c r="L24" s="55"/>
       <c r="N24" s="51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O24" s="51" t="n">
         <v>159</v>
@@ -6566,10 +6784,12 @@
       <c r="V24" s="55" t="n">
         <v>21122.4700000000012</v>
       </c>
-      <c r="W24" s="55"/>
+      <c r="W24" s="55" t="n">
+        <v>20261.5299999999988</v>
+      </c>
       <c r="X24" s="55"/>
       <c r="Z24" s="51" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA24" s="51" t="n">
         <v>21</v>
@@ -6595,12 +6815,14 @@
       <c r="AH24" s="55" t="n">
         <v>485</v>
       </c>
-      <c r="AI24" s="55"/>
+      <c r="AI24" s="55" t="n">
+        <v>483</v>
+      </c>
       <c r="AJ24" s="55"/>
     </row>
     <row r="25" spans="2:36">
       <c r="B25" s="50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25" s="50" t="n">
         <v>10</v>
@@ -6626,10 +6848,12 @@
       <c r="J25" s="55" t="n">
         <v>732</v>
       </c>
-      <c r="K25" s="55"/>
+      <c r="K25" s="55" t="n">
+        <v>732</v>
+      </c>
       <c r="L25" s="55"/>
       <c r="N25" s="51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O25" s="51" t="n">
         <v>689</v>
@@ -6650,7 +6874,7 @@
       <c r="W25" s="55"/>
       <c r="X25" s="55"/>
       <c r="Z25" s="51" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA25" s="51" t="n">
         <v>112</v>
@@ -6676,12 +6900,14 @@
       <c r="AH25" s="55" t="n">
         <v>73643.8600000000006</v>
       </c>
-      <c r="AI25" s="55"/>
+      <c r="AI25" s="55" t="n">
+        <v>69439.8000000000029</v>
+      </c>
       <c r="AJ25" s="55"/>
     </row>
     <row r="26" spans="2:36">
       <c r="B26" s="50" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C26" s="50" t="n">
         <v>12</v>
@@ -6707,10 +6933,12 @@
       <c r="J26" s="55" t="n">
         <v>413</v>
       </c>
-      <c r="K26" s="55"/>
+      <c r="K26" s="55" t="n">
+        <v>413</v>
+      </c>
       <c r="L26" s="55"/>
       <c r="N26" s="51" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O26" s="51" t="n">
         <v>280</v>
@@ -6736,10 +6964,12 @@
       <c r="V26" s="55" t="n">
         <v>1298</v>
       </c>
-      <c r="W26" s="55"/>
+      <c r="W26" s="55" t="n">
+        <v>1278</v>
+      </c>
       <c r="X26" s="55"/>
       <c r="Z26" s="51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA26" s="51" t="n">
         <v>112</v>
@@ -6759,18 +6989,20 @@
       <c r="AF26" s="55" t="n">
         <v>2049.57000000000016</v>
       </c>
-      <c r="AG26" s="55" t="s">
-        <v>81</v>
+      <c r="AG26" s="55" t="n">
+        <v>2092.80000000000018</v>
       </c>
       <c r="AH26" s="55" t="n">
         <v>2166.09999999999991</v>
       </c>
-      <c r="AI26" s="55"/>
+      <c r="AI26" s="55" t="n">
+        <v>2093.96000000000004</v>
+      </c>
       <c r="AJ26" s="55"/>
     </row>
     <row r="27" spans="26:36">
       <c r="Z27" s="50" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA27" s="50" t="n">
         <v>8</v>
@@ -6790,18 +7022,20 @@
       <c r="AF27" s="55" t="n">
         <v>1981.15000000000009</v>
       </c>
-      <c r="AG27" s="55" t="s">
-        <v>82</v>
+      <c r="AG27" s="55" t="n">
+        <v>1981.5</v>
       </c>
       <c r="AH27" s="55" t="n">
         <v>1981.15000000000009</v>
       </c>
-      <c r="AI27" s="55"/>
+      <c r="AI27" s="55" t="n">
+        <v>1981.15000000000009</v>
+      </c>
       <c r="AJ27" s="55"/>
     </row>
     <row r="28" spans="26:36">
       <c r="Z28" s="50" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA28" s="50" t="n">
         <v>11</v>
@@ -6821,13 +7055,15 @@
       <c r="AF28" s="55" t="n">
         <v>2062.34999999999991</v>
       </c>
-      <c r="AG28" s="55" t="s">
-        <v>83</v>
+      <c r="AG28" s="55" t="n">
+        <v>2062.5</v>
       </c>
       <c r="AH28" s="55" t="n">
         <v>2062.34999999999991</v>
       </c>
-      <c r="AI28" s="55"/>
+      <c r="AI28" s="55" t="n">
+        <v>2062.34999999999991</v>
+      </c>
       <c r="AJ28" s="55"/>
     </row>
   </sheetData>
@@ -6848,7 +7084,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1643203916" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1643288762" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6857,16 +7093,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1643203916" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1643203916" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1643203916" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1643203916" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1643288762" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1643288762" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1643288762" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1643288762" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1643203916" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1643288762" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6879,8 +7115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AJ29"/>
   <sheetViews>
-    <sheetView view="normal" topLeftCell="Z4" zoomScale="90" workbookViewId="0">
-      <selection activeCell="AH29" sqref="AH29"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="Z4" zoomScale="90" workbookViewId="0">
+      <selection activeCell="AI29" sqref="AI29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.20"/>
@@ -6898,7 +7134,7 @@
     <col min="18" max="18" width="9.752475" customWidth="1" style="54"/>
     <col min="19" max="20" width="9.574257" customWidth="1" style="54"/>
     <col min="21" max="26" width="9.138614" customWidth="1" style="54"/>
-    <col min="27" max="27" width="19.138614" customWidth="1" style="54"/>
+    <col min="27" max="27" width="13.366337" customWidth="1" style="54"/>
     <col min="28" max="30" width="10.861386" customWidth="1" style="54"/>
     <col min="31" max="32" width="10.574257" customWidth="1" style="54"/>
     <col min="33" max="16384" width="9.138614" customWidth="1" style="54"/>
@@ -6942,7 +7178,7 @@
     <row r="3" spans="2:36">
       <c r="B3" s="50"/>
       <c r="C3" s="50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D3" s="49" t="s">
         <v>2</v>
@@ -6961,7 +7197,7 @@
       <c r="L3" s="49"/>
       <c r="N3" s="51"/>
       <c r="O3" s="51" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P3" s="49" t="s">
         <v>2</v>
@@ -6980,7 +7216,7 @@
       <c r="X3" s="49"/>
       <c r="Z3" s="50"/>
       <c r="AA3" s="50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AB3" s="49" t="s">
         <v>2</v>
@@ -7127,7 +7363,9 @@
       <c r="J5" s="55" t="n">
         <v>1986.15000000000009</v>
       </c>
-      <c r="K5" s="55"/>
+      <c r="K5" s="55" t="n">
+        <v>1961.72000000000003</v>
+      </c>
       <c r="L5" s="55"/>
       <c r="N5" s="51" t="s">
         <v>11</v>
@@ -7156,7 +7394,9 @@
       <c r="V5" s="55" t="n">
         <v>3439</v>
       </c>
-      <c r="W5" s="55"/>
+      <c r="W5" s="55" t="n">
+        <v>3401</v>
+      </c>
       <c r="X5" s="55"/>
       <c r="Z5" s="50" t="s">
         <v>12</v>
@@ -7185,7 +7425,9 @@
       <c r="AH5" s="55" t="n">
         <v>62006.8099999999977</v>
       </c>
-      <c r="AI5" s="55"/>
+      <c r="AI5" s="55" t="n">
+        <v>62006.8099999999977</v>
+      </c>
       <c r="AJ5" s="55"/>
     </row>
     <row r="6" spans="2:36">
@@ -7231,7 +7473,9 @@
       <c r="V6" s="55" t="n">
         <v>39977.8199999999997</v>
       </c>
-      <c r="W6" s="55"/>
+      <c r="W6" s="55" t="n">
+        <v>39761.6100000000006</v>
+      </c>
       <c r="X6" s="55"/>
       <c r="Z6" s="50" t="s">
         <v>15</v>
@@ -7260,7 +7504,9 @@
       <c r="AH6" s="55" t="n">
         <v>32380.7000000000007</v>
       </c>
-      <c r="AI6" s="55"/>
+      <c r="AI6" s="55" t="n">
+        <v>31286.619999999999</v>
+      </c>
       <c r="AJ6" s="55"/>
     </row>
     <row r="7" spans="2:36">
@@ -7291,7 +7537,9 @@
       <c r="J7" s="55" t="n">
         <v>6635</v>
       </c>
-      <c r="K7" s="55"/>
+      <c r="K7" s="55" t="n">
+        <v>6348</v>
+      </c>
       <c r="L7" s="55"/>
       <c r="N7" s="51" t="s">
         <v>17</v>
@@ -7320,7 +7568,9 @@
       <c r="V7" s="55" t="n">
         <v>4797</v>
       </c>
-      <c r="W7" s="55"/>
+      <c r="W7" s="55" t="n">
+        <v>4787</v>
+      </c>
       <c r="X7" s="55"/>
       <c r="Z7" s="50" t="s">
         <v>18</v>
@@ -7349,7 +7599,9 @@
       <c r="AH7" s="55" t="n">
         <v>40887.3000000000029</v>
       </c>
-      <c r="AI7" s="55"/>
+      <c r="AI7" s="55" t="n">
+        <v>39037.6999999999971</v>
+      </c>
       <c r="AJ7" s="55"/>
     </row>
     <row r="8" spans="2:36">
@@ -7380,7 +7632,9 @@
       <c r="J8" s="55" t="n">
         <v>19769</v>
       </c>
-      <c r="K8" s="55"/>
+      <c r="K8" s="55" t="n">
+        <v>19502</v>
+      </c>
       <c r="L8" s="55"/>
       <c r="N8" s="51" t="s">
         <v>20</v>
@@ -7424,7 +7678,9 @@
       <c r="AH8" s="55" t="n">
         <v>82166.3800000000047</v>
       </c>
-      <c r="AI8" s="55"/>
+      <c r="AI8" s="55" t="n">
+        <v>75728.3500000000058</v>
+      </c>
       <c r="AJ8" s="55"/>
     </row>
     <row r="9" spans="2:36">
@@ -7455,7 +7711,9 @@
       <c r="J9" s="55" t="n">
         <v>1068</v>
       </c>
-      <c r="K9" s="55"/>
+      <c r="K9" s="55" t="n">
+        <v>1012</v>
+      </c>
       <c r="L9" s="55"/>
       <c r="N9" s="51" t="s">
         <v>23</v>
@@ -7499,7 +7757,9 @@
       <c r="AH9" s="55" t="n">
         <v>42507.9499999999971</v>
       </c>
-      <c r="AI9" s="55"/>
+      <c r="AI9" s="55" t="n">
+        <v>42319</v>
+      </c>
       <c r="AJ9" s="55"/>
     </row>
     <row r="10" spans="2:36">
@@ -7530,7 +7790,9 @@
       <c r="J10" s="55" t="n">
         <v>1174</v>
       </c>
-      <c r="K10" s="55"/>
+      <c r="K10" s="55" t="n">
+        <v>1141</v>
+      </c>
       <c r="L10" s="55"/>
       <c r="N10" s="51" t="s">
         <v>26</v>
@@ -7574,7 +7836,9 @@
       <c r="AH10" s="55" t="n">
         <v>50601.8799999999974</v>
       </c>
-      <c r="AI10" s="55"/>
+      <c r="AI10" s="55" t="n">
+        <v>48427.5599999999977</v>
+      </c>
       <c r="AJ10" s="55"/>
     </row>
     <row r="11" spans="2:36">
@@ -7605,7 +7869,9 @@
       <c r="J11" s="55" t="n">
         <v>4324.48999999999978</v>
       </c>
-      <c r="K11" s="55"/>
+      <c r="K11" s="55" t="n">
+        <v>4324.48999999999978</v>
+      </c>
       <c r="L11" s="55"/>
       <c r="N11" s="51" t="s">
         <v>30</v>
@@ -7649,7 +7915,9 @@
       <c r="AH11" s="55" t="n">
         <v>72191.5500000000029</v>
       </c>
-      <c r="AI11" s="55"/>
+      <c r="AI11" s="55" t="n">
+        <v>71556.3600000000006</v>
+      </c>
       <c r="AJ11" s="55"/>
     </row>
     <row r="12" spans="2:36">
@@ -7680,7 +7948,9 @@
       <c r="J12" s="55" t="n">
         <v>53622.8899999999994</v>
       </c>
-      <c r="K12" s="55"/>
+      <c r="K12" s="55" t="n">
+        <v>52619.9400000000023</v>
+      </c>
       <c r="L12" s="55"/>
       <c r="N12" s="51" t="s">
         <v>33</v>
@@ -7724,7 +7994,9 @@
       <c r="AH12" s="55" t="n">
         <v>39882.4300000000003</v>
       </c>
-      <c r="AI12" s="55"/>
+      <c r="AI12" s="55" t="n">
+        <v>39442.8899999999994</v>
+      </c>
       <c r="AJ12" s="55"/>
     </row>
     <row r="13" spans="2:36">
@@ -7755,7 +8027,9 @@
       <c r="J13" s="55" t="n">
         <v>13041</v>
       </c>
-      <c r="K13" s="55"/>
+      <c r="K13" s="55" t="n">
+        <v>13041</v>
+      </c>
       <c r="L13" s="55"/>
       <c r="N13" s="51" t="s">
         <v>36</v>
@@ -7784,7 +8058,9 @@
       <c r="V13" s="55" t="n">
         <v>8281</v>
       </c>
-      <c r="W13" s="55"/>
+      <c r="W13" s="55" t="n">
+        <v>8191</v>
+      </c>
       <c r="X13" s="55"/>
       <c r="Z13" s="50" t="s">
         <v>37</v>
@@ -7813,7 +8089,9 @@
       <c r="AH13" s="55" t="n">
         <v>38509.5299999999988</v>
       </c>
-      <c r="AI13" s="55"/>
+      <c r="AI13" s="55" t="s">
+        <v>83</v>
+      </c>
       <c r="AJ13" s="55"/>
     </row>
     <row r="14" spans="2:36">
@@ -7844,7 +8122,9 @@
       <c r="J14" s="55" t="n">
         <v>1884.68000000000006</v>
       </c>
-      <c r="K14" s="55"/>
+      <c r="K14" s="55" t="n">
+        <v>1470</v>
+      </c>
       <c r="L14" s="55"/>
       <c r="N14" s="51" t="s">
         <v>39</v>
@@ -7873,7 +8153,9 @@
       <c r="V14" s="55" t="n">
         <v>16197.6200000000008</v>
       </c>
-      <c r="W14" s="55"/>
+      <c r="W14" s="55" t="n">
+        <v>15968.7800000000007</v>
+      </c>
       <c r="X14" s="55"/>
       <c r="Z14" s="50" t="s">
         <v>40</v>
@@ -7902,7 +8184,9 @@
       <c r="AH14" s="55" t="n">
         <v>62172.2799999999988</v>
       </c>
-      <c r="AI14" s="55"/>
+      <c r="AI14" s="55" t="n">
+        <v>61031.5599999999977</v>
+      </c>
       <c r="AJ14" s="55"/>
     </row>
     <row r="15" spans="2:36">
@@ -7933,7 +8217,9 @@
       <c r="J15" s="55" t="n">
         <v>1884.68000000000006</v>
       </c>
-      <c r="K15" s="55"/>
+      <c r="K15" s="55" t="n">
+        <v>1856.48000000000002</v>
+      </c>
       <c r="L15" s="55"/>
       <c r="N15" s="51" t="s">
         <v>42</v>
@@ -7962,7 +8248,9 @@
       <c r="V15" s="55" t="n">
         <v>20349.9199999999983</v>
       </c>
-      <c r="W15" s="55"/>
+      <c r="W15" s="55" t="n">
+        <v>20232.0600000000013</v>
+      </c>
       <c r="X15" s="55"/>
       <c r="Z15" s="50" t="s">
         <v>43</v>
@@ -8014,7 +8302,9 @@
       <c r="J16" s="55" t="n">
         <v>4510.59000000000015</v>
       </c>
-      <c r="K16" s="55"/>
+      <c r="K16" s="55" t="n">
+        <v>4371.36999999999989</v>
+      </c>
       <c r="L16" s="55"/>
       <c r="N16" s="51" t="s">
         <v>45</v>
@@ -8043,7 +8333,9 @@
       <c r="V16" s="55" t="n">
         <v>21685.4900000000016</v>
       </c>
-      <c r="W16" s="55"/>
+      <c r="W16" s="55" t="n">
+        <v>21685.880000000001</v>
+      </c>
       <c r="X16" s="55"/>
       <c r="Z16" s="50" t="s">
         <v>46</v>
@@ -8072,7 +8364,9 @@
       <c r="AH16" s="55" t="n">
         <v>946.850000000000023</v>
       </c>
-      <c r="AI16" s="55"/>
+      <c r="AI16" s="55" t="n">
+        <v>901.17999999999995</v>
+      </c>
       <c r="AJ16" s="55"/>
     </row>
     <row r="17" spans="2:36">
@@ -8103,7 +8397,9 @@
       <c r="J17" s="55" t="n">
         <v>4972.60000000000036</v>
       </c>
-      <c r="K17" s="55"/>
+      <c r="K17" s="55" t="n">
+        <v>4793.60000000000036</v>
+      </c>
       <c r="L17" s="55"/>
       <c r="N17" s="51" t="s">
         <v>48</v>
@@ -8132,7 +8428,9 @@
       <c r="V17" s="55" t="n">
         <v>17264.5499999999993</v>
       </c>
-      <c r="W17" s="55"/>
+      <c r="W17" s="55" t="n">
+        <v>17179.7200000000012</v>
+      </c>
       <c r="X17" s="55"/>
       <c r="Z17" s="50" t="s">
         <v>49</v>
@@ -8161,7 +8459,9 @@
       <c r="AH17" s="55" t="n">
         <v>1804.08999999999992</v>
       </c>
-      <c r="AI17" s="55"/>
+      <c r="AI17" s="55" t="n">
+        <v>1754.75</v>
+      </c>
       <c r="AJ17" s="55"/>
     </row>
     <row r="18" spans="2:36">
@@ -8192,7 +8492,9 @@
       <c r="J18" s="55" t="n">
         <v>390</v>
       </c>
-      <c r="K18" s="55"/>
+      <c r="K18" s="55" t="n">
+        <v>390</v>
+      </c>
       <c r="L18" s="55"/>
       <c r="N18" s="51" t="s">
         <v>51</v>
@@ -8221,7 +8523,9 @@
       <c r="V18" s="55" t="n">
         <v>19459.4000000000015</v>
       </c>
-      <c r="W18" s="55"/>
+      <c r="W18" s="55" t="n">
+        <v>19064.7700000000004</v>
+      </c>
       <c r="X18" s="55"/>
       <c r="Z18" s="50" t="s">
         <v>52</v>
@@ -8248,7 +8552,9 @@
       <c r="AH18" s="55" t="n">
         <v>5421.56999999999971</v>
       </c>
-      <c r="AI18" s="55"/>
+      <c r="AI18" s="55" t="n">
+        <v>5311.51000000000022</v>
+      </c>
       <c r="AJ18" s="55"/>
     </row>
     <row r="19" spans="2:36">
@@ -8279,7 +8585,9 @@
       <c r="J19" s="55" t="n">
         <v>286.550000000000011</v>
       </c>
-      <c r="K19" s="55"/>
+      <c r="K19" s="55" t="n">
+        <v>286.550000000000011</v>
+      </c>
       <c r="L19" s="55"/>
       <c r="N19" s="51" t="s">
         <v>54</v>
@@ -8308,7 +8616,9 @@
       <c r="V19" s="55" t="n">
         <v>24834.4300000000003</v>
       </c>
-      <c r="W19" s="55"/>
+      <c r="W19" s="55" t="n">
+        <v>23480.7999999999993</v>
+      </c>
       <c r="X19" s="55"/>
       <c r="Z19" s="50" t="s">
         <v>56</v>
@@ -8329,12 +8639,14 @@
       <c r="AF19" s="55"/>
       <c r="AG19" s="55"/>
       <c r="AH19" s="55"/>
-      <c r="AI19" s="55"/>
+      <c r="AI19" s="55" t="n">
+        <v>6974.89000000000033</v>
+      </c>
       <c r="AJ19" s="55"/>
     </row>
     <row r="20" spans="2:36">
       <c r="B20" s="50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" s="50" t="n">
         <v>57</v>
@@ -8360,10 +8672,12 @@
       <c r="J20" s="55" t="n">
         <v>365.110000000000014</v>
       </c>
-      <c r="K20" s="55"/>
+      <c r="K20" s="55" t="n">
+        <v>363.319999999999993</v>
+      </c>
       <c r="L20" s="55"/>
       <c r="N20" s="51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O20" s="51" t="n">
         <v>75</v>
@@ -8389,10 +8703,12 @@
       <c r="V20" s="55" t="n">
         <v>17267.5800000000017</v>
       </c>
-      <c r="W20" s="55"/>
+      <c r="W20" s="55" t="n">
+        <v>16572.0400000000009</v>
+      </c>
       <c r="X20" s="55"/>
       <c r="Z20" s="50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA20" s="50" t="n">
         <v>131</v>
@@ -8418,12 +8734,14 @@
       <c r="AH20" s="55" t="n">
         <v>16124</v>
       </c>
-      <c r="AI20" s="55"/>
+      <c r="AI20" s="55" t="n">
+        <v>16043</v>
+      </c>
       <c r="AJ20" s="55"/>
     </row>
     <row r="21" spans="2:36">
       <c r="B21" s="50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21" s="50" t="n">
         <v>75</v>
@@ -8449,10 +8767,12 @@
       <c r="J21" s="55" t="n">
         <v>447.649999999999977</v>
       </c>
-      <c r="K21" s="55"/>
+      <c r="K21" s="55" t="n">
+        <v>446.019999999999982</v>
+      </c>
       <c r="L21" s="55"/>
       <c r="N21" s="51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O21" s="51" t="n">
         <v>75</v>
@@ -8478,10 +8798,12 @@
       <c r="V21" s="55" t="n">
         <v>16977.3499999999985</v>
       </c>
-      <c r="W21" s="55"/>
+      <c r="W21" s="55" t="n">
+        <v>16977.6699999999983</v>
+      </c>
       <c r="X21" s="55"/>
       <c r="Z21" s="50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA21" s="50" t="n">
         <v>401</v>
@@ -8507,12 +8829,14 @@
       <c r="AH21" s="55" t="n">
         <v>35918</v>
       </c>
-      <c r="AI21" s="55"/>
+      <c r="AI21" s="55" t="n">
+        <v>35859</v>
+      </c>
       <c r="AJ21" s="55"/>
     </row>
     <row r="22" spans="2:36">
       <c r="B22" s="50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" s="50" t="n">
         <v>19</v>
@@ -8538,10 +8862,12 @@
       <c r="J22" s="55" t="n">
         <v>553</v>
       </c>
-      <c r="K22" s="55"/>
+      <c r="K22" s="55" t="n">
+        <v>553</v>
+      </c>
       <c r="L22" s="55"/>
       <c r="N22" s="51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O22" s="51" t="n">
         <v>75</v>
@@ -8562,15 +8888,17 @@
         <v>16640.5499999999993</v>
       </c>
       <c r="U22" s="55" t="n">
-        <v>16746.6899999999987</v>
+        <v>16746.6899999999951</v>
       </c>
       <c r="V22" s="55" t="n">
-        <v>16892.0299999999988</v>
-      </c>
-      <c r="W22" s="55"/>
+        <v>16892.0299999999952</v>
+      </c>
+      <c r="W22" s="55" t="n">
+        <v>16051.9300000000003</v>
+      </c>
       <c r="X22" s="55"/>
       <c r="Z22" s="50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AA22" s="50" t="n">
         <v>774</v>
@@ -8593,7 +8921,7 @@
     </row>
     <row r="23" spans="2:36">
       <c r="B23" s="50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" s="50" t="n">
         <v>196</v>
@@ -8619,10 +8947,12 @@
       <c r="J23" s="55" t="n">
         <v>1852.1099999999999</v>
       </c>
-      <c r="K23" s="55"/>
+      <c r="K23" s="55" t="n">
+        <v>1825.29999999999995</v>
+      </c>
       <c r="L23" s="55"/>
       <c r="N23" s="51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O23" s="51" t="n">
         <v>78</v>
@@ -8648,10 +8978,12 @@
       <c r="V23" s="55" t="n">
         <v>9242.6200000000008</v>
       </c>
-      <c r="W23" s="55"/>
+      <c r="W23" s="55" t="n">
+        <v>8970.14999999999964</v>
+      </c>
       <c r="X23" s="55"/>
       <c r="Z23" s="50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AA23" s="50" t="n">
         <v>52</v>
@@ -8677,12 +9009,14 @@
       <c r="AH23" s="55" t="n">
         <v>510.810000000000002</v>
       </c>
-      <c r="AI23" s="55"/>
+      <c r="AI23" s="55" t="n">
+        <v>480.069999999999993</v>
+      </c>
       <c r="AJ23" s="55"/>
     </row>
     <row r="24" spans="2:36">
       <c r="B24" s="50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" s="50" t="n">
         <v>12</v>
@@ -8708,10 +9042,12 @@
       <c r="J24" s="55" t="n">
         <v>640</v>
       </c>
-      <c r="K24" s="55"/>
+      <c r="K24" s="55" t="n">
+        <v>640</v>
+      </c>
       <c r="L24" s="55"/>
       <c r="N24" s="51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O24" s="51" t="n">
         <v>238</v>
@@ -8737,10 +9073,12 @@
       <c r="V24" s="55" t="n">
         <v>34393.5999999999985</v>
       </c>
-      <c r="W24" s="55"/>
+      <c r="W24" s="55" t="n">
+        <v>32497.7799999999988</v>
+      </c>
       <c r="X24" s="55"/>
       <c r="Z24" s="50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA24" s="50" t="n">
         <v>31</v>
@@ -8766,12 +9104,14 @@
       <c r="AH24" s="55" t="n">
         <v>719</v>
       </c>
-      <c r="AI24" s="55"/>
+      <c r="AI24" s="55" t="n">
+        <v>719</v>
+      </c>
       <c r="AJ24" s="55"/>
     </row>
     <row r="25" spans="2:36">
       <c r="B25" s="50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25" s="50" t="n">
         <v>15</v>
@@ -8797,10 +9137,12 @@
       <c r="J25" s="55" t="n">
         <v>1276</v>
       </c>
-      <c r="K25" s="55"/>
+      <c r="K25" s="55" t="n">
+        <v>1351</v>
+      </c>
       <c r="L25" s="55"/>
       <c r="N25" s="51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O25" s="51" t="n">
         <v>1034</v>
@@ -8821,7 +9163,7 @@
       <c r="W25" s="55"/>
       <c r="X25" s="55"/>
       <c r="Z25" s="50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA25" s="50" t="n">
         <v>168</v>
@@ -8847,12 +9189,14 @@
       <c r="AH25" s="55" t="n">
         <v>87227.9199999999983</v>
       </c>
-      <c r="AI25" s="55"/>
+      <c r="AI25" s="55" t="n">
+        <v>87227.9199999999983</v>
+      </c>
       <c r="AJ25" s="55"/>
     </row>
     <row r="26" spans="2:36">
       <c r="B26" s="50" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C26" s="50" t="n">
         <v>18</v>
@@ -8878,10 +9222,12 @@
       <c r="J26" s="55" t="n">
         <v>802</v>
       </c>
-      <c r="K26" s="55"/>
+      <c r="K26" s="55" t="s">
+        <v>84</v>
+      </c>
       <c r="L26" s="55"/>
       <c r="N26" s="51" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O26" s="51" t="n">
         <v>420</v>
@@ -8907,10 +9253,12 @@
       <c r="V26" s="55" t="n">
         <v>2114</v>
       </c>
-      <c r="W26" s="55"/>
+      <c r="W26" s="55" t="n">
+        <v>2088</v>
+      </c>
       <c r="X26" s="55"/>
       <c r="Z26" s="50" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA26" s="50" t="n">
         <v>168</v>
@@ -8936,12 +9284,14 @@
       <c r="AH26" s="55" t="n">
         <v>2844.80999999999995</v>
       </c>
-      <c r="AI26" s="55"/>
+      <c r="AI26" s="55" t="n">
+        <v>2799.09999999999991</v>
+      </c>
       <c r="AJ26" s="55"/>
     </row>
     <row r="27" spans="26:36">
       <c r="Z27" s="50" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA27" s="50" t="n">
         <v>12</v>
@@ -8967,12 +9317,14 @@
       <c r="AH27" s="55" t="n">
         <v>2852.11000000000013</v>
       </c>
-      <c r="AI27" s="55"/>
+      <c r="AI27" s="55" t="n">
+        <v>2808.82999999999993</v>
+      </c>
       <c r="AJ27" s="55"/>
     </row>
     <row r="28" spans="26:36">
       <c r="Z28" s="50" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA28" s="50" t="n">
         <v>16</v>
@@ -8998,7 +9350,9 @@
       <c r="AH28" s="55" t="n">
         <v>2936.28999999999996</v>
       </c>
-      <c r="AI28" s="55"/>
+      <c r="AI28" s="55" t="n">
+        <v>2936.28999999999996</v>
+      </c>
       <c r="AJ28" s="55"/>
     </row>
     <row r="29" spans="34:34">
@@ -9024,7 +9378,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1643203916" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1643288762" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9033,16 +9387,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1643203916" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1643203916" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1643203916" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1643203916" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1643288762" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1643288762" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1643288762" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1643288762" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1643203916" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1643288762" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Comparaçoes/BuscasLocais.xlsx
+++ b/Comparaçoes/BuscasLocais.xlsx
@@ -15,17 +15,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1643288762" val="1042" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1643288762" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1643288762" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1643288762"/>
+      <pm:revision xmlns:pm="smNativeData" day="1643380883" val="1042" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1643380883" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1643380883" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1643380883"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="85">
   <si>
     <t>Solução original</t>
   </si>
@@ -279,9 +279,6 @@
     <t>37162.88</t>
   </si>
   <si>
-    <t>802C:\Users\pdezi\Desktop\Iniciação Científica\GitHub\Instâncias\</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
 </sst>
@@ -313,7 +310,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643380883" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -328,7 +325,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643380883" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -343,7 +340,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643380883" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -358,7 +355,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643380883" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -374,7 +371,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643380883" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -390,7 +387,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" fgClr="FA7D00" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643380883" fgClr="FA7D00" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -405,7 +402,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" fgClr="FA7D00" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643380883" fgClr="FA7D00" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -421,7 +418,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" fgClr="800080" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643380883" fgClr="800080" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -437,7 +434,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643380883" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -453,7 +450,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" fgClr="7F7F7F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643380883" fgClr="7F7F7F" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" i="1"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" i="1"/>
             <pm:ea face="SimSun" sz="220" lang="default" i="1"/>
@@ -468,7 +465,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" fgClr="FF0000" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643380883" fgClr="FF0000" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -484,7 +481,7 @@
       <sz val="18"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" fgClr="44546A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643380883" fgClr="44546A" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="360" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="360" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="360" lang="default" weight="bold"/>
@@ -499,7 +496,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" fgClr="9C6500" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643380883" fgClr="9C6500" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -515,7 +512,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643380883" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -531,7 +528,7 @@
       <sz val="15"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" fgClr="44546A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643380883" fgClr="44546A" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="300" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="300" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="300" lang="default" weight="bold"/>
@@ -547,7 +544,7 @@
       <sz val="13"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" fgClr="44546A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643380883" fgClr="44546A" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="260" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="260" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="260" lang="default" weight="bold"/>
@@ -563,7 +560,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" fgClr="44546A" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643380883" fgClr="44546A" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -579,7 +576,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643380883" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -594,7 +591,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" fgClr="3F3F76" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643380883" fgClr="3F3F76" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -609,7 +606,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" fgClr="006100" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643380883" fgClr="006100" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -624,7 +621,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1643288762" fgClr="9C0006" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1643380883" fgClr="9C0006" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -646,7 +643,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00FFE697" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643380883" type="1" fgLvl="100" fgClr="00FFE697" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -660,7 +657,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643380883" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -671,7 +668,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00EBEBEB" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643380883" type="1" fgLvl="100" fgClr="00EBEBEB" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -682,7 +679,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00F8CAAB" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643380883" type="1" fgLvl="100" fgClr="00F8CAAB" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -693,7 +690,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643380883" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -704,7 +701,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00C5DFB3" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643380883" type="1" fgLvl="100" fgClr="00C5DFB3" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -715,7 +712,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643380883" type="1" fgLvl="100" fgClr="00A5A5A5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -729,7 +726,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00FFC000" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643380883" type="1" fgLvl="100" fgClr="00FFC000" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -740,7 +737,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="004472C4" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643380883" type="1" fgLvl="100" fgClr="004472C4" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -754,7 +751,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="0070AD47" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643380883" type="1" fgLvl="100" fgClr="0070AD47" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -765,7 +762,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643380883" type="1" fgLvl="100" fgClr="00FFCC99" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -776,7 +773,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643380883" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -787,7 +784,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643380883" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -801,7 +798,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00BDD7EE" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643380883" type="1" fgLvl="100" fgClr="00BDD7EE" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -812,7 +809,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00C6EFCE" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643380883" type="1" fgLvl="100" fgClr="00C6EFCE" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -823,7 +820,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643380883" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -834,7 +831,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00FFEB9C" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643380883" type="1" fgLvl="100" fgClr="00FFEB9C" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -845,7 +842,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00D9E1F2" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643380883" type="1" fgLvl="100" fgClr="00D9E1F2" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -856,7 +853,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643380883" type="1" fgLvl="100" fgClr="005B9BD5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -867,7 +864,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00DDEBF7" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643380883" type="1" fgLvl="100" fgClr="00DDEBF7" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -878,7 +875,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="009BC2E6" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643380883" type="1" fgLvl="100" fgClr="009BC2E6" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -889,7 +886,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00E1EFD8" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643380883" type="1" fgLvl="100" fgClr="00E1EFD8" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -900,7 +897,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00ED7D31" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643380883" type="1" fgLvl="100" fgClr="00ED7D31" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -911,7 +908,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00FBE3D5" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643380883" type="1" fgLvl="100" fgClr="00FBE3D5" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -922,7 +919,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00F4AF82" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643380883" type="1" fgLvl="100" fgClr="00F4AF82" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -933,7 +930,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00D9D9D9" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643380883" type="1" fgLvl="100" fgClr="00D9D9D9" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -944,7 +941,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00C7C7C7" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643380883" type="1" fgLvl="100" fgClr="00C7C7C7" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -955,7 +952,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00FFF2CA" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643380883" type="1" fgLvl="100" fgClr="00FFF2CA" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -966,7 +963,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00FFD964" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643380883" type="1" fgLvl="100" fgClr="00FFD964" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -977,7 +974,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00B4C6E7" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643380883" type="1" fgLvl="100" fgClr="00B4C6E7" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -988,7 +985,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="008EA9DB" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643380883" type="1" fgLvl="100" fgClr="008EA9DB" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -999,7 +996,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00A8D08C" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643380883" type="1" fgLvl="100" fgClr="00A8D08C" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1013,7 +1010,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643380883" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1024,7 +1021,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1643288762" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1643380883" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1046,7 +1043,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
+          <pm:border xmlns:pm="smNativeData" id="1643380883"/>
         </ext>
       </extLst>
     </border>
@@ -1065,7 +1062,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
+          <pm:border xmlns:pm="smNativeData" id="1643380883"/>
         </ext>
       </extLst>
     </border>
@@ -1084,7 +1081,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762">
+          <pm:border xmlns:pm="smNativeData" id="1643380883">
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="FF8001"/>
           </pm:border>
         </ext>
@@ -1105,7 +1102,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762">
+          <pm:border xmlns:pm="smNativeData" id="1643380883">
             <pm:line position="top" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="2" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -1129,7 +1126,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
+          <pm:border xmlns:pm="smNativeData" id="1643380883"/>
         </ext>
       </extLst>
     </border>
@@ -1148,7 +1145,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
+          <pm:border xmlns:pm="smNativeData" id="1643380883"/>
         </ext>
       </extLst>
     </border>
@@ -1167,7 +1164,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762">
+          <pm:border xmlns:pm="smNativeData" id="1643380883">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
@@ -1191,7 +1188,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
+          <pm:border xmlns:pm="smNativeData" id="1643380883"/>
         </ext>
       </extLst>
     </border>
@@ -1210,7 +1207,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
+          <pm:border xmlns:pm="smNativeData" id="1643380883"/>
         </ext>
       </extLst>
     </border>
@@ -1229,7 +1226,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762">
+          <pm:border xmlns:pm="smNativeData" id="1643380883">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="5B9BD5"/>
           </pm:border>
         </ext>
@@ -1250,7 +1247,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
+          <pm:border xmlns:pm="smNativeData" id="1643380883"/>
         </ext>
       </extLst>
     </border>
@@ -1269,7 +1266,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
+          <pm:border xmlns:pm="smNativeData" id="1643380883"/>
         </ext>
       </extLst>
     </border>
@@ -1288,7 +1285,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762">
+          <pm:border xmlns:pm="smNativeData" id="1643380883">
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="ACCCEA"/>
           </pm:border>
         </ext>
@@ -1309,7 +1306,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
+          <pm:border xmlns:pm="smNativeData" id="1643380883"/>
         </ext>
       </extLst>
     </border>
@@ -1328,7 +1325,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762">
+          <pm:border xmlns:pm="smNativeData" id="1643380883">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
@@ -1352,7 +1349,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762">
+          <pm:border xmlns:pm="smNativeData" id="1643380883">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -1376,7 +1373,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762">
+          <pm:border xmlns:pm="smNativeData" id="1643380883">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="7F7F7F"/>
@@ -1400,7 +1397,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762">
+          <pm:border xmlns:pm="smNativeData" id="1643380883">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="5B9BD5"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="5B9BD5"/>
           </pm:border>
@@ -1422,7 +1419,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
+          <pm:border xmlns:pm="smNativeData" id="1643380883"/>
         </ext>
       </extLst>
     </border>
@@ -1441,7 +1438,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
+          <pm:border xmlns:pm="smNativeData" id="1643380883"/>
         </ext>
       </extLst>
     </border>
@@ -1460,7 +1457,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
+          <pm:border xmlns:pm="smNativeData" id="1643380883"/>
         </ext>
       </extLst>
     </border>
@@ -1479,7 +1476,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
+          <pm:border xmlns:pm="smNativeData" id="1643380883"/>
         </ext>
       </extLst>
     </border>
@@ -1498,7 +1495,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
+          <pm:border xmlns:pm="smNativeData" id="1643380883"/>
         </ext>
       </extLst>
     </border>
@@ -1517,7 +1514,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
+          <pm:border xmlns:pm="smNativeData" id="1643380883"/>
         </ext>
       </extLst>
     </border>
@@ -1536,7 +1533,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
+          <pm:border xmlns:pm="smNativeData" id="1643380883"/>
         </ext>
       </extLst>
     </border>
@@ -1555,7 +1552,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
+          <pm:border xmlns:pm="smNativeData" id="1643380883"/>
         </ext>
       </extLst>
     </border>
@@ -1574,7 +1571,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
+          <pm:border xmlns:pm="smNativeData" id="1643380883"/>
         </ext>
       </extLst>
     </border>
@@ -1593,7 +1590,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
+          <pm:border xmlns:pm="smNativeData" id="1643380883"/>
         </ext>
       </extLst>
     </border>
@@ -1612,7 +1609,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
+          <pm:border xmlns:pm="smNativeData" id="1643380883"/>
         </ext>
       </extLst>
     </border>
@@ -1631,7 +1628,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
+          <pm:border xmlns:pm="smNativeData" id="1643380883"/>
         </ext>
       </extLst>
     </border>
@@ -1650,7 +1647,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
+          <pm:border xmlns:pm="smNativeData" id="1643380883"/>
         </ext>
       </extLst>
     </border>
@@ -1669,7 +1666,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
+          <pm:border xmlns:pm="smNativeData" id="1643380883"/>
         </ext>
       </extLst>
     </border>
@@ -1688,7 +1685,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
+          <pm:border xmlns:pm="smNativeData" id="1643380883"/>
         </ext>
       </extLst>
     </border>
@@ -1707,7 +1704,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
+          <pm:border xmlns:pm="smNativeData" id="1643380883"/>
         </ext>
       </extLst>
     </border>
@@ -1726,7 +1723,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
+          <pm:border xmlns:pm="smNativeData" id="1643380883"/>
         </ext>
       </extLst>
     </border>
@@ -1745,7 +1742,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
+          <pm:border xmlns:pm="smNativeData" id="1643380883"/>
         </ext>
       </extLst>
     </border>
@@ -1764,7 +1761,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
+          <pm:border xmlns:pm="smNativeData" id="1643380883"/>
         </ext>
       </extLst>
     </border>
@@ -1783,7 +1780,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762">
+          <pm:border xmlns:pm="smNativeData" id="1643380883">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1807,7 +1804,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762">
+          <pm:border xmlns:pm="smNativeData" id="1643380883">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1831,7 +1828,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1643288762"/>
+          <pm:border xmlns:pm="smNativeData" id="1643380883"/>
         </ext>
       </extLst>
     </border>
@@ -2209,10 +2206,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1643288762" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1643380883" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1643288762" count="41">
+      <pm:colors xmlns:pm="smNativeData" id="1643380883" count="41">
         <pm:color name="Cor 24" rgb="FA7D00"/>
         <pm:color name="Cor 25" rgb="800080"/>
         <pm:color name="Cor 26" rgb="44546A"/>
@@ -2774,7 +2771,7 @@
         <v>707.340000000000032</v>
       </c>
       <c r="K5" s="55" t="n">
-        <v>678.440000000000055</v>
+        <v>678.440000000000168</v>
       </c>
       <c r="L5" s="55"/>
       <c r="N5" s="51" t="s">
@@ -2894,7 +2891,7 @@
         <v>26</v>
       </c>
       <c r="AB6" s="53" t="n">
-        <v>7769.73999999999978</v>
+        <v>7769.73999999999887</v>
       </c>
       <c r="AC6" s="53" t="n">
         <v>7564.93999999999869</v>
@@ -3168,7 +3165,7 @@
         <v>11480.7299999999996</v>
       </c>
       <c r="AI9" s="55" t="n">
-        <v>11325.3299999999999</v>
+        <v>11325.3300000000017</v>
       </c>
       <c r="AJ9" s="55"/>
     </row>
@@ -3356,7 +3353,7 @@
         <v>11580.3199999999997</v>
       </c>
       <c r="J12" s="55" t="n">
-        <v>12834.5800000000017</v>
+        <v>12834.5799999999999</v>
       </c>
       <c r="K12" s="55" t="n">
         <v>12805.7199999999993</v>
@@ -3405,7 +3402,7 @@
         <v>8023.60999999999876</v>
       </c>
       <c r="AI12" s="55" t="n">
-        <v>8023.60999999999967</v>
+        <v>8023.60999999999876</v>
       </c>
       <c r="AJ12" s="55"/>
     </row>
@@ -3491,10 +3488,10 @@
         <v>12127.2900000000009</v>
       </c>
       <c r="AF13" s="55" t="n">
-        <v>11699.6599999999999</v>
+        <v>11699.6600000000017</v>
       </c>
       <c r="AG13" s="55" t="n">
-        <v>11699.6599999999999</v>
+        <v>11699.6600000000017</v>
       </c>
       <c r="AH13" s="55" t="n">
         <v>10546.9599999999991</v>
@@ -3659,7 +3656,7 @@
         <v>7646.89999999999873</v>
       </c>
       <c r="W15" s="55" t="n">
-        <v>7538.64999999999964</v>
+        <v>7538.64999999999873</v>
       </c>
       <c r="X15" s="55"/>
       <c r="Z15" s="51" t="s">
@@ -4684,13 +4681,13 @@
         <v>56</v>
       </c>
       <c r="AB26" s="53" t="n">
-        <v>964.259999999999991</v>
+        <v>964.260000000000105</v>
       </c>
       <c r="AC26" s="53" t="n">
-        <v>964.259999999999991</v>
+        <v>964.260000000000105</v>
       </c>
       <c r="AD26" s="53" t="n">
-        <v>996.509999999999991</v>
+        <v>996.510000000000105</v>
       </c>
       <c r="AE26" s="55" t="n">
         <v>1038.02999999999997</v>
@@ -4738,7 +4735,7 @@
         <v>751.059999999999832</v>
       </c>
       <c r="AI27" s="55" t="n">
-        <v>751.059999999999945</v>
+        <v>751.059999999999832</v>
       </c>
       <c r="AJ27" s="55"/>
     </row>
@@ -4793,7 +4790,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1643288762" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1643380883" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4802,16 +4799,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1643288762" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1643288762" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1643288762" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1643288762" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1643380883" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1643380883" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1643380883" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1643380883" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1643288762" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1643380883" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -5845,7 +5842,7 @@
         <v>11430.2199999999993</v>
       </c>
       <c r="Q14" s="53" t="n">
-        <v>10638.4099999999999</v>
+        <v>10638.4100000000017</v>
       </c>
       <c r="R14" s="53" t="n">
         <v>10809.4699999999993</v>
@@ -5863,7 +5860,7 @@
         <v>10444.8999999999996</v>
       </c>
       <c r="W14" s="55" t="n">
-        <v>10405.0799999999999</v>
+        <v>10405.0800000000017</v>
       </c>
       <c r="X14" s="55"/>
       <c r="Z14" s="51" t="s">
@@ -5952,7 +5949,7 @@
         <v>14693.2999999999993</v>
       </c>
       <c r="U15" s="55" t="n">
-        <v>14150.0799999999999</v>
+        <v>14150.0800000000017</v>
       </c>
       <c r="V15" s="55" t="n">
         <v>13836.7999999999993</v>
@@ -6403,10 +6400,10 @@
         <v>9555.72999999999956</v>
       </c>
       <c r="S20" s="55" t="n">
-        <v>11703.5799999999999</v>
+        <v>11703.5800000000017</v>
       </c>
       <c r="T20" s="55" t="n">
-        <v>11550.1599999999999</v>
+        <v>11550.1600000000017</v>
       </c>
       <c r="U20" s="55" t="n">
         <v>11626.2099999999991</v>
@@ -6593,7 +6590,7 @@
         <v>9424.10000000000036</v>
       </c>
       <c r="S22" s="55" t="n">
-        <v>10160.4099999999999</v>
+        <v>10160.4100000000017</v>
       </c>
       <c r="T22" s="55" t="n">
         <v>9777.09000000000015</v>
@@ -6602,10 +6599,10 @@
         <v>9883.1299999999992</v>
       </c>
       <c r="V22" s="55" t="n">
+        <v>9449.57999999999993</v>
+      </c>
+      <c r="W22" s="55" t="n">
         <v>9449.58000000000175</v>
-      </c>
-      <c r="W22" s="55" t="n">
-        <v>9449.57999999999993</v>
       </c>
       <c r="X22" s="55"/>
       <c r="Z22" s="51" t="s">
@@ -7084,7 +7081,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1643288762" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1643380883" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7093,16 +7090,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1643288762" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1643288762" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1643288762" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1643288762" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1643380883" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1643380883" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1643380883" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1643380883" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1643288762" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1643380883" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -7116,27 +7113,28 @@
   <dimension ref="B2:AJ29"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" topLeftCell="Z4" zoomScale="90" workbookViewId="0">
-      <selection activeCell="AI29" sqref="AI29"/>
+      <selection activeCell="AJ20" sqref="AJ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.20"/>
   <cols>
     <col min="1" max="2" width="9.138614" customWidth="1" style="54"/>
-    <col min="3" max="3" width="19.138614" customWidth="1" style="54"/>
+    <col min="3" max="3" width="8.247525" customWidth="1" style="54"/>
     <col min="4" max="4" width="9.752475" customWidth="1" style="54"/>
     <col min="5" max="5" width="10.574257" customWidth="1" style="54"/>
     <col min="6" max="6" width="9.752475" customWidth="1" style="54"/>
     <col min="7" max="7" width="9.574257" customWidth="1" style="54"/>
     <col min="8" max="14" width="9.138614" customWidth="1" style="54"/>
-    <col min="15" max="15" width="19.138614" customWidth="1" style="54"/>
+    <col min="15" max="15" width="5.772277" customWidth="1" style="54"/>
     <col min="16" max="16" width="9.752475" customWidth="1" style="54"/>
     <col min="17" max="17" width="10.574257" customWidth="1" style="54"/>
     <col min="18" max="18" width="9.752475" customWidth="1" style="54"/>
     <col min="19" max="20" width="9.574257" customWidth="1" style="54"/>
     <col min="21" max="26" width="9.138614" customWidth="1" style="54"/>
-    <col min="27" max="27" width="13.366337" customWidth="1" style="54"/>
+    <col min="27" max="27" width="6.435644" customWidth="1" style="54"/>
     <col min="28" max="30" width="10.861386" customWidth="1" style="54"/>
-    <col min="31" max="32" width="10.574257" customWidth="1" style="54"/>
+    <col min="31" max="31" width="7.930693" customWidth="1" style="54"/>
+    <col min="32" max="32" width="8.762376" customWidth="1" style="54"/>
     <col min="33" max="16384" width="9.138614" customWidth="1" style="54"/>
   </cols>
   <sheetData>
@@ -7366,7 +7364,9 @@
       <c r="K5" s="55" t="n">
         <v>1961.72000000000003</v>
       </c>
-      <c r="L5" s="55"/>
+      <c r="L5" s="55" t="n">
+        <v>1981.96000000000004</v>
+      </c>
       <c r="N5" s="51" t="s">
         <v>11</v>
       </c>
@@ -7397,7 +7397,9 @@
       <c r="W5" s="55" t="n">
         <v>3401</v>
       </c>
-      <c r="X5" s="55"/>
+      <c r="X5" s="55" t="n">
+        <v>3460</v>
+      </c>
       <c r="Z5" s="50" t="s">
         <v>12</v>
       </c>
@@ -7428,7 +7430,9 @@
       <c r="AI5" s="55" t="n">
         <v>62006.8099999999977</v>
       </c>
-      <c r="AJ5" s="55"/>
+      <c r="AJ5" s="55" t="n">
+        <v>62006.8099999999977</v>
+      </c>
     </row>
     <row r="6" spans="2:36">
       <c r="B6" s="50" t="s">
@@ -7476,7 +7480,9 @@
       <c r="W6" s="55" t="n">
         <v>39761.6100000000006</v>
       </c>
-      <c r="X6" s="55"/>
+      <c r="X6" s="55" t="n">
+        <v>40577.7900000000009</v>
+      </c>
       <c r="Z6" s="50" t="s">
         <v>15</v>
       </c>
@@ -7507,7 +7513,9 @@
       <c r="AI6" s="55" t="n">
         <v>31286.619999999999</v>
       </c>
-      <c r="AJ6" s="55"/>
+      <c r="AJ6" s="55" t="n">
+        <v>34216.3399999999965</v>
+      </c>
     </row>
     <row r="7" spans="2:36">
       <c r="B7" s="50" t="s">
@@ -7540,7 +7548,9 @@
       <c r="K7" s="55" t="n">
         <v>6348</v>
       </c>
-      <c r="L7" s="55"/>
+      <c r="L7" s="55" t="n">
+        <v>6453</v>
+      </c>
       <c r="N7" s="51" t="s">
         <v>17</v>
       </c>
@@ -7571,7 +7581,9 @@
       <c r="W7" s="55" t="n">
         <v>4787</v>
       </c>
-      <c r="X7" s="55"/>
+      <c r="X7" s="55" t="n">
+        <v>4978</v>
+      </c>
       <c r="Z7" s="50" t="s">
         <v>18</v>
       </c>
@@ -7602,7 +7614,9 @@
       <c r="AI7" s="55" t="n">
         <v>39037.6999999999971</v>
       </c>
-      <c r="AJ7" s="55"/>
+      <c r="AJ7" s="55" t="n">
+        <v>37713.8199999999997</v>
+      </c>
     </row>
     <row r="8" spans="2:36">
       <c r="B8" s="50" t="s">
@@ -7635,7 +7649,9 @@
       <c r="K8" s="55" t="n">
         <v>19502</v>
       </c>
-      <c r="L8" s="55"/>
+      <c r="L8" s="55" t="n">
+        <v>19559</v>
+      </c>
       <c r="N8" s="51" t="s">
         <v>20</v>
       </c>
@@ -7681,7 +7697,9 @@
       <c r="AI8" s="55" t="n">
         <v>75728.3500000000058</v>
       </c>
-      <c r="AJ8" s="55"/>
+      <c r="AJ8" s="55" t="n">
+        <v>77635.7299999999959</v>
+      </c>
     </row>
     <row r="9" spans="2:36">
       <c r="B9" s="50" t="s">
@@ -7714,7 +7732,9 @@
       <c r="K9" s="55" t="n">
         <v>1012</v>
       </c>
-      <c r="L9" s="55"/>
+      <c r="L9" s="55" t="n">
+        <v>1023</v>
+      </c>
       <c r="N9" s="51" t="s">
         <v>23</v>
       </c>
@@ -7760,7 +7780,9 @@
       <c r="AI9" s="55" t="n">
         <v>42319</v>
       </c>
-      <c r="AJ9" s="55"/>
+      <c r="AJ9" s="55" t="n">
+        <v>42495.6699999999983</v>
+      </c>
     </row>
     <row r="10" spans="2:36">
       <c r="B10" s="50" t="s">
@@ -7793,7 +7815,9 @@
       <c r="K10" s="55" t="n">
         <v>1141</v>
       </c>
-      <c r="L10" s="55"/>
+      <c r="L10" s="55" t="n">
+        <v>1194</v>
+      </c>
       <c r="N10" s="51" t="s">
         <v>26</v>
       </c>
@@ -7839,7 +7863,9 @@
       <c r="AI10" s="55" t="n">
         <v>48427.5599999999977</v>
       </c>
-      <c r="AJ10" s="55"/>
+      <c r="AJ10" s="55" t="n">
+        <v>49587.010000000002</v>
+      </c>
     </row>
     <row r="11" spans="2:36">
       <c r="B11" s="50" t="s">
@@ -7872,7 +7898,9 @@
       <c r="K11" s="55" t="n">
         <v>4324.48999999999978</v>
       </c>
-      <c r="L11" s="55"/>
+      <c r="L11" s="55" t="n">
+        <v>4501.89000000000033</v>
+      </c>
       <c r="N11" s="51" t="s">
         <v>30</v>
       </c>
@@ -7918,7 +7946,9 @@
       <c r="AI11" s="55" t="n">
         <v>71556.3600000000006</v>
       </c>
-      <c r="AJ11" s="55"/>
+      <c r="AJ11" s="55" t="n">
+        <v>70462.5599999999977</v>
+      </c>
     </row>
     <row r="12" spans="2:36">
       <c r="B12" s="50" t="s">
@@ -7951,7 +7981,9 @@
       <c r="K12" s="55" t="n">
         <v>52619.9400000000023</v>
       </c>
-      <c r="L12" s="55"/>
+      <c r="L12" s="55" t="n">
+        <v>52051.5800000000017</v>
+      </c>
       <c r="N12" s="51" t="s">
         <v>33</v>
       </c>
@@ -7997,7 +8029,9 @@
       <c r="AI12" s="55" t="n">
         <v>39442.8899999999994</v>
       </c>
-      <c r="AJ12" s="55"/>
+      <c r="AJ12" s="55" t="n">
+        <v>36542.3899999999994</v>
+      </c>
     </row>
     <row r="13" spans="2:36">
       <c r="B13" s="50" t="s">
@@ -8030,7 +8064,9 @@
       <c r="K13" s="55" t="n">
         <v>13041</v>
       </c>
-      <c r="L13" s="55"/>
+      <c r="L13" s="55" t="n">
+        <v>12573</v>
+      </c>
       <c r="N13" s="51" t="s">
         <v>36</v>
       </c>
@@ -8061,7 +8097,9 @@
       <c r="W13" s="55" t="n">
         <v>8191</v>
       </c>
-      <c r="X13" s="55"/>
+      <c r="X13" s="55" t="n">
+        <v>8281</v>
+      </c>
       <c r="Z13" s="50" t="s">
         <v>37</v>
       </c>
@@ -8092,7 +8130,9 @@
       <c r="AI13" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="AJ13" s="55"/>
+      <c r="AJ13" s="55" t="n">
+        <v>36957.5800000000017</v>
+      </c>
     </row>
     <row r="14" spans="2:36">
       <c r="B14" s="50" t="s">
@@ -8125,7 +8165,9 @@
       <c r="K14" s="55" t="n">
         <v>1470</v>
       </c>
-      <c r="L14" s="55"/>
+      <c r="L14" s="55" t="n">
+        <v>1470</v>
+      </c>
       <c r="N14" s="51" t="s">
         <v>39</v>
       </c>
@@ -8156,7 +8198,9 @@
       <c r="W14" s="55" t="n">
         <v>15968.7800000000007</v>
       </c>
-      <c r="X14" s="55"/>
+      <c r="X14" s="55" t="n">
+        <v>15544.8799999999992</v>
+      </c>
       <c r="Z14" s="50" t="s">
         <v>40</v>
       </c>
@@ -8187,7 +8231,9 @@
       <c r="AI14" s="55" t="n">
         <v>61031.5599999999977</v>
       </c>
-      <c r="AJ14" s="55"/>
+      <c r="AJ14" s="55" t="n">
+        <v>62569.6500000000015</v>
+      </c>
     </row>
     <row r="15" spans="2:36">
       <c r="B15" s="50" t="s">
@@ -8220,7 +8266,9 @@
       <c r="K15" s="55" t="n">
         <v>1856.48000000000002</v>
       </c>
-      <c r="L15" s="55"/>
+      <c r="L15" s="55" t="n">
+        <v>1884.68000000000006</v>
+      </c>
       <c r="N15" s="51" t="s">
         <v>42</v>
       </c>
@@ -8251,7 +8299,9 @@
       <c r="W15" s="55" t="n">
         <v>20232.0600000000013</v>
       </c>
-      <c r="X15" s="55"/>
+      <c r="X15" s="55" t="n">
+        <v>20412.1599999999999</v>
+      </c>
       <c r="Z15" s="50" t="s">
         <v>43</v>
       </c>
@@ -8305,7 +8355,9 @@
       <c r="K16" s="55" t="n">
         <v>4371.36999999999989</v>
       </c>
-      <c r="L16" s="55"/>
+      <c r="L16" s="55" t="n">
+        <v>4328.01000000000022</v>
+      </c>
       <c r="N16" s="51" t="s">
         <v>45</v>
       </c>
@@ -8336,7 +8388,9 @@
       <c r="W16" s="55" t="n">
         <v>21685.880000000001</v>
       </c>
-      <c r="X16" s="55"/>
+      <c r="X16" s="55" t="n">
+        <v>22427.3499999999985</v>
+      </c>
       <c r="Z16" s="50" t="s">
         <v>46</v>
       </c>
@@ -8367,7 +8421,9 @@
       <c r="AI16" s="55" t="n">
         <v>901.17999999999995</v>
       </c>
-      <c r="AJ16" s="55"/>
+      <c r="AJ16" s="55" t="n">
+        <v>924.389999999999986</v>
+      </c>
     </row>
     <row r="17" spans="2:36">
       <c r="B17" s="50" t="s">
@@ -8400,7 +8456,9 @@
       <c r="K17" s="55" t="n">
         <v>4793.60000000000036</v>
       </c>
-      <c r="L17" s="55"/>
+      <c r="L17" s="55" t="n">
+        <v>4933.01000000000022</v>
+      </c>
       <c r="N17" s="51" t="s">
         <v>48</v>
       </c>
@@ -8431,7 +8489,9 @@
       <c r="W17" s="55" t="n">
         <v>17179.7200000000012</v>
       </c>
-      <c r="X17" s="55"/>
+      <c r="X17" s="55" t="n">
+        <v>17030.7299999999996</v>
+      </c>
       <c r="Z17" s="50" t="s">
         <v>49</v>
       </c>
@@ -8462,7 +8522,9 @@
       <c r="AI17" s="55" t="n">
         <v>1754.75</v>
       </c>
-      <c r="AJ17" s="55"/>
+      <c r="AJ17" s="55" t="n">
+        <v>1765.58999999999992</v>
+      </c>
     </row>
     <row r="18" spans="2:36">
       <c r="B18" s="50" t="s">
@@ -8495,7 +8557,9 @@
       <c r="K18" s="55" t="n">
         <v>390</v>
       </c>
-      <c r="L18" s="55"/>
+      <c r="L18" s="55" t="n">
+        <v>390</v>
+      </c>
       <c r="N18" s="51" t="s">
         <v>51</v>
       </c>
@@ -8526,7 +8590,9 @@
       <c r="W18" s="55" t="n">
         <v>19064.7700000000004</v>
       </c>
-      <c r="X18" s="55"/>
+      <c r="X18" s="55" t="n">
+        <v>19376.9099999999999</v>
+      </c>
       <c r="Z18" s="50" t="s">
         <v>52</v>
       </c>
@@ -8555,7 +8621,9 @@
       <c r="AI18" s="55" t="n">
         <v>5311.51000000000022</v>
       </c>
-      <c r="AJ18" s="55"/>
+      <c r="AJ18" s="55" t="n">
+        <v>5215.22000000000025</v>
+      </c>
     </row>
     <row r="19" spans="2:36">
       <c r="B19" s="50" t="s">
@@ -8588,7 +8656,9 @@
       <c r="K19" s="55" t="n">
         <v>286.550000000000011</v>
       </c>
-      <c r="L19" s="55"/>
+      <c r="L19" s="55" t="n">
+        <v>294.569999999999993</v>
+      </c>
       <c r="N19" s="51" t="s">
         <v>54</v>
       </c>
@@ -8619,7 +8689,9 @@
       <c r="W19" s="55" t="n">
         <v>23480.7999999999993</v>
       </c>
-      <c r="X19" s="55"/>
+      <c r="X19" s="55" t="n">
+        <v>24342.4799999999996</v>
+      </c>
       <c r="Z19" s="50" t="s">
         <v>56</v>
       </c>
@@ -8642,7 +8714,9 @@
       <c r="AI19" s="55" t="n">
         <v>6974.89000000000033</v>
       </c>
-      <c r="AJ19" s="55"/>
+      <c r="AJ19" s="55" t="n">
+        <v>6836.76000000000022</v>
+      </c>
     </row>
     <row r="20" spans="2:36">
       <c r="B20" s="50" t="s">
@@ -8675,7 +8749,9 @@
       <c r="K20" s="55" t="n">
         <v>363.319999999999993</v>
       </c>
-      <c r="L20" s="55"/>
+      <c r="L20" s="55" t="n">
+        <v>368.089999999999975</v>
+      </c>
       <c r="N20" s="51" t="s">
         <v>59</v>
       </c>
@@ -8706,7 +8782,9 @@
       <c r="W20" s="55" t="n">
         <v>16572.0400000000009</v>
       </c>
-      <c r="X20" s="55"/>
+      <c r="X20" s="55" t="n">
+        <v>17331.9900000000016</v>
+      </c>
       <c r="Z20" s="50" t="s">
         <v>60</v>
       </c>
@@ -8770,7 +8848,9 @@
       <c r="K21" s="55" t="n">
         <v>446.019999999999982</v>
       </c>
-      <c r="L21" s="55"/>
+      <c r="L21" s="55" t="n">
+        <v>445.779999999999973</v>
+      </c>
       <c r="N21" s="51" t="s">
         <v>62</v>
       </c>
@@ -8801,7 +8881,9 @@
       <c r="W21" s="55" t="n">
         <v>16977.6699999999983</v>
       </c>
-      <c r="X21" s="55"/>
+      <c r="X21" s="55" t="n">
+        <v>16911.5200000000004</v>
+      </c>
       <c r="Z21" s="50" t="s">
         <v>63</v>
       </c>
@@ -8865,7 +8947,9 @@
       <c r="K22" s="55" t="n">
         <v>553</v>
       </c>
-      <c r="L22" s="55"/>
+      <c r="L22" s="55" t="n">
+        <v>553</v>
+      </c>
       <c r="N22" s="51" t="s">
         <v>65</v>
       </c>
@@ -8896,7 +8980,9 @@
       <c r="W22" s="55" t="n">
         <v>16051.9300000000003</v>
       </c>
-      <c r="X22" s="55"/>
+      <c r="X22" s="55" t="n">
+        <v>16827.4500000000007</v>
+      </c>
       <c r="Z22" s="50" t="s">
         <v>66</v>
       </c>
@@ -8950,7 +9036,9 @@
       <c r="K23" s="55" t="n">
         <v>1825.29999999999995</v>
       </c>
-      <c r="L23" s="55"/>
+      <c r="L23" s="55" t="n">
+        <v>1844.94000000000005</v>
+      </c>
       <c r="N23" s="51" t="s">
         <v>68</v>
       </c>
@@ -8979,9 +9067,11 @@
         <v>9242.6200000000008</v>
       </c>
       <c r="W23" s="55" t="n">
-        <v>8970.14999999999964</v>
-      </c>
-      <c r="X23" s="55"/>
+        <v>8970.14999999999782</v>
+      </c>
+      <c r="X23" s="55" t="n">
+        <v>8969.55999999999949</v>
+      </c>
       <c r="Z23" s="50" t="s">
         <v>69</v>
       </c>
@@ -9045,7 +9135,9 @@
       <c r="K24" s="55" t="n">
         <v>640</v>
       </c>
-      <c r="L24" s="55"/>
+      <c r="L24" s="55" t="n">
+        <v>640</v>
+      </c>
       <c r="N24" s="51" t="s">
         <v>71</v>
       </c>
@@ -9076,7 +9168,9 @@
       <c r="W24" s="55" t="n">
         <v>32497.7799999999988</v>
       </c>
-      <c r="X24" s="55"/>
+      <c r="X24" s="55" t="n">
+        <v>32515.8899999999994</v>
+      </c>
       <c r="Z24" s="50" t="s">
         <v>72</v>
       </c>
@@ -9140,7 +9234,9 @@
       <c r="K25" s="55" t="n">
         <v>1351</v>
       </c>
-      <c r="L25" s="55"/>
+      <c r="L25" s="55" t="n">
+        <v>1276</v>
+      </c>
       <c r="N25" s="51" t="s">
         <v>74</v>
       </c>
@@ -9222,10 +9318,12 @@
       <c r="J26" s="55" t="n">
         <v>802</v>
       </c>
-      <c r="K26" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="L26" s="55"/>
+      <c r="K26" s="55" t="n">
+        <v>802</v>
+      </c>
+      <c r="L26" s="55" t="n">
+        <v>799</v>
+      </c>
       <c r="N26" s="51" t="s">
         <v>77</v>
       </c>
@@ -9256,7 +9354,9 @@
       <c r="W26" s="55" t="n">
         <v>2088</v>
       </c>
-      <c r="X26" s="55"/>
+      <c r="X26" s="55" t="n">
+        <v>2091</v>
+      </c>
       <c r="Z26" s="50" t="s">
         <v>78</v>
       </c>
@@ -9357,7 +9457,7 @@
     </row>
     <row r="29" spans="34:34">
       <c r="AH29" s="54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -9378,7 +9478,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1643288762" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1643380883" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9387,16 +9487,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1643288762" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1643288762" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1643288762" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1643288762" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1643380883" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1643380883" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1643380883" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1643380883" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1643288762" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1643380883" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Comparaçoes/BuscasLocais.xlsx
+++ b/Comparaçoes/BuscasLocais.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12345" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="14400" windowHeight="12345" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="k = n|4" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="97">
   <si>
     <t>Solução original</t>
   </si>
@@ -280,6 +280,9 @@
     <t>37162.88</t>
   </si>
   <si>
+    <t>101,508,35</t>
+  </si>
+  <si>
     <t>99090.09</t>
   </si>
   <si>
@@ -312,10 +315,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -337,22 +340,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -365,13 +354,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -379,12 +375,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -402,6 +392,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF44546A"/>
@@ -409,8 +411,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF44546A"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -431,27 +448,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF44546A"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -483,13 +486,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE1EFD8"/>
+        <fgColor rgb="FFFFE697"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE697"/>
+        <fgColor rgb="FFA8D08C"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EA9DB"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CAAB"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBEBEB"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7C7C7"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5DFB3"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4AF82"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CA"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -501,97 +624,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9E1F2"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEBEBEB"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA8D08C"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8CAAB"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8EA9DB"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC5DFB3"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4C6E7"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4472C4"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBDD7EE"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FF5B9BD5"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -603,19 +636,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFD964"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4AF82"/>
+        <fgColor rgb="FFFBE3D5"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5B9BD5"/>
+        <fgColor rgb="FFE1EFD8"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -627,37 +660,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFED7D31"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9BC2E6"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBE3D5"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CA"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7C7C7"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD964"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -871,6 +874,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -895,21 +913,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -921,6 +924,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -943,21 +961,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -973,148 +976,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1663,8 +1666,8 @@
   <sheetPr/>
   <dimension ref="B2:AP31"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AI29" sqref="AI29"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AM29" sqref="AM29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1951,7 +1954,9 @@
       <c r="J5" s="46">
         <v>683.65</v>
       </c>
-      <c r="K5" s="20"/>
+      <c r="K5" s="20">
+        <v>676.76</v>
+      </c>
       <c r="L5" s="46">
         <v>707.34</v>
       </c>
@@ -1988,7 +1993,9 @@
       <c r="X5" s="62">
         <v>558</v>
       </c>
-      <c r="Y5" s="20"/>
+      <c r="Y5" s="20">
+        <v>558</v>
+      </c>
       <c r="Z5" s="63">
         <v>582</v>
       </c>
@@ -2025,7 +2032,9 @@
       <c r="AL5" s="62">
         <v>25126.84</v>
       </c>
-      <c r="AM5" s="20"/>
+      <c r="AM5" s="20">
+        <v>25126.84</v>
+      </c>
       <c r="AN5" s="60">
         <v>25126.84</v>
       </c>
@@ -2081,7 +2090,9 @@
       <c r="X6" s="62">
         <v>9818.95</v>
       </c>
-      <c r="Y6" s="20"/>
+      <c r="Y6" s="20">
+        <v>9818.95</v>
+      </c>
       <c r="Z6" s="63">
         <v>10082.97</v>
       </c>
@@ -2118,7 +2129,9 @@
       <c r="AL6" s="62">
         <v>7165.83</v>
       </c>
-      <c r="AM6" s="20"/>
+      <c r="AM6" s="20">
+        <v>7444.65</v>
+      </c>
       <c r="AN6" s="63">
         <v>7537.29</v>
       </c>
@@ -2157,7 +2170,9 @@
       <c r="J7" s="48">
         <v>1373</v>
       </c>
-      <c r="K7" s="20"/>
+      <c r="K7" s="20">
+        <v>1373</v>
+      </c>
       <c r="L7" s="48">
         <v>1373</v>
       </c>
@@ -2194,7 +2209,9 @@
       <c r="X7" s="59">
         <v>1404</v>
       </c>
-      <c r="Y7" s="20"/>
+      <c r="Y7" s="20">
+        <v>1404</v>
+      </c>
       <c r="Z7" s="60">
         <v>1356</v>
       </c>
@@ -2231,7 +2248,9 @@
       <c r="AL7" s="59">
         <v>13755.23</v>
       </c>
-      <c r="AM7" s="20"/>
+      <c r="AM7" s="20">
+        <v>13755.23</v>
+      </c>
       <c r="AN7" s="63">
         <v>14065.44</v>
       </c>
@@ -2270,7 +2289,9 @@
       <c r="J8" s="46">
         <v>4334</v>
       </c>
-      <c r="K8" s="20"/>
+      <c r="K8" s="20">
+        <v>4193</v>
+      </c>
       <c r="L8" s="46">
         <v>4532</v>
       </c>
@@ -2324,7 +2345,9 @@
       <c r="AL8" s="59">
         <v>23341.46</v>
       </c>
-      <c r="AM8" s="20"/>
+      <c r="AM8" s="20">
+        <v>22776.41</v>
+      </c>
       <c r="AN8" s="63">
         <v>23147.12</v>
       </c>
@@ -2363,7 +2386,9 @@
       <c r="J9" s="48">
         <v>292</v>
       </c>
-      <c r="K9" s="20"/>
+      <c r="K9" s="20">
+        <v>292</v>
+      </c>
       <c r="L9" s="48">
         <v>292</v>
       </c>
@@ -2417,7 +2442,9 @@
       <c r="AL9" s="59">
         <v>12001.03</v>
       </c>
-      <c r="AM9" s="20"/>
+      <c r="AM9" s="20">
+        <v>11847.56</v>
+      </c>
       <c r="AN9" s="63">
         <v>11480.73</v>
       </c>
@@ -2456,7 +2483,9 @@
       <c r="J10" s="48">
         <v>352</v>
       </c>
-      <c r="K10" s="20"/>
+      <c r="K10" s="20">
+        <v>352</v>
+      </c>
       <c r="L10" s="48">
         <v>352</v>
       </c>
@@ -2510,7 +2539,9 @@
       <c r="AL10" s="62">
         <v>15403.25</v>
       </c>
-      <c r="AM10" s="20"/>
+      <c r="AM10" s="20">
+        <v>15403.26</v>
+      </c>
       <c r="AN10" s="60">
         <v>15403.26</v>
       </c>
@@ -2549,7 +2580,9 @@
       <c r="J11" s="48">
         <v>556.81</v>
       </c>
-      <c r="K11" s="20"/>
+      <c r="K11" s="20">
+        <v>556.81</v>
+      </c>
       <c r="L11" s="48">
         <v>556.81</v>
       </c>
@@ -2603,7 +2636,9 @@
       <c r="AL11" s="59">
         <v>23231.19</v>
       </c>
-      <c r="AM11" s="20"/>
+      <c r="AM11" s="20">
+        <v>22003.04</v>
+      </c>
       <c r="AN11" s="63">
         <v>23231.19</v>
       </c>
@@ -2642,7 +2677,9 @@
       <c r="J12" s="46">
         <v>11580.32</v>
       </c>
-      <c r="K12" s="20"/>
+      <c r="K12" s="20">
+        <v>11324.49</v>
+      </c>
       <c r="L12" s="46">
         <v>12834.58</v>
       </c>
@@ -2696,7 +2733,9 @@
       <c r="AL12" s="59">
         <v>8023.61</v>
       </c>
-      <c r="AM12" s="20"/>
+      <c r="AM12" s="20">
+        <v>8023.61</v>
+      </c>
       <c r="AN12" s="63">
         <v>8023.61</v>
       </c>
@@ -2735,7 +2774,9 @@
       <c r="J13" s="48">
         <v>4607</v>
       </c>
-      <c r="K13" s="20"/>
+      <c r="K13" s="20">
+        <v>4607</v>
+      </c>
       <c r="L13" s="48">
         <v>4607</v>
       </c>
@@ -2772,7 +2813,9 @@
       <c r="X13" s="62">
         <v>3155</v>
       </c>
-      <c r="Y13" s="20"/>
+      <c r="Y13" s="20">
+        <v>3155</v>
+      </c>
       <c r="Z13" s="60">
         <v>3155</v>
       </c>
@@ -2809,7 +2852,9 @@
       <c r="AL13" s="59">
         <v>11699.66</v>
       </c>
-      <c r="AM13" s="20"/>
+      <c r="AM13" s="20">
+        <v>11699.66</v>
+      </c>
       <c r="AN13" s="60">
         <v>10546.96</v>
       </c>
@@ -2846,7 +2891,9 @@
       <c r="J14" s="48">
         <v>480</v>
       </c>
-      <c r="K14" s="20"/>
+      <c r="K14" s="20">
+        <v>520</v>
+      </c>
       <c r="L14" s="46">
         <v>570</v>
       </c>
@@ -2883,7 +2930,9 @@
       <c r="X14" s="59">
         <v>4792.31</v>
       </c>
-      <c r="Y14" s="20"/>
+      <c r="Y14" s="20">
+        <v>4792.31</v>
+      </c>
       <c r="Z14" s="63">
         <v>4788.84</v>
       </c>
@@ -2920,7 +2969,9 @@
       <c r="AL14" s="59">
         <v>22573.29</v>
       </c>
-      <c r="AM14" s="20"/>
+      <c r="AM14" s="20">
+        <v>21971.2</v>
+      </c>
       <c r="AN14" s="63">
         <v>21586.45</v>
       </c>
@@ -2959,7 +3010,9 @@
       <c r="J15" s="48">
         <v>249.88</v>
       </c>
-      <c r="K15" s="20"/>
+      <c r="K15" s="20">
+        <v>249.88</v>
+      </c>
       <c r="L15" s="48">
         <v>249.88</v>
       </c>
@@ -2996,7 +3049,9 @@
       <c r="X15" s="59">
         <v>7222.1</v>
       </c>
-      <c r="Y15" s="20"/>
+      <c r="Y15" s="20">
+        <v>7222.1</v>
+      </c>
       <c r="Z15" s="63">
         <v>7646.9</v>
       </c>
@@ -3060,7 +3115,9 @@
       <c r="J16" s="46">
         <v>1215.96</v>
       </c>
-      <c r="K16" s="20"/>
+      <c r="K16" s="20">
+        <v>1154.49</v>
+      </c>
       <c r="L16" s="46">
         <v>1215.96</v>
       </c>
@@ -3097,7 +3154,9 @@
       <c r="X16" s="59">
         <v>6846.38</v>
       </c>
-      <c r="Y16" s="20"/>
+      <c r="Y16" s="20">
+        <v>6538.13</v>
+      </c>
       <c r="Z16" s="63">
         <v>6741.11</v>
       </c>
@@ -3134,7 +3193,9 @@
       <c r="AL16" s="59">
         <v>306.99</v>
       </c>
-      <c r="AM16" s="20"/>
+      <c r="AM16" s="20">
+        <v>299.36</v>
+      </c>
       <c r="AN16" s="63">
         <v>292.55</v>
       </c>
@@ -3173,7 +3234,9 @@
       <c r="J17" s="46">
         <v>1381.35</v>
       </c>
-      <c r="K17" s="20"/>
+      <c r="K17" s="20">
+        <v>1291.65</v>
+      </c>
       <c r="L17" s="48">
         <v>1245.96</v>
       </c>
@@ -3210,7 +3273,9 @@
       <c r="X17" s="62">
         <v>4469.81</v>
       </c>
-      <c r="Y17" s="20"/>
+      <c r="Y17" s="20">
+        <v>4469.81</v>
+      </c>
       <c r="Z17" s="63">
         <v>5384.91</v>
       </c>
@@ -3247,7 +3312,9 @@
       <c r="AL17" s="59">
         <v>593.08</v>
       </c>
-      <c r="AM17" s="20"/>
+      <c r="AM17" s="20">
+        <v>563.11</v>
+      </c>
       <c r="AN17" s="63">
         <v>546.13</v>
       </c>
@@ -3286,7 +3353,9 @@
       <c r="J18" s="48">
         <v>100</v>
       </c>
-      <c r="K18" s="20"/>
+      <c r="K18" s="20">
+        <v>100</v>
+      </c>
       <c r="L18" s="48">
         <v>100</v>
       </c>
@@ -3323,7 +3392,9 @@
       <c r="X18" s="59">
         <v>5396.33</v>
       </c>
-      <c r="Y18" s="20"/>
+      <c r="Y18" s="20">
+        <v>5396.33</v>
+      </c>
       <c r="Z18" s="63">
         <v>5396.33</v>
       </c>
@@ -3360,7 +3431,9 @@
       <c r="AL18" s="59">
         <v>1696.55</v>
       </c>
-      <c r="AM18" s="20"/>
+      <c r="AM18" s="20">
+        <v>1682.66</v>
+      </c>
       <c r="AN18" s="63">
         <v>1700.81</v>
       </c>
@@ -3399,7 +3472,9 @@
       <c r="J19" s="48">
         <v>77.04</v>
       </c>
-      <c r="K19" s="20"/>
+      <c r="K19" s="20">
+        <v>77.03</v>
+      </c>
       <c r="L19" s="48">
         <v>77.04</v>
       </c>
@@ -3436,7 +3511,9 @@
       <c r="X19" s="59">
         <v>8120.14</v>
       </c>
-      <c r="Y19" s="20"/>
+      <c r="Y19" s="20">
+        <v>8071.16</v>
+      </c>
       <c r="Z19" s="63">
         <v>7231.98</v>
       </c>
@@ -3471,7 +3548,9 @@
       <c r="AL19" s="59">
         <v>2352.71</v>
       </c>
-      <c r="AM19" s="20"/>
+      <c r="AM19" s="20">
+        <v>2279.56</v>
+      </c>
       <c r="AN19" s="63">
         <v>2218.16</v>
       </c>
@@ -3510,7 +3589,9 @@
       <c r="J20" s="48">
         <v>99.45</v>
       </c>
-      <c r="K20" s="20"/>
+      <c r="K20" s="20">
+        <v>99.44</v>
+      </c>
       <c r="L20" s="48">
         <v>99.45</v>
       </c>
@@ -3547,7 +3628,9 @@
       <c r="X20" s="59">
         <v>5775.96</v>
       </c>
-      <c r="Y20" s="20"/>
+      <c r="Y20" s="20">
+        <v>5775.96</v>
+      </c>
       <c r="Z20" s="60">
         <v>4293.02</v>
       </c>
@@ -3584,7 +3667,9 @@
       <c r="AL20" s="59">
         <v>5476</v>
       </c>
-      <c r="AM20" s="20"/>
+      <c r="AM20" s="20">
+        <v>5392</v>
+      </c>
       <c r="AN20" s="63">
         <v>5420</v>
       </c>
@@ -3623,7 +3708,9 @@
       <c r="J21" s="48">
         <v>132.75</v>
       </c>
-      <c r="K21" s="20"/>
+      <c r="K21" s="20">
+        <v>132.75</v>
+      </c>
       <c r="L21" s="46">
         <v>139.62</v>
       </c>
@@ -3660,7 +3747,9 @@
       <c r="X21" s="62">
         <v>5246.28</v>
       </c>
-      <c r="Y21" s="20"/>
+      <c r="Y21" s="20">
+        <v>5246.28</v>
+      </c>
       <c r="Z21" s="60">
         <v>5246.28</v>
       </c>
@@ -3697,7 +3786,9 @@
       <c r="AL21" s="62">
         <v>12012</v>
       </c>
-      <c r="AM21" s="20"/>
+      <c r="AM21" s="20">
+        <v>12008</v>
+      </c>
       <c r="AN21" s="63">
         <v>12196</v>
       </c>
@@ -3736,7 +3827,9 @@
       <c r="J22" s="48">
         <v>147</v>
       </c>
-      <c r="K22" s="20"/>
+      <c r="K22" s="20">
+        <v>147</v>
+      </c>
       <c r="L22" s="48">
         <v>147</v>
       </c>
@@ -3773,7 +3866,9 @@
       <c r="X22" s="62">
         <v>3842.76</v>
       </c>
-      <c r="Y22" s="20"/>
+      <c r="Y22" s="20">
+        <v>3842.76</v>
+      </c>
       <c r="Z22" s="63">
         <v>3919.58</v>
       </c>
@@ -3839,7 +3934,9 @@
       <c r="J23" s="46">
         <v>652.59</v>
       </c>
-      <c r="K23" s="20"/>
+      <c r="K23" s="20">
+        <v>630.47</v>
+      </c>
       <c r="L23" s="46">
         <v>655.8</v>
       </c>
@@ -3876,7 +3973,9 @@
       <c r="X23" s="62">
         <v>2033.36</v>
       </c>
-      <c r="Y23" s="20"/>
+      <c r="Y23" s="20">
+        <v>2033.36</v>
+      </c>
       <c r="Z23" s="60">
         <v>2002.98</v>
       </c>
@@ -3913,7 +4012,9 @@
       <c r="AL23" s="62">
         <v>127.18</v>
       </c>
-      <c r="AM23" s="20"/>
+      <c r="AM23" s="20">
+        <v>127.18</v>
+      </c>
       <c r="AN23" s="60">
         <v>127.18</v>
       </c>
@@ -3952,7 +4053,9 @@
       <c r="J24" s="48">
         <v>154</v>
       </c>
-      <c r="K24" s="20"/>
+      <c r="K24" s="20">
+        <v>154</v>
+      </c>
       <c r="L24" s="48">
         <v>154</v>
       </c>
@@ -3989,7 +4092,9 @@
       <c r="X24" s="59">
         <v>8969.49</v>
       </c>
-      <c r="Y24" s="20"/>
+      <c r="Y24" s="20">
+        <v>8909</v>
+      </c>
       <c r="Z24" s="63">
         <v>9406.35</v>
       </c>
@@ -4026,7 +4131,9 @@
       <c r="AL24" s="62">
         <v>146</v>
       </c>
-      <c r="AM24" s="20"/>
+      <c r="AM24" s="20">
+        <v>146</v>
+      </c>
       <c r="AN24" s="60">
         <v>146</v>
       </c>
@@ -4065,7 +4172,9 @@
       <c r="J25" s="48">
         <v>248</v>
       </c>
-      <c r="K25" s="20"/>
+      <c r="K25" s="20">
+        <v>248</v>
+      </c>
       <c r="L25" s="48">
         <v>248</v>
       </c>
@@ -4127,7 +4236,9 @@
       <c r="AL25" s="62">
         <v>27500</v>
       </c>
-      <c r="AM25" s="20"/>
+      <c r="AM25" s="20">
+        <v>27500</v>
+      </c>
       <c r="AN25" s="60">
         <v>27500</v>
       </c>
@@ -4166,7 +4277,9 @@
       <c r="J26" s="48">
         <v>162</v>
       </c>
-      <c r="K26" s="20"/>
+      <c r="K26" s="20">
+        <v>162</v>
+      </c>
       <c r="L26" s="48">
         <v>162</v>
       </c>
@@ -4203,7 +4316,9 @@
       <c r="X26" s="67">
         <v>535</v>
       </c>
-      <c r="Y26" s="20"/>
+      <c r="Y26" s="20">
+        <v>523</v>
+      </c>
       <c r="Z26" s="66">
         <v>640</v>
       </c>
@@ -4240,7 +4355,9 @@
       <c r="AL26" s="59">
         <v>1038.03</v>
       </c>
-      <c r="AM26" s="20"/>
+      <c r="AM26" s="20">
+        <v>1027.23</v>
+      </c>
       <c r="AN26" s="63">
         <v>1094.89</v>
       </c>
@@ -4345,7 +4462,9 @@
       <c r="AL27" s="62">
         <v>751.06</v>
       </c>
-      <c r="AM27" s="20"/>
+      <c r="AM27" s="20">
+        <v>751.06</v>
+      </c>
       <c r="AN27" s="60">
         <v>751.06</v>
       </c>
@@ -4410,7 +4529,9 @@
       <c r="AL28" s="62">
         <v>456.58</v>
       </c>
-      <c r="AM28" s="20"/>
+      <c r="AM28" s="20">
+        <v>456.58</v>
+      </c>
       <c r="AN28" s="60">
         <v>456.58</v>
       </c>
@@ -4568,8 +4689,8 @@
   <sheetPr/>
   <dimension ref="B2:AP31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AI29" sqref="AI29"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AM29" sqref="AM29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4852,7 +4973,9 @@
       <c r="J5" s="14">
         <v>1425.65</v>
       </c>
-      <c r="K5" s="20"/>
+      <c r="K5" s="20">
+        <v>1364.08</v>
+      </c>
       <c r="L5" s="14">
         <v>1328.54</v>
       </c>
@@ -4889,7 +5012,9 @@
       <c r="X5" s="34">
         <v>1691</v>
       </c>
-      <c r="Y5" s="20"/>
+      <c r="Y5" s="20">
+        <v>1691</v>
+      </c>
       <c r="Z5" s="32">
         <v>1691</v>
       </c>
@@ -4926,7 +5051,9 @@
       <c r="AL5" s="14">
         <v>44106.74</v>
       </c>
-      <c r="AM5" s="20"/>
+      <c r="AM5" s="20">
+        <v>43770.41</v>
+      </c>
       <c r="AN5" s="14">
         <v>44106.74</v>
       </c>
@@ -4982,7 +5109,9 @@
       <c r="X6" s="31">
         <v>22425.03</v>
       </c>
-      <c r="Y6" s="20"/>
+      <c r="Y6" s="20">
+        <v>22425.03</v>
+      </c>
       <c r="Z6" s="35">
         <v>26964.52</v>
       </c>
@@ -5019,7 +5148,9 @@
       <c r="AL6" s="14">
         <v>15274.43</v>
       </c>
-      <c r="AM6" s="20"/>
+      <c r="AM6" s="20">
+        <v>15550.56</v>
+      </c>
       <c r="AN6" s="14">
         <v>16472.98</v>
       </c>
@@ -5058,7 +5189,9 @@
       <c r="J7" s="14">
         <v>3674</v>
       </c>
-      <c r="K7" s="20"/>
+      <c r="K7" s="20">
+        <v>3452</v>
+      </c>
       <c r="L7" s="14">
         <v>3674</v>
       </c>
@@ -5095,7 +5228,9 @@
       <c r="X7" s="31">
         <v>3062</v>
       </c>
-      <c r="Y7" s="20"/>
+      <c r="Y7" s="20">
+        <v>3052</v>
+      </c>
       <c r="Z7" s="32">
         <v>2950</v>
       </c>
@@ -5132,7 +5267,9 @@
       <c r="AL7" s="14">
         <v>22298.23</v>
       </c>
-      <c r="AM7" s="20"/>
+      <c r="AM7" s="20">
+        <v>22298.23</v>
+      </c>
       <c r="AN7" s="16">
         <v>21887.89</v>
       </c>
@@ -5171,7 +5308,9 @@
       <c r="J8" s="16">
         <v>9700</v>
       </c>
-      <c r="K8" s="20"/>
+      <c r="K8" s="20">
+        <v>9581</v>
+      </c>
       <c r="L8" s="14">
         <v>11824</v>
       </c>
@@ -5225,7 +5364,9 @@
       <c r="AL8" s="14">
         <v>49348.67</v>
       </c>
-      <c r="AM8" s="20"/>
+      <c r="AM8" s="20">
+        <v>48783.62</v>
+      </c>
       <c r="AN8" s="14">
         <v>48383.81</v>
       </c>
@@ -5264,7 +5405,9 @@
       <c r="J9" s="16">
         <v>581</v>
       </c>
-      <c r="K9" s="20"/>
+      <c r="K9" s="20">
+        <v>581</v>
+      </c>
       <c r="L9" s="16">
         <v>581</v>
       </c>
@@ -5318,7 +5461,9 @@
       <c r="AL9" s="14">
         <v>28343.34</v>
       </c>
-      <c r="AM9" s="20"/>
+      <c r="AM9" s="20">
+        <v>28189.87</v>
+      </c>
       <c r="AN9" s="14">
         <v>26341.82</v>
       </c>
@@ -5357,7 +5502,9 @@
       <c r="J10" s="14">
         <v>818</v>
       </c>
-      <c r="K10" s="20"/>
+      <c r="K10" s="20">
+        <v>818</v>
+      </c>
       <c r="L10" s="14">
         <v>818</v>
       </c>
@@ -5411,7 +5558,9 @@
       <c r="AL10" s="14">
         <v>34036.73</v>
       </c>
-      <c r="AM10" s="20"/>
+      <c r="AM10" s="20">
+        <v>33537.89</v>
+      </c>
       <c r="AN10" s="14">
         <v>34036.73</v>
       </c>
@@ -5450,7 +5599,9 @@
       <c r="J11" s="14">
         <v>1813.95</v>
       </c>
-      <c r="K11" s="20"/>
+      <c r="K11" s="20">
+        <v>1766.5</v>
+      </c>
       <c r="L11" s="14">
         <v>1813.95</v>
       </c>
@@ -5504,7 +5655,9 @@
       <c r="AL11" s="14">
         <v>52534.33</v>
       </c>
-      <c r="AM11" s="20"/>
+      <c r="AM11" s="20">
+        <v>50078.03</v>
+      </c>
       <c r="AN11" s="14">
         <v>52927.27</v>
       </c>
@@ -5543,7 +5696,9 @@
       <c r="J12" s="14">
         <v>29059.75</v>
       </c>
-      <c r="K12" s="20"/>
+      <c r="K12" s="20">
+        <v>27985.83</v>
+      </c>
       <c r="L12" s="14">
         <v>27954.99</v>
       </c>
@@ -5597,7 +5752,9 @@
       <c r="AL12" s="14">
         <v>21514.76</v>
       </c>
-      <c r="AM12" s="20"/>
+      <c r="AM12" s="20">
+        <v>21497.42</v>
+      </c>
       <c r="AN12" s="14">
         <v>21495.76</v>
       </c>
@@ -5636,7 +5793,9 @@
       <c r="J13" s="16">
         <v>9455</v>
       </c>
-      <c r="K13" s="20"/>
+      <c r="K13" s="20">
+        <v>9455</v>
+      </c>
       <c r="L13" s="14">
         <v>9812</v>
       </c>
@@ -5673,7 +5832,9 @@
       <c r="X13" s="31">
         <v>5381</v>
       </c>
-      <c r="Y13" s="20"/>
+      <c r="Y13" s="20">
+        <v>5216</v>
+      </c>
       <c r="Z13" s="35">
         <v>6289</v>
       </c>
@@ -5710,7 +5871,9 @@
       <c r="AL13" s="14">
         <v>24326.71</v>
       </c>
-      <c r="AM13" s="20"/>
+      <c r="AM13" s="20">
+        <v>23891.76</v>
+      </c>
       <c r="AN13" s="14">
         <v>24783.47</v>
       </c>
@@ -5749,7 +5912,9 @@
       <c r="J14" s="16">
         <v>980</v>
       </c>
-      <c r="K14" s="20"/>
+      <c r="K14" s="20">
+        <v>1090</v>
+      </c>
       <c r="L14" s="14">
         <v>1090</v>
       </c>
@@ -5786,7 +5951,9 @@
       <c r="X14" s="34">
         <v>9744.28</v>
       </c>
-      <c r="Y14" s="20"/>
+      <c r="Y14" s="20">
+        <v>9744.28</v>
+      </c>
       <c r="Z14" s="35">
         <v>10444.9</v>
       </c>
@@ -5823,7 +5990,9 @@
       <c r="AL14" s="14">
         <v>42428.85</v>
       </c>
-      <c r="AM14" s="20"/>
+      <c r="AM14" s="20">
+        <v>40382.52</v>
+      </c>
       <c r="AN14" s="14">
         <v>42621.95</v>
       </c>
@@ -5862,7 +6031,9 @@
       <c r="J15" s="16">
         <v>1339.12</v>
       </c>
-      <c r="K15" s="20"/>
+      <c r="K15" s="20">
+        <v>1339.12</v>
+      </c>
       <c r="L15" s="16">
         <v>1339.12</v>
       </c>
@@ -5899,7 +6070,9 @@
       <c r="X15" s="31">
         <v>14150.08</v>
       </c>
-      <c r="Y15" s="20"/>
+      <c r="Y15" s="20">
+        <v>13912.85</v>
+      </c>
       <c r="Z15" s="32">
         <v>13836.8</v>
       </c>
@@ -5963,7 +6136,9 @@
       <c r="J16" s="14">
         <v>2726.8</v>
       </c>
-      <c r="K16" s="20"/>
+      <c r="K16" s="20">
+        <v>2602.79</v>
+      </c>
       <c r="L16" s="14">
         <v>2565.23</v>
       </c>
@@ -6000,7 +6175,9 @@
       <c r="X16" s="31">
         <v>15446.02</v>
       </c>
-      <c r="Y16" s="20"/>
+      <c r="Y16" s="20">
+        <v>14943.05</v>
+      </c>
       <c r="Z16" s="35">
         <v>15428.8</v>
       </c>
@@ -6037,7 +6214,9 @@
       <c r="AL16" s="14">
         <v>599.44</v>
       </c>
-      <c r="AM16" s="20"/>
+      <c r="AM16" s="20">
+        <v>589.12</v>
+      </c>
       <c r="AN16" s="14">
         <v>600.55</v>
       </c>
@@ -6076,7 +6255,9 @@
       <c r="J17" s="14">
         <v>3345.2</v>
       </c>
-      <c r="K17" s="20"/>
+      <c r="K17" s="20">
+        <v>3285.16</v>
+      </c>
       <c r="L17" s="14">
         <v>3089.54</v>
       </c>
@@ -6113,7 +6294,9 @@
       <c r="X17" s="31">
         <v>11037.6</v>
       </c>
-      <c r="Y17" s="20"/>
+      <c r="Y17" s="20">
+        <v>10794.88</v>
+      </c>
       <c r="Z17" s="32">
         <v>10913.61</v>
       </c>
@@ -6150,7 +6333,9 @@
       <c r="AL17" s="14">
         <v>1253.27</v>
       </c>
-      <c r="AM17" s="20"/>
+      <c r="AM17" s="20">
+        <v>1215.81</v>
+      </c>
       <c r="AN17" s="14">
         <v>1158.97</v>
       </c>
@@ -6189,7 +6374,9 @@
       <c r="J18" s="14">
         <v>248</v>
       </c>
-      <c r="K18" s="20"/>
+      <c r="K18" s="20">
+        <v>248</v>
+      </c>
       <c r="L18" s="14">
         <v>248</v>
       </c>
@@ -6226,7 +6413,9 @@
       <c r="X18" s="31">
         <v>12931.04</v>
       </c>
-      <c r="Y18" s="20"/>
+      <c r="Y18" s="20">
+        <v>12798.5</v>
+      </c>
       <c r="Z18" s="35">
         <v>11828.96</v>
       </c>
@@ -6263,7 +6452,9 @@
       <c r="AL18" s="14">
         <v>3569.88</v>
       </c>
-      <c r="AM18" s="20"/>
+      <c r="AM18" s="20">
+        <v>3439.7</v>
+      </c>
       <c r="AN18" s="14">
         <v>3574.95</v>
       </c>
@@ -6302,7 +6493,9 @@
       <c r="J19" s="14">
         <v>190.34</v>
       </c>
-      <c r="K19" s="20"/>
+      <c r="K19" s="20">
+        <v>190.34</v>
+      </c>
       <c r="L19" s="14">
         <v>190.34</v>
       </c>
@@ -6339,7 +6532,9 @@
       <c r="X19" s="31">
         <v>16340.73</v>
       </c>
-      <c r="Y19" s="20"/>
+      <c r="Y19" s="20">
+        <v>15965.67</v>
+      </c>
       <c r="Z19" s="35">
         <v>15996.61</v>
       </c>
@@ -6372,7 +6567,9 @@
       </c>
       <c r="AK19" s="14"/>
       <c r="AL19" s="14"/>
-      <c r="AM19" s="20"/>
+      <c r="AM19" s="20">
+        <v>4628.39</v>
+      </c>
       <c r="AN19" s="14"/>
       <c r="AO19" s="14">
         <v>4603.61</v>
@@ -6409,7 +6606,9 @@
       <c r="J20" s="14">
         <v>240.5</v>
       </c>
-      <c r="K20" s="20"/>
+      <c r="K20" s="20">
+        <v>238.32</v>
+      </c>
       <c r="L20" s="16">
         <v>224.72</v>
       </c>
@@ -6446,7 +6645,9 @@
       <c r="X20" s="31">
         <v>11626.21</v>
       </c>
-      <c r="Y20" s="20"/>
+      <c r="Y20" s="20">
+        <v>11550.16</v>
+      </c>
       <c r="Z20" s="35">
         <v>10824.74</v>
       </c>
@@ -6483,7 +6684,9 @@
       <c r="AL20" s="14">
         <v>10488</v>
       </c>
-      <c r="AM20" s="20"/>
+      <c r="AM20" s="20">
+        <v>10418</v>
+      </c>
       <c r="AN20" s="14">
         <v>10384</v>
       </c>
@@ -6522,7 +6725,9 @@
       <c r="J21" s="16">
         <v>266.89</v>
       </c>
-      <c r="K21" s="20"/>
+      <c r="K21" s="20">
+        <v>265.75</v>
+      </c>
       <c r="L21" s="14">
         <v>313.78</v>
       </c>
@@ -6559,7 +6764,9 @@
       <c r="X21" s="31">
         <v>11210.26</v>
       </c>
-      <c r="Y21" s="20"/>
+      <c r="Y21" s="20">
+        <v>11059.78</v>
+      </c>
       <c r="Z21" s="35">
         <v>11197.73</v>
       </c>
@@ -6596,7 +6803,9 @@
       <c r="AL21" s="14">
         <v>23179</v>
       </c>
-      <c r="AM21" s="20"/>
+      <c r="AM21" s="20">
+        <v>23174</v>
+      </c>
       <c r="AN21" s="14">
         <v>23486</v>
       </c>
@@ -6635,7 +6844,9 @@
       <c r="J22" s="14">
         <v>391</v>
       </c>
-      <c r="K22" s="20"/>
+      <c r="K22" s="20">
+        <v>391</v>
+      </c>
       <c r="L22" s="14">
         <v>391</v>
       </c>
@@ -6672,7 +6883,9 @@
       <c r="X22" s="31">
         <v>9883.13</v>
       </c>
-      <c r="Y22" s="20"/>
+      <c r="Y22" s="20">
+        <v>9732.45</v>
+      </c>
       <c r="Z22" s="35">
         <v>9449.58</v>
       </c>
@@ -6736,7 +6949,9 @@
       <c r="J23" s="14">
         <v>1350.3</v>
       </c>
-      <c r="K23" s="20"/>
+      <c r="K23" s="20">
+        <v>1311.99</v>
+      </c>
       <c r="L23" s="14">
         <v>1205.6</v>
       </c>
@@ -6773,7 +6988,9 @@
       <c r="X23" s="34">
         <v>5255.49</v>
       </c>
-      <c r="Y23" s="20"/>
+      <c r="Y23" s="20">
+        <v>5255.49</v>
+      </c>
       <c r="Z23" s="35">
         <v>5838.62</v>
       </c>
@@ -6810,7 +7027,9 @@
       <c r="AL23" s="16">
         <v>248.69</v>
       </c>
-      <c r="AM23" s="20"/>
+      <c r="AM23" s="20">
+        <v>248.69</v>
+      </c>
       <c r="AN23" s="14">
         <v>282.18</v>
       </c>
@@ -6849,7 +7068,9 @@
       <c r="J24" s="14">
         <v>426</v>
       </c>
-      <c r="K24" s="20"/>
+      <c r="K24" s="20">
+        <v>426</v>
+      </c>
       <c r="L24" s="16">
         <v>359</v>
       </c>
@@ -6886,7 +7107,9 @@
       <c r="X24" s="31">
         <v>20147.6</v>
       </c>
-      <c r="Y24" s="20"/>
+      <c r="Y24" s="20">
+        <v>19725.53</v>
+      </c>
       <c r="Z24" s="35">
         <v>21122.47</v>
       </c>
@@ -6923,7 +7146,9 @@
       <c r="AL24" s="16">
         <v>425</v>
       </c>
-      <c r="AM24" s="20"/>
+      <c r="AM24" s="20">
+        <v>425</v>
+      </c>
       <c r="AN24" s="14">
         <v>485</v>
       </c>
@@ -6962,7 +7187,9 @@
       <c r="J25" s="16">
         <v>683</v>
       </c>
-      <c r="K25" s="20"/>
+      <c r="K25" s="20">
+        <v>683</v>
+      </c>
       <c r="L25" s="14">
         <v>732</v>
       </c>
@@ -7024,7 +7251,9 @@
       <c r="AL25" s="14">
         <v>69730.67</v>
       </c>
-      <c r="AM25" s="20"/>
+      <c r="AM25" s="20">
+        <v>69439.8</v>
+      </c>
       <c r="AN25" s="14">
         <v>73643.86</v>
       </c>
@@ -7063,7 +7292,9 @@
       <c r="J26" s="16">
         <v>413</v>
       </c>
-      <c r="K26" s="20"/>
+      <c r="K26" s="20">
+        <v>413</v>
+      </c>
       <c r="L26" s="16">
         <v>413</v>
       </c>
@@ -7100,7 +7331,9 @@
       <c r="X26" s="34">
         <v>1161</v>
       </c>
-      <c r="Y26" s="20"/>
+      <c r="Y26" s="20">
+        <v>1136</v>
+      </c>
       <c r="Z26" s="35">
         <v>1298</v>
       </c>
@@ -7137,7 +7370,9 @@
       <c r="AL26" s="14">
         <v>2092.8</v>
       </c>
-      <c r="AM26" s="20"/>
+      <c r="AM26" s="20">
+        <v>2028.2</v>
+      </c>
       <c r="AN26" s="14">
         <v>2166.1</v>
       </c>
@@ -7244,7 +7479,9 @@
       <c r="AL27" s="16">
         <v>1981.5</v>
       </c>
-      <c r="AM27" s="20"/>
+      <c r="AM27" s="20">
+        <v>1981.15</v>
+      </c>
       <c r="AN27" s="16">
         <v>1981.15</v>
       </c>
@@ -7309,7 +7546,9 @@
       <c r="AL28" s="16">
         <v>2062.5</v>
       </c>
-      <c r="AM28" s="20"/>
+      <c r="AM28" s="20">
+        <v>2062.35</v>
+      </c>
       <c r="AN28" s="16">
         <v>2062.35</v>
       </c>
@@ -7467,8 +7706,8 @@
   <sheetPr/>
   <dimension ref="B2:AP31"/>
   <sheetViews>
-    <sheetView topLeftCell="Q2" workbookViewId="0">
-      <selection activeCell="AM4" sqref="AM4"/>
+    <sheetView tabSelected="1" topLeftCell="AD2" workbookViewId="0">
+      <selection activeCell="AE22" sqref="AE22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -7741,7 +7980,9 @@
       <c r="F5" s="12">
         <v>2024.94</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="13">
+        <v>1996.64</v>
+      </c>
       <c r="H5" s="14">
         <v>2263.91</v>
       </c>
@@ -7751,7 +7992,9 @@
       <c r="J5" s="14">
         <v>2149.65</v>
       </c>
-      <c r="K5" s="13"/>
+      <c r="K5" s="13">
+        <v>2060.61</v>
+      </c>
       <c r="L5" s="14">
         <v>1986.15</v>
       </c>
@@ -7776,7 +8019,9 @@
       <c r="T5" s="16">
         <v>3164</v>
       </c>
-      <c r="U5" s="20"/>
+      <c r="U5" s="20">
+        <v>3164</v>
+      </c>
       <c r="V5" s="14">
         <v>3442</v>
       </c>
@@ -7786,7 +8031,9 @@
       <c r="X5" s="14">
         <v>3311</v>
       </c>
-      <c r="Y5" s="20"/>
+      <c r="Y5" s="20">
+        <v>3290</v>
+      </c>
       <c r="Z5" s="14">
         <v>3439</v>
       </c>
@@ -7811,7 +8058,9 @@
       <c r="AH5" s="12">
         <v>62471.59</v>
       </c>
-      <c r="AI5" s="20"/>
+      <c r="AI5" s="20">
+        <v>62471.59</v>
+      </c>
       <c r="AJ5" s="14">
         <v>69677.34</v>
       </c>
@@ -7821,7 +8070,9 @@
       <c r="AL5" s="14">
         <v>69677.34</v>
       </c>
-      <c r="AM5" s="20"/>
+      <c r="AM5" s="20">
+        <v>69084.55</v>
+      </c>
       <c r="AN5" s="16">
         <v>62006.81</v>
       </c>
@@ -7865,7 +8116,9 @@
       <c r="T6" s="14">
         <v>40066.08</v>
       </c>
-      <c r="U6" s="20"/>
+      <c r="U6" s="20">
+        <v>39556.93</v>
+      </c>
       <c r="V6" s="14">
         <v>37592.14</v>
       </c>
@@ -7875,7 +8128,9 @@
       <c r="X6" s="16">
         <v>36870.59</v>
       </c>
-      <c r="Y6" s="20"/>
+      <c r="Y6" s="20">
+        <v>40226.92</v>
+      </c>
       <c r="Z6" s="14">
         <v>39977.82</v>
       </c>
@@ -7900,7 +8155,9 @@
       <c r="AH6" s="12">
         <v>30370.62</v>
       </c>
-      <c r="AI6" s="20"/>
+      <c r="AI6" s="20">
+        <v>30283.4</v>
+      </c>
       <c r="AJ6" s="14">
         <v>30902.14</v>
       </c>
@@ -7910,7 +8167,9 @@
       <c r="AL6" s="14">
         <v>31079.42</v>
       </c>
-      <c r="AM6" s="20"/>
+      <c r="AM6" s="20">
+        <v>30691.5</v>
+      </c>
       <c r="AN6" s="14">
         <v>32380.7</v>
       </c>
@@ -7937,7 +8196,9 @@
       <c r="F7" s="12">
         <v>6505</v>
       </c>
-      <c r="G7" s="13"/>
+      <c r="G7" s="13">
+        <v>6505</v>
+      </c>
       <c r="H7" s="14">
         <v>6635</v>
       </c>
@@ -7947,7 +8208,9 @@
       <c r="J7" s="14">
         <v>6635</v>
       </c>
-      <c r="K7" s="13"/>
+      <c r="K7" s="13">
+        <v>6348</v>
+      </c>
       <c r="L7" s="14">
         <v>6635</v>
       </c>
@@ -7972,7 +8235,9 @@
       <c r="T7" s="16">
         <v>4635</v>
       </c>
-      <c r="U7" s="20"/>
+      <c r="U7" s="20">
+        <v>4630</v>
+      </c>
       <c r="V7" s="14">
         <v>4810</v>
       </c>
@@ -7982,7 +8247,9 @@
       <c r="X7" s="14">
         <v>4810</v>
       </c>
-      <c r="Y7" s="20"/>
+      <c r="Y7" s="20">
+        <v>4763</v>
+      </c>
       <c r="Z7" s="14">
         <v>4797</v>
       </c>
@@ -8007,7 +8274,9 @@
       <c r="AH7" s="12">
         <v>37725.64</v>
       </c>
-      <c r="AI7" s="20"/>
+      <c r="AI7" s="20">
+        <v>37699.23</v>
+      </c>
       <c r="AJ7" s="14">
         <v>41103.59</v>
       </c>
@@ -8017,7 +8286,9 @@
       <c r="AL7" s="14">
         <v>39439.89</v>
       </c>
-      <c r="AM7" s="20"/>
+      <c r="AM7" s="20">
+        <v>38791.58</v>
+      </c>
       <c r="AN7" s="14">
         <v>40887.3</v>
       </c>
@@ -8044,7 +8315,9 @@
       <c r="F8" s="12">
         <v>21862</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8" s="13">
+        <v>21402</v>
+      </c>
       <c r="H8" s="14">
         <v>18469</v>
       </c>
@@ -8054,7 +8327,9 @@
       <c r="J8" s="14">
         <v>17882</v>
       </c>
-      <c r="K8" s="13"/>
+      <c r="K8" s="13">
+        <v>17597</v>
+      </c>
       <c r="L8" s="14">
         <v>19769</v>
       </c>
@@ -8096,7 +8371,9 @@
       <c r="AH8" s="12">
         <v>76340.25</v>
       </c>
-      <c r="AI8" s="20"/>
+      <c r="AI8" s="20">
+        <v>74400.9</v>
+      </c>
       <c r="AJ8" s="14">
         <v>79330.76</v>
       </c>
@@ -8106,7 +8383,9 @@
       <c r="AL8" s="14">
         <v>78690.72</v>
       </c>
-      <c r="AM8" s="20"/>
+      <c r="AM8" s="20">
+        <v>77676.63</v>
+      </c>
       <c r="AN8" s="14">
         <v>82166.38</v>
       </c>
@@ -8133,7 +8412,9 @@
       <c r="F9" s="12">
         <v>1035</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="13">
+        <v>1035</v>
+      </c>
       <c r="H9" s="14">
         <v>1068</v>
       </c>
@@ -8143,7 +8424,9 @@
       <c r="J9" s="14">
         <v>1068</v>
       </c>
-      <c r="K9" s="13"/>
+      <c r="K9" s="13">
+        <v>1012</v>
+      </c>
       <c r="L9" s="14">
         <v>1068</v>
       </c>
@@ -8185,7 +8468,9 @@
       <c r="AH9" s="15">
         <v>40842.56</v>
       </c>
-      <c r="AI9" s="20"/>
+      <c r="AI9" s="20">
+        <v>40832.2</v>
+      </c>
       <c r="AJ9" s="14">
         <v>42919.15</v>
       </c>
@@ -8195,7 +8480,9 @@
       <c r="AL9" s="14">
         <v>42908.79</v>
       </c>
-      <c r="AM9" s="20"/>
+      <c r="AM9" s="20">
+        <v>42601.85</v>
+      </c>
       <c r="AN9" s="14">
         <v>42507.95</v>
       </c>
@@ -8222,7 +8509,9 @@
       <c r="F10" s="12">
         <v>1218</v>
       </c>
-      <c r="G10" s="13"/>
+      <c r="G10" s="13">
+        <v>1218</v>
+      </c>
       <c r="H10" s="14">
         <v>1174</v>
       </c>
@@ -8232,7 +8521,9 @@
       <c r="J10" s="14">
         <v>1174</v>
       </c>
-      <c r="K10" s="13"/>
+      <c r="K10" s="13">
+        <v>1174</v>
+      </c>
       <c r="L10" s="14">
         <v>1174</v>
       </c>
@@ -8274,7 +8565,9 @@
       <c r="AH10" s="12">
         <v>46589.23</v>
       </c>
-      <c r="AI10" s="20"/>
+      <c r="AI10" s="20">
+        <v>46540.37</v>
+      </c>
       <c r="AJ10" s="14">
         <v>50601.88</v>
       </c>
@@ -8284,7 +8577,9 @@
       <c r="AL10" s="14">
         <v>49587.01</v>
       </c>
-      <c r="AM10" s="20"/>
+      <c r="AM10" s="20">
+        <v>47954.5</v>
+      </c>
       <c r="AN10" s="14">
         <v>50601.88</v>
       </c>
@@ -8311,7 +8606,9 @@
       <c r="F11" s="15">
         <v>4246.84</v>
       </c>
-      <c r="G11" s="13"/>
+      <c r="G11" s="13">
+        <v>4246.84</v>
+      </c>
       <c r="H11" s="14">
         <v>4586.4</v>
       </c>
@@ -8321,7 +8618,9 @@
       <c r="J11" s="14">
         <v>4586.4</v>
       </c>
-      <c r="K11" s="13"/>
+      <c r="K11" s="13">
+        <v>4538.96</v>
+      </c>
       <c r="L11" s="14">
         <v>4324.49</v>
       </c>
@@ -8363,7 +8662,9 @@
       <c r="AH11" s="15">
         <v>62428.38</v>
       </c>
-      <c r="AI11" s="20"/>
+      <c r="AI11" s="20">
+        <v>61912.01</v>
+      </c>
       <c r="AJ11" s="14">
         <v>70509.44</v>
       </c>
@@ -8373,7 +8674,9 @@
       <c r="AL11" s="14">
         <v>69909.44</v>
       </c>
-      <c r="AM11" s="20"/>
+      <c r="AM11" s="20">
+        <v>67444.99</v>
+      </c>
       <c r="AN11" s="14">
         <v>72191.55</v>
       </c>
@@ -8400,7 +8703,9 @@
       <c r="F12" s="12">
         <v>54589.39</v>
       </c>
-      <c r="G12" s="13"/>
+      <c r="G12" s="13">
+        <v>54380.52</v>
+      </c>
       <c r="H12" s="14">
         <v>52738.02</v>
       </c>
@@ -8410,7 +8715,9 @@
       <c r="J12" s="14">
         <v>50245.07</v>
       </c>
-      <c r="K12" s="13"/>
+      <c r="K12" s="13">
+        <v>50094.33</v>
+      </c>
       <c r="L12" s="14">
         <v>53622.89</v>
       </c>
@@ -8452,7 +8759,9 @@
       <c r="AH12" s="12">
         <v>36106.68</v>
       </c>
-      <c r="AI12" s="20"/>
+      <c r="AI12" s="20">
+        <v>35534.19</v>
+      </c>
       <c r="AJ12" s="14">
         <v>35648.87</v>
       </c>
@@ -8462,7 +8771,9 @@
       <c r="AL12" s="16">
         <v>34202.96</v>
       </c>
-      <c r="AM12" s="20"/>
+      <c r="AM12" s="20">
+        <v>34147.83</v>
+      </c>
       <c r="AN12" s="14">
         <v>39882.43</v>
       </c>
@@ -8489,7 +8800,9 @@
       <c r="F13" s="12">
         <v>13109</v>
       </c>
-      <c r="G13" s="13"/>
+      <c r="G13" s="13">
+        <v>13054</v>
+      </c>
       <c r="H13" s="14">
         <v>13041</v>
       </c>
@@ -8499,7 +8812,9 @@
       <c r="J13" s="16">
         <v>12573</v>
       </c>
-      <c r="K13" s="13"/>
+      <c r="K13" s="13">
+        <v>12573</v>
+      </c>
       <c r="L13" s="14">
         <v>13041</v>
       </c>
@@ -8524,7 +8839,9 @@
       <c r="T13" s="14">
         <v>8308</v>
       </c>
-      <c r="U13" s="20"/>
+      <c r="U13" s="20">
+        <v>8308</v>
+      </c>
       <c r="V13" s="14">
         <v>7839</v>
       </c>
@@ -8534,7 +8851,9 @@
       <c r="X13" s="14">
         <v>7839</v>
       </c>
-      <c r="Y13" s="20"/>
+      <c r="Y13" s="20">
+        <v>7737</v>
+      </c>
       <c r="Z13" s="14">
         <v>8281</v>
       </c>
@@ -8559,7 +8878,9 @@
       <c r="AH13" s="15">
         <v>36050.95</v>
       </c>
-      <c r="AI13" s="20"/>
+      <c r="AI13" s="20">
+        <v>35693.65</v>
+      </c>
       <c r="AJ13" s="14">
         <v>39656.99</v>
       </c>
@@ -8569,7 +8890,9 @@
       <c r="AL13" s="14">
         <v>38200.65</v>
       </c>
-      <c r="AM13" s="20"/>
+      <c r="AM13" s="20">
+        <v>36500.39</v>
+      </c>
       <c r="AN13" s="14">
         <v>38509.53</v>
       </c>
@@ -8596,7 +8919,9 @@
       <c r="F14" s="12">
         <v>1830</v>
       </c>
-      <c r="G14" s="13"/>
+      <c r="G14" s="13">
+        <v>1800</v>
+      </c>
       <c r="H14" s="14">
         <v>1490</v>
       </c>
@@ -8606,7 +8931,9 @@
       <c r="J14" s="14">
         <v>1490</v>
       </c>
-      <c r="K14" s="13"/>
+      <c r="K14" s="13">
+        <v>1660</v>
+      </c>
       <c r="L14" s="14">
         <v>1884.68</v>
       </c>
@@ -8631,7 +8958,9 @@
       <c r="T14" s="16">
         <v>15544.88</v>
       </c>
-      <c r="U14" s="20"/>
+      <c r="U14" s="20">
+        <v>15544.88</v>
+      </c>
       <c r="V14" s="14">
         <v>17292</v>
       </c>
@@ -8641,7 +8970,9 @@
       <c r="X14" s="14">
         <v>15712.96</v>
       </c>
-      <c r="Y14" s="20"/>
+      <c r="Y14" s="20">
+        <v>15659.61</v>
+      </c>
       <c r="Z14" s="14">
         <v>16197.62</v>
       </c>
@@ -8666,7 +8997,9 @@
       <c r="AH14" s="12">
         <v>64127.51</v>
       </c>
-      <c r="AI14" s="20"/>
+      <c r="AI14" s="20">
+        <v>63551.58</v>
+      </c>
       <c r="AJ14" s="14">
         <v>69225.15</v>
       </c>
@@ -8676,7 +9009,9 @@
       <c r="AL14" s="14">
         <v>67419.59</v>
       </c>
-      <c r="AM14" s="20"/>
+      <c r="AM14" s="20">
+        <v>64890.55</v>
+      </c>
       <c r="AN14" s="14">
         <v>62172.28</v>
       </c>
@@ -8703,7 +9038,9 @@
       <c r="F15" s="12">
         <v>1943.98</v>
       </c>
-      <c r="G15" s="13"/>
+      <c r="G15" s="13">
+        <v>1943.98</v>
+      </c>
       <c r="H15" s="14">
         <v>1884.68</v>
       </c>
@@ -8713,7 +9050,9 @@
       <c r="J15" s="14">
         <v>1884.68</v>
       </c>
-      <c r="K15" s="13"/>
+      <c r="K15" s="13">
+        <v>1856.48</v>
+      </c>
       <c r="L15" s="14">
         <v>1884.68</v>
       </c>
@@ -8738,7 +9077,9 @@
       <c r="T15" s="14">
         <v>20322.55</v>
       </c>
-      <c r="U15" s="20"/>
+      <c r="U15" s="20">
+        <v>20322.55</v>
+      </c>
       <c r="V15" s="14">
         <v>21707.86</v>
       </c>
@@ -8748,7 +9089,9 @@
       <c r="X15" s="14">
         <v>20666.07</v>
       </c>
-      <c r="Y15" s="20"/>
+      <c r="Y15" s="20">
+        <v>20308.11</v>
+      </c>
       <c r="Z15" s="14">
         <v>20349.92</v>
       </c>
@@ -8798,7 +9141,9 @@
       <c r="F16" s="15">
         <v>4141.5</v>
       </c>
-      <c r="G16" s="13"/>
+      <c r="G16" s="13">
+        <v>4139.55</v>
+      </c>
       <c r="H16" s="14">
         <v>4678.47</v>
       </c>
@@ -8808,7 +9153,9 @@
       <c r="J16" s="14">
         <v>4633.18</v>
       </c>
-      <c r="K16" s="13"/>
+      <c r="K16" s="13">
+        <v>4499.06</v>
+      </c>
       <c r="L16" s="14">
         <v>4510.59</v>
       </c>
@@ -8833,7 +9180,9 @@
       <c r="T16" s="16">
         <v>20907.74</v>
       </c>
-      <c r="U16" s="20"/>
+      <c r="U16" s="20">
+        <v>20787.41</v>
+      </c>
       <c r="V16" s="14">
         <v>23768.73</v>
       </c>
@@ -8843,7 +9192,9 @@
       <c r="X16" s="14">
         <v>23526.06</v>
       </c>
-      <c r="Y16" s="20"/>
+      <c r="Y16" s="20">
+        <v>22653.98</v>
+      </c>
       <c r="Z16" s="14">
         <v>21685.49</v>
       </c>
@@ -8868,7 +9219,9 @@
       <c r="AH16" s="15">
         <v>887.64</v>
       </c>
-      <c r="AI16" s="20"/>
+      <c r="AI16" s="20">
+        <v>876.16</v>
+      </c>
       <c r="AJ16" s="14">
         <v>990.65</v>
       </c>
@@ -8878,7 +9231,9 @@
       <c r="AL16" s="14">
         <v>923.11</v>
       </c>
-      <c r="AM16" s="20"/>
+      <c r="AM16" s="20">
+        <v>902.1</v>
+      </c>
       <c r="AN16" s="14">
         <v>946.85</v>
       </c>
@@ -8905,7 +9260,9 @@
       <c r="F17" s="15">
         <v>4751.72</v>
       </c>
-      <c r="G17" s="13"/>
+      <c r="G17" s="13">
+        <v>4735.37</v>
+      </c>
       <c r="H17" s="14">
         <v>5320.44</v>
       </c>
@@ -8915,7 +9272,9 @@
       <c r="J17" s="14">
         <v>4874.37</v>
       </c>
-      <c r="K17" s="13"/>
+      <c r="K17" s="13">
+        <v>4796.93</v>
+      </c>
       <c r="L17" s="14">
         <v>4972.6</v>
       </c>
@@ -8940,7 +9299,9 @@
       <c r="T17" s="16">
         <v>16962.01</v>
       </c>
-      <c r="U17" s="20"/>
+      <c r="U17" s="20">
+        <v>16884.09</v>
+      </c>
       <c r="V17" s="14">
         <v>18500.21</v>
       </c>
@@ -8950,7 +9311,9 @@
       <c r="X17" s="14">
         <v>18160.32</v>
       </c>
-      <c r="Y17" s="20"/>
+      <c r="Y17" s="20">
+        <v>18113.05</v>
+      </c>
       <c r="Z17" s="14">
         <v>17264.55</v>
       </c>
@@ -8975,7 +9338,9 @@
       <c r="AH17" s="15">
         <v>1685.46</v>
       </c>
-      <c r="AI17" s="20"/>
+      <c r="AI17" s="20">
+        <v>1669.95</v>
+      </c>
       <c r="AJ17" s="14">
         <v>1867.75</v>
       </c>
@@ -8985,7 +9350,9 @@
       <c r="AL17" s="14">
         <v>1867.75</v>
       </c>
-      <c r="AM17" s="20"/>
+      <c r="AM17" s="20">
+        <v>1805.09</v>
+      </c>
       <c r="AN17" s="14">
         <v>1804.09</v>
       </c>
@@ -9012,7 +9379,9 @@
       <c r="F18" s="12">
         <v>441</v>
       </c>
-      <c r="G18" s="13"/>
+      <c r="G18" s="13">
+        <v>423</v>
+      </c>
       <c r="H18" s="16">
         <v>390</v>
       </c>
@@ -9022,7 +9391,9 @@
       <c r="J18" s="16">
         <v>390</v>
       </c>
-      <c r="K18" s="13"/>
+      <c r="K18" s="13">
+        <v>390</v>
+      </c>
       <c r="L18" s="16">
         <v>390</v>
       </c>
@@ -9047,7 +9418,9 @@
       <c r="T18" s="16">
         <v>17311.44</v>
       </c>
-      <c r="U18" s="20"/>
+      <c r="U18" s="20">
+        <v>17109.45</v>
+      </c>
       <c r="V18" s="14">
         <v>19871.8</v>
       </c>
@@ -9057,7 +9430,9 @@
       <c r="X18" s="14">
         <v>19505.76</v>
       </c>
-      <c r="Y18" s="20"/>
+      <c r="Y18" s="20">
+        <v>18648.15</v>
+      </c>
       <c r="Z18" s="14">
         <v>19459.4</v>
       </c>
@@ -9082,7 +9457,9 @@
       <c r="AH18" s="12">
         <v>5282.69</v>
       </c>
-      <c r="AI18" s="20"/>
+      <c r="AI18" s="20">
+        <v>5216.35</v>
+      </c>
       <c r="AJ18" s="14">
         <v>5601.45</v>
       </c>
@@ -9090,7 +9467,9 @@
         <v>5334.7</v>
       </c>
       <c r="AL18" s="14"/>
-      <c r="AM18" s="20"/>
+      <c r="AM18" s="20">
+        <v>5281.35</v>
+      </c>
       <c r="AN18" s="14">
         <v>5421.57</v>
       </c>
@@ -9117,7 +9496,9 @@
       <c r="F19" s="12">
         <v>291.59</v>
       </c>
-      <c r="G19" s="13"/>
+      <c r="G19" s="13">
+        <v>291.59</v>
+      </c>
       <c r="H19" s="14">
         <v>323.66</v>
       </c>
@@ -9127,7 +9508,9 @@
       <c r="J19" s="14">
         <v>318.28</v>
       </c>
-      <c r="K19" s="13"/>
+      <c r="K19" s="13">
+        <v>313.27</v>
+      </c>
       <c r="L19" s="16">
         <v>286.55</v>
       </c>
@@ -9152,7 +9535,9 @@
       <c r="T19" s="14">
         <v>23060.74</v>
       </c>
-      <c r="U19" s="20"/>
+      <c r="U19" s="20">
+        <v>22347.45</v>
+      </c>
       <c r="V19" s="14">
         <v>24698.51</v>
       </c>
@@ -9162,7 +9547,9 @@
       <c r="X19" s="14">
         <v>23838.38</v>
       </c>
-      <c r="Y19" s="20"/>
+      <c r="Y19" s="20">
+        <v>22826.58</v>
+      </c>
       <c r="Z19" s="14">
         <v>24834.43</v>
       </c>
@@ -9187,7 +9574,9 @@
       <c r="AH19" s="12">
         <v>6847.53</v>
       </c>
-      <c r="AI19" s="20"/>
+      <c r="AI19" s="20">
+        <v>6815.97</v>
+      </c>
       <c r="AJ19" s="14"/>
       <c r="AK19" s="14"/>
       <c r="AL19" s="14"/>
@@ -9216,7 +9605,9 @@
       <c r="F20" s="15">
         <v>350.84</v>
       </c>
-      <c r="G20" s="13"/>
+      <c r="G20" s="13">
+        <v>350.84</v>
+      </c>
       <c r="H20" s="14">
         <v>373.07</v>
       </c>
@@ -9226,7 +9617,9 @@
       <c r="J20" s="14">
         <v>373.07</v>
       </c>
-      <c r="K20" s="13"/>
+      <c r="K20" s="13">
+        <v>369.11</v>
+      </c>
       <c r="L20" s="14">
         <v>365.11</v>
       </c>
@@ -9251,7 +9644,9 @@
       <c r="T20" s="14">
         <v>14510</v>
       </c>
-      <c r="U20" s="20"/>
+      <c r="U20" s="20">
+        <v>14460.79</v>
+      </c>
       <c r="V20" s="14">
         <v>18433.51</v>
       </c>
@@ -9261,7 +9656,9 @@
       <c r="X20" s="14">
         <v>18188.32</v>
       </c>
-      <c r="Y20" s="20"/>
+      <c r="Y20" s="20">
+        <v>16831.74</v>
+      </c>
       <c r="Z20" s="14">
         <v>17267.58</v>
       </c>
@@ -9286,7 +9683,9 @@
       <c r="AH20" s="15">
         <v>15870</v>
       </c>
-      <c r="AI20" s="20"/>
+      <c r="AI20" s="20">
+        <v>15854</v>
+      </c>
       <c r="AJ20" s="14">
         <v>16297</v>
       </c>
@@ -9296,7 +9695,9 @@
       <c r="AL20" s="14">
         <v>16073</v>
       </c>
-      <c r="AM20" s="20"/>
+      <c r="AM20" s="20">
+        <v>15954</v>
+      </c>
       <c r="AN20" s="14">
         <v>16124</v>
       </c>
@@ -9323,7 +9724,9 @@
       <c r="F21" s="12">
         <v>454.54</v>
       </c>
-      <c r="G21" s="13"/>
+      <c r="G21" s="13">
+        <v>452.51</v>
+      </c>
       <c r="H21" s="14">
         <v>445.59</v>
       </c>
@@ -9333,7 +9736,9 @@
       <c r="J21" s="14">
         <v>444.62</v>
       </c>
-      <c r="K21" s="13"/>
+      <c r="K21" s="13">
+        <v>443</v>
+      </c>
       <c r="L21" s="14">
         <v>447.65</v>
       </c>
@@ -9358,7 +9763,9 @@
       <c r="T21" s="14">
         <v>15399.66</v>
       </c>
-      <c r="U21" s="20"/>
+      <c r="U21" s="20">
+        <v>15128.76</v>
+      </c>
       <c r="V21" s="14">
         <v>16977.35</v>
       </c>
@@ -9368,7 +9775,9 @@
       <c r="X21" s="14">
         <v>16911.52</v>
       </c>
-      <c r="Y21" s="20"/>
+      <c r="Y21" s="20">
+        <v>16761.05</v>
+      </c>
       <c r="Z21" s="14">
         <v>16977.35</v>
       </c>
@@ -9393,7 +9802,9 @@
       <c r="AH21" s="12">
         <v>35922</v>
       </c>
-      <c r="AI21" s="20"/>
+      <c r="AI21" s="20">
+        <v>35892</v>
+      </c>
       <c r="AJ21" s="14">
         <v>35921</v>
       </c>
@@ -9403,7 +9814,9 @@
       <c r="AL21" s="16">
         <v>35323</v>
       </c>
-      <c r="AM21" s="20"/>
+      <c r="AM21" s="20">
+        <v>35306</v>
+      </c>
       <c r="AN21" s="14">
         <v>35918</v>
       </c>
@@ -9430,7 +9843,9 @@
       <c r="F22" s="12">
         <v>602</v>
       </c>
-      <c r="G22" s="13"/>
+      <c r="G22" s="13">
+        <v>602</v>
+      </c>
       <c r="H22" s="14">
         <v>585</v>
       </c>
@@ -9440,7 +9855,9 @@
       <c r="J22" s="16">
         <v>528</v>
       </c>
-      <c r="K22" s="13"/>
+      <c r="K22" s="13">
+        <v>528</v>
+      </c>
       <c r="L22" s="14">
         <v>553</v>
       </c>
@@ -9465,7 +9882,9 @@
       <c r="T22" s="16">
         <v>15400.35</v>
       </c>
-      <c r="U22" s="20"/>
+      <c r="U22" s="20">
+        <v>15400.35</v>
+      </c>
       <c r="V22" s="14">
         <v>17023.98</v>
       </c>
@@ -9475,7 +9894,9 @@
       <c r="X22" s="14">
         <v>16746.69</v>
       </c>
-      <c r="Y22" s="20"/>
+      <c r="Y22" s="20">
+        <v>16596.02</v>
+      </c>
       <c r="Z22" s="14">
         <v>16892.03</v>
       </c>
@@ -9525,7 +9946,9 @@
       <c r="F23" s="15">
         <v>1707.45</v>
       </c>
-      <c r="G23" s="13"/>
+      <c r="G23" s="13">
+        <v>1702.49</v>
+      </c>
       <c r="H23" s="14">
         <v>1914.67</v>
       </c>
@@ -9535,7 +9958,9 @@
       <c r="J23" s="14">
         <v>1907.05</v>
       </c>
-      <c r="K23" s="13"/>
+      <c r="K23" s="13">
+        <v>1836.91</v>
+      </c>
       <c r="L23" s="14">
         <v>1852.11</v>
       </c>
@@ -9560,7 +9985,9 @@
       <c r="T23" s="14">
         <v>8763.08</v>
       </c>
-      <c r="U23" s="20"/>
+      <c r="U23" s="20">
+        <v>8630.64</v>
+      </c>
       <c r="V23" s="14">
         <v>8933.97</v>
       </c>
@@ -9570,7 +9997,9 @@
       <c r="X23" s="16">
         <v>8672.71</v>
       </c>
-      <c r="Y23" s="20"/>
+      <c r="Y23" s="20">
+        <v>8672.71</v>
+      </c>
       <c r="Z23" s="14">
         <v>9242.62</v>
       </c>
@@ -9595,7 +10024,9 @@
       <c r="AH23" s="12">
         <v>476.47</v>
       </c>
-      <c r="AI23" s="20"/>
+      <c r="AI23" s="20">
+        <v>476.47</v>
+      </c>
       <c r="AJ23" s="16">
         <v>433.59</v>
       </c>
@@ -9605,7 +10036,9 @@
       <c r="AL23" s="16">
         <v>433.59</v>
       </c>
-      <c r="AM23" s="20"/>
+      <c r="AM23" s="20">
+        <v>433.59</v>
+      </c>
       <c r="AN23" s="14">
         <v>510.81</v>
       </c>
@@ -9632,7 +10065,9 @@
       <c r="F24" s="15">
         <v>640</v>
       </c>
-      <c r="G24" s="13"/>
+      <c r="G24" s="13">
+        <v>640</v>
+      </c>
       <c r="H24" s="14">
         <v>813</v>
       </c>
@@ -9642,7 +10077,9 @@
       <c r="J24" s="14">
         <v>813</v>
       </c>
-      <c r="K24" s="13"/>
+      <c r="K24" s="13">
+        <v>813</v>
+      </c>
       <c r="L24" s="16">
         <v>640</v>
       </c>
@@ -9667,7 +10104,9 @@
       <c r="T24" s="16">
         <v>30461.5</v>
       </c>
-      <c r="U24" s="20"/>
+      <c r="U24" s="20">
+        <v>30193.18</v>
+      </c>
       <c r="V24" s="14">
         <v>33941.15</v>
       </c>
@@ -9677,7 +10116,9 @@
       <c r="X24" s="14">
         <v>32866.01</v>
       </c>
-      <c r="Y24" s="20"/>
+      <c r="Y24" s="20">
+        <v>32076.66</v>
+      </c>
       <c r="Z24" s="14">
         <v>34393.6</v>
       </c>
@@ -9702,7 +10143,9 @@
       <c r="AH24" s="12">
         <v>732</v>
       </c>
-      <c r="AI24" s="20"/>
+      <c r="AI24" s="20">
+        <v>720</v>
+      </c>
       <c r="AJ24" s="14">
         <v>772</v>
       </c>
@@ -9712,7 +10155,9 @@
       <c r="AL24" s="14">
         <v>727</v>
       </c>
-      <c r="AM24" s="20"/>
+      <c r="AM24" s="20">
+        <v>720</v>
+      </c>
       <c r="AN24" s="16">
         <v>719</v>
       </c>
@@ -9739,7 +10184,9 @@
       <c r="F25" s="12">
         <v>1573</v>
       </c>
-      <c r="G25" s="13"/>
+      <c r="G25" s="13">
+        <v>1573</v>
+      </c>
       <c r="H25" s="16">
         <v>1276</v>
       </c>
@@ -9749,7 +10196,9 @@
       <c r="J25" s="16">
         <v>1276</v>
       </c>
-      <c r="K25" s="13"/>
+      <c r="K25" s="13">
+        <v>1276</v>
+      </c>
       <c r="L25" s="16">
         <v>1276</v>
       </c>
@@ -9797,7 +10246,9 @@
       <c r="AH25" s="15">
         <v>87156.85</v>
       </c>
-      <c r="AI25" s="20"/>
+      <c r="AI25" s="20">
+        <v>86863.96</v>
+      </c>
       <c r="AJ25" s="14">
         <v>117345.37</v>
       </c>
@@ -9807,7 +10258,9 @@
       <c r="AL25" s="14">
         <v>102850.23</v>
       </c>
-      <c r="AM25" s="20"/>
+      <c r="AM25" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="AN25" s="14">
         <v>87227.92</v>
       </c>
@@ -9815,7 +10268,7 @@
         <v>87227.92</v>
       </c>
       <c r="AP25" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="2:42">
@@ -9834,7 +10287,9 @@
       <c r="F26" s="15">
         <v>794</v>
       </c>
-      <c r="G26" s="13"/>
+      <c r="G26" s="13">
+        <v>794</v>
+      </c>
       <c r="H26" s="14">
         <v>802</v>
       </c>
@@ -9844,7 +10299,9 @@
       <c r="J26" s="14">
         <v>802</v>
       </c>
-      <c r="K26" s="13"/>
+      <c r="K26" s="13">
+        <v>802</v>
+      </c>
       <c r="L26" s="14">
         <v>802</v>
       </c>
@@ -9869,7 +10326,9 @@
       <c r="T26" s="14">
         <v>2207</v>
       </c>
-      <c r="U26" s="20"/>
+      <c r="U26" s="20">
+        <v>2172</v>
+      </c>
       <c r="V26" s="14">
         <v>2096</v>
       </c>
@@ -9879,7 +10338,9 @@
       <c r="X26" s="16">
         <v>2012</v>
       </c>
-      <c r="Y26" s="20"/>
+      <c r="Y26" s="20">
+        <v>1969</v>
+      </c>
       <c r="Z26" s="14">
         <v>2114</v>
       </c>
@@ -9904,7 +10365,9 @@
       <c r="AH26" s="12">
         <v>2767.74</v>
       </c>
-      <c r="AI26" s="20"/>
+      <c r="AI26" s="20">
+        <v>2692.1</v>
+      </c>
       <c r="AJ26" s="14">
         <v>3177.41</v>
       </c>
@@ -9914,7 +10377,9 @@
       <c r="AL26" s="14">
         <v>3123.67</v>
       </c>
-      <c r="AM26" s="20"/>
+      <c r="AM26" s="20">
+        <v>2998.18</v>
+      </c>
       <c r="AN26" s="14">
         <v>2844.81</v>
       </c>
@@ -10007,7 +10472,9 @@
       <c r="AH27" s="15">
         <v>2741.1</v>
       </c>
-      <c r="AI27" s="20"/>
+      <c r="AI27" s="20">
+        <v>2741.1</v>
+      </c>
       <c r="AJ27" s="14">
         <v>2852.11</v>
       </c>
@@ -10017,7 +10484,9 @@
       <c r="AL27" s="14">
         <v>2852.11</v>
       </c>
-      <c r="AM27" s="20"/>
+      <c r="AM27" s="20">
+        <v>2808.83</v>
+      </c>
       <c r="AN27" s="14">
         <v>2852.11</v>
       </c>
@@ -10070,7 +10539,9 @@
       <c r="AH28" s="12">
         <v>3049.85</v>
       </c>
-      <c r="AI28" s="20"/>
+      <c r="AI28" s="20">
+        <v>3049.85</v>
+      </c>
       <c r="AJ28" s="16">
         <v>2936.29</v>
       </c>
@@ -10080,7 +10551,9 @@
       <c r="AL28" s="16">
         <v>2936.29</v>
       </c>
-      <c r="AM28" s="20"/>
+      <c r="AM28" s="20">
+        <v>2936.29</v>
+      </c>
       <c r="AN28" s="16">
         <v>2936.29</v>
       </c>
@@ -10249,19 +10722,19 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -10273,7 +10746,7 @@
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" s="1">
         <f>13+5+8+6+2+6+3+0+1</f>
@@ -10301,7 +10774,7 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C6" s="1">
         <f>15+6+8+7+1+3+2+0+2</f>
@@ -10329,7 +10802,7 @@
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C8" s="1">
         <f>14+5+8+5+4+3+4+0+3</f>
@@ -10357,7 +10830,7 @@
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C10" s="4">
         <f>SUM(C4:C9)</f>
@@ -10372,7 +10845,7 @@
         <v>186</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="2:6">

--- a/Comparaçoes/BuscasLocais.xlsx
+++ b/Comparaçoes/BuscasLocais.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15750" windowHeight="12885" tabRatio="500"/>
+    <workbookView windowWidth="15795" windowHeight="4785" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="k = n|4" sheetId="1" r:id="rId1"/>
@@ -297,9 +297,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -323,7 +323,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -335,8 +341,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF44546A"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -355,35 +381,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color rgb="FF44546A"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FF44546A"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -391,6 +390,13 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF44546A"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -416,21 +422,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -456,37 +456,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA8D08C"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF70AD47"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE697"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFED7D31"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEBEBEB"/>
+        <fgColor rgb="FF8EA9DB"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -504,7 +492,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4AF82"/>
+        <fgColor rgb="FFFFE697"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CA"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBEBEB"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CAAB"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -516,7 +552,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF8CAAB"/>
+        <fgColor rgb="FFC7C7C7"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1EFD8"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA8D08C"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -534,49 +600,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7C7C7"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE1EFD8"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFBDD7EE"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -588,49 +612,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9E1F2"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5B9BD5"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF9BC2E6"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8EA9DB"/>
+        <fgColor rgb="FFF4AF82"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFBE3D5"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4C6E7"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CA"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -844,15 +844,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -870,24 +861,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color rgb="FF5B9BD5"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF5B9BD5"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -903,6 +890,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF5B9BD5"/>
       </bottom>
       <diagonal/>
     </border>
@@ -931,13 +927,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color rgb="FF5B9BD5"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF5B9BD5"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -946,171 +946,171 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1119,23 +1119,17 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1143,13 +1137,13 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1158,31 +1152,25 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1191,10 +1179,7 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1516,8 +1501,8 @@
   <sheetPr/>
   <dimension ref="B2:AY28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AJ20" sqref="AJ2:AY28"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="AI15" workbookViewId="0">
+      <selection activeCell="AO29" sqref="AO29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1685,46 +1670,46 @@
       <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="P4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="Q4" s="13" t="s">
         <v>13</v>
       </c>
       <c r="S4" s="10" t="s">
@@ -1733,46 +1718,46 @@
       <c r="T4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="19" t="s">
+      <c r="U4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="V4" s="19" t="s">
+      <c r="V4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="23" t="s">
+      <c r="W4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="19" t="s">
+      <c r="X4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="Y4" s="25" t="s">
+      <c r="Y4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="19" t="s">
+      <c r="Z4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" s="23" t="s">
+      <c r="AA4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="19" t="s">
+      <c r="AB4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="AC4" s="25" t="s">
+      <c r="AC4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AD4" s="19" t="s">
+      <c r="AD4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AE4" s="19" t="s">
+      <c r="AE4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="AF4" s="19" t="s">
+      <c r="AF4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="AG4" s="15" t="s">
+      <c r="AG4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AH4" s="15" t="s">
+      <c r="AH4" s="13" t="s">
         <v>13</v>
       </c>
       <c r="AJ4" s="10" t="s">
@@ -1781,46 +1766,46 @@
       <c r="AK4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AL4" s="12" t="s">
+      <c r="AL4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AM4" s="12" t="s">
+      <c r="AM4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AN4" s="12" t="s">
+      <c r="AN4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AO4" s="19" t="s">
+      <c r="AO4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="AP4" s="25" t="s">
+      <c r="AP4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AQ4" s="19" t="s">
+      <c r="AQ4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AR4" s="23" t="s">
+      <c r="AR4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="AS4" s="19" t="s">
+      <c r="AS4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="AT4" s="25" t="s">
+      <c r="AT4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AU4" s="19" t="s">
+      <c r="AU4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AV4" s="19" t="s">
+      <c r="AV4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="AW4" s="19" t="s">
+      <c r="AW4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="AX4" s="15" t="s">
+      <c r="AX4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AY4" s="15" t="s">
+      <c r="AY4" s="13" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1840,7 +1825,9 @@
       <c r="F5" s="2">
         <v>625.97</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2">
+        <v>609.06</v>
+      </c>
       <c r="H5" s="2">
         <v>707.34</v>
       </c>
@@ -1860,11 +1847,11 @@
       <c r="N5" s="2">
         <v>680.72</v>
       </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="28">
+      <c r="O5" s="2"/>
+      <c r="P5" s="26">
         <v>606</v>
       </c>
-      <c r="Q5" s="32">
+      <c r="Q5" s="28">
         <v>606</v>
       </c>
       <c r="S5" s="10" t="s">
@@ -1882,8 +1869,10 @@
       <c r="W5" s="11">
         <v>668</v>
       </c>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="22">
+      <c r="X5" s="2">
+        <v>655</v>
+      </c>
+      <c r="Y5" s="20">
         <v>558</v>
       </c>
       <c r="Z5" s="10">
@@ -1893,7 +1882,7 @@
         <v>558</v>
       </c>
       <c r="AB5" s="2"/>
-      <c r="AC5" s="22">
+      <c r="AC5" s="20">
         <v>582</v>
       </c>
       <c r="AD5" s="10">
@@ -1903,10 +1892,10 @@
         <v>582</v>
       </c>
       <c r="AF5" s="10"/>
-      <c r="AG5" s="32">
+      <c r="AG5" s="28">
         <v>558</v>
       </c>
-      <c r="AH5" s="32">
+      <c r="AH5" s="28">
         <v>558</v>
       </c>
       <c r="AJ5" s="10" t="s">
@@ -1915,17 +1904,19 @@
       <c r="AK5" s="10">
         <v>19</v>
       </c>
-      <c r="AL5" s="19">
+      <c r="AL5" s="17">
         <v>25126.84</v>
       </c>
-      <c r="AM5" s="19">
+      <c r="AM5" s="17">
         <v>25126.84</v>
       </c>
-      <c r="AN5" s="23">
+      <c r="AN5" s="21">
         <v>25126.84</v>
       </c>
-      <c r="AO5" s="12"/>
-      <c r="AP5" s="22">
+      <c r="AO5" s="3">
+        <v>23589.53</v>
+      </c>
+      <c r="AP5" s="20">
         <v>25126.84</v>
       </c>
       <c r="AQ5" s="10">
@@ -1935,7 +1926,7 @@
         <v>25126.84</v>
       </c>
       <c r="AS5" s="2"/>
-      <c r="AT5" s="22">
+      <c r="AT5" s="20">
         <v>25126.84</v>
       </c>
       <c r="AU5" s="10">
@@ -1945,10 +1936,10 @@
         <v>25126.84</v>
       </c>
       <c r="AW5" s="10"/>
-      <c r="AX5" s="16">
+      <c r="AX5" s="14">
         <v>17728</v>
       </c>
-      <c r="AY5" s="16">
+      <c r="AY5" s="14">
         <v>17728</v>
       </c>
     </row>
@@ -1970,9 +1961,9 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="32"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="28"/>
       <c r="S6" s="10" t="s">
         <v>18</v>
       </c>
@@ -1988,8 +1979,10 @@
       <c r="W6" s="11">
         <v>10660.31</v>
       </c>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="22">
+      <c r="X6" s="2">
+        <v>10900.24</v>
+      </c>
+      <c r="Y6" s="20">
         <v>9818.95</v>
       </c>
       <c r="Z6" s="10">
@@ -1999,7 +1992,7 @@
         <v>9818.95</v>
       </c>
       <c r="AB6" s="2"/>
-      <c r="AC6" s="22">
+      <c r="AC6" s="20">
         <v>10082.97</v>
       </c>
       <c r="AD6" s="10">
@@ -2009,10 +2002,10 @@
         <v>10846.48</v>
       </c>
       <c r="AF6" s="10"/>
-      <c r="AG6" s="32">
+      <c r="AG6" s="28">
         <v>7704</v>
       </c>
-      <c r="AH6" s="32">
+      <c r="AH6" s="28">
         <v>7704</v>
       </c>
       <c r="AJ6" s="10" t="s">
@@ -2030,8 +2023,10 @@
       <c r="AN6" s="11">
         <v>7359.17</v>
       </c>
-      <c r="AO6" s="2"/>
-      <c r="AP6" s="22">
+      <c r="AO6" s="2">
+        <v>7918.17</v>
+      </c>
+      <c r="AP6" s="20">
         <v>7165.83</v>
       </c>
       <c r="AQ6" s="10">
@@ -2041,7 +2036,7 @@
         <v>7165.83</v>
       </c>
       <c r="AS6" s="2"/>
-      <c r="AT6" s="22">
+      <c r="AT6" s="20">
         <v>7537.29</v>
       </c>
       <c r="AU6" s="10">
@@ -2051,10 +2046,10 @@
         <v>7304.83</v>
       </c>
       <c r="AW6" s="10"/>
-      <c r="AX6" s="16">
+      <c r="AX6" s="14">
         <v>6981</v>
       </c>
-      <c r="AY6" s="16">
+      <c r="AY6" s="14">
         <v>6981</v>
       </c>
     </row>
@@ -2074,7 +2069,9 @@
       <c r="F7" s="2">
         <v>1373</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2">
+        <v>1354</v>
+      </c>
       <c r="H7" s="2">
         <v>1373</v>
       </c>
@@ -2094,9 +2091,9 @@
       <c r="N7" s="2">
         <v>1373</v>
       </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="32"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="28"/>
       <c r="S7" s="10" t="s">
         <v>21</v>
       </c>
@@ -2112,8 +2109,10 @@
       <c r="W7" s="11">
         <v>1376</v>
       </c>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="22">
+      <c r="X7" s="2">
+        <v>1369</v>
+      </c>
+      <c r="Y7" s="20">
         <v>1404</v>
       </c>
       <c r="Z7" s="10">
@@ -2123,7 +2122,7 @@
         <v>1404</v>
       </c>
       <c r="AB7" s="2"/>
-      <c r="AC7" s="22">
+      <c r="AC7" s="20">
         <v>1356</v>
       </c>
       <c r="AD7" s="10">
@@ -2133,8 +2132,8 @@
         <v>1356</v>
       </c>
       <c r="AF7" s="10"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="28"/>
       <c r="AJ7" s="10" t="s">
         <v>22</v>
       </c>
@@ -2150,8 +2149,10 @@
       <c r="AN7" s="11">
         <v>10765.78</v>
       </c>
-      <c r="AO7" s="2"/>
-      <c r="AP7" s="22">
+      <c r="AO7" s="2">
+        <v>10306.54</v>
+      </c>
+      <c r="AP7" s="20">
         <v>14065.44</v>
       </c>
       <c r="AQ7" s="10">
@@ -2161,7 +2162,7 @@
         <v>13755.23</v>
       </c>
       <c r="AS7" s="2"/>
-      <c r="AT7" s="22">
+      <c r="AT7" s="20">
         <v>14065.44</v>
       </c>
       <c r="AU7" s="10">
@@ -2171,10 +2172,10 @@
         <v>13755.23</v>
       </c>
       <c r="AW7" s="10"/>
-      <c r="AX7" s="16">
+      <c r="AX7" s="14">
         <v>9596</v>
       </c>
-      <c r="AY7" s="16">
+      <c r="AY7" s="14">
         <v>9596</v>
       </c>
     </row>
@@ -2194,7 +2195,9 @@
       <c r="F8" s="2">
         <v>5550</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2">
+        <v>5592</v>
+      </c>
       <c r="H8" s="2">
         <v>4347</v>
       </c>
@@ -2214,9 +2217,9 @@
       <c r="N8" s="2">
         <v>4442</v>
       </c>
-      <c r="O8" s="14"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="32"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="28"/>
       <c r="S8" s="10" t="s">
         <v>24</v>
       </c>
@@ -2227,18 +2230,18 @@
       <c r="V8" s="10"/>
       <c r="W8" s="11"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="22"/>
+      <c r="Y8" s="20"/>
       <c r="Z8" s="10"/>
       <c r="AA8" s="11"/>
       <c r="AB8" s="2"/>
-      <c r="AC8" s="22"/>
+      <c r="AC8" s="20"/>
       <c r="AD8" s="10"/>
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
-      <c r="AG8" s="32">
+      <c r="AG8" s="28">
         <v>14784</v>
       </c>
-      <c r="AH8" s="32">
+      <c r="AH8" s="28">
         <v>14784</v>
       </c>
       <c r="AJ8" s="10" t="s">
@@ -2256,8 +2259,10 @@
       <c r="AN8" s="11">
         <v>21887.32</v>
       </c>
-      <c r="AO8" s="2"/>
-      <c r="AP8" s="22">
+      <c r="AO8" s="2">
+        <v>22376.19</v>
+      </c>
+      <c r="AP8" s="20">
         <v>23341.46</v>
       </c>
       <c r="AQ8" s="10">
@@ -2267,7 +2272,7 @@
         <v>23341.46</v>
       </c>
       <c r="AS8" s="2"/>
-      <c r="AT8" s="22">
+      <c r="AT8" s="20">
         <v>23147.12</v>
       </c>
       <c r="AU8" s="10">
@@ -2277,10 +2282,10 @@
         <v>23695.72</v>
       </c>
       <c r="AW8" s="10"/>
-      <c r="AX8" s="16">
+      <c r="AX8" s="14">
         <v>20928</v>
       </c>
-      <c r="AY8" s="16">
+      <c r="AY8" s="14">
         <v>20928</v>
       </c>
     </row>
@@ -2300,7 +2305,9 @@
       <c r="F9" s="2">
         <v>292</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2">
+        <v>275</v>
+      </c>
       <c r="H9" s="2">
         <v>292</v>
       </c>
@@ -2320,11 +2327,11 @@
       <c r="N9" s="2">
         <v>292</v>
       </c>
-      <c r="O9" s="14"/>
-      <c r="P9" s="28">
+      <c r="O9" s="2"/>
+      <c r="P9" s="26">
         <v>246</v>
       </c>
-      <c r="Q9" s="32">
+      <c r="Q9" s="28">
         <v>246</v>
       </c>
       <c r="S9" s="10" t="s">
@@ -2337,18 +2344,18 @@
       <c r="V9" s="10"/>
       <c r="W9" s="11"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="22"/>
+      <c r="Y9" s="20"/>
       <c r="Z9" s="10"/>
       <c r="AA9" s="11"/>
       <c r="AB9" s="2"/>
-      <c r="AC9" s="22"/>
+      <c r="AC9" s="20"/>
       <c r="AD9" s="10"/>
       <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
-      <c r="AG9" s="32">
+      <c r="AG9" s="28">
         <v>6977</v>
       </c>
-      <c r="AH9" s="32">
+      <c r="AH9" s="28">
         <v>6977</v>
       </c>
       <c r="AJ9" s="10" t="s">
@@ -2366,8 +2373,10 @@
       <c r="AN9" s="11">
         <v>10778.43</v>
       </c>
-      <c r="AO9" s="2"/>
-      <c r="AP9" s="22">
+      <c r="AO9" s="2">
+        <v>10893.75</v>
+      </c>
+      <c r="AP9" s="20">
         <v>12001.03</v>
       </c>
       <c r="AQ9" s="10">
@@ -2377,7 +2386,7 @@
         <v>12001.03</v>
       </c>
       <c r="AS9" s="2"/>
-      <c r="AT9" s="22">
+      <c r="AT9" s="20">
         <v>11480.73</v>
       </c>
       <c r="AU9" s="10">
@@ -2387,10 +2396,10 @@
         <v>11478.8</v>
       </c>
       <c r="AW9" s="10"/>
-      <c r="AX9" s="16">
+      <c r="AX9" s="14">
         <v>10743</v>
       </c>
-      <c r="AY9" s="16">
+      <c r="AY9" s="14">
         <v>10743</v>
       </c>
     </row>
@@ -2410,7 +2419,9 @@
       <c r="F10" s="2">
         <v>352</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2">
+        <v>319</v>
+      </c>
       <c r="H10" s="2">
         <v>352</v>
       </c>
@@ -2430,11 +2441,11 @@
       <c r="N10" s="2">
         <v>352</v>
       </c>
-      <c r="O10" s="14"/>
-      <c r="P10" s="28">
+      <c r="O10" s="2"/>
+      <c r="P10" s="26">
         <v>282</v>
       </c>
-      <c r="Q10" s="32">
+      <c r="Q10" s="28">
         <v>282</v>
       </c>
       <c r="S10" s="10" t="s">
@@ -2447,18 +2458,18 @@
       <c r="V10" s="10"/>
       <c r="W10" s="11"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="22"/>
+      <c r="Y10" s="20"/>
       <c r="Z10" s="10"/>
       <c r="AA10" s="11"/>
       <c r="AB10" s="2"/>
-      <c r="AC10" s="22"/>
+      <c r="AC10" s="20"/>
       <c r="AD10" s="10"/>
       <c r="AE10" s="10"/>
       <c r="AF10" s="10"/>
-      <c r="AG10" s="32">
+      <c r="AG10" s="28">
         <v>18471</v>
       </c>
-      <c r="AH10" s="32">
+      <c r="AH10" s="28">
         <v>18471</v>
       </c>
       <c r="AJ10" s="10" t="s">
@@ -2476,8 +2487,10 @@
       <c r="AN10" s="11">
         <v>15403.26</v>
       </c>
-      <c r="AO10" s="2"/>
-      <c r="AP10" s="22">
+      <c r="AO10" s="2">
+        <v>16537.99</v>
+      </c>
+      <c r="AP10" s="20">
         <v>15403.26</v>
       </c>
       <c r="AQ10" s="10">
@@ -2487,7 +2500,7 @@
         <v>15403.25</v>
       </c>
       <c r="AS10" s="2"/>
-      <c r="AT10" s="22">
+      <c r="AT10" s="20">
         <v>15403.26</v>
       </c>
       <c r="AU10" s="10">
@@ -2497,10 +2510,10 @@
         <v>15933.44</v>
       </c>
       <c r="AW10" s="10"/>
-      <c r="AX10" s="16">
+      <c r="AX10" s="14">
         <v>15403</v>
       </c>
-      <c r="AY10" s="16">
+      <c r="AY10" s="14">
         <v>15403</v>
       </c>
     </row>
@@ -2520,7 +2533,9 @@
       <c r="F11" s="2">
         <v>556.81</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2">
+        <v>490.84</v>
+      </c>
       <c r="H11" s="2">
         <v>556.81</v>
       </c>
@@ -2540,11 +2555,11 @@
       <c r="N11" s="2">
         <v>556.81</v>
       </c>
-      <c r="O11" s="14"/>
-      <c r="P11" s="28">
+      <c r="O11" s="2"/>
+      <c r="P11" s="26">
         <v>489</v>
       </c>
-      <c r="Q11" s="32">
+      <c r="Q11" s="28">
         <v>489</v>
       </c>
       <c r="S11" s="10" t="s">
@@ -2557,16 +2572,16 @@
       <c r="V11" s="10"/>
       <c r="W11" s="11"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="22"/>
+      <c r="Y11" s="20"/>
       <c r="Z11" s="10"/>
       <c r="AA11" s="11"/>
       <c r="AB11" s="2"/>
-      <c r="AC11" s="22"/>
+      <c r="AC11" s="20"/>
       <c r="AD11" s="10"/>
       <c r="AE11" s="10"/>
       <c r="AF11" s="10"/>
-      <c r="AG11" s="32"/>
-      <c r="AH11" s="32"/>
+      <c r="AG11" s="28"/>
+      <c r="AH11" s="28"/>
       <c r="AJ11" s="10" t="s">
         <v>34</v>
       </c>
@@ -2582,8 +2597,10 @@
       <c r="AN11" s="11">
         <v>21631.43</v>
       </c>
-      <c r="AO11" s="2"/>
-      <c r="AP11" s="22">
+      <c r="AO11" s="2">
+        <v>22638.14</v>
+      </c>
+      <c r="AP11" s="20">
         <v>23231.19</v>
       </c>
       <c r="AQ11" s="10">
@@ -2593,7 +2610,7 @@
         <v>23231.19</v>
       </c>
       <c r="AS11" s="2"/>
-      <c r="AT11" s="22">
+      <c r="AT11" s="20">
         <v>23231.19</v>
       </c>
       <c r="AU11" s="10">
@@ -2603,10 +2620,10 @@
         <v>23618.37</v>
       </c>
       <c r="AW11" s="10"/>
-      <c r="AX11" s="16">
+      <c r="AX11" s="14">
         <v>18594</v>
       </c>
-      <c r="AY11" s="16">
+      <c r="AY11" s="14">
         <v>18645</v>
       </c>
     </row>
@@ -2626,7 +2643,9 @@
       <c r="F12" s="2">
         <v>14272.3</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2">
+        <v>13842.04</v>
+      </c>
       <c r="H12" s="2">
         <v>11580.32</v>
       </c>
@@ -2646,11 +2665,11 @@
       <c r="N12" s="2">
         <v>14418.93</v>
       </c>
-      <c r="O12" s="14"/>
-      <c r="P12" s="28">
+      <c r="O12" s="2"/>
+      <c r="P12" s="26">
         <v>9840</v>
       </c>
-      <c r="Q12" s="32">
+      <c r="Q12" s="28">
         <v>10132</v>
       </c>
       <c r="S12" s="10" t="s">
@@ -2663,16 +2682,16 @@
       <c r="V12" s="10"/>
       <c r="W12" s="11"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="22"/>
+      <c r="Y12" s="20"/>
       <c r="Z12" s="10"/>
       <c r="AA12" s="11"/>
       <c r="AB12" s="2"/>
-      <c r="AC12" s="22"/>
+      <c r="AC12" s="20"/>
       <c r="AD12" s="10"/>
       <c r="AE12" s="10"/>
       <c r="AF12" s="10"/>
-      <c r="AG12" s="32"/>
-      <c r="AH12" s="32"/>
+      <c r="AG12" s="28"/>
+      <c r="AH12" s="28"/>
       <c r="AJ12" s="10" t="s">
         <v>37</v>
       </c>
@@ -2688,8 +2707,10 @@
       <c r="AN12" s="11">
         <v>8023.61</v>
       </c>
-      <c r="AO12" s="2"/>
-      <c r="AP12" s="22">
+      <c r="AO12" s="2">
+        <v>7800</v>
+      </c>
+      <c r="AP12" s="20">
         <v>8023.61</v>
       </c>
       <c r="AQ12" s="10">
@@ -2699,7 +2720,7 @@
         <v>8023.61</v>
       </c>
       <c r="AS12" s="2"/>
-      <c r="AT12" s="22">
+      <c r="AT12" s="20">
         <v>8023.61</v>
       </c>
       <c r="AU12" s="10">
@@ -2709,8 +2730,8 @@
         <v>8023.61</v>
       </c>
       <c r="AW12" s="10"/>
-      <c r="AX12" s="16"/>
-      <c r="AY12" s="16"/>
+      <c r="AX12" s="14"/>
+      <c r="AY12" s="14"/>
     </row>
     <row r="13" spans="2:51">
       <c r="B13" s="10" t="s">
@@ -2728,7 +2749,9 @@
       <c r="F13" s="2">
         <v>6116</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2">
+        <v>4994</v>
+      </c>
       <c r="H13" s="2">
         <v>4607</v>
       </c>
@@ -2748,9 +2771,9 @@
       <c r="N13" s="2">
         <v>4607</v>
       </c>
-      <c r="O13" s="14"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="32"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="28"/>
       <c r="S13" s="10" t="s">
         <v>39</v>
       </c>
@@ -2766,8 +2789,10 @@
       <c r="W13" s="11">
         <v>3454</v>
       </c>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="22">
+      <c r="X13" s="2">
+        <v>3454</v>
+      </c>
+      <c r="Y13" s="20">
         <v>3155</v>
       </c>
       <c r="Z13" s="10">
@@ -2777,7 +2802,7 @@
         <v>3155</v>
       </c>
       <c r="AB13" s="2"/>
-      <c r="AC13" s="22">
+      <c r="AC13" s="20">
         <v>3155</v>
       </c>
       <c r="AD13" s="10">
@@ -2787,10 +2812,10 @@
         <v>3155</v>
       </c>
       <c r="AF13" s="10"/>
-      <c r="AG13" s="32">
+      <c r="AG13" s="28">
         <v>2094</v>
       </c>
-      <c r="AH13" s="32">
+      <c r="AH13" s="28">
         <v>2094</v>
       </c>
       <c r="AJ13" s="10" t="s">
@@ -2808,8 +2833,10 @@
       <c r="AN13" s="11">
         <v>11960.02</v>
       </c>
-      <c r="AO13" s="2"/>
-      <c r="AP13" s="22">
+      <c r="AO13" s="2">
+        <v>11693.22</v>
+      </c>
+      <c r="AP13" s="20">
         <v>12127.29</v>
       </c>
       <c r="AQ13" s="10">
@@ -2819,7 +2846,7 @@
         <v>11699.66</v>
       </c>
       <c r="AS13" s="2"/>
-      <c r="AT13" s="22">
+      <c r="AT13" s="20">
         <v>10546.96</v>
       </c>
       <c r="AU13" s="10">
@@ -2829,8 +2856,8 @@
         <v>10546.96</v>
       </c>
       <c r="AW13" s="10"/>
-      <c r="AX13" s="16"/>
-      <c r="AY13" s="16"/>
+      <c r="AX13" s="14"/>
+      <c r="AY13" s="14"/>
     </row>
     <row r="14" spans="2:51">
       <c r="B14" s="10" t="s">
@@ -2848,7 +2875,9 @@
       <c r="F14" s="2">
         <v>11010</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2">
+        <v>470</v>
+      </c>
       <c r="H14" s="2">
         <v>480</v>
       </c>
@@ -2868,9 +2897,9 @@
       <c r="N14" s="2">
         <v>530</v>
       </c>
-      <c r="O14" s="14"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="32"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="28"/>
       <c r="S14" s="10" t="s">
         <v>42</v>
       </c>
@@ -2886,8 +2915,10 @@
       <c r="W14" s="11">
         <v>5015.02</v>
       </c>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="22">
+      <c r="X14" s="2">
+        <v>5037.2</v>
+      </c>
+      <c r="Y14" s="20">
         <v>4792.31</v>
       </c>
       <c r="Z14" s="10">
@@ -2897,7 +2928,7 @@
         <v>4792.31</v>
       </c>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="22">
+      <c r="AC14" s="20">
         <v>4788.84</v>
       </c>
       <c r="AD14" s="10">
@@ -2907,10 +2938,10 @@
         <v>4788.84</v>
       </c>
       <c r="AF14" s="10"/>
-      <c r="AG14" s="32">
+      <c r="AG14" s="28">
         <v>4369</v>
       </c>
-      <c r="AH14" s="32">
+      <c r="AH14" s="28">
         <v>4369</v>
       </c>
       <c r="AJ14" s="10" t="s">
@@ -2928,8 +2959,10 @@
       <c r="AN14" s="11">
         <v>21798.44</v>
       </c>
-      <c r="AO14" s="2"/>
-      <c r="AP14" s="22">
+      <c r="AO14" s="2">
+        <v>21666.36</v>
+      </c>
+      <c r="AP14" s="20">
         <v>22904.63</v>
       </c>
       <c r="AQ14" s="10">
@@ -2939,7 +2972,7 @@
         <v>22573.29</v>
       </c>
       <c r="AS14" s="2"/>
-      <c r="AT14" s="22">
+      <c r="AT14" s="20">
         <v>21586.45</v>
       </c>
       <c r="AU14" s="10">
@@ -2949,8 +2982,8 @@
         <v>23412.51</v>
       </c>
       <c r="AW14" s="10"/>
-      <c r="AX14" s="16"/>
-      <c r="AY14" s="16"/>
+      <c r="AX14" s="14"/>
+      <c r="AY14" s="14"/>
     </row>
     <row r="15" spans="2:51">
       <c r="B15" s="10" t="s">
@@ -2968,7 +3001,9 @@
       <c r="F15" s="2">
         <v>249.88</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2">
+        <v>224.88</v>
+      </c>
       <c r="H15" s="2">
         <v>249.88</v>
       </c>
@@ -2988,11 +3023,11 @@
       <c r="N15" s="2">
         <v>249.88</v>
       </c>
-      <c r="O15" s="14"/>
-      <c r="P15" s="28">
+      <c r="O15" s="2"/>
+      <c r="P15" s="26">
         <v>151</v>
       </c>
-      <c r="Q15" s="32">
+      <c r="Q15" s="28">
         <v>151</v>
       </c>
       <c r="S15" s="10" t="s">
@@ -3010,8 +3045,10 @@
       <c r="W15" s="11">
         <v>6632.55</v>
       </c>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="22">
+      <c r="X15" s="2">
+        <v>6400.64</v>
+      </c>
+      <c r="Y15" s="20">
         <v>7646.9</v>
       </c>
       <c r="Z15" s="10">
@@ -3021,7 +3058,7 @@
         <v>7222.1</v>
       </c>
       <c r="AB15" s="2"/>
-      <c r="AC15" s="22">
+      <c r="AC15" s="20">
         <v>7646.9</v>
       </c>
       <c r="AD15" s="10">
@@ -3031,10 +3068,10 @@
         <v>7222.1</v>
       </c>
       <c r="AF15" s="10"/>
-      <c r="AG15" s="32">
+      <c r="AG15" s="28">
         <v>5286</v>
       </c>
-      <c r="AH15" s="32">
+      <c r="AH15" s="28">
         <v>5286</v>
       </c>
       <c r="AJ15" s="10" t="s">
@@ -3052,19 +3089,21 @@
       <c r="AN15" s="11">
         <v>66267.63</v>
       </c>
-      <c r="AO15" s="2"/>
-      <c r="AP15" s="22">
+      <c r="AO15" s="2">
+        <v>66131.75</v>
+      </c>
+      <c r="AP15" s="20">
         <v>65571.91</v>
       </c>
       <c r="AQ15" s="10"/>
       <c r="AR15" s="11"/>
       <c r="AS15" s="2"/>
-      <c r="AT15" s="22"/>
+      <c r="AT15" s="20"/>
       <c r="AU15" s="10"/>
       <c r="AV15" s="10"/>
       <c r="AW15" s="10"/>
-      <c r="AX15" s="16"/>
-      <c r="AY15" s="16"/>
+      <c r="AX15" s="14"/>
+      <c r="AY15" s="14"/>
     </row>
     <row r="16" spans="2:51">
       <c r="B16" s="10" t="s">
@@ -3082,7 +3121,9 @@
       <c r="F16" s="2">
         <v>1207.15</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2">
+        <v>1196.27</v>
+      </c>
       <c r="H16" s="2">
         <v>1215.96</v>
       </c>
@@ -3102,11 +3143,11 @@
       <c r="N16" s="2">
         <v>1203.1</v>
       </c>
-      <c r="O16" s="14"/>
-      <c r="P16" s="28">
+      <c r="O16" s="2"/>
+      <c r="P16" s="26">
         <v>1116</v>
       </c>
-      <c r="Q16" s="32">
+      <c r="Q16" s="28">
         <v>1119</v>
       </c>
       <c r="S16" s="10" t="s">
@@ -3124,8 +3165,10 @@
       <c r="W16" s="11">
         <v>6767.07</v>
       </c>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="22">
+      <c r="X16" s="2">
+        <v>6863.81</v>
+      </c>
+      <c r="Y16" s="20">
         <v>6772.97</v>
       </c>
       <c r="Z16" s="10">
@@ -3135,7 +3178,7 @@
         <v>6846.38</v>
       </c>
       <c r="AB16" s="2"/>
-      <c r="AC16" s="22">
+      <c r="AC16" s="20">
         <v>6741.11</v>
       </c>
       <c r="AD16" s="10">
@@ -3145,10 +3188,10 @@
         <v>6741.11</v>
       </c>
       <c r="AF16" s="10"/>
-      <c r="AG16" s="32">
+      <c r="AG16" s="28">
         <v>6138</v>
       </c>
-      <c r="AH16" s="32">
+      <c r="AH16" s="28">
         <v>6138</v>
       </c>
       <c r="AJ16" s="10" t="s">
@@ -3166,8 +3209,10 @@
       <c r="AN16" s="11">
         <v>266.87</v>
       </c>
-      <c r="AO16" s="2"/>
-      <c r="AP16" s="22">
+      <c r="AO16" s="2">
+        <v>255.03</v>
+      </c>
+      <c r="AP16" s="20">
         <v>323.19</v>
       </c>
       <c r="AQ16" s="10">
@@ -3177,7 +3222,7 @@
         <v>306.99</v>
       </c>
       <c r="AS16" s="2"/>
-      <c r="AT16" s="22">
+      <c r="AT16" s="20">
         <v>292.55</v>
       </c>
       <c r="AU16" s="10">
@@ -3187,10 +3232,10 @@
         <v>337.72</v>
       </c>
       <c r="AW16" s="10"/>
-      <c r="AX16" s="16">
+      <c r="AX16" s="14">
         <v>260</v>
       </c>
-      <c r="AY16" s="16">
+      <c r="AY16" s="14">
         <v>260</v>
       </c>
     </row>
@@ -3210,7 +3255,9 @@
       <c r="F17" s="2">
         <v>1304.57</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2">
+        <v>1286.06</v>
+      </c>
       <c r="H17" s="2">
         <v>1445.05</v>
       </c>
@@ -3230,11 +3277,11 @@
       <c r="N17" s="2">
         <v>1245.96</v>
       </c>
-      <c r="O17" s="14"/>
-      <c r="P17" s="28">
+      <c r="O17" s="2"/>
+      <c r="P17" s="26">
         <v>1204</v>
       </c>
-      <c r="Q17" s="32">
+      <c r="Q17" s="28">
         <v>1204</v>
       </c>
       <c r="S17" s="10" t="s">
@@ -3252,8 +3299,10 @@
       <c r="W17" s="11">
         <v>5507.89</v>
       </c>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="22">
+      <c r="X17" s="2">
+        <v>5474.72</v>
+      </c>
+      <c r="Y17" s="20">
         <v>4469.81</v>
       </c>
       <c r="Z17" s="10">
@@ -3263,7 +3312,7 @@
         <v>4469.81</v>
       </c>
       <c r="AB17" s="2"/>
-      <c r="AC17" s="22">
+      <c r="AC17" s="20">
         <v>5384.91</v>
       </c>
       <c r="AD17" s="10">
@@ -3273,10 +3322,10 @@
         <v>5457.17</v>
       </c>
       <c r="AF17" s="10"/>
-      <c r="AG17" s="32">
+      <c r="AG17" s="28">
         <v>4014</v>
       </c>
-      <c r="AH17" s="32">
+      <c r="AH17" s="28">
         <v>4014</v>
       </c>
       <c r="AJ17" s="10" t="s">
@@ -3294,8 +3343,10 @@
       <c r="AN17" s="11">
         <v>553.95</v>
       </c>
-      <c r="AO17" s="2"/>
-      <c r="AP17" s="22">
+      <c r="AO17" s="2">
+        <v>559.05</v>
+      </c>
+      <c r="AP17" s="20">
         <v>593.08</v>
       </c>
       <c r="AQ17" s="10">
@@ -3305,7 +3356,7 @@
         <v>593.08</v>
       </c>
       <c r="AS17" s="2"/>
-      <c r="AT17" s="22">
+      <c r="AT17" s="20">
         <v>546.13</v>
       </c>
       <c r="AU17" s="10">
@@ -3315,10 +3366,10 @@
         <v>538.97</v>
       </c>
       <c r="AW17" s="10"/>
-      <c r="AX17" s="16">
+      <c r="AX17" s="14">
         <v>538</v>
       </c>
-      <c r="AY17" s="16">
+      <c r="AY17" s="14">
         <v>538</v>
       </c>
     </row>
@@ -3338,7 +3389,9 @@
       <c r="F18" s="2">
         <v>100</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2">
+        <v>103</v>
+      </c>
       <c r="H18" s="2">
         <v>100</v>
       </c>
@@ -3358,11 +3411,11 @@
       <c r="N18" s="2">
         <v>100</v>
       </c>
-      <c r="O18" s="14"/>
-      <c r="P18" s="28">
+      <c r="O18" s="2"/>
+      <c r="P18" s="26">
         <v>99</v>
       </c>
-      <c r="Q18" s="32">
+      <c r="Q18" s="28">
         <v>99</v>
       </c>
       <c r="S18" s="10" t="s">
@@ -3380,8 +3433,10 @@
       <c r="W18" s="11">
         <v>5119.54</v>
       </c>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="22">
+      <c r="X18" s="2">
+        <v>5133.8</v>
+      </c>
+      <c r="Y18" s="20">
         <v>5396.33</v>
       </c>
       <c r="Z18" s="10">
@@ -3391,7 +3446,7 @@
         <v>5396.33</v>
       </c>
       <c r="AB18" s="2"/>
-      <c r="AC18" s="22">
+      <c r="AC18" s="20">
         <v>5396.33</v>
       </c>
       <c r="AD18" s="10">
@@ -3401,10 +3456,10 @@
         <v>6491</v>
       </c>
       <c r="AF18" s="10"/>
-      <c r="AG18" s="32">
+      <c r="AG18" s="28">
         <v>5119</v>
       </c>
-      <c r="AH18" s="32">
+      <c r="AH18" s="28">
         <v>5119</v>
       </c>
       <c r="AJ18" s="10" t="s">
@@ -3422,8 +3477,10 @@
       <c r="AN18" s="11">
         <v>1670.87</v>
       </c>
-      <c r="AO18" s="2"/>
-      <c r="AP18" s="22">
+      <c r="AO18" s="2">
+        <v>1721.77</v>
+      </c>
+      <c r="AP18" s="20">
         <v>1730.98</v>
       </c>
       <c r="AQ18" s="10">
@@ -3433,7 +3490,7 @@
         <v>1696.55</v>
       </c>
       <c r="AS18" s="2"/>
-      <c r="AT18" s="22">
+      <c r="AT18" s="20">
         <v>1700.81</v>
       </c>
       <c r="AU18" s="10">
@@ -3443,8 +3500,8 @@
         <v>1660.87</v>
       </c>
       <c r="AW18" s="10"/>
-      <c r="AX18" s="16"/>
-      <c r="AY18" s="16"/>
+      <c r="AX18" s="14"/>
+      <c r="AY18" s="14"/>
     </row>
     <row r="19" spans="2:51">
       <c r="B19" s="10" t="s">
@@ -3462,7 +3519,9 @@
       <c r="F19" s="2">
         <v>77.04</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2">
+        <v>77.04</v>
+      </c>
       <c r="H19" s="2">
         <v>77.04</v>
       </c>
@@ -3482,11 +3541,11 @@
       <c r="N19" s="2">
         <v>77.04</v>
       </c>
-      <c r="O19" s="14"/>
-      <c r="P19" s="28">
+      <c r="O19" s="2"/>
+      <c r="P19" s="26">
         <v>71</v>
       </c>
-      <c r="Q19" s="32">
+      <c r="Q19" s="28">
         <v>71</v>
       </c>
       <c r="S19" s="10" t="s">
@@ -3504,8 +3563,10 @@
       <c r="W19" s="11">
         <v>6789.91</v>
       </c>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="22">
+      <c r="X19" s="2">
+        <v>6783.23</v>
+      </c>
+      <c r="Y19" s="20">
         <v>8301.6</v>
       </c>
       <c r="Z19" s="10">
@@ -3515,7 +3576,7 @@
         <v>8120.14</v>
       </c>
       <c r="AB19" s="2"/>
-      <c r="AC19" s="22">
+      <c r="AC19" s="20">
         <v>7231.98</v>
       </c>
       <c r="AD19" s="10">
@@ -3525,10 +3586,10 @@
         <v>7231.98</v>
       </c>
       <c r="AF19" s="10"/>
-      <c r="AG19" s="32">
+      <c r="AG19" s="28">
         <v>5890</v>
       </c>
-      <c r="AH19" s="32">
+      <c r="AH19" s="28">
         <v>5890</v>
       </c>
       <c r="AJ19" s="10" t="s">
@@ -3546,8 +3607,10 @@
       <c r="AN19" s="11">
         <v>2236.99</v>
       </c>
-      <c r="AO19" s="2"/>
-      <c r="AP19" s="22">
+      <c r="AO19" s="2">
+        <v>2364.1</v>
+      </c>
+      <c r="AP19" s="20">
         <v>2372.35</v>
       </c>
       <c r="AQ19" s="10"/>
@@ -3555,7 +3618,7 @@
         <v>2352.71</v>
       </c>
       <c r="AS19" s="2"/>
-      <c r="AT19" s="22">
+      <c r="AT19" s="20">
         <v>2218.16</v>
       </c>
       <c r="AU19" s="10" t="s">
@@ -3565,8 +3628,8 @@
         <v>2190.99</v>
       </c>
       <c r="AW19" s="10"/>
-      <c r="AX19" s="16"/>
-      <c r="AY19" s="16"/>
+      <c r="AX19" s="14"/>
+      <c r="AY19" s="14"/>
     </row>
     <row r="20" spans="2:51">
       <c r="B20" s="10" t="s">
@@ -3584,7 +3647,9 @@
       <c r="F20" s="2">
         <v>97.38</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2">
+        <v>97.21</v>
+      </c>
       <c r="H20" s="2">
         <v>99.45</v>
       </c>
@@ -3604,11 +3669,11 @@
       <c r="N20" s="2">
         <v>99.45</v>
       </c>
-      <c r="O20" s="14"/>
-      <c r="P20" s="28">
+      <c r="O20" s="2"/>
+      <c r="P20" s="26">
         <v>99</v>
       </c>
-      <c r="Q20" s="32">
+      <c r="Q20" s="28">
         <v>99</v>
       </c>
       <c r="S20" s="10" t="s">
@@ -3626,8 +3691,10 @@
       <c r="W20" s="11">
         <v>4293.02</v>
       </c>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="22">
+      <c r="X20" s="2">
+        <v>4318.56</v>
+      </c>
+      <c r="Y20" s="20">
         <v>5853.33</v>
       </c>
       <c r="Z20" s="10">
@@ -3637,7 +3704,7 @@
         <v>5775.96</v>
       </c>
       <c r="AB20" s="2"/>
-      <c r="AC20" s="22">
+      <c r="AC20" s="20">
         <v>4293.02</v>
       </c>
       <c r="AD20" s="10">
@@ -3647,10 +3714,10 @@
         <v>4293.02</v>
       </c>
       <c r="AF20" s="10"/>
-      <c r="AG20" s="32">
+      <c r="AG20" s="28">
         <v>4293</v>
       </c>
-      <c r="AH20" s="32">
+      <c r="AH20" s="28">
         <v>4293</v>
       </c>
       <c r="AJ20" s="10" t="s">
@@ -3668,8 +3735,10 @@
       <c r="AN20" s="11">
         <v>5225</v>
       </c>
-      <c r="AO20" s="2"/>
-      <c r="AP20" s="22">
+      <c r="AO20" s="2">
+        <v>5145</v>
+      </c>
+      <c r="AP20" s="20">
         <v>5478</v>
       </c>
       <c r="AQ20" s="10">
@@ -3679,7 +3748,7 @@
         <v>5476</v>
       </c>
       <c r="AS20" s="2"/>
-      <c r="AT20" s="22">
+      <c r="AT20" s="20">
         <v>5420</v>
       </c>
       <c r="AU20" s="10">
@@ -3689,8 +3758,8 @@
         <v>5387</v>
       </c>
       <c r="AW20" s="10"/>
-      <c r="AX20" s="16"/>
-      <c r="AY20" s="16"/>
+      <c r="AX20" s="14"/>
+      <c r="AY20" s="14"/>
     </row>
     <row r="21" spans="2:51">
       <c r="B21" s="10" t="s">
@@ -3708,7 +3777,9 @@
       <c r="F21" s="2">
         <v>150.4</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" s="2">
+        <v>141.31</v>
+      </c>
       <c r="H21" s="2">
         <v>132.75</v>
       </c>
@@ -3728,11 +3799,11 @@
       <c r="N21" s="2">
         <v>328.73</v>
       </c>
-      <c r="O21" s="14"/>
-      <c r="P21" s="28">
+      <c r="O21" s="2"/>
+      <c r="P21" s="26">
         <v>101</v>
       </c>
-      <c r="Q21" s="32">
+      <c r="Q21" s="28">
         <v>101</v>
       </c>
       <c r="S21" s="10" t="s">
@@ -3750,8 +3821,10 @@
       <c r="W21" s="11">
         <v>5246.28</v>
       </c>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="22">
+      <c r="X21" s="2">
+        <v>5220.64</v>
+      </c>
+      <c r="Y21" s="20">
         <v>5246.28</v>
       </c>
       <c r="Z21" s="10">
@@ -3761,7 +3834,7 @@
         <v>5246.28</v>
       </c>
       <c r="AB21" s="2"/>
-      <c r="AC21" s="22">
+      <c r="AC21" s="20">
         <v>5246.28</v>
       </c>
       <c r="AD21" s="10">
@@ -3771,10 +3844,10 @@
         <v>5246.28</v>
       </c>
       <c r="AF21" s="10"/>
-      <c r="AG21" s="32">
+      <c r="AG21" s="28">
         <v>3991</v>
       </c>
-      <c r="AH21" s="32">
+      <c r="AH21" s="28">
         <v>3991</v>
       </c>
       <c r="AJ21" s="10" t="s">
@@ -3792,8 +3865,10 @@
       <c r="AN21" s="11">
         <v>12083</v>
       </c>
-      <c r="AO21" s="2"/>
-      <c r="AP21" s="22">
+      <c r="AO21" s="2">
+        <v>12025</v>
+      </c>
+      <c r="AP21" s="20">
         <v>12196</v>
       </c>
       <c r="AQ21" s="10">
@@ -3803,7 +3878,7 @@
         <v>12012</v>
       </c>
       <c r="AS21" s="2"/>
-      <c r="AT21" s="22">
+      <c r="AT21" s="20">
         <v>12196</v>
       </c>
       <c r="AU21" s="10">
@@ -3813,8 +3888,8 @@
         <v>12013</v>
       </c>
       <c r="AW21" s="10"/>
-      <c r="AX21" s="16"/>
-      <c r="AY21" s="16"/>
+      <c r="AX21" s="14"/>
+      <c r="AY21" s="14"/>
     </row>
     <row r="22" spans="2:51">
       <c r="B22" s="10" t="s">
@@ -3832,7 +3907,9 @@
       <c r="F22" s="2">
         <v>147</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="2">
+        <v>145</v>
+      </c>
       <c r="H22" s="2">
         <v>147</v>
       </c>
@@ -3852,11 +3929,11 @@
       <c r="N22" s="2">
         <v>147</v>
       </c>
-      <c r="O22" s="14"/>
-      <c r="P22" s="28">
+      <c r="O22" s="2"/>
+      <c r="P22" s="26">
         <v>145</v>
       </c>
-      <c r="Q22" s="32">
+      <c r="Q22" s="28">
         <v>145</v>
       </c>
       <c r="S22" s="10" t="s">
@@ -3874,8 +3951,10 @@
       <c r="W22" s="11">
         <v>4087.21</v>
       </c>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="22">
+      <c r="X22" s="2">
+        <v>3984.43</v>
+      </c>
+      <c r="Y22" s="20">
         <v>3842.76</v>
       </c>
       <c r="Z22" s="10">
@@ -3885,7 +3964,7 @@
         <v>3842.76</v>
       </c>
       <c r="AB22" s="2"/>
-      <c r="AC22" s="22">
+      <c r="AC22" s="20">
         <v>3919.58</v>
       </c>
       <c r="AD22" s="10">
@@ -3895,10 +3974,10 @@
         <v>3919.59</v>
       </c>
       <c r="AF22" s="10"/>
-      <c r="AG22" s="32">
+      <c r="AG22" s="28">
         <v>3663</v>
       </c>
-      <c r="AH22" s="32">
+      <c r="AH22" s="28">
         <v>3663</v>
       </c>
       <c r="AJ22" s="10" t="s">
@@ -3916,8 +3995,10 @@
       <c r="AN22" s="11">
         <v>22289</v>
       </c>
-      <c r="AO22" s="2"/>
-      <c r="AP22" s="22">
+      <c r="AO22" s="2">
+        <v>22289</v>
+      </c>
+      <c r="AP22" s="20">
         <v>22414</v>
       </c>
       <c r="AQ22" s="10">
@@ -3925,12 +4006,12 @@
       </c>
       <c r="AR22" s="11"/>
       <c r="AS22" s="2"/>
-      <c r="AT22" s="22"/>
+      <c r="AT22" s="20"/>
       <c r="AU22" s="10"/>
       <c r="AV22" s="10"/>
       <c r="AW22" s="10"/>
-      <c r="AX22" s="16"/>
-      <c r="AY22" s="16"/>
+      <c r="AX22" s="14"/>
+      <c r="AY22" s="14"/>
     </row>
     <row r="23" spans="2:51">
       <c r="B23" s="10" t="s">
@@ -3948,7 +4029,9 @@
       <c r="F23" s="2">
         <v>559.01</v>
       </c>
-      <c r="G23" s="2"/>
+      <c r="G23" s="2">
+        <v>557.44</v>
+      </c>
       <c r="H23" s="2">
         <v>655.8</v>
       </c>
@@ -3968,11 +4051,11 @@
       <c r="N23" s="2">
         <v>656.53</v>
       </c>
-      <c r="O23" s="14"/>
-      <c r="P23" s="28">
+      <c r="O23" s="2"/>
+      <c r="P23" s="26">
         <v>509</v>
       </c>
-      <c r="Q23" s="32">
+      <c r="Q23" s="28">
         <v>509</v>
       </c>
       <c r="S23" s="10" t="s">
@@ -3990,8 +4073,10 @@
       <c r="W23" s="11">
         <v>2109.43</v>
       </c>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="22">
+      <c r="X23" s="2">
+        <v>2084.1</v>
+      </c>
+      <c r="Y23" s="20">
         <v>2067.87</v>
       </c>
       <c r="Z23" s="10">
@@ -4001,7 +4086,7 @@
         <v>2033.36</v>
       </c>
       <c r="AB23" s="2"/>
-      <c r="AC23" s="22">
+      <c r="AC23" s="20">
         <v>2002.98</v>
       </c>
       <c r="AD23" s="10">
@@ -4011,10 +4096,10 @@
         <v>2002.98</v>
       </c>
       <c r="AF23" s="10"/>
-      <c r="AG23" s="32">
+      <c r="AG23" s="28">
         <v>2108</v>
       </c>
-      <c r="AH23" s="32">
+      <c r="AH23" s="28">
         <v>2108</v>
       </c>
       <c r="AJ23" s="10" t="s">
@@ -4032,8 +4117,10 @@
       <c r="AN23" s="11">
         <v>129.15</v>
       </c>
-      <c r="AO23" s="2"/>
-      <c r="AP23" s="22">
+      <c r="AO23" s="2">
+        <v>127.21</v>
+      </c>
+      <c r="AP23" s="20">
         <v>127.18</v>
       </c>
       <c r="AQ23" s="10">
@@ -4043,7 +4130,7 @@
         <v>127.18</v>
       </c>
       <c r="AS23" s="2"/>
-      <c r="AT23" s="22">
+      <c r="AT23" s="20">
         <v>127.18</v>
       </c>
       <c r="AU23" s="10">
@@ -4053,10 +4140,10 @@
         <v>127.18</v>
       </c>
       <c r="AW23" s="10"/>
-      <c r="AX23" s="16">
+      <c r="AX23" s="14">
         <v>110</v>
       </c>
-      <c r="AY23" s="16">
+      <c r="AY23" s="14">
         <v>114</v>
       </c>
     </row>
@@ -4076,7 +4163,9 @@
       <c r="F24" s="2">
         <v>154</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="2">
+        <v>145</v>
+      </c>
       <c r="H24" s="2">
         <v>154</v>
       </c>
@@ -4096,11 +4185,11 @@
       <c r="N24" s="2">
         <v>154</v>
       </c>
-      <c r="O24" s="14"/>
-      <c r="P24" s="28">
+      <c r="O24" s="2"/>
+      <c r="P24" s="26">
         <v>143</v>
       </c>
-      <c r="Q24" s="32">
+      <c r="Q24" s="28">
         <v>143</v>
       </c>
       <c r="S24" s="10" t="s">
@@ -4118,8 +4207,10 @@
       <c r="W24" s="11">
         <v>8865.39</v>
       </c>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="22">
+      <c r="X24" s="2">
+        <v>9122.72</v>
+      </c>
+      <c r="Y24" s="20">
         <v>9230.75</v>
       </c>
       <c r="Z24" s="10">
@@ -4129,7 +4220,7 @@
         <v>8969.49</v>
       </c>
       <c r="AB24" s="2"/>
-      <c r="AC24" s="22">
+      <c r="AC24" s="20">
         <v>9406.35</v>
       </c>
       <c r="AD24" s="10">
@@ -4139,10 +4230,10 @@
         <v>9133.3</v>
       </c>
       <c r="AF24" s="10"/>
-      <c r="AG24" s="32">
+      <c r="AG24" s="28">
         <v>8705</v>
       </c>
-      <c r="AH24" s="32">
+      <c r="AH24" s="28">
         <v>8705</v>
       </c>
       <c r="AJ24" s="10" t="s">
@@ -4160,8 +4251,10 @@
       <c r="AN24" s="11">
         <v>146</v>
       </c>
-      <c r="AO24" s="2"/>
-      <c r="AP24" s="22">
+      <c r="AO24" s="2">
+        <v>146</v>
+      </c>
+      <c r="AP24" s="20">
         <v>146</v>
       </c>
       <c r="AQ24" s="10">
@@ -4171,7 +4264,7 @@
         <v>146</v>
       </c>
       <c r="AS24" s="2"/>
-      <c r="AT24" s="22">
+      <c r="AT24" s="20">
         <v>146</v>
       </c>
       <c r="AU24" s="10">
@@ -4181,84 +4274,88 @@
         <v>146</v>
       </c>
       <c r="AW24" s="10"/>
-      <c r="AX24" s="16">
+      <c r="AX24" s="14">
         <v>66</v>
       </c>
-      <c r="AY24" s="16">
+      <c r="AY24" s="14">
         <v>66</v>
       </c>
     </row>
     <row r="25" spans="2:51">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="24">
         <v>5</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="25">
         <v>258</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="25">
         <v>258</v>
       </c>
-      <c r="F25" s="27">
+      <c r="F25" s="25">
         <v>258</v>
       </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27">
+      <c r="G25" s="25">
+        <v>224</v>
+      </c>
+      <c r="H25" s="25">
         <v>248</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="25">
         <v>248</v>
       </c>
-      <c r="J25" s="27">
+      <c r="J25" s="25">
         <v>248</v>
       </c>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27">
+      <c r="K25" s="25"/>
+      <c r="L25" s="25">
         <v>248</v>
       </c>
-      <c r="M25" s="27">
+      <c r="M25" s="25">
         <v>248</v>
       </c>
-      <c r="N25" s="27">
+      <c r="N25" s="25">
         <v>292</v>
       </c>
-      <c r="O25" s="29"/>
-      <c r="P25" s="28">
+      <c r="O25" s="25"/>
+      <c r="P25" s="26">
         <v>178</v>
       </c>
-      <c r="Q25" s="32">
+      <c r="Q25" s="28">
         <v>178</v>
       </c>
-      <c r="S25" s="17" t="s">
+      <c r="S25" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="T25" s="17">
+      <c r="T25" s="15">
         <v>344</v>
       </c>
-      <c r="U25" s="17">
+      <c r="U25" s="15">
         <v>13172.65</v>
       </c>
-      <c r="V25" s="17">
+      <c r="V25" s="15">
         <v>13194.03</v>
       </c>
-      <c r="W25" s="26">
+      <c r="W25" s="24">
         <v>13100.47</v>
       </c>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="33">
+      <c r="X25" s="25">
+        <v>13078.98</v>
+      </c>
+      <c r="Y25" s="29">
         <v>12801.82</v>
       </c>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="33"/>
-      <c r="AD25" s="17"/>
-      <c r="AE25" s="17"/>
-      <c r="AF25" s="34"/>
-      <c r="AG25" s="32"/>
-      <c r="AH25" s="32"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="24"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="28"/>
+      <c r="AH25" s="28"/>
       <c r="AJ25" s="10" t="s">
         <v>78</v>
       </c>
@@ -4274,8 +4371,10 @@
       <c r="AN25" s="11">
         <v>27500</v>
       </c>
-      <c r="AO25" s="2"/>
-      <c r="AP25" s="22">
+      <c r="AO25" s="2">
+        <v>27500</v>
+      </c>
+      <c r="AP25" s="20">
         <v>27500</v>
       </c>
       <c r="AQ25" s="10">
@@ -4285,7 +4384,7 @@
         <v>27500</v>
       </c>
       <c r="AS25" s="2"/>
-      <c r="AT25" s="22">
+      <c r="AT25" s="20">
         <v>27500</v>
       </c>
       <c r="AU25" s="10">
@@ -4295,8 +4394,8 @@
         <v>27500</v>
       </c>
       <c r="AW25" s="10"/>
-      <c r="AX25" s="16"/>
-      <c r="AY25" s="16"/>
+      <c r="AX25" s="14"/>
+      <c r="AY25" s="14"/>
     </row>
     <row r="26" spans="2:51">
       <c r="B26" s="2" t="s">
@@ -4314,7 +4413,9 @@
       <c r="F26" s="2">
         <v>162</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" s="2">
+        <v>162</v>
+      </c>
       <c r="H26" s="2">
         <v>162</v>
       </c>
@@ -4334,11 +4435,11 @@
       <c r="N26" s="2">
         <v>162</v>
       </c>
-      <c r="O26" s="30"/>
-      <c r="P26" s="31">
+      <c r="O26" s="6"/>
+      <c r="P26" s="27">
         <v>231</v>
       </c>
-      <c r="Q26" s="32">
+      <c r="Q26" s="28">
         <v>231</v>
       </c>
       <c r="S26" s="2" t="s">
@@ -4356,7 +4457,9 @@
       <c r="W26" s="2">
         <v>718</v>
       </c>
-      <c r="X26" s="2"/>
+      <c r="X26" s="2">
+        <v>688</v>
+      </c>
       <c r="Y26" s="2">
         <v>554</v>
       </c>
@@ -4376,9 +4479,9 @@
       <c r="AE26" s="2">
         <v>649</v>
       </c>
-      <c r="AF26" s="30"/>
-      <c r="AG26" s="35"/>
-      <c r="AH26" s="32"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="30"/>
+      <c r="AH26" s="28"/>
       <c r="AJ26" s="10" t="s">
         <v>81</v>
       </c>
@@ -4394,8 +4497,10 @@
       <c r="AN26" s="11">
         <v>996.51</v>
       </c>
-      <c r="AO26" s="2"/>
-      <c r="AP26" s="22">
+      <c r="AO26" s="2">
+        <v>986.19</v>
+      </c>
+      <c r="AP26" s="20">
         <v>1038.03</v>
       </c>
       <c r="AQ26" s="10">
@@ -4405,7 +4510,7 @@
         <v>1038.03</v>
       </c>
       <c r="AS26" s="2"/>
-      <c r="AT26" s="22">
+      <c r="AT26" s="20">
         <v>1094.89</v>
       </c>
       <c r="AU26" s="10">
@@ -4415,8 +4520,8 @@
         <v>1083.13</v>
       </c>
       <c r="AW26" s="10"/>
-      <c r="AX26" s="16"/>
-      <c r="AY26" s="16"/>
+      <c r="AX26" s="14"/>
+      <c r="AY26" s="14"/>
     </row>
     <row r="27" spans="36:51">
       <c r="AJ27" s="10" t="s">
@@ -4434,8 +4539,10 @@
       <c r="AN27" s="11">
         <v>826.08</v>
       </c>
-      <c r="AO27" s="2"/>
-      <c r="AP27" s="22">
+      <c r="AO27" s="2">
+        <v>751.06</v>
+      </c>
+      <c r="AP27" s="20">
         <v>751.06</v>
       </c>
       <c r="AQ27" s="10">
@@ -4445,7 +4552,7 @@
         <v>751.06</v>
       </c>
       <c r="AS27" s="2"/>
-      <c r="AT27" s="22">
+      <c r="AT27" s="20">
         <v>751.06</v>
       </c>
       <c r="AU27" s="10">
@@ -4455,10 +4562,10 @@
         <v>751.06</v>
       </c>
       <c r="AW27" s="10"/>
-      <c r="AX27" s="16">
+      <c r="AX27" s="14">
         <v>618</v>
       </c>
-      <c r="AY27" s="16">
+      <c r="AY27" s="14">
         <v>618</v>
       </c>
     </row>
@@ -4478,8 +4585,10 @@
       <c r="AN28" s="11">
         <v>456.58</v>
       </c>
-      <c r="AO28" s="2"/>
-      <c r="AP28" s="22">
+      <c r="AO28" s="2">
+        <v>456.58</v>
+      </c>
+      <c r="AP28" s="20">
         <v>456.58</v>
       </c>
       <c r="AQ28" s="10">
@@ -4489,7 +4598,7 @@
         <v>456.58</v>
       </c>
       <c r="AS28" s="2"/>
-      <c r="AT28" s="22">
+      <c r="AT28" s="20">
         <v>456.58</v>
       </c>
       <c r="AU28" s="10">
@@ -4499,10 +4608,10 @@
         <v>456.58</v>
       </c>
       <c r="AW28" s="10"/>
-      <c r="AX28" s="16">
+      <c r="AX28" s="14">
         <v>447</v>
       </c>
-      <c r="AY28" s="16">
+      <c r="AY28" s="14">
         <v>447</v>
       </c>
     </row>
@@ -4535,8 +4644,8 @@
   <sheetPr/>
   <dimension ref="B2:AY28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AL25" sqref="AJ2:AY28"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="AF15" workbookViewId="0">
+      <selection activeCell="AO29" sqref="AO29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4617,7 +4726,7 @@
       <c r="AY2" s="2"/>
     </row>
     <row r="3" spans="2:51">
-      <c r="B3" s="17"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="11" t="s">
         <v>84</v>
       </c>
@@ -4643,7 +4752,7 @@
         <v>5</v>
       </c>
       <c r="Q3" s="2"/>
-      <c r="S3" s="17"/>
+      <c r="S3" s="15"/>
       <c r="T3" s="11" t="s">
         <v>84</v>
       </c>
@@ -4669,7 +4778,7 @@
         <v>5</v>
       </c>
       <c r="AH3" s="2"/>
-      <c r="AJ3" s="17"/>
+      <c r="AJ3" s="15"/>
       <c r="AK3" s="11" t="s">
         <v>84</v>
       </c>
@@ -4700,7 +4809,7 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -4748,144 +4857,146 @@
       <c r="S4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="22" t="s">
+      <c r="T4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="19" t="s">
+      <c r="U4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="V4" s="19" t="s">
+      <c r="V4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="23" t="s">
+      <c r="W4" s="21" t="s">
         <v>10</v>
       </c>
       <c r="X4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Y4" s="25" t="s">
+      <c r="Y4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="19" t="s">
+      <c r="Z4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" s="23" t="s">
+      <c r="AA4" s="21" t="s">
         <v>10</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AC4" s="25" t="s">
+      <c r="AC4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AD4" s="19" t="s">
+      <c r="AD4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AE4" s="19" t="s">
+      <c r="AE4" s="17" t="s">
         <v>10</v>
       </c>
       <c r="AF4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AG4" s="15" t="s">
+      <c r="AG4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AH4" s="15" t="s">
+      <c r="AH4" s="13" t="s">
         <v>13</v>
       </c>
       <c r="AJ4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AK4" s="18" t="s">
+      <c r="AK4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AL4" s="12" t="s">
+      <c r="AL4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AM4" s="12" t="s">
+      <c r="AM4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AN4" s="12" t="s">
+      <c r="AN4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AO4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AP4" s="12" t="s">
+      <c r="AP4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AQ4" s="12" t="s">
+      <c r="AQ4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AR4" s="12" t="s">
+      <c r="AR4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AS4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AT4" s="12" t="s">
+      <c r="AT4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AU4" s="12" t="s">
+      <c r="AU4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AV4" s="12" t="s">
+      <c r="AV4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AW4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AX4" s="15" t="s">
+      <c r="AX4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AY4" s="15" t="s">
+      <c r="AY4" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:51">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="11">
         <v>140</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="3">
         <v>1322.11</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="3">
         <v>1318.03</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="3">
         <v>1309.68</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12">
+      <c r="G5" s="3">
+        <v>1297</v>
+      </c>
+      <c r="H5" s="3">
         <v>1484.38</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="3">
         <v>1435.77</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="3">
         <v>1425.65</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3">
         <v>1328.54</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="3">
         <v>1289.93</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="3">
         <v>1328.54</v>
       </c>
       <c r="O5" s="3"/>
-      <c r="P5" s="20">
+      <c r="P5" s="18">
         <v>1234</v>
       </c>
-      <c r="Q5" s="24">
+      <c r="Q5" s="22">
         <v>1354</v>
       </c>
-      <c r="S5" s="19" t="s">
+      <c r="S5" s="17" t="s">
         <v>15</v>
       </c>
       <c r="T5" s="10">
@@ -4900,8 +5011,10 @@
       <c r="W5" s="11">
         <v>2011</v>
       </c>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="22">
+      <c r="X5" s="2">
+        <v>1979</v>
+      </c>
+      <c r="Y5" s="20">
         <v>1691</v>
       </c>
       <c r="Z5" s="10">
@@ -4911,7 +5024,7 @@
         <v>1691</v>
       </c>
       <c r="AB5" s="2"/>
-      <c r="AC5" s="22">
+      <c r="AC5" s="20">
         <v>1691</v>
       </c>
       <c r="AD5" s="10">
@@ -4921,13 +5034,13 @@
         <v>2015</v>
       </c>
       <c r="AF5" s="10"/>
-      <c r="AG5" s="21">
+      <c r="AG5" s="19">
         <v>1691</v>
       </c>
-      <c r="AH5" s="16">
+      <c r="AH5" s="14">
         <v>1691</v>
       </c>
-      <c r="AJ5" s="19" t="s">
+      <c r="AJ5" s="17" t="s">
         <v>16</v>
       </c>
       <c r="AK5" s="11">
@@ -4942,7 +5055,9 @@
       <c r="AN5" s="2">
         <v>42676.77</v>
       </c>
-      <c r="AO5" s="2"/>
+      <c r="AO5" s="2">
+        <v>42006.67</v>
+      </c>
       <c r="AP5" s="2">
         <v>44106.74</v>
       </c>
@@ -4962,11 +5077,11 @@
       <c r="AV5" s="2">
         <v>44106.74</v>
       </c>
-      <c r="AW5" s="14"/>
-      <c r="AX5" s="16">
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="14">
         <v>37793</v>
       </c>
-      <c r="AY5" s="16">
+      <c r="AY5" s="14">
         <v>37793</v>
       </c>
     </row>
@@ -4988,9 +5103,9 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="16"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="14"/>
       <c r="S6" s="10" t="s">
         <v>18</v>
       </c>
@@ -5006,8 +5121,10 @@
       <c r="W6" s="11">
         <v>21657.37</v>
       </c>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="22">
+      <c r="X6" s="2">
+        <v>21545.48</v>
+      </c>
+      <c r="Y6" s="20">
         <v>23146.59</v>
       </c>
       <c r="Z6" s="10">
@@ -5017,7 +5134,7 @@
         <v>22425.03</v>
       </c>
       <c r="AB6" s="2"/>
-      <c r="AC6" s="22">
+      <c r="AC6" s="20">
         <v>26964.52</v>
       </c>
       <c r="AD6" s="10">
@@ -5027,10 +5144,10 @@
         <v>27728.02</v>
       </c>
       <c r="AF6" s="10"/>
-      <c r="AG6" s="21">
+      <c r="AG6" s="19">
         <v>17634</v>
       </c>
-      <c r="AH6" s="16">
+      <c r="AH6" s="14">
         <v>17634</v>
       </c>
       <c r="AJ6" s="10" t="s">
@@ -5048,7 +5165,9 @@
       <c r="AN6" s="2">
         <v>15262.35</v>
       </c>
-      <c r="AO6" s="2"/>
+      <c r="AO6" s="2">
+        <v>16953.46</v>
+      </c>
       <c r="AP6" s="2">
         <v>15274.43</v>
       </c>
@@ -5068,11 +5187,11 @@
       <c r="AV6" s="2">
         <v>15263.07</v>
       </c>
-      <c r="AW6" s="14"/>
-      <c r="AX6" s="16">
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="14">
         <v>14839</v>
       </c>
-      <c r="AY6" s="16">
+      <c r="AY6" s="14">
         <v>14839</v>
       </c>
     </row>
@@ -5092,7 +5211,9 @@
       <c r="F7" s="2">
         <v>3231</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2">
+        <v>3487</v>
+      </c>
       <c r="H7" s="2">
         <v>3674</v>
       </c>
@@ -5112,9 +5233,9 @@
       <c r="N7" s="2">
         <v>3636</v>
       </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="16"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="14"/>
       <c r="S7" s="10" t="s">
         <v>21</v>
       </c>
@@ -5130,8 +5251,10 @@
       <c r="W7" s="11">
         <v>3120</v>
       </c>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="22">
+      <c r="X7" s="2">
+        <v>3142</v>
+      </c>
+      <c r="Y7" s="20">
         <v>3062</v>
       </c>
       <c r="Z7" s="10">
@@ -5141,7 +5264,7 @@
         <v>3062</v>
       </c>
       <c r="AB7" s="2"/>
-      <c r="AC7" s="22">
+      <c r="AC7" s="20">
         <v>2950</v>
       </c>
       <c r="AD7" s="10">
@@ -5151,8 +5274,8 @@
         <v>3345</v>
       </c>
       <c r="AF7" s="10"/>
-      <c r="AG7" s="21"/>
-      <c r="AH7" s="16"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="14"/>
       <c r="AJ7" s="10" t="s">
         <v>22</v>
       </c>
@@ -5168,7 +5291,9 @@
       <c r="AN7" s="2">
         <v>23691.5</v>
       </c>
-      <c r="AO7" s="2"/>
+      <c r="AO7" s="2">
+        <v>23381.9</v>
+      </c>
       <c r="AP7" s="2">
         <v>22514.52</v>
       </c>
@@ -5188,11 +5313,11 @@
       <c r="AV7" s="2">
         <v>22971.05</v>
       </c>
-      <c r="AW7" s="14"/>
-      <c r="AX7" s="16">
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="14">
         <v>21420</v>
       </c>
-      <c r="AY7" s="16">
+      <c r="AY7" s="14">
         <v>21564</v>
       </c>
     </row>
@@ -5212,7 +5337,9 @@
       <c r="F8" s="2">
         <v>14036</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2">
+        <v>13765</v>
+      </c>
       <c r="H8" s="2">
         <v>10150</v>
       </c>
@@ -5232,9 +5359,9 @@
       <c r="N8" s="2">
         <v>11707</v>
       </c>
-      <c r="O8" s="14"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="16"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="14"/>
       <c r="S8" s="10" t="s">
         <v>24</v>
       </c>
@@ -5245,18 +5372,18 @@
       <c r="V8" s="10"/>
       <c r="W8" s="11"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="22"/>
+      <c r="Y8" s="20"/>
       <c r="Z8" s="10"/>
       <c r="AA8" s="11"/>
       <c r="AB8" s="2"/>
-      <c r="AC8" s="22"/>
+      <c r="AC8" s="20"/>
       <c r="AD8" s="10"/>
       <c r="AE8" s="10"/>
       <c r="AF8" s="10"/>
-      <c r="AG8" s="21">
+      <c r="AG8" s="19">
         <v>29108</v>
       </c>
-      <c r="AH8" s="16">
+      <c r="AH8" s="14">
         <v>29108</v>
       </c>
       <c r="AJ8" s="10" t="s">
@@ -5274,7 +5401,9 @@
       <c r="AN8" s="2">
         <v>50028.99</v>
       </c>
-      <c r="AO8" s="2"/>
+      <c r="AO8" s="2">
+        <v>53346.76</v>
+      </c>
       <c r="AP8" s="2">
         <v>49348.67</v>
       </c>
@@ -5294,11 +5423,11 @@
       <c r="AV8" s="2">
         <v>46500.98</v>
       </c>
-      <c r="AW8" s="14"/>
-      <c r="AX8" s="16">
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="14">
         <v>47911</v>
       </c>
-      <c r="AY8" s="16">
+      <c r="AY8" s="14">
         <v>48960</v>
       </c>
     </row>
@@ -5318,7 +5447,9 @@
       <c r="F9" s="2">
         <v>581</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2">
+        <v>581</v>
+      </c>
       <c r="H9" s="2">
         <v>581</v>
       </c>
@@ -5338,11 +5469,11 @@
       <c r="N9" s="2">
         <v>581</v>
       </c>
-      <c r="O9" s="14"/>
-      <c r="P9" s="21">
+      <c r="O9" s="2"/>
+      <c r="P9" s="19">
         <v>581</v>
       </c>
-      <c r="Q9" s="16">
+      <c r="Q9" s="14">
         <v>581</v>
       </c>
       <c r="S9" s="10" t="s">
@@ -5355,18 +5486,18 @@
       <c r="V9" s="10"/>
       <c r="W9" s="11"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="22"/>
+      <c r="Y9" s="20"/>
       <c r="Z9" s="10"/>
       <c r="AA9" s="11"/>
       <c r="AB9" s="2"/>
-      <c r="AC9" s="22"/>
+      <c r="AC9" s="20"/>
       <c r="AD9" s="10"/>
       <c r="AE9" s="10"/>
       <c r="AF9" s="10"/>
-      <c r="AG9" s="21">
+      <c r="AG9" s="19">
         <v>13996</v>
       </c>
-      <c r="AH9" s="16">
+      <c r="AH9" s="14">
         <v>14131</v>
       </c>
       <c r="AJ9" s="10" t="s">
@@ -5384,7 +5515,9 @@
       <c r="AN9" s="2">
         <v>26331.47</v>
       </c>
-      <c r="AO9" s="2"/>
+      <c r="AO9" s="2">
+        <v>26309.61</v>
+      </c>
       <c r="AP9" s="2">
         <v>28353.7</v>
       </c>
@@ -5404,11 +5537,11 @@
       <c r="AV9" s="2">
         <v>26329.54</v>
       </c>
-      <c r="AW9" s="14"/>
-      <c r="AX9" s="16">
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="14">
         <v>26296</v>
       </c>
-      <c r="AY9" s="16">
+      <c r="AY9" s="14">
         <v>26296</v>
       </c>
     </row>
@@ -5428,7 +5561,9 @@
       <c r="F10" s="2">
         <v>816</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2">
+        <v>692</v>
+      </c>
       <c r="H10" s="2">
         <v>818</v>
       </c>
@@ -5448,11 +5583,11 @@
       <c r="N10" s="2">
         <v>838</v>
       </c>
-      <c r="O10" s="14"/>
-      <c r="P10" s="21">
+      <c r="O10" s="2"/>
+      <c r="P10" s="19">
         <v>672</v>
       </c>
-      <c r="Q10" s="16">
+      <c r="Q10" s="14">
         <v>672</v>
       </c>
       <c r="S10" s="10" t="s">
@@ -5465,18 +5600,18 @@
       <c r="V10" s="10"/>
       <c r="W10" s="11"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="22"/>
+      <c r="Y10" s="20"/>
       <c r="Z10" s="10"/>
       <c r="AA10" s="11"/>
       <c r="AB10" s="2"/>
-      <c r="AC10" s="22"/>
+      <c r="AC10" s="20"/>
       <c r="AD10" s="10"/>
       <c r="AE10" s="10"/>
       <c r="AF10" s="10"/>
-      <c r="AG10" s="21">
+      <c r="AG10" s="19">
         <v>41661</v>
       </c>
-      <c r="AH10" s="16">
+      <c r="AH10" s="14">
         <v>41877</v>
       </c>
       <c r="AJ10" s="10" t="s">
@@ -5494,7 +5629,9 @@
       <c r="AN10" s="2">
         <v>32794.53</v>
       </c>
-      <c r="AO10" s="2"/>
+      <c r="AO10" s="2">
+        <v>35032.6</v>
+      </c>
       <c r="AP10" s="2">
         <v>34036.73</v>
       </c>
@@ -5514,11 +5651,11 @@
       <c r="AV10" s="2">
         <v>34036.73</v>
       </c>
-      <c r="AW10" s="14"/>
-      <c r="AX10" s="16">
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="14">
         <v>30712</v>
       </c>
-      <c r="AY10" s="16">
+      <c r="AY10" s="14">
         <v>30718</v>
       </c>
     </row>
@@ -5538,7 +5675,9 @@
       <c r="F11" s="2">
         <v>1766.5</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2">
+        <v>1809.58</v>
+      </c>
       <c r="H11" s="2">
         <v>1813.95</v>
       </c>
@@ -5558,11 +5697,11 @@
       <c r="N11" s="2">
         <v>1813.95</v>
       </c>
-      <c r="O11" s="14"/>
-      <c r="P11" s="21">
+      <c r="O11" s="2"/>
+      <c r="P11" s="19">
         <v>1766</v>
       </c>
-      <c r="Q11" s="16">
+      <c r="Q11" s="14">
         <v>1766</v>
       </c>
       <c r="S11" s="10" t="s">
@@ -5575,16 +5714,16 @@
       <c r="V11" s="10"/>
       <c r="W11" s="11"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="22"/>
+      <c r="Y11" s="20"/>
       <c r="Z11" s="10"/>
       <c r="AA11" s="11"/>
       <c r="AB11" s="2"/>
-      <c r="AC11" s="22"/>
+      <c r="AC11" s="20"/>
       <c r="AD11" s="10"/>
       <c r="AE11" s="10"/>
       <c r="AF11" s="10"/>
-      <c r="AG11" s="21"/>
-      <c r="AH11" s="16"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="14"/>
       <c r="AJ11" s="10" t="s">
         <v>34</v>
       </c>
@@ -5600,7 +5739,9 @@
       <c r="AN11" s="2">
         <v>47039.29</v>
       </c>
-      <c r="AO11" s="2"/>
+      <c r="AO11" s="2">
+        <v>48247.02</v>
+      </c>
       <c r="AP11" s="2">
         <v>53134.33</v>
       </c>
@@ -5620,11 +5761,11 @@
       <c r="AV11" s="2">
         <v>51993.05</v>
       </c>
-      <c r="AW11" s="14"/>
-      <c r="AX11" s="16">
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="14">
         <v>33349</v>
       </c>
-      <c r="AY11" s="16">
+      <c r="AY11" s="14">
         <v>33349</v>
       </c>
     </row>
@@ -5644,7 +5785,9 @@
       <c r="F12" s="2">
         <v>27862.64</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2">
+        <v>29292.73</v>
+      </c>
       <c r="H12" s="2">
         <v>29206.94</v>
       </c>
@@ -5664,11 +5807,11 @@
       <c r="N12" s="2">
         <v>28438.57</v>
       </c>
-      <c r="O12" s="14"/>
-      <c r="P12" s="21">
+      <c r="O12" s="2"/>
+      <c r="P12" s="19">
         <v>24862</v>
       </c>
-      <c r="Q12" s="16">
+      <c r="Q12" s="14">
         <v>24862</v>
       </c>
       <c r="S12" s="10" t="s">
@@ -5681,16 +5824,16 @@
       <c r="V12" s="10"/>
       <c r="W12" s="11"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="22"/>
+      <c r="Y12" s="20"/>
       <c r="Z12" s="10"/>
       <c r="AA12" s="11"/>
       <c r="AB12" s="2"/>
-      <c r="AC12" s="22"/>
+      <c r="AC12" s="20"/>
       <c r="AD12" s="10"/>
       <c r="AE12" s="10"/>
       <c r="AF12" s="10"/>
-      <c r="AG12" s="21"/>
-      <c r="AH12" s="16"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="14"/>
       <c r="AJ12" s="10" t="s">
         <v>37</v>
       </c>
@@ -5706,7 +5849,9 @@
       <c r="AN12" s="2">
         <v>22363.5</v>
       </c>
-      <c r="AO12" s="2"/>
+      <c r="AO12" s="2">
+        <v>23011.19</v>
+      </c>
       <c r="AP12" s="2">
         <v>21636.74</v>
       </c>
@@ -5726,9 +5871,9 @@
       <c r="AV12" s="2">
         <v>21297.39</v>
       </c>
-      <c r="AW12" s="14"/>
-      <c r="AX12" s="16"/>
-      <c r="AY12" s="16"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="14"/>
+      <c r="AY12" s="14"/>
     </row>
     <row r="13" spans="2:51">
       <c r="B13" s="10" t="s">
@@ -5746,7 +5891,9 @@
       <c r="F13" s="2">
         <v>10262</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2">
+        <v>8900</v>
+      </c>
       <c r="H13" s="2">
         <v>9812</v>
       </c>
@@ -5766,9 +5913,9 @@
       <c r="N13" s="2">
         <v>9455</v>
       </c>
-      <c r="O13" s="14"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="16"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="14"/>
       <c r="S13" s="10" t="s">
         <v>39</v>
       </c>
@@ -5784,8 +5931,10 @@
       <c r="W13" s="11">
         <v>6284</v>
       </c>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="22">
+      <c r="X13" s="2">
+        <v>5977</v>
+      </c>
+      <c r="Y13" s="20">
         <v>5381</v>
       </c>
       <c r="Z13" s="10">
@@ -5795,7 +5944,7 @@
         <v>5381</v>
       </c>
       <c r="AB13" s="2"/>
-      <c r="AC13" s="22">
+      <c r="AC13" s="20">
         <v>6289</v>
       </c>
       <c r="AD13" s="10">
@@ -5805,10 +5954,10 @@
         <v>6289</v>
       </c>
       <c r="AF13" s="10"/>
-      <c r="AG13" s="21">
+      <c r="AG13" s="19">
         <v>4238</v>
       </c>
-      <c r="AH13" s="16">
+      <c r="AH13" s="14">
         <v>4300</v>
       </c>
       <c r="AJ13" s="10" t="s">
@@ -5826,7 +5975,9 @@
       <c r="AN13" s="2">
         <v>24829.1</v>
       </c>
-      <c r="AO13" s="2"/>
+      <c r="AO13" s="2">
+        <v>26460.15</v>
+      </c>
       <c r="AP13" s="2">
         <v>25418.47</v>
       </c>
@@ -5846,9 +5997,9 @@
       <c r="AV13" s="2">
         <v>23600.58</v>
       </c>
-      <c r="AW13" s="14"/>
-      <c r="AX13" s="16"/>
-      <c r="AY13" s="16"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="14"/>
+      <c r="AY13" s="14"/>
     </row>
     <row r="14" spans="2:51">
       <c r="B14" s="10" t="s">
@@ -5866,7 +6017,9 @@
       <c r="F14" s="2">
         <v>4770</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2">
+        <v>950</v>
+      </c>
       <c r="H14" s="2">
         <v>980</v>
       </c>
@@ -5886,9 +6039,9 @@
       <c r="N14" s="2">
         <v>1000</v>
       </c>
-      <c r="O14" s="14"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="16"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="14"/>
       <c r="S14" s="10" t="s">
         <v>42</v>
       </c>
@@ -5904,8 +6057,10 @@
       <c r="W14" s="11">
         <v>10809.47</v>
       </c>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="22">
+      <c r="X14" s="2">
+        <v>11256.35</v>
+      </c>
+      <c r="Y14" s="20">
         <v>10171.17</v>
       </c>
       <c r="Z14" s="10">
@@ -5915,7 +6070,7 @@
         <v>9744.28</v>
       </c>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="22">
+      <c r="AC14" s="20">
         <v>10444.9</v>
       </c>
       <c r="AD14" s="10">
@@ -5925,10 +6080,10 @@
         <v>10081.68</v>
       </c>
       <c r="AF14" s="10"/>
-      <c r="AG14" s="21">
+      <c r="AG14" s="19">
         <v>9073</v>
       </c>
-      <c r="AH14" s="16">
+      <c r="AH14" s="14">
         <v>9098</v>
       </c>
       <c r="AJ14" s="10" t="s">
@@ -5946,7 +6101,9 @@
       <c r="AN14" s="2">
         <v>39951.51</v>
       </c>
-      <c r="AO14" s="2"/>
+      <c r="AO14" s="2">
+        <v>40547.88</v>
+      </c>
       <c r="AP14" s="2">
         <v>43380.21</v>
       </c>
@@ -5966,9 +6123,9 @@
       <c r="AV14" s="2">
         <v>43478.16</v>
       </c>
-      <c r="AW14" s="14"/>
-      <c r="AX14" s="16"/>
-      <c r="AY14" s="16"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="14"/>
+      <c r="AY14" s="14"/>
     </row>
     <row r="15" spans="2:51">
       <c r="B15" s="10" t="s">
@@ -5986,7 +6143,9 @@
       <c r="F15" s="2">
         <v>1454.84</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2">
+        <v>1206.19</v>
+      </c>
       <c r="H15" s="2">
         <v>1339.12</v>
       </c>
@@ -6006,11 +6165,11 @@
       <c r="N15" s="2">
         <v>1339.12</v>
       </c>
-      <c r="O15" s="14"/>
-      <c r="P15" s="21">
+      <c r="O15" s="2"/>
+      <c r="P15" s="19">
         <v>842</v>
       </c>
-      <c r="Q15" s="16">
+      <c r="Q15" s="14">
         <v>842</v>
       </c>
       <c r="S15" s="10" t="s">
@@ -6028,8 +6187,10 @@
       <c r="W15" s="11">
         <v>14026.18</v>
       </c>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="22">
+      <c r="X15" s="2">
+        <v>15463.93</v>
+      </c>
+      <c r="Y15" s="20">
         <v>15194.75</v>
       </c>
       <c r="Z15" s="10">
@@ -6039,7 +6200,7 @@
         <v>14150.08</v>
       </c>
       <c r="AB15" s="2"/>
-      <c r="AC15" s="22">
+      <c r="AC15" s="20">
         <v>13836.8</v>
       </c>
       <c r="AD15" s="10">
@@ -6049,10 +6210,10 @@
         <v>13896.17</v>
       </c>
       <c r="AF15" s="10"/>
-      <c r="AG15" s="21">
+      <c r="AG15" s="19">
         <v>11412</v>
       </c>
-      <c r="AH15" s="16">
+      <c r="AH15" s="14">
         <v>11483</v>
       </c>
       <c r="AJ15" s="10" t="s">
@@ -6070,7 +6231,9 @@
       <c r="AN15" s="2">
         <v>128728.12</v>
       </c>
-      <c r="AO15" s="2"/>
+      <c r="AO15" s="2">
+        <v>129526.79</v>
+      </c>
       <c r="AP15" s="2">
         <v>140645.78</v>
       </c>
@@ -6080,9 +6243,9 @@
       <c r="AT15" s="2"/>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
-      <c r="AW15" s="14"/>
-      <c r="AX15" s="16"/>
-      <c r="AY15" s="16"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="14"/>
+      <c r="AY15" s="14"/>
     </row>
     <row r="16" spans="2:51">
       <c r="B16" s="10" t="s">
@@ -6100,7 +6263,9 @@
       <c r="F16" s="2">
         <v>2710.19</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2">
+        <v>2667.99</v>
+      </c>
       <c r="H16" s="2">
         <v>2726.8</v>
       </c>
@@ -6120,11 +6285,11 @@
       <c r="N16" s="2">
         <v>2565.23</v>
       </c>
-      <c r="O16" s="14"/>
-      <c r="P16" s="21">
+      <c r="O16" s="2"/>
+      <c r="P16" s="19">
         <v>2492</v>
       </c>
-      <c r="Q16" s="16">
+      <c r="Q16" s="14">
         <v>2492</v>
       </c>
       <c r="S16" s="10" t="s">
@@ -6142,8 +6307,10 @@
       <c r="W16" s="11">
         <v>13485.45</v>
       </c>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="22">
+      <c r="X16" s="2">
+        <v>13519.19</v>
+      </c>
+      <c r="Y16" s="20">
         <v>15518.81</v>
       </c>
       <c r="Z16" s="10">
@@ -6153,7 +6320,7 @@
         <v>15446.02</v>
       </c>
       <c r="AB16" s="2"/>
-      <c r="AC16" s="22">
+      <c r="AC16" s="20">
         <v>15428.8</v>
       </c>
       <c r="AD16" s="10">
@@ -6163,10 +6330,10 @@
         <v>15482.82</v>
       </c>
       <c r="AF16" s="10"/>
-      <c r="AG16" s="21">
+      <c r="AG16" s="19">
         <v>13315</v>
       </c>
-      <c r="AH16" s="16">
+      <c r="AH16" s="14">
         <v>13315</v>
       </c>
       <c r="AJ16" s="10" t="s">
@@ -6184,7 +6351,9 @@
       <c r="AN16" s="2">
         <v>571.6</v>
       </c>
-      <c r="AO16" s="2"/>
+      <c r="AO16" s="2">
+        <v>587.39</v>
+      </c>
       <c r="AP16" s="2">
         <v>644.08</v>
       </c>
@@ -6204,11 +6373,11 @@
       <c r="AV16" s="2">
         <v>599.63</v>
       </c>
-      <c r="AW16" s="14"/>
-      <c r="AX16" s="16">
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="14">
         <v>554</v>
       </c>
-      <c r="AY16" s="16">
+      <c r="AY16" s="14">
         <v>554</v>
       </c>
     </row>
@@ -6228,7 +6397,9 @@
       <c r="F17" s="2">
         <v>3087.18</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2">
+        <v>3176.92</v>
+      </c>
       <c r="H17" s="2">
         <v>3564.32</v>
       </c>
@@ -6248,11 +6419,11 @@
       <c r="N17" s="2">
         <v>3151.81</v>
       </c>
-      <c r="O17" s="14"/>
-      <c r="P17" s="21">
+      <c r="O17" s="2"/>
+      <c r="P17" s="19">
         <v>2772</v>
       </c>
-      <c r="Q17" s="16">
+      <c r="Q17" s="14">
         <v>2790</v>
       </c>
       <c r="S17" s="10" t="s">
@@ -6270,8 +6441,10 @@
       <c r="W17" s="11">
         <v>11184.6</v>
       </c>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="22">
+      <c r="X17" s="2">
+        <v>11415.84</v>
+      </c>
+      <c r="Y17" s="20">
         <v>11529.81</v>
       </c>
       <c r="Z17" s="10">
@@ -6281,7 +6454,7 @@
         <v>11037.6</v>
       </c>
       <c r="AB17" s="2"/>
-      <c r="AC17" s="22">
+      <c r="AC17" s="20">
         <v>10913.61</v>
       </c>
       <c r="AD17" s="10">
@@ -6291,10 +6464,10 @@
         <v>10913.61</v>
       </c>
       <c r="AF17" s="10"/>
-      <c r="AG17" s="21">
+      <c r="AG17" s="19">
         <v>9071</v>
       </c>
-      <c r="AH17" s="16">
+      <c r="AH17" s="14">
         <v>9071</v>
       </c>
       <c r="AJ17" s="10" t="s">
@@ -6312,7 +6485,9 @@
       <c r="AN17" s="2">
         <v>1125.23</v>
       </c>
-      <c r="AO17" s="2"/>
+      <c r="AO17" s="2">
+        <v>1135.33</v>
+      </c>
       <c r="AP17" s="2">
         <v>1253.27</v>
       </c>
@@ -6332,11 +6507,11 @@
       <c r="AV17" s="2">
         <v>1143.23</v>
       </c>
-      <c r="AW17" s="14"/>
-      <c r="AX17" s="16">
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="14">
         <v>1106</v>
       </c>
-      <c r="AY17" s="16">
+      <c r="AY17" s="14">
         <v>1108</v>
       </c>
     </row>
@@ -6356,7 +6531,9 @@
       <c r="F18" s="2">
         <v>239</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2">
+        <v>251</v>
+      </c>
       <c r="H18" s="2">
         <v>248</v>
       </c>
@@ -6376,11 +6553,11 @@
       <c r="N18" s="2">
         <v>247</v>
       </c>
-      <c r="O18" s="14"/>
-      <c r="P18" s="21">
+      <c r="O18" s="2"/>
+      <c r="P18" s="19">
         <v>227</v>
       </c>
-      <c r="Q18" s="16">
+      <c r="Q18" s="14">
         <v>227</v>
       </c>
       <c r="S18" s="10" t="s">
@@ -6398,8 +6575,10 @@
       <c r="W18" s="11">
         <v>12016.93</v>
       </c>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="22">
+      <c r="X18" s="2">
+        <v>11979.07</v>
+      </c>
+      <c r="Y18" s="20">
         <v>13325.39</v>
       </c>
       <c r="Z18" s="10">
@@ -6409,7 +6588,7 @@
         <v>12931.04</v>
       </c>
       <c r="AB18" s="2"/>
-      <c r="AC18" s="22">
+      <c r="AC18" s="20">
         <v>11828.96</v>
       </c>
       <c r="AD18" s="10">
@@ -6419,10 +6598,10 @@
         <v>11746.46</v>
       </c>
       <c r="AF18" s="10"/>
-      <c r="AG18" s="21">
+      <c r="AG18" s="19">
         <v>11501</v>
       </c>
-      <c r="AH18" s="16">
+      <c r="AH18" s="14">
         <v>11501</v>
       </c>
       <c r="AJ18" s="10" t="s">
@@ -6440,7 +6619,9 @@
       <c r="AN18" s="2">
         <v>3354.21</v>
       </c>
-      <c r="AO18" s="2"/>
+      <c r="AO18" s="2">
+        <v>3429.92</v>
+      </c>
       <c r="AP18" s="2">
         <v>3630.78</v>
       </c>
@@ -6460,9 +6641,9 @@
       <c r="AV18" s="2">
         <v>3503.28</v>
       </c>
-      <c r="AW18" s="14"/>
-      <c r="AX18" s="16"/>
-      <c r="AY18" s="16"/>
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="14"/>
+      <c r="AY18" s="14"/>
     </row>
     <row r="19" spans="2:51">
       <c r="B19" s="10" t="s">
@@ -6480,7 +6661,9 @@
       <c r="F19" s="2">
         <v>181.41</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2">
+        <v>170.44</v>
+      </c>
       <c r="H19" s="2">
         <v>190.34</v>
       </c>
@@ -6500,11 +6683,11 @@
       <c r="N19" s="2">
         <v>190.24</v>
       </c>
-      <c r="O19" s="14"/>
-      <c r="P19" s="21">
+      <c r="O19" s="2"/>
+      <c r="P19" s="19">
         <v>179</v>
       </c>
-      <c r="Q19" s="16">
+      <c r="Q19" s="14">
         <v>181</v>
       </c>
       <c r="S19" s="10" t="s">
@@ -6522,8 +6705,10 @@
       <c r="W19" s="11">
         <v>15963.66</v>
       </c>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="22">
+      <c r="X19" s="2">
+        <v>16727.82</v>
+      </c>
+      <c r="Y19" s="20">
         <v>17045.05</v>
       </c>
       <c r="Z19" s="10">
@@ -6533,7 +6718,7 @@
         <v>16340.73</v>
       </c>
       <c r="AB19" s="2"/>
-      <c r="AC19" s="22">
+      <c r="AC19" s="20">
         <v>15996.61</v>
       </c>
       <c r="AD19" s="10">
@@ -6543,10 +6728,10 @@
         <v>15789.91</v>
       </c>
       <c r="AF19" s="10"/>
-      <c r="AG19" s="21">
+      <c r="AG19" s="19">
         <v>12787</v>
       </c>
-      <c r="AH19" s="16">
+      <c r="AH19" s="14">
         <v>12787</v>
       </c>
       <c r="AJ19" s="10" t="s">
@@ -6564,7 +6749,9 @@
       <c r="AN19" s="2">
         <v>4472.01</v>
       </c>
-      <c r="AO19" s="2"/>
+      <c r="AO19" s="2">
+        <v>4638.01</v>
+      </c>
       <c r="AP19" s="2">
         <v>4853.25</v>
       </c>
@@ -6578,9 +6765,9 @@
       <c r="AV19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AW19" s="14"/>
-      <c r="AX19" s="16"/>
-      <c r="AY19" s="16"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="14"/>
+      <c r="AY19" s="14"/>
     </row>
     <row r="20" spans="2:51">
       <c r="B20" s="10" t="s">
@@ -6598,7 +6785,9 @@
       <c r="F20" s="2">
         <v>229.64</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2">
+        <v>224.99</v>
+      </c>
       <c r="H20" s="2">
         <v>240.5</v>
       </c>
@@ -6618,11 +6807,11 @@
       <c r="N20" s="2">
         <v>224.72</v>
       </c>
-      <c r="O20" s="14"/>
-      <c r="P20" s="21">
+      <c r="O20" s="2"/>
+      <c r="P20" s="19">
         <v>217</v>
       </c>
-      <c r="Q20" s="16">
+      <c r="Q20" s="14">
         <v>219</v>
       </c>
       <c r="S20" s="10" t="s">
@@ -6640,8 +6829,10 @@
       <c r="W20" s="11">
         <v>9555.73</v>
       </c>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="22">
+      <c r="X20" s="2">
+        <v>9412.28</v>
+      </c>
+      <c r="Y20" s="20">
         <v>11703.58</v>
       </c>
       <c r="Z20" s="10">
@@ -6651,7 +6842,7 @@
         <v>11626.21</v>
       </c>
       <c r="AB20" s="2"/>
-      <c r="AC20" s="22">
+      <c r="AC20" s="20">
         <v>10824.74</v>
       </c>
       <c r="AD20" s="10">
@@ -6661,10 +6852,10 @@
         <v>11241.49</v>
       </c>
       <c r="AF20" s="10"/>
-      <c r="AG20" s="21">
+      <c r="AG20" s="19">
         <v>9428</v>
       </c>
-      <c r="AH20" s="16">
+      <c r="AH20" s="14">
         <v>9498</v>
       </c>
       <c r="AJ20" s="10" t="s">
@@ -6682,7 +6873,9 @@
       <c r="AN20" s="2">
         <v>10498</v>
       </c>
-      <c r="AO20" s="2"/>
+      <c r="AO20" s="2">
+        <v>10299</v>
+      </c>
       <c r="AP20" s="2">
         <v>10638</v>
       </c>
@@ -6702,9 +6895,9 @@
       <c r="AV20" s="2">
         <v>10435</v>
       </c>
-      <c r="AW20" s="14"/>
-      <c r="AX20" s="16"/>
-      <c r="AY20" s="16"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="14"/>
+      <c r="AY20" s="14"/>
     </row>
     <row r="21" spans="2:51">
       <c r="B21" s="10" t="s">
@@ -6722,7 +6915,9 @@
       <c r="F21" s="2">
         <v>314.43</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" s="2">
+        <v>303.76</v>
+      </c>
       <c r="H21" s="2">
         <v>266.89</v>
       </c>
@@ -6742,11 +6937,11 @@
       <c r="N21" s="2">
         <v>332.22</v>
       </c>
-      <c r="O21" s="14"/>
-      <c r="P21" s="21">
+      <c r="O21" s="2"/>
+      <c r="P21" s="19">
         <v>249</v>
       </c>
-      <c r="Q21" s="16">
+      <c r="Q21" s="14">
         <v>249</v>
       </c>
       <c r="S21" s="10" t="s">
@@ -6764,8 +6959,10 @@
       <c r="W21" s="11">
         <v>10205.07</v>
       </c>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="22">
+      <c r="X21" s="2">
+        <v>10720.17</v>
+      </c>
+      <c r="Y21" s="20">
         <v>11197.73</v>
       </c>
       <c r="Z21" s="10">
@@ -6775,7 +6972,7 @@
         <v>11210.26</v>
       </c>
       <c r="AB21" s="2"/>
-      <c r="AC21" s="22">
+      <c r="AC21" s="20">
         <v>11197.73</v>
       </c>
       <c r="AD21" s="10">
@@ -6785,10 +6982,10 @@
         <v>11210.26</v>
       </c>
       <c r="AF21" s="10"/>
-      <c r="AG21" s="21">
+      <c r="AG21" s="19">
         <v>8808</v>
       </c>
-      <c r="AH21" s="16">
+      <c r="AH21" s="14">
         <v>8808</v>
       </c>
       <c r="AJ21" s="10" t="s">
@@ -6806,7 +7003,9 @@
       <c r="AN21" s="2">
         <v>23164</v>
       </c>
-      <c r="AO21" s="2"/>
+      <c r="AO21" s="2">
+        <v>23360</v>
+      </c>
       <c r="AP21" s="2">
         <v>23512</v>
       </c>
@@ -6826,9 +7025,9 @@
       <c r="AV21" s="2">
         <v>23155</v>
       </c>
-      <c r="AW21" s="14"/>
-      <c r="AX21" s="16"/>
-      <c r="AY21" s="16"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="14"/>
+      <c r="AY21" s="14"/>
     </row>
     <row r="22" spans="2:51">
       <c r="B22" s="10" t="s">
@@ -6846,7 +7045,9 @@
       <c r="F22" s="2">
         <v>334</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="2">
+        <v>334</v>
+      </c>
       <c r="H22" s="2">
         <v>391</v>
       </c>
@@ -6866,11 +7067,11 @@
       <c r="N22" s="2">
         <v>391</v>
       </c>
-      <c r="O22" s="14"/>
-      <c r="P22" s="21">
+      <c r="O22" s="2"/>
+      <c r="P22" s="19">
         <v>308</v>
       </c>
-      <c r="Q22" s="16">
+      <c r="Q22" s="14">
         <v>339</v>
       </c>
       <c r="S22" s="10" t="s">
@@ -6888,8 +7089,10 @@
       <c r="W22" s="11">
         <v>9424.1</v>
       </c>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="22">
+      <c r="X22" s="2">
+        <v>10023.72</v>
+      </c>
+      <c r="Y22" s="20">
         <v>10160.41</v>
       </c>
       <c r="Z22" s="10">
@@ -6899,7 +7102,7 @@
         <v>9883.13</v>
       </c>
       <c r="AB22" s="2"/>
-      <c r="AC22" s="22">
+      <c r="AC22" s="20">
         <v>9449.58</v>
       </c>
       <c r="AD22" s="10">
@@ -6909,10 +7112,10 @@
         <v>9385</v>
       </c>
       <c r="AF22" s="10"/>
-      <c r="AG22" s="21">
+      <c r="AG22" s="19">
         <v>9370</v>
       </c>
-      <c r="AH22" s="16">
+      <c r="AH22" s="14">
         <v>9370</v>
       </c>
       <c r="AJ22" s="10" t="s">
@@ -6930,7 +7133,9 @@
       <c r="AN22" s="2">
         <v>46591</v>
       </c>
-      <c r="AO22" s="2"/>
+      <c r="AO22" s="2">
+        <v>46805</v>
+      </c>
       <c r="AP22" s="2">
         <v>46810</v>
       </c>
@@ -6940,9 +7145,9 @@
       <c r="AT22" s="2"/>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
-      <c r="AW22" s="14"/>
-      <c r="AX22" s="16"/>
-      <c r="AY22" s="16"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="14"/>
+      <c r="AY22" s="14"/>
     </row>
     <row r="23" spans="2:51">
       <c r="B23" s="10" t="s">
@@ -6960,7 +7165,9 @@
       <c r="F23" s="2">
         <v>1169.16</v>
       </c>
-      <c r="G23" s="2"/>
+      <c r="G23" s="2">
+        <v>1153.12</v>
+      </c>
       <c r="H23" s="2">
         <v>1353.51</v>
       </c>
@@ -6980,11 +7187,11 @@
       <c r="N23" s="2">
         <v>1200.69</v>
       </c>
-      <c r="O23" s="14"/>
-      <c r="P23" s="21">
+      <c r="O23" s="2"/>
+      <c r="P23" s="19">
         <v>1049</v>
       </c>
-      <c r="Q23" s="16">
+      <c r="Q23" s="14">
         <v>1049</v>
       </c>
       <c r="S23" s="10" t="s">
@@ -7002,8 +7209,10 @@
       <c r="W23" s="11">
         <v>5691.96</v>
       </c>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="22">
+      <c r="X23" s="2">
+        <v>5835.44</v>
+      </c>
+      <c r="Y23" s="20">
         <v>5290</v>
       </c>
       <c r="Z23" s="10">
@@ -7013,7 +7222,7 @@
         <v>5255.49</v>
       </c>
       <c r="AB23" s="2"/>
-      <c r="AC23" s="22">
+      <c r="AC23" s="20">
         <v>5838.62</v>
       </c>
       <c r="AD23" s="10">
@@ -7023,10 +7232,10 @@
         <v>5645.72</v>
       </c>
       <c r="AF23" s="10"/>
-      <c r="AG23" s="21">
+      <c r="AG23" s="19">
         <v>5532</v>
       </c>
-      <c r="AH23" s="16">
+      <c r="AH23" s="14">
         <v>5532</v>
       </c>
       <c r="AJ23" s="10" t="s">
@@ -7044,7 +7253,9 @@
       <c r="AN23" s="2">
         <v>308.25</v>
       </c>
-      <c r="AO23" s="2"/>
+      <c r="AO23" s="2">
+        <v>329.41</v>
+      </c>
       <c r="AP23" s="2">
         <v>248.69</v>
       </c>
@@ -7064,11 +7275,11 @@
       <c r="AV23" s="2">
         <v>280.47</v>
       </c>
-      <c r="AW23" s="14"/>
-      <c r="AX23" s="16">
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="14">
         <v>250</v>
       </c>
-      <c r="AY23" s="16">
+      <c r="AY23" s="14">
         <v>264</v>
       </c>
     </row>
@@ -7088,7 +7299,9 @@
       <c r="F24" s="2">
         <v>359</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="2">
+        <v>380</v>
+      </c>
       <c r="H24" s="2">
         <v>426</v>
       </c>
@@ -7108,11 +7321,11 @@
       <c r="N24" s="2">
         <v>359</v>
       </c>
-      <c r="O24" s="14"/>
-      <c r="P24" s="21">
+      <c r="O24" s="2"/>
+      <c r="P24" s="19">
         <v>359</v>
       </c>
-      <c r="Q24" s="16">
+      <c r="Q24" s="14">
         <v>368</v>
       </c>
       <c r="S24" s="10" t="s">
@@ -7130,8 +7343,10 @@
       <c r="W24" s="11">
         <v>20813.25</v>
       </c>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="22">
+      <c r="X24" s="2">
+        <v>22398.66</v>
+      </c>
+      <c r="Y24" s="20">
         <v>20659.25</v>
       </c>
       <c r="Z24" s="10">
@@ -7141,7 +7356,7 @@
         <v>20147.6</v>
       </c>
       <c r="AB24" s="2"/>
-      <c r="AC24" s="22">
+      <c r="AC24" s="20">
         <v>21122.47</v>
       </c>
       <c r="AD24" s="10">
@@ -7151,10 +7366,10 @@
         <v>20320.61</v>
       </c>
       <c r="AF24" s="10"/>
-      <c r="AG24" s="21">
+      <c r="AG24" s="19">
         <v>17655</v>
       </c>
-      <c r="AH24" s="16">
+      <c r="AH24" s="14">
         <v>17655</v>
       </c>
       <c r="AJ24" s="10" t="s">
@@ -7172,7 +7387,9 @@
       <c r="AN24" s="2">
         <v>425</v>
       </c>
-      <c r="AO24" s="2"/>
+      <c r="AO24" s="2">
+        <v>441</v>
+      </c>
       <c r="AP24" s="2">
         <v>448</v>
       </c>
@@ -7192,11 +7409,11 @@
       <c r="AV24" s="2">
         <v>455</v>
       </c>
-      <c r="AW24" s="14"/>
-      <c r="AX24" s="16">
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="14">
         <v>132</v>
       </c>
-      <c r="AY24" s="16">
+      <c r="AY24" s="14">
         <v>141</v>
       </c>
     </row>
@@ -7216,7 +7433,9 @@
       <c r="F25" s="2">
         <v>989</v>
       </c>
-      <c r="G25" s="2"/>
+      <c r="G25" s="2">
+        <v>720</v>
+      </c>
       <c r="H25" s="2">
         <v>683</v>
       </c>
@@ -7236,11 +7455,11 @@
       <c r="N25" s="2">
         <v>1103</v>
       </c>
-      <c r="O25" s="14"/>
-      <c r="P25" s="21">
+      <c r="O25" s="2"/>
+      <c r="P25" s="19">
         <v>683</v>
       </c>
-      <c r="Q25" s="16">
+      <c r="Q25" s="14">
         <v>683</v>
       </c>
       <c r="S25" s="10" t="s">
@@ -7258,19 +7477,21 @@
       <c r="W25" s="11">
         <v>28110.73</v>
       </c>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="22">
+      <c r="X25" s="2">
+        <v>28205.78</v>
+      </c>
+      <c r="Y25" s="20">
         <v>27917.4</v>
       </c>
       <c r="Z25" s="10"/>
       <c r="AA25" s="11"/>
       <c r="AB25" s="2"/>
-      <c r="AC25" s="22"/>
+      <c r="AC25" s="20"/>
       <c r="AD25" s="10"/>
       <c r="AE25" s="10"/>
       <c r="AF25" s="10"/>
-      <c r="AG25" s="21"/>
-      <c r="AH25" s="16"/>
+      <c r="AG25" s="19"/>
+      <c r="AH25" s="14"/>
       <c r="AJ25" s="10" t="s">
         <v>78</v>
       </c>
@@ -7286,7 +7507,9 @@
       <c r="AN25" s="2">
         <v>55500</v>
       </c>
-      <c r="AO25" s="2"/>
+      <c r="AO25" s="2">
+        <v>55500</v>
+      </c>
       <c r="AP25" s="2">
         <v>73643.86</v>
       </c>
@@ -7306,9 +7529,9 @@
       <c r="AV25" s="2">
         <v>70588.91</v>
       </c>
-      <c r="AW25" s="14"/>
-      <c r="AX25" s="16"/>
-      <c r="AY25" s="16"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="14"/>
+      <c r="AY25" s="14"/>
     </row>
     <row r="26" spans="2:51">
       <c r="B26" s="10" t="s">
@@ -7326,7 +7549,9 @@
       <c r="F26" s="2">
         <v>490</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" s="2">
+        <v>413</v>
+      </c>
       <c r="H26" s="2">
         <v>413</v>
       </c>
@@ -7346,11 +7571,11 @@
       <c r="N26" s="2">
         <v>438</v>
       </c>
-      <c r="O26" s="14"/>
-      <c r="P26" s="21">
+      <c r="O26" s="2"/>
+      <c r="P26" s="19">
         <v>396</v>
       </c>
-      <c r="Q26" s="16">
+      <c r="Q26" s="14">
         <v>396</v>
       </c>
       <c r="S26" s="10" t="s">
@@ -7368,8 +7593,10 @@
       <c r="W26" s="11">
         <v>1336</v>
       </c>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="22">
+      <c r="X26" s="2">
+        <v>1277</v>
+      </c>
+      <c r="Y26" s="20">
         <v>1219</v>
       </c>
       <c r="Z26" s="10">
@@ -7379,7 +7606,7 @@
         <v>1161</v>
       </c>
       <c r="AB26" s="2"/>
-      <c r="AC26" s="22">
+      <c r="AC26" s="20">
         <v>1298</v>
       </c>
       <c r="AD26" s="10">
@@ -7389,8 +7616,8 @@
         <v>1277</v>
       </c>
       <c r="AF26" s="10"/>
-      <c r="AG26" s="21"/>
-      <c r="AH26" s="16"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="14"/>
       <c r="AJ26" s="10" t="s">
         <v>81</v>
       </c>
@@ -7406,7 +7633,9 @@
       <c r="AN26" s="2">
         <v>1836.14</v>
       </c>
-      <c r="AO26" s="2"/>
+      <c r="AO26" s="2">
+        <v>1825.8</v>
+      </c>
       <c r="AP26" s="2">
         <v>2121.33</v>
       </c>
@@ -7426,9 +7655,9 @@
       <c r="AV26" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AW26" s="14"/>
-      <c r="AX26" s="16"/>
-      <c r="AY26" s="16"/>
+      <c r="AW26" s="2"/>
+      <c r="AX26" s="14"/>
+      <c r="AY26" s="14"/>
     </row>
     <row r="27" spans="36:51">
       <c r="AJ27" s="10" t="s">
@@ -7446,7 +7675,9 @@
       <c r="AN27" s="2">
         <v>1981.71</v>
       </c>
-      <c r="AO27" s="2"/>
+      <c r="AO27" s="2">
+        <v>1981.71</v>
+      </c>
       <c r="AP27" s="2">
         <v>1981.15</v>
       </c>
@@ -7466,11 +7697,11 @@
       <c r="AV27" s="2">
         <v>1981.71</v>
       </c>
-      <c r="AW27" s="14"/>
-      <c r="AX27" s="16">
+      <c r="AW27" s="2"/>
+      <c r="AX27" s="14">
         <v>1329</v>
       </c>
-      <c r="AY27" s="16">
+      <c r="AY27" s="14">
         <v>1329</v>
       </c>
     </row>
@@ -7490,7 +7721,9 @@
       <c r="AN28" s="2">
         <v>2062.92</v>
       </c>
-      <c r="AO28" s="2"/>
+      <c r="AO28" s="2">
+        <v>2086.59</v>
+      </c>
       <c r="AP28" s="2">
         <v>2062.35</v>
       </c>
@@ -7510,11 +7743,11 @@
       <c r="AV28" s="2">
         <v>2062.92</v>
       </c>
-      <c r="AW28" s="14"/>
-      <c r="AX28" s="16">
+      <c r="AW28" s="2"/>
+      <c r="AX28" s="14">
         <v>1473</v>
       </c>
-      <c r="AY28" s="16">
+      <c r="AY28" s="14">
         <v>1473</v>
       </c>
     </row>
@@ -7547,8 +7780,8 @@
   <sheetPr/>
   <dimension ref="B2:AY28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AK12" sqref="AJ2:AY28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="AE15" workbookViewId="0">
+      <selection activeCell="AO29" sqref="AO29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -7768,46 +8001,46 @@
       <c r="T4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="12" t="s">
+      <c r="U4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="V4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="12" t="s">
+      <c r="W4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="X4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Y4" s="12" t="s">
+      <c r="Y4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="12" t="s">
+      <c r="Z4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" s="12" t="s">
+      <c r="AA4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AC4" s="12" t="s">
+      <c r="AC4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD4" s="12" t="s">
+      <c r="AD4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AE4" s="12" t="s">
+      <c r="AE4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AF4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AG4" s="15" t="s">
+      <c r="AG4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AH4" s="15" t="s">
+      <c r="AH4" s="13" t="s">
         <v>13</v>
       </c>
       <c r="AJ4" s="10" t="s">
@@ -7816,46 +8049,46 @@
       <c r="AK4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AL4" s="12" t="s">
+      <c r="AL4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AM4" s="12" t="s">
+      <c r="AM4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AN4" s="12" t="s">
+      <c r="AN4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AO4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AP4" s="12" t="s">
+      <c r="AP4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AQ4" s="12" t="s">
+      <c r="AQ4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AR4" s="12" t="s">
+      <c r="AR4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AS4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AT4" s="12" t="s">
+      <c r="AT4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AU4" s="12" t="s">
+      <c r="AU4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AV4" s="12" t="s">
+      <c r="AV4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AW4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AX4" s="15" t="s">
+      <c r="AX4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AY4" s="15" t="s">
+      <c r="AY4" s="13" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7875,7 +8108,9 @@
       <c r="F5" s="2">
         <v>2024.94</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2">
+        <v>2049.45</v>
+      </c>
       <c r="H5" s="2">
         <v>2263.91</v>
       </c>
@@ -7899,7 +8134,7 @@
       <c r="P5" s="8">
         <v>1894</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="12">
         <v>1925</v>
       </c>
       <c r="S5" s="10" t="s">
@@ -7917,7 +8152,9 @@
       <c r="W5" s="2">
         <v>3164</v>
       </c>
-      <c r="X5" s="2"/>
+      <c r="X5" s="2">
+        <v>3349</v>
+      </c>
       <c r="Y5" s="2">
         <v>3442</v>
       </c>
@@ -7937,11 +8174,11 @@
       <c r="AE5" s="2">
         <v>3460</v>
       </c>
-      <c r="AF5" s="14"/>
-      <c r="AG5" s="16">
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="14">
         <v>3135</v>
       </c>
-      <c r="AH5" s="16">
+      <c r="AH5" s="14">
         <v>3135</v>
       </c>
       <c r="AJ5" s="10" t="s">
@@ -7959,7 +8196,9 @@
       <c r="AN5" s="2">
         <v>62471.59</v>
       </c>
-      <c r="AO5" s="2"/>
+      <c r="AO5" s="2">
+        <v>62483.34</v>
+      </c>
       <c r="AP5" s="2">
         <v>69677.34</v>
       </c>
@@ -7979,11 +8218,11 @@
       <c r="AV5" s="2">
         <v>62006.81</v>
       </c>
-      <c r="AW5" s="14"/>
-      <c r="AX5" s="16">
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="14">
         <v>62262</v>
       </c>
-      <c r="AY5" s="16">
+      <c r="AY5" s="14">
         <v>62262</v>
       </c>
     </row>
@@ -8007,7 +8246,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="13"/>
+      <c r="Q6" s="12"/>
       <c r="S6" s="10" t="s">
         <v>18</v>
       </c>
@@ -8023,7 +8262,9 @@
       <c r="W6" s="2">
         <v>40066.08</v>
       </c>
-      <c r="X6" s="2"/>
+      <c r="X6" s="2">
+        <v>40169.94</v>
+      </c>
       <c r="Y6" s="2">
         <v>37592.14</v>
       </c>
@@ -8043,11 +8284,11 @@
       <c r="AE6" s="2">
         <v>40577.79</v>
       </c>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="16">
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="14">
         <v>29257</v>
       </c>
-      <c r="AH6" s="16">
+      <c r="AH6" s="14">
         <v>30083</v>
       </c>
       <c r="AJ6" s="10" t="s">
@@ -8065,7 +8306,9 @@
       <c r="AN6" s="2">
         <v>30370.62</v>
       </c>
-      <c r="AO6" s="2"/>
+      <c r="AO6" s="2">
+        <v>33065.67</v>
+      </c>
       <c r="AP6" s="2">
         <v>30902.14</v>
       </c>
@@ -8085,11 +8328,11 @@
       <c r="AV6" s="2">
         <v>34216.34</v>
       </c>
-      <c r="AW6" s="14"/>
-      <c r="AX6" s="16">
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="14">
         <v>29684</v>
       </c>
-      <c r="AY6" s="16">
+      <c r="AY6" s="14">
         <v>29684</v>
       </c>
     </row>
@@ -8109,7 +8352,9 @@
       <c r="F7" s="2">
         <v>6505</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2">
+        <v>7017</v>
+      </c>
       <c r="H7" s="2">
         <v>6635</v>
       </c>
@@ -8131,7 +8376,7 @@
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="8"/>
-      <c r="Q7" s="13"/>
+      <c r="Q7" s="12"/>
       <c r="S7" s="10" t="s">
         <v>21</v>
       </c>
@@ -8147,7 +8392,9 @@
       <c r="W7" s="2">
         <v>4635</v>
       </c>
-      <c r="X7" s="2"/>
+      <c r="X7" s="2">
+        <v>4654</v>
+      </c>
       <c r="Y7" s="2">
         <v>4810</v>
       </c>
@@ -8167,9 +8414,9 @@
       <c r="AE7" s="2">
         <v>4978</v>
       </c>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="16"/>
-      <c r="AH7" s="16"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
       <c r="AJ7" s="10" t="s">
         <v>22</v>
       </c>
@@ -8185,7 +8432,9 @@
       <c r="AN7" s="2">
         <v>37725.64</v>
       </c>
-      <c r="AO7" s="2"/>
+      <c r="AO7" s="2">
+        <v>38521.43</v>
+      </c>
       <c r="AP7" s="2">
         <v>41103.59</v>
       </c>
@@ -8205,11 +8454,11 @@
       <c r="AV7" s="2">
         <v>37713.82</v>
       </c>
-      <c r="AW7" s="14"/>
-      <c r="AX7" s="16">
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="14">
         <v>36977</v>
       </c>
-      <c r="AY7" s="16">
+      <c r="AY7" s="14">
         <v>36977</v>
       </c>
     </row>
@@ -8229,7 +8478,9 @@
       <c r="F8" s="2">
         <v>21862</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2">
+        <v>22268</v>
+      </c>
       <c r="H8" s="2">
         <v>18469</v>
       </c>
@@ -8251,7 +8502,7 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="13"/>
+      <c r="Q8" s="12"/>
       <c r="S8" s="10" t="s">
         <v>24</v>
       </c>
@@ -8269,11 +8520,11 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="16">
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="14">
         <v>44147</v>
       </c>
-      <c r="AH8" s="16">
+      <c r="AH8" s="14">
         <v>44286</v>
       </c>
       <c r="AJ8" s="10" t="s">
@@ -8291,7 +8542,9 @@
       <c r="AN8" s="2">
         <v>76340.25</v>
       </c>
-      <c r="AO8" s="2"/>
+      <c r="AO8" s="2">
+        <v>79534.28</v>
+      </c>
       <c r="AP8" s="2">
         <v>79330.76</v>
       </c>
@@ -8311,11 +8564,11 @@
       <c r="AV8" s="2">
         <v>77635.73</v>
       </c>
-      <c r="AW8" s="14"/>
-      <c r="AX8" s="16">
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="14">
         <v>67879</v>
       </c>
-      <c r="AY8" s="16">
+      <c r="AY8" s="14">
         <v>69818</v>
       </c>
     </row>
@@ -8335,7 +8588,9 @@
       <c r="F9" s="2">
         <v>1035</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2">
+        <v>1048</v>
+      </c>
       <c r="H9" s="2">
         <v>1068</v>
       </c>
@@ -8359,7 +8614,7 @@
       <c r="P9" s="8">
         <v>929</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="12">
         <v>929</v>
       </c>
       <c r="S9" s="10" t="s">
@@ -8379,11 +8634,11 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="16">
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="14">
         <v>22000</v>
       </c>
-      <c r="AH9" s="16">
+      <c r="AH9" s="14">
         <v>22528</v>
       </c>
       <c r="AJ9" s="10" t="s">
@@ -8401,7 +8656,9 @@
       <c r="AN9" s="2">
         <v>40842.56</v>
       </c>
-      <c r="AO9" s="2"/>
+      <c r="AO9" s="2">
+        <v>40995.19</v>
+      </c>
       <c r="AP9" s="2">
         <v>42919.15</v>
       </c>
@@ -8421,11 +8678,11 @@
       <c r="AV9" s="2">
         <v>42495.67</v>
       </c>
-      <c r="AW9" s="14"/>
-      <c r="AX9" s="16">
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="14">
         <v>40274</v>
       </c>
-      <c r="AY9" s="16">
+      <c r="AY9" s="14">
         <v>40832</v>
       </c>
     </row>
@@ -8445,7 +8702,9 @@
       <c r="F10" s="2">
         <v>1218</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2">
+        <v>1159</v>
+      </c>
       <c r="H10" s="2">
         <v>1174</v>
       </c>
@@ -8469,7 +8728,7 @@
       <c r="P10" s="8">
         <v>1090</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="12">
         <v>1090</v>
       </c>
       <c r="S10" s="10" t="s">
@@ -8489,11 +8748,11 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="16">
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="14">
         <v>65832</v>
       </c>
-      <c r="AH10" s="16">
+      <c r="AH10" s="14">
         <v>66183</v>
       </c>
       <c r="AJ10" s="10" t="s">
@@ -8511,7 +8770,9 @@
       <c r="AN10" s="2">
         <v>46589.23</v>
       </c>
-      <c r="AO10" s="2"/>
+      <c r="AO10" s="2">
+        <v>51219.67</v>
+      </c>
       <c r="AP10" s="2">
         <v>50601.88</v>
       </c>
@@ -8531,11 +8792,11 @@
       <c r="AV10" s="2">
         <v>49587.01</v>
       </c>
-      <c r="AW10" s="14"/>
-      <c r="AX10" s="16">
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="14">
         <v>46434</v>
       </c>
-      <c r="AY10" s="16">
+      <c r="AY10" s="14">
         <v>46635</v>
       </c>
     </row>
@@ -8555,7 +8816,9 @@
       <c r="F11" s="2">
         <v>4246.84</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2">
+        <v>4302.36</v>
+      </c>
       <c r="H11" s="2">
         <v>4586.4</v>
       </c>
@@ -8579,7 +8842,7 @@
       <c r="P11" s="8">
         <v>3853</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="12">
         <v>3904</v>
       </c>
       <c r="S11" s="10" t="s">
@@ -8599,9 +8862,9 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="16"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
       <c r="AJ11" s="10" t="s">
         <v>34</v>
       </c>
@@ -8617,7 +8880,9 @@
       <c r="AN11" s="2">
         <v>62428.38</v>
       </c>
-      <c r="AO11" s="2"/>
+      <c r="AO11" s="2">
+        <v>57542.87</v>
+      </c>
       <c r="AP11" s="2">
         <v>70509.44</v>
       </c>
@@ -8637,11 +8902,11 @@
       <c r="AV11" s="2">
         <v>70462.56</v>
       </c>
-      <c r="AW11" s="14"/>
-      <c r="AX11" s="16">
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="14">
         <v>49022</v>
       </c>
-      <c r="AY11" s="16">
+      <c r="AY11" s="14">
         <v>49588</v>
       </c>
     </row>
@@ -8661,7 +8926,9 @@
       <c r="F12" s="2">
         <v>54589.39</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2">
+        <v>54453.24</v>
+      </c>
       <c r="H12" s="2">
         <v>52738.02</v>
       </c>
@@ -8685,7 +8952,7 @@
       <c r="P12" s="8">
         <v>51542</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="12">
         <v>51604</v>
       </c>
       <c r="S12" s="10" t="s">
@@ -8705,9 +8972,9 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
-      <c r="AF12" s="14"/>
-      <c r="AG12" s="16"/>
-      <c r="AH12" s="16"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
       <c r="AJ12" s="10" t="s">
         <v>37</v>
       </c>
@@ -8723,7 +8990,9 @@
       <c r="AN12" s="2">
         <v>36106.68</v>
       </c>
-      <c r="AO12" s="2"/>
+      <c r="AO12" s="2">
+        <v>35694.34</v>
+      </c>
       <c r="AP12" s="2">
         <v>35648.87</v>
       </c>
@@ -8743,9 +9012,9 @@
       <c r="AV12" s="2">
         <v>36542.39</v>
       </c>
-      <c r="AW12" s="14"/>
-      <c r="AX12" s="16"/>
-      <c r="AY12" s="16"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="14"/>
+      <c r="AY12" s="14"/>
     </row>
     <row r="13" spans="2:51">
       <c r="B13" s="2" t="s">
@@ -8763,7 +9032,9 @@
       <c r="F13" s="2">
         <v>13109</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2">
+        <v>11629</v>
+      </c>
       <c r="H13" s="2">
         <v>13041</v>
       </c>
@@ -8785,7 +9056,7 @@
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="13"/>
+      <c r="Q13" s="12"/>
       <c r="S13" s="10" t="s">
         <v>39</v>
       </c>
@@ -8801,7 +9072,9 @@
       <c r="W13" s="2">
         <v>8308</v>
       </c>
-      <c r="X13" s="2"/>
+      <c r="X13" s="2">
+        <v>8421</v>
+      </c>
       <c r="Y13" s="2">
         <v>7839</v>
       </c>
@@ -8821,11 +9094,11 @@
       <c r="AE13" s="2">
         <v>8281</v>
       </c>
-      <c r="AF13" s="14"/>
-      <c r="AG13" s="16">
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="14">
         <v>6937</v>
       </c>
-      <c r="AH13" s="16">
+      <c r="AH13" s="14">
         <v>6937</v>
       </c>
       <c r="AJ13" s="10" t="s">
@@ -8843,7 +9116,9 @@
       <c r="AN13" s="2">
         <v>36050.95</v>
       </c>
-      <c r="AO13" s="2"/>
+      <c r="AO13" s="2">
+        <v>37755.61</v>
+      </c>
       <c r="AP13" s="2">
         <v>39656.99</v>
       </c>
@@ -8863,9 +9138,9 @@
       <c r="AV13" s="2">
         <v>36957.58</v>
       </c>
-      <c r="AW13" s="14"/>
-      <c r="AX13" s="16"/>
-      <c r="AY13" s="16"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="14"/>
+      <c r="AY13" s="14"/>
     </row>
     <row r="14" spans="2:51">
       <c r="B14" s="2" t="s">
@@ -8883,7 +9158,9 @@
       <c r="F14" s="2">
         <v>1830</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2">
+        <v>4920</v>
+      </c>
       <c r="H14" s="2">
         <v>1490</v>
       </c>
@@ -8905,7 +9182,7 @@
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="8"/>
-      <c r="Q14" s="13"/>
+      <c r="Q14" s="12"/>
       <c r="S14" s="10" t="s">
         <v>42</v>
       </c>
@@ -8921,7 +9198,9 @@
       <c r="W14" s="2">
         <v>15544.88</v>
       </c>
-      <c r="X14" s="2"/>
+      <c r="X14" s="2">
+        <v>17507.18</v>
+      </c>
       <c r="Y14" s="2">
         <v>17292</v>
       </c>
@@ -8941,11 +9220,11 @@
       <c r="AE14" s="2">
         <v>15544.88</v>
       </c>
-      <c r="AF14" s="14"/>
-      <c r="AG14" s="16">
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="14">
         <v>13982</v>
       </c>
-      <c r="AH14" s="16">
+      <c r="AH14" s="14">
         <v>14229</v>
       </c>
       <c r="AJ14" s="10" t="s">
@@ -8963,7 +9242,9 @@
       <c r="AN14" s="2">
         <v>64127.51</v>
       </c>
-      <c r="AO14" s="2"/>
+      <c r="AO14" s="2">
+        <v>65357</v>
+      </c>
       <c r="AP14" s="2">
         <v>69225.15</v>
       </c>
@@ -8983,9 +9264,9 @@
       <c r="AV14" s="2">
         <v>62569.65</v>
       </c>
-      <c r="AW14" s="14"/>
-      <c r="AX14" s="16"/>
-      <c r="AY14" s="16"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="14"/>
+      <c r="AY14" s="14"/>
     </row>
     <row r="15" spans="2:51">
       <c r="B15" s="2" t="s">
@@ -9003,7 +9284,9 @@
       <c r="F15" s="2">
         <v>1943.98</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2">
+        <v>1657.75</v>
+      </c>
       <c r="H15" s="2">
         <v>1884.68</v>
       </c>
@@ -9027,7 +9310,7 @@
       <c r="P15" s="8">
         <v>1349</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="12">
         <v>1349</v>
       </c>
       <c r="S15" s="10" t="s">
@@ -9045,7 +9328,9 @@
       <c r="W15" s="2">
         <v>20322.55</v>
       </c>
-      <c r="X15" s="2"/>
+      <c r="X15" s="2">
+        <v>22354.21</v>
+      </c>
       <c r="Y15" s="2">
         <v>21707.86</v>
       </c>
@@ -9065,11 +9350,11 @@
       <c r="AE15" s="2">
         <v>20412.16</v>
       </c>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="16">
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="14">
         <v>17787</v>
       </c>
-      <c r="AH15" s="16">
+      <c r="AH15" s="14">
         <v>17953</v>
       </c>
       <c r="AJ15" s="10" t="s">
@@ -9095,9 +9380,9 @@
       <c r="AT15" s="2"/>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
-      <c r="AW15" s="14"/>
-      <c r="AX15" s="16"/>
-      <c r="AY15" s="16"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="14"/>
+      <c r="AY15" s="14"/>
     </row>
     <row r="16" spans="2:51">
       <c r="B16" s="2" t="s">
@@ -9115,7 +9400,9 @@
       <c r="F16" s="2">
         <v>4141.5</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2">
+        <v>4096.44</v>
+      </c>
       <c r="H16" s="2">
         <v>4678.47</v>
       </c>
@@ -9139,7 +9426,7 @@
       <c r="P16" s="8">
         <v>4062</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="Q16" s="12">
         <v>4127</v>
       </c>
       <c r="S16" s="10" t="s">
@@ -9157,7 +9444,9 @@
       <c r="W16" s="2">
         <v>20907.74</v>
       </c>
-      <c r="X16" s="2"/>
+      <c r="X16" s="2">
+        <v>21200.03</v>
+      </c>
       <c r="Y16" s="2">
         <v>23768.73</v>
       </c>
@@ -9177,11 +9466,11 @@
       <c r="AE16" s="2">
         <v>22427.35</v>
       </c>
-      <c r="AF16" s="14"/>
-      <c r="AG16" s="16">
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="14">
         <v>20705</v>
       </c>
-      <c r="AH16" s="16">
+      <c r="AH16" s="14">
         <v>20855</v>
       </c>
       <c r="AJ16" s="10" t="s">
@@ -9199,7 +9488,9 @@
       <c r="AN16" s="2">
         <v>887.64</v>
       </c>
-      <c r="AO16" s="2"/>
+      <c r="AO16" s="2">
+        <v>903.61</v>
+      </c>
       <c r="AP16" s="2">
         <v>990.65</v>
       </c>
@@ -9219,11 +9510,11 @@
       <c r="AV16" s="2">
         <v>924.39</v>
       </c>
-      <c r="AW16" s="14"/>
-      <c r="AX16" s="16">
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="14">
         <v>868</v>
       </c>
-      <c r="AY16" s="16">
+      <c r="AY16" s="14">
         <v>868</v>
       </c>
     </row>
@@ -9243,7 +9534,9 @@
       <c r="F17" s="2">
         <v>4751.72</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2">
+        <v>4890.13</v>
+      </c>
       <c r="H17" s="2">
         <v>5320.44</v>
       </c>
@@ -9267,7 +9560,7 @@
       <c r="P17" s="8">
         <v>4480</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="Q17" s="12">
         <v>4480</v>
       </c>
       <c r="S17" s="10" t="s">
@@ -9285,7 +9578,9 @@
       <c r="W17" s="2">
         <v>16962.01</v>
       </c>
-      <c r="X17" s="2"/>
+      <c r="X17" s="2">
+        <v>16418.18</v>
+      </c>
       <c r="Y17" s="2">
         <v>18500.21</v>
       </c>
@@ -9305,11 +9600,11 @@
       <c r="AE17" s="2">
         <v>17030.73</v>
       </c>
-      <c r="AF17" s="14"/>
-      <c r="AG17" s="16">
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="14">
         <v>14648</v>
       </c>
-      <c r="AH17" s="16">
+      <c r="AH17" s="14">
         <v>14787</v>
       </c>
       <c r="AJ17" s="10" t="s">
@@ -9327,7 +9622,9 @@
       <c r="AN17" s="2">
         <v>1685.46</v>
       </c>
-      <c r="AO17" s="2"/>
+      <c r="AO17" s="2">
+        <v>1695.28</v>
+      </c>
       <c r="AP17" s="2">
         <v>1867.75</v>
       </c>
@@ -9347,11 +9644,11 @@
       <c r="AV17" s="2">
         <v>1765.59</v>
       </c>
-      <c r="AW17" s="14"/>
-      <c r="AX17" s="16">
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="14">
         <v>1669</v>
       </c>
-      <c r="AY17" s="16">
+      <c r="AY17" s="14">
         <v>1670</v>
       </c>
     </row>
@@ -9371,7 +9668,9 @@
       <c r="F18" s="2">
         <v>441</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2">
+        <v>480</v>
+      </c>
       <c r="H18" s="2">
         <v>390</v>
       </c>
@@ -9395,7 +9694,7 @@
       <c r="P18" s="8">
         <v>404</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="Q18" s="12">
         <v>404</v>
       </c>
       <c r="S18" s="10" t="s">
@@ -9413,7 +9712,9 @@
       <c r="W18" s="2">
         <v>17311.44</v>
       </c>
-      <c r="X18" s="2"/>
+      <c r="X18" s="2">
+        <v>17590.83</v>
+      </c>
       <c r="Y18" s="2">
         <v>19871.8</v>
       </c>
@@ -9433,11 +9734,11 @@
       <c r="AE18" s="2">
         <v>19376.91</v>
       </c>
-      <c r="AF18" s="14"/>
-      <c r="AG18" s="16">
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="14">
         <v>17090</v>
       </c>
-      <c r="AH18" s="16">
+      <c r="AH18" s="14">
         <v>17193</v>
       </c>
       <c r="AJ18" s="10" t="s">
@@ -9455,7 +9756,9 @@
       <c r="AN18" s="2">
         <v>5282.69</v>
       </c>
-      <c r="AO18" s="2"/>
+      <c r="AO18" s="2">
+        <v>5794.13</v>
+      </c>
       <c r="AP18" s="2">
         <v>5601.45</v>
       </c>
@@ -9473,9 +9776,9 @@
       <c r="AV18" s="2">
         <v>5215.22</v>
       </c>
-      <c r="AW18" s="14"/>
-      <c r="AX18" s="16"/>
-      <c r="AY18" s="16"/>
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="14"/>
+      <c r="AY18" s="14"/>
     </row>
     <row r="19" spans="2:51">
       <c r="B19" s="2" t="s">
@@ -9493,7 +9796,9 @@
       <c r="F19" s="2">
         <v>291.59</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2">
+        <v>288.64</v>
+      </c>
       <c r="H19" s="2">
         <v>323.66</v>
       </c>
@@ -9517,7 +9822,7 @@
       <c r="P19" s="8">
         <v>278</v>
       </c>
-      <c r="Q19" s="13">
+      <c r="Q19" s="12">
         <v>286</v>
       </c>
       <c r="S19" s="10" t="s">
@@ -9535,7 +9840,9 @@
       <c r="W19" s="2">
         <v>23060.74</v>
       </c>
-      <c r="X19" s="2"/>
+      <c r="X19" s="2">
+        <v>23382.07</v>
+      </c>
       <c r="Y19" s="2">
         <v>24698.51</v>
       </c>
@@ -9555,11 +9862,11 @@
       <c r="AE19" s="2">
         <v>24342.48</v>
       </c>
-      <c r="AF19" s="14"/>
-      <c r="AG19" s="16">
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="14">
         <v>20553</v>
       </c>
-      <c r="AH19" s="16">
+      <c r="AH19" s="14">
         <v>20851</v>
       </c>
       <c r="AJ19" s="10" t="s">
@@ -9577,7 +9884,9 @@
       <c r="AN19" s="2">
         <v>6847.53</v>
       </c>
-      <c r="AO19" s="2"/>
+      <c r="AO19" s="2">
+        <v>7229.65</v>
+      </c>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2"/>
       <c r="AR19" s="2"/>
@@ -9589,9 +9898,9 @@
       <c r="AV19" s="2">
         <v>6836.76</v>
       </c>
-      <c r="AW19" s="14"/>
-      <c r="AX19" s="16"/>
-      <c r="AY19" s="16"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="14"/>
+      <c r="AY19" s="14"/>
     </row>
     <row r="20" spans="2:51">
       <c r="B20" s="2" t="s">
@@ -9609,7 +9918,9 @@
       <c r="F20" s="2">
         <v>350.84</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2">
+        <v>351.42</v>
+      </c>
       <c r="H20" s="2">
         <v>373.07</v>
       </c>
@@ -9633,7 +9944,7 @@
       <c r="P20" s="8">
         <v>345</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="Q20" s="12">
         <v>348</v>
       </c>
       <c r="S20" s="10" t="s">
@@ -9651,7 +9962,9 @@
       <c r="W20" s="2">
         <v>14510</v>
       </c>
-      <c r="X20" s="2"/>
+      <c r="X20" s="2">
+        <v>14690.59</v>
+      </c>
       <c r="Y20" s="2">
         <v>18433.51</v>
       </c>
@@ -9671,11 +9984,11 @@
       <c r="AE20" s="2">
         <v>17331.99</v>
       </c>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="16">
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="14">
         <v>14295</v>
       </c>
-      <c r="AH20" s="16">
+      <c r="AH20" s="14">
         <v>14419</v>
       </c>
       <c r="AJ20" s="10" t="s">
@@ -9693,7 +10006,9 @@
       <c r="AN20" s="2">
         <v>15870</v>
       </c>
-      <c r="AO20" s="2"/>
+      <c r="AO20" s="2">
+        <v>15933</v>
+      </c>
       <c r="AP20" s="2">
         <v>16297</v>
       </c>
@@ -9713,9 +10028,9 @@
       <c r="AV20" s="2">
         <v>15960</v>
       </c>
-      <c r="AW20" s="14"/>
-      <c r="AX20" s="16"/>
-      <c r="AY20" s="16"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="14"/>
+      <c r="AY20" s="14"/>
     </row>
     <row r="21" spans="2:51">
       <c r="B21" s="2" t="s">
@@ -9733,7 +10048,9 @@
       <c r="F21" s="2">
         <v>454.54</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" s="2">
+        <v>448.09</v>
+      </c>
       <c r="H21" s="2">
         <v>445.59</v>
       </c>
@@ -9757,7 +10074,7 @@
       <c r="P21" s="8">
         <v>398</v>
       </c>
-      <c r="Q21" s="13">
+      <c r="Q21" s="12">
         <v>398</v>
       </c>
       <c r="S21" s="10" t="s">
@@ -9775,7 +10092,9 @@
       <c r="W21" s="2">
         <v>15399.66</v>
       </c>
-      <c r="X21" s="2"/>
+      <c r="X21" s="2">
+        <v>15558.27</v>
+      </c>
       <c r="Y21" s="2">
         <v>16977.35</v>
       </c>
@@ -9795,11 +10114,11 @@
       <c r="AE21" s="2">
         <v>16911.52</v>
       </c>
-      <c r="AF21" s="14"/>
-      <c r="AG21" s="16">
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="14">
         <v>13884</v>
       </c>
-      <c r="AH21" s="16">
+      <c r="AH21" s="14">
         <v>14120</v>
       </c>
       <c r="AJ21" s="10" t="s">
@@ -9817,7 +10136,9 @@
       <c r="AN21" s="2">
         <v>35922</v>
       </c>
-      <c r="AO21" s="2"/>
+      <c r="AO21" s="2">
+        <v>36486</v>
+      </c>
       <c r="AP21" s="2">
         <v>35921</v>
       </c>
@@ -9837,9 +10158,9 @@
       <c r="AV21" s="2">
         <v>35455</v>
       </c>
-      <c r="AW21" s="14"/>
-      <c r="AX21" s="16"/>
-      <c r="AY21" s="16"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="14"/>
+      <c r="AY21" s="14"/>
     </row>
     <row r="22" spans="2:51">
       <c r="B22" s="2" t="s">
@@ -9857,7 +10178,9 @@
       <c r="F22" s="2">
         <v>602</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="2">
+        <v>689</v>
+      </c>
       <c r="H22" s="2">
         <v>585</v>
       </c>
@@ -9881,7 +10204,7 @@
       <c r="P22" s="8">
         <v>492</v>
       </c>
-      <c r="Q22" s="13">
+      <c r="Q22" s="12">
         <v>492</v>
       </c>
       <c r="S22" s="10" t="s">
@@ -9899,7 +10222,9 @@
       <c r="W22" s="2">
         <v>15400.35</v>
       </c>
-      <c r="X22" s="2"/>
+      <c r="X22" s="2">
+        <v>16236.98</v>
+      </c>
       <c r="Y22" s="2">
         <v>17023.98</v>
       </c>
@@ -9919,11 +10244,11 @@
       <c r="AE22" s="2">
         <v>16827.45</v>
       </c>
-      <c r="AF22" s="14"/>
-      <c r="AG22" s="16">
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="14">
         <v>15347</v>
       </c>
-      <c r="AH22" s="16">
+      <c r="AH22" s="14">
         <v>15347</v>
       </c>
       <c r="AJ22" s="10" t="s">
@@ -9949,9 +10274,9 @@
       <c r="AT22" s="2"/>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
-      <c r="AW22" s="14"/>
-      <c r="AX22" s="16"/>
-      <c r="AY22" s="16"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="14"/>
+      <c r="AY22" s="14"/>
     </row>
     <row r="23" spans="2:51">
       <c r="B23" s="2" t="s">
@@ -9969,7 +10294,9 @@
       <c r="F23" s="2">
         <v>1707.45</v>
       </c>
-      <c r="G23" s="2"/>
+      <c r="G23" s="2">
+        <v>1716.32</v>
+      </c>
       <c r="H23" s="2">
         <v>1914.67</v>
       </c>
@@ -9993,7 +10320,7 @@
       <c r="P23" s="8">
         <v>1671</v>
       </c>
-      <c r="Q23" s="13">
+      <c r="Q23" s="12">
         <v>1671</v>
       </c>
       <c r="S23" s="10" t="s">
@@ -10011,7 +10338,9 @@
       <c r="W23" s="2">
         <v>8763.08</v>
       </c>
-      <c r="X23" s="2"/>
+      <c r="X23" s="2">
+        <v>8855.72</v>
+      </c>
       <c r="Y23" s="2">
         <v>8933.97</v>
       </c>
@@ -10031,11 +10360,11 @@
       <c r="AE23" s="2">
         <v>8969.56</v>
       </c>
-      <c r="AF23" s="14"/>
-      <c r="AG23" s="16">
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="14">
         <v>8412</v>
       </c>
-      <c r="AH23" s="16">
+      <c r="AH23" s="14">
         <v>8412</v>
       </c>
       <c r="AJ23" s="10" t="s">
@@ -10053,7 +10382,9 @@
       <c r="AN23" s="2">
         <v>476.47</v>
       </c>
-      <c r="AO23" s="2"/>
+      <c r="AO23" s="2">
+        <v>513.27</v>
+      </c>
       <c r="AP23" s="2">
         <v>433.59</v>
       </c>
@@ -10073,11 +10404,11 @@
       <c r="AV23" s="2">
         <v>511.54</v>
       </c>
-      <c r="AW23" s="14"/>
-      <c r="AX23" s="16">
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="14">
         <v>437</v>
       </c>
-      <c r="AY23" s="16">
+      <c r="AY23" s="14">
         <v>446</v>
       </c>
     </row>
@@ -10097,7 +10428,9 @@
       <c r="F24" s="2">
         <v>640</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="2">
+        <v>661</v>
+      </c>
       <c r="H24" s="2">
         <v>813</v>
       </c>
@@ -10121,7 +10454,7 @@
       <c r="P24" s="8">
         <v>640</v>
       </c>
-      <c r="Q24" s="13">
+      <c r="Q24" s="12">
         <v>640</v>
       </c>
       <c r="S24" s="10" t="s">
@@ -10139,7 +10472,9 @@
       <c r="W24" s="2">
         <v>30461.5</v>
       </c>
-      <c r="X24" s="2"/>
+      <c r="X24" s="2">
+        <v>32626.11</v>
+      </c>
       <c r="Y24" s="2">
         <v>33941.15</v>
       </c>
@@ -10159,11 +10494,11 @@
       <c r="AE24" s="2">
         <v>32515.89</v>
       </c>
-      <c r="AF24" s="14"/>
-      <c r="AG24" s="16">
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="14">
         <v>27963</v>
       </c>
-      <c r="AH24" s="16">
+      <c r="AH24" s="14">
         <v>28051</v>
       </c>
       <c r="AJ24" s="10" t="s">
@@ -10181,7 +10516,9 @@
       <c r="AN24" s="2">
         <v>732</v>
       </c>
-      <c r="AO24" s="2"/>
+      <c r="AO24" s="2">
+        <v>770</v>
+      </c>
       <c r="AP24" s="2">
         <v>772</v>
       </c>
@@ -10201,11 +10538,11 @@
       <c r="AV24" s="2">
         <v>730</v>
       </c>
-      <c r="AW24" s="14"/>
-      <c r="AX24" s="16">
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="14">
         <v>281</v>
       </c>
-      <c r="AY24" s="16">
+      <c r="AY24" s="14">
         <v>281</v>
       </c>
     </row>
@@ -10225,7 +10562,9 @@
       <c r="F25" s="2">
         <v>1573</v>
       </c>
-      <c r="G25" s="2"/>
+      <c r="G25" s="2">
+        <v>1657</v>
+      </c>
       <c r="H25" s="2">
         <v>1276</v>
       </c>
@@ -10249,7 +10588,7 @@
       <c r="P25" s="8">
         <v>1276</v>
       </c>
-      <c r="Q25" s="13">
+      <c r="Q25" s="12">
         <v>1276</v>
       </c>
       <c r="S25" s="10" t="s">
@@ -10275,9 +10614,9 @@
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
-      <c r="AF25" s="14"/>
-      <c r="AG25" s="16"/>
-      <c r="AH25" s="16"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="14"/>
       <c r="AJ25" s="10" t="s">
         <v>78</v>
       </c>
@@ -10293,7 +10632,9 @@
       <c r="AN25" s="2">
         <v>87156.85</v>
       </c>
-      <c r="AO25" s="2"/>
+      <c r="AO25" s="2">
+        <v>87783.6</v>
+      </c>
       <c r="AP25" s="2">
         <v>117345.37</v>
       </c>
@@ -10313,9 +10654,9 @@
       <c r="AV25" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AW25" s="14"/>
-      <c r="AX25" s="16"/>
-      <c r="AY25" s="16"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="14"/>
+      <c r="AY25" s="14"/>
     </row>
     <row r="26" spans="2:51">
       <c r="B26" s="2" t="s">
@@ -10333,7 +10674,9 @@
       <c r="F26" s="2">
         <v>794</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" s="2">
+        <v>794</v>
+      </c>
       <c r="H26" s="2">
         <v>802</v>
       </c>
@@ -10357,7 +10700,7 @@
       <c r="P26" s="8">
         <v>763</v>
       </c>
-      <c r="Q26" s="13">
+      <c r="Q26" s="12">
         <v>763</v>
       </c>
       <c r="S26" s="10" t="s">
@@ -10375,7 +10718,9 @@
       <c r="W26" s="2">
         <v>2207</v>
       </c>
-      <c r="X26" s="2"/>
+      <c r="X26" s="2">
+        <v>2133</v>
+      </c>
       <c r="Y26" s="2">
         <v>2096</v>
       </c>
@@ -10395,9 +10740,9 @@
       <c r="AE26" s="2">
         <v>2091</v>
       </c>
-      <c r="AF26" s="14"/>
-      <c r="AG26" s="16"/>
-      <c r="AH26" s="16"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="14"/>
       <c r="AJ26" s="10" t="s">
         <v>81</v>
       </c>
@@ -10413,7 +10758,9 @@
       <c r="AN26" s="2">
         <v>2767.74</v>
       </c>
-      <c r="AO26" s="2"/>
+      <c r="AO26" s="2">
+        <v>2813.3</v>
+      </c>
       <c r="AP26" s="2">
         <v>3177.41</v>
       </c>
@@ -10433,9 +10780,9 @@
       <c r="AV26" s="2">
         <v>2827.67</v>
       </c>
-      <c r="AW26" s="14"/>
-      <c r="AX26" s="16"/>
-      <c r="AY26" s="16"/>
+      <c r="AW26" s="2"/>
+      <c r="AX26" s="14"/>
+      <c r="AY26" s="14"/>
     </row>
     <row r="27" spans="36:51">
       <c r="AJ27" s="10" t="s">
@@ -10453,7 +10800,9 @@
       <c r="AN27" s="2">
         <v>2741.1</v>
       </c>
-      <c r="AO27" s="2"/>
+      <c r="AO27" s="2">
+        <v>2785.62</v>
+      </c>
       <c r="AP27" s="2">
         <v>2852.11</v>
       </c>
@@ -10473,11 +10822,11 @@
       <c r="AV27" s="2">
         <v>2852.11</v>
       </c>
-      <c r="AW27" s="14"/>
-      <c r="AX27" s="16">
+      <c r="AW27" s="2"/>
+      <c r="AX27" s="14">
         <v>2704</v>
       </c>
-      <c r="AY27" s="16">
+      <c r="AY27" s="14">
         <v>2704</v>
       </c>
     </row>
@@ -10497,7 +10846,9 @@
       <c r="AN28" s="2">
         <v>3049.85</v>
       </c>
-      <c r="AO28" s="2"/>
+      <c r="AO28" s="2">
+        <v>3069.58</v>
+      </c>
       <c r="AP28" s="2">
         <v>2936.29</v>
       </c>
@@ -10517,11 +10868,11 @@
       <c r="AV28" s="2">
         <v>2825.56</v>
       </c>
-      <c r="AW28" s="14"/>
-      <c r="AX28" s="16">
+      <c r="AW28" s="2"/>
+      <c r="AX28" s="14">
         <v>2618</v>
       </c>
-      <c r="AY28" s="16">
+      <c r="AY28" s="14">
         <v>2618</v>
       </c>
     </row>

--- a/Comparaçoes/BuscasLocais.xlsx
+++ b/Comparaçoes/BuscasLocais.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15795" windowHeight="4785" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="16095" windowHeight="4785" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="k = n|4" sheetId="1" r:id="rId1"/>
@@ -296,11 +296,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -322,14 +322,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF44546A"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -343,12 +344,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -356,13 +351,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FF44546A"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -387,6 +375,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF44546A"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -402,15 +397,26 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color rgb="FF44546A"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF44546A"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -423,20 +429,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -456,7 +456,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE697"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7C7C7"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBEBEB"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA8D08C"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CAAB"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5DFB3"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4AF82"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD964"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CA"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EA9DB"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1EFD8"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -468,49 +588,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8EA9DB"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD964"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4472C4"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE697"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CA"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF70AD47"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEBEBEB"/>
+        <fgColor rgb="FFBDD7EE"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -528,109 +624,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF8CAAB"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4C6E7"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC5DFB3"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7C7C7"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE1EFD8"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9E1F2"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA8D08C"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBDD7EE"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFBE3D5"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9BC2E6"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4AF82"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFED7D31"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBE3D5"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -844,6 +844,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF5B9BD5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -859,22 +877,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color rgb="FF5B9BD5"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF5B9BD5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,15 +903,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF5B9BD5"/>
       </bottom>
       <diagonal/>
     </border>
@@ -927,17 +931,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF5B9BD5"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF5B9BD5"/>
       </bottom>
       <diagonal/>
     </border>
@@ -946,31 +946,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -979,115 +994,100 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1095,22 +1095,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1119,13 +1119,13 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1137,13 +1137,13 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1152,22 +1152,22 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1179,7 +1179,7 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1501,8 +1501,8 @@
   <sheetPr/>
   <dimension ref="B2:AY28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="AI15" workbookViewId="0">
-      <selection activeCell="AO29" sqref="AO29"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="AF15" workbookViewId="0">
+      <selection activeCell="AS29" sqref="AS29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1837,7 +1837,9 @@
       <c r="J5" s="2">
         <v>683.65</v>
       </c>
-      <c r="K5" s="2"/>
+      <c r="K5" s="2">
+        <v>723.11</v>
+      </c>
       <c r="L5" s="2">
         <v>707.34</v>
       </c>
@@ -1881,7 +1883,9 @@
       <c r="AA5" s="11">
         <v>558</v>
       </c>
-      <c r="AB5" s="2"/>
+      <c r="AB5" s="2">
+        <v>558</v>
+      </c>
       <c r="AC5" s="20">
         <v>582</v>
       </c>
@@ -1925,7 +1929,9 @@
       <c r="AR5" s="11">
         <v>25126.84</v>
       </c>
-      <c r="AS5" s="2"/>
+      <c r="AS5" s="2">
+        <v>23589.53</v>
+      </c>
       <c r="AT5" s="20">
         <v>25126.84</v>
       </c>
@@ -1991,7 +1997,9 @@
       <c r="AA6" s="11">
         <v>9818.95</v>
       </c>
-      <c r="AB6" s="2"/>
+      <c r="AB6" s="2">
+        <v>9934.05</v>
+      </c>
       <c r="AC6" s="20">
         <v>10082.97</v>
       </c>
@@ -2035,7 +2043,9 @@
       <c r="AR6" s="11">
         <v>7165.83</v>
       </c>
-      <c r="AS6" s="2"/>
+      <c r="AS6" s="2">
+        <v>7379.46</v>
+      </c>
       <c r="AT6" s="20">
         <v>7537.29</v>
       </c>
@@ -2081,7 +2091,9 @@
       <c r="J7" s="2">
         <v>1373</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" s="2">
+        <v>1354</v>
+      </c>
       <c r="L7" s="2">
         <v>1373</v>
       </c>
@@ -2121,7 +2133,9 @@
       <c r="AA7" s="11">
         <v>1404</v>
       </c>
-      <c r="AB7" s="2"/>
+      <c r="AB7" s="2">
+        <v>1405</v>
+      </c>
       <c r="AC7" s="20">
         <v>1356</v>
       </c>
@@ -2161,7 +2175,9 @@
       <c r="AR7" s="11">
         <v>13755.23</v>
       </c>
-      <c r="AS7" s="2"/>
+      <c r="AS7" s="2">
+        <v>12877.05</v>
+      </c>
       <c r="AT7" s="20">
         <v>14065.44</v>
       </c>
@@ -2207,7 +2223,9 @@
       <c r="J8" s="2">
         <v>4334</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2">
+        <v>4440</v>
+      </c>
       <c r="L8" s="2">
         <v>4532</v>
       </c>
@@ -2271,7 +2289,9 @@
       <c r="AR8" s="11">
         <v>23341.46</v>
       </c>
-      <c r="AS8" s="2"/>
+      <c r="AS8" s="2">
+        <v>23907.89</v>
+      </c>
       <c r="AT8" s="20">
         <v>23147.12</v>
       </c>
@@ -2317,7 +2337,9 @@
       <c r="J9" s="2">
         <v>292</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="K9" s="2">
+        <v>275</v>
+      </c>
       <c r="L9" s="2">
         <v>292</v>
       </c>
@@ -2385,7 +2407,9 @@
       <c r="AR9" s="11">
         <v>12001.03</v>
       </c>
-      <c r="AS9" s="2"/>
+      <c r="AS9" s="2">
+        <v>12001.03</v>
+      </c>
       <c r="AT9" s="20">
         <v>11480.73</v>
       </c>
@@ -2431,7 +2455,9 @@
       <c r="J10" s="2">
         <v>352</v>
       </c>
-      <c r="K10" s="2"/>
+      <c r="K10" s="2">
+        <v>319</v>
+      </c>
       <c r="L10" s="2">
         <v>352</v>
       </c>
@@ -2499,7 +2525,9 @@
       <c r="AR10" s="11">
         <v>15403.25</v>
       </c>
-      <c r="AS10" s="2"/>
+      <c r="AS10" s="2">
+        <v>16537.99</v>
+      </c>
       <c r="AT10" s="20">
         <v>15403.26</v>
       </c>
@@ -2545,7 +2573,9 @@
       <c r="J11" s="2">
         <v>556.81</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="K11" s="2">
+        <v>490.84</v>
+      </c>
       <c r="L11" s="2">
         <v>556.81</v>
       </c>
@@ -2609,7 +2639,9 @@
       <c r="AR11" s="11">
         <v>23231.19</v>
       </c>
-      <c r="AS11" s="2"/>
+      <c r="AS11" s="2">
+        <v>23248.9</v>
+      </c>
       <c r="AT11" s="20">
         <v>23231.19</v>
       </c>
@@ -2655,7 +2687,9 @@
       <c r="J12" s="2">
         <v>11580.32</v>
       </c>
-      <c r="K12" s="2"/>
+      <c r="K12" s="2">
+        <v>11680.14</v>
+      </c>
       <c r="L12" s="2">
         <v>12834.58</v>
       </c>
@@ -2719,7 +2753,9 @@
       <c r="AR12" s="11">
         <v>8023.61</v>
       </c>
-      <c r="AS12" s="2"/>
+      <c r="AS12" s="2">
+        <v>7800</v>
+      </c>
       <c r="AT12" s="20">
         <v>8023.61</v>
       </c>
@@ -2761,7 +2797,9 @@
       <c r="J13" s="2">
         <v>4607</v>
       </c>
-      <c r="K13" s="2"/>
+      <c r="K13" s="2">
+        <v>4607</v>
+      </c>
       <c r="L13" s="2">
         <v>4607</v>
       </c>
@@ -2801,7 +2839,9 @@
       <c r="AA13" s="11">
         <v>3155</v>
       </c>
-      <c r="AB13" s="2"/>
+      <c r="AB13" s="2">
+        <v>2884</v>
+      </c>
       <c r="AC13" s="20">
         <v>3155</v>
       </c>
@@ -2845,7 +2885,9 @@
       <c r="AR13" s="11">
         <v>11699.66</v>
       </c>
-      <c r="AS13" s="2"/>
+      <c r="AS13" s="2">
+        <v>12256.31</v>
+      </c>
       <c r="AT13" s="20">
         <v>10546.96</v>
       </c>
@@ -2887,7 +2929,9 @@
       <c r="J14" s="2">
         <v>480</v>
       </c>
-      <c r="K14" s="2"/>
+      <c r="K14" s="2">
+        <v>520</v>
+      </c>
       <c r="L14" s="2">
         <v>570</v>
       </c>
@@ -2927,7 +2971,9 @@
       <c r="AA14" s="11">
         <v>4792.31</v>
       </c>
-      <c r="AB14" s="2"/>
+      <c r="AB14" s="2">
+        <v>4492.73</v>
+      </c>
       <c r="AC14" s="20">
         <v>4788.84</v>
       </c>
@@ -2971,7 +3017,9 @@
       <c r="AR14" s="11">
         <v>22573.29</v>
       </c>
-      <c r="AS14" s="2"/>
+      <c r="AS14" s="2">
+        <v>23304.76</v>
+      </c>
       <c r="AT14" s="20">
         <v>21586.45</v>
       </c>
@@ -3013,7 +3061,9 @@
       <c r="J15" s="2">
         <v>249.88</v>
       </c>
-      <c r="K15" s="2"/>
+      <c r="K15" s="2">
+        <v>224.88</v>
+      </c>
       <c r="L15" s="2">
         <v>249.88</v>
       </c>
@@ -3057,7 +3107,9 @@
       <c r="AA15" s="11">
         <v>7222.1</v>
       </c>
-      <c r="AB15" s="2"/>
+      <c r="AB15" s="2">
+        <v>7429.09</v>
+      </c>
       <c r="AC15" s="20">
         <v>7646.9</v>
       </c>
@@ -3133,7 +3185,9 @@
       <c r="J16" s="2">
         <v>1215.96</v>
       </c>
-      <c r="K16" s="2"/>
+      <c r="K16" s="2">
+        <v>1176.78</v>
+      </c>
       <c r="L16" s="2">
         <v>1215.96</v>
       </c>
@@ -3177,7 +3231,9 @@
       <c r="AA16" s="11">
         <v>6846.38</v>
       </c>
-      <c r="AB16" s="2"/>
+      <c r="AB16" s="2">
+        <v>6899.46</v>
+      </c>
       <c r="AC16" s="20">
         <v>6741.11</v>
       </c>
@@ -3221,7 +3277,9 @@
       <c r="AR16" s="11">
         <v>306.99</v>
       </c>
-      <c r="AS16" s="2"/>
+      <c r="AS16" s="2">
+        <v>341.87</v>
+      </c>
       <c r="AT16" s="20">
         <v>292.55</v>
       </c>
@@ -3267,7 +3325,9 @@
       <c r="J17" s="2">
         <v>1381.35</v>
       </c>
-      <c r="K17" s="2"/>
+      <c r="K17" s="2">
+        <v>1455.85</v>
+      </c>
       <c r="L17" s="2">
         <v>1245.96</v>
       </c>
@@ -3311,7 +3371,9 @@
       <c r="AA17" s="11">
         <v>4469.81</v>
       </c>
-      <c r="AB17" s="2"/>
+      <c r="AB17" s="2">
+        <v>4405.8</v>
+      </c>
       <c r="AC17" s="20">
         <v>5384.91</v>
       </c>
@@ -3355,7 +3417,9 @@
       <c r="AR17" s="11">
         <v>593.08</v>
       </c>
-      <c r="AS17" s="2"/>
+      <c r="AS17" s="2">
+        <v>594.47</v>
+      </c>
       <c r="AT17" s="20">
         <v>546.13</v>
       </c>
@@ -3401,7 +3465,9 @@
       <c r="J18" s="2">
         <v>100</v>
       </c>
-      <c r="K18" s="2"/>
+      <c r="K18" s="2">
+        <v>103</v>
+      </c>
       <c r="L18" s="2">
         <v>100</v>
       </c>
@@ -3445,7 +3511,9 @@
       <c r="AA18" s="11">
         <v>5396.33</v>
       </c>
-      <c r="AB18" s="2"/>
+      <c r="AB18" s="2">
+        <v>5281.26</v>
+      </c>
       <c r="AC18" s="20">
         <v>5396.33</v>
       </c>
@@ -3489,7 +3557,9 @@
       <c r="AR18" s="11">
         <v>1696.55</v>
       </c>
-      <c r="AS18" s="2"/>
+      <c r="AS18" s="2">
+        <v>1724.74</v>
+      </c>
       <c r="AT18" s="20">
         <v>1700.81</v>
       </c>
@@ -3531,7 +3601,9 @@
       <c r="J19" s="2">
         <v>77.04</v>
       </c>
-      <c r="K19" s="2"/>
+      <c r="K19" s="2">
+        <v>77.04</v>
+      </c>
       <c r="L19" s="2">
         <v>77.04</v>
       </c>
@@ -3575,7 +3647,9 @@
       <c r="AA19" s="11">
         <v>8120.14</v>
       </c>
-      <c r="AB19" s="2"/>
+      <c r="AB19" s="2">
+        <v>7915.92</v>
+      </c>
       <c r="AC19" s="20">
         <v>7231.98</v>
       </c>
@@ -3617,7 +3691,9 @@
       <c r="AR19" s="11">
         <v>2352.71</v>
       </c>
-      <c r="AS19" s="2"/>
+      <c r="AS19" s="2">
+        <v>2434.48</v>
+      </c>
       <c r="AT19" s="20">
         <v>2218.16</v>
       </c>
@@ -3659,7 +3735,9 @@
       <c r="J20" s="2">
         <v>99.45</v>
       </c>
-      <c r="K20" s="2"/>
+      <c r="K20" s="2">
+        <v>99.45</v>
+      </c>
       <c r="L20" s="2">
         <v>99.45</v>
       </c>
@@ -3703,7 +3781,9 @@
       <c r="AA20" s="11">
         <v>5775.96</v>
       </c>
-      <c r="AB20" s="2"/>
+      <c r="AB20" s="2">
+        <v>5811.52</v>
+      </c>
       <c r="AC20" s="20">
         <v>4293.02</v>
       </c>
@@ -3747,7 +3827,9 @@
       <c r="AR20" s="11">
         <v>5476</v>
       </c>
-      <c r="AS20" s="2"/>
+      <c r="AS20" s="2">
+        <v>5382</v>
+      </c>
       <c r="AT20" s="20">
         <v>5420</v>
       </c>
@@ -3789,7 +3871,9 @@
       <c r="J21" s="2">
         <v>132.75</v>
       </c>
-      <c r="K21" s="2"/>
+      <c r="K21" s="2">
+        <v>118.57</v>
+      </c>
       <c r="L21" s="2">
         <v>139.62</v>
       </c>
@@ -3833,7 +3917,9 @@
       <c r="AA21" s="11">
         <v>5246.28</v>
       </c>
-      <c r="AB21" s="2"/>
+      <c r="AB21" s="2">
+        <v>5220.64</v>
+      </c>
       <c r="AC21" s="20">
         <v>5246.28</v>
       </c>
@@ -3877,7 +3963,9 @@
       <c r="AR21" s="11">
         <v>12012</v>
       </c>
-      <c r="AS21" s="2"/>
+      <c r="AS21" s="2">
+        <v>11838</v>
+      </c>
       <c r="AT21" s="20">
         <v>12196</v>
       </c>
@@ -3919,7 +4007,9 @@
       <c r="J22" s="2">
         <v>147</v>
       </c>
-      <c r="K22" s="2"/>
+      <c r="K22" s="2">
+        <v>145</v>
+      </c>
       <c r="L22" s="2">
         <v>147</v>
       </c>
@@ -3963,7 +4053,9 @@
       <c r="AA22" s="11">
         <v>3842.76</v>
       </c>
-      <c r="AB22" s="2"/>
+      <c r="AB22" s="2">
+        <v>3842.76</v>
+      </c>
       <c r="AC22" s="20">
         <v>3919.58</v>
       </c>
@@ -4041,7 +4133,9 @@
       <c r="J23" s="2">
         <v>652.59</v>
       </c>
-      <c r="K23" s="2"/>
+      <c r="K23" s="2">
+        <v>658.92</v>
+      </c>
       <c r="L23" s="2">
         <v>655.8</v>
       </c>
@@ -4085,7 +4179,9 @@
       <c r="AA23" s="11">
         <v>2033.36</v>
       </c>
-      <c r="AB23" s="2"/>
+      <c r="AB23" s="2">
+        <v>2067.87</v>
+      </c>
       <c r="AC23" s="20">
         <v>2002.98</v>
       </c>
@@ -4129,7 +4225,9 @@
       <c r="AR23" s="11">
         <v>127.18</v>
       </c>
-      <c r="AS23" s="2"/>
+      <c r="AS23" s="2">
+        <v>119.95</v>
+      </c>
       <c r="AT23" s="20">
         <v>127.18</v>
       </c>
@@ -4175,7 +4273,9 @@
       <c r="J24" s="2">
         <v>154</v>
       </c>
-      <c r="K24" s="2"/>
+      <c r="K24" s="2">
+        <v>154</v>
+      </c>
       <c r="L24" s="2">
         <v>154</v>
       </c>
@@ -4219,7 +4319,9 @@
       <c r="AA24" s="11">
         <v>8969.49</v>
       </c>
-      <c r="AB24" s="2"/>
+      <c r="AB24" s="2">
+        <v>9131.48</v>
+      </c>
       <c r="AC24" s="20">
         <v>9406.35</v>
       </c>
@@ -4263,7 +4365,9 @@
       <c r="AR24" s="11">
         <v>146</v>
       </c>
-      <c r="AS24" s="2"/>
+      <c r="AS24" s="2">
+        <v>146</v>
+      </c>
       <c r="AT24" s="20">
         <v>146</v>
       </c>
@@ -4309,7 +4413,9 @@
       <c r="J25" s="25">
         <v>248</v>
       </c>
-      <c r="K25" s="25"/>
+      <c r="K25" s="25">
+        <v>233</v>
+      </c>
       <c r="L25" s="25">
         <v>248</v>
       </c>
@@ -4383,7 +4489,9 @@
       <c r="AR25" s="11">
         <v>27500</v>
       </c>
-      <c r="AS25" s="2"/>
+      <c r="AS25" s="2">
+        <v>27500</v>
+      </c>
       <c r="AT25" s="20">
         <v>27500</v>
       </c>
@@ -4425,7 +4533,9 @@
       <c r="J26" s="2">
         <v>162</v>
       </c>
-      <c r="K26" s="2"/>
+      <c r="K26" s="2">
+        <v>162</v>
+      </c>
       <c r="L26" s="2">
         <v>162</v>
       </c>
@@ -4469,7 +4579,9 @@
       <c r="AA26" s="2">
         <v>535</v>
       </c>
-      <c r="AB26" s="2"/>
+      <c r="AB26" s="2">
+        <v>565</v>
+      </c>
       <c r="AC26" s="2">
         <v>640</v>
       </c>
@@ -4509,7 +4621,9 @@
       <c r="AR26" s="11">
         <v>1038.03</v>
       </c>
-      <c r="AS26" s="2"/>
+      <c r="AS26" s="2">
+        <v>1018.34</v>
+      </c>
       <c r="AT26" s="20">
         <v>1094.89</v>
       </c>
@@ -4551,7 +4665,9 @@
       <c r="AR27" s="11">
         <v>751.06</v>
       </c>
-      <c r="AS27" s="2"/>
+      <c r="AS27" s="2">
+        <v>751.06</v>
+      </c>
       <c r="AT27" s="20">
         <v>751.06</v>
       </c>
@@ -4597,7 +4713,9 @@
       <c r="AR28" s="11">
         <v>456.58</v>
       </c>
-      <c r="AS28" s="2"/>
+      <c r="AS28" s="2">
+        <v>456.58</v>
+      </c>
       <c r="AT28" s="20">
         <v>456.58</v>
       </c>
@@ -4644,8 +4762,8 @@
   <sheetPr/>
   <dimension ref="B2:AY28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="AF15" workbookViewId="0">
-      <selection activeCell="AO29" sqref="AO29"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="AI15" workbookViewId="0">
+      <selection activeCell="AS29" sqref="AS29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4979,7 +5097,9 @@
       <c r="J5" s="3">
         <v>1425.65</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="3">
+        <v>1539.34</v>
+      </c>
       <c r="L5" s="3">
         <v>1328.54</v>
       </c>
@@ -5023,7 +5143,9 @@
       <c r="AA5" s="11">
         <v>1691</v>
       </c>
-      <c r="AB5" s="2"/>
+      <c r="AB5" s="2">
+        <v>1691</v>
+      </c>
       <c r="AC5" s="20">
         <v>1691</v>
       </c>
@@ -5067,7 +5189,9 @@
       <c r="AR5" s="2">
         <v>44106.74</v>
       </c>
-      <c r="AS5" s="2"/>
+      <c r="AS5" s="2">
+        <v>43786.95</v>
+      </c>
       <c r="AT5" s="2">
         <v>44106.74</v>
       </c>
@@ -5133,7 +5257,9 @@
       <c r="AA6" s="11">
         <v>22425.03</v>
       </c>
-      <c r="AB6" s="2"/>
+      <c r="AB6" s="2">
+        <v>23160.51</v>
+      </c>
       <c r="AC6" s="20">
         <v>26964.52</v>
       </c>
@@ -5177,7 +5303,9 @@
       <c r="AR6" s="2">
         <v>15274.43</v>
       </c>
-      <c r="AS6" s="2"/>
+      <c r="AS6" s="2">
+        <v>15553.25</v>
+      </c>
       <c r="AT6" s="2">
         <v>16472.98</v>
       </c>
@@ -5223,7 +5351,9 @@
       <c r="J7" s="2">
         <v>3674</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" s="2">
+        <v>3655</v>
+      </c>
       <c r="L7" s="2">
         <v>3674</v>
       </c>
@@ -5263,7 +5393,9 @@
       <c r="AA7" s="11">
         <v>3062</v>
       </c>
-      <c r="AB7" s="2"/>
+      <c r="AB7" s="2">
+        <v>3062</v>
+      </c>
       <c r="AC7" s="20">
         <v>2950</v>
       </c>
@@ -5303,7 +5435,9 @@
       <c r="AR7" s="2">
         <v>22298.23</v>
       </c>
-      <c r="AS7" s="2"/>
+      <c r="AS7" s="2">
+        <v>22208.58</v>
+      </c>
       <c r="AT7" s="2">
         <v>21887.89</v>
       </c>
@@ -5349,7 +5483,9 @@
       <c r="J8" s="2">
         <v>9700</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2">
+        <v>10405</v>
+      </c>
       <c r="L8" s="2">
         <v>11824</v>
       </c>
@@ -5413,7 +5549,9 @@
       <c r="AR8" s="2">
         <v>49348.67</v>
       </c>
-      <c r="AS8" s="2"/>
+      <c r="AS8" s="2">
+        <v>51047.96</v>
+      </c>
       <c r="AT8" s="2">
         <v>48383.81</v>
       </c>
@@ -5459,7 +5597,9 @@
       <c r="J9" s="2">
         <v>581</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="K9" s="2">
+        <v>581</v>
+      </c>
       <c r="L9" s="2">
         <v>581</v>
       </c>
@@ -5527,7 +5667,9 @@
       <c r="AR9" s="2">
         <v>28343.34</v>
       </c>
-      <c r="AS9" s="2"/>
+      <c r="AS9" s="2">
+        <v>28471</v>
+      </c>
       <c r="AT9" s="2">
         <v>26341.82</v>
       </c>
@@ -5573,7 +5715,9 @@
       <c r="J10" s="2">
         <v>818</v>
       </c>
-      <c r="K10" s="2"/>
+      <c r="K10" s="2">
+        <v>813</v>
+      </c>
       <c r="L10" s="2">
         <v>818</v>
       </c>
@@ -5641,7 +5785,9 @@
       <c r="AR10" s="2">
         <v>34036.73</v>
       </c>
-      <c r="AS10" s="2"/>
+      <c r="AS10" s="2">
+        <v>35491.82</v>
+      </c>
       <c r="AT10" s="2">
         <v>34036.73</v>
       </c>
@@ -5687,7 +5833,9 @@
       <c r="J11" s="2">
         <v>1813.95</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="K11" s="2">
+        <v>1836.69</v>
+      </c>
       <c r="L11" s="2">
         <v>1813.95</v>
       </c>
@@ -5751,7 +5899,9 @@
       <c r="AR11" s="2">
         <v>52534.33</v>
       </c>
-      <c r="AS11" s="2"/>
+      <c r="AS11" s="2">
+        <v>48472.31</v>
+      </c>
       <c r="AT11" s="2">
         <v>52927.27</v>
       </c>
@@ -5797,7 +5947,9 @@
       <c r="J12" s="2">
         <v>29059.75</v>
       </c>
-      <c r="K12" s="2"/>
+      <c r="K12" s="2">
+        <v>30002.94</v>
+      </c>
       <c r="L12" s="2">
         <v>27954.99</v>
       </c>
@@ -5861,7 +6013,9 @@
       <c r="AR12" s="2">
         <v>21514.76</v>
       </c>
-      <c r="AS12" s="2"/>
+      <c r="AS12" s="2">
+        <v>21708.66</v>
+      </c>
       <c r="AT12" s="2">
         <v>21495.76</v>
       </c>
@@ -5903,7 +6057,9 @@
       <c r="J13" s="2">
         <v>9455</v>
       </c>
-      <c r="K13" s="2"/>
+      <c r="K13" s="2">
+        <v>8731</v>
+      </c>
       <c r="L13" s="2">
         <v>9812</v>
       </c>
@@ -5943,7 +6099,9 @@
       <c r="AA13" s="11">
         <v>5381</v>
       </c>
-      <c r="AB13" s="2"/>
+      <c r="AB13" s="2">
+        <v>5412</v>
+      </c>
       <c r="AC13" s="20">
         <v>6289</v>
       </c>
@@ -5987,7 +6145,9 @@
       <c r="AR13" s="2">
         <v>24326.71</v>
       </c>
-      <c r="AS13" s="2"/>
+      <c r="AS13" s="2">
+        <v>25901.24</v>
+      </c>
       <c r="AT13" s="2">
         <v>24783.47</v>
       </c>
@@ -6029,7 +6189,9 @@
       <c r="J14" s="2">
         <v>980</v>
       </c>
-      <c r="K14" s="2"/>
+      <c r="K14" s="2">
+        <v>1130</v>
+      </c>
       <c r="L14" s="2">
         <v>1090</v>
       </c>
@@ -6069,7 +6231,9 @@
       <c r="AA14" s="11">
         <v>9744.28</v>
       </c>
-      <c r="AB14" s="2"/>
+      <c r="AB14" s="2">
+        <v>9795.47</v>
+      </c>
       <c r="AC14" s="20">
         <v>10444.9</v>
       </c>
@@ -6113,7 +6277,9 @@
       <c r="AR14" s="2">
         <v>42428.85</v>
       </c>
-      <c r="AS14" s="2"/>
+      <c r="AS14" s="2">
+        <v>43081.62</v>
+      </c>
       <c r="AT14" s="2">
         <v>42621.95</v>
       </c>
@@ -6155,7 +6321,9 @@
       <c r="J15" s="2">
         <v>1339.12</v>
       </c>
-      <c r="K15" s="2"/>
+      <c r="K15" s="2">
+        <v>1244.77</v>
+      </c>
       <c r="L15" s="2">
         <v>1339.12</v>
       </c>
@@ -6199,7 +6367,9 @@
       <c r="AA15" s="11">
         <v>14150.08</v>
       </c>
-      <c r="AB15" s="2"/>
+      <c r="AB15" s="2">
+        <v>15235.59</v>
+      </c>
       <c r="AC15" s="20">
         <v>13836.8</v>
       </c>
@@ -6275,7 +6445,9 @@
       <c r="J16" s="2">
         <v>2726.8</v>
       </c>
-      <c r="K16" s="2"/>
+      <c r="K16" s="2">
+        <v>2760.54</v>
+      </c>
       <c r="L16" s="2">
         <v>2565.23</v>
       </c>
@@ -6319,7 +6491,9 @@
       <c r="AA16" s="11">
         <v>15446.02</v>
       </c>
-      <c r="AB16" s="2"/>
+      <c r="AB16" s="2">
+        <v>15796.78</v>
+      </c>
       <c r="AC16" s="20">
         <v>15428.8</v>
       </c>
@@ -6363,7 +6537,9 @@
       <c r="AR16" s="2">
         <v>599.44</v>
       </c>
-      <c r="AS16" s="2"/>
+      <c r="AS16" s="2">
+        <v>661.47</v>
+      </c>
       <c r="AT16" s="2">
         <v>600.55</v>
       </c>
@@ -6409,7 +6585,9 @@
       <c r="J17" s="2">
         <v>3345.2</v>
       </c>
-      <c r="K17" s="2"/>
+      <c r="K17" s="2">
+        <v>3578.25</v>
+      </c>
       <c r="L17" s="2">
         <v>3089.54</v>
       </c>
@@ -6453,7 +6631,9 @@
       <c r="AA17" s="11">
         <v>11037.6</v>
       </c>
-      <c r="AB17" s="2"/>
+      <c r="AB17" s="2">
+        <v>11768</v>
+      </c>
       <c r="AC17" s="20">
         <v>10913.61</v>
       </c>
@@ -6497,7 +6677,9 @@
       <c r="AR17" s="2">
         <v>1253.27</v>
       </c>
-      <c r="AS17" s="2"/>
+      <c r="AS17" s="2">
+        <v>1285.41</v>
+      </c>
       <c r="AT17" s="2">
         <v>1158.97</v>
       </c>
@@ -6543,7 +6725,9 @@
       <c r="J18" s="2">
         <v>248</v>
       </c>
-      <c r="K18" s="2"/>
+      <c r="K18" s="2">
+        <v>251</v>
+      </c>
       <c r="L18" s="2">
         <v>248</v>
       </c>
@@ -6587,7 +6771,9 @@
       <c r="AA18" s="11">
         <v>12931.04</v>
       </c>
-      <c r="AB18" s="2"/>
+      <c r="AB18" s="2">
+        <v>13373.56</v>
+      </c>
       <c r="AC18" s="20">
         <v>11828.96</v>
       </c>
@@ -6631,7 +6817,9 @@
       <c r="AR18" s="2">
         <v>3569.88</v>
       </c>
-      <c r="AS18" s="2"/>
+      <c r="AS18" s="2">
+        <v>3648.34</v>
+      </c>
       <c r="AT18" s="2">
         <v>3574.95</v>
       </c>
@@ -6673,7 +6861,9 @@
       <c r="J19" s="2">
         <v>190.34</v>
       </c>
-      <c r="K19" s="2"/>
+      <c r="K19" s="2">
+        <v>190.34</v>
+      </c>
       <c r="L19" s="2">
         <v>190.34</v>
       </c>
@@ -6717,7 +6907,9 @@
       <c r="AA19" s="11">
         <v>16340.73</v>
       </c>
-      <c r="AB19" s="2"/>
+      <c r="AB19" s="2">
+        <v>17120.65</v>
+      </c>
       <c r="AC19" s="20">
         <v>15996.61</v>
       </c>
@@ -6797,7 +6989,9 @@
       <c r="J20" s="2">
         <v>240.5</v>
       </c>
-      <c r="K20" s="2"/>
+      <c r="K20" s="2">
+        <v>232.44</v>
+      </c>
       <c r="L20" s="2">
         <v>224.72</v>
       </c>
@@ -6841,7 +7035,9 @@
       <c r="AA20" s="11">
         <v>11626.21</v>
       </c>
-      <c r="AB20" s="2"/>
+      <c r="AB20" s="2">
+        <v>12035.93</v>
+      </c>
       <c r="AC20" s="20">
         <v>10824.74</v>
       </c>
@@ -6885,7 +7081,9 @@
       <c r="AR20" s="2">
         <v>10488</v>
       </c>
-      <c r="AS20" s="2"/>
+      <c r="AS20" s="2">
+        <v>10558</v>
+      </c>
       <c r="AT20" s="2">
         <v>10384</v>
       </c>
@@ -6927,7 +7125,9 @@
       <c r="J21" s="2">
         <v>266.89</v>
       </c>
-      <c r="K21" s="2"/>
+      <c r="K21" s="2">
+        <v>268.73</v>
+      </c>
       <c r="L21" s="2">
         <v>313.78</v>
       </c>
@@ -6971,7 +7171,9 @@
       <c r="AA21" s="11">
         <v>11210.26</v>
       </c>
-      <c r="AB21" s="2"/>
+      <c r="AB21" s="2">
+        <v>11092.2</v>
+      </c>
       <c r="AC21" s="20">
         <v>11197.73</v>
       </c>
@@ -7015,7 +7217,9 @@
       <c r="AR21" s="2">
         <v>23179</v>
       </c>
-      <c r="AS21" s="2"/>
+      <c r="AS21" s="2">
+        <v>23202</v>
+      </c>
       <c r="AT21" s="2">
         <v>23486</v>
       </c>
@@ -7057,7 +7261,9 @@
       <c r="J22" s="2">
         <v>391</v>
       </c>
-      <c r="K22" s="2"/>
+      <c r="K22" s="2">
+        <v>391</v>
+      </c>
       <c r="L22" s="2">
         <v>391</v>
       </c>
@@ -7101,7 +7307,9 @@
       <c r="AA22" s="11">
         <v>9883.13</v>
       </c>
-      <c r="AB22" s="2"/>
+      <c r="AB22" s="2">
+        <v>9535.85</v>
+      </c>
       <c r="AC22" s="20">
         <v>9449.58</v>
       </c>
@@ -7177,7 +7385,9 @@
       <c r="J23" s="2">
         <v>1350.3</v>
       </c>
-      <c r="K23" s="2"/>
+      <c r="K23" s="2">
+        <v>1367.16</v>
+      </c>
       <c r="L23" s="2">
         <v>1205.6</v>
       </c>
@@ -7221,7 +7431,9 @@
       <c r="AA23" s="11">
         <v>5255.49</v>
       </c>
-      <c r="AB23" s="2"/>
+      <c r="AB23" s="2">
+        <v>5350.1</v>
+      </c>
       <c r="AC23" s="20">
         <v>5838.62</v>
       </c>
@@ -7265,7 +7477,9 @@
       <c r="AR23" s="2">
         <v>248.69</v>
       </c>
-      <c r="AS23" s="2"/>
+      <c r="AS23" s="2">
+        <v>248.5</v>
+      </c>
       <c r="AT23" s="2">
         <v>282.18</v>
       </c>
@@ -7311,7 +7525,9 @@
       <c r="J24" s="2">
         <v>426</v>
       </c>
-      <c r="K24" s="2"/>
+      <c r="K24" s="2">
+        <v>426</v>
+      </c>
       <c r="L24" s="2">
         <v>359</v>
       </c>
@@ -7355,7 +7571,9 @@
       <c r="AA24" s="11">
         <v>20147.6</v>
       </c>
-      <c r="AB24" s="2"/>
+      <c r="AB24" s="2">
+        <v>20562.68</v>
+      </c>
       <c r="AC24" s="20">
         <v>21122.47</v>
       </c>
@@ -7399,7 +7617,9 @@
       <c r="AR24" s="2">
         <v>425</v>
       </c>
-      <c r="AS24" s="2"/>
+      <c r="AS24" s="2">
+        <v>448</v>
+      </c>
       <c r="AT24" s="2">
         <v>485</v>
       </c>
@@ -7445,7 +7665,9 @@
       <c r="J25" s="2">
         <v>683</v>
       </c>
-      <c r="K25" s="2"/>
+      <c r="K25" s="2">
+        <v>683</v>
+      </c>
       <c r="L25" s="2">
         <v>732</v>
       </c>
@@ -7519,7 +7741,9 @@
       <c r="AR25" s="2">
         <v>69730.67</v>
       </c>
-      <c r="AS25" s="2"/>
+      <c r="AS25" s="2">
+        <v>73607.36</v>
+      </c>
       <c r="AT25" s="2">
         <v>73643.86</v>
       </c>
@@ -7561,7 +7785,9 @@
       <c r="J26" s="2">
         <v>413</v>
       </c>
-      <c r="K26" s="2"/>
+      <c r="K26" s="2">
+        <v>413</v>
+      </c>
       <c r="L26" s="2">
         <v>413</v>
       </c>
@@ -7605,7 +7831,9 @@
       <c r="AA26" s="11">
         <v>1161</v>
       </c>
-      <c r="AB26" s="2"/>
+      <c r="AB26" s="2">
+        <v>1241</v>
+      </c>
       <c r="AC26" s="20">
         <v>1298</v>
       </c>
@@ -7645,7 +7873,9 @@
       <c r="AR26" s="2">
         <v>2092.8</v>
       </c>
-      <c r="AS26" s="2"/>
+      <c r="AS26" s="2">
+        <v>2109.73</v>
+      </c>
       <c r="AT26" s="2">
         <v>2166.1</v>
       </c>
@@ -7687,7 +7917,9 @@
       <c r="AR27" s="2">
         <v>1981.5</v>
       </c>
-      <c r="AS27" s="2"/>
+      <c r="AS27" s="2">
+        <v>1981.15</v>
+      </c>
       <c r="AT27" s="2">
         <v>1981.15</v>
       </c>
@@ -7733,7 +7965,9 @@
       <c r="AR28" s="2">
         <v>2062.5</v>
       </c>
-      <c r="AS28" s="2"/>
+      <c r="AS28" s="2">
+        <v>2086.03</v>
+      </c>
       <c r="AT28" s="2">
         <v>2062.35</v>
       </c>
@@ -7780,8 +8014,8 @@
   <sheetPr/>
   <dimension ref="B2:AY28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="AE15" workbookViewId="0">
-      <selection activeCell="AO29" sqref="AO29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="AJ15" workbookViewId="0">
+      <selection activeCell="AS29" sqref="AS29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -8120,7 +8354,9 @@
       <c r="J5" s="2">
         <v>2149.65</v>
       </c>
-      <c r="K5" s="2"/>
+      <c r="K5" s="2">
+        <v>2286.97</v>
+      </c>
       <c r="L5" s="2">
         <v>1986.15</v>
       </c>
@@ -8164,7 +8400,9 @@
       <c r="AA5" s="2">
         <v>3311</v>
       </c>
-      <c r="AB5" s="2"/>
+      <c r="AB5" s="2">
+        <v>3393</v>
+      </c>
       <c r="AC5" s="2">
         <v>3439</v>
       </c>
@@ -8208,7 +8446,9 @@
       <c r="AR5" s="2">
         <v>69677.34</v>
       </c>
-      <c r="AS5" s="2"/>
+      <c r="AS5" s="2">
+        <v>68501.9</v>
+      </c>
       <c r="AT5" s="2">
         <v>62006.81</v>
       </c>
@@ -8274,7 +8514,9 @@
       <c r="AA6" s="2">
         <v>36870.59</v>
       </c>
-      <c r="AB6" s="2"/>
+      <c r="AB6" s="2">
+        <v>37634.77</v>
+      </c>
       <c r="AC6" s="2">
         <v>39977.82</v>
       </c>
@@ -8318,7 +8560,9 @@
       <c r="AR6" s="2">
         <v>31079.42</v>
       </c>
-      <c r="AS6" s="2"/>
+      <c r="AS6" s="2">
+        <v>31797.33</v>
+      </c>
       <c r="AT6" s="2">
         <v>32380.7</v>
       </c>
@@ -8364,7 +8608,9 @@
       <c r="J7" s="2">
         <v>6635</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" s="2">
+        <v>6671</v>
+      </c>
       <c r="L7" s="2">
         <v>6635</v>
       </c>
@@ -8404,7 +8650,9 @@
       <c r="AA7" s="2">
         <v>4810</v>
       </c>
-      <c r="AB7" s="2"/>
+      <c r="AB7" s="2">
+        <v>4850</v>
+      </c>
       <c r="AC7" s="2">
         <v>4797</v>
       </c>
@@ -8444,7 +8692,9 @@
       <c r="AR7" s="2">
         <v>39439.89</v>
       </c>
-      <c r="AS7" s="2"/>
+      <c r="AS7" s="2">
+        <v>41163.02</v>
+      </c>
       <c r="AT7" s="2">
         <v>40887.3</v>
       </c>
@@ -8490,7 +8740,9 @@
       <c r="J8" s="2">
         <v>17882</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2">
+        <v>18960</v>
+      </c>
       <c r="L8" s="2">
         <v>19769</v>
       </c>
@@ -8554,7 +8806,9 @@
       <c r="AR8" s="2">
         <v>78690.72</v>
       </c>
-      <c r="AS8" s="2"/>
+      <c r="AS8" s="2">
+        <v>81838.74</v>
+      </c>
       <c r="AT8" s="2">
         <v>82166.38</v>
       </c>
@@ -8600,7 +8854,9 @@
       <c r="J9" s="2">
         <v>1068</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="K9" s="2">
+        <v>1009</v>
+      </c>
       <c r="L9" s="2">
         <v>1068</v>
       </c>
@@ -8668,7 +8924,9 @@
       <c r="AR9" s="2">
         <v>42908.79</v>
       </c>
-      <c r="AS9" s="2"/>
+      <c r="AS9" s="2">
+        <v>43036.45</v>
+      </c>
       <c r="AT9" s="2">
         <v>42507.95</v>
       </c>
@@ -8714,7 +8972,9 @@
       <c r="J10" s="2">
         <v>1174</v>
       </c>
-      <c r="K10" s="2"/>
+      <c r="K10" s="2">
+        <v>1174</v>
+      </c>
       <c r="L10" s="2">
         <v>1174</v>
       </c>
@@ -8782,7 +9042,9 @@
       <c r="AR10" s="2">
         <v>49587.01</v>
       </c>
-      <c r="AS10" s="2"/>
+      <c r="AS10" s="2">
+        <v>52046.34</v>
+      </c>
       <c r="AT10" s="2">
         <v>50601.88</v>
       </c>
@@ -8828,7 +9090,9 @@
       <c r="J11" s="2">
         <v>4586.4</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="K11" s="2">
+        <v>4422.83</v>
+      </c>
       <c r="L11" s="2">
         <v>4324.49</v>
       </c>
@@ -8892,7 +9156,9 @@
       <c r="AR11" s="2">
         <v>69909.44</v>
       </c>
-      <c r="AS11" s="2"/>
+      <c r="AS11" s="2">
+        <v>57201.69</v>
+      </c>
       <c r="AT11" s="2">
         <v>72191.55</v>
       </c>
@@ -8938,7 +9204,9 @@
       <c r="J12" s="2">
         <v>50245.07</v>
       </c>
-      <c r="K12" s="2"/>
+      <c r="K12" s="2">
+        <v>53554.15</v>
+      </c>
       <c r="L12" s="2">
         <v>53622.89</v>
       </c>
@@ -9002,7 +9270,9 @@
       <c r="AR12" s="2">
         <v>34202.96</v>
       </c>
-      <c r="AS12" s="2"/>
+      <c r="AS12" s="2">
+        <v>34714.43</v>
+      </c>
       <c r="AT12" s="2">
         <v>39882.43</v>
       </c>
@@ -9044,7 +9314,9 @@
       <c r="J13" s="2">
         <v>12573</v>
       </c>
-      <c r="K13" s="2"/>
+      <c r="K13" s="2">
+        <v>12758</v>
+      </c>
       <c r="L13" s="2">
         <v>13041</v>
       </c>
@@ -9084,7 +9356,9 @@
       <c r="AA13" s="2">
         <v>7839</v>
       </c>
-      <c r="AB13" s="2"/>
+      <c r="AB13" s="2">
+        <v>7980</v>
+      </c>
       <c r="AC13" s="2">
         <v>8281</v>
       </c>
@@ -9128,7 +9402,9 @@
       <c r="AR13" s="2">
         <v>38200.65</v>
       </c>
-      <c r="AS13" s="2"/>
+      <c r="AS13" s="2">
+        <v>39733.74</v>
+      </c>
       <c r="AT13" s="2">
         <v>38509.53</v>
       </c>
@@ -9170,7 +9446,9 @@
       <c r="J14" s="2">
         <v>1490</v>
       </c>
-      <c r="K14" s="2"/>
+      <c r="K14" s="2">
+        <v>1740</v>
+      </c>
       <c r="L14" s="2">
         <v>1884.68</v>
       </c>
@@ -9210,7 +9488,9 @@
       <c r="AA14" s="2">
         <v>15712.96</v>
       </c>
-      <c r="AB14" s="2"/>
+      <c r="AB14" s="2">
+        <v>17063.82</v>
+      </c>
       <c r="AC14" s="2">
         <v>16197.62</v>
       </c>
@@ -9254,7 +9534,9 @@
       <c r="AR14" s="2">
         <v>67419.59</v>
       </c>
-      <c r="AS14" s="2"/>
+      <c r="AS14" s="2">
+        <v>70952.95</v>
+      </c>
       <c r="AT14" s="2">
         <v>62172.28</v>
       </c>
@@ -9296,7 +9578,9 @@
       <c r="J15" s="2">
         <v>1884.68</v>
       </c>
-      <c r="K15" s="2"/>
+      <c r="K15" s="2">
+        <v>1822.27</v>
+      </c>
       <c r="L15" s="2">
         <v>1884.68</v>
       </c>
@@ -9340,7 +9624,9 @@
       <c r="AA15" s="2">
         <v>20666.07</v>
       </c>
-      <c r="AB15" s="2"/>
+      <c r="AB15" s="2">
+        <v>21603.99</v>
+      </c>
       <c r="AC15" s="2">
         <v>20349.92</v>
       </c>
@@ -9412,7 +9698,9 @@
       <c r="J16" s="2">
         <v>4633.18</v>
       </c>
-      <c r="K16" s="2"/>
+      <c r="K16" s="2">
+        <v>4719.99</v>
+      </c>
       <c r="L16" s="2">
         <v>4510.59</v>
       </c>
@@ -9456,7 +9744,9 @@
       <c r="AA16" s="2">
         <v>23526.06</v>
       </c>
-      <c r="AB16" s="2"/>
+      <c r="AB16" s="2">
+        <v>24376.58</v>
+      </c>
       <c r="AC16" s="2">
         <v>21685.49</v>
       </c>
@@ -9500,7 +9790,9 @@
       <c r="AR16" s="2">
         <v>923.11</v>
       </c>
-      <c r="AS16" s="2"/>
+      <c r="AS16" s="2">
+        <v>1013.64</v>
+      </c>
       <c r="AT16" s="2">
         <v>946.85</v>
       </c>
@@ -9546,7 +9838,9 @@
       <c r="J17" s="2">
         <v>4874.37</v>
       </c>
-      <c r="K17" s="2"/>
+      <c r="K17" s="2">
+        <v>5380.78</v>
+      </c>
       <c r="L17" s="2">
         <v>4972.6</v>
       </c>
@@ -9590,7 +9884,9 @@
       <c r="AA17" s="2">
         <v>18160.32</v>
       </c>
-      <c r="AB17" s="2"/>
+      <c r="AB17" s="2">
+        <v>18312.38</v>
+      </c>
       <c r="AC17" s="2">
         <v>17264.55</v>
       </c>
@@ -9634,7 +9930,9 @@
       <c r="AR17" s="2">
         <v>1867.75</v>
       </c>
-      <c r="AS17" s="2"/>
+      <c r="AS17" s="2">
+        <v>1917.42</v>
+      </c>
       <c r="AT17" s="2">
         <v>1804.09</v>
       </c>
@@ -9680,7 +9978,9 @@
       <c r="J18" s="2">
         <v>390</v>
       </c>
-      <c r="K18" s="2"/>
+      <c r="K18" s="2">
+        <v>393</v>
+      </c>
       <c r="L18" s="2">
         <v>390</v>
       </c>
@@ -9724,7 +10024,9 @@
       <c r="AA18" s="2">
         <v>19505.76</v>
       </c>
-      <c r="AB18" s="2"/>
+      <c r="AB18" s="2">
+        <v>20132.75</v>
+      </c>
       <c r="AC18" s="2">
         <v>19459.4</v>
       </c>
@@ -9766,7 +10068,9 @@
         <v>5334.7</v>
       </c>
       <c r="AR18" s="2"/>
-      <c r="AS18" s="2"/>
+      <c r="AS18" s="2">
+        <v>5641.94</v>
+      </c>
       <c r="AT18" s="2">
         <v>5421.57</v>
       </c>
@@ -9808,7 +10112,9 @@
       <c r="J19" s="2">
         <v>318.28</v>
       </c>
-      <c r="K19" s="2"/>
+      <c r="K19" s="2">
+        <v>321.53</v>
+      </c>
       <c r="L19" s="2">
         <v>286.55</v>
       </c>
@@ -9852,7 +10158,9 @@
       <c r="AA19" s="2">
         <v>23838.38</v>
       </c>
-      <c r="AB19" s="2"/>
+      <c r="AB19" s="2">
+        <v>24802.49</v>
+      </c>
       <c r="AC19" s="2">
         <v>24834.43</v>
       </c>
@@ -9930,7 +10238,9 @@
       <c r="J20" s="2">
         <v>373.07</v>
       </c>
-      <c r="K20" s="2"/>
+      <c r="K20" s="2">
+        <v>366.52</v>
+      </c>
       <c r="L20" s="2">
         <v>365.11</v>
       </c>
@@ -9974,7 +10284,9 @@
       <c r="AA20" s="2">
         <v>18188.32</v>
       </c>
-      <c r="AB20" s="2"/>
+      <c r="AB20" s="2">
+        <v>18750.03</v>
+      </c>
       <c r="AC20" s="2">
         <v>17267.58</v>
       </c>
@@ -10018,7 +10330,9 @@
       <c r="AR20" s="2">
         <v>16073</v>
       </c>
-      <c r="AS20" s="2"/>
+      <c r="AS20" s="2">
+        <v>16279</v>
+      </c>
       <c r="AT20" s="2">
         <v>16124</v>
       </c>
@@ -10060,7 +10374,9 @@
       <c r="J21" s="2">
         <v>444.62</v>
       </c>
-      <c r="K21" s="2"/>
+      <c r="K21" s="2">
+        <v>450.71</v>
+      </c>
       <c r="L21" s="2">
         <v>447.65</v>
       </c>
@@ -10104,7 +10420,9 @@
       <c r="AA21" s="2">
         <v>16911.52</v>
       </c>
-      <c r="AB21" s="2"/>
+      <c r="AB21" s="2">
+        <v>16983.06</v>
+      </c>
       <c r="AC21" s="2">
         <v>16977.35</v>
       </c>
@@ -10148,7 +10466,9 @@
       <c r="AR21" s="2">
         <v>35323</v>
       </c>
-      <c r="AS21" s="2"/>
+      <c r="AS21" s="2">
+        <v>35878</v>
+      </c>
       <c r="AT21" s="2">
         <v>35918</v>
       </c>
@@ -10190,7 +10510,9 @@
       <c r="J22" s="2">
         <v>528</v>
       </c>
-      <c r="K22" s="2"/>
+      <c r="K22" s="2">
+        <v>605</v>
+      </c>
       <c r="L22" s="2">
         <v>553</v>
       </c>
@@ -10234,7 +10556,9 @@
       <c r="AA22" s="2">
         <v>16746.69</v>
       </c>
-      <c r="AB22" s="2"/>
+      <c r="AB22" s="2">
+        <v>17078.29</v>
+      </c>
       <c r="AC22" s="2">
         <v>16892.03</v>
       </c>
@@ -10306,7 +10630,9 @@
       <c r="J23" s="2">
         <v>1907.05</v>
       </c>
-      <c r="K23" s="2"/>
+      <c r="K23" s="2">
+        <v>1954.59</v>
+      </c>
       <c r="L23" s="2">
         <v>1852.11</v>
       </c>
@@ -10350,7 +10676,9 @@
       <c r="AA23" s="2">
         <v>8672.71</v>
       </c>
-      <c r="AB23" s="2"/>
+      <c r="AB23" s="2">
+        <v>8981.95</v>
+      </c>
       <c r="AC23" s="2">
         <v>9242.62</v>
       </c>
@@ -10394,7 +10722,9 @@
       <c r="AR23" s="2">
         <v>433.59</v>
       </c>
-      <c r="AS23" s="2"/>
+      <c r="AS23" s="2">
+        <v>437.11</v>
+      </c>
       <c r="AT23" s="2">
         <v>510.81</v>
       </c>
@@ -10440,7 +10770,9 @@
       <c r="J24" s="2">
         <v>813</v>
       </c>
-      <c r="K24" s="2"/>
+      <c r="K24" s="2">
+        <v>813</v>
+      </c>
       <c r="L24" s="2">
         <v>640</v>
       </c>
@@ -10484,7 +10816,9 @@
       <c r="AA24" s="2">
         <v>32866.01</v>
       </c>
-      <c r="AB24" s="2"/>
+      <c r="AB24" s="2">
+        <v>33806.02</v>
+      </c>
       <c r="AC24" s="2">
         <v>34393.6</v>
       </c>
@@ -10528,7 +10862,9 @@
       <c r="AR24" s="2">
         <v>727</v>
       </c>
-      <c r="AS24" s="2"/>
+      <c r="AS24" s="2">
+        <v>871</v>
+      </c>
       <c r="AT24" s="2">
         <v>719</v>
       </c>
@@ -10574,7 +10910,9 @@
       <c r="J25" s="2">
         <v>1276</v>
       </c>
-      <c r="K25" s="2"/>
+      <c r="K25" s="2">
+        <v>1351</v>
+      </c>
       <c r="L25" s="2">
         <v>1276</v>
       </c>
@@ -10644,7 +10982,9 @@
       <c r="AR25" s="2">
         <v>102850.23</v>
       </c>
-      <c r="AS25" s="2"/>
+      <c r="AS25" s="2">
+        <v>116558.93</v>
+      </c>
       <c r="AT25" s="2">
         <v>87227.92</v>
       </c>
@@ -10686,7 +11026,9 @@
       <c r="J26" s="2">
         <v>802</v>
       </c>
-      <c r="K26" s="2"/>
+      <c r="K26" s="2">
+        <v>802</v>
+      </c>
       <c r="L26" s="2">
         <v>802</v>
       </c>
@@ -10730,7 +11072,9 @@
       <c r="AA26" s="2">
         <v>2012</v>
       </c>
-      <c r="AB26" s="2"/>
+      <c r="AB26" s="2">
+        <v>2142</v>
+      </c>
       <c r="AC26" s="2">
         <v>2114</v>
       </c>
@@ -10770,7 +11114,9 @@
       <c r="AR26" s="2">
         <v>3123.67</v>
       </c>
-      <c r="AS26" s="2"/>
+      <c r="AS26" s="2">
+        <v>3221.8</v>
+      </c>
       <c r="AT26" s="2">
         <v>2844.81</v>
       </c>
@@ -10812,7 +11158,9 @@
       <c r="AR27" s="2">
         <v>2852.11</v>
       </c>
-      <c r="AS27" s="2"/>
+      <c r="AS27" s="2">
+        <v>3035.89</v>
+      </c>
       <c r="AT27" s="2">
         <v>2852.11</v>
       </c>
@@ -10858,7 +11206,9 @@
       <c r="AR28" s="2">
         <v>2936.29</v>
       </c>
-      <c r="AS28" s="2"/>
+      <c r="AS28" s="2">
+        <v>2812.38</v>
+      </c>
       <c r="AT28" s="2">
         <v>2936.29</v>
       </c>

--- a/Comparaçoes/BuscasLocais.xlsx
+++ b/Comparaçoes/BuscasLocais.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16095" windowHeight="4785" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="13725" windowHeight="12885" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="k = n|4" sheetId="1" r:id="rId1"/>
@@ -296,11 +296,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -322,9 +322,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color rgb="FF44546A"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -337,54 +349,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color rgb="FF44546A"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -398,19 +370,47 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF44546A"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF44546A"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -428,15 +428,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -456,13 +456,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
+        <fgColor rgb="FFFFF2CA"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9E1F2"/>
+        <fgColor rgb="FFE1EFD8"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EA9DB"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -474,19 +486,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CAAB"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC7C7C7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -498,19 +528,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA8D08C"/>
+        <fgColor rgb="FF70AD47"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF8CAAB"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FF4472C4"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -522,7 +546,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB4C6E7"/>
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -540,43 +570,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD964"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CA"/>
+        <fgColor rgb="FFBDD7EE"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4472C4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8EA9DB"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE1EFD8"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF70AD47"/>
+        <fgColor rgb="FFFBE3D5"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -588,49 +600,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA8D08C"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBDD7EE"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5B9BD5"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBE3D5"/>
+        <fgColor rgb="FFD9E1F2"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD964"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7C7C7"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -844,11 +844,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF5B9BD5"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,6 +864,35 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF5B9BD5"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF5B9BD5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF5B9BD5"/>
       </bottom>
       <diagonal/>
     </border>
@@ -893,30 +928,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFACCCEA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -930,164 +941,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF5B9BD5"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF5B9BD5"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1095,22 +1095,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1119,13 +1119,13 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1137,13 +1137,13 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1152,22 +1152,22 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1179,7 +1179,7 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1501,8 +1501,8 @@
   <sheetPr/>
   <dimension ref="B2:AY28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="AF15" workbookViewId="0">
-      <selection activeCell="AS29" sqref="AS29"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AW29" sqref="AW29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1849,7 +1849,9 @@
       <c r="N5" s="2">
         <v>680.72</v>
       </c>
-      <c r="O5" s="2"/>
+      <c r="O5" s="2">
+        <v>734.19</v>
+      </c>
       <c r="P5" s="26">
         <v>606</v>
       </c>
@@ -1895,7 +1897,9 @@
       <c r="AE5" s="10">
         <v>582</v>
       </c>
-      <c r="AF5" s="10"/>
+      <c r="AF5" s="10">
+        <v>595</v>
+      </c>
       <c r="AG5" s="28">
         <v>558</v>
       </c>
@@ -1941,7 +1945,9 @@
       <c r="AV5" s="10">
         <v>25126.84</v>
       </c>
-      <c r="AW5" s="10"/>
+      <c r="AW5" s="10">
+        <v>23589.53</v>
+      </c>
       <c r="AX5" s="14">
         <v>17728</v>
       </c>
@@ -2009,7 +2015,9 @@
       <c r="AE6" s="10">
         <v>10846.48</v>
       </c>
-      <c r="AF6" s="10"/>
+      <c r="AF6" s="10">
+        <v>10207.52</v>
+      </c>
       <c r="AG6" s="28">
         <v>7704</v>
       </c>
@@ -2055,7 +2063,9 @@
       <c r="AV6" s="10">
         <v>7304.83</v>
       </c>
-      <c r="AW6" s="10"/>
+      <c r="AW6" s="10">
+        <v>7968.56</v>
+      </c>
       <c r="AX6" s="14">
         <v>6981</v>
       </c>
@@ -2103,7 +2113,9 @@
       <c r="N7" s="2">
         <v>1373</v>
       </c>
-      <c r="O7" s="2"/>
+      <c r="O7" s="2">
+        <v>1407</v>
+      </c>
       <c r="P7" s="26"/>
       <c r="Q7" s="28"/>
       <c r="S7" s="10" t="s">
@@ -2145,7 +2157,9 @@
       <c r="AE7" s="10">
         <v>1356</v>
       </c>
-      <c r="AF7" s="10"/>
+      <c r="AF7" s="10">
+        <v>1482</v>
+      </c>
       <c r="AG7" s="28"/>
       <c r="AH7" s="28"/>
       <c r="AJ7" s="10" t="s">
@@ -2187,7 +2201,9 @@
       <c r="AV7" s="10">
         <v>13755.23</v>
       </c>
-      <c r="AW7" s="10"/>
+      <c r="AW7" s="10">
+        <v>12877.06</v>
+      </c>
       <c r="AX7" s="14">
         <v>9596</v>
       </c>
@@ -2235,7 +2251,9 @@
       <c r="N8" s="2">
         <v>4442</v>
       </c>
-      <c r="O8" s="2"/>
+      <c r="O8" s="2">
+        <v>4719</v>
+      </c>
       <c r="P8" s="26"/>
       <c r="Q8" s="28"/>
       <c r="S8" s="10" t="s">
@@ -2301,7 +2319,9 @@
       <c r="AV8" s="10">
         <v>23695.72</v>
       </c>
-      <c r="AW8" s="10"/>
+      <c r="AW8" s="10">
+        <v>24085.25</v>
+      </c>
       <c r="AX8" s="14">
         <v>20928</v>
       </c>
@@ -2349,7 +2369,9 @@
       <c r="N9" s="2">
         <v>292</v>
       </c>
-      <c r="O9" s="2"/>
+      <c r="O9" s="2">
+        <v>307</v>
+      </c>
       <c r="P9" s="26">
         <v>246</v>
       </c>
@@ -2419,7 +2441,9 @@
       <c r="AV9" s="10">
         <v>11478.8</v>
       </c>
-      <c r="AW9" s="10"/>
+      <c r="AW9" s="10">
+        <v>12332.25</v>
+      </c>
       <c r="AX9" s="14">
         <v>10743</v>
       </c>
@@ -2467,7 +2491,9 @@
       <c r="N10" s="2">
         <v>352</v>
       </c>
-      <c r="O10" s="2"/>
+      <c r="O10" s="2">
+        <v>364</v>
+      </c>
       <c r="P10" s="26">
         <v>282</v>
       </c>
@@ -2537,7 +2563,9 @@
       <c r="AV10" s="10">
         <v>15933.44</v>
       </c>
-      <c r="AW10" s="10"/>
+      <c r="AW10" s="10">
+        <v>16933.76</v>
+      </c>
       <c r="AX10" s="14">
         <v>15403</v>
       </c>
@@ -2585,7 +2613,9 @@
       <c r="N11" s="2">
         <v>556.81</v>
       </c>
-      <c r="O11" s="2"/>
+      <c r="O11" s="2">
+        <v>490.84</v>
+      </c>
       <c r="P11" s="26">
         <v>489</v>
       </c>
@@ -2651,7 +2681,9 @@
       <c r="AV11" s="10">
         <v>23618.37</v>
       </c>
-      <c r="AW11" s="10"/>
+      <c r="AW11" s="10">
+        <v>25256.58</v>
+      </c>
       <c r="AX11" s="14">
         <v>18594</v>
       </c>
@@ -2699,7 +2731,9 @@
       <c r="N12" s="2">
         <v>14418.93</v>
       </c>
-      <c r="O12" s="2"/>
+      <c r="O12" s="2">
+        <v>12914.67</v>
+      </c>
       <c r="P12" s="26">
         <v>9840</v>
       </c>
@@ -2765,7 +2799,9 @@
       <c r="AV12" s="10">
         <v>8023.61</v>
       </c>
-      <c r="AW12" s="10"/>
+      <c r="AW12" s="10">
+        <v>7932.46</v>
+      </c>
       <c r="AX12" s="14"/>
       <c r="AY12" s="14"/>
     </row>
@@ -2809,7 +2845,9 @@
       <c r="N13" s="2">
         <v>4607</v>
       </c>
-      <c r="O13" s="2"/>
+      <c r="O13" s="2">
+        <v>6760</v>
+      </c>
       <c r="P13" s="26"/>
       <c r="Q13" s="28"/>
       <c r="S13" s="10" t="s">
@@ -2851,7 +2889,9 @@
       <c r="AE13" s="10">
         <v>3155</v>
       </c>
-      <c r="AF13" s="10"/>
+      <c r="AF13" s="10">
+        <v>3642</v>
+      </c>
       <c r="AG13" s="28">
         <v>2094</v>
       </c>
@@ -2897,7 +2937,9 @@
       <c r="AV13" s="10">
         <v>10546.96</v>
       </c>
-      <c r="AW13" s="10"/>
+      <c r="AW13" s="10">
+        <v>10775.33</v>
+      </c>
       <c r="AX13" s="14"/>
       <c r="AY13" s="14"/>
     </row>
@@ -2941,7 +2983,9 @@
       <c r="N14" s="2">
         <v>530</v>
       </c>
-      <c r="O14" s="2"/>
+      <c r="O14" s="2">
+        <v>560</v>
+      </c>
       <c r="P14" s="26"/>
       <c r="Q14" s="28"/>
       <c r="S14" s="10" t="s">
@@ -2983,7 +3027,9 @@
       <c r="AE14" s="10">
         <v>4788.84</v>
       </c>
-      <c r="AF14" s="10"/>
+      <c r="AF14" s="10">
+        <v>5048.49</v>
+      </c>
       <c r="AG14" s="28">
         <v>4369</v>
       </c>
@@ -3029,7 +3075,9 @@
       <c r="AV14" s="10">
         <v>23412.51</v>
       </c>
-      <c r="AW14" s="10"/>
+      <c r="AW14" s="10">
+        <v>22848.54</v>
+      </c>
       <c r="AX14" s="14"/>
       <c r="AY14" s="14"/>
     </row>
@@ -3073,7 +3121,9 @@
       <c r="N15" s="2">
         <v>249.88</v>
       </c>
-      <c r="O15" s="2"/>
+      <c r="O15" s="2">
+        <v>224.8</v>
+      </c>
       <c r="P15" s="26">
         <v>151</v>
       </c>
@@ -3119,7 +3169,9 @@
       <c r="AE15" s="10">
         <v>7222.1</v>
       </c>
-      <c r="AF15" s="10"/>
+      <c r="AF15" s="10">
+        <v>7914.8</v>
+      </c>
       <c r="AG15" s="28">
         <v>5286</v>
       </c>
@@ -3197,7 +3249,9 @@
       <c r="N16" s="2">
         <v>1203.1</v>
       </c>
-      <c r="O16" s="2"/>
+      <c r="O16" s="2">
+        <v>1238.52</v>
+      </c>
       <c r="P16" s="26">
         <v>1116</v>
       </c>
@@ -3243,7 +3297,9 @@
       <c r="AE16" s="10">
         <v>6741.11</v>
       </c>
-      <c r="AF16" s="10"/>
+      <c r="AF16" s="10">
+        <v>7023.63</v>
+      </c>
       <c r="AG16" s="28">
         <v>6138</v>
       </c>
@@ -3289,7 +3345,9 @@
       <c r="AV16" s="10">
         <v>337.72</v>
       </c>
-      <c r="AW16" s="10"/>
+      <c r="AW16" s="10">
+        <v>296.42</v>
+      </c>
       <c r="AX16" s="14">
         <v>260</v>
       </c>
@@ -3337,7 +3395,9 @@
       <c r="N17" s="2">
         <v>1245.96</v>
       </c>
-      <c r="O17" s="2"/>
+      <c r="O17" s="2">
+        <v>1352.22</v>
+      </c>
       <c r="P17" s="26">
         <v>1204</v>
       </c>
@@ -3383,7 +3443,9 @@
       <c r="AE17" s="10">
         <v>5457.17</v>
       </c>
-      <c r="AF17" s="10"/>
+      <c r="AF17" s="10">
+        <v>5427.54</v>
+      </c>
       <c r="AG17" s="28">
         <v>4014</v>
       </c>
@@ -3429,7 +3491,9 @@
       <c r="AV17" s="10">
         <v>538.97</v>
       </c>
-      <c r="AW17" s="10"/>
+      <c r="AW17" s="10">
+        <v>568.83</v>
+      </c>
       <c r="AX17" s="14">
         <v>538</v>
       </c>
@@ -3477,7 +3541,9 @@
       <c r="N18" s="2">
         <v>100</v>
       </c>
-      <c r="O18" s="2"/>
+      <c r="O18" s="2">
+        <v>112</v>
+      </c>
       <c r="P18" s="26">
         <v>99</v>
       </c>
@@ -3523,7 +3589,9 @@
       <c r="AE18" s="10">
         <v>6491</v>
       </c>
-      <c r="AF18" s="10"/>
+      <c r="AF18" s="10">
+        <v>5420.45</v>
+      </c>
       <c r="AG18" s="28">
         <v>5119</v>
       </c>
@@ -3569,7 +3637,9 @@
       <c r="AV18" s="10">
         <v>1660.87</v>
       </c>
-      <c r="AW18" s="10"/>
+      <c r="AW18" s="10">
+        <v>1730.24</v>
+      </c>
       <c r="AX18" s="14"/>
       <c r="AY18" s="14"/>
     </row>
@@ -3613,7 +3683,9 @@
       <c r="N19" s="2">
         <v>77.04</v>
       </c>
-      <c r="O19" s="2"/>
+      <c r="O19" s="2">
+        <v>95.45</v>
+      </c>
       <c r="P19" s="26">
         <v>71</v>
       </c>
@@ -3659,7 +3731,9 @@
       <c r="AE19" s="10">
         <v>7231.98</v>
       </c>
-      <c r="AF19" s="10"/>
+      <c r="AF19" s="10">
+        <v>7510.96</v>
+      </c>
       <c r="AG19" s="28">
         <v>5890</v>
       </c>
@@ -3703,7 +3777,9 @@
       <c r="AV19" s="10">
         <v>2190.99</v>
       </c>
-      <c r="AW19" s="10"/>
+      <c r="AW19" s="10">
+        <v>2296.7</v>
+      </c>
       <c r="AX19" s="14"/>
       <c r="AY19" s="14"/>
     </row>
@@ -3747,7 +3823,9 @@
       <c r="N20" s="2">
         <v>99.45</v>
       </c>
-      <c r="O20" s="2"/>
+      <c r="O20" s="2">
+        <v>113.55</v>
+      </c>
       <c r="P20" s="26">
         <v>99</v>
       </c>
@@ -3793,7 +3871,9 @@
       <c r="AE20" s="10">
         <v>4293.02</v>
       </c>
-      <c r="AF20" s="10"/>
+      <c r="AF20" s="10">
+        <v>4424.39</v>
+      </c>
       <c r="AG20" s="28">
         <v>4293</v>
       </c>
@@ -3839,7 +3919,9 @@
       <c r="AV20" s="10">
         <v>5387</v>
       </c>
-      <c r="AW20" s="10"/>
+      <c r="AW20" s="10">
+        <v>5195</v>
+      </c>
       <c r="AX20" s="14"/>
       <c r="AY20" s="14"/>
     </row>
@@ -3883,7 +3965,9 @@
       <c r="N21" s="2">
         <v>328.73</v>
       </c>
-      <c r="O21" s="2"/>
+      <c r="O21" s="2">
+        <v>146.85</v>
+      </c>
       <c r="P21" s="26">
         <v>101</v>
       </c>
@@ -3929,7 +4013,9 @@
       <c r="AE21" s="10">
         <v>5246.28</v>
       </c>
-      <c r="AF21" s="10"/>
+      <c r="AF21" s="10">
+        <v>5489.97</v>
+      </c>
       <c r="AG21" s="28">
         <v>3991</v>
       </c>
@@ -3975,7 +4061,9 @@
       <c r="AV21" s="10">
         <v>12013</v>
       </c>
-      <c r="AW21" s="10"/>
+      <c r="AW21" s="10">
+        <v>11838</v>
+      </c>
       <c r="AX21" s="14"/>
       <c r="AY21" s="14"/>
     </row>
@@ -4019,7 +4107,9 @@
       <c r="N22" s="2">
         <v>147</v>
       </c>
-      <c r="O22" s="2"/>
+      <c r="O22" s="2">
+        <v>157</v>
+      </c>
       <c r="P22" s="26">
         <v>145</v>
       </c>
@@ -4065,7 +4155,9 @@
       <c r="AE22" s="10">
         <v>3919.59</v>
       </c>
-      <c r="AF22" s="10"/>
+      <c r="AF22" s="10">
+        <v>4416.04</v>
+      </c>
       <c r="AG22" s="28">
         <v>3663</v>
       </c>
@@ -4145,7 +4237,9 @@
       <c r="N23" s="2">
         <v>656.53</v>
       </c>
-      <c r="O23" s="2"/>
+      <c r="O23" s="2">
+        <v>698.99</v>
+      </c>
       <c r="P23" s="26">
         <v>509</v>
       </c>
@@ -4191,7 +4285,9 @@
       <c r="AE23" s="10">
         <v>2002.98</v>
       </c>
-      <c r="AF23" s="10"/>
+      <c r="AF23" s="10">
+        <v>2201.61</v>
+      </c>
       <c r="AG23" s="28">
         <v>2108</v>
       </c>
@@ -4237,7 +4333,9 @@
       <c r="AV23" s="10">
         <v>127.18</v>
       </c>
-      <c r="AW23" s="10"/>
+      <c r="AW23" s="10">
+        <v>134.46</v>
+      </c>
       <c r="AX23" s="14">
         <v>110</v>
       </c>
@@ -4285,7 +4383,9 @@
       <c r="N24" s="2">
         <v>154</v>
       </c>
-      <c r="O24" s="2"/>
+      <c r="O24" s="2">
+        <v>178</v>
+      </c>
       <c r="P24" s="26">
         <v>143</v>
       </c>
@@ -4331,7 +4431,9 @@
       <c r="AE24" s="10">
         <v>9133.3</v>
       </c>
-      <c r="AF24" s="10"/>
+      <c r="AF24" s="10">
+        <v>10171.85</v>
+      </c>
       <c r="AG24" s="28">
         <v>8705</v>
       </c>
@@ -4377,7 +4479,9 @@
       <c r="AV24" s="10">
         <v>146</v>
       </c>
-      <c r="AW24" s="10"/>
+      <c r="AW24" s="10">
+        <v>181</v>
+      </c>
       <c r="AX24" s="14">
         <v>66</v>
       </c>
@@ -4425,7 +4529,9 @@
       <c r="N25" s="25">
         <v>292</v>
       </c>
-      <c r="O25" s="25"/>
+      <c r="O25" s="25">
+        <v>299</v>
+      </c>
       <c r="P25" s="26">
         <v>178</v>
       </c>
@@ -4459,7 +4565,9 @@
       <c r="AC25" s="29"/>
       <c r="AD25" s="15"/>
       <c r="AE25" s="15"/>
-      <c r="AF25" s="15"/>
+      <c r="AF25" s="15">
+        <v>12941.44</v>
+      </c>
       <c r="AG25" s="28"/>
       <c r="AH25" s="28"/>
       <c r="AJ25" s="10" t="s">
@@ -4501,7 +4609,9 @@
       <c r="AV25" s="10">
         <v>27500</v>
       </c>
-      <c r="AW25" s="10"/>
+      <c r="AW25" s="10">
+        <v>28000</v>
+      </c>
       <c r="AX25" s="14"/>
       <c r="AY25" s="14"/>
     </row>
@@ -4545,7 +4655,9 @@
       <c r="N26" s="2">
         <v>162</v>
       </c>
-      <c r="O26" s="6"/>
+      <c r="O26" s="6">
+        <v>207</v>
+      </c>
       <c r="P26" s="27">
         <v>231</v>
       </c>
@@ -4591,7 +4703,9 @@
       <c r="AE26" s="2">
         <v>649</v>
       </c>
-      <c r="AF26" s="6"/>
+      <c r="AF26" s="6">
+        <v>642</v>
+      </c>
       <c r="AG26" s="30"/>
       <c r="AH26" s="28"/>
       <c r="AJ26" s="10" t="s">
@@ -4633,7 +4747,9 @@
       <c r="AV26" s="10">
         <v>1083.13</v>
       </c>
-      <c r="AW26" s="10"/>
+      <c r="AW26" s="10">
+        <v>1099.83</v>
+      </c>
       <c r="AX26" s="14"/>
       <c r="AY26" s="14"/>
     </row>
@@ -4677,7 +4793,9 @@
       <c r="AV27" s="10">
         <v>751.06</v>
       </c>
-      <c r="AW27" s="10"/>
+      <c r="AW27" s="10">
+        <v>649.52</v>
+      </c>
       <c r="AX27" s="14">
         <v>618</v>
       </c>
@@ -4725,7 +4843,9 @@
       <c r="AV28" s="10">
         <v>456.58</v>
       </c>
-      <c r="AW28" s="10"/>
+      <c r="AW28" s="10">
+        <v>640.59</v>
+      </c>
       <c r="AX28" s="14">
         <v>447</v>
       </c>
@@ -4762,8 +4882,8 @@
   <sheetPr/>
   <dimension ref="B2:AY28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="AI15" workbookViewId="0">
-      <selection activeCell="AS29" sqref="AS29"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AW29" sqref="AW29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -5109,7 +5229,9 @@
       <c r="N5" s="3">
         <v>1328.54</v>
       </c>
-      <c r="O5" s="3"/>
+      <c r="O5" s="3">
+        <v>1345.49</v>
+      </c>
       <c r="P5" s="18">
         <v>1234</v>
       </c>
@@ -5155,7 +5277,9 @@
       <c r="AE5" s="10">
         <v>2015</v>
       </c>
-      <c r="AF5" s="10"/>
+      <c r="AF5" s="10">
+        <v>1870</v>
+      </c>
       <c r="AG5" s="19">
         <v>1691</v>
       </c>
@@ -5201,7 +5325,9 @@
       <c r="AV5" s="2">
         <v>44106.74</v>
       </c>
-      <c r="AW5" s="2"/>
+      <c r="AW5" s="2">
+        <v>44028.59</v>
+      </c>
       <c r="AX5" s="14">
         <v>37793</v>
       </c>
@@ -5269,7 +5395,9 @@
       <c r="AE6" s="10">
         <v>27728.02</v>
       </c>
-      <c r="AF6" s="10"/>
+      <c r="AF6" s="10">
+        <v>26506.82</v>
+      </c>
       <c r="AG6" s="19">
         <v>17634</v>
       </c>
@@ -5315,7 +5443,9 @@
       <c r="AV6" s="2">
         <v>15263.07</v>
       </c>
-      <c r="AW6" s="2"/>
+      <c r="AW6" s="2">
+        <v>17101.06</v>
+      </c>
       <c r="AX6" s="14">
         <v>14839</v>
       </c>
@@ -5363,7 +5493,9 @@
       <c r="N7" s="2">
         <v>3636</v>
       </c>
-      <c r="O7" s="2"/>
+      <c r="O7" s="2">
+        <v>3717</v>
+      </c>
       <c r="P7" s="19"/>
       <c r="Q7" s="14"/>
       <c r="S7" s="10" t="s">
@@ -5405,7 +5537,9 @@
       <c r="AE7" s="10">
         <v>3345</v>
       </c>
-      <c r="AF7" s="10"/>
+      <c r="AF7" s="10">
+        <v>3210</v>
+      </c>
       <c r="AG7" s="19"/>
       <c r="AH7" s="14"/>
       <c r="AJ7" s="10" t="s">
@@ -5447,7 +5581,9 @@
       <c r="AV7" s="2">
         <v>22971.05</v>
       </c>
-      <c r="AW7" s="2"/>
+      <c r="AW7" s="2">
+        <v>22849.76</v>
+      </c>
       <c r="AX7" s="14">
         <v>21420</v>
       </c>
@@ -5495,7 +5631,9 @@
       <c r="N8" s="2">
         <v>11707</v>
       </c>
-      <c r="O8" s="2"/>
+      <c r="O8" s="2">
+        <v>11665</v>
+      </c>
       <c r="P8" s="19"/>
       <c r="Q8" s="14"/>
       <c r="S8" s="10" t="s">
@@ -5561,7 +5699,9 @@
       <c r="AV8" s="2">
         <v>46500.98</v>
       </c>
-      <c r="AW8" s="2"/>
+      <c r="AW8" s="2">
+        <v>52717.31</v>
+      </c>
       <c r="AX8" s="14">
         <v>47911</v>
       </c>
@@ -5609,7 +5749,9 @@
       <c r="N9" s="2">
         <v>581</v>
       </c>
-      <c r="O9" s="2"/>
+      <c r="O9" s="2">
+        <v>631</v>
+      </c>
       <c r="P9" s="19">
         <v>581</v>
       </c>
@@ -5679,7 +5821,9 @@
       <c r="AV9" s="2">
         <v>26329.54</v>
       </c>
-      <c r="AW9" s="2"/>
+      <c r="AW9" s="2">
+        <v>26309.61</v>
+      </c>
       <c r="AX9" s="14">
         <v>26296</v>
       </c>
@@ -5727,7 +5871,9 @@
       <c r="N10" s="2">
         <v>838</v>
       </c>
-      <c r="O10" s="2"/>
+      <c r="O10" s="2">
+        <v>907</v>
+      </c>
       <c r="P10" s="19">
         <v>672</v>
       </c>
@@ -5797,7 +5943,9 @@
       <c r="AV10" s="2">
         <v>34036.73</v>
       </c>
-      <c r="AW10" s="2"/>
+      <c r="AW10" s="2">
+        <v>35951.88</v>
+      </c>
       <c r="AX10" s="14">
         <v>30712</v>
       </c>
@@ -5845,7 +5993,9 @@
       <c r="N11" s="2">
         <v>1813.95</v>
       </c>
-      <c r="O11" s="2"/>
+      <c r="O11" s="2">
+        <v>1915.64</v>
+      </c>
       <c r="P11" s="19">
         <v>1766</v>
       </c>
@@ -5911,7 +6061,9 @@
       <c r="AV11" s="2">
         <v>51993.05</v>
       </c>
-      <c r="AW11" s="2"/>
+      <c r="AW11" s="2">
+        <v>52932.54</v>
+      </c>
       <c r="AX11" s="14">
         <v>33349</v>
       </c>
@@ -5959,7 +6111,9 @@
       <c r="N12" s="2">
         <v>28438.57</v>
       </c>
-      <c r="O12" s="2"/>
+      <c r="O12" s="2">
+        <v>30231.8</v>
+      </c>
       <c r="P12" s="19">
         <v>24862</v>
       </c>
@@ -6025,7 +6179,9 @@
       <c r="AV12" s="2">
         <v>21297.39</v>
       </c>
-      <c r="AW12" s="2"/>
+      <c r="AW12" s="2">
+        <v>25149.11</v>
+      </c>
       <c r="AX12" s="14"/>
       <c r="AY12" s="14"/>
     </row>
@@ -6069,7 +6225,9 @@
       <c r="N13" s="2">
         <v>9455</v>
       </c>
-      <c r="O13" s="2"/>
+      <c r="O13" s="2">
+        <v>9495</v>
+      </c>
       <c r="P13" s="19"/>
       <c r="Q13" s="14"/>
       <c r="S13" s="10" t="s">
@@ -6111,7 +6269,9 @@
       <c r="AE13" s="10">
         <v>6289</v>
       </c>
-      <c r="AF13" s="10"/>
+      <c r="AF13" s="10">
+        <v>6255</v>
+      </c>
       <c r="AG13" s="19">
         <v>4238</v>
       </c>
@@ -6157,7 +6317,9 @@
       <c r="AV13" s="2">
         <v>23600.58</v>
       </c>
-      <c r="AW13" s="2"/>
+      <c r="AW13" s="2">
+        <v>25084.9</v>
+      </c>
       <c r="AX13" s="14"/>
       <c r="AY13" s="14"/>
     </row>
@@ -6201,7 +6363,9 @@
       <c r="N14" s="2">
         <v>1000</v>
       </c>
-      <c r="O14" s="2"/>
+      <c r="O14" s="2">
+        <v>1150</v>
+      </c>
       <c r="P14" s="19"/>
       <c r="Q14" s="14"/>
       <c r="S14" s="10" t="s">
@@ -6243,7 +6407,9 @@
       <c r="AE14" s="10">
         <v>10081.68</v>
       </c>
-      <c r="AF14" s="10"/>
+      <c r="AF14" s="10">
+        <v>10818.87</v>
+      </c>
       <c r="AG14" s="19">
         <v>9073</v>
       </c>
@@ -6289,7 +6455,9 @@
       <c r="AV14" s="2">
         <v>43478.16</v>
       </c>
-      <c r="AW14" s="2"/>
+      <c r="AW14" s="2">
+        <v>42619.94</v>
+      </c>
       <c r="AX14" s="14"/>
       <c r="AY14" s="14"/>
     </row>
@@ -6333,7 +6501,9 @@
       <c r="N15" s="2">
         <v>1339.12</v>
       </c>
-      <c r="O15" s="2"/>
+      <c r="O15" s="2">
+        <v>1592.99</v>
+      </c>
       <c r="P15" s="19">
         <v>842</v>
       </c>
@@ -6379,7 +6549,9 @@
       <c r="AE15" s="10">
         <v>13896.17</v>
       </c>
-      <c r="AF15" s="10"/>
+      <c r="AF15" s="10">
+        <v>14754.37</v>
+      </c>
       <c r="AG15" s="19">
         <v>11412</v>
       </c>
@@ -6457,7 +6629,9 @@
       <c r="N16" s="2">
         <v>2565.23</v>
       </c>
-      <c r="O16" s="2"/>
+      <c r="O16" s="2">
+        <v>2670.92</v>
+      </c>
       <c r="P16" s="19">
         <v>2492</v>
       </c>
@@ -6503,7 +6677,9 @@
       <c r="AE16" s="10">
         <v>15482.82</v>
       </c>
-      <c r="AF16" s="10"/>
+      <c r="AF16" s="10">
+        <v>15807.67</v>
+      </c>
       <c r="AG16" s="19">
         <v>13315</v>
       </c>
@@ -6549,7 +6725,9 @@
       <c r="AV16" s="2">
         <v>599.63</v>
       </c>
-      <c r="AW16" s="2"/>
+      <c r="AW16" s="2">
+        <v>624.02</v>
+      </c>
       <c r="AX16" s="14">
         <v>554</v>
       </c>
@@ -6597,7 +6775,9 @@
       <c r="N17" s="2">
         <v>3151.81</v>
       </c>
-      <c r="O17" s="2"/>
+      <c r="O17" s="2">
+        <v>3208.01</v>
+      </c>
       <c r="P17" s="19">
         <v>2772</v>
       </c>
@@ -6643,7 +6823,9 @@
       <c r="AE17" s="10">
         <v>10913.61</v>
       </c>
-      <c r="AF17" s="10"/>
+      <c r="AF17" s="10">
+        <v>10639.58</v>
+      </c>
       <c r="AG17" s="19">
         <v>9071</v>
       </c>
@@ -6689,7 +6871,9 @@
       <c r="AV17" s="2">
         <v>1143.23</v>
       </c>
-      <c r="AW17" s="2"/>
+      <c r="AW17" s="2">
+        <v>1176.12</v>
+      </c>
       <c r="AX17" s="14">
         <v>1106</v>
       </c>
@@ -6737,7 +6921,9 @@
       <c r="N18" s="2">
         <v>247</v>
       </c>
-      <c r="O18" s="2"/>
+      <c r="O18" s="2">
+        <v>267</v>
+      </c>
       <c r="P18" s="19">
         <v>227</v>
       </c>
@@ -6783,7 +6969,9 @@
       <c r="AE18" s="10">
         <v>11746.46</v>
       </c>
-      <c r="AF18" s="10"/>
+      <c r="AF18" s="10">
+        <v>12164.05</v>
+      </c>
       <c r="AG18" s="19">
         <v>11501</v>
       </c>
@@ -6829,7 +7017,9 @@
       <c r="AV18" s="2">
         <v>3503.28</v>
       </c>
-      <c r="AW18" s="2"/>
+      <c r="AW18" s="2">
+        <v>3613.57</v>
+      </c>
       <c r="AX18" s="14"/>
       <c r="AY18" s="14"/>
     </row>
@@ -6873,7 +7063,9 @@
       <c r="N19" s="2">
         <v>190.24</v>
       </c>
-      <c r="O19" s="2"/>
+      <c r="O19" s="2">
+        <v>195.66</v>
+      </c>
       <c r="P19" s="19">
         <v>179</v>
       </c>
@@ -6919,7 +7111,9 @@
       <c r="AE19" s="10">
         <v>15789.91</v>
       </c>
-      <c r="AF19" s="10"/>
+      <c r="AF19" s="10">
+        <v>16161.46</v>
+      </c>
       <c r="AG19" s="19">
         <v>12787</v>
       </c>
@@ -6957,7 +7151,9 @@
       <c r="AV19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AW19" s="2"/>
+      <c r="AW19" s="2">
+        <v>4811.61</v>
+      </c>
       <c r="AX19" s="14"/>
       <c r="AY19" s="14"/>
     </row>
@@ -7001,7 +7197,9 @@
       <c r="N20" s="2">
         <v>224.72</v>
       </c>
-      <c r="O20" s="2"/>
+      <c r="O20" s="2">
+        <v>231.97</v>
+      </c>
       <c r="P20" s="19">
         <v>217</v>
       </c>
@@ -7047,7 +7245,9 @@
       <c r="AE20" s="10">
         <v>11241.49</v>
       </c>
-      <c r="AF20" s="10"/>
+      <c r="AF20" s="10">
+        <v>11534.65</v>
+      </c>
       <c r="AG20" s="19">
         <v>9428</v>
       </c>
@@ -7093,7 +7293,9 @@
       <c r="AV20" s="2">
         <v>10435</v>
       </c>
-      <c r="AW20" s="2"/>
+      <c r="AW20" s="2">
+        <v>10403</v>
+      </c>
       <c r="AX20" s="14"/>
       <c r="AY20" s="14"/>
     </row>
@@ -7137,7 +7339,9 @@
       <c r="N21" s="2">
         <v>332.22</v>
       </c>
-      <c r="O21" s="2"/>
+      <c r="O21" s="2">
+        <v>306.67</v>
+      </c>
       <c r="P21" s="19">
         <v>249</v>
       </c>
@@ -7183,7 +7387,9 @@
       <c r="AE21" s="10">
         <v>11210.26</v>
       </c>
-      <c r="AF21" s="10"/>
+      <c r="AF21" s="10">
+        <v>11251.45</v>
+      </c>
       <c r="AG21" s="19">
         <v>8808</v>
       </c>
@@ -7229,7 +7435,9 @@
       <c r="AV21" s="2">
         <v>23155</v>
       </c>
-      <c r="AW21" s="2"/>
+      <c r="AW21" s="2">
+        <v>23454</v>
+      </c>
       <c r="AX21" s="14"/>
       <c r="AY21" s="14"/>
     </row>
@@ -7273,7 +7481,9 @@
       <c r="N22" s="2">
         <v>391</v>
       </c>
-      <c r="O22" s="2"/>
+      <c r="O22" s="2">
+        <v>365</v>
+      </c>
       <c r="P22" s="19">
         <v>308</v>
       </c>
@@ -7319,7 +7529,9 @@
       <c r="AE22" s="10">
         <v>9385</v>
       </c>
-      <c r="AF22" s="10"/>
+      <c r="AF22" s="10">
+        <v>10145.38</v>
+      </c>
       <c r="AG22" s="19">
         <v>9370</v>
       </c>
@@ -7397,7 +7609,9 @@
       <c r="N23" s="2">
         <v>1200.69</v>
       </c>
-      <c r="O23" s="2"/>
+      <c r="O23" s="2">
+        <v>1231.94</v>
+      </c>
       <c r="P23" s="19">
         <v>1049</v>
       </c>
@@ -7443,7 +7657,9 @@
       <c r="AE23" s="10">
         <v>5645.72</v>
       </c>
-      <c r="AF23" s="10"/>
+      <c r="AF23" s="10">
+        <v>6482.68</v>
+      </c>
       <c r="AG23" s="19">
         <v>5532</v>
       </c>
@@ -7489,7 +7705,9 @@
       <c r="AV23" s="2">
         <v>280.47</v>
       </c>
-      <c r="AW23" s="2"/>
+      <c r="AW23" s="2">
+        <v>314.66</v>
+      </c>
       <c r="AX23" s="14">
         <v>250</v>
       </c>
@@ -7537,7 +7755,9 @@
       <c r="N24" s="2">
         <v>359</v>
       </c>
-      <c r="O24" s="2"/>
+      <c r="O24" s="2">
+        <v>396</v>
+      </c>
       <c r="P24" s="19">
         <v>359</v>
       </c>
@@ -7583,7 +7803,9 @@
       <c r="AE24" s="10">
         <v>20320.61</v>
       </c>
-      <c r="AF24" s="10"/>
+      <c r="AF24" s="10">
+        <v>21491.2</v>
+      </c>
       <c r="AG24" s="19">
         <v>17655</v>
       </c>
@@ -7629,7 +7851,9 @@
       <c r="AV24" s="2">
         <v>455</v>
       </c>
-      <c r="AW24" s="2"/>
+      <c r="AW24" s="2">
+        <v>517</v>
+      </c>
       <c r="AX24" s="14">
         <v>132</v>
       </c>
@@ -7677,7 +7901,9 @@
       <c r="N25" s="2">
         <v>1103</v>
       </c>
-      <c r="O25" s="2"/>
+      <c r="O25" s="2">
+        <v>903</v>
+      </c>
       <c r="P25" s="19">
         <v>683</v>
       </c>
@@ -7753,7 +7979,9 @@
       <c r="AV25" s="2">
         <v>70588.91</v>
       </c>
-      <c r="AW25" s="2"/>
+      <c r="AW25" s="2">
+        <v>74487.77</v>
+      </c>
       <c r="AX25" s="14"/>
       <c r="AY25" s="14"/>
     </row>
@@ -7797,7 +8025,9 @@
       <c r="N26" s="2">
         <v>438</v>
       </c>
-      <c r="O26" s="2"/>
+      <c r="O26" s="2">
+        <v>539</v>
+      </c>
       <c r="P26" s="19">
         <v>396</v>
       </c>
@@ -7843,7 +8073,9 @@
       <c r="AE26" s="10">
         <v>1277</v>
       </c>
-      <c r="AF26" s="10"/>
+      <c r="AF26" s="10">
+        <v>1285</v>
+      </c>
       <c r="AG26" s="19"/>
       <c r="AH26" s="14"/>
       <c r="AJ26" s="10" t="s">
@@ -7885,7 +8117,9 @@
       <c r="AV26" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AW26" s="2"/>
+      <c r="AW26" s="2">
+        <v>2182.47</v>
+      </c>
       <c r="AX26" s="14"/>
       <c r="AY26" s="14"/>
     </row>
@@ -7929,7 +8163,9 @@
       <c r="AV27" s="2">
         <v>1981.71</v>
       </c>
-      <c r="AW27" s="2"/>
+      <c r="AW27" s="2">
+        <v>2315.62</v>
+      </c>
       <c r="AX27" s="14">
         <v>1329</v>
       </c>
@@ -7977,7 +8213,9 @@
       <c r="AV28" s="2">
         <v>2062.92</v>
       </c>
-      <c r="AW28" s="2"/>
+      <c r="AW28" s="2">
+        <v>2442.5</v>
+      </c>
       <c r="AX28" s="14">
         <v>1473</v>
       </c>
@@ -8014,8 +8252,8 @@
   <sheetPr/>
   <dimension ref="B2:AY28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="AJ15" workbookViewId="0">
-      <selection activeCell="AS29" sqref="AS29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AW29" sqref="AW29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -8366,7 +8604,9 @@
       <c r="N5" s="2">
         <v>1981.96</v>
       </c>
-      <c r="O5" s="2"/>
+      <c r="O5" s="2">
+        <v>1998.77</v>
+      </c>
       <c r="P5" s="8">
         <v>1894</v>
       </c>
@@ -8412,7 +8652,9 @@
       <c r="AE5" s="2">
         <v>3460</v>
       </c>
-      <c r="AF5" s="2"/>
+      <c r="AF5" s="2">
+        <v>3641</v>
+      </c>
       <c r="AG5" s="14">
         <v>3135</v>
       </c>
@@ -8458,7 +8700,9 @@
       <c r="AV5" s="2">
         <v>62006.81</v>
       </c>
-      <c r="AW5" s="2"/>
+      <c r="AW5" s="2">
+        <v>61648.17</v>
+      </c>
       <c r="AX5" s="14">
         <v>62262</v>
       </c>
@@ -8526,7 +8770,9 @@
       <c r="AE6" s="2">
         <v>40577.79</v>
       </c>
-      <c r="AF6" s="2"/>
+      <c r="AF6" s="2">
+        <v>40479.53</v>
+      </c>
       <c r="AG6" s="14">
         <v>29257</v>
       </c>
@@ -8572,7 +8818,9 @@
       <c r="AV6" s="2">
         <v>34216.34</v>
       </c>
-      <c r="AW6" s="2"/>
+      <c r="AW6" s="2">
+        <v>33658.06</v>
+      </c>
       <c r="AX6" s="14">
         <v>29684</v>
       </c>
@@ -8620,7 +8868,9 @@
       <c r="N7" s="2">
         <v>6453</v>
       </c>
-      <c r="O7" s="2"/>
+      <c r="O7" s="2">
+        <v>6899</v>
+      </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="12"/>
       <c r="S7" s="10" t="s">
@@ -8662,7 +8912,9 @@
       <c r="AE7" s="2">
         <v>4978</v>
       </c>
-      <c r="AF7" s="2"/>
+      <c r="AF7" s="2">
+        <v>4932</v>
+      </c>
       <c r="AG7" s="14"/>
       <c r="AH7" s="14"/>
       <c r="AJ7" s="10" t="s">
@@ -8704,7 +8956,9 @@
       <c r="AV7" s="2">
         <v>37713.82</v>
       </c>
-      <c r="AW7" s="2"/>
+      <c r="AW7" s="2">
+        <v>41505.54</v>
+      </c>
       <c r="AX7" s="14">
         <v>36977</v>
       </c>
@@ -8752,7 +9006,9 @@
       <c r="N8" s="2">
         <v>19559</v>
       </c>
-      <c r="O8" s="2"/>
+      <c r="O8" s="2">
+        <v>19735</v>
+      </c>
       <c r="P8" s="8"/>
       <c r="Q8" s="12"/>
       <c r="S8" s="10" t="s">
@@ -8818,7 +9074,9 @@
       <c r="AV8" s="2">
         <v>77635.73</v>
       </c>
-      <c r="AW8" s="2"/>
+      <c r="AW8" s="2">
+        <v>80171.9</v>
+      </c>
       <c r="AX8" s="14">
         <v>67879</v>
       </c>
@@ -8866,7 +9124,9 @@
       <c r="N9" s="2">
         <v>1023</v>
       </c>
-      <c r="O9" s="2"/>
+      <c r="O9" s="2">
+        <v>1064</v>
+      </c>
       <c r="P9" s="8">
         <v>929</v>
       </c>
@@ -8936,7 +9196,9 @@
       <c r="AV9" s="2">
         <v>42495.67</v>
       </c>
-      <c r="AW9" s="2"/>
+      <c r="AW9" s="2">
+        <v>42952.99</v>
+      </c>
       <c r="AX9" s="14">
         <v>40274</v>
       </c>
@@ -8984,7 +9246,9 @@
       <c r="N10" s="2">
         <v>1194</v>
       </c>
-      <c r="O10" s="2"/>
+      <c r="O10" s="2">
+        <v>1277</v>
+      </c>
       <c r="P10" s="8">
         <v>1090</v>
       </c>
@@ -9054,7 +9318,9 @@
       <c r="AV10" s="2">
         <v>49587.01</v>
       </c>
-      <c r="AW10" s="2"/>
+      <c r="AW10" s="2">
+        <v>52601.62</v>
+      </c>
       <c r="AX10" s="14">
         <v>46434</v>
       </c>
@@ -9102,7 +9368,9 @@
       <c r="N11" s="2">
         <v>4501.89</v>
       </c>
-      <c r="O11" s="2"/>
+      <c r="O11" s="2">
+        <v>4898.62</v>
+      </c>
       <c r="P11" s="8">
         <v>3853</v>
       </c>
@@ -9168,7 +9436,9 @@
       <c r="AV11" s="2">
         <v>70462.56</v>
       </c>
-      <c r="AW11" s="2"/>
+      <c r="AW11" s="2">
+        <v>70984.94</v>
+      </c>
       <c r="AX11" s="14">
         <v>49022</v>
       </c>
@@ -9216,7 +9486,9 @@
       <c r="N12" s="2">
         <v>52051.58</v>
       </c>
-      <c r="O12" s="2"/>
+      <c r="O12" s="2">
+        <v>55267.25</v>
+      </c>
       <c r="P12" s="8">
         <v>51542</v>
       </c>
@@ -9282,7 +9554,9 @@
       <c r="AV12" s="2">
         <v>36542.39</v>
       </c>
-      <c r="AW12" s="2"/>
+      <c r="AW12" s="2">
+        <v>39827.34</v>
+      </c>
       <c r="AX12" s="14"/>
       <c r="AY12" s="14"/>
     </row>
@@ -9326,7 +9600,9 @@
       <c r="N13" s="2">
         <v>12573</v>
       </c>
-      <c r="O13" s="2"/>
+      <c r="O13" s="2">
+        <v>13230</v>
+      </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="12"/>
       <c r="S13" s="10" t="s">
@@ -9368,7 +9644,9 @@
       <c r="AE13" s="2">
         <v>8281</v>
       </c>
-      <c r="AF13" s="2"/>
+      <c r="AF13" s="2">
+        <v>8642</v>
+      </c>
       <c r="AG13" s="14">
         <v>6937</v>
       </c>
@@ -9414,7 +9692,9 @@
       <c r="AV13" s="2">
         <v>36957.58</v>
       </c>
-      <c r="AW13" s="2"/>
+      <c r="AW13" s="2">
+        <v>39177.22</v>
+      </c>
       <c r="AX13" s="14"/>
       <c r="AY13" s="14"/>
     </row>
@@ -9458,7 +9738,9 @@
       <c r="N14" s="2">
         <v>1470</v>
       </c>
-      <c r="O14" s="2"/>
+      <c r="O14" s="2">
+        <v>1590</v>
+      </c>
       <c r="P14" s="8"/>
       <c r="Q14" s="12"/>
       <c r="S14" s="10" t="s">
@@ -9500,7 +9782,9 @@
       <c r="AE14" s="2">
         <v>15544.88</v>
       </c>
-      <c r="AF14" s="2"/>
+      <c r="AF14" s="2">
+        <v>16539.95</v>
+      </c>
       <c r="AG14" s="14">
         <v>13982</v>
       </c>
@@ -9546,7 +9830,9 @@
       <c r="AV14" s="2">
         <v>62569.65</v>
       </c>
-      <c r="AW14" s="2"/>
+      <c r="AW14" s="2">
+        <v>65237.16</v>
+      </c>
       <c r="AX14" s="14"/>
       <c r="AY14" s="14"/>
     </row>
@@ -9590,7 +9876,9 @@
       <c r="N15" s="2">
         <v>1884.68</v>
       </c>
-      <c r="O15" s="2"/>
+      <c r="O15" s="2">
+        <v>2047</v>
+      </c>
       <c r="P15" s="8">
         <v>1349</v>
       </c>
@@ -9636,7 +9924,9 @@
       <c r="AE15" s="2">
         <v>20412.16</v>
       </c>
-      <c r="AF15" s="2"/>
+      <c r="AF15" s="2">
+        <v>20992.62</v>
+      </c>
       <c r="AG15" s="14">
         <v>17787</v>
       </c>
@@ -9710,7 +10000,9 @@
       <c r="N16" s="2">
         <v>4328.01</v>
       </c>
-      <c r="O16" s="2"/>
+      <c r="O16" s="2">
+        <v>4626.48</v>
+      </c>
       <c r="P16" s="8">
         <v>4062</v>
       </c>
@@ -9756,7 +10048,9 @@
       <c r="AE16" s="2">
         <v>22427.35</v>
       </c>
-      <c r="AF16" s="2"/>
+      <c r="AF16" s="2">
+        <v>22422.54</v>
+      </c>
       <c r="AG16" s="14">
         <v>20705</v>
       </c>
@@ -9802,7 +10096,9 @@
       <c r="AV16" s="2">
         <v>924.39</v>
       </c>
-      <c r="AW16" s="2"/>
+      <c r="AW16" s="2">
+        <v>999.2</v>
+      </c>
       <c r="AX16" s="14">
         <v>868</v>
       </c>
@@ -9850,7 +10146,9 @@
       <c r="N17" s="2">
         <v>4933.01</v>
       </c>
-      <c r="O17" s="2"/>
+      <c r="O17" s="2">
+        <v>5063.63</v>
+      </c>
       <c r="P17" s="8">
         <v>4480</v>
       </c>
@@ -9896,7 +10194,9 @@
       <c r="AE17" s="2">
         <v>17030.73</v>
       </c>
-      <c r="AF17" s="2"/>
+      <c r="AF17" s="2">
+        <v>17619.81</v>
+      </c>
       <c r="AG17" s="14">
         <v>14648</v>
       </c>
@@ -9942,7 +10242,9 @@
       <c r="AV17" s="2">
         <v>1765.59</v>
       </c>
-      <c r="AW17" s="2"/>
+      <c r="AW17" s="2">
+        <v>1851.19</v>
+      </c>
       <c r="AX17" s="14">
         <v>1669</v>
       </c>
@@ -9990,7 +10292,9 @@
       <c r="N18" s="2">
         <v>390</v>
       </c>
-      <c r="O18" s="2"/>
+      <c r="O18" s="2">
+        <v>433</v>
+      </c>
       <c r="P18" s="8">
         <v>404</v>
       </c>
@@ -10036,7 +10340,9 @@
       <c r="AE18" s="2">
         <v>19376.91</v>
       </c>
-      <c r="AF18" s="2"/>
+      <c r="AF18" s="2">
+        <v>19113.56</v>
+      </c>
       <c r="AG18" s="14">
         <v>17090</v>
       </c>
@@ -10080,7 +10386,9 @@
       <c r="AV18" s="2">
         <v>5215.22</v>
       </c>
-      <c r="AW18" s="2"/>
+      <c r="AW18" s="2">
+        <v>5524.91</v>
+      </c>
       <c r="AX18" s="14"/>
       <c r="AY18" s="14"/>
     </row>
@@ -10124,7 +10432,9 @@
       <c r="N19" s="2">
         <v>294.57</v>
       </c>
-      <c r="O19" s="2"/>
+      <c r="O19" s="2">
+        <v>286.79</v>
+      </c>
       <c r="P19" s="8">
         <v>278</v>
       </c>
@@ -10170,7 +10480,9 @@
       <c r="AE19" s="2">
         <v>24342.48</v>
       </c>
-      <c r="AF19" s="2"/>
+      <c r="AF19" s="2">
+        <v>24895.61</v>
+      </c>
       <c r="AG19" s="14">
         <v>20553</v>
       </c>
@@ -10250,7 +10562,9 @@
       <c r="N20" s="2">
         <v>368.09</v>
       </c>
-      <c r="O20" s="2"/>
+      <c r="O20" s="2">
+        <v>368.06</v>
+      </c>
       <c r="P20" s="8">
         <v>345</v>
       </c>
@@ -10296,7 +10610,9 @@
       <c r="AE20" s="2">
         <v>17331.99</v>
       </c>
-      <c r="AF20" s="2"/>
+      <c r="AF20" s="2">
+        <v>17691.31</v>
+      </c>
       <c r="AG20" s="14">
         <v>14295</v>
       </c>
@@ -10342,7 +10658,9 @@
       <c r="AV20" s="2">
         <v>15960</v>
       </c>
-      <c r="AW20" s="2"/>
+      <c r="AW20" s="2">
+        <v>16166</v>
+      </c>
       <c r="AX20" s="14"/>
       <c r="AY20" s="14"/>
     </row>
@@ -10386,7 +10704,9 @@
       <c r="N21" s="2">
         <v>445.78</v>
       </c>
-      <c r="O21" s="2"/>
+      <c r="O21" s="2">
+        <v>456.79</v>
+      </c>
       <c r="P21" s="8">
         <v>398</v>
       </c>
@@ -10432,7 +10752,9 @@
       <c r="AE21" s="2">
         <v>16911.52</v>
       </c>
-      <c r="AF21" s="2"/>
+      <c r="AF21" s="2">
+        <v>16983.06</v>
+      </c>
       <c r="AG21" s="14">
         <v>13884</v>
       </c>
@@ -10478,7 +10800,9 @@
       <c r="AV21" s="2">
         <v>35455</v>
       </c>
-      <c r="AW21" s="2"/>
+      <c r="AW21" s="2">
+        <v>35729</v>
+      </c>
       <c r="AX21" s="14"/>
       <c r="AY21" s="14"/>
     </row>
@@ -10522,7 +10846,9 @@
       <c r="N22" s="2">
         <v>553</v>
       </c>
-      <c r="O22" s="2"/>
+      <c r="O22" s="2">
+        <v>655</v>
+      </c>
       <c r="P22" s="8">
         <v>492</v>
       </c>
@@ -10568,7 +10894,9 @@
       <c r="AE22" s="2">
         <v>16827.45</v>
       </c>
-      <c r="AF22" s="2"/>
+      <c r="AF22" s="2">
+        <v>17708.66</v>
+      </c>
       <c r="AG22" s="14">
         <v>15347</v>
       </c>
@@ -10642,7 +10970,9 @@
       <c r="N23" s="2">
         <v>1844.94</v>
       </c>
-      <c r="O23" s="2"/>
+      <c r="O23" s="2">
+        <v>1874.52</v>
+      </c>
       <c r="P23" s="8">
         <v>1671</v>
       </c>
@@ -10688,7 +11018,9 @@
       <c r="AE23" s="2">
         <v>8969.56</v>
       </c>
-      <c r="AF23" s="2"/>
+      <c r="AF23" s="2">
+        <v>9966.7</v>
+      </c>
       <c r="AG23" s="14">
         <v>8412</v>
       </c>
@@ -10734,7 +11066,9 @@
       <c r="AV23" s="2">
         <v>511.54</v>
       </c>
-      <c r="AW23" s="2"/>
+      <c r="AW23" s="2">
+        <v>528.49</v>
+      </c>
       <c r="AX23" s="14">
         <v>437</v>
       </c>
@@ -10782,7 +11116,9 @@
       <c r="N24" s="2">
         <v>640</v>
       </c>
-      <c r="O24" s="2"/>
+      <c r="O24" s="2">
+        <v>851</v>
+      </c>
       <c r="P24" s="8">
         <v>640</v>
       </c>
@@ -10828,7 +11164,9 @@
       <c r="AE24" s="2">
         <v>32515.89</v>
       </c>
-      <c r="AF24" s="2"/>
+      <c r="AF24" s="2">
+        <v>34843.11</v>
+      </c>
       <c r="AG24" s="14">
         <v>27963</v>
       </c>
@@ -10874,7 +11212,9 @@
       <c r="AV24" s="2">
         <v>730</v>
       </c>
-      <c r="AW24" s="2"/>
+      <c r="AW24" s="2">
+        <v>795</v>
+      </c>
       <c r="AX24" s="14">
         <v>281</v>
       </c>
@@ -10922,7 +11262,9 @@
       <c r="N25" s="2">
         <v>1276</v>
       </c>
-      <c r="O25" s="2"/>
+      <c r="O25" s="2">
+        <v>1577</v>
+      </c>
       <c r="P25" s="8">
         <v>1276</v>
       </c>
@@ -10994,7 +11336,9 @@
       <c r="AV25" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AW25" s="2"/>
+      <c r="AW25" s="2">
+        <v>87845.96</v>
+      </c>
       <c r="AX25" s="14"/>
       <c r="AY25" s="14"/>
     </row>
@@ -11038,7 +11382,9 @@
       <c r="N26" s="2">
         <v>799</v>
       </c>
-      <c r="O26" s="2"/>
+      <c r="O26" s="2">
+        <v>924</v>
+      </c>
       <c r="P26" s="8">
         <v>763</v>
       </c>
@@ -11084,7 +11430,9 @@
       <c r="AE26" s="2">
         <v>2091</v>
       </c>
-      <c r="AF26" s="2"/>
+      <c r="AF26" s="2">
+        <v>2100</v>
+      </c>
       <c r="AG26" s="14"/>
       <c r="AH26" s="14"/>
       <c r="AJ26" s="10" t="s">
@@ -11126,7 +11474,9 @@
       <c r="AV26" s="2">
         <v>2827.67</v>
       </c>
-      <c r="AW26" s="2"/>
+      <c r="AW26" s="2">
+        <v>2894.55</v>
+      </c>
       <c r="AX26" s="14"/>
       <c r="AY26" s="14"/>
     </row>
@@ -11170,7 +11520,9 @@
       <c r="AV27" s="2">
         <v>2852.11</v>
       </c>
-      <c r="AW27" s="2"/>
+      <c r="AW27" s="2">
+        <v>3506.26</v>
+      </c>
       <c r="AX27" s="14">
         <v>2704</v>
       </c>
@@ -11218,7 +11570,9 @@
       <c r="AV28" s="2">
         <v>2825.56</v>
       </c>
-      <c r="AW28" s="2"/>
+      <c r="AW28" s="2">
+        <v>3461.13</v>
+      </c>
       <c r="AX28" s="14">
         <v>2618</v>
       </c>

--- a/Comparaçoes/BuscasLocais.xlsx
+++ b/Comparaçoes/BuscasLocais.xlsx
@@ -11629,7 +11629,7 @@
   <dimension ref="B2:U71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I60" workbookViewId="0">
-      <selection activeCell="R72" sqref="R72"/>
+      <selection activeCell="S72" sqref="S72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.75"/>
@@ -11741,7 +11741,9 @@
       <c r="D4" s="6">
         <v>857.38</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="6">
+        <v>857.38</v>
+      </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="I4" s="9" t="s">
@@ -11753,7 +11755,9 @@
       <c r="K4" s="6">
         <v>1642.39</v>
       </c>
-      <c r="L4" s="6"/>
+      <c r="L4" s="6">
+        <v>1569.58</v>
+      </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="P4" s="9" t="s">
@@ -11765,7 +11769,9 @@
       <c r="R4" s="6">
         <v>2223.48</v>
       </c>
-      <c r="S4" s="6"/>
+      <c r="S4" s="6">
+        <v>2143.09</v>
+      </c>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
     </row>
@@ -11811,7 +11817,9 @@
       <c r="D6" s="6">
         <v>1193</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="6">
+        <v>1193</v>
+      </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="I6" s="9" t="s">
@@ -11823,7 +11831,9 @@
       <c r="K6" s="6">
         <v>4127</v>
       </c>
-      <c r="L6" s="6"/>
+      <c r="L6" s="6">
+        <v>3950</v>
+      </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="P6" s="9" t="s">
@@ -11835,7 +11845,9 @@
       <c r="R6" s="6">
         <v>6346</v>
       </c>
-      <c r="S6" s="6"/>
+      <c r="S6" s="6">
+        <v>6152</v>
+      </c>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
     </row>
@@ -11849,7 +11861,9 @@
       <c r="D7" s="6">
         <v>6774</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="6">
+        <v>6212</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="I7" s="9" t="s">
@@ -11861,7 +11875,9 @@
       <c r="K7" s="6">
         <v>17916</v>
       </c>
-      <c r="L7" s="6"/>
+      <c r="L7" s="6">
+        <v>16695</v>
+      </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="P7" s="9" t="s">
@@ -11873,7 +11889,9 @@
       <c r="R7" s="6">
         <v>24187</v>
       </c>
-      <c r="S7" s="6"/>
+      <c r="S7" s="6">
+        <v>22975</v>
+      </c>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
     </row>
@@ -11887,7 +11905,9 @@
       <c r="D8" s="6">
         <v>285</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="6">
+        <v>285</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="I8" s="9" t="s">
@@ -11899,7 +11919,9 @@
       <c r="K8" s="6">
         <v>747</v>
       </c>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6">
+        <v>747</v>
+      </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="P8" s="9" t="s">
@@ -11911,7 +11933,9 @@
       <c r="R8" s="6">
         <v>1082</v>
       </c>
-      <c r="S8" s="6"/>
+      <c r="S8" s="6">
+        <v>1048</v>
+      </c>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
     </row>
@@ -11925,7 +11949,9 @@
       <c r="D9" s="6">
         <v>378</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="6">
+        <v>378</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="I9" s="9" t="s">
@@ -11937,7 +11963,9 @@
       <c r="K9" s="6">
         <v>898</v>
       </c>
-      <c r="L9" s="6"/>
+      <c r="L9" s="6">
+        <v>898</v>
+      </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="P9" s="9" t="s">
@@ -11949,7 +11977,9 @@
       <c r="R9" s="6">
         <v>1251</v>
       </c>
-      <c r="S9" s="6"/>
+      <c r="S9" s="6">
+        <v>1239</v>
+      </c>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
     </row>
@@ -11963,7 +11993,9 @@
       <c r="D10" s="6">
         <v>559.76</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6">
+        <v>559.76</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="I10" s="9" t="s">
@@ -11975,7 +12007,9 @@
       <c r="K10" s="6">
         <v>2277.18</v>
       </c>
-      <c r="L10" s="6"/>
+      <c r="L10" s="6">
+        <v>2175.72</v>
+      </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="P10" s="9" t="s">
@@ -11987,7 +12021,9 @@
       <c r="R10" s="6">
         <v>4238.23</v>
       </c>
-      <c r="S10" s="6"/>
+      <c r="S10" s="6">
+        <v>4190.79</v>
+      </c>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
     </row>
@@ -12001,7 +12037,9 @@
       <c r="D11" s="6">
         <v>14467.58</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="6">
+        <v>13839.92</v>
+      </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="I11" s="9" t="s">
@@ -12013,7 +12051,9 @@
       <c r="K11" s="6">
         <v>30624.72</v>
       </c>
-      <c r="L11" s="6"/>
+      <c r="L11" s="6">
+        <v>29458.33</v>
+      </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="P11" s="9" t="s">
@@ -12025,7 +12065,9 @@
       <c r="R11" s="6">
         <v>57110.28</v>
       </c>
-      <c r="S11" s="6"/>
+      <c r="S11" s="6">
+        <v>53394.19</v>
+      </c>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
     </row>
@@ -12039,7 +12081,9 @@
       <c r="D12" s="6">
         <v>4530</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="6">
+        <v>4530</v>
+      </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="I12" s="9" t="s">
@@ -12051,7 +12095,9 @@
       <c r="K12" s="6">
         <v>9537</v>
       </c>
-      <c r="L12" s="6"/>
+      <c r="L12" s="6">
+        <v>9537</v>
+      </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="P12" s="9" t="s">
@@ -12063,7 +12109,9 @@
       <c r="R12" s="6">
         <v>12888</v>
       </c>
-      <c r="S12" s="6"/>
+      <c r="S12" s="6">
+        <v>12888</v>
+      </c>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
     </row>
@@ -12077,7 +12125,9 @@
       <c r="D13" s="6">
         <v>560</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="6">
+        <v>540</v>
+      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="I13" s="9" t="s">
@@ -12089,7 +12139,9 @@
       <c r="K13" s="6">
         <v>1360</v>
       </c>
-      <c r="L13" s="6"/>
+      <c r="L13" s="6">
+        <v>1230</v>
+      </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="P13" s="9" t="s">
@@ -12101,7 +12153,9 @@
       <c r="R13" s="6">
         <v>1950</v>
       </c>
-      <c r="S13" s="6"/>
+      <c r="S13" s="6">
+        <v>1730</v>
+      </c>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
     </row>
@@ -12115,7 +12169,9 @@
       <c r="D14" s="6">
         <v>308.18</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="6">
+        <v>308.18</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="I14" s="9" t="s">
@@ -12127,7 +12183,9 @@
       <c r="K14" s="6">
         <v>967.87</v>
       </c>
-      <c r="L14" s="6"/>
+      <c r="L14" s="6">
+        <v>967.86</v>
+      </c>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="P14" s="9" t="s">
@@ -12139,7 +12197,9 @@
       <c r="R14" s="6">
         <v>1528.5</v>
       </c>
-      <c r="S14" s="6"/>
+      <c r="S14" s="6">
+        <v>1528.5</v>
+      </c>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
     </row>
@@ -12153,7 +12213,9 @@
       <c r="D15" s="6">
         <v>1344.27</v>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="6">
+        <v>1340.93</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="I15" s="9" t="s">
@@ -12165,7 +12227,9 @@
       <c r="K15" s="6">
         <v>3085.96</v>
       </c>
-      <c r="L15" s="6"/>
+      <c r="L15" s="6">
+        <v>2878.11</v>
+      </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="P15" s="9" t="s">
@@ -12177,7 +12241,9 @@
       <c r="R15" s="6">
         <v>4975.69</v>
       </c>
-      <c r="S15" s="6"/>
+      <c r="S15" s="6">
+        <v>4649.43</v>
+      </c>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
     </row>
@@ -12191,7 +12257,9 @@
       <c r="D16" s="6">
         <v>1657.12</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="6">
+        <v>1576.27</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="I16" s="9" t="s">
@@ -12203,7 +12271,9 @@
       <c r="K16" s="6">
         <v>3670.88</v>
       </c>
-      <c r="L16" s="6"/>
+      <c r="L16" s="6">
+        <v>3552.23</v>
+      </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="P16" s="9" t="s">
@@ -12215,7 +12285,9 @@
       <c r="R16" s="6">
         <v>5377.04</v>
       </c>
-      <c r="S16" s="6"/>
+      <c r="S16" s="6">
+        <v>5208.78</v>
+      </c>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
     </row>
@@ -12229,7 +12301,9 @@
       <c r="D17" s="6">
         <v>125</v>
       </c>
-      <c r="E17" s="6"/>
+      <c r="E17" s="6">
+        <v>125</v>
+      </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="I17" s="9" t="s">
@@ -12241,7 +12315,9 @@
       <c r="K17" s="6">
         <v>296</v>
       </c>
-      <c r="L17" s="6"/>
+      <c r="L17" s="6">
+        <v>289</v>
+      </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="P17" s="9" t="s">
@@ -12253,7 +12329,9 @@
       <c r="R17" s="6">
         <v>444</v>
       </c>
-      <c r="S17" s="6"/>
+      <c r="S17" s="6">
+        <v>431</v>
+      </c>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
     </row>
@@ -12267,7 +12345,9 @@
       <c r="D18" s="6">
         <v>80.96</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="6">
+        <v>81.49</v>
+      </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="I18" s="9" t="s">
@@ -12279,7 +12359,9 @@
       <c r="K18" s="6">
         <v>187.81</v>
       </c>
-      <c r="L18" s="6"/>
+      <c r="L18" s="6">
+        <v>187.81</v>
+      </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="P18" s="9" t="s">
@@ -12291,7 +12373,9 @@
       <c r="R18" s="6">
         <v>332.12</v>
       </c>
-      <c r="S18" s="6"/>
+      <c r="S18" s="6">
+        <v>317.48</v>
+      </c>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
     </row>
@@ -12305,7 +12389,9 @@
       <c r="D19" s="6">
         <v>114.81</v>
       </c>
-      <c r="E19" s="6"/>
+      <c r="E19" s="6">
+        <v>114.38</v>
+      </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="I19" s="9" t="s">
@@ -12317,7 +12403,9 @@
       <c r="K19" s="6">
         <v>245.31</v>
       </c>
-      <c r="L19" s="6"/>
+      <c r="L19" s="6">
+        <v>245.31</v>
+      </c>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="P19" s="9" t="s">
@@ -12329,7 +12417,9 @@
       <c r="R19" s="6">
         <v>379.13</v>
       </c>
-      <c r="S19" s="6"/>
+      <c r="S19" s="6">
+        <v>367.562</v>
+      </c>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
     </row>
@@ -12343,7 +12433,9 @@
       <c r="D20" s="6">
         <v>142.412</v>
       </c>
-      <c r="E20" s="6"/>
+      <c r="E20" s="6">
+        <v>139.65</v>
+      </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="I20" s="9" t="s">
@@ -12355,7 +12447,9 @@
       <c r="K20" s="6">
         <v>319.66</v>
       </c>
-      <c r="L20" s="6"/>
+      <c r="L20" s="6">
+        <v>317.71</v>
+      </c>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="P20" s="9" t="s">
@@ -12367,7 +12461,9 @@
       <c r="R20" s="6">
         <v>446.94</v>
       </c>
-      <c r="S20" s="6"/>
+      <c r="S20" s="6">
+        <v>444.34</v>
+      </c>
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
     </row>
@@ -12381,7 +12477,9 @@
       <c r="D21" s="6">
         <v>148</v>
       </c>
-      <c r="E21" s="6"/>
+      <c r="E21" s="6">
+        <v>145</v>
+      </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="I21" s="9" t="s">
@@ -12393,7 +12491,9 @@
       <c r="K21" s="6">
         <v>361</v>
       </c>
-      <c r="L21" s="6"/>
+      <c r="L21" s="6">
+        <v>361</v>
+      </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="P21" s="9" t="s">
@@ -12405,7 +12505,9 @@
       <c r="R21" s="6">
         <v>501</v>
       </c>
-      <c r="S21" s="6"/>
+      <c r="S21" s="6">
+        <v>507</v>
+      </c>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
     </row>
@@ -12419,7 +12521,9 @@
       <c r="D22" s="6">
         <v>603.37</v>
       </c>
-      <c r="E22" s="6"/>
+      <c r="E22" s="6">
+        <v>593.31</v>
+      </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="I22" s="9" t="s">
@@ -12431,7 +12535,9 @@
       <c r="K22" s="6">
         <v>1297.83</v>
       </c>
-      <c r="L22" s="6"/>
+      <c r="L22" s="6">
+        <v>1245.01</v>
+      </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="P22" s="9" t="s">
@@ -12443,7 +12549,9 @@
       <c r="R22" s="6">
         <v>1937.62</v>
       </c>
-      <c r="S22" s="6"/>
+      <c r="S22" s="6">
+        <v>1842.51</v>
+      </c>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
     </row>
@@ -12457,7 +12565,9 @@
       <c r="D23" s="6">
         <v>154</v>
       </c>
-      <c r="E23" s="6"/>
+      <c r="E23" s="6">
+        <v>154</v>
+      </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="I23" s="9" t="s">
@@ -12469,7 +12579,9 @@
       <c r="K23" s="6">
         <v>426</v>
       </c>
-      <c r="L23" s="6"/>
+      <c r="L23" s="6">
+        <v>426</v>
+      </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="P23" s="9" t="s">
@@ -12481,7 +12593,9 @@
       <c r="R23" s="6">
         <v>718</v>
       </c>
-      <c r="S23" s="6"/>
+      <c r="S23" s="6">
+        <v>718</v>
+      </c>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
     </row>
@@ -12495,7 +12609,9 @@
       <c r="D24" s="6">
         <v>195</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="6">
+        <v>195</v>
+      </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="I24" s="9" t="s">
@@ -12507,7 +12623,9 @@
       <c r="K24" s="6">
         <v>736</v>
       </c>
-      <c r="L24" s="6"/>
+      <c r="L24" s="6">
+        <v>736</v>
+      </c>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="P24" s="9" t="s">
@@ -12519,7 +12637,9 @@
       <c r="R24" s="6">
         <v>1219</v>
       </c>
-      <c r="S24" s="6"/>
+      <c r="S24" s="6">
+        <v>1294</v>
+      </c>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
     </row>
@@ -12533,7 +12653,9 @@
       <c r="D25" s="6">
         <v>162</v>
       </c>
-      <c r="E25" s="6"/>
+      <c r="E25" s="6">
+        <v>162</v>
+      </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="I25" s="9" t="s">
@@ -12545,7 +12667,9 @@
       <c r="K25" s="6">
         <v>469</v>
       </c>
-      <c r="L25" s="6"/>
+      <c r="L25" s="6">
+        <v>469</v>
+      </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="P25" s="9" t="s">
@@ -12557,7 +12681,9 @@
       <c r="R25" s="6">
         <v>832</v>
       </c>
-      <c r="S25" s="6"/>
+      <c r="S25" s="6">
+        <v>826</v>
+      </c>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
     </row>
@@ -12569,9 +12695,11 @@
         <v>12</v>
       </c>
       <c r="D26" s="6">
-        <v>5890</v>
-      </c>
-      <c r="E26" s="6"/>
+        <v>590</v>
+      </c>
+      <c r="E26" s="6">
+        <v>590</v>
+      </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="I26" s="9" t="s">
@@ -12583,7 +12711,9 @@
       <c r="K26" s="6">
         <v>1693</v>
       </c>
-      <c r="L26" s="6"/>
+      <c r="L26" s="6">
+        <v>1693</v>
+      </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="P26" s="2" t="s">
@@ -12595,7 +12725,9 @@
       <c r="R26" s="6">
         <v>3200</v>
       </c>
-      <c r="S26" s="6"/>
+      <c r="S26" s="6">
+        <v>3200</v>
+      </c>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
     </row>
@@ -12609,7 +12741,9 @@
       <c r="D27" s="6">
         <v>9467.2</v>
       </c>
-      <c r="E27" s="6"/>
+      <c r="E27" s="6">
+        <v>9467.2</v>
+      </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="I27" s="9" t="s">
@@ -12621,7 +12755,9 @@
       <c r="K27" s="6">
         <v>22736.35</v>
       </c>
-      <c r="L27" s="6"/>
+      <c r="L27" s="6">
+        <v>22633.87</v>
+      </c>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="P27" s="2" t="s">
@@ -12633,7 +12769,9 @@
       <c r="R27" s="6">
         <v>43235.06</v>
       </c>
-      <c r="S27" s="6"/>
+      <c r="S27" s="6">
+        <v>41078.31</v>
+      </c>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
     </row>
@@ -12647,7 +12785,9 @@
       <c r="D28" s="6">
         <v>1761</v>
       </c>
-      <c r="E28" s="6"/>
+      <c r="E28" s="6">
+        <v>1738</v>
+      </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="I28" s="9" t="s">
@@ -12659,7 +12799,9 @@
       <c r="K28" s="6">
         <v>3200</v>
       </c>
-      <c r="L28" s="6"/>
+      <c r="L28" s="6">
+        <v>3198</v>
+      </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="P28" s="2" t="s">
@@ -12671,7 +12813,9 @@
       <c r="R28" s="6">
         <v>5002</v>
       </c>
-      <c r="S28" s="6"/>
+      <c r="S28" s="6">
+        <v>4990</v>
+      </c>
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
     </row>
@@ -12845,7 +12989,9 @@
       <c r="D34" s="6">
         <v>3467</v>
       </c>
-      <c r="E34" s="6"/>
+      <c r="E34" s="6">
+        <v>3467</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="I34" s="9" t="s">
@@ -12857,7 +13003,9 @@
       <c r="K34" s="6">
         <v>7058</v>
       </c>
-      <c r="L34" s="6"/>
+      <c r="L34" s="6">
+        <v>7013</v>
+      </c>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
       <c r="P34" s="2" t="s">
@@ -12869,7 +13017,9 @@
       <c r="R34" s="6">
         <v>9297</v>
       </c>
-      <c r="S34" s="6"/>
+      <c r="S34" s="6">
+        <v>8520</v>
+      </c>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
     </row>
@@ -12883,7 +13033,9 @@
       <c r="D35" s="6">
         <v>5144.71</v>
       </c>
-      <c r="E35" s="6"/>
+      <c r="E35" s="6">
+        <v>5144.71</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="I35" s="9" t="s">
@@ -12895,7 +13047,9 @@
       <c r="K35" s="6">
         <v>10518.73</v>
       </c>
-      <c r="L35" s="6"/>
+      <c r="L35" s="6">
+        <v>10518.73</v>
+      </c>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="P35" s="2" t="s">
@@ -12907,7 +13061,9 @@
       <c r="R35" s="6">
         <v>17010.05</v>
       </c>
-      <c r="S35" s="6"/>
+      <c r="S35" s="6">
+        <v>16562.79</v>
+      </c>
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
     </row>
@@ -12921,7 +13077,9 @@
       <c r="D36" s="6">
         <v>6684.86</v>
       </c>
-      <c r="E36" s="6"/>
+      <c r="E36" s="6">
+        <v>6712.4</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="I36" s="9" t="s">
@@ -12933,7 +13091,9 @@
       <c r="K36" s="6">
         <v>16136.34</v>
       </c>
-      <c r="L36" s="6"/>
+      <c r="L36" s="6">
+        <v>15609.3</v>
+      </c>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
       <c r="P36" s="2" t="s">
@@ -12945,7 +13105,9 @@
       <c r="R36" s="6">
         <v>22463.29</v>
       </c>
-      <c r="S36" s="6"/>
+      <c r="S36" s="6">
+        <v>21858.69</v>
+      </c>
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
     </row>
@@ -12959,7 +13121,9 @@
       <c r="D37" s="6">
         <v>8753.65</v>
       </c>
-      <c r="E37" s="6"/>
+      <c r="E37" s="6">
+        <v>8575.61</v>
+      </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="I37" s="9" t="s">
@@ -12971,7 +13135,9 @@
       <c r="K37" s="6">
         <v>17508.68</v>
       </c>
-      <c r="L37" s="6"/>
+      <c r="L37" s="6">
+        <v>16811.29</v>
+      </c>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
       <c r="P37" s="2" t="s">
@@ -12983,7 +13149,9 @@
       <c r="R37" s="6">
         <v>26270.54</v>
       </c>
-      <c r="S37" s="6"/>
+      <c r="S37" s="6">
+        <v>24999.08</v>
+      </c>
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
     </row>
@@ -12997,7 +13165,9 @@
       <c r="D38" s="6">
         <v>6073.32</v>
       </c>
-      <c r="E38" s="6"/>
+      <c r="E38" s="6">
+        <v>6073.32</v>
+      </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="I38" s="9" t="s">
@@ -13009,7 +13179,9 @@
       <c r="K38" s="6">
         <v>13173.97</v>
       </c>
-      <c r="L38" s="6"/>
+      <c r="L38" s="6">
+        <v>13003.85</v>
+      </c>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
       <c r="P38" s="2" t="s">
@@ -13021,7 +13193,9 @@
       <c r="R38" s="6">
         <v>20957.67</v>
       </c>
-      <c r="S38" s="6"/>
+      <c r="S38" s="6">
+        <v>19373.25</v>
+      </c>
       <c r="T38" s="6"/>
       <c r="U38" s="6"/>
     </row>
@@ -13035,7 +13209,9 @@
       <c r="D39" s="6">
         <v>5464.73</v>
       </c>
-      <c r="E39" s="6"/>
+      <c r="E39" s="6">
+        <v>5464.73</v>
+      </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="I39" s="9" t="s">
@@ -13047,7 +13223,9 @@
       <c r="K39" s="6">
         <v>14066.75</v>
       </c>
-      <c r="L39" s="6"/>
+      <c r="L39" s="6">
+        <v>14031.58</v>
+      </c>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="P39" s="2" t="s">
@@ -13059,7 +13237,9 @@
       <c r="R39" s="6">
         <v>21531.55</v>
       </c>
-      <c r="S39" s="6"/>
+      <c r="S39" s="6">
+        <v>20922.61</v>
+      </c>
       <c r="T39" s="6"/>
       <c r="U39" s="6"/>
     </row>
@@ -13073,7 +13253,9 @@
       <c r="D40" s="6">
         <v>6949.41</v>
       </c>
-      <c r="E40" s="6"/>
+      <c r="E40" s="6">
+        <v>6949.41</v>
+      </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="I40" s="9" t="s">
@@ -13085,7 +13267,9 @@
       <c r="K40" s="6">
         <v>16931.06</v>
       </c>
-      <c r="L40" s="6"/>
+      <c r="L40" s="6">
+        <v>15920.92</v>
+      </c>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="P40" s="2" t="s">
@@ -13097,7 +13281,9 @@
       <c r="R40" s="6">
         <v>26280.18</v>
       </c>
-      <c r="S40" s="6"/>
+      <c r="S40" s="6">
+        <v>24079.93</v>
+      </c>
       <c r="T40" s="6"/>
       <c r="U40" s="6"/>
     </row>
@@ -13111,7 +13297,9 @@
       <c r="D41" s="6">
         <v>5019.55</v>
       </c>
-      <c r="E41" s="6"/>
+      <c r="E41" s="6">
+        <v>5019.55</v>
+      </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="I41" s="9" t="s">
@@ -13123,7 +13311,9 @@
       <c r="K41" s="6">
         <v>13162.44</v>
       </c>
-      <c r="L41" s="6"/>
+      <c r="L41" s="6">
+        <v>12531.41</v>
+      </c>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
       <c r="P41" s="2" t="s">
@@ -13135,7 +13325,9 @@
       <c r="R41" s="6">
         <v>18432.02</v>
       </c>
-      <c r="S41" s="6"/>
+      <c r="S41" s="6">
+        <v>16805.21</v>
+      </c>
       <c r="T41" s="6"/>
       <c r="U41" s="6"/>
     </row>
@@ -13149,7 +13341,9 @@
       <c r="D42" s="6">
         <v>5506.58</v>
       </c>
-      <c r="E42" s="6"/>
+      <c r="E42" s="6">
+        <v>5427.1</v>
+      </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="I42" s="9" t="s">
@@ -13161,7 +13355,9 @@
       <c r="K42" s="6">
         <v>11215</v>
       </c>
-      <c r="L42" s="6"/>
+      <c r="L42" s="6">
+        <v>11143.51</v>
+      </c>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
       <c r="P42" s="2" t="s">
@@ -13173,7 +13369,9 @@
       <c r="R42" s="6">
         <v>16747.59</v>
       </c>
-      <c r="S42" s="6"/>
+      <c r="S42" s="6">
+        <v>15855.52</v>
+      </c>
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
     </row>
@@ -13187,7 +13385,9 @@
       <c r="D43" s="6">
         <v>4039.09</v>
       </c>
-      <c r="E43" s="6"/>
+      <c r="E43" s="6">
+        <v>4039.09</v>
+      </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="I43" s="9" t="s">
@@ -13199,7 +13399,9 @@
       <c r="K43" s="6">
         <v>10347.79</v>
       </c>
-      <c r="L43" s="6"/>
+      <c r="L43" s="6">
+        <v>10144.8</v>
+      </c>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
       <c r="P43" s="2" t="s">
@@ -13211,7 +13413,9 @@
       <c r="R43" s="6">
         <v>17277.53</v>
       </c>
-      <c r="S43" s="6"/>
+      <c r="S43" s="6">
+        <v>17007.59</v>
+      </c>
       <c r="T43" s="6"/>
       <c r="U43" s="6"/>
     </row>
@@ -13225,7 +13429,9 @@
       <c r="D44" s="6">
         <v>1978.97</v>
       </c>
-      <c r="E44" s="6"/>
+      <c r="E44" s="6">
+        <v>1944.45</v>
+      </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="I44" s="9" t="s">
@@ -13237,7 +13443,9 @@
       <c r="K44" s="6">
         <v>5871.04</v>
       </c>
-      <c r="L44" s="6"/>
+      <c r="L44" s="6">
+        <v>5778.77</v>
+      </c>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
       <c r="P44" s="2" t="s">
@@ -13249,7 +13457,9 @@
       <c r="R44" s="6">
         <v>8702.64</v>
       </c>
-      <c r="S44" s="6"/>
+      <c r="S44" s="6">
+        <v>8601.15</v>
+      </c>
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
     </row>
@@ -13263,7 +13473,9 @@
       <c r="D45" s="6">
         <v>9092.91</v>
       </c>
-      <c r="E45" s="6"/>
+      <c r="E45" s="6">
+        <v>8988.94</v>
+      </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="I45" s="9" t="s">
@@ -13275,7 +13487,9 @@
       <c r="K45" s="6">
         <v>21968.62</v>
       </c>
-      <c r="L45" s="6"/>
+      <c r="L45" s="6">
+        <v>21184.39</v>
+      </c>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
       <c r="P45" s="2" t="s">
@@ -13287,7 +13501,9 @@
       <c r="R45" s="6">
         <v>32158.06</v>
       </c>
-      <c r="S45" s="6"/>
+      <c r="S45" s="6">
+        <v>30699.83</v>
+      </c>
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
     </row>
@@ -13333,7 +13549,9 @@
       <c r="D47" s="6">
         <v>912</v>
       </c>
-      <c r="E47" s="6"/>
+      <c r="E47" s="6">
+        <v>889</v>
+      </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="I47" s="9" t="s">
@@ -13345,7 +13563,9 @@
       <c r="K47" s="6">
         <v>1643</v>
       </c>
-      <c r="L47" s="6"/>
+      <c r="L47" s="6">
+        <v>1587</v>
+      </c>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
       <c r="P47" s="2" t="s">
@@ -13357,7 +13577,9 @@
       <c r="R47" s="6">
         <v>2576</v>
       </c>
-      <c r="S47" s="6"/>
+      <c r="S47" s="6">
+        <v>2527</v>
+      </c>
       <c r="T47" s="6"/>
       <c r="U47" s="6"/>
     </row>
@@ -13371,7 +13593,9 @@
       <c r="D48" s="6">
         <v>27867.43</v>
       </c>
-      <c r="E48" s="6"/>
+      <c r="E48" s="6">
+        <v>27867.43</v>
+      </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="I48" s="9" t="s">
@@ -13383,7 +13607,9 @@
       <c r="K48" s="6">
         <v>59008.16</v>
       </c>
-      <c r="L48" s="6"/>
+      <c r="L48" s="6">
+        <v>55887.14</v>
+      </c>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
       <c r="P48" s="2" t="s">
@@ -13395,7 +13621,9 @@
       <c r="R48" s="6">
         <v>80905.41</v>
       </c>
-      <c r="S48" s="6"/>
+      <c r="S48" s="6">
+        <v>77734.18</v>
+      </c>
       <c r="T48" s="6"/>
       <c r="U48" s="6"/>
     </row>
@@ -13409,7 +13637,9 @@
       <c r="D49" s="6">
         <v>6949.45</v>
       </c>
-      <c r="E49" s="6"/>
+      <c r="E49" s="6">
+        <v>6949.45</v>
+      </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="I49" s="9" t="s">
@@ -13421,7 +13651,9 @@
       <c r="K49" s="6">
         <v>14343.7</v>
       </c>
-      <c r="L49" s="6"/>
+      <c r="L49" s="6">
+        <v>14342.7</v>
+      </c>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
       <c r="P49" s="2" t="s">
@@ -13433,7 +13665,9 @@
       <c r="R49" s="6">
         <v>29443.65</v>
       </c>
-      <c r="S49" s="6"/>
+      <c r="S49" s="6">
+        <v>29443.65</v>
+      </c>
       <c r="T49" s="6"/>
       <c r="U49" s="6"/>
     </row>
@@ -13447,7 +13681,9 @@
       <c r="D50" s="6">
         <v>10773.88</v>
       </c>
-      <c r="E50" s="6"/>
+      <c r="E50" s="6">
+        <v>10773.88</v>
+      </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="I50" s="9" t="s">
@@ -13459,7 +13695,9 @@
       <c r="K50" s="6">
         <v>24735.67</v>
       </c>
-      <c r="L50" s="6"/>
+      <c r="L50" s="6">
+        <v>24476.41</v>
+      </c>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
       <c r="P50" s="2" t="s">
@@ -13471,7 +13709,9 @@
       <c r="R50" s="6">
         <v>41719.05</v>
       </c>
-      <c r="S50" s="6"/>
+      <c r="S50" s="6">
+        <v>40845.75</v>
+      </c>
       <c r="T50" s="6"/>
       <c r="U50" s="6"/>
     </row>
@@ -13485,7 +13725,9 @@
       <c r="D51" s="6">
         <v>23583.58</v>
       </c>
-      <c r="E51" s="6"/>
+      <c r="E51" s="6">
+        <v>23556.22</v>
+      </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="I51" s="9" t="s">
@@ -13497,7 +13739,9 @@
       <c r="K51" s="6">
         <v>56540.67</v>
       </c>
-      <c r="L51" s="6"/>
+      <c r="L51" s="6">
+        <v>55898.53</v>
+      </c>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
       <c r="P51" s="2" t="s">
@@ -13509,7 +13753,9 @@
       <c r="R51" s="6">
         <v>77115.68</v>
       </c>
-      <c r="S51" s="6"/>
+      <c r="S51" s="6">
+        <v>75192.45</v>
+      </c>
       <c r="T51" s="6"/>
       <c r="U51" s="6"/>
     </row>
@@ -13523,7 +13769,9 @@
       <c r="D52" s="6">
         <v>12002.27</v>
       </c>
-      <c r="E52" s="6"/>
+      <c r="E52" s="6">
+        <v>11971.75</v>
+      </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="I52" s="9" t="s">
@@ -13535,7 +13783,9 @@
       <c r="K52" s="6">
         <v>27761.39</v>
       </c>
-      <c r="L52" s="6"/>
+      <c r="L52" s="6">
+        <v>27703.56</v>
+      </c>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
       <c r="P52" s="2" t="s">
@@ -13547,7 +13797,9 @@
       <c r="R52" s="6">
         <v>43611.16</v>
       </c>
-      <c r="S52" s="6"/>
+      <c r="S52" s="6">
+        <v>43404.22</v>
+      </c>
       <c r="T52" s="6"/>
       <c r="U52" s="6"/>
     </row>
@@ -13561,7 +13813,9 @@
       <c r="D53" s="6">
         <v>14499.54</v>
       </c>
-      <c r="E53" s="6"/>
+      <c r="E53" s="6">
+        <v>13879.3</v>
+      </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="I53" s="9" t="s">
@@ -13573,7 +13827,9 @@
       <c r="K53" s="6">
         <v>34387.76</v>
       </c>
-      <c r="L53" s="6"/>
+      <c r="L53" s="6">
+        <v>33085.15</v>
+      </c>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
       <c r="P53" s="2" t="s">
@@ -13585,7 +13841,9 @@
       <c r="R53" s="6">
         <v>50734.22</v>
       </c>
-      <c r="S53" s="6"/>
+      <c r="S53" s="6">
+        <v>48477</v>
+      </c>
       <c r="T53" s="6"/>
       <c r="U53" s="6"/>
     </row>
@@ -13599,7 +13857,9 @@
       <c r="D54" s="6">
         <v>24798.56</v>
       </c>
-      <c r="E54" s="6"/>
+      <c r="E54" s="6">
+        <v>24646.4</v>
+      </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="I54" s="9" t="s">
@@ -13611,7 +13871,9 @@
       <c r="K54" s="6">
         <v>47942.46</v>
       </c>
-      <c r="L54" s="6"/>
+      <c r="L54" s="6">
+        <v>46340.72</v>
+      </c>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
       <c r="P54" s="2" t="s">
@@ -13623,7 +13885,9 @@
       <c r="R54" s="6">
         <v>74432.27</v>
       </c>
-      <c r="S54" s="6"/>
+      <c r="S54" s="6">
+        <v>72419.51</v>
+      </c>
       <c r="T54" s="6"/>
       <c r="U54" s="6"/>
     </row>
@@ -13637,7 +13901,9 @@
       <c r="D55" s="6">
         <v>8128.35</v>
       </c>
-      <c r="E55" s="6"/>
+      <c r="E55" s="6">
+        <v>8128.35</v>
+      </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="I55" s="9" t="s">
@@ -13649,7 +13915,9 @@
       <c r="K55" s="6">
         <v>26633.21</v>
       </c>
-      <c r="L55" s="6"/>
+      <c r="L55" s="6">
+        <v>25908.84</v>
+      </c>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
       <c r="P55" s="2" t="s">
@@ -13661,7 +13929,9 @@
       <c r="R55" s="6">
         <v>34776.92</v>
       </c>
-      <c r="S55" s="6"/>
+      <c r="S55" s="6">
+        <v>34125.69</v>
+      </c>
       <c r="T55" s="6"/>
       <c r="U55" s="6"/>
     </row>
@@ -13675,7 +13945,9 @@
       <c r="D56" s="6">
         <v>12734.4</v>
       </c>
-      <c r="E56" s="6"/>
+      <c r="E56" s="6">
+        <v>12178.74</v>
+      </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="I56" s="9" t="s">
@@ -13687,7 +13959,9 @@
       <c r="K56" s="6">
         <v>27358.78</v>
       </c>
-      <c r="L56" s="6"/>
+      <c r="L56" s="6">
+        <v>25755.28</v>
+      </c>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
       <c r="P56" s="2" t="s">
@@ -13699,7 +13973,9 @@
       <c r="R56" s="6">
         <v>41039.33</v>
       </c>
-      <c r="S56" s="6"/>
+      <c r="S56" s="6">
+        <v>37324.59</v>
+      </c>
       <c r="T56" s="6"/>
       <c r="U56" s="6"/>
     </row>
@@ -13713,7 +13989,9 @@
       <c r="D57" s="6">
         <v>27132.56</v>
       </c>
-      <c r="E57" s="6"/>
+      <c r="E57" s="6">
+        <v>25467.89</v>
+      </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="I57" s="9" t="s">
@@ -13725,7 +14003,9 @@
       <c r="K57" s="6">
         <v>45681.07</v>
       </c>
-      <c r="L57" s="6"/>
+      <c r="L57" s="6">
+        <v>43072.93</v>
+      </c>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
       <c r="P57" s="2" t="s">
@@ -13737,7 +14017,9 @@
       <c r="R57" s="6">
         <v>76594.64</v>
       </c>
-      <c r="S57" s="6"/>
+      <c r="S57" s="6">
+        <v>74262.41</v>
+      </c>
       <c r="T57" s="6"/>
       <c r="U57" s="6"/>
     </row>
@@ -13783,7 +14065,9 @@
       <c r="D59" s="6">
         <v>366.6</v>
       </c>
-      <c r="E59" s="6"/>
+      <c r="E59" s="6">
+        <v>354.89</v>
+      </c>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="I59" s="9" t="s">
@@ -13795,7 +14079,9 @@
       <c r="K59" s="6">
         <v>710.33</v>
       </c>
-      <c r="L59" s="6"/>
+      <c r="L59" s="6">
+        <v>620.37</v>
+      </c>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
       <c r="P59" s="2" t="s">
@@ -13807,7 +14093,9 @@
       <c r="R59" s="6">
         <v>1052.57</v>
       </c>
-      <c r="S59" s="6"/>
+      <c r="S59" s="6">
+        <v>934.35</v>
+      </c>
       <c r="T59" s="6"/>
       <c r="U59" s="6"/>
     </row>
@@ -13821,7 +14109,9 @@
       <c r="D60" s="6">
         <v>616.22</v>
       </c>
-      <c r="E60" s="6"/>
+      <c r="E60" s="6">
+        <v>586.25</v>
+      </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="I60" s="9" t="s">
@@ -13833,7 +14123,9 @@
       <c r="K60" s="6">
         <v>1295</v>
       </c>
-      <c r="L60" s="6"/>
+      <c r="L60" s="6">
+        <v>1231.83</v>
+      </c>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
       <c r="P60" s="2" t="s">
@@ -13845,7 +14137,9 @@
       <c r="R60" s="6">
         <v>1973.92</v>
       </c>
-      <c r="S60" s="6"/>
+      <c r="S60" s="6">
+        <v>1846.98</v>
+      </c>
       <c r="T60" s="6"/>
       <c r="U60" s="6"/>
     </row>
@@ -13859,7 +14153,9 @@
       <c r="D61" s="6">
         <v>1827.72</v>
       </c>
-      <c r="E61" s="6"/>
+      <c r="E61" s="6">
+        <v>1773.27</v>
+      </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="I61" s="9" t="s">
@@ -13871,7 +14167,9 @@
       <c r="K61" s="6">
         <v>3850</v>
       </c>
-      <c r="L61" s="6"/>
+      <c r="L61" s="6">
+        <v>3654.255</v>
+      </c>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
       <c r="P61" s="2" t="s">
@@ -13883,7 +14181,9 @@
       <c r="R61" s="6">
         <v>5797.76</v>
       </c>
-      <c r="S61" s="6"/>
+      <c r="S61" s="6">
+        <v>5499.61</v>
+      </c>
       <c r="T61" s="6"/>
       <c r="U61" s="6"/>
     </row>
@@ -13897,7 +14197,9 @@
       <c r="D62" s="6">
         <v>2438.46</v>
       </c>
-      <c r="E62" s="6"/>
+      <c r="E62" s="6">
+        <v>2256.22</v>
+      </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="I62" s="9" t="s">
@@ -13919,7 +14221,9 @@
       <c r="R62" s="6">
         <v>7612.84</v>
       </c>
-      <c r="S62" s="6"/>
+      <c r="S62" s="6">
+        <v>7170.59</v>
+      </c>
       <c r="T62" s="6"/>
       <c r="U62" s="6"/>
     </row>
@@ -13933,7 +14237,9 @@
       <c r="D63" s="6">
         <v>5202</v>
       </c>
-      <c r="E63" s="6"/>
+      <c r="E63" s="6">
+        <v>5202</v>
+      </c>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="I63" s="9" t="s">
@@ -13945,7 +14251,9 @@
       <c r="K63" s="6">
         <v>10389</v>
       </c>
-      <c r="L63" s="6"/>
+      <c r="L63" s="6">
+        <v>10348</v>
+      </c>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
       <c r="P63" s="2" t="s">
@@ -13957,7 +14265,9 @@
       <c r="R63" s="6">
         <v>15780</v>
       </c>
-      <c r="S63" s="6"/>
+      <c r="S63" s="6">
+        <v>15741</v>
+      </c>
       <c r="T63" s="6"/>
       <c r="U63" s="6"/>
     </row>
@@ -13971,7 +14281,9 @@
       <c r="D64" s="6">
         <v>12053</v>
       </c>
-      <c r="E64" s="6"/>
+      <c r="E64" s="6">
+        <v>12026</v>
+      </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="I64" s="9" t="s">
@@ -13983,7 +14295,9 @@
       <c r="K64" s="6">
         <v>23225</v>
       </c>
-      <c r="L64" s="6"/>
+      <c r="L64" s="6">
+        <v>23218</v>
+      </c>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
       <c r="P64" s="2" t="s">
@@ -13995,7 +14309,9 @@
       <c r="R64" s="6">
         <v>35940</v>
       </c>
-      <c r="S64" s="6"/>
+      <c r="S64" s="6">
+        <v>35913</v>
+      </c>
       <c r="T64" s="6"/>
       <c r="U64" s="6"/>
     </row>
@@ -14041,7 +14357,9 @@
       <c r="D66" s="6">
         <v>102.42</v>
       </c>
-      <c r="E66" s="6"/>
+      <c r="E66" s="6">
+        <v>102.42</v>
+      </c>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="I66" s="9" t="s">
@@ -14053,7 +14371,9 @@
       <c r="K66" s="6">
         <v>281.96</v>
       </c>
-      <c r="L66" s="6"/>
+      <c r="L66" s="6">
+        <v>281.96</v>
+      </c>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
       <c r="P66" s="2" t="s">
@@ -14065,7 +14385,9 @@
       <c r="R66" s="6">
         <v>474.46</v>
       </c>
-      <c r="S66" s="6"/>
+      <c r="S66" s="6">
+        <v>457.08</v>
+      </c>
       <c r="T66" s="6"/>
       <c r="U66" s="6"/>
     </row>
@@ -14079,7 +14401,9 @@
       <c r="D67" s="6">
         <v>152</v>
       </c>
-      <c r="E67" s="6"/>
+      <c r="E67" s="6">
+        <v>152</v>
+      </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="I67" s="9" t="s">
@@ -14091,7 +14415,9 @@
       <c r="K67" s="6">
         <v>609</v>
       </c>
-      <c r="L67" s="6"/>
+      <c r="L67" s="6">
+        <v>599</v>
+      </c>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
       <c r="P67" s="2" t="s">
@@ -14103,7 +14429,9 @@
       <c r="R67" s="6">
         <v>860</v>
       </c>
-      <c r="S67" s="6"/>
+      <c r="S67" s="6">
+        <v>806</v>
+      </c>
       <c r="T67" s="6"/>
       <c r="U67" s="6"/>
     </row>
@@ -14117,7 +14445,9 @@
       <c r="D68" s="6">
         <v>36118.03</v>
       </c>
-      <c r="E68" s="6"/>
+      <c r="E68" s="6">
+        <v>31239.35</v>
+      </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="I68" s="9" t="s">
@@ -14129,7 +14459,9 @@
       <c r="K68" s="6">
         <v>69289.87</v>
       </c>
-      <c r="L68" s="6"/>
+      <c r="L68" s="6">
+        <v>63679.49</v>
+      </c>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
       <c r="P68" s="2" t="s">
@@ -14141,7 +14473,9 @@
       <c r="R68" s="6">
         <v>119846.32</v>
       </c>
-      <c r="S68" s="6"/>
+      <c r="S68" s="6">
+        <v>101426.26</v>
+      </c>
       <c r="T68" s="6"/>
       <c r="U68" s="6"/>
     </row>
@@ -14155,7 +14489,9 @@
       <c r="D69" s="6">
         <v>1063.31</v>
       </c>
-      <c r="E69" s="6"/>
+      <c r="E69" s="6">
+        <v>1006.78</v>
+      </c>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="I69" s="9" t="s">
@@ -14167,7 +14503,9 @@
       <c r="K69" s="6">
         <v>2213.78</v>
       </c>
-      <c r="L69" s="6"/>
+      <c r="L69" s="6">
+        <v>2129.31</v>
+      </c>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
       <c r="P69" s="2" t="s">
@@ -14179,7 +14517,9 @@
       <c r="R69" s="6">
         <v>3191.36</v>
       </c>
-      <c r="S69" s="6"/>
+      <c r="S69" s="6">
+        <v>2959.47</v>
+      </c>
       <c r="T69" s="6"/>
       <c r="U69" s="6"/>
     </row>
@@ -14193,7 +14533,9 @@
       <c r="D70" s="6">
         <v>751.06</v>
       </c>
-      <c r="E70" s="6"/>
+      <c r="E70" s="6">
+        <v>751.06</v>
+      </c>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="I70" s="9" t="s">
@@ -14205,7 +14547,9 @@
       <c r="K70" s="6">
         <v>1511.76</v>
       </c>
-      <c r="L70" s="6"/>
+      <c r="L70" s="6">
+        <v>1511.75</v>
+      </c>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
       <c r="P70" s="2" t="s">
@@ -14217,7 +14561,9 @@
       <c r="R70" s="6">
         <v>2777.32</v>
       </c>
-      <c r="S70" s="6"/>
+      <c r="S70" s="6">
+        <v>2777.32</v>
+      </c>
       <c r="T70" s="6"/>
       <c r="U70" s="6"/>
     </row>
@@ -14231,7 +14577,9 @@
       <c r="D71" s="6">
         <v>784.47</v>
       </c>
-      <c r="E71" s="6"/>
+      <c r="E71" s="6">
+        <v>784.47</v>
+      </c>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="I71" s="9" t="s">
@@ -14243,7 +14591,9 @@
       <c r="K71" s="6">
         <v>2613.9</v>
       </c>
-      <c r="L71" s="6"/>
+      <c r="L71" s="6">
+        <v>2573.69</v>
+      </c>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
       <c r="P71" s="2" t="s">
@@ -14255,7 +14605,9 @@
       <c r="R71" s="6">
         <v>2986.61</v>
       </c>
-      <c r="S71" s="6"/>
+      <c r="S71" s="6">
+        <v>2986.61</v>
+      </c>
       <c r="T71" s="6"/>
       <c r="U71" s="6"/>
     </row>

--- a/Comparaçoes/BuscasLocais.xlsx
+++ b/Comparaçoes/BuscasLocais.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12885" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="14925" windowHeight="12885" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="k = n|4" sheetId="1" r:id="rId1"/>
@@ -309,11 +309,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="180" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -335,6 +335,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF44546A"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -342,19 +349,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -401,13 +396,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color rgb="FF44546A"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color rgb="FF44546A"/>
       <name val="Calibri"/>
@@ -422,7 +410,33 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -434,22 +448,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -469,7 +469,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CA"/>
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4AF82"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EA9DB"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE697"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -481,19 +523,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE697"/>
+        <fgColor rgb="FFB4C6E7"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFF2CA"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFED7D31"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -505,55 +547,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFED7D31"/>
+        <fgColor rgb="FFFFD964"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBDD7EE"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF70AD47"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8CAAB"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE1EFD8"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4C6E7"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC5DFB3"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
+        <fgColor rgb="FFFBE3D5"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -571,7 +571,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFC5DFB3"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA8D08C"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CAAB"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7C7C7"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -589,61 +625,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5B9BD5"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD964"/>
+        <fgColor rgb="FFBDD7EE"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4AF82"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9BC2E6"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA8D08C"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8EA9DB"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7C7C7"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBE3D5"/>
+        <fgColor rgb="FFE1EFD8"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -860,6 +860,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color rgb="FF5B9BD5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -900,15 +909,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF5B9BD5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color rgb="FFACCCEA"/>
       </bottom>
       <diagonal/>
@@ -929,6 +929,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF5B9BD5"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF5B9BD5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -943,17 +954,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF5B9BD5"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF5B9BD5"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -962,43 +962,46 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1007,100 +1010,97 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1111,43 +1111,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1165,13 +1165,13 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1183,13 +1183,13 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1201,7 +1201,7 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1523,8 +1523,8 @@
   <sheetPr/>
   <dimension ref="B2:BK28"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="BE53" sqref="BE53"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="BA21" sqref="BA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4686,7 +4686,7 @@
         <v>12012</v>
       </c>
       <c r="BA21" s="7">
-        <v>11838</v>
+        <v>0</v>
       </c>
       <c r="BB21" s="22">
         <v>12196</v>
@@ -9898,7 +9898,7 @@
   <sheetPr/>
   <dimension ref="B2:BK28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="AW1" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="BE32" sqref="BE32"/>
     </sheetView>
   </sheetViews>

--- a/Comparaçoes/BuscasLocais.xlsx
+++ b/Comparaçoes/BuscasLocais.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14925" windowHeight="12885" tabRatio="500"/>
+    <workbookView windowWidth="13725" windowHeight="12885" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="k = n|4" sheetId="1" r:id="rId1"/>
@@ -309,11 +309,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -342,8 +342,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF44546A"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -361,9 +388,42 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF44546A"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF44546A"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -375,52 +435,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FF44546A"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FF44546A"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF44546A"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -428,28 +442,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -469,37 +469,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5B9BD5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4AF82"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9BC2E6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF70AD47"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8EA9DB"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
+        <fgColor rgb="FFD9E1F2"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -511,67 +505,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEBEBEB"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFE697"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB4C6E7"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CA"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFED7D31"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEBEBEB"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD964"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBE3D5"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9E1F2"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4472C4"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC5DFB3"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -589,7 +541,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFBE3D5"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5DFB3"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4AF82"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -601,25 +589,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
+        <fgColor rgb="FF70AD47"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFB4C6E7"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFD964"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -631,19 +625,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBDD7EE"/>
+        <fgColor rgb="FFDDEBF7"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFF2CA"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE1EFD8"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EA9DB"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -866,6 +866,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -890,6 +920,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -907,30 +946,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFACCCEA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF5B9BD5"/>
       </top>
@@ -939,30 +954,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -971,136 +971,136 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1111,43 +1111,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1165,13 +1165,13 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1183,13 +1183,13 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1201,7 +1201,7 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1523,7 +1523,7 @@
   <sheetPr/>
   <dimension ref="B2:BK28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="AR1" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="AR1" workbookViewId="0">
       <selection activeCell="BA21" sqref="BA21"/>
     </sheetView>
   </sheetViews>
@@ -5721,14 +5721,14 @@
   <sheetPr/>
   <dimension ref="B2:BK28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="BF29" sqref="BF29"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="BB28" sqref="BB28:BC28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9.14285714285714" style="9" customWidth="1"/>
-    <col min="3" max="3" width="19.5714285714286" style="9" customWidth="1"/>
+    <col min="3" max="3" width="5.3047619047619" style="9" customWidth="1"/>
     <col min="4" max="4" width="9.75238095238095" style="9" customWidth="1"/>
     <col min="5" max="5" width="10.5714285714286" style="9" customWidth="1"/>
     <col min="6" max="7" width="9.93333333333333" style="9" customWidth="1"/>
@@ -5736,13 +5736,13 @@
     <col min="9" max="14" width="9.14285714285714" style="9" customWidth="1"/>
     <col min="15" max="15" width="10.2857142857143" style="9" customWidth="1"/>
     <col min="16" max="23" width="9.14285714285714" style="9" customWidth="1"/>
-    <col min="24" max="24" width="17.0095238095238" style="9" customWidth="1"/>
+    <col min="24" max="24" width="6.73333333333333" style="9" customWidth="1"/>
     <col min="25" max="25" width="9.75238095238095" style="9" customWidth="1"/>
     <col min="26" max="26" width="10.5714285714286" style="9" customWidth="1"/>
     <col min="27" max="28" width="9.75238095238095" style="9" customWidth="1"/>
     <col min="29" max="30" width="9.57142857142857" style="9" customWidth="1"/>
     <col min="31" max="44" width="9.14285714285714" style="9" customWidth="1"/>
-    <col min="45" max="45" width="19.5714285714286" style="9" customWidth="1"/>
+    <col min="45" max="45" width="9.39047619047619" style="9" customWidth="1"/>
     <col min="46" max="49" width="10.8571428571429" style="9" customWidth="1"/>
     <col min="50" max="51" width="9.57142857142857" style="9" customWidth="1"/>
     <col min="52" max="16384" width="9.14285714285714" style="9" customWidth="1"/>
@@ -9898,14 +9898,14 @@
   <sheetPr/>
   <dimension ref="B2:BK28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="BE32" sqref="BE32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="AZ16" sqref="AZ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9.14285714285714" style="9" customWidth="1"/>
-    <col min="3" max="3" width="19.5714285714286" style="9" customWidth="1"/>
+    <col min="3" max="3" width="7.55238095238095" style="9" customWidth="1"/>
     <col min="4" max="4" width="9.75238095238095" style="9" customWidth="1"/>
     <col min="5" max="5" width="10.5714285714286" style="9" customWidth="1"/>
     <col min="6" max="7" width="9.75238095238095" style="9" customWidth="1"/>
@@ -9921,7 +9921,7 @@
     <col min="29" max="30" width="9.57142857142857" style="9" customWidth="1"/>
     <col min="31" max="43" width="9.14285714285714" style="9" customWidth="1"/>
     <col min="44" max="44" width="11.1428571428571" style="9" customWidth="1"/>
-    <col min="45" max="45" width="19.5714285714286" style="9" customWidth="1"/>
+    <col min="45" max="45" width="11.6285714285714" style="9" customWidth="1"/>
     <col min="46" max="49" width="10.8571428571429" style="9" customWidth="1"/>
     <col min="50" max="50" width="9.57142857142857" style="9" customWidth="1"/>
     <col min="51" max="51" width="8.76190476190476" style="9" customWidth="1"/>
@@ -14070,7 +14070,7 @@
   <sheetPr/>
   <dimension ref="B2:U71"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="K43" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="R48" sqref="R48:U71"/>
     </sheetView>
   </sheetViews>

--- a/Comparaçoes/BuscasLocais.xlsx
+++ b/Comparaçoes/BuscasLocais.xlsx
@@ -327,12 +327,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="181" formatCode="0_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -355,26 +355,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -393,22 +387,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF44546A"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -441,34 +441,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF44546A"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -488,31 +488,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4472C4"/>
+        <fgColor rgb="FFA8D08C"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD964"/>
+        <fgColor rgb="FFFBE3D5"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4AF82"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC5DFB3"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -524,7 +512,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFE697"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5DFB3"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -542,13 +560,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5B9BD5"/>
+        <fgColor rgb="FFFFF2CA"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -560,25 +602,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8EA9DB"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA8D08C"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CA"/>
+        <fgColor rgb="FFFFD964"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -596,55 +620,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFBE3D5"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF70AD47"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFBDD7EE"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9BC2E6"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -657,6 +645,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4AF82"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EA9DB"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -878,20 +878,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FF5B9BD5"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color rgb="FF5B9BD5"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -911,17 +930,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF5B9BD5"/>
       </bottom>
       <diagonal/>
     </border>
@@ -937,39 +965,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color rgb="FF5B9BD5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FF5B9BD5"/>
       </bottom>
       <diagonal/>
     </border>
@@ -978,49 +978,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1029,101 +1029,101 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1133,10 +1133,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1157,16 +1157,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1175,19 +1175,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1196,7 +1196,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1205,7 +1208,7 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1214,13 +1217,13 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1232,16 +1235,16 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1250,13 +1253,13 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1578,8 +1581,8 @@
   <sheetPr/>
   <dimension ref="B2:BT28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U37" sqref="U37"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1817,7 +1820,7 @@
       <c r="F4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="32" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="18" t="s">
@@ -1829,7 +1832,7 @@
       <c r="J4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="32" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="18" t="s">
@@ -1841,7 +1844,7 @@
       <c r="N4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="O4" s="32" t="s">
         <v>13</v>
       </c>
       <c r="P4" s="15" t="s">
@@ -1865,10 +1868,10 @@
       <c r="V4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="W4" s="28" t="s">
+      <c r="W4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="X4" s="28" t="s">
+      <c r="X4" s="29" t="s">
         <v>17</v>
       </c>
       <c r="Z4" s="3" t="s">
@@ -1877,52 +1880,52 @@
       <c r="AA4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AB4" s="31" t="s">
+      <c r="AB4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="AC4" s="31" t="s">
+      <c r="AC4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="AD4" s="37" t="s">
+      <c r="AD4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AE4" s="31" t="s">
+      <c r="AE4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AF4" s="38" t="s">
+      <c r="AF4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AG4" s="31" t="s">
+      <c r="AG4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="AH4" s="37" t="s">
+      <c r="AH4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AI4" s="31" t="s">
+      <c r="AI4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AJ4" s="38" t="s">
+      <c r="AJ4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AK4" s="31" t="s">
+      <c r="AK4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="AL4" s="31" t="s">
+      <c r="AL4" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="AM4" s="31" t="s">
+      <c r="AM4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AN4" s="38" t="s">
+      <c r="AN4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AO4" s="31" t="s">
+      <c r="AO4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="AP4" s="31" t="s">
+      <c r="AP4" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="AQ4" s="31" t="s">
+      <c r="AQ4" s="32" t="s">
         <v>13</v>
       </c>
       <c r="AR4" s="22" t="s">
@@ -1934,10 +1937,10 @@
       <c r="AT4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AU4" s="28" t="s">
+      <c r="AU4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AV4" s="28" t="s">
+      <c r="AV4" s="29" t="s">
         <v>17</v>
       </c>
       <c r="AX4" s="3" t="s">
@@ -1955,43 +1958,43 @@
       <c r="BB4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="BC4" s="31" t="s">
+      <c r="BC4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="BD4" s="38" t="s">
+      <c r="BD4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="BE4" s="31" t="s">
+      <c r="BE4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="BF4" s="37" t="s">
+      <c r="BF4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="BG4" s="31" t="s">
+      <c r="BG4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="BH4" s="38" t="s">
+      <c r="BH4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="BI4" s="31" t="s">
+      <c r="BI4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="BJ4" s="31" t="s">
+      <c r="BJ4" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="BK4" s="31" t="s">
+      <c r="BK4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="BL4" s="38" t="s">
+      <c r="BL4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="BM4" s="31" t="s">
+      <c r="BM4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="BN4" s="31" t="s">
+      <c r="BN4" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="BO4" s="31" t="s">
+      <c r="BO4" s="32" t="s">
         <v>13</v>
       </c>
       <c r="BP4" s="22" t="s">
@@ -2003,10 +2006,10 @@
       <c r="BR4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="BS4" s="28" t="s">
+      <c r="BS4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="BT4" s="28" t="s">
+      <c r="BT4" s="29" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2068,12 +2071,14 @@
       <c r="T5" s="24">
         <v>809.16</v>
       </c>
-      <c r="U5" s="21"/>
+      <c r="U5" s="25">
+        <v>789.21</v>
+      </c>
       <c r="V5" s="21"/>
-      <c r="W5" s="40">
+      <c r="W5" s="41">
         <v>606</v>
       </c>
-      <c r="X5" s="41">
+      <c r="X5" s="42">
         <v>606</v>
       </c>
       <c r="Z5" s="3" t="s">
@@ -2094,7 +2099,7 @@
       <c r="AE5" s="13">
         <v>655</v>
       </c>
-      <c r="AF5" s="36">
+      <c r="AF5" s="37">
         <v>558</v>
       </c>
       <c r="AG5" s="3">
@@ -2106,7 +2111,7 @@
       <c r="AI5" s="13">
         <v>558</v>
       </c>
-      <c r="AJ5" s="36">
+      <c r="AJ5" s="37">
         <v>582</v>
       </c>
       <c r="AK5" s="3">
@@ -2133,12 +2138,14 @@
       <c r="AR5" s="24">
         <v>509</v>
       </c>
-      <c r="AS5" s="21"/>
+      <c r="AS5" s="25">
+        <v>509</v>
+      </c>
       <c r="AT5" s="21"/>
-      <c r="AU5" s="41">
+      <c r="AU5" s="42">
         <v>558</v>
       </c>
-      <c r="AV5" s="41">
+      <c r="AV5" s="42">
         <v>558</v>
       </c>
       <c r="AX5" s="3" t="s">
@@ -2147,19 +2154,19 @@
       <c r="AY5" s="3">
         <v>19</v>
       </c>
-      <c r="AZ5" s="31">
+      <c r="AZ5" s="32">
         <v>25126.84</v>
       </c>
-      <c r="BA5" s="31">
+      <c r="BA5" s="32">
         <v>25126.84</v>
       </c>
-      <c r="BB5" s="37">
+      <c r="BB5" s="38">
         <v>25126.84</v>
       </c>
       <c r="BC5" s="18">
         <v>23589.53</v>
       </c>
-      <c r="BD5" s="36">
+      <c r="BD5" s="37">
         <v>25126.84</v>
       </c>
       <c r="BE5" s="3">
@@ -2171,7 +2178,7 @@
       <c r="BG5" s="13">
         <v>23589.53</v>
       </c>
-      <c r="BH5" s="36">
+      <c r="BH5" s="37">
         <v>25126.84</v>
       </c>
       <c r="BI5" s="3">
@@ -2198,12 +2205,14 @@
       <c r="BP5" s="24">
         <v>23774.86</v>
       </c>
-      <c r="BQ5" s="21"/>
+      <c r="BQ5" s="25">
+        <v>23774.86</v>
+      </c>
       <c r="BR5" s="21"/>
-      <c r="BS5" s="29">
+      <c r="BS5" s="30">
         <v>17728</v>
       </c>
-      <c r="BT5" s="29">
+      <c r="BT5" s="30">
         <v>17728</v>
       </c>
     </row>
@@ -2231,10 +2240,10 @@
       <c r="R6" s="21"/>
       <c r="S6" s="21"/>
       <c r="T6" s="24"/>
-      <c r="U6" s="21"/>
+      <c r="U6" s="25"/>
       <c r="V6" s="21"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="42"/>
       <c r="Z6" s="3" t="s">
         <v>23</v>
       </c>
@@ -2253,7 +2262,7 @@
       <c r="AE6" s="13">
         <v>10900.24</v>
       </c>
-      <c r="AF6" s="36">
+      <c r="AF6" s="37">
         <v>9818.95</v>
       </c>
       <c r="AG6" s="3">
@@ -2265,7 +2274,7 @@
       <c r="AI6" s="13">
         <v>9934.05</v>
       </c>
-      <c r="AJ6" s="36">
+      <c r="AJ6" s="37">
         <v>10082.97</v>
       </c>
       <c r="AK6" s="3">
@@ -2292,12 +2301,14 @@
       <c r="AR6" s="24">
         <v>9090.91</v>
       </c>
-      <c r="AS6" s="21"/>
+      <c r="AS6" s="25">
+        <v>9090.91</v>
+      </c>
       <c r="AT6" s="21"/>
-      <c r="AU6" s="41">
+      <c r="AU6" s="42">
         <v>7704</v>
       </c>
-      <c r="AV6" s="41">
+      <c r="AV6" s="42">
         <v>7704</v>
       </c>
       <c r="AX6" s="3" t="s">
@@ -2318,7 +2329,7 @@
       <c r="BC6" s="13">
         <v>7918.17</v>
       </c>
-      <c r="BD6" s="36">
+      <c r="BD6" s="37">
         <v>7165.83</v>
       </c>
       <c r="BE6" s="3">
@@ -2330,7 +2341,7 @@
       <c r="BG6" s="13">
         <v>7379.46</v>
       </c>
-      <c r="BH6" s="36">
+      <c r="BH6" s="37">
         <v>7537.29</v>
       </c>
       <c r="BI6" s="3">
@@ -2357,12 +2368,14 @@
       <c r="BP6" s="24">
         <v>6938.06</v>
       </c>
-      <c r="BQ6" s="21"/>
+      <c r="BQ6" s="25">
+        <v>6938.06</v>
+      </c>
       <c r="BR6" s="21"/>
-      <c r="BS6" s="29">
+      <c r="BS6" s="30">
         <v>6981</v>
       </c>
-      <c r="BT6" s="29">
+      <c r="BT6" s="30">
         <v>6981</v>
       </c>
     </row>
@@ -2424,10 +2437,12 @@
       <c r="T7" s="24">
         <v>1193</v>
       </c>
-      <c r="U7" s="21"/>
+      <c r="U7" s="25">
+        <v>1193</v>
+      </c>
       <c r="V7" s="21"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="42"/>
       <c r="Z7" s="3" t="s">
         <v>26</v>
       </c>
@@ -2446,7 +2461,7 @@
       <c r="AE7" s="13">
         <v>1369</v>
       </c>
-      <c r="AF7" s="36">
+      <c r="AF7" s="37">
         <v>1404</v>
       </c>
       <c r="AG7" s="3">
@@ -2458,7 +2473,7 @@
       <c r="AI7" s="13">
         <v>1405</v>
       </c>
-      <c r="AJ7" s="36">
+      <c r="AJ7" s="37">
         <v>1356</v>
       </c>
       <c r="AK7" s="3">
@@ -2485,10 +2500,12 @@
       <c r="AR7" s="24">
         <v>1593</v>
       </c>
-      <c r="AS7" s="21"/>
+      <c r="AS7" s="25">
+        <v>1590</v>
+      </c>
       <c r="AT7" s="21"/>
-      <c r="AU7" s="41"/>
-      <c r="AV7" s="41"/>
+      <c r="AU7" s="42"/>
+      <c r="AV7" s="42"/>
       <c r="AX7" s="3" t="s">
         <v>27</v>
       </c>
@@ -2507,7 +2524,7 @@
       <c r="BC7" s="13">
         <v>10306.54</v>
       </c>
-      <c r="BD7" s="36">
+      <c r="BD7" s="37">
         <v>14065.44</v>
       </c>
       <c r="BE7" s="3">
@@ -2519,7 +2536,7 @@
       <c r="BG7" s="13">
         <v>12877.05</v>
       </c>
-      <c r="BH7" s="36">
+      <c r="BH7" s="37">
         <v>14065.44</v>
       </c>
       <c r="BI7" s="3">
@@ -2546,12 +2563,14 @@
       <c r="BP7" s="24">
         <v>10213</v>
       </c>
-      <c r="BQ7" s="21"/>
+      <c r="BQ7" s="25">
+        <v>10213</v>
+      </c>
       <c r="BR7" s="21"/>
-      <c r="BS7" s="29">
+      <c r="BS7" s="30">
         <v>9596</v>
       </c>
-      <c r="BT7" s="29">
+      <c r="BT7" s="30">
         <v>9596</v>
       </c>
     </row>
@@ -2613,10 +2632,12 @@
       <c r="T8" s="24">
         <v>6624</v>
       </c>
-      <c r="U8" s="21"/>
+      <c r="U8" s="25">
+        <v>6365</v>
+      </c>
       <c r="V8" s="21"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="42"/>
       <c r="Z8" s="3" t="s">
         <v>29</v>
       </c>
@@ -2627,11 +2648,11 @@
       <c r="AC8" s="3"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="13"/>
-      <c r="AF8" s="36"/>
+      <c r="AF8" s="37"/>
       <c r="AG8" s="3"/>
       <c r="AH8" s="4"/>
       <c r="AI8" s="13"/>
-      <c r="AJ8" s="36"/>
+      <c r="AJ8" s="37"/>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
@@ -2640,12 +2661,12 @@
       <c r="AP8" s="21"/>
       <c r="AQ8" s="21"/>
       <c r="AR8" s="24"/>
-      <c r="AS8" s="21"/>
+      <c r="AS8" s="25"/>
       <c r="AT8" s="21"/>
-      <c r="AU8" s="41">
+      <c r="AU8" s="42">
         <v>14784</v>
       </c>
-      <c r="AV8" s="41">
+      <c r="AV8" s="42">
         <v>14784</v>
       </c>
       <c r="AX8" s="3" t="s">
@@ -2666,7 +2687,7 @@
       <c r="BC8" s="13">
         <v>22376.19</v>
       </c>
-      <c r="BD8" s="36">
+      <c r="BD8" s="37">
         <v>23341.46</v>
       </c>
       <c r="BE8" s="3">
@@ -2678,7 +2699,7 @@
       <c r="BG8" s="13">
         <v>23907.89</v>
       </c>
-      <c r="BH8" s="36">
+      <c r="BH8" s="37">
         <v>23147.12</v>
       </c>
       <c r="BI8" s="3">
@@ -2705,12 +2726,14 @@
       <c r="BP8" s="24">
         <v>22834.71</v>
       </c>
-      <c r="BQ8" s="21"/>
+      <c r="BQ8" s="25">
+        <v>22807.35</v>
+      </c>
       <c r="BR8" s="21"/>
-      <c r="BS8" s="29">
+      <c r="BS8" s="30">
         <v>20928</v>
       </c>
-      <c r="BT8" s="29">
+      <c r="BT8" s="30">
         <v>20928</v>
       </c>
     </row>
@@ -2772,12 +2795,14 @@
       <c r="T9" s="24">
         <v>282</v>
       </c>
-      <c r="U9" s="21"/>
+      <c r="U9" s="25">
+        <v>282</v>
+      </c>
       <c r="V9" s="21"/>
-      <c r="W9" s="40">
+      <c r="W9" s="41">
         <v>246</v>
       </c>
-      <c r="X9" s="41">
+      <c r="X9" s="42">
         <v>246</v>
       </c>
       <c r="Z9" s="3" t="s">
@@ -2790,11 +2815,11 @@
       <c r="AC9" s="3"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="13"/>
-      <c r="AF9" s="36"/>
+      <c r="AF9" s="37"/>
       <c r="AG9" s="3"/>
       <c r="AH9" s="4"/>
       <c r="AI9" s="13"/>
-      <c r="AJ9" s="36"/>
+      <c r="AJ9" s="37"/>
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
@@ -2803,12 +2828,12 @@
       <c r="AP9" s="21"/>
       <c r="AQ9" s="21"/>
       <c r="AR9" s="24"/>
-      <c r="AS9" s="21"/>
+      <c r="AS9" s="25"/>
       <c r="AT9" s="21"/>
-      <c r="AU9" s="41">
+      <c r="AU9" s="42">
         <v>6977</v>
       </c>
-      <c r="AV9" s="41">
+      <c r="AV9" s="42">
         <v>6977</v>
       </c>
       <c r="AX9" s="3" t="s">
@@ -2829,7 +2854,7 @@
       <c r="BC9" s="13">
         <v>10893.75</v>
       </c>
-      <c r="BD9" s="36">
+      <c r="BD9" s="37">
         <v>12001.03</v>
       </c>
       <c r="BE9" s="3">
@@ -2841,7 +2866,7 @@
       <c r="BG9" s="13">
         <v>12001.03</v>
       </c>
-      <c r="BH9" s="36">
+      <c r="BH9" s="37">
         <v>11480.73</v>
       </c>
       <c r="BI9" s="3">
@@ -2868,12 +2893,14 @@
       <c r="BP9" s="24">
         <v>11848.52</v>
       </c>
-      <c r="BQ9" s="21"/>
+      <c r="BQ9" s="25">
+        <v>11683.79</v>
+      </c>
       <c r="BR9" s="21"/>
-      <c r="BS9" s="29">
+      <c r="BS9" s="30">
         <v>10743</v>
       </c>
-      <c r="BT9" s="29">
+      <c r="BT9" s="30">
         <v>10743</v>
       </c>
     </row>
@@ -2935,12 +2962,14 @@
       <c r="T10" s="24">
         <v>376</v>
       </c>
-      <c r="U10" s="21"/>
+      <c r="U10" s="25">
+        <v>376</v>
+      </c>
       <c r="V10" s="21"/>
-      <c r="W10" s="40">
+      <c r="W10" s="41">
         <v>282</v>
       </c>
-      <c r="X10" s="41">
+      <c r="X10" s="42">
         <v>282</v>
       </c>
       <c r="Z10" s="3" t="s">
@@ -2953,11 +2982,11 @@
       <c r="AC10" s="3"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="13"/>
-      <c r="AF10" s="36"/>
+      <c r="AF10" s="37"/>
       <c r="AG10" s="3"/>
       <c r="AH10" s="4"/>
       <c r="AI10" s="13"/>
-      <c r="AJ10" s="36"/>
+      <c r="AJ10" s="37"/>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
@@ -2966,12 +2995,12 @@
       <c r="AP10" s="21"/>
       <c r="AQ10" s="21"/>
       <c r="AR10" s="24"/>
-      <c r="AS10" s="21"/>
+      <c r="AS10" s="25"/>
       <c r="AT10" s="21"/>
-      <c r="AU10" s="41">
+      <c r="AU10" s="42">
         <v>18471</v>
       </c>
-      <c r="AV10" s="41">
+      <c r="AV10" s="42">
         <v>18471</v>
       </c>
       <c r="AX10" s="3" t="s">
@@ -2992,7 +3021,7 @@
       <c r="BC10" s="13">
         <v>16537.99</v>
       </c>
-      <c r="BD10" s="36">
+      <c r="BD10" s="37">
         <v>15403.26</v>
       </c>
       <c r="BE10" s="3">
@@ -3004,7 +3033,7 @@
       <c r="BG10" s="13">
         <v>16537.99</v>
       </c>
-      <c r="BH10" s="36">
+      <c r="BH10" s="37">
         <v>15403.26</v>
       </c>
       <c r="BI10" s="3">
@@ -3031,12 +3060,14 @@
       <c r="BP10" s="24">
         <v>14453.64</v>
       </c>
-      <c r="BQ10" s="21"/>
+      <c r="BQ10" s="25">
+        <v>14514.92</v>
+      </c>
       <c r="BR10" s="21"/>
-      <c r="BS10" s="29">
+      <c r="BS10" s="30">
         <v>15403</v>
       </c>
-      <c r="BT10" s="29">
+      <c r="BT10" s="30">
         <v>15403</v>
       </c>
     </row>
@@ -3098,12 +3129,14 @@
       <c r="T11" s="24">
         <v>456.38</v>
       </c>
-      <c r="U11" s="21"/>
+      <c r="U11" s="25">
+        <v>456.38</v>
+      </c>
       <c r="V11" s="21"/>
-      <c r="W11" s="40">
+      <c r="W11" s="41">
         <v>489</v>
       </c>
-      <c r="X11" s="41">
+      <c r="X11" s="42">
         <v>489</v>
       </c>
       <c r="Z11" s="3" t="s">
@@ -3116,11 +3149,11 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="13"/>
-      <c r="AF11" s="36"/>
+      <c r="AF11" s="37"/>
       <c r="AG11" s="3"/>
       <c r="AH11" s="4"/>
       <c r="AI11" s="13"/>
-      <c r="AJ11" s="36"/>
+      <c r="AJ11" s="37"/>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
       <c r="AM11" s="3"/>
@@ -3129,10 +3162,10 @@
       <c r="AP11" s="21"/>
       <c r="AQ11" s="21"/>
       <c r="AR11" s="24"/>
-      <c r="AS11" s="21"/>
+      <c r="AS11" s="25"/>
       <c r="AT11" s="21"/>
-      <c r="AU11" s="41"/>
-      <c r="AV11" s="41"/>
+      <c r="AU11" s="42"/>
+      <c r="AV11" s="42"/>
       <c r="AX11" s="3" t="s">
         <v>39</v>
       </c>
@@ -3151,7 +3184,7 @@
       <c r="BC11" s="13">
         <v>22638.14</v>
       </c>
-      <c r="BD11" s="36">
+      <c r="BD11" s="37">
         <v>23231.19</v>
       </c>
       <c r="BE11" s="3">
@@ -3163,7 +3196,7 @@
       <c r="BG11" s="13">
         <v>23248.9</v>
       </c>
-      <c r="BH11" s="36">
+      <c r="BH11" s="37">
         <v>23231.19</v>
       </c>
       <c r="BI11" s="3">
@@ -3190,12 +3223,14 @@
       <c r="BP11" s="24">
         <v>23797.96</v>
       </c>
-      <c r="BQ11" s="21"/>
+      <c r="BQ11" s="25">
+        <v>23797.96</v>
+      </c>
       <c r="BR11" s="21"/>
-      <c r="BS11" s="29">
+      <c r="BS11" s="30">
         <v>18594</v>
       </c>
-      <c r="BT11" s="29">
+      <c r="BT11" s="30">
         <v>18645</v>
       </c>
     </row>
@@ -3257,12 +3292,14 @@
       <c r="T12" s="24">
         <v>11360.52</v>
       </c>
-      <c r="U12" s="21"/>
+      <c r="U12" s="25">
+        <v>11363.99</v>
+      </c>
       <c r="V12" s="21"/>
-      <c r="W12" s="40">
+      <c r="W12" s="41">
         <v>9840</v>
       </c>
-      <c r="X12" s="41">
+      <c r="X12" s="42">
         <v>10132</v>
       </c>
       <c r="Z12" s="3" t="s">
@@ -3275,11 +3312,11 @@
       <c r="AC12" s="3"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="13"/>
-      <c r="AF12" s="36"/>
+      <c r="AF12" s="37"/>
       <c r="AG12" s="3"/>
       <c r="AH12" s="4"/>
       <c r="AI12" s="13"/>
-      <c r="AJ12" s="36"/>
+      <c r="AJ12" s="37"/>
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
@@ -3288,10 +3325,10 @@
       <c r="AP12" s="21"/>
       <c r="AQ12" s="21"/>
       <c r="AR12" s="24"/>
-      <c r="AS12" s="21"/>
+      <c r="AS12" s="25"/>
       <c r="AT12" s="21"/>
-      <c r="AU12" s="41"/>
-      <c r="AV12" s="41"/>
+      <c r="AU12" s="42"/>
+      <c r="AV12" s="42"/>
       <c r="AX12" s="3" t="s">
         <v>42</v>
       </c>
@@ -3310,7 +3347,7 @@
       <c r="BC12" s="13">
         <v>7800</v>
       </c>
-      <c r="BD12" s="36">
+      <c r="BD12" s="37">
         <v>8023.61</v>
       </c>
       <c r="BE12" s="3">
@@ -3322,7 +3359,7 @@
       <c r="BG12" s="13">
         <v>7800</v>
       </c>
-      <c r="BH12" s="36">
+      <c r="BH12" s="37">
         <v>8023.61</v>
       </c>
       <c r="BI12" s="3">
@@ -3349,10 +3386,12 @@
       <c r="BP12" s="24">
         <v>7800</v>
       </c>
-      <c r="BQ12" s="21"/>
+      <c r="BQ12" s="25">
+        <v>7800</v>
+      </c>
       <c r="BR12" s="21"/>
-      <c r="BS12" s="29"/>
-      <c r="BT12" s="29"/>
+      <c r="BS12" s="30"/>
+      <c r="BT12" s="30"/>
     </row>
     <row r="13" spans="2:72">
       <c r="B13" s="3" t="s">
@@ -3412,10 +3451,12 @@
       <c r="T13" s="24">
         <v>4161</v>
       </c>
-      <c r="U13" s="21"/>
+      <c r="U13" s="25">
+        <v>4161</v>
+      </c>
       <c r="V13" s="21"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="42"/>
       <c r="Z13" s="3" t="s">
         <v>44</v>
       </c>
@@ -3434,7 +3475,7 @@
       <c r="AE13" s="13">
         <v>3454</v>
       </c>
-      <c r="AF13" s="36">
+      <c r="AF13" s="37">
         <v>3155</v>
       </c>
       <c r="AG13" s="3">
@@ -3446,7 +3487,7 @@
       <c r="AI13" s="13">
         <v>2884</v>
       </c>
-      <c r="AJ13" s="36">
+      <c r="AJ13" s="37">
         <v>3155</v>
       </c>
       <c r="AK13" s="3">
@@ -3473,12 +3514,14 @@
       <c r="AR13" s="24">
         <v>3454</v>
       </c>
-      <c r="AS13" s="21"/>
+      <c r="AS13" s="25">
+        <v>3454</v>
+      </c>
       <c r="AT13" s="21"/>
-      <c r="AU13" s="41">
+      <c r="AU13" s="42">
         <v>2094</v>
       </c>
-      <c r="AV13" s="41">
+      <c r="AV13" s="42">
         <v>2094</v>
       </c>
       <c r="AX13" s="3" t="s">
@@ -3499,7 +3542,7 @@
       <c r="BC13" s="13">
         <v>11693.22</v>
       </c>
-      <c r="BD13" s="36">
+      <c r="BD13" s="37">
         <v>12127.29</v>
       </c>
       <c r="BE13" s="3">
@@ -3511,7 +3554,7 @@
       <c r="BG13" s="13">
         <v>12256.31</v>
       </c>
-      <c r="BH13" s="36">
+      <c r="BH13" s="37">
         <v>10546.96</v>
       </c>
       <c r="BI13" s="3">
@@ -3538,10 +3581,12 @@
       <c r="BP13" s="24">
         <v>12419.6</v>
       </c>
-      <c r="BQ13" s="21"/>
+      <c r="BQ13" s="25">
+        <v>12243.81</v>
+      </c>
       <c r="BR13" s="21"/>
-      <c r="BS13" s="29"/>
-      <c r="BT13" s="29"/>
+      <c r="BS13" s="30"/>
+      <c r="BT13" s="30"/>
     </row>
     <row r="14" spans="2:72">
       <c r="B14" s="3" t="s">
@@ -3601,10 +3646,12 @@
       <c r="T14" s="24">
         <v>510</v>
       </c>
-      <c r="U14" s="21"/>
+      <c r="U14" s="25">
+        <v>510</v>
+      </c>
       <c r="V14" s="21"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="42"/>
       <c r="Z14" s="3" t="s">
         <v>47</v>
       </c>
@@ -3623,7 +3670,7 @@
       <c r="AE14" s="13">
         <v>5037.2</v>
       </c>
-      <c r="AF14" s="36">
+      <c r="AF14" s="37">
         <v>4792.31</v>
       </c>
       <c r="AG14" s="3">
@@ -3635,7 +3682,7 @@
       <c r="AI14" s="13">
         <v>4492.73</v>
       </c>
-      <c r="AJ14" s="36">
+      <c r="AJ14" s="37">
         <v>4788.84</v>
       </c>
       <c r="AK14" s="3">
@@ -3662,12 +3709,14 @@
       <c r="AR14" s="24">
         <v>5147.7</v>
       </c>
-      <c r="AS14" s="21"/>
+      <c r="AS14" s="25">
+        <v>5147.7</v>
+      </c>
       <c r="AT14" s="21"/>
-      <c r="AU14" s="41">
+      <c r="AU14" s="42">
         <v>4369</v>
       </c>
-      <c r="AV14" s="41">
+      <c r="AV14" s="42">
         <v>4369</v>
       </c>
       <c r="AX14" s="3" t="s">
@@ -3688,7 +3737,7 @@
       <c r="BC14" s="13">
         <v>21666.36</v>
       </c>
-      <c r="BD14" s="36">
+      <c r="BD14" s="37">
         <v>22904.63</v>
       </c>
       <c r="BE14" s="3">
@@ -3700,7 +3749,7 @@
       <c r="BG14" s="13">
         <v>23304.76</v>
       </c>
-      <c r="BH14" s="36">
+      <c r="BH14" s="37">
         <v>21586.45</v>
       </c>
       <c r="BI14" s="3">
@@ -3727,10 +3776,12 @@
       <c r="BP14" s="24">
         <v>23928.26</v>
       </c>
-      <c r="BQ14" s="21"/>
+      <c r="BQ14" s="25">
+        <v>23528.55</v>
+      </c>
       <c r="BR14" s="21"/>
-      <c r="BS14" s="29"/>
-      <c r="BT14" s="29"/>
+      <c r="BS14" s="30"/>
+      <c r="BT14" s="30"/>
     </row>
     <row r="15" spans="2:72">
       <c r="B15" s="3" t="s">
@@ -3790,12 +3841,14 @@
       <c r="T15" s="24">
         <v>249.88</v>
       </c>
-      <c r="U15" s="21"/>
+      <c r="U15" s="25">
+        <v>249.88</v>
+      </c>
       <c r="V15" s="21"/>
-      <c r="W15" s="40">
+      <c r="W15" s="41">
         <v>151</v>
       </c>
-      <c r="X15" s="41">
+      <c r="X15" s="42">
         <v>151</v>
       </c>
       <c r="Z15" s="3" t="s">
@@ -3816,7 +3869,7 @@
       <c r="AE15" s="13">
         <v>6400.64</v>
       </c>
-      <c r="AF15" s="36">
+      <c r="AF15" s="37">
         <v>7646.9</v>
       </c>
       <c r="AG15" s="3">
@@ -3828,7 +3881,7 @@
       <c r="AI15" s="13">
         <v>7429.09</v>
       </c>
-      <c r="AJ15" s="36">
+      <c r="AJ15" s="37">
         <v>7646.9</v>
       </c>
       <c r="AK15" s="3">
@@ -3855,12 +3908,14 @@
       <c r="AR15" s="24">
         <v>6211.1</v>
       </c>
-      <c r="AS15" s="21"/>
+      <c r="AS15" s="25">
+        <v>6211.1</v>
+      </c>
       <c r="AT15" s="21"/>
-      <c r="AU15" s="41">
+      <c r="AU15" s="42">
         <v>5286</v>
       </c>
-      <c r="AV15" s="41">
+      <c r="AV15" s="42">
         <v>5286</v>
       </c>
       <c r="AX15" s="3" t="s">
@@ -3881,13 +3936,13 @@
       <c r="BC15" s="13">
         <v>66131.75</v>
       </c>
-      <c r="BD15" s="36">
+      <c r="BD15" s="37">
         <v>65571.91</v>
       </c>
       <c r="BE15" s="3"/>
       <c r="BF15" s="4"/>
       <c r="BG15" s="13"/>
-      <c r="BH15" s="36"/>
+      <c r="BH15" s="37"/>
       <c r="BI15" s="3"/>
       <c r="BJ15" s="3"/>
       <c r="BK15" s="3"/>
@@ -3898,10 +3953,12 @@
       <c r="BP15" s="24">
         <v>78465.41</v>
       </c>
-      <c r="BQ15" s="21"/>
+      <c r="BQ15" s="25">
+        <v>73426.02</v>
+      </c>
       <c r="BR15" s="21"/>
-      <c r="BS15" s="29"/>
-      <c r="BT15" s="29"/>
+      <c r="BS15" s="30"/>
+      <c r="BT15" s="30"/>
     </row>
     <row r="16" spans="2:72">
       <c r="B16" s="3" t="s">
@@ -3961,12 +4018,14 @@
       <c r="T16" s="24">
         <v>1275.54</v>
       </c>
-      <c r="U16" s="21"/>
+      <c r="U16" s="25">
+        <v>1275.54</v>
+      </c>
       <c r="V16" s="21"/>
-      <c r="W16" s="40">
+      <c r="W16" s="41">
         <v>1116</v>
       </c>
-      <c r="X16" s="41">
+      <c r="X16" s="42">
         <v>1119</v>
       </c>
       <c r="Z16" s="3" t="s">
@@ -3987,7 +4046,7 @@
       <c r="AE16" s="13">
         <v>6863.81</v>
       </c>
-      <c r="AF16" s="36">
+      <c r="AF16" s="37">
         <v>6772.97</v>
       </c>
       <c r="AG16" s="3">
@@ -3999,7 +4058,7 @@
       <c r="AI16" s="13">
         <v>6899.46</v>
       </c>
-      <c r="AJ16" s="36">
+      <c r="AJ16" s="37">
         <v>6741.11</v>
       </c>
       <c r="AK16" s="3">
@@ -4026,12 +4085,14 @@
       <c r="AR16" s="24">
         <v>8522.77</v>
       </c>
-      <c r="AS16" s="21"/>
+      <c r="AS16" s="25">
+        <v>8203.64</v>
+      </c>
       <c r="AT16" s="21"/>
-      <c r="AU16" s="41">
+      <c r="AU16" s="42">
         <v>6138</v>
       </c>
-      <c r="AV16" s="41">
+      <c r="AV16" s="42">
         <v>6138</v>
       </c>
       <c r="AX16" s="3" t="s">
@@ -4052,7 +4113,7 @@
       <c r="BC16" s="13">
         <v>255.03</v>
       </c>
-      <c r="BD16" s="36">
+      <c r="BD16" s="37">
         <v>323.19</v>
       </c>
       <c r="BE16" s="3">
@@ -4064,7 +4125,7 @@
       <c r="BG16" s="13">
         <v>341.87</v>
       </c>
-      <c r="BH16" s="36">
+      <c r="BH16" s="37">
         <v>292.55</v>
       </c>
       <c r="BI16" s="3">
@@ -4091,12 +4152,14 @@
       <c r="BP16" s="24">
         <v>310.75</v>
       </c>
-      <c r="BQ16" s="21"/>
+      <c r="BQ16" s="25">
+        <v>310.75</v>
+      </c>
       <c r="BR16" s="21"/>
-      <c r="BS16" s="29">
+      <c r="BS16" s="30">
         <v>260</v>
       </c>
-      <c r="BT16" s="29">
+      <c r="BT16" s="30">
         <v>260</v>
       </c>
     </row>
@@ -4158,12 +4221,14 @@
       <c r="T17" s="24">
         <v>1614.05</v>
       </c>
-      <c r="U17" s="21"/>
+      <c r="U17" s="25">
+        <v>1566.24</v>
+      </c>
       <c r="V17" s="21"/>
-      <c r="W17" s="40">
+      <c r="W17" s="41">
         <v>1204</v>
       </c>
-      <c r="X17" s="41">
+      <c r="X17" s="42">
         <v>1204</v>
       </c>
       <c r="Z17" s="3" t="s">
@@ -4184,7 +4249,7 @@
       <c r="AE17" s="13">
         <v>5474.72</v>
       </c>
-      <c r="AF17" s="36">
+      <c r="AF17" s="37">
         <v>4469.81</v>
       </c>
       <c r="AG17" s="3">
@@ -4196,7 +4261,7 @@
       <c r="AI17" s="13">
         <v>4405.8</v>
       </c>
-      <c r="AJ17" s="36">
+      <c r="AJ17" s="37">
         <v>5384.91</v>
       </c>
       <c r="AK17" s="3">
@@ -4223,12 +4288,14 @@
       <c r="AR17" s="24">
         <v>5352.24</v>
       </c>
-      <c r="AS17" s="21"/>
+      <c r="AS17" s="25">
+        <v>5435.63</v>
+      </c>
       <c r="AT17" s="21"/>
-      <c r="AU17" s="41">
+      <c r="AU17" s="42">
         <v>4014</v>
       </c>
-      <c r="AV17" s="41">
+      <c r="AV17" s="42">
         <v>4014</v>
       </c>
       <c r="AX17" s="3" t="s">
@@ -4249,7 +4316,7 @@
       <c r="BC17" s="13">
         <v>559.05</v>
       </c>
-      <c r="BD17" s="36">
+      <c r="BD17" s="37">
         <v>593.08</v>
       </c>
       <c r="BE17" s="3">
@@ -4261,7 +4328,7 @@
       <c r="BG17" s="13">
         <v>594.47</v>
       </c>
-      <c r="BH17" s="36">
+      <c r="BH17" s="37">
         <v>546.13</v>
       </c>
       <c r="BI17" s="3">
@@ -4288,12 +4355,14 @@
       <c r="BP17" s="24">
         <v>578.86</v>
       </c>
-      <c r="BQ17" s="21"/>
+      <c r="BQ17" s="25">
+        <v>565.93</v>
+      </c>
       <c r="BR17" s="21"/>
-      <c r="BS17" s="29">
+      <c r="BS17" s="30">
         <v>538</v>
       </c>
-      <c r="BT17" s="29">
+      <c r="BT17" s="30">
         <v>538</v>
       </c>
     </row>
@@ -4355,12 +4424,14 @@
       <c r="T18" s="24">
         <v>114</v>
       </c>
-      <c r="U18" s="21"/>
+      <c r="U18" s="25">
+        <v>114</v>
+      </c>
       <c r="V18" s="21"/>
-      <c r="W18" s="40">
+      <c r="W18" s="41">
         <v>99</v>
       </c>
-      <c r="X18" s="41">
+      <c r="X18" s="42">
         <v>99</v>
       </c>
       <c r="Z18" s="3" t="s">
@@ -4381,7 +4452,7 @@
       <c r="AE18" s="13">
         <v>5133.8</v>
       </c>
-      <c r="AF18" s="36">
+      <c r="AF18" s="37">
         <v>5396.33</v>
       </c>
       <c r="AG18" s="3">
@@ -4393,7 +4464,7 @@
       <c r="AI18" s="13">
         <v>5281.26</v>
       </c>
-      <c r="AJ18" s="36">
+      <c r="AJ18" s="37">
         <v>5396.33</v>
       </c>
       <c r="AK18" s="3">
@@ -4420,12 +4491,14 @@
       <c r="AR18" s="24">
         <v>5134.25</v>
       </c>
-      <c r="AS18" s="21"/>
+      <c r="AS18" s="25">
+        <v>5134.25</v>
+      </c>
       <c r="AT18" s="21"/>
-      <c r="AU18" s="41">
+      <c r="AU18" s="42">
         <v>5119</v>
       </c>
-      <c r="AV18" s="41">
+      <c r="AV18" s="42">
         <v>5119</v>
       </c>
       <c r="AX18" s="3" t="s">
@@ -4446,7 +4519,7 @@
       <c r="BC18" s="13">
         <v>1721.77</v>
       </c>
-      <c r="BD18" s="36">
+      <c r="BD18" s="37">
         <v>1730.98</v>
       </c>
       <c r="BE18" s="3">
@@ -4458,7 +4531,7 @@
       <c r="BG18" s="13">
         <v>1724.74</v>
       </c>
-      <c r="BH18" s="36">
+      <c r="BH18" s="37">
         <v>1700.81</v>
       </c>
       <c r="BI18" s="3">
@@ -4485,10 +4558,12 @@
       <c r="BP18" s="24">
         <v>1747.84</v>
       </c>
-      <c r="BQ18" s="21"/>
+      <c r="BQ18" s="25">
+        <v>1708.22</v>
+      </c>
       <c r="BR18" s="21"/>
-      <c r="BS18" s="29"/>
-      <c r="BT18" s="29"/>
+      <c r="BS18" s="30"/>
+      <c r="BT18" s="30"/>
     </row>
     <row r="19" spans="2:72">
       <c r="B19" s="3" t="s">
@@ -4548,12 +4623,14 @@
       <c r="T19" s="24">
         <v>69.08</v>
       </c>
-      <c r="U19" s="21"/>
+      <c r="U19" s="25">
+        <v>69.08</v>
+      </c>
       <c r="V19" s="21"/>
-      <c r="W19" s="40">
+      <c r="W19" s="41">
         <v>71</v>
       </c>
-      <c r="X19" s="41">
+      <c r="X19" s="42">
         <v>71</v>
       </c>
       <c r="Z19" s="3" t="s">
@@ -4574,7 +4651,7 @@
       <c r="AE19" s="13">
         <v>6783.23</v>
       </c>
-      <c r="AF19" s="36">
+      <c r="AF19" s="37">
         <v>8301.6</v>
       </c>
       <c r="AG19" s="3">
@@ -4586,7 +4663,7 @@
       <c r="AI19" s="13">
         <v>7915.92</v>
       </c>
-      <c r="AJ19" s="36">
+      <c r="AJ19" s="37">
         <v>7231.98</v>
       </c>
       <c r="AK19" s="3">
@@ -4613,12 +4690,14 @@
       <c r="AR19" s="24">
         <v>6530.42</v>
       </c>
-      <c r="AS19" s="21"/>
+      <c r="AS19" s="25">
+        <v>6530.42</v>
+      </c>
       <c r="AT19" s="21"/>
-      <c r="AU19" s="41">
+      <c r="AU19" s="42">
         <v>5890</v>
       </c>
-      <c r="AV19" s="41">
+      <c r="AV19" s="42">
         <v>5890</v>
       </c>
       <c r="AX19" s="3" t="s">
@@ -4639,7 +4718,7 @@
       <c r="BC19" s="13">
         <v>2364.1</v>
       </c>
-      <c r="BD19" s="36">
+      <c r="BD19" s="37">
         <v>2372.35</v>
       </c>
       <c r="BE19" s="3"/>
@@ -4649,7 +4728,7 @@
       <c r="BG19" s="13">
         <v>2434.48</v>
       </c>
-      <c r="BH19" s="36">
+      <c r="BH19" s="37">
         <v>2218.16</v>
       </c>
       <c r="BI19" s="3" t="s">
@@ -4676,10 +4755,12 @@
       <c r="BP19" s="24">
         <v>2392.03</v>
       </c>
-      <c r="BQ19" s="21"/>
+      <c r="BQ19" s="25">
+        <v>2307.33</v>
+      </c>
       <c r="BR19" s="21"/>
-      <c r="BS19" s="29"/>
-      <c r="BT19" s="29"/>
+      <c r="BS19" s="30"/>
+      <c r="BT19" s="30"/>
     </row>
     <row r="20" spans="2:72">
       <c r="B20" s="3" t="s">
@@ -4739,12 +4820,14 @@
       <c r="T20" s="24">
         <v>103.67</v>
       </c>
-      <c r="U20" s="21"/>
+      <c r="U20" s="25">
+        <v>103.23</v>
+      </c>
       <c r="V20" s="21"/>
-      <c r="W20" s="40">
+      <c r="W20" s="41">
         <v>99</v>
       </c>
-      <c r="X20" s="41">
+      <c r="X20" s="42">
         <v>99</v>
       </c>
       <c r="Z20" s="3" t="s">
@@ -4765,7 +4848,7 @@
       <c r="AE20" s="13">
         <v>4318.56</v>
       </c>
-      <c r="AF20" s="36">
+      <c r="AF20" s="37">
         <v>5853.33</v>
       </c>
       <c r="AG20" s="3">
@@ -4777,7 +4860,7 @@
       <c r="AI20" s="13">
         <v>5811.52</v>
       </c>
-      <c r="AJ20" s="36">
+      <c r="AJ20" s="37">
         <v>4293.02</v>
       </c>
       <c r="AK20" s="3">
@@ -4804,12 +4887,14 @@
       <c r="AR20" s="24">
         <v>4625.3</v>
       </c>
-      <c r="AS20" s="21"/>
+      <c r="AS20" s="25">
+        <v>4625.3</v>
+      </c>
       <c r="AT20" s="21"/>
-      <c r="AU20" s="41">
+      <c r="AU20" s="42">
         <v>4293</v>
       </c>
-      <c r="AV20" s="41">
+      <c r="AV20" s="42">
         <v>4293</v>
       </c>
       <c r="AX20" s="3" t="s">
@@ -4830,7 +4915,7 @@
       <c r="BC20" s="13">
         <v>5145</v>
       </c>
-      <c r="BD20" s="36">
+      <c r="BD20" s="37">
         <v>5478</v>
       </c>
       <c r="BE20" s="3">
@@ -4842,7 +4927,7 @@
       <c r="BG20" s="13">
         <v>5382</v>
       </c>
-      <c r="BH20" s="36">
+      <c r="BH20" s="37">
         <v>5420</v>
       </c>
       <c r="BI20" s="3">
@@ -4869,10 +4954,12 @@
       <c r="BP20" s="24">
         <v>5108</v>
       </c>
-      <c r="BQ20" s="21"/>
+      <c r="BQ20" s="25">
+        <v>5040</v>
+      </c>
       <c r="BR20" s="21"/>
-      <c r="BS20" s="29"/>
-      <c r="BT20" s="29"/>
+      <c r="BS20" s="30"/>
+      <c r="BT20" s="30"/>
     </row>
     <row r="21" spans="2:72">
       <c r="B21" s="3" t="s">
@@ -4932,12 +5019,14 @@
       <c r="T21" s="24">
         <v>120.93</v>
       </c>
-      <c r="U21" s="21"/>
+      <c r="U21" s="25">
+        <v>119.08</v>
+      </c>
       <c r="V21" s="21"/>
-      <c r="W21" s="40">
+      <c r="W21" s="41">
         <v>101</v>
       </c>
-      <c r="X21" s="41">
+      <c r="X21" s="42">
         <v>101</v>
       </c>
       <c r="Z21" s="3" t="s">
@@ -4958,7 +5047,7 @@
       <c r="AE21" s="13">
         <v>5220.64</v>
       </c>
-      <c r="AF21" s="36">
+      <c r="AF21" s="37">
         <v>5246.28</v>
       </c>
       <c r="AG21" s="3">
@@ -4970,7 +5059,7 @@
       <c r="AI21" s="13">
         <v>5220.64</v>
       </c>
-      <c r="AJ21" s="36">
+      <c r="AJ21" s="37">
         <v>5246.28</v>
       </c>
       <c r="AK21" s="3">
@@ -4997,12 +5086,14 @@
       <c r="AR21" s="24">
         <v>5084.95</v>
       </c>
-      <c r="AS21" s="21"/>
+      <c r="AS21" s="25">
+        <v>5005.47</v>
+      </c>
       <c r="AT21" s="21"/>
-      <c r="AU21" s="41">
+      <c r="AU21" s="42">
         <v>3991</v>
       </c>
-      <c r="AV21" s="41">
+      <c r="AV21" s="42">
         <v>3991</v>
       </c>
       <c r="AX21" s="3" t="s">
@@ -5023,7 +5114,7 @@
       <c r="BC21" s="13">
         <v>12025</v>
       </c>
-      <c r="BD21" s="36">
+      <c r="BD21" s="37">
         <v>12196</v>
       </c>
       <c r="BE21" s="3">
@@ -5035,7 +5126,7 @@
       <c r="BG21" s="13">
         <v>0</v>
       </c>
-      <c r="BH21" s="36">
+      <c r="BH21" s="37">
         <v>12196</v>
       </c>
       <c r="BI21" s="3">
@@ -5062,10 +5153,12 @@
       <c r="BP21" s="24">
         <v>11607</v>
       </c>
-      <c r="BQ21" s="21"/>
+      <c r="BQ21" s="25">
+        <v>11603</v>
+      </c>
       <c r="BR21" s="21"/>
-      <c r="BS21" s="29"/>
-      <c r="BT21" s="29"/>
+      <c r="BS21" s="30"/>
+      <c r="BT21" s="30"/>
     </row>
     <row r="22" spans="2:72">
       <c r="B22" s="3" t="s">
@@ -5125,12 +5218,14 @@
       <c r="T22" s="24">
         <v>148</v>
       </c>
-      <c r="U22" s="21"/>
+      <c r="U22" s="25">
+        <v>145</v>
+      </c>
       <c r="V22" s="21"/>
-      <c r="W22" s="40">
+      <c r="W22" s="41">
         <v>145</v>
       </c>
-      <c r="X22" s="41">
+      <c r="X22" s="42">
         <v>145</v>
       </c>
       <c r="Z22" s="3" t="s">
@@ -5151,7 +5246,7 @@
       <c r="AE22" s="13">
         <v>3984.43</v>
       </c>
-      <c r="AF22" s="36">
+      <c r="AF22" s="37">
         <v>3842.76</v>
       </c>
       <c r="AG22" s="3">
@@ -5163,7 +5258,7 @@
       <c r="AI22" s="13">
         <v>3842.76</v>
       </c>
-      <c r="AJ22" s="36">
+      <c r="AJ22" s="37">
         <v>3919.58</v>
       </c>
       <c r="AK22" s="3">
@@ -5190,12 +5285,14 @@
       <c r="AR22" s="24">
         <v>3470.35</v>
       </c>
-      <c r="AS22" s="21"/>
+      <c r="AS22" s="25">
+        <v>3470.35</v>
+      </c>
       <c r="AT22" s="21"/>
-      <c r="AU22" s="41">
+      <c r="AU22" s="42">
         <v>3663</v>
       </c>
-      <c r="AV22" s="41">
+      <c r="AV22" s="42">
         <v>3663</v>
       </c>
       <c r="AX22" s="3" t="s">
@@ -5216,7 +5313,7 @@
       <c r="BC22" s="13">
         <v>22289</v>
       </c>
-      <c r="BD22" s="36">
+      <c r="BD22" s="37">
         <v>22414</v>
       </c>
       <c r="BE22" s="3">
@@ -5224,7 +5321,7 @@
       </c>
       <c r="BF22" s="4"/>
       <c r="BG22" s="13"/>
-      <c r="BH22" s="36"/>
+      <c r="BH22" s="37"/>
       <c r="BI22" s="3"/>
       <c r="BJ22" s="3"/>
       <c r="BK22" s="3"/>
@@ -5235,10 +5332,12 @@
       <c r="BP22" s="24">
         <v>22435</v>
       </c>
-      <c r="BQ22" s="21"/>
+      <c r="BQ22" s="25">
+        <v>22435</v>
+      </c>
       <c r="BR22" s="21"/>
-      <c r="BS22" s="29"/>
-      <c r="BT22" s="29"/>
+      <c r="BS22" s="30"/>
+      <c r="BT22" s="30"/>
     </row>
     <row r="23" spans="2:72">
       <c r="B23" s="3" t="s">
@@ -5298,12 +5397,14 @@
       <c r="T23" s="24">
         <v>590.3</v>
       </c>
-      <c r="U23" s="21"/>
+      <c r="U23" s="25">
+        <v>575.69</v>
+      </c>
       <c r="V23" s="21"/>
-      <c r="W23" s="40">
+      <c r="W23" s="41">
         <v>509</v>
       </c>
-      <c r="X23" s="41">
+      <c r="X23" s="42">
         <v>509</v>
       </c>
       <c r="Z23" s="3" t="s">
@@ -5324,7 +5425,7 @@
       <c r="AE23" s="13">
         <v>2084.1</v>
       </c>
-      <c r="AF23" s="36">
+      <c r="AF23" s="37">
         <v>2067.87</v>
       </c>
       <c r="AG23" s="3">
@@ -5336,7 +5437,7 @@
       <c r="AI23" s="13">
         <v>2067.87</v>
       </c>
-      <c r="AJ23" s="36">
+      <c r="AJ23" s="37">
         <v>2002.98</v>
       </c>
       <c r="AK23" s="3">
@@ -5363,12 +5464,14 @@
       <c r="AR23" s="24">
         <v>1887.65</v>
       </c>
-      <c r="AS23" s="21"/>
+      <c r="AS23" s="25">
+        <v>1853.13</v>
+      </c>
       <c r="AT23" s="21"/>
-      <c r="AU23" s="41">
+      <c r="AU23" s="42">
         <v>2108</v>
       </c>
-      <c r="AV23" s="41">
+      <c r="AV23" s="42">
         <v>2108</v>
       </c>
       <c r="AX23" s="3" t="s">
@@ -5389,7 +5492,7 @@
       <c r="BC23" s="13">
         <v>127.21</v>
       </c>
-      <c r="BD23" s="36">
+      <c r="BD23" s="37">
         <v>127.18</v>
       </c>
       <c r="BE23" s="3">
@@ -5401,7 +5504,7 @@
       <c r="BG23" s="13">
         <v>119.95</v>
       </c>
-      <c r="BH23" s="36">
+      <c r="BH23" s="37">
         <v>127.18</v>
       </c>
       <c r="BI23" s="3">
@@ -5428,12 +5531,14 @@
       <c r="BP23" s="24">
         <v>102.42</v>
       </c>
-      <c r="BQ23" s="21"/>
+      <c r="BQ23" s="25">
+        <v>102.42</v>
+      </c>
       <c r="BR23" s="21"/>
-      <c r="BS23" s="29">
+      <c r="BS23" s="30">
         <v>110</v>
       </c>
-      <c r="BT23" s="29">
+      <c r="BT23" s="30">
         <v>114</v>
       </c>
     </row>
@@ -5495,12 +5600,14 @@
       <c r="T24" s="24">
         <v>154</v>
       </c>
-      <c r="U24" s="21"/>
+      <c r="U24" s="25">
+        <v>154</v>
+      </c>
       <c r="V24" s="21"/>
-      <c r="W24" s="40">
+      <c r="W24" s="41">
         <v>143</v>
       </c>
-      <c r="X24" s="41">
+      <c r="X24" s="42">
         <v>143</v>
       </c>
       <c r="Z24" s="3" t="s">
@@ -5521,7 +5628,7 @@
       <c r="AE24" s="13">
         <v>9122.72</v>
       </c>
-      <c r="AF24" s="36">
+      <c r="AF24" s="37">
         <v>9230.75</v>
       </c>
       <c r="AG24" s="3">
@@ -5533,7 +5640,7 @@
       <c r="AI24" s="13">
         <v>9131.48</v>
       </c>
-      <c r="AJ24" s="36">
+      <c r="AJ24" s="37">
         <v>9406.35</v>
       </c>
       <c r="AK24" s="3">
@@ -5560,12 +5667,14 @@
       <c r="AR24" s="24">
         <v>8671.3</v>
       </c>
-      <c r="AS24" s="21"/>
+      <c r="AS24" s="25">
+        <v>8406.05</v>
+      </c>
       <c r="AT24" s="21"/>
-      <c r="AU24" s="41">
+      <c r="AU24" s="42">
         <v>8705</v>
       </c>
-      <c r="AV24" s="41">
+      <c r="AV24" s="42">
         <v>8705</v>
       </c>
       <c r="AX24" s="3" t="s">
@@ -5586,7 +5695,7 @@
       <c r="BC24" s="13">
         <v>146</v>
       </c>
-      <c r="BD24" s="36">
+      <c r="BD24" s="37">
         <v>146</v>
       </c>
       <c r="BE24" s="3">
@@ -5598,7 +5707,7 @@
       <c r="BG24" s="13">
         <v>146</v>
       </c>
-      <c r="BH24" s="36">
+      <c r="BH24" s="37">
         <v>146</v>
       </c>
       <c r="BI24" s="3">
@@ -5625,12 +5734,14 @@
       <c r="BP24" s="24">
         <v>152</v>
       </c>
-      <c r="BQ24" s="21"/>
+      <c r="BQ24" s="25">
+        <v>152</v>
+      </c>
       <c r="BR24" s="21"/>
-      <c r="BS24" s="29">
+      <c r="BS24" s="30">
         <v>66</v>
       </c>
-      <c r="BT24" s="29">
+      <c r="BT24" s="30">
         <v>66</v>
       </c>
     </row>
@@ -5641,40 +5752,40 @@
       <c r="C25" s="12">
         <v>5</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D25" s="40">
         <v>258</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="40">
         <v>258</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F25" s="40">
         <v>258</v>
       </c>
-      <c r="G25" s="39">
+      <c r="G25" s="40">
         <v>224</v>
       </c>
-      <c r="H25" s="39">
+      <c r="H25" s="40">
         <v>248</v>
       </c>
-      <c r="I25" s="39">
+      <c r="I25" s="40">
         <v>248</v>
       </c>
-      <c r="J25" s="39">
+      <c r="J25" s="40">
         <v>248</v>
       </c>
-      <c r="K25" s="39">
+      <c r="K25" s="40">
         <v>233</v>
       </c>
-      <c r="L25" s="39">
+      <c r="L25" s="40">
         <v>248</v>
       </c>
-      <c r="M25" s="39">
+      <c r="M25" s="40">
         <v>248</v>
       </c>
-      <c r="N25" s="39">
+      <c r="N25" s="40">
         <v>292</v>
       </c>
-      <c r="O25" s="39">
+      <c r="O25" s="40">
         <v>299</v>
       </c>
       <c r="P25" s="21">
@@ -5692,12 +5803,14 @@
       <c r="T25" s="24">
         <v>181</v>
       </c>
-      <c r="U25" s="21"/>
+      <c r="U25" s="25">
+        <v>181</v>
+      </c>
       <c r="V25" s="21"/>
-      <c r="W25" s="40">
+      <c r="W25" s="41">
         <v>178</v>
       </c>
-      <c r="X25" s="41">
+      <c r="X25" s="42">
         <v>178</v>
       </c>
       <c r="Z25" s="11" t="s">
@@ -5715,16 +5828,16 @@
       <c r="AD25" s="12">
         <v>13100.47</v>
       </c>
-      <c r="AE25" s="39">
+      <c r="AE25" s="40">
         <v>13078.98</v>
       </c>
-      <c r="AF25" s="44">
+      <c r="AF25" s="45">
         <v>12801.82</v>
       </c>
       <c r="AG25" s="11"/>
       <c r="AH25" s="12"/>
-      <c r="AI25" s="39"/>
-      <c r="AJ25" s="44"/>
+      <c r="AI25" s="40"/>
+      <c r="AJ25" s="45"/>
       <c r="AK25" s="11"/>
       <c r="AL25" s="11"/>
       <c r="AM25" s="11">
@@ -5737,10 +5850,12 @@
       <c r="AR25" s="24">
         <v>15371.08</v>
       </c>
-      <c r="AS25" s="21"/>
+      <c r="AS25" s="25">
+        <v>14968.31</v>
+      </c>
       <c r="AT25" s="21"/>
-      <c r="AU25" s="41"/>
-      <c r="AV25" s="41"/>
+      <c r="AU25" s="42"/>
+      <c r="AV25" s="42"/>
       <c r="AX25" s="3" t="s">
         <v>83</v>
       </c>
@@ -5759,7 +5874,7 @@
       <c r="BC25" s="13">
         <v>27500</v>
       </c>
-      <c r="BD25" s="36">
+      <c r="BD25" s="37">
         <v>27500</v>
       </c>
       <c r="BE25" s="3">
@@ -5771,7 +5886,7 @@
       <c r="BG25" s="13">
         <v>27500</v>
       </c>
-      <c r="BH25" s="36">
+      <c r="BH25" s="37">
         <v>27500</v>
       </c>
       <c r="BI25" s="3">
@@ -5798,10 +5913,12 @@
       <c r="BP25" s="24">
         <v>30239.35</v>
       </c>
-      <c r="BQ25" s="21"/>
+      <c r="BQ25" s="25">
+        <v>30239.35</v>
+      </c>
       <c r="BR25" s="21"/>
-      <c r="BS25" s="29"/>
-      <c r="BT25" s="29"/>
+      <c r="BS25" s="30"/>
+      <c r="BT25" s="30"/>
     </row>
     <row r="26" spans="2:72">
       <c r="B26" s="13" t="s">
@@ -5861,12 +5978,14 @@
       <c r="T26" s="24">
         <v>162</v>
       </c>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="43">
+      <c r="U26" s="25">
+        <v>162</v>
+      </c>
+      <c r="V26" s="43"/>
+      <c r="W26" s="44">
         <v>231</v>
       </c>
-      <c r="X26" s="41">
+      <c r="X26" s="42">
         <v>231</v>
       </c>
       <c r="Z26" s="13" t="s">
@@ -5926,10 +6045,12 @@
       <c r="AR26" s="24">
         <v>850</v>
       </c>
-      <c r="AS26" s="42"/>
-      <c r="AT26" s="42"/>
-      <c r="AU26" s="45"/>
-      <c r="AV26" s="41"/>
+      <c r="AS26" s="25">
+        <v>828</v>
+      </c>
+      <c r="AT26" s="43"/>
+      <c r="AU26" s="46"/>
+      <c r="AV26" s="42"/>
       <c r="AX26" s="3" t="s">
         <v>86</v>
       </c>
@@ -5948,7 +6069,7 @@
       <c r="BC26" s="13">
         <v>986.19</v>
       </c>
-      <c r="BD26" s="36">
+      <c r="BD26" s="37">
         <v>1038.03</v>
       </c>
       <c r="BE26" s="3">
@@ -5960,7 +6081,7 @@
       <c r="BG26" s="13">
         <v>1018.34</v>
       </c>
-      <c r="BH26" s="36">
+      <c r="BH26" s="37">
         <v>1094.89</v>
       </c>
       <c r="BI26" s="3">
@@ -5987,10 +6108,12 @@
       <c r="BP26" s="24">
         <v>1012.26</v>
       </c>
-      <c r="BQ26" s="21"/>
+      <c r="BQ26" s="25">
+        <v>964.77</v>
+      </c>
       <c r="BR26" s="21"/>
-      <c r="BS26" s="29"/>
-      <c r="BT26" s="29"/>
+      <c r="BS26" s="30"/>
+      <c r="BT26" s="30"/>
     </row>
     <row r="27" spans="50:72">
       <c r="AX27" s="3" t="s">
@@ -6011,7 +6134,7 @@
       <c r="BC27" s="13">
         <v>751.06</v>
       </c>
-      <c r="BD27" s="36">
+      <c r="BD27" s="37">
         <v>751.06</v>
       </c>
       <c r="BE27" s="3">
@@ -6023,7 +6146,7 @@
       <c r="BG27" s="13">
         <v>751.06</v>
       </c>
-      <c r="BH27" s="36">
+      <c r="BH27" s="37">
         <v>751.06</v>
       </c>
       <c r="BI27" s="3">
@@ -6050,12 +6173,14 @@
       <c r="BP27" s="24">
         <v>751.06</v>
       </c>
-      <c r="BQ27" s="21"/>
+      <c r="BQ27" s="25">
+        <v>751.06</v>
+      </c>
       <c r="BR27" s="21"/>
-      <c r="BS27" s="29">
+      <c r="BS27" s="30">
         <v>618</v>
       </c>
-      <c r="BT27" s="29">
+      <c r="BT27" s="30">
         <v>618</v>
       </c>
     </row>
@@ -6078,7 +6203,7 @@
       <c r="BC28" s="13">
         <v>456.58</v>
       </c>
-      <c r="BD28" s="36">
+      <c r="BD28" s="37">
         <v>456.58</v>
       </c>
       <c r="BE28" s="3">
@@ -6090,7 +6215,7 @@
       <c r="BG28" s="13">
         <v>456.58</v>
       </c>
-      <c r="BH28" s="36">
+      <c r="BH28" s="37">
         <v>456.58</v>
       </c>
       <c r="BI28" s="3">
@@ -6117,12 +6242,14 @@
       <c r="BP28" s="24">
         <v>456.58</v>
       </c>
-      <c r="BQ28" s="21"/>
+      <c r="BQ28" s="25">
+        <v>456.58</v>
+      </c>
       <c r="BR28" s="21"/>
-      <c r="BS28" s="29">
+      <c r="BS28" s="30">
         <v>447</v>
       </c>
-      <c r="BT28" s="29">
+      <c r="BT28" s="30">
         <v>447</v>
       </c>
     </row>
@@ -6162,7 +6289,7 @@
   <dimension ref="B2:BT28"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5:T26"/>
+      <selection activeCell="U5" sqref="U5:U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -6189,8 +6316,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:72">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="13" t="s">
         <v>0</v>
       </c>
@@ -6214,8 +6341,8 @@
       <c r="V2" s="13"/>
       <c r="W2" s="13"/>
       <c r="X2" s="13"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
       <c r="AB2" s="13" t="s">
         <v>0</v>
       </c>
@@ -6239,8 +6366,8 @@
       <c r="AT2" s="13"/>
       <c r="AU2" s="13"/>
       <c r="AV2" s="13"/>
-      <c r="AX2" s="27"/>
-      <c r="AY2" s="27"/>
+      <c r="AX2" s="28"/>
+      <c r="AY2" s="28"/>
       <c r="AZ2" s="13" t="s">
         <v>0</v>
       </c>
@@ -6382,7 +6509,7 @@
       <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="31" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -6451,52 +6578,52 @@
       <c r="Z4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="36" t="s">
+      <c r="AA4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="AB4" s="31" t="s">
+      <c r="AB4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="AC4" s="31" t="s">
+      <c r="AC4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="AD4" s="37" t="s">
+      <c r="AD4" s="38" t="s">
         <v>12</v>
       </c>
       <c r="AE4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AF4" s="38" t="s">
+      <c r="AF4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AG4" s="31" t="s">
+      <c r="AG4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="AH4" s="37" t="s">
+      <c r="AH4" s="38" t="s">
         <v>12</v>
       </c>
       <c r="AI4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AJ4" s="38" t="s">
+      <c r="AJ4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AK4" s="31" t="s">
+      <c r="AK4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="AL4" s="31" t="s">
+      <c r="AL4" s="32" t="s">
         <v>12</v>
       </c>
       <c r="AM4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AN4" s="38" t="s">
+      <c r="AN4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AO4" s="31" t="s">
+      <c r="AO4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="AP4" s="31" t="s">
+      <c r="AP4" s="32" t="s">
         <v>18</v>
       </c>
       <c r="AQ4" s="18" t="s">
@@ -6511,16 +6638,16 @@
       <c r="AT4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AU4" s="28" t="s">
+      <c r="AU4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AV4" s="28" t="s">
+      <c r="AV4" s="29" t="s">
         <v>17</v>
       </c>
       <c r="AX4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AY4" s="30" t="s">
+      <c r="AY4" s="31" t="s">
         <v>9</v>
       </c>
       <c r="AZ4" s="18" t="s">
@@ -6580,15 +6707,15 @@
       <c r="BR4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="BS4" s="28" t="s">
+      <c r="BS4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="BT4" s="28" t="s">
+      <c r="BT4" s="29" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:72">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="32" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="4">
@@ -6645,15 +6772,17 @@
       <c r="T5" s="24">
         <v>1531.81</v>
       </c>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="33">
+      <c r="U5" s="25">
+        <v>1469.76</v>
+      </c>
+      <c r="V5" s="33"/>
+      <c r="W5" s="34">
         <v>1234</v>
       </c>
-      <c r="X5" s="34">
+      <c r="X5" s="35">
         <v>1354</v>
       </c>
-      <c r="Z5" s="31" t="s">
+      <c r="Z5" s="32" t="s">
         <v>20</v>
       </c>
       <c r="AA5" s="3">
@@ -6671,7 +6800,7 @@
       <c r="AE5" s="13">
         <v>1979</v>
       </c>
-      <c r="AF5" s="36">
+      <c r="AF5" s="37">
         <v>1691</v>
       </c>
       <c r="AG5" s="3">
@@ -6683,7 +6812,7 @@
       <c r="AI5" s="13">
         <v>1691</v>
       </c>
-      <c r="AJ5" s="36">
+      <c r="AJ5" s="37">
         <v>1691</v>
       </c>
       <c r="AK5" s="3">
@@ -6710,15 +6839,17 @@
       <c r="AR5" s="24">
         <v>1548</v>
       </c>
-      <c r="AS5" s="21"/>
+      <c r="AS5" s="25">
+        <v>1548</v>
+      </c>
       <c r="AT5" s="21"/>
-      <c r="AU5" s="35">
+      <c r="AU5" s="36">
         <v>1691</v>
       </c>
-      <c r="AV5" s="29">
+      <c r="AV5" s="30">
         <v>1691</v>
       </c>
-      <c r="AX5" s="31" t="s">
+      <c r="AX5" s="32" t="s">
         <v>21</v>
       </c>
       <c r="AY5" s="4">
@@ -6775,12 +6906,14 @@
       <c r="BP5" s="24">
         <v>54614.58</v>
       </c>
-      <c r="BQ5" s="21"/>
+      <c r="BQ5" s="25">
+        <v>50744.31</v>
+      </c>
       <c r="BR5" s="21"/>
-      <c r="BS5" s="29">
+      <c r="BS5" s="30">
         <v>37793</v>
       </c>
-      <c r="BT5" s="29">
+      <c r="BT5" s="30">
         <v>37793</v>
       </c>
     </row>
@@ -6808,10 +6941,10 @@
       <c r="R6" s="21"/>
       <c r="S6" s="21"/>
       <c r="T6" s="24"/>
-      <c r="U6" s="21"/>
+      <c r="U6" s="25"/>
       <c r="V6" s="21"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="29"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="30"/>
       <c r="Z6" s="3" t="s">
         <v>23</v>
       </c>
@@ -6830,7 +6963,7 @@
       <c r="AE6" s="13">
         <v>21545.48</v>
       </c>
-      <c r="AF6" s="36">
+      <c r="AF6" s="37">
         <v>23146.59</v>
       </c>
       <c r="AG6" s="3">
@@ -6842,7 +6975,7 @@
       <c r="AI6" s="13">
         <v>23160.51</v>
       </c>
-      <c r="AJ6" s="36">
+      <c r="AJ6" s="37">
         <v>26964.52</v>
       </c>
       <c r="AK6" s="3">
@@ -6869,12 +7002,14 @@
       <c r="AR6" s="24">
         <v>21543.77</v>
       </c>
-      <c r="AS6" s="21"/>
+      <c r="AS6" s="25">
+        <v>21609.52</v>
+      </c>
       <c r="AT6" s="21"/>
-      <c r="AU6" s="35">
+      <c r="AU6" s="36">
         <v>17634</v>
       </c>
-      <c r="AV6" s="29">
+      <c r="AV6" s="30">
         <v>17634</v>
       </c>
       <c r="AX6" s="3" t="s">
@@ -6934,12 +7069,14 @@
       <c r="BP6" s="24">
         <v>14221.33</v>
       </c>
-      <c r="BQ6" s="21"/>
+      <c r="BQ6" s="25">
+        <v>14221.33</v>
+      </c>
       <c r="BR6" s="21"/>
-      <c r="BS6" s="29">
+      <c r="BS6" s="30">
         <v>14839</v>
       </c>
-      <c r="BT6" s="29">
+      <c r="BT6" s="30">
         <v>14839</v>
       </c>
     </row>
@@ -7001,10 +7138,12 @@
       <c r="T7" s="24">
         <v>3618</v>
       </c>
-      <c r="U7" s="21"/>
+      <c r="U7" s="25">
+        <v>3618</v>
+      </c>
       <c r="V7" s="21"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="29"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="30"/>
       <c r="Z7" s="3" t="s">
         <v>26</v>
       </c>
@@ -7023,7 +7162,7 @@
       <c r="AE7" s="13">
         <v>3142</v>
       </c>
-      <c r="AF7" s="36">
+      <c r="AF7" s="37">
         <v>3062</v>
       </c>
       <c r="AG7" s="3">
@@ -7035,7 +7174,7 @@
       <c r="AI7" s="13">
         <v>3062</v>
       </c>
-      <c r="AJ7" s="36">
+      <c r="AJ7" s="37">
         <v>2950</v>
       </c>
       <c r="AK7" s="3">
@@ -7062,10 +7201,12 @@
       <c r="AR7" s="24">
         <v>3201</v>
       </c>
-      <c r="AS7" s="21"/>
+      <c r="AS7" s="25">
+        <v>3199</v>
+      </c>
       <c r="AT7" s="21"/>
-      <c r="AU7" s="35"/>
-      <c r="AV7" s="29"/>
+      <c r="AU7" s="36"/>
+      <c r="AV7" s="30"/>
       <c r="AX7" s="3" t="s">
         <v>27</v>
       </c>
@@ -7123,12 +7264,14 @@
       <c r="BP7" s="24">
         <v>23409.6</v>
       </c>
-      <c r="BQ7" s="21"/>
+      <c r="BQ7" s="25">
+        <v>22900.39</v>
+      </c>
       <c r="BR7" s="21"/>
-      <c r="BS7" s="29">
+      <c r="BS7" s="30">
         <v>21420</v>
       </c>
-      <c r="BT7" s="29">
+      <c r="BT7" s="30">
         <v>21564</v>
       </c>
     </row>
@@ -7190,10 +7333,12 @@
       <c r="T8" s="24">
         <v>15683</v>
       </c>
-      <c r="U8" s="21"/>
+      <c r="U8" s="25">
+        <v>14965</v>
+      </c>
       <c r="V8" s="21"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="29"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="30"/>
       <c r="Z8" s="3" t="s">
         <v>29</v>
       </c>
@@ -7204,11 +7349,11 @@
       <c r="AC8" s="3"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="13"/>
-      <c r="AF8" s="36"/>
+      <c r="AF8" s="37"/>
       <c r="AG8" s="3"/>
       <c r="AH8" s="4"/>
       <c r="AI8" s="13"/>
-      <c r="AJ8" s="36"/>
+      <c r="AJ8" s="37"/>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
@@ -7217,12 +7362,12 @@
       <c r="AP8" s="21"/>
       <c r="AQ8" s="21"/>
       <c r="AR8" s="24"/>
-      <c r="AS8" s="21"/>
+      <c r="AS8" s="25"/>
       <c r="AT8" s="21"/>
-      <c r="AU8" s="35">
+      <c r="AU8" s="36">
         <v>29108</v>
       </c>
-      <c r="AV8" s="29">
+      <c r="AV8" s="30">
         <v>29108</v>
       </c>
       <c r="AX8" s="3" t="s">
@@ -7282,12 +7427,14 @@
       <c r="BP8" s="24">
         <v>53186.52</v>
       </c>
-      <c r="BQ8" s="21"/>
+      <c r="BQ8" s="25">
+        <v>52630.18</v>
+      </c>
       <c r="BR8" s="21"/>
-      <c r="BS8" s="29">
+      <c r="BS8" s="30">
         <v>47911</v>
       </c>
-      <c r="BT8" s="29">
+      <c r="BT8" s="30">
         <v>48960</v>
       </c>
     </row>
@@ -7349,12 +7496,14 @@
       <c r="T9" s="24">
         <v>655</v>
       </c>
-      <c r="U9" s="21"/>
+      <c r="U9" s="25">
+        <v>655</v>
+      </c>
       <c r="V9" s="21"/>
-      <c r="W9" s="35">
+      <c r="W9" s="36">
         <v>581</v>
       </c>
-      <c r="X9" s="29">
+      <c r="X9" s="30">
         <v>581</v>
       </c>
       <c r="Z9" s="3" t="s">
@@ -7367,11 +7516,11 @@
       <c r="AC9" s="3"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="13"/>
-      <c r="AF9" s="36"/>
+      <c r="AF9" s="37"/>
       <c r="AG9" s="3"/>
       <c r="AH9" s="4"/>
       <c r="AI9" s="13"/>
-      <c r="AJ9" s="36"/>
+      <c r="AJ9" s="37"/>
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
@@ -7380,12 +7529,12 @@
       <c r="AP9" s="21"/>
       <c r="AQ9" s="21"/>
       <c r="AR9" s="24"/>
-      <c r="AS9" s="21"/>
+      <c r="AS9" s="25"/>
       <c r="AT9" s="21"/>
-      <c r="AU9" s="35">
+      <c r="AU9" s="36">
         <v>13996</v>
       </c>
-      <c r="AV9" s="29">
+      <c r="AV9" s="30">
         <v>14131</v>
       </c>
       <c r="AX9" s="3" t="s">
@@ -7445,12 +7594,14 @@
       <c r="BP9" s="24">
         <v>26591.22</v>
       </c>
-      <c r="BQ9" s="21"/>
+      <c r="BQ9" s="25">
+        <v>26533.4</v>
+      </c>
       <c r="BR9" s="21"/>
-      <c r="BS9" s="29">
+      <c r="BS9" s="30">
         <v>26296</v>
       </c>
-      <c r="BT9" s="29">
+      <c r="BT9" s="30">
         <v>26296</v>
       </c>
     </row>
@@ -7512,12 +7663,14 @@
       <c r="T10" s="24">
         <v>752</v>
       </c>
-      <c r="U10" s="21"/>
+      <c r="U10" s="25">
+        <v>752</v>
+      </c>
       <c r="V10" s="21"/>
-      <c r="W10" s="35">
+      <c r="W10" s="36">
         <v>672</v>
       </c>
-      <c r="X10" s="29">
+      <c r="X10" s="30">
         <v>672</v>
       </c>
       <c r="Z10" s="3" t="s">
@@ -7530,11 +7683,11 @@
       <c r="AC10" s="3"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="13"/>
-      <c r="AF10" s="36"/>
+      <c r="AF10" s="37"/>
       <c r="AG10" s="3"/>
       <c r="AH10" s="4"/>
       <c r="AI10" s="13"/>
-      <c r="AJ10" s="36"/>
+      <c r="AJ10" s="37"/>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
@@ -7543,12 +7696,12 @@
       <c r="AP10" s="21"/>
       <c r="AQ10" s="21"/>
       <c r="AR10" s="24"/>
-      <c r="AS10" s="21"/>
+      <c r="AS10" s="25"/>
       <c r="AT10" s="21"/>
-      <c r="AU10" s="35">
+      <c r="AU10" s="36">
         <v>41661</v>
       </c>
-      <c r="AV10" s="29">
+      <c r="AV10" s="30">
         <v>41877</v>
       </c>
       <c r="AX10" s="3" t="s">
@@ -7608,12 +7761,14 @@
       <c r="BP10" s="24">
         <v>32889.71</v>
       </c>
-      <c r="BQ10" s="21"/>
+      <c r="BQ10" s="25">
+        <v>33023.75</v>
+      </c>
       <c r="BR10" s="21"/>
-      <c r="BS10" s="29">
+      <c r="BS10" s="30">
         <v>30712</v>
       </c>
-      <c r="BT10" s="29">
+      <c r="BT10" s="30">
         <v>30718</v>
       </c>
     </row>
@@ -7675,12 +7830,14 @@
       <c r="T11" s="24">
         <v>2183.91</v>
       </c>
-      <c r="U11" s="21"/>
+      <c r="U11" s="25">
+        <v>2106.37</v>
+      </c>
       <c r="V11" s="21"/>
-      <c r="W11" s="35">
+      <c r="W11" s="36">
         <v>1766</v>
       </c>
-      <c r="X11" s="29">
+      <c r="X11" s="30">
         <v>1766</v>
       </c>
       <c r="Z11" s="3" t="s">
@@ -7693,11 +7850,11 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="13"/>
-      <c r="AF11" s="36"/>
+      <c r="AF11" s="37"/>
       <c r="AG11" s="3"/>
       <c r="AH11" s="4"/>
       <c r="AI11" s="13"/>
-      <c r="AJ11" s="36"/>
+      <c r="AJ11" s="37"/>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
       <c r="AM11" s="3"/>
@@ -7706,10 +7863,10 @@
       <c r="AP11" s="21"/>
       <c r="AQ11" s="21"/>
       <c r="AR11" s="24"/>
-      <c r="AS11" s="21"/>
+      <c r="AS11" s="25"/>
       <c r="AT11" s="21"/>
-      <c r="AU11" s="35"/>
-      <c r="AV11" s="29"/>
+      <c r="AU11" s="36"/>
+      <c r="AV11" s="30"/>
       <c r="AX11" s="3" t="s">
         <v>39</v>
       </c>
@@ -7767,12 +7924,14 @@
       <c r="BP11" s="24">
         <v>45649.55</v>
       </c>
-      <c r="BQ11" s="21"/>
+      <c r="BQ11" s="25">
+        <v>45053.7</v>
+      </c>
       <c r="BR11" s="21"/>
-      <c r="BS11" s="29">
+      <c r="BS11" s="30">
         <v>33349</v>
       </c>
-      <c r="BT11" s="29">
+      <c r="BT11" s="30">
         <v>33349</v>
       </c>
     </row>
@@ -7834,12 +7993,14 @@
       <c r="T12" s="24">
         <v>28669.19</v>
       </c>
-      <c r="U12" s="21"/>
+      <c r="U12" s="25">
+        <v>27999.03</v>
+      </c>
       <c r="V12" s="21"/>
-      <c r="W12" s="35">
+      <c r="W12" s="36">
         <v>24862</v>
       </c>
-      <c r="X12" s="29">
+      <c r="X12" s="30">
         <v>24862</v>
       </c>
       <c r="Z12" s="3" t="s">
@@ -7852,11 +8013,11 @@
       <c r="AC12" s="3"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="13"/>
-      <c r="AF12" s="36"/>
+      <c r="AF12" s="37"/>
       <c r="AG12" s="3"/>
       <c r="AH12" s="4"/>
       <c r="AI12" s="13"/>
-      <c r="AJ12" s="36"/>
+      <c r="AJ12" s="37"/>
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
@@ -7865,10 +8026,10 @@
       <c r="AP12" s="21"/>
       <c r="AQ12" s="21"/>
       <c r="AR12" s="24"/>
-      <c r="AS12" s="21"/>
+      <c r="AS12" s="25"/>
       <c r="AT12" s="21"/>
-      <c r="AU12" s="35"/>
-      <c r="AV12" s="29"/>
+      <c r="AU12" s="36"/>
+      <c r="AV12" s="30"/>
       <c r="AX12" s="3" t="s">
         <v>42</v>
       </c>
@@ -7926,10 +8087,12 @@
       <c r="BP12" s="24">
         <v>25802.87</v>
       </c>
-      <c r="BQ12" s="21"/>
+      <c r="BQ12" s="25">
+        <v>25681.09</v>
+      </c>
       <c r="BR12" s="21"/>
-      <c r="BS12" s="29"/>
-      <c r="BT12" s="29"/>
+      <c r="BS12" s="30"/>
+      <c r="BT12" s="30"/>
     </row>
     <row r="13" spans="2:72">
       <c r="B13" s="3" t="s">
@@ -7989,10 +8152,12 @@
       <c r="T13" s="24">
         <v>8423</v>
       </c>
-      <c r="U13" s="21"/>
+      <c r="U13" s="25">
+        <v>8201</v>
+      </c>
       <c r="V13" s="21"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="29"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="30"/>
       <c r="Z13" s="3" t="s">
         <v>44</v>
       </c>
@@ -8011,7 +8176,7 @@
       <c r="AE13" s="13">
         <v>5977</v>
       </c>
-      <c r="AF13" s="36">
+      <c r="AF13" s="37">
         <v>5381</v>
       </c>
       <c r="AG13" s="3">
@@ -8023,7 +8188,7 @@
       <c r="AI13" s="13">
         <v>5412</v>
       </c>
-      <c r="AJ13" s="36">
+      <c r="AJ13" s="37">
         <v>6289</v>
       </c>
       <c r="AK13" s="3">
@@ -8050,12 +8215,14 @@
       <c r="AR13" s="24">
         <v>6166</v>
       </c>
-      <c r="AS13" s="21"/>
+      <c r="AS13" s="25">
+        <v>6166</v>
+      </c>
       <c r="AT13" s="21"/>
-      <c r="AU13" s="35">
+      <c r="AU13" s="36">
         <v>4238</v>
       </c>
-      <c r="AV13" s="29">
+      <c r="AV13" s="30">
         <v>4300</v>
       </c>
       <c r="AX13" s="3" t="s">
@@ -8115,10 +8282,12 @@
       <c r="BP13" s="24">
         <v>26268.82</v>
       </c>
-      <c r="BQ13" s="21"/>
+      <c r="BQ13" s="25">
+        <v>25762.61</v>
+      </c>
       <c r="BR13" s="21"/>
-      <c r="BS13" s="29"/>
-      <c r="BT13" s="29"/>
+      <c r="BS13" s="30"/>
+      <c r="BT13" s="30"/>
     </row>
     <row r="14" spans="2:72">
       <c r="B14" s="3" t="s">
@@ -8178,10 +8347,12 @@
       <c r="T14" s="24">
         <v>1300</v>
       </c>
-      <c r="U14" s="21"/>
+      <c r="U14" s="25">
+        <v>1160</v>
+      </c>
       <c r="V14" s="21"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="29"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="30"/>
       <c r="Z14" s="3" t="s">
         <v>47</v>
       </c>
@@ -8200,7 +8371,7 @@
       <c r="AE14" s="13">
         <v>11256.35</v>
       </c>
-      <c r="AF14" s="36">
+      <c r="AF14" s="37">
         <v>10171.17</v>
       </c>
       <c r="AG14" s="3">
@@ -8212,7 +8383,7 @@
       <c r="AI14" s="13">
         <v>9795.47</v>
       </c>
-      <c r="AJ14" s="36">
+      <c r="AJ14" s="37">
         <v>10444.9</v>
       </c>
       <c r="AK14" s="3">
@@ -8239,12 +8410,14 @@
       <c r="AR14" s="24">
         <v>10407.58</v>
       </c>
-      <c r="AS14" s="21"/>
+      <c r="AS14" s="25">
+        <v>10419.42</v>
+      </c>
       <c r="AT14" s="21"/>
-      <c r="AU14" s="35">
+      <c r="AU14" s="36">
         <v>9073</v>
       </c>
-      <c r="AV14" s="29">
+      <c r="AV14" s="30">
         <v>9098</v>
       </c>
       <c r="AX14" s="3" t="s">
@@ -8304,10 +8477,12 @@
       <c r="BP14" s="24">
         <v>44307.49</v>
       </c>
-      <c r="BQ14" s="21"/>
+      <c r="BQ14" s="25">
+        <v>41769.18</v>
+      </c>
       <c r="BR14" s="21"/>
-      <c r="BS14" s="29"/>
-      <c r="BT14" s="29"/>
+      <c r="BS14" s="30"/>
+      <c r="BT14" s="30"/>
     </row>
     <row r="15" spans="2:72">
       <c r="B15" s="3" t="s">
@@ -8367,12 +8542,14 @@
       <c r="T15" s="24">
         <v>967.86</v>
       </c>
-      <c r="U15" s="21"/>
+      <c r="U15" s="25">
+        <v>967.86</v>
+      </c>
       <c r="V15" s="21"/>
-      <c r="W15" s="35">
+      <c r="W15" s="36">
         <v>842</v>
       </c>
-      <c r="X15" s="29">
+      <c r="X15" s="30">
         <v>842</v>
       </c>
       <c r="Z15" s="3" t="s">
@@ -8393,7 +8570,7 @@
       <c r="AE15" s="13">
         <v>15463.93</v>
       </c>
-      <c r="AF15" s="36">
+      <c r="AF15" s="37">
         <v>15194.75</v>
       </c>
       <c r="AG15" s="3">
@@ -8405,7 +8582,7 @@
       <c r="AI15" s="13">
         <v>15235.59</v>
       </c>
-      <c r="AJ15" s="36">
+      <c r="AJ15" s="37">
         <v>13836.8</v>
       </c>
       <c r="AK15" s="3">
@@ -8432,12 +8609,14 @@
       <c r="AR15" s="24">
         <v>14760.14</v>
       </c>
-      <c r="AS15" s="21"/>
+      <c r="AS15" s="25">
+        <v>14555.29</v>
+      </c>
       <c r="AT15" s="21"/>
-      <c r="AU15" s="35">
+      <c r="AU15" s="36">
         <v>11412</v>
       </c>
-      <c r="AV15" s="29">
+      <c r="AV15" s="30">
         <v>11483</v>
       </c>
       <c r="AX15" s="3" t="s">
@@ -8473,10 +8652,10 @@
       <c r="BN15" s="21"/>
       <c r="BO15" s="21"/>
       <c r="BP15" s="24"/>
-      <c r="BQ15" s="21"/>
+      <c r="BQ15" s="25"/>
       <c r="BR15" s="21"/>
-      <c r="BS15" s="29"/>
-      <c r="BT15" s="29"/>
+      <c r="BS15" s="30"/>
+      <c r="BT15" s="30"/>
     </row>
     <row r="16" spans="2:72">
       <c r="B16" s="3" t="s">
@@ -8536,12 +8715,14 @@
       <c r="T16" s="24">
         <v>2790.49</v>
       </c>
-      <c r="U16" s="21"/>
+      <c r="U16" s="25">
+        <v>2597.19</v>
+      </c>
       <c r="V16" s="21"/>
-      <c r="W16" s="35">
+      <c r="W16" s="36">
         <v>2492</v>
       </c>
-      <c r="X16" s="29">
+      <c r="X16" s="30">
         <v>2492</v>
       </c>
       <c r="Z16" s="3" t="s">
@@ -8562,7 +8743,7 @@
       <c r="AE16" s="13">
         <v>13519.19</v>
       </c>
-      <c r="AF16" s="36">
+      <c r="AF16" s="37">
         <v>15518.81</v>
       </c>
       <c r="AG16" s="3">
@@ -8574,7 +8755,7 @@
       <c r="AI16" s="13">
         <v>15796.78</v>
       </c>
-      <c r="AJ16" s="36">
+      <c r="AJ16" s="37">
         <v>15428.8</v>
       </c>
       <c r="AK16" s="3">
@@ -8601,12 +8782,14 @@
       <c r="AR16" s="24">
         <v>16881.78</v>
       </c>
-      <c r="AS16" s="21"/>
+      <c r="AS16" s="25">
+        <v>15913.5</v>
+      </c>
       <c r="AT16" s="21"/>
-      <c r="AU16" s="35">
+      <c r="AU16" s="36">
         <v>13315</v>
       </c>
-      <c r="AV16" s="29">
+      <c r="AV16" s="30">
         <v>13315</v>
       </c>
       <c r="AX16" s="3" t="s">
@@ -8666,12 +8849,14 @@
       <c r="BP16" s="24">
         <v>675.05</v>
       </c>
-      <c r="BQ16" s="21"/>
+      <c r="BQ16" s="25">
+        <v>631.96</v>
+      </c>
       <c r="BR16" s="21"/>
-      <c r="BS16" s="29">
+      <c r="BS16" s="30">
         <v>554</v>
       </c>
-      <c r="BT16" s="29">
+      <c r="BT16" s="30">
         <v>554</v>
       </c>
     </row>
@@ -8733,12 +8918,14 @@
       <c r="T17" s="24">
         <v>3610.09</v>
       </c>
-      <c r="U17" s="21"/>
+      <c r="U17" s="25">
+        <v>3421.42</v>
+      </c>
       <c r="V17" s="21"/>
-      <c r="W17" s="35">
+      <c r="W17" s="36">
         <v>2772</v>
       </c>
-      <c r="X17" s="29">
+      <c r="X17" s="30">
         <v>2790</v>
       </c>
       <c r="Z17" s="3" t="s">
@@ -8759,7 +8946,7 @@
       <c r="AE17" s="13">
         <v>11415.84</v>
       </c>
-      <c r="AF17" s="36">
+      <c r="AF17" s="37">
         <v>11529.81</v>
       </c>
       <c r="AG17" s="3">
@@ -8771,7 +8958,7 @@
       <c r="AI17" s="13">
         <v>11768</v>
       </c>
-      <c r="AJ17" s="36">
+      <c r="AJ17" s="37">
         <v>10913.61</v>
       </c>
       <c r="AK17" s="3">
@@ -8798,12 +8985,14 @@
       <c r="AR17" s="24">
         <v>12254.11</v>
       </c>
-      <c r="AS17" s="21"/>
+      <c r="AS17" s="25">
+        <v>12178.68</v>
+      </c>
       <c r="AT17" s="21"/>
-      <c r="AU17" s="35">
+      <c r="AU17" s="36">
         <v>9071</v>
       </c>
-      <c r="AV17" s="29">
+      <c r="AV17" s="30">
         <v>9071</v>
       </c>
       <c r="AX17" s="3" t="s">
@@ -8863,12 +9052,14 @@
       <c r="BP17" s="24">
         <v>1261.31</v>
       </c>
-      <c r="BQ17" s="21"/>
+      <c r="BQ17" s="25">
+        <v>1230.56</v>
+      </c>
       <c r="BR17" s="21"/>
-      <c r="BS17" s="29">
+      <c r="BS17" s="30">
         <v>1106</v>
       </c>
-      <c r="BT17" s="29">
+      <c r="BT17" s="30">
         <v>1108</v>
       </c>
     </row>
@@ -8930,12 +9121,14 @@
       <c r="T18" s="24">
         <v>266</v>
       </c>
-      <c r="U18" s="21"/>
+      <c r="U18" s="25">
+        <v>261</v>
+      </c>
       <c r="V18" s="21"/>
-      <c r="W18" s="35">
+      <c r="W18" s="36">
         <v>227</v>
       </c>
-      <c r="X18" s="29">
+      <c r="X18" s="30">
         <v>227</v>
       </c>
       <c r="Z18" s="3" t="s">
@@ -8956,7 +9149,7 @@
       <c r="AE18" s="13">
         <v>11979.07</v>
       </c>
-      <c r="AF18" s="36">
+      <c r="AF18" s="37">
         <v>13325.39</v>
       </c>
       <c r="AG18" s="3">
@@ -8968,7 +9161,7 @@
       <c r="AI18" s="13">
         <v>13373.56</v>
       </c>
-      <c r="AJ18" s="36">
+      <c r="AJ18" s="37">
         <v>11828.96</v>
       </c>
       <c r="AK18" s="3">
@@ -8995,12 +9188,14 @@
       <c r="AR18" s="24">
         <v>13454.86</v>
       </c>
-      <c r="AS18" s="21"/>
+      <c r="AS18" s="25">
+        <v>13393.48</v>
+      </c>
       <c r="AT18" s="21"/>
-      <c r="AU18" s="35">
+      <c r="AU18" s="36">
         <v>11501</v>
       </c>
-      <c r="AV18" s="29">
+      <c r="AV18" s="30">
         <v>11501</v>
       </c>
       <c r="AX18" s="3" t="s">
@@ -9060,10 +9255,12 @@
       <c r="BP18" s="24">
         <v>3684.15</v>
       </c>
-      <c r="BQ18" s="21"/>
+      <c r="BQ18" s="25">
+        <v>3615.8</v>
+      </c>
       <c r="BR18" s="21"/>
-      <c r="BS18" s="29"/>
-      <c r="BT18" s="29"/>
+      <c r="BS18" s="30"/>
+      <c r="BT18" s="30"/>
     </row>
     <row r="19" spans="2:72">
       <c r="B19" s="3" t="s">
@@ -9123,12 +9320,14 @@
       <c r="T19" s="24">
         <v>174.24</v>
       </c>
-      <c r="U19" s="21"/>
+      <c r="U19" s="25">
+        <v>173.53</v>
+      </c>
       <c r="V19" s="21"/>
-      <c r="W19" s="35">
+      <c r="W19" s="36">
         <v>179</v>
       </c>
-      <c r="X19" s="29">
+      <c r="X19" s="30">
         <v>181</v>
       </c>
       <c r="Z19" s="3" t="s">
@@ -9149,7 +9348,7 @@
       <c r="AE19" s="13">
         <v>16727.82</v>
       </c>
-      <c r="AF19" s="36">
+      <c r="AF19" s="37">
         <v>17045.05</v>
       </c>
       <c r="AG19" s="3">
@@ -9161,7 +9360,7 @@
       <c r="AI19" s="13">
         <v>17120.65</v>
       </c>
-      <c r="AJ19" s="36">
+      <c r="AJ19" s="37">
         <v>15996.61</v>
       </c>
       <c r="AK19" s="3">
@@ -9188,12 +9387,14 @@
       <c r="AR19" s="24">
         <v>16248.17</v>
       </c>
-      <c r="AS19" s="21"/>
+      <c r="AS19" s="25">
+        <v>15898.3</v>
+      </c>
       <c r="AT19" s="21"/>
-      <c r="AU19" s="35">
+      <c r="AU19" s="36">
         <v>12787</v>
       </c>
-      <c r="AV19" s="29">
+      <c r="AV19" s="30">
         <v>12787</v>
       </c>
       <c r="AX19" s="3" t="s">
@@ -9237,10 +9438,12 @@
       <c r="BP19" s="24">
         <v>4980.35</v>
       </c>
-      <c r="BQ19" s="21"/>
+      <c r="BQ19" s="25">
+        <v>4870.89</v>
+      </c>
       <c r="BR19" s="21"/>
-      <c r="BS19" s="29"/>
-      <c r="BT19" s="29"/>
+      <c r="BS19" s="30"/>
+      <c r="BT19" s="30"/>
     </row>
     <row r="20" spans="2:72">
       <c r="B20" s="3" t="s">
@@ -9300,12 +9503,14 @@
       <c r="T20" s="24">
         <v>228.32</v>
       </c>
-      <c r="U20" s="21"/>
+      <c r="U20" s="25">
+        <v>226.74</v>
+      </c>
       <c r="V20" s="21"/>
-      <c r="W20" s="35">
+      <c r="W20" s="36">
         <v>217</v>
       </c>
-      <c r="X20" s="29">
+      <c r="X20" s="30">
         <v>219</v>
       </c>
       <c r="Z20" s="3" t="s">
@@ -9326,7 +9531,7 @@
       <c r="AE20" s="13">
         <v>9412.28</v>
       </c>
-      <c r="AF20" s="36">
+      <c r="AF20" s="37">
         <v>11703.58</v>
       </c>
       <c r="AG20" s="3">
@@ -9338,7 +9543,7 @@
       <c r="AI20" s="13">
         <v>12035.93</v>
       </c>
-      <c r="AJ20" s="36">
+      <c r="AJ20" s="37">
         <v>10824.74</v>
       </c>
       <c r="AK20" s="3">
@@ -9365,12 +9570,14 @@
       <c r="AR20" s="24">
         <v>12446.75</v>
       </c>
-      <c r="AS20" s="21"/>
+      <c r="AS20" s="25">
+        <v>11809.74</v>
+      </c>
       <c r="AT20" s="21"/>
-      <c r="AU20" s="35">
+      <c r="AU20" s="36">
         <v>9428</v>
       </c>
-      <c r="AV20" s="29">
+      <c r="AV20" s="30">
         <v>9498</v>
       </c>
       <c r="AX20" s="3" t="s">
@@ -9430,10 +9637,12 @@
       <c r="BP20" s="24">
         <v>10294</v>
       </c>
-      <c r="BQ20" s="21"/>
+      <c r="BQ20" s="25">
+        <v>10272</v>
+      </c>
       <c r="BR20" s="21"/>
-      <c r="BS20" s="29"/>
-      <c r="BT20" s="29"/>
+      <c r="BS20" s="30"/>
+      <c r="BT20" s="30"/>
     </row>
     <row r="21" spans="2:72">
       <c r="B21" s="3" t="s">
@@ -9493,12 +9702,14 @@
       <c r="T21" s="24">
         <v>287.88</v>
       </c>
-      <c r="U21" s="21"/>
+      <c r="U21" s="25">
+        <v>282.53</v>
+      </c>
       <c r="V21" s="21"/>
-      <c r="W21" s="35">
+      <c r="W21" s="36">
         <v>249</v>
       </c>
-      <c r="X21" s="29">
+      <c r="X21" s="30">
         <v>249</v>
       </c>
       <c r="Z21" s="3" t="s">
@@ -9519,7 +9730,7 @@
       <c r="AE21" s="13">
         <v>10720.17</v>
       </c>
-      <c r="AF21" s="36">
+      <c r="AF21" s="37">
         <v>11197.73</v>
       </c>
       <c r="AG21" s="3">
@@ -9531,7 +9742,7 @@
       <c r="AI21" s="13">
         <v>11092.2</v>
       </c>
-      <c r="AJ21" s="36">
+      <c r="AJ21" s="37">
         <v>11197.73</v>
       </c>
       <c r="AK21" s="3">
@@ -9558,12 +9769,14 @@
       <c r="AR21" s="24">
         <v>10587.26</v>
       </c>
-      <c r="AS21" s="21"/>
+      <c r="AS21" s="25">
+        <v>10587.26</v>
+      </c>
       <c r="AT21" s="21"/>
-      <c r="AU21" s="35">
+      <c r="AU21" s="36">
         <v>8808</v>
       </c>
-      <c r="AV21" s="29">
+      <c r="AV21" s="30">
         <v>8808</v>
       </c>
       <c r="AX21" s="3" t="s">
@@ -9623,10 +9836,12 @@
       <c r="BP21" s="24">
         <v>23096</v>
       </c>
-      <c r="BQ21" s="21"/>
+      <c r="BQ21" s="25">
+        <v>23089</v>
+      </c>
       <c r="BR21" s="21"/>
-      <c r="BS21" s="29"/>
-      <c r="BT21" s="29"/>
+      <c r="BS21" s="30"/>
+      <c r="BT21" s="30"/>
     </row>
     <row r="22" spans="2:72">
       <c r="B22" s="3" t="s">
@@ -9686,12 +9901,14 @@
       <c r="T22" s="24">
         <v>361</v>
       </c>
-      <c r="U22" s="21"/>
+      <c r="U22" s="25">
+        <v>361</v>
+      </c>
       <c r="V22" s="21"/>
-      <c r="W22" s="35">
+      <c r="W22" s="36">
         <v>308</v>
       </c>
-      <c r="X22" s="29">
+      <c r="X22" s="30">
         <v>339</v>
       </c>
       <c r="Z22" s="3" t="s">
@@ -9712,7 +9929,7 @@
       <c r="AE22" s="13">
         <v>10023.72</v>
       </c>
-      <c r="AF22" s="36">
+      <c r="AF22" s="37">
         <v>10160.41</v>
       </c>
       <c r="AG22" s="3">
@@ -9724,7 +9941,7 @@
       <c r="AI22" s="13">
         <v>9535.85</v>
       </c>
-      <c r="AJ22" s="36">
+      <c r="AJ22" s="37">
         <v>9449.58</v>
       </c>
       <c r="AK22" s="3">
@@ -9751,12 +9968,14 @@
       <c r="AR22" s="24">
         <v>9429.83</v>
       </c>
-      <c r="AS22" s="21"/>
+      <c r="AS22" s="25">
+        <v>9401.94</v>
+      </c>
       <c r="AT22" s="21"/>
-      <c r="AU22" s="35">
+      <c r="AU22" s="36">
         <v>9370</v>
       </c>
-      <c r="AV22" s="29">
+      <c r="AV22" s="30">
         <v>9370</v>
       </c>
       <c r="AX22" s="3" t="s">
@@ -9792,10 +10011,10 @@
       <c r="BN22" s="21"/>
       <c r="BO22" s="21"/>
       <c r="BP22" s="24"/>
-      <c r="BQ22" s="21"/>
+      <c r="BQ22" s="25"/>
       <c r="BR22" s="21"/>
-      <c r="BS22" s="29"/>
-      <c r="BT22" s="29"/>
+      <c r="BS22" s="30"/>
+      <c r="BT22" s="30"/>
     </row>
     <row r="23" spans="2:72">
       <c r="B23" s="3" t="s">
@@ -9855,12 +10074,14 @@
       <c r="T23" s="24">
         <v>1234.19</v>
       </c>
-      <c r="U23" s="21"/>
+      <c r="U23" s="25">
+        <v>1228.27</v>
+      </c>
       <c r="V23" s="21"/>
-      <c r="W23" s="35">
+      <c r="W23" s="36">
         <v>1049</v>
       </c>
-      <c r="X23" s="29">
+      <c r="X23" s="30">
         <v>1049</v>
       </c>
       <c r="Z23" s="3" t="s">
@@ -9881,7 +10102,7 @@
       <c r="AE23" s="13">
         <v>5835.44</v>
       </c>
-      <c r="AF23" s="36">
+      <c r="AF23" s="37">
         <v>5290</v>
       </c>
       <c r="AG23" s="3">
@@ -9893,7 +10114,7 @@
       <c r="AI23" s="13">
         <v>5350.1</v>
       </c>
-      <c r="AJ23" s="36">
+      <c r="AJ23" s="37">
         <v>5838.62</v>
       </c>
       <c r="AK23" s="3">
@@ -9920,12 +10141,14 @@
       <c r="AR23" s="24">
         <v>5234.72</v>
       </c>
-      <c r="AS23" s="21"/>
+      <c r="AS23" s="25">
+        <v>5234.72</v>
+      </c>
       <c r="AT23" s="21"/>
-      <c r="AU23" s="35">
+      <c r="AU23" s="36">
         <v>5532</v>
       </c>
-      <c r="AV23" s="29">
+      <c r="AV23" s="30">
         <v>5532</v>
       </c>
       <c r="AX23" s="3" t="s">
@@ -9985,12 +10208,14 @@
       <c r="BP23" s="24">
         <v>243.1</v>
       </c>
-      <c r="BQ23" s="21"/>
+      <c r="BQ23" s="25">
+        <v>243.1</v>
+      </c>
       <c r="BR23" s="21"/>
-      <c r="BS23" s="29">
+      <c r="BS23" s="30">
         <v>250</v>
       </c>
-      <c r="BT23" s="29">
+      <c r="BT23" s="30">
         <v>264</v>
       </c>
     </row>
@@ -10052,12 +10277,14 @@
       <c r="T24" s="24">
         <v>426</v>
       </c>
-      <c r="U24" s="21"/>
+      <c r="U24" s="25">
+        <v>426</v>
+      </c>
       <c r="V24" s="21"/>
-      <c r="W24" s="35">
+      <c r="W24" s="36">
         <v>359</v>
       </c>
-      <c r="X24" s="29">
+      <c r="X24" s="30">
         <v>368</v>
       </c>
       <c r="Z24" s="3" t="s">
@@ -10078,7 +10305,7 @@
       <c r="AE24" s="13">
         <v>22398.66</v>
       </c>
-      <c r="AF24" s="36">
+      <c r="AF24" s="37">
         <v>20659.25</v>
       </c>
       <c r="AG24" s="3">
@@ -10090,7 +10317,7 @@
       <c r="AI24" s="13">
         <v>20562.68</v>
       </c>
-      <c r="AJ24" s="36">
+      <c r="AJ24" s="37">
         <v>21122.47</v>
       </c>
       <c r="AK24" s="3">
@@ -10117,12 +10344,14 @@
       <c r="AR24" s="24">
         <v>21025.38</v>
       </c>
-      <c r="AS24" s="21"/>
+      <c r="AS24" s="25">
+        <v>20839.81</v>
+      </c>
       <c r="AT24" s="21"/>
-      <c r="AU24" s="35">
+      <c r="AU24" s="36">
         <v>17655</v>
       </c>
-      <c r="AV24" s="29">
+      <c r="AV24" s="30">
         <v>17655</v>
       </c>
       <c r="AX24" s="3" t="s">
@@ -10182,12 +10411,14 @@
       <c r="BP24" s="24">
         <v>507</v>
       </c>
-      <c r="BQ24" s="21"/>
+      <c r="BQ24" s="25">
+        <v>505</v>
+      </c>
       <c r="BR24" s="21"/>
-      <c r="BS24" s="29">
+      <c r="BS24" s="30">
         <v>132</v>
       </c>
-      <c r="BT24" s="29">
+      <c r="BT24" s="30">
         <v>141</v>
       </c>
     </row>
@@ -10249,12 +10480,14 @@
       <c r="T25" s="24">
         <v>456</v>
       </c>
-      <c r="U25" s="21"/>
+      <c r="U25" s="25">
+        <v>456</v>
+      </c>
       <c r="V25" s="21"/>
-      <c r="W25" s="35">
+      <c r="W25" s="36">
         <v>683</v>
       </c>
-      <c r="X25" s="29">
+      <c r="X25" s="30">
         <v>683</v>
       </c>
       <c r="Z25" s="3" t="s">
@@ -10275,13 +10508,13 @@
       <c r="AE25" s="13">
         <v>28205.78</v>
       </c>
-      <c r="AF25" s="36">
+      <c r="AF25" s="37">
         <v>27917.4</v>
       </c>
       <c r="AG25" s="3"/>
       <c r="AH25" s="4"/>
       <c r="AI25" s="13"/>
-      <c r="AJ25" s="36"/>
+      <c r="AJ25" s="37"/>
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
       <c r="AM25" s="3"/>
@@ -10290,10 +10523,10 @@
       <c r="AP25" s="21"/>
       <c r="AQ25" s="21"/>
       <c r="AR25" s="24"/>
-      <c r="AS25" s="21"/>
+      <c r="AS25" s="25"/>
       <c r="AT25" s="21"/>
-      <c r="AU25" s="35"/>
-      <c r="AV25" s="29"/>
+      <c r="AU25" s="36"/>
+      <c r="AV25" s="30"/>
       <c r="AX25" s="3" t="s">
         <v>83</v>
       </c>
@@ -10351,10 +10584,12 @@
       <c r="BP25" s="24">
         <v>63849.22</v>
       </c>
-      <c r="BQ25" s="21"/>
+      <c r="BQ25" s="25">
+        <v>63347.41</v>
+      </c>
       <c r="BR25" s="21"/>
-      <c r="BS25" s="29"/>
-      <c r="BT25" s="29"/>
+      <c r="BS25" s="30"/>
+      <c r="BT25" s="30"/>
     </row>
     <row r="26" spans="2:72">
       <c r="B26" s="3" t="s">
@@ -10414,12 +10649,14 @@
       <c r="T26" s="24">
         <v>402</v>
       </c>
-      <c r="U26" s="21"/>
+      <c r="U26" s="25">
+        <v>402</v>
+      </c>
       <c r="V26" s="21"/>
-      <c r="W26" s="35">
+      <c r="W26" s="36">
         <v>396</v>
       </c>
-      <c r="X26" s="29">
+      <c r="X26" s="30">
         <v>396</v>
       </c>
       <c r="Z26" s="3" t="s">
@@ -10440,7 +10677,7 @@
       <c r="AE26" s="13">
         <v>1277</v>
       </c>
-      <c r="AF26" s="36">
+      <c r="AF26" s="37">
         <v>1219</v>
       </c>
       <c r="AG26" s="3">
@@ -10452,7 +10689,7 @@
       <c r="AI26" s="13">
         <v>1241</v>
       </c>
-      <c r="AJ26" s="36">
+      <c r="AJ26" s="37">
         <v>1298</v>
       </c>
       <c r="AK26" s="3">
@@ -10479,10 +10716,12 @@
       <c r="AR26" s="24">
         <v>1552</v>
       </c>
-      <c r="AS26" s="21"/>
+      <c r="AS26" s="25">
+        <v>1505</v>
+      </c>
       <c r="AT26" s="21"/>
-      <c r="AU26" s="35"/>
-      <c r="AV26" s="29"/>
+      <c r="AU26" s="36"/>
+      <c r="AV26" s="30"/>
       <c r="AX26" s="3" t="s">
         <v>86</v>
       </c>
@@ -10540,10 +10779,12 @@
       <c r="BP26" s="24">
         <v>2122.89</v>
       </c>
-      <c r="BQ26" s="21"/>
+      <c r="BQ26" s="25">
+        <v>2028.57</v>
+      </c>
       <c r="BR26" s="21"/>
-      <c r="BS26" s="29"/>
-      <c r="BT26" s="29"/>
+      <c r="BS26" s="30"/>
+      <c r="BT26" s="30"/>
     </row>
     <row r="27" spans="50:72">
       <c r="AX27" s="3" t="s">
@@ -10603,12 +10844,14 @@
       <c r="BP27" s="24">
         <v>1463.06</v>
       </c>
-      <c r="BQ27" s="21"/>
+      <c r="BQ27" s="25">
+        <v>1463.06</v>
+      </c>
       <c r="BR27" s="21"/>
-      <c r="BS27" s="29">
+      <c r="BS27" s="30">
         <v>1329</v>
       </c>
-      <c r="BT27" s="29">
+      <c r="BT27" s="30">
         <v>1329</v>
       </c>
     </row>
@@ -10670,12 +10913,14 @@
       <c r="BP28" s="24">
         <v>2171.85</v>
       </c>
-      <c r="BQ28" s="21"/>
+      <c r="BQ28" s="25">
+        <v>2171.85</v>
+      </c>
       <c r="BR28" s="21"/>
-      <c r="BS28" s="29">
+      <c r="BS28" s="30">
         <v>1473</v>
       </c>
-      <c r="BT28" s="29">
+      <c r="BT28" s="30">
         <v>1473</v>
       </c>
     </row>
@@ -10714,8 +10959,8 @@
   <sheetPr/>
   <dimension ref="B2:BT28"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5:T26"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="BQ36" sqref="BQ36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -10772,8 +11017,8 @@
       <c r="V2" s="13"/>
       <c r="W2" s="13"/>
       <c r="X2" s="13"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
       <c r="AB2" s="13" t="s">
         <v>0</v>
       </c>
@@ -10797,8 +11042,8 @@
       <c r="AT2" s="13"/>
       <c r="AU2" s="13"/>
       <c r="AV2" s="13"/>
-      <c r="AX2" s="27"/>
-      <c r="AY2" s="27"/>
+      <c r="AX2" s="28"/>
+      <c r="AY2" s="28"/>
       <c r="AZ2" s="13" t="s">
         <v>0</v>
       </c>
@@ -11069,10 +11314,10 @@
       <c r="AT4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AU4" s="28" t="s">
+      <c r="AU4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AV4" s="28" t="s">
+      <c r="AV4" s="29" t="s">
         <v>17</v>
       </c>
       <c r="AX4" s="3" t="s">
@@ -11138,10 +11383,10 @@
       <c r="BR4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="BS4" s="28" t="s">
+      <c r="BS4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="BT4" s="28" t="s">
+      <c r="BT4" s="29" t="s">
         <v>17</v>
       </c>
     </row>
@@ -11203,12 +11448,14 @@
       <c r="T5" s="24">
         <v>2110.24</v>
       </c>
-      <c r="U5" s="21"/>
+      <c r="U5" s="25">
+        <v>2032.33</v>
+      </c>
       <c r="V5" s="21"/>
-      <c r="W5" s="25">
+      <c r="W5" s="26">
         <v>1894</v>
       </c>
-      <c r="X5" s="26">
+      <c r="X5" s="27">
         <v>1925</v>
       </c>
       <c r="Z5" s="3" t="s">
@@ -11268,12 +11515,14 @@
       <c r="AR5" s="24">
         <v>2917</v>
       </c>
-      <c r="AS5" s="21"/>
+      <c r="AS5" s="25">
+        <v>2887</v>
+      </c>
       <c r="AT5" s="21"/>
-      <c r="AU5" s="29">
+      <c r="AU5" s="30">
         <v>3135</v>
       </c>
-      <c r="AV5" s="29">
+      <c r="AV5" s="30">
         <v>3135</v>
       </c>
       <c r="AX5" s="3" t="s">
@@ -11333,12 +11582,14 @@
       <c r="BP5" s="24">
         <v>76145.68</v>
       </c>
-      <c r="BQ5" s="21"/>
+      <c r="BQ5" s="25">
+        <v>74958.07</v>
+      </c>
       <c r="BR5" s="21"/>
-      <c r="BS5" s="29">
+      <c r="BS5" s="30">
         <v>62262</v>
       </c>
-      <c r="BT5" s="29">
+      <c r="BT5" s="30">
         <v>62262</v>
       </c>
     </row>
@@ -11366,10 +11617,10 @@
       <c r="R6" s="21"/>
       <c r="S6" s="21"/>
       <c r="T6" s="24"/>
-      <c r="U6" s="21"/>
+      <c r="U6" s="25"/>
       <c r="V6" s="21"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="27"/>
       <c r="Z6" s="3" t="s">
         <v>23</v>
       </c>
@@ -11427,12 +11678,14 @@
       <c r="AR6" s="24">
         <v>41850.97</v>
       </c>
-      <c r="AS6" s="21"/>
+      <c r="AS6" s="25">
+        <v>40913.06</v>
+      </c>
       <c r="AT6" s="21"/>
-      <c r="AU6" s="29">
+      <c r="AU6" s="30">
         <v>29257</v>
       </c>
-      <c r="AV6" s="29">
+      <c r="AV6" s="30">
         <v>30083</v>
       </c>
       <c r="AX6" s="3" t="s">
@@ -11492,12 +11745,14 @@
       <c r="BP6" s="24">
         <v>29207.41</v>
       </c>
-      <c r="BQ6" s="21"/>
+      <c r="BQ6" s="25">
+        <v>29207.41</v>
+      </c>
       <c r="BR6" s="21"/>
-      <c r="BS6" s="29">
+      <c r="BS6" s="30">
         <v>29684</v>
       </c>
-      <c r="BT6" s="29">
+      <c r="BT6" s="30">
         <v>29684</v>
       </c>
     </row>
@@ -11559,10 +11814,12 @@
       <c r="T7" s="24">
         <v>6030</v>
       </c>
-      <c r="U7" s="21"/>
+      <c r="U7" s="25">
+        <v>6020</v>
+      </c>
       <c r="V7" s="21"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="27"/>
       <c r="Z7" s="3" t="s">
         <v>26</v>
       </c>
@@ -11620,10 +11877,12 @@
       <c r="AR7" s="24">
         <v>4815</v>
       </c>
-      <c r="AS7" s="21"/>
+      <c r="AS7" s="25">
+        <v>4803</v>
+      </c>
       <c r="AT7" s="21"/>
-      <c r="AU7" s="29"/>
-      <c r="AV7" s="29"/>
+      <c r="AU7" s="30"/>
+      <c r="AV7" s="30"/>
       <c r="AX7" s="3" t="s">
         <v>27</v>
       </c>
@@ -11681,12 +11940,14 @@
       <c r="BP7" s="24">
         <v>39298.44</v>
       </c>
-      <c r="BQ7" s="21"/>
+      <c r="BQ7" s="25">
+        <v>39040.23</v>
+      </c>
       <c r="BR7" s="21"/>
-      <c r="BS7" s="29">
+      <c r="BS7" s="30">
         <v>36977</v>
       </c>
-      <c r="BT7" s="29">
+      <c r="BT7" s="30">
         <v>36977</v>
       </c>
     </row>
@@ -11748,10 +12009,12 @@
       <c r="T8" s="24">
         <v>22343</v>
       </c>
-      <c r="U8" s="21"/>
+      <c r="U8" s="25">
+        <v>21465</v>
+      </c>
       <c r="V8" s="21"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="27"/>
       <c r="Z8" s="3" t="s">
         <v>29</v>
       </c>
@@ -11775,12 +12038,12 @@
       <c r="AP8" s="21"/>
       <c r="AQ8" s="21"/>
       <c r="AR8" s="24"/>
-      <c r="AS8" s="21"/>
+      <c r="AS8" s="25"/>
       <c r="AT8" s="21"/>
-      <c r="AU8" s="29">
+      <c r="AU8" s="30">
         <v>44147</v>
       </c>
-      <c r="AV8" s="29">
+      <c r="AV8" s="30">
         <v>44286</v>
       </c>
       <c r="AX8" s="3" t="s">
@@ -11840,12 +12103,14 @@
       <c r="BP8" s="24">
         <v>76308.07</v>
       </c>
-      <c r="BQ8" s="21"/>
+      <c r="BQ8" s="25">
+        <v>75165.33</v>
+      </c>
       <c r="BR8" s="21"/>
-      <c r="BS8" s="29">
+      <c r="BS8" s="30">
         <v>67879</v>
       </c>
-      <c r="BT8" s="29">
+      <c r="BT8" s="30">
         <v>69818</v>
       </c>
     </row>
@@ -11907,12 +12172,14 @@
       <c r="T9" s="24">
         <v>971</v>
       </c>
-      <c r="U9" s="21"/>
+      <c r="U9" s="25">
+        <v>983</v>
+      </c>
       <c r="V9" s="21"/>
-      <c r="W9" s="25">
+      <c r="W9" s="26">
         <v>929</v>
       </c>
-      <c r="X9" s="26">
+      <c r="X9" s="27">
         <v>929</v>
       </c>
       <c r="Z9" s="3" t="s">
@@ -11938,12 +12205,12 @@
       <c r="AP9" s="21"/>
       <c r="AQ9" s="21"/>
       <c r="AR9" s="24"/>
-      <c r="AS9" s="21"/>
+      <c r="AS9" s="25"/>
       <c r="AT9" s="21"/>
-      <c r="AU9" s="29">
+      <c r="AU9" s="30">
         <v>22000</v>
       </c>
-      <c r="AV9" s="29">
+      <c r="AV9" s="30">
         <v>22528</v>
       </c>
       <c r="AX9" s="3" t="s">
@@ -12003,12 +12270,14 @@
       <c r="BP9" s="24">
         <v>41765.99</v>
       </c>
-      <c r="BQ9" s="21"/>
+      <c r="BQ9" s="25">
+        <v>41612.52</v>
+      </c>
       <c r="BR9" s="21"/>
-      <c r="BS9" s="29">
+      <c r="BS9" s="30">
         <v>40274</v>
       </c>
-      <c r="BT9" s="29">
+      <c r="BT9" s="30">
         <v>40832</v>
       </c>
     </row>
@@ -12070,12 +12339,14 @@
       <c r="T10" s="24">
         <v>1128</v>
       </c>
-      <c r="U10" s="21"/>
+      <c r="U10" s="25">
+        <v>1103</v>
+      </c>
       <c r="V10" s="21"/>
-      <c r="W10" s="25">
+      <c r="W10" s="26">
         <v>1090</v>
       </c>
-      <c r="X10" s="26">
+      <c r="X10" s="27">
         <v>1090</v>
       </c>
       <c r="Z10" s="3" t="s">
@@ -12101,12 +12372,12 @@
       <c r="AP10" s="21"/>
       <c r="AQ10" s="21"/>
       <c r="AR10" s="24"/>
-      <c r="AS10" s="21"/>
+      <c r="AS10" s="25"/>
       <c r="AT10" s="21"/>
-      <c r="AU10" s="29">
+      <c r="AU10" s="30">
         <v>65832</v>
       </c>
-      <c r="AV10" s="29">
+      <c r="AV10" s="30">
         <v>66183</v>
       </c>
       <c r="AX10" s="3" t="s">
@@ -12166,12 +12437,14 @@
       <c r="BP10" s="24">
         <v>48947.8</v>
       </c>
-      <c r="BQ10" s="21"/>
+      <c r="BQ10" s="25">
+        <v>48003.91</v>
+      </c>
       <c r="BR10" s="21"/>
-      <c r="BS10" s="29">
+      <c r="BS10" s="30">
         <v>46434</v>
       </c>
-      <c r="BT10" s="29">
+      <c r="BT10" s="30">
         <v>46635</v>
       </c>
     </row>
@@ -12233,12 +12506,14 @@
       <c r="T11" s="24">
         <v>3870.51</v>
       </c>
-      <c r="U11" s="21"/>
+      <c r="U11" s="25">
+        <v>3870.51</v>
+      </c>
       <c r="V11" s="21"/>
-      <c r="W11" s="25">
+      <c r="W11" s="26">
         <v>3853</v>
       </c>
-      <c r="X11" s="26">
+      <c r="X11" s="27">
         <v>3904</v>
       </c>
       <c r="Z11" s="3" t="s">
@@ -12264,10 +12539,10 @@
       <c r="AP11" s="21"/>
       <c r="AQ11" s="21"/>
       <c r="AR11" s="24"/>
-      <c r="AS11" s="21"/>
+      <c r="AS11" s="25"/>
       <c r="AT11" s="21"/>
-      <c r="AU11" s="29"/>
-      <c r="AV11" s="29"/>
+      <c r="AU11" s="30"/>
+      <c r="AV11" s="30"/>
       <c r="AX11" s="3" t="s">
         <v>39</v>
       </c>
@@ -12325,12 +12600,14 @@
       <c r="BP11" s="24">
         <v>68534.27</v>
       </c>
-      <c r="BQ11" s="21"/>
+      <c r="BQ11" s="25">
+        <v>66996.81</v>
+      </c>
       <c r="BR11" s="21"/>
-      <c r="BS11" s="29">
+      <c r="BS11" s="30">
         <v>49022</v>
       </c>
-      <c r="BT11" s="29">
+      <c r="BT11" s="30">
         <v>49588</v>
       </c>
     </row>
@@ -12392,12 +12669,14 @@
       <c r="T12" s="24">
         <v>54718</v>
       </c>
-      <c r="U12" s="21"/>
+      <c r="U12" s="25">
+        <v>52702.99</v>
+      </c>
       <c r="V12" s="21"/>
-      <c r="W12" s="25">
+      <c r="W12" s="26">
         <v>51542</v>
       </c>
-      <c r="X12" s="26">
+      <c r="X12" s="27">
         <v>51604</v>
       </c>
       <c r="Z12" s="3" t="s">
@@ -12423,10 +12702,10 @@
       <c r="AP12" s="21"/>
       <c r="AQ12" s="21"/>
       <c r="AR12" s="24"/>
-      <c r="AS12" s="21"/>
+      <c r="AS12" s="25"/>
       <c r="AT12" s="21"/>
-      <c r="AU12" s="29"/>
-      <c r="AV12" s="29"/>
+      <c r="AU12" s="30"/>
+      <c r="AV12" s="30"/>
       <c r="AX12" s="3" t="s">
         <v>42</v>
       </c>
@@ -12484,10 +12763,12 @@
       <c r="BP12" s="24">
         <v>34225.03</v>
       </c>
-      <c r="BQ12" s="21"/>
+      <c r="BQ12" s="25">
+        <v>33911.27</v>
+      </c>
       <c r="BR12" s="21"/>
-      <c r="BS12" s="29"/>
-      <c r="BT12" s="29"/>
+      <c r="BS12" s="30"/>
+      <c r="BT12" s="30"/>
     </row>
     <row r="13" spans="2:72">
       <c r="B13" s="13" t="s">
@@ -12547,10 +12828,12 @@
       <c r="T13" s="24">
         <v>12252</v>
       </c>
-      <c r="U13" s="21"/>
+      <c r="U13" s="25">
+        <v>12026</v>
+      </c>
       <c r="V13" s="21"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="27"/>
       <c r="Z13" s="3" t="s">
         <v>44</v>
       </c>
@@ -12608,12 +12891,14 @@
       <c r="AR13" s="24">
         <v>8345</v>
       </c>
-      <c r="AS13" s="21"/>
+      <c r="AS13" s="25">
+        <v>8004</v>
+      </c>
       <c r="AT13" s="21"/>
-      <c r="AU13" s="29">
+      <c r="AU13" s="30">
         <v>6937</v>
       </c>
-      <c r="AV13" s="29">
+      <c r="AV13" s="30">
         <v>6937</v>
       </c>
       <c r="AX13" s="3" t="s">
@@ -12673,10 +12958,12 @@
       <c r="BP13" s="24">
         <v>39729.09</v>
       </c>
-      <c r="BQ13" s="21"/>
+      <c r="BQ13" s="25">
+        <v>37232.98</v>
+      </c>
       <c r="BR13" s="21"/>
-      <c r="BS13" s="29"/>
-      <c r="BT13" s="29"/>
+      <c r="BS13" s="30"/>
+      <c r="BT13" s="30"/>
     </row>
     <row r="14" spans="2:72">
       <c r="B14" s="13" t="s">
@@ -12736,10 +13023,12 @@
       <c r="T14" s="24">
         <v>1850</v>
       </c>
-      <c r="U14" s="21"/>
+      <c r="U14" s="25">
+        <v>1690</v>
+      </c>
       <c r="V14" s="21"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="27"/>
       <c r="Z14" s="3" t="s">
         <v>47</v>
       </c>
@@ -12797,12 +13086,14 @@
       <c r="AR14" s="24">
         <v>16211.51</v>
       </c>
-      <c r="AS14" s="21"/>
+      <c r="AS14" s="25">
+        <v>16169.86</v>
+      </c>
       <c r="AT14" s="21"/>
-      <c r="AU14" s="29">
+      <c r="AU14" s="30">
         <v>13982</v>
       </c>
-      <c r="AV14" s="29">
+      <c r="AV14" s="30">
         <v>14229</v>
       </c>
       <c r="AX14" s="3" t="s">
@@ -12862,10 +13153,12 @@
       <c r="BP14" s="24">
         <v>72059.64</v>
       </c>
-      <c r="BQ14" s="21"/>
+      <c r="BQ14" s="25">
+        <v>69827.25</v>
+      </c>
       <c r="BR14" s="21"/>
-      <c r="BS14" s="29"/>
-      <c r="BT14" s="29"/>
+      <c r="BS14" s="30"/>
+      <c r="BT14" s="30"/>
     </row>
     <row r="15" spans="2:72">
       <c r="B15" s="13" t="s">
@@ -12925,12 +13218,14 @@
       <c r="T15" s="24">
         <v>1528.5</v>
       </c>
-      <c r="U15" s="21"/>
+      <c r="U15" s="25">
+        <v>1528.5</v>
+      </c>
       <c r="V15" s="21"/>
-      <c r="W15" s="25">
+      <c r="W15" s="26">
         <v>1349</v>
       </c>
-      <c r="X15" s="26">
+      <c r="X15" s="27">
         <v>1349</v>
       </c>
       <c r="Z15" s="3" t="s">
@@ -12990,12 +13285,14 @@
       <c r="AR15" s="24">
         <v>21652.18</v>
       </c>
-      <c r="AS15" s="21"/>
+      <c r="AS15" s="25">
+        <v>21434.67</v>
+      </c>
       <c r="AT15" s="21"/>
-      <c r="AU15" s="29">
+      <c r="AU15" s="30">
         <v>17787</v>
       </c>
-      <c r="AV15" s="29">
+      <c r="AV15" s="30">
         <v>17953</v>
       </c>
       <c r="AX15" s="3" t="s">
@@ -13027,10 +13324,10 @@
       <c r="BN15" s="21"/>
       <c r="BO15" s="21"/>
       <c r="BP15" s="24"/>
-      <c r="BQ15" s="21"/>
+      <c r="BQ15" s="25"/>
       <c r="BR15" s="21"/>
-      <c r="BS15" s="29"/>
-      <c r="BT15" s="29"/>
+      <c r="BS15" s="30"/>
+      <c r="BT15" s="30"/>
     </row>
     <row r="16" spans="2:72">
       <c r="B16" s="13" t="s">
@@ -13090,12 +13387,14 @@
       <c r="T16" s="24">
         <v>4768.79</v>
       </c>
-      <c r="U16" s="21"/>
+      <c r="U16" s="25">
+        <v>4425.87</v>
+      </c>
       <c r="V16" s="21"/>
-      <c r="W16" s="25">
+      <c r="W16" s="26">
         <v>4062</v>
       </c>
-      <c r="X16" s="26">
+      <c r="X16" s="27">
         <v>4127</v>
       </c>
       <c r="Z16" s="3" t="s">
@@ -13155,12 +13454,14 @@
       <c r="AR16" s="24">
         <v>25496.33</v>
       </c>
-      <c r="AS16" s="21"/>
+      <c r="AS16" s="25">
+        <v>23904.62</v>
+      </c>
       <c r="AT16" s="21"/>
-      <c r="AU16" s="29">
+      <c r="AU16" s="30">
         <v>20705</v>
       </c>
-      <c r="AV16" s="29">
+      <c r="AV16" s="30">
         <v>20855</v>
       </c>
       <c r="AX16" s="3" t="s">
@@ -13220,12 +13521,14 @@
       <c r="BP16" s="24">
         <v>998.97</v>
       </c>
-      <c r="BQ16" s="21"/>
+      <c r="BQ16" s="25">
+        <v>967.17</v>
+      </c>
       <c r="BR16" s="21"/>
-      <c r="BS16" s="29">
+      <c r="BS16" s="30">
         <v>868</v>
       </c>
-      <c r="BT16" s="29">
+      <c r="BT16" s="30">
         <v>868</v>
       </c>
     </row>
@@ -13287,12 +13590,14 @@
       <c r="T17" s="24">
         <v>5252.79</v>
       </c>
-      <c r="U17" s="21"/>
+      <c r="U17" s="25">
+        <v>5145.74</v>
+      </c>
       <c r="V17" s="21"/>
-      <c r="W17" s="25">
+      <c r="W17" s="26">
         <v>4480</v>
       </c>
-      <c r="X17" s="26">
+      <c r="X17" s="27">
         <v>4480</v>
       </c>
       <c r="Z17" s="3" t="s">
@@ -13352,12 +13657,14 @@
       <c r="AR17" s="24">
         <v>19444.83</v>
       </c>
-      <c r="AS17" s="21"/>
+      <c r="AS17" s="25">
+        <v>18331.68</v>
+      </c>
       <c r="AT17" s="21"/>
-      <c r="AU17" s="29">
+      <c r="AU17" s="30">
         <v>14648</v>
       </c>
-      <c r="AV17" s="29">
+      <c r="AV17" s="30">
         <v>14787</v>
       </c>
       <c r="AX17" s="3" t="s">
@@ -13417,12 +13724,14 @@
       <c r="BP17" s="24">
         <v>1884.35</v>
       </c>
-      <c r="BQ17" s="21"/>
+      <c r="BQ17" s="25">
+        <v>1878.64</v>
+      </c>
       <c r="BR17" s="21"/>
-      <c r="BS17" s="29">
+      <c r="BS17" s="30">
         <v>1669</v>
       </c>
-      <c r="BT17" s="29">
+      <c r="BT17" s="30">
         <v>1670</v>
       </c>
     </row>
@@ -13484,12 +13793,14 @@
       <c r="T18" s="24">
         <v>444</v>
       </c>
-      <c r="U18" s="21"/>
+      <c r="U18" s="25">
+        <v>431</v>
+      </c>
       <c r="V18" s="21"/>
-      <c r="W18" s="25">
+      <c r="W18" s="26">
         <v>404</v>
       </c>
-      <c r="X18" s="26">
+      <c r="X18" s="27">
         <v>404</v>
       </c>
       <c r="Z18" s="3" t="s">
@@ -13549,12 +13860,14 @@
       <c r="AR18" s="24">
         <v>20592</v>
       </c>
-      <c r="AS18" s="21"/>
+      <c r="AS18" s="25">
+        <v>20217.2</v>
+      </c>
       <c r="AT18" s="21"/>
-      <c r="AU18" s="29">
+      <c r="AU18" s="30">
         <v>17090</v>
       </c>
-      <c r="AV18" s="29">
+      <c r="AV18" s="30">
         <v>17193</v>
       </c>
       <c r="AX18" s="3" t="s">
@@ -13612,10 +13925,12 @@
       <c r="BP18" s="24">
         <v>5630.88</v>
       </c>
-      <c r="BQ18" s="21"/>
+      <c r="BQ18" s="25">
+        <v>5491.92</v>
+      </c>
       <c r="BR18" s="21"/>
-      <c r="BS18" s="29"/>
-      <c r="BT18" s="29"/>
+      <c r="BS18" s="30"/>
+      <c r="BT18" s="30"/>
     </row>
     <row r="19" spans="2:72">
       <c r="B19" s="13" t="s">
@@ -13675,12 +13990,14 @@
       <c r="T19" s="24">
         <v>315.17</v>
       </c>
-      <c r="U19" s="21"/>
+      <c r="U19" s="25">
+        <v>312.87</v>
+      </c>
       <c r="V19" s="21"/>
-      <c r="W19" s="25">
+      <c r="W19" s="26">
         <v>278</v>
       </c>
-      <c r="X19" s="26">
+      <c r="X19" s="27">
         <v>286</v>
       </c>
       <c r="Z19" s="3" t="s">
@@ -13740,12 +14057,14 @@
       <c r="AR19" s="24">
         <v>25183.07</v>
       </c>
-      <c r="AS19" s="21"/>
+      <c r="AS19" s="25">
+        <v>24153.98</v>
+      </c>
       <c r="AT19" s="21"/>
-      <c r="AU19" s="29">
+      <c r="AU19" s="30">
         <v>20553</v>
       </c>
-      <c r="AV19" s="29">
+      <c r="AV19" s="30">
         <v>20851</v>
       </c>
       <c r="AX19" s="3" t="s">
@@ -13791,10 +14110,10 @@
         <v>7602.39</v>
       </c>
       <c r="BP19" s="24"/>
-      <c r="BQ19" s="21"/>
+      <c r="BQ19" s="25"/>
       <c r="BR19" s="21"/>
-      <c r="BS19" s="29"/>
-      <c r="BT19" s="29"/>
+      <c r="BS19" s="30"/>
+      <c r="BT19" s="30"/>
     </row>
     <row r="20" spans="2:72">
       <c r="B20" s="13" t="s">
@@ -13854,12 +14173,14 @@
       <c r="T20" s="24">
         <v>369.64</v>
       </c>
-      <c r="U20" s="21"/>
+      <c r="U20" s="25">
+        <v>368.49</v>
+      </c>
       <c r="V20" s="21"/>
-      <c r="W20" s="25">
+      <c r="W20" s="26">
         <v>345</v>
       </c>
-      <c r="X20" s="26">
+      <c r="X20" s="27">
         <v>348</v>
       </c>
       <c r="Z20" s="3" t="s">
@@ -13919,12 +14240,14 @@
       <c r="AR20" s="24">
         <v>17552.17</v>
       </c>
-      <c r="AS20" s="21"/>
+      <c r="AS20" s="25">
+        <v>16002.74</v>
+      </c>
       <c r="AT20" s="21"/>
-      <c r="AU20" s="29">
+      <c r="AU20" s="30">
         <v>14295</v>
       </c>
-      <c r="AV20" s="29">
+      <c r="AV20" s="30">
         <v>14419</v>
       </c>
       <c r="AX20" s="3" t="s">
@@ -13984,10 +14307,12 @@
       <c r="BP20" s="24">
         <v>15520</v>
       </c>
-      <c r="BQ20" s="21"/>
+      <c r="BQ20" s="25">
+        <v>15499</v>
+      </c>
       <c r="BR20" s="21"/>
-      <c r="BS20" s="29"/>
-      <c r="BT20" s="29"/>
+      <c r="BS20" s="30"/>
+      <c r="BT20" s="30"/>
     </row>
     <row r="21" spans="2:72">
       <c r="B21" s="13" t="s">
@@ -14047,12 +14372,14 @@
       <c r="T21" s="24">
         <v>437.53</v>
       </c>
-      <c r="U21" s="21"/>
+      <c r="U21" s="25">
+        <v>434.91</v>
+      </c>
       <c r="V21" s="21"/>
-      <c r="W21" s="25">
+      <c r="W21" s="26">
         <v>398</v>
       </c>
-      <c r="X21" s="26">
+      <c r="X21" s="27">
         <v>398</v>
       </c>
       <c r="Z21" s="3" t="s">
@@ -14112,12 +14439,14 @@
       <c r="AR21" s="24">
         <v>16463.92</v>
       </c>
-      <c r="AS21" s="21"/>
+      <c r="AS21" s="25">
+        <v>15643.33</v>
+      </c>
       <c r="AT21" s="21"/>
-      <c r="AU21" s="29">
+      <c r="AU21" s="30">
         <v>13884</v>
       </c>
-      <c r="AV21" s="29">
+      <c r="AV21" s="30">
         <v>14120</v>
       </c>
       <c r="AX21" s="3" t="s">
@@ -14177,10 +14506,12 @@
       <c r="BP21" s="24">
         <v>35241</v>
       </c>
-      <c r="BQ21" s="21"/>
+      <c r="BQ21" s="25">
+        <v>35177</v>
+      </c>
       <c r="BR21" s="21"/>
-      <c r="BS21" s="29"/>
-      <c r="BT21" s="29"/>
+      <c r="BS21" s="30"/>
+      <c r="BT21" s="30"/>
     </row>
     <row r="22" spans="2:72">
       <c r="B22" s="13" t="s">
@@ -14240,12 +14571,14 @@
       <c r="T22" s="24">
         <v>501</v>
       </c>
-      <c r="U22" s="21"/>
+      <c r="U22" s="25">
+        <v>507</v>
+      </c>
       <c r="V22" s="21"/>
-      <c r="W22" s="25">
+      <c r="W22" s="26">
         <v>492</v>
       </c>
-      <c r="X22" s="26">
+      <c r="X22" s="27">
         <v>492</v>
       </c>
       <c r="Z22" s="3" t="s">
@@ -14305,12 +14638,14 @@
       <c r="AR22" s="24">
         <v>16439.86</v>
       </c>
-      <c r="AS22" s="21"/>
+      <c r="AS22" s="25">
+        <v>16258.33</v>
+      </c>
       <c r="AT22" s="21"/>
-      <c r="AU22" s="29">
+      <c r="AU22" s="30">
         <v>15347</v>
       </c>
-      <c r="AV22" s="29">
+      <c r="AV22" s="30">
         <v>15347</v>
       </c>
       <c r="AX22" s="3" t="s">
@@ -14342,10 +14677,10 @@
       <c r="BN22" s="21"/>
       <c r="BO22" s="21"/>
       <c r="BP22" s="24"/>
-      <c r="BQ22" s="21"/>
+      <c r="BQ22" s="25"/>
       <c r="BR22" s="21"/>
-      <c r="BS22" s="29"/>
-      <c r="BT22" s="29"/>
+      <c r="BS22" s="30"/>
+      <c r="BT22" s="30"/>
     </row>
     <row r="23" spans="2:72">
       <c r="B23" s="13" t="s">
@@ -14405,12 +14740,14 @@
       <c r="T23" s="24">
         <v>1890.27</v>
       </c>
-      <c r="U23" s="21"/>
+      <c r="U23" s="25">
+        <v>1840.52</v>
+      </c>
       <c r="V23" s="21"/>
-      <c r="W23" s="25">
+      <c r="W23" s="26">
         <v>1671</v>
       </c>
-      <c r="X23" s="26">
+      <c r="X23" s="27">
         <v>1671</v>
       </c>
       <c r="Z23" s="3" t="s">
@@ -14470,12 +14807,14 @@
       <c r="AR23" s="24">
         <v>8462</v>
       </c>
-      <c r="AS23" s="21"/>
+      <c r="AS23" s="25">
+        <v>8412.64</v>
+      </c>
       <c r="AT23" s="21"/>
-      <c r="AU23" s="29">
+      <c r="AU23" s="30">
         <v>8412</v>
       </c>
-      <c r="AV23" s="29">
+      <c r="AV23" s="30">
         <v>8412</v>
       </c>
       <c r="AX23" s="3" t="s">
@@ -14535,12 +14874,14 @@
       <c r="BP23" s="24">
         <v>448.35</v>
       </c>
-      <c r="BQ23" s="21"/>
+      <c r="BQ23" s="25">
+        <v>444.58</v>
+      </c>
       <c r="BR23" s="21"/>
-      <c r="BS23" s="29">
+      <c r="BS23" s="30">
         <v>437</v>
       </c>
-      <c r="BT23" s="29">
+      <c r="BT23" s="30">
         <v>446</v>
       </c>
     </row>
@@ -14602,12 +14943,14 @@
       <c r="T24" s="24">
         <v>718</v>
       </c>
-      <c r="U24" s="21"/>
+      <c r="U24" s="25">
+        <v>718</v>
+      </c>
       <c r="V24" s="21"/>
-      <c r="W24" s="25">
+      <c r="W24" s="26">
         <v>640</v>
       </c>
-      <c r="X24" s="26">
+      <c r="X24" s="27">
         <v>640</v>
       </c>
       <c r="Z24" s="3" t="s">
@@ -14667,12 +15010,14 @@
       <c r="AR24" s="24">
         <v>31190.71</v>
       </c>
-      <c r="AS24" s="21"/>
+      <c r="AS24" s="25">
+        <v>30571.43</v>
+      </c>
       <c r="AT24" s="21"/>
-      <c r="AU24" s="29">
+      <c r="AU24" s="30">
         <v>27963</v>
       </c>
-      <c r="AV24" s="29">
+      <c r="AV24" s="30">
         <v>28051</v>
       </c>
       <c r="AX24" s="3" t="s">
@@ -14732,12 +15077,14 @@
       <c r="BP24" s="24">
         <v>805</v>
       </c>
-      <c r="BQ24" s="21"/>
+      <c r="BQ24" s="25">
+        <v>805</v>
+      </c>
       <c r="BR24" s="21"/>
-      <c r="BS24" s="29">
+      <c r="BS24" s="30">
         <v>281</v>
       </c>
-      <c r="BT24" s="29">
+      <c r="BT24" s="30">
         <v>281</v>
       </c>
     </row>
@@ -14799,12 +15146,14 @@
       <c r="T25" s="24">
         <v>1196</v>
       </c>
-      <c r="U25" s="21"/>
+      <c r="U25" s="25">
+        <v>1271</v>
+      </c>
       <c r="V25" s="21"/>
-      <c r="W25" s="25">
+      <c r="W25" s="26">
         <v>1276</v>
       </c>
-      <c r="X25" s="26">
+      <c r="X25" s="27">
         <v>1276</v>
       </c>
       <c r="Z25" s="3" t="s">
@@ -14836,10 +15185,10 @@
       <c r="AP25" s="21"/>
       <c r="AQ25" s="21"/>
       <c r="AR25" s="24"/>
-      <c r="AS25" s="21"/>
+      <c r="AS25" s="25"/>
       <c r="AT25" s="21"/>
-      <c r="AU25" s="29"/>
-      <c r="AV25" s="29"/>
+      <c r="AU25" s="30"/>
+      <c r="AV25" s="30"/>
       <c r="AX25" s="3" t="s">
         <v>83</v>
       </c>
@@ -14897,10 +15246,12 @@
       <c r="BP25" s="24">
         <v>110528.02</v>
       </c>
-      <c r="BQ25" s="21"/>
+      <c r="BQ25" s="25">
+        <v>106440.37</v>
+      </c>
       <c r="BR25" s="21"/>
-      <c r="BS25" s="29"/>
-      <c r="BT25" s="29"/>
+      <c r="BS25" s="30"/>
+      <c r="BT25" s="30"/>
     </row>
     <row r="26" spans="2:72">
       <c r="B26" s="13" t="s">
@@ -14960,12 +15311,14 @@
       <c r="T26" s="24">
         <v>718</v>
       </c>
-      <c r="U26" s="21"/>
+      <c r="U26" s="25">
+        <v>718</v>
+      </c>
       <c r="V26" s="21"/>
-      <c r="W26" s="25">
+      <c r="W26" s="26">
         <v>763</v>
       </c>
-      <c r="X26" s="26">
+      <c r="X26" s="27">
         <v>763</v>
       </c>
       <c r="Z26" s="3" t="s">
@@ -15025,10 +15378,12 @@
       <c r="AR26" s="24">
         <v>2386</v>
       </c>
-      <c r="AS26" s="21"/>
+      <c r="AS26" s="25">
+        <v>2330</v>
+      </c>
       <c r="AT26" s="21"/>
-      <c r="AU26" s="29"/>
-      <c r="AV26" s="29"/>
+      <c r="AU26" s="30"/>
+      <c r="AV26" s="30"/>
       <c r="AX26" s="3" t="s">
         <v>86</v>
       </c>
@@ -15086,10 +15441,12 @@
       <c r="BP26" s="24">
         <v>3139.83</v>
       </c>
-      <c r="BQ26" s="21"/>
+      <c r="BQ26" s="25">
+        <v>2978.11</v>
+      </c>
       <c r="BR26" s="21"/>
-      <c r="BS26" s="29"/>
-      <c r="BT26" s="29"/>
+      <c r="BS26" s="30"/>
+      <c r="BT26" s="30"/>
     </row>
     <row r="27" spans="50:72">
       <c r="AX27" s="3" t="s">
@@ -15149,12 +15506,14 @@
       <c r="BP27" s="24">
         <v>2279.3</v>
       </c>
-      <c r="BQ27" s="21"/>
+      <c r="BQ27" s="25">
+        <v>2279.3</v>
+      </c>
       <c r="BR27" s="21"/>
-      <c r="BS27" s="29">
+      <c r="BS27" s="30">
         <v>2704</v>
       </c>
-      <c r="BT27" s="29">
+      <c r="BT27" s="30">
         <v>2704</v>
       </c>
     </row>
@@ -15216,12 +15575,14 @@
       <c r="BP28" s="24">
         <v>2772.63</v>
       </c>
-      <c r="BQ28" s="21"/>
+      <c r="BQ28" s="25">
+        <v>2772.63</v>
+      </c>
       <c r="BR28" s="21"/>
-      <c r="BS28" s="29">
+      <c r="BS28" s="30">
         <v>2618</v>
       </c>
-      <c r="BT28" s="29">
+      <c r="BT28" s="30">
         <v>2618</v>
       </c>
     </row>
@@ -15260,8 +15621,8 @@
   <sheetPr/>
   <dimension ref="B1:U71"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="K45" workbookViewId="0">
-      <selection activeCell="R48" sqref="R48:R71"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="L43" workbookViewId="0">
+      <selection activeCell="S48" sqref="S48:S71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.75"/>
@@ -15269,16 +15630,16 @@
     <col min="1" max="1" width="9.14285714285714" style="1"/>
     <col min="2" max="2" width="11.1428571428571" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.14285714285714" style="1"/>
-    <col min="4" max="4" width="10.7142857142857" style="1"/>
-    <col min="5" max="8" width="9.14285714285714" style="1"/>
+    <col min="4" max="5" width="10.7142857142857" style="1"/>
+    <col min="6" max="8" width="9.14285714285714" style="1"/>
     <col min="9" max="9" width="11.1428571428571" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.14285714285714" style="1"/>
-    <col min="11" max="11" width="10.7142857142857" style="1"/>
-    <col min="12" max="15" width="9.14285714285714" style="1"/>
+    <col min="11" max="12" width="10.7142857142857" style="1"/>
+    <col min="13" max="15" width="9.14285714285714" style="1"/>
     <col min="16" max="16" width="11.1428571428571" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.14285714285714" style="1"/>
-    <col min="18" max="18" width="12" style="1"/>
-    <col min="19" max="16384" width="9.14285714285714" style="1"/>
+    <col min="18" max="19" width="12" style="1"/>
+    <col min="20" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:18">
@@ -15385,7 +15746,9 @@
       <c r="D4" s="9">
         <v>809.16</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="9">
+        <v>789.21</v>
+      </c>
       <c r="F4" s="9"/>
       <c r="G4" s="10"/>
       <c r="I4" s="13" t="s">
@@ -15397,7 +15760,9 @@
       <c r="K4" s="9">
         <v>1531.81</v>
       </c>
-      <c r="L4" s="9"/>
+      <c r="L4" s="9">
+        <v>1469.76</v>
+      </c>
       <c r="M4" s="9"/>
       <c r="N4" s="10"/>
       <c r="P4" s="13" t="s">
@@ -15409,7 +15774,9 @@
       <c r="R4" s="9">
         <v>2110.24</v>
       </c>
-      <c r="S4" s="9"/>
+      <c r="S4" s="9">
+        <v>2032.33</v>
+      </c>
       <c r="T4" s="9"/>
       <c r="U4" s="10"/>
     </row>
@@ -15455,7 +15822,9 @@
       <c r="D6" s="9">
         <v>1193</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="9">
+        <v>1193</v>
+      </c>
       <c r="F6" s="9"/>
       <c r="G6" s="10"/>
       <c r="I6" s="13" t="s">
@@ -15467,7 +15836,9 @@
       <c r="K6" s="9">
         <v>3618</v>
       </c>
-      <c r="L6" s="9"/>
+      <c r="L6" s="9">
+        <v>3618</v>
+      </c>
       <c r="M6" s="9"/>
       <c r="N6" s="10"/>
       <c r="P6" s="13" t="s">
@@ -15479,7 +15850,9 @@
       <c r="R6" s="9">
         <v>6030</v>
       </c>
-      <c r="S6" s="9"/>
+      <c r="S6" s="9">
+        <v>6020</v>
+      </c>
       <c r="T6" s="9"/>
       <c r="U6" s="10"/>
     </row>
@@ -15493,7 +15866,9 @@
       <c r="D7" s="9">
         <v>6624</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="9">
+        <v>6365</v>
+      </c>
       <c r="F7" s="9"/>
       <c r="G7" s="10"/>
       <c r="I7" s="13" t="s">
@@ -15505,7 +15880,9 @@
       <c r="K7" s="9">
         <v>15683</v>
       </c>
-      <c r="L7" s="9"/>
+      <c r="L7" s="9">
+        <v>14965</v>
+      </c>
       <c r="M7" s="9"/>
       <c r="N7" s="10"/>
       <c r="P7" s="13" t="s">
@@ -15517,7 +15894,9 @@
       <c r="R7" s="9">
         <v>22343</v>
       </c>
-      <c r="S7" s="9"/>
+      <c r="S7" s="9">
+        <v>21465</v>
+      </c>
       <c r="T7" s="9"/>
       <c r="U7" s="10"/>
     </row>
@@ -15531,7 +15910,9 @@
       <c r="D8" s="9">
         <v>282</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="9">
+        <v>282</v>
+      </c>
       <c r="F8" s="9"/>
       <c r="G8" s="10"/>
       <c r="I8" s="13" t="s">
@@ -15543,7 +15924,9 @@
       <c r="K8" s="9">
         <v>655</v>
       </c>
-      <c r="L8" s="9"/>
+      <c r="L8" s="9">
+        <v>655</v>
+      </c>
       <c r="M8" s="9"/>
       <c r="N8" s="10"/>
       <c r="P8" s="13" t="s">
@@ -15555,7 +15938,9 @@
       <c r="R8" s="9">
         <v>971</v>
       </c>
-      <c r="S8" s="9"/>
+      <c r="S8" s="9">
+        <v>983</v>
+      </c>
       <c r="T8" s="9"/>
       <c r="U8" s="10"/>
     </row>
@@ -15569,7 +15954,9 @@
       <c r="D9" s="9">
         <v>376</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="9">
+        <v>376</v>
+      </c>
       <c r="F9" s="9"/>
       <c r="G9" s="10"/>
       <c r="I9" s="13" t="s">
@@ -15581,7 +15968,9 @@
       <c r="K9" s="9">
         <v>752</v>
       </c>
-      <c r="L9" s="9"/>
+      <c r="L9" s="9">
+        <v>752</v>
+      </c>
       <c r="M9" s="9"/>
       <c r="N9" s="10"/>
       <c r="P9" s="13" t="s">
@@ -15593,7 +15982,9 @@
       <c r="R9" s="9">
         <v>1128</v>
       </c>
-      <c r="S9" s="9"/>
+      <c r="S9" s="9">
+        <v>1103</v>
+      </c>
       <c r="T9" s="9"/>
       <c r="U9" s="10"/>
     </row>
@@ -15607,7 +15998,9 @@
       <c r="D10" s="9">
         <v>456.38</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="9">
+        <v>456.38</v>
+      </c>
       <c r="F10" s="9"/>
       <c r="G10" s="10"/>
       <c r="I10" s="13" t="s">
@@ -15619,7 +16012,9 @@
       <c r="K10" s="9">
         <v>2183.91</v>
       </c>
-      <c r="L10" s="9"/>
+      <c r="L10" s="9">
+        <v>2106.37</v>
+      </c>
       <c r="M10" s="9"/>
       <c r="N10" s="10"/>
       <c r="P10" s="13" t="s">
@@ -15631,7 +16026,9 @@
       <c r="R10" s="9">
         <v>3870.51</v>
       </c>
-      <c r="S10" s="9"/>
+      <c r="S10" s="9">
+        <v>3870.51</v>
+      </c>
       <c r="T10" s="9"/>
       <c r="U10" s="10"/>
     </row>
@@ -15645,7 +16042,9 @@
       <c r="D11" s="9">
         <v>11360.52</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="9">
+        <v>11363.99</v>
+      </c>
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
       <c r="I11" s="13" t="s">
@@ -15657,7 +16056,9 @@
       <c r="K11" s="9">
         <v>28669.19</v>
       </c>
-      <c r="L11" s="9"/>
+      <c r="L11" s="9">
+        <v>27999.03</v>
+      </c>
       <c r="M11" s="9"/>
       <c r="N11" s="10"/>
       <c r="P11" s="13" t="s">
@@ -15669,7 +16070,9 @@
       <c r="R11" s="9">
         <v>54718</v>
       </c>
-      <c r="S11" s="9"/>
+      <c r="S11" s="9">
+        <v>52702.99</v>
+      </c>
       <c r="T11" s="9"/>
       <c r="U11" s="10"/>
     </row>
@@ -15683,7 +16086,9 @@
       <c r="D12" s="9">
         <v>4161</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="9">
+        <v>4161</v>
+      </c>
       <c r="F12" s="9"/>
       <c r="G12" s="10"/>
       <c r="I12" s="13" t="s">
@@ -15695,7 +16100,9 @@
       <c r="K12" s="9">
         <v>8423</v>
       </c>
-      <c r="L12" s="9"/>
+      <c r="L12" s="9">
+        <v>8201</v>
+      </c>
       <c r="M12" s="9"/>
       <c r="N12" s="10"/>
       <c r="P12" s="13" t="s">
@@ -15707,7 +16114,9 @@
       <c r="R12" s="9">
         <v>12252</v>
       </c>
-      <c r="S12" s="9"/>
+      <c r="S12" s="9">
+        <v>12026</v>
+      </c>
       <c r="T12" s="9"/>
       <c r="U12" s="10"/>
     </row>
@@ -15721,7 +16130,9 @@
       <c r="D13" s="9">
         <v>510</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="9">
+        <v>510</v>
+      </c>
       <c r="F13" s="9"/>
       <c r="G13" s="10"/>
       <c r="I13" s="13" t="s">
@@ -15733,7 +16144,9 @@
       <c r="K13" s="9">
         <v>1300</v>
       </c>
-      <c r="L13" s="9"/>
+      <c r="L13" s="9">
+        <v>1160</v>
+      </c>
       <c r="M13" s="9"/>
       <c r="N13" s="10"/>
       <c r="P13" s="13" t="s">
@@ -15745,7 +16158,9 @@
       <c r="R13" s="9">
         <v>1850</v>
       </c>
-      <c r="S13" s="9"/>
+      <c r="S13" s="9">
+        <v>1690</v>
+      </c>
       <c r="T13" s="9"/>
       <c r="U13" s="10"/>
     </row>
@@ -15759,7 +16174,9 @@
       <c r="D14" s="9">
         <v>249.88</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="9">
+        <v>249.88</v>
+      </c>
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
       <c r="I14" s="13" t="s">
@@ -15771,7 +16188,9 @@
       <c r="K14" s="9">
         <v>967.86</v>
       </c>
-      <c r="L14" s="9"/>
+      <c r="L14" s="9">
+        <v>967.86</v>
+      </c>
       <c r="M14" s="9"/>
       <c r="N14" s="10"/>
       <c r="P14" s="13" t="s">
@@ -15783,7 +16202,9 @@
       <c r="R14" s="9">
         <v>1528.5</v>
       </c>
-      <c r="S14" s="9"/>
+      <c r="S14" s="9">
+        <v>1528.5</v>
+      </c>
       <c r="T14" s="9"/>
       <c r="U14" s="10"/>
     </row>
@@ -15797,7 +16218,9 @@
       <c r="D15" s="9">
         <v>1275.54</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="9">
+        <v>1275.54</v>
+      </c>
       <c r="F15" s="9"/>
       <c r="G15" s="10"/>
       <c r="I15" s="13" t="s">
@@ -15809,7 +16232,9 @@
       <c r="K15" s="9">
         <v>2790.49</v>
       </c>
-      <c r="L15" s="9"/>
+      <c r="L15" s="9">
+        <v>2597.19</v>
+      </c>
       <c r="M15" s="9"/>
       <c r="N15" s="10"/>
       <c r="P15" s="13" t="s">
@@ -15821,7 +16246,9 @@
       <c r="R15" s="9">
         <v>4768.79</v>
       </c>
-      <c r="S15" s="9"/>
+      <c r="S15" s="9">
+        <v>4425.87</v>
+      </c>
       <c r="T15" s="9"/>
       <c r="U15" s="10"/>
     </row>
@@ -15835,7 +16262,9 @@
       <c r="D16" s="9">
         <v>1614.05</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="9">
+        <v>1566.24</v>
+      </c>
       <c r="F16" s="9"/>
       <c r="G16" s="10"/>
       <c r="I16" s="13" t="s">
@@ -15847,7 +16276,9 @@
       <c r="K16" s="9">
         <v>3610.09</v>
       </c>
-      <c r="L16" s="9"/>
+      <c r="L16" s="9">
+        <v>3421.42</v>
+      </c>
       <c r="M16" s="9"/>
       <c r="N16" s="10"/>
       <c r="P16" s="13" t="s">
@@ -15859,7 +16290,9 @@
       <c r="R16" s="9">
         <v>5252.79</v>
       </c>
-      <c r="S16" s="9"/>
+      <c r="S16" s="9">
+        <v>5145.74</v>
+      </c>
       <c r="T16" s="9"/>
       <c r="U16" s="10"/>
     </row>
@@ -15873,7 +16306,9 @@
       <c r="D17" s="9">
         <v>114</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="9">
+        <v>114</v>
+      </c>
       <c r="F17" s="9"/>
       <c r="G17" s="10"/>
       <c r="I17" s="13" t="s">
@@ -15885,7 +16320,9 @@
       <c r="K17" s="9">
         <v>266</v>
       </c>
-      <c r="L17" s="9"/>
+      <c r="L17" s="9">
+        <v>261</v>
+      </c>
       <c r="M17" s="9"/>
       <c r="N17" s="10"/>
       <c r="P17" s="13" t="s">
@@ -15897,7 +16334,9 @@
       <c r="R17" s="9">
         <v>444</v>
       </c>
-      <c r="S17" s="9"/>
+      <c r="S17" s="9">
+        <v>431</v>
+      </c>
       <c r="T17" s="9"/>
       <c r="U17" s="10"/>
     </row>
@@ -15911,7 +16350,9 @@
       <c r="D18" s="9">
         <v>69.08</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="9">
+        <v>69.08</v>
+      </c>
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
       <c r="I18" s="13" t="s">
@@ -15923,7 +16364,9 @@
       <c r="K18" s="9">
         <v>174.24</v>
       </c>
-      <c r="L18" s="9"/>
+      <c r="L18" s="9">
+        <v>173.53</v>
+      </c>
       <c r="M18" s="9"/>
       <c r="N18" s="10"/>
       <c r="P18" s="13" t="s">
@@ -15935,7 +16378,9 @@
       <c r="R18" s="9">
         <v>315.17</v>
       </c>
-      <c r="S18" s="9"/>
+      <c r="S18" s="9">
+        <v>312.87</v>
+      </c>
       <c r="T18" s="9"/>
       <c r="U18" s="10"/>
     </row>
@@ -15949,7 +16394,9 @@
       <c r="D19" s="9">
         <v>103.67</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="9">
+        <v>103.23</v>
+      </c>
       <c r="F19" s="9"/>
       <c r="G19" s="10"/>
       <c r="I19" s="13" t="s">
@@ -15961,7 +16408,9 @@
       <c r="K19" s="9">
         <v>228.32</v>
       </c>
-      <c r="L19" s="9"/>
+      <c r="L19" s="9">
+        <v>226.74</v>
+      </c>
       <c r="M19" s="9"/>
       <c r="N19" s="10"/>
       <c r="P19" s="13" t="s">
@@ -15973,7 +16422,9 @@
       <c r="R19" s="9">
         <v>369.64</v>
       </c>
-      <c r="S19" s="9"/>
+      <c r="S19" s="9">
+        <v>368.49</v>
+      </c>
       <c r="T19" s="9"/>
       <c r="U19" s="10"/>
     </row>
@@ -15987,7 +16438,9 @@
       <c r="D20" s="9">
         <v>120.93</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="9">
+        <v>119.08</v>
+      </c>
       <c r="F20" s="9"/>
       <c r="G20" s="10"/>
       <c r="I20" s="13" t="s">
@@ -15999,7 +16452,9 @@
       <c r="K20" s="9">
         <v>287.88</v>
       </c>
-      <c r="L20" s="9"/>
+      <c r="L20" s="9">
+        <v>282.53</v>
+      </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10"/>
       <c r="P20" s="13" t="s">
@@ -16011,7 +16466,9 @@
       <c r="R20" s="9">
         <v>437.53</v>
       </c>
-      <c r="S20" s="9"/>
+      <c r="S20" s="9">
+        <v>434.91</v>
+      </c>
       <c r="T20" s="9"/>
       <c r="U20" s="10"/>
     </row>
@@ -16025,7 +16482,9 @@
       <c r="D21" s="9">
         <v>148</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="9">
+        <v>145</v>
+      </c>
       <c r="F21" s="9"/>
       <c r="G21" s="10"/>
       <c r="I21" s="13" t="s">
@@ -16037,7 +16496,9 @@
       <c r="K21" s="9">
         <v>361</v>
       </c>
-      <c r="L21" s="9"/>
+      <c r="L21" s="9">
+        <v>361</v>
+      </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10"/>
       <c r="P21" s="13" t="s">
@@ -16049,7 +16510,9 @@
       <c r="R21" s="9">
         <v>501</v>
       </c>
-      <c r="S21" s="9"/>
+      <c r="S21" s="9">
+        <v>507</v>
+      </c>
       <c r="T21" s="9"/>
       <c r="U21" s="10"/>
     </row>
@@ -16063,7 +16526,9 @@
       <c r="D22" s="9">
         <v>590.3</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="9">
+        <v>575.69</v>
+      </c>
       <c r="F22" s="9"/>
       <c r="G22" s="10"/>
       <c r="I22" s="13" t="s">
@@ -16075,7 +16540,9 @@
       <c r="K22" s="9">
         <v>1234.19</v>
       </c>
-      <c r="L22" s="9"/>
+      <c r="L22" s="9">
+        <v>1228.27</v>
+      </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10"/>
       <c r="P22" s="13" t="s">
@@ -16087,7 +16554,9 @@
       <c r="R22" s="9">
         <v>1890.27</v>
       </c>
-      <c r="S22" s="9"/>
+      <c r="S22" s="9">
+        <v>1840.52</v>
+      </c>
       <c r="T22" s="9"/>
       <c r="U22" s="10"/>
     </row>
@@ -16101,7 +16570,9 @@
       <c r="D23" s="9">
         <v>154</v>
       </c>
-      <c r="E23" s="9"/>
+      <c r="E23" s="9">
+        <v>154</v>
+      </c>
       <c r="F23" s="9"/>
       <c r="G23" s="10"/>
       <c r="I23" s="13" t="s">
@@ -16113,7 +16584,9 @@
       <c r="K23" s="9">
         <v>426</v>
       </c>
-      <c r="L23" s="9"/>
+      <c r="L23" s="9">
+        <v>426</v>
+      </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10"/>
       <c r="P23" s="13" t="s">
@@ -16125,7 +16598,9 @@
       <c r="R23" s="9">
         <v>718</v>
       </c>
-      <c r="S23" s="9"/>
+      <c r="S23" s="9">
+        <v>718</v>
+      </c>
       <c r="T23" s="9"/>
       <c r="U23" s="10"/>
     </row>
@@ -16139,7 +16614,9 @@
       <c r="D24" s="9">
         <v>181</v>
       </c>
-      <c r="E24" s="9"/>
+      <c r="E24" s="9">
+        <v>181</v>
+      </c>
       <c r="F24" s="9"/>
       <c r="G24" s="10"/>
       <c r="I24" s="13" t="s">
@@ -16151,7 +16628,9 @@
       <c r="K24" s="9">
         <v>456</v>
       </c>
-      <c r="L24" s="9"/>
+      <c r="L24" s="9">
+        <v>456</v>
+      </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10"/>
       <c r="P24" s="13" t="s">
@@ -16163,7 +16642,9 @@
       <c r="R24" s="9">
         <v>1196</v>
       </c>
-      <c r="S24" s="9"/>
+      <c r="S24" s="9">
+        <v>1271</v>
+      </c>
       <c r="T24" s="9"/>
       <c r="U24" s="10"/>
     </row>
@@ -16177,7 +16658,9 @@
       <c r="D25" s="9">
         <v>162</v>
       </c>
-      <c r="E25" s="9"/>
+      <c r="E25" s="9">
+        <v>162</v>
+      </c>
       <c r="F25" s="9"/>
       <c r="G25" s="10"/>
       <c r="I25" s="13" t="s">
@@ -16189,7 +16672,9 @@
       <c r="K25" s="9">
         <v>402</v>
       </c>
-      <c r="L25" s="9"/>
+      <c r="L25" s="9">
+        <v>402</v>
+      </c>
       <c r="M25" s="9"/>
       <c r="N25" s="10"/>
       <c r="P25" s="13" t="s">
@@ -16201,7 +16686,9 @@
       <c r="R25" s="9">
         <v>718</v>
       </c>
-      <c r="S25" s="9"/>
+      <c r="S25" s="9">
+        <v>718</v>
+      </c>
       <c r="T25" s="9"/>
       <c r="U25" s="10"/>
     </row>
@@ -16215,7 +16702,9 @@
       <c r="D26" s="9">
         <v>509</v>
       </c>
-      <c r="E26" s="9"/>
+      <c r="E26" s="9">
+        <v>509</v>
+      </c>
       <c r="F26" s="9"/>
       <c r="G26" s="10"/>
       <c r="I26" s="13" t="s">
@@ -16227,7 +16716,9 @@
       <c r="K26" s="9">
         <v>1548</v>
       </c>
-      <c r="L26" s="9"/>
+      <c r="L26" s="9">
+        <v>1548</v>
+      </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10"/>
       <c r="P26" s="3" t="s">
@@ -16239,7 +16730,9 @@
       <c r="R26" s="9">
         <v>2917</v>
       </c>
-      <c r="S26" s="9"/>
+      <c r="S26" s="9">
+        <v>2887</v>
+      </c>
       <c r="T26" s="9"/>
       <c r="U26" s="10"/>
     </row>
@@ -16251,7 +16744,9 @@
         <v>24</v>
       </c>
       <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="E27" s="9">
+        <v>9090.91</v>
+      </c>
       <c r="F27" s="9"/>
       <c r="G27" s="10"/>
       <c r="I27" s="13" t="s">
@@ -16263,7 +16758,9 @@
       <c r="K27" s="9">
         <v>21543.77</v>
       </c>
-      <c r="L27" s="9"/>
+      <c r="L27" s="9">
+        <v>21609.52</v>
+      </c>
       <c r="M27" s="9"/>
       <c r="N27" s="10"/>
       <c r="P27" s="3" t="s">
@@ -16275,7 +16772,9 @@
       <c r="R27" s="9">
         <v>41850.97</v>
       </c>
-      <c r="S27" s="9"/>
+      <c r="S27" s="9">
+        <v>40913.06</v>
+      </c>
       <c r="T27" s="9"/>
       <c r="U27" s="10"/>
     </row>
@@ -16287,7 +16786,9 @@
         <v>30</v>
       </c>
       <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="E28" s="9">
+        <v>1590</v>
+      </c>
       <c r="F28" s="9"/>
       <c r="G28" s="10"/>
       <c r="I28" s="13" t="s">
@@ -16299,7 +16800,9 @@
       <c r="K28" s="9">
         <v>3201</v>
       </c>
-      <c r="L28" s="9"/>
+      <c r="L28" s="9">
+        <v>3199</v>
+      </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10"/>
       <c r="P28" s="3" t="s">
@@ -16311,7 +16814,9 @@
       <c r="R28" s="9">
         <v>4815</v>
       </c>
-      <c r="S28" s="9"/>
+      <c r="S28" s="9">
+        <v>4803</v>
+      </c>
       <c r="T28" s="9"/>
       <c r="U28" s="10"/>
     </row>
@@ -16485,7 +16990,9 @@
       <c r="D34" s="9">
         <v>3454</v>
       </c>
-      <c r="E34" s="9"/>
+      <c r="E34" s="9">
+        <v>3454</v>
+      </c>
       <c r="F34" s="9"/>
       <c r="G34" s="10"/>
       <c r="I34" s="13" t="s">
@@ -16497,7 +17004,9 @@
       <c r="K34" s="9">
         <v>6166</v>
       </c>
-      <c r="L34" s="9"/>
+      <c r="L34" s="9">
+        <v>6166</v>
+      </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10"/>
       <c r="P34" s="3" t="s">
@@ -16509,7 +17018,9 @@
       <c r="R34" s="9">
         <v>8345</v>
       </c>
-      <c r="S34" s="9"/>
+      <c r="S34" s="9">
+        <v>8004</v>
+      </c>
       <c r="T34" s="9"/>
       <c r="U34" s="10"/>
     </row>
@@ -16523,7 +17034,9 @@
       <c r="D35" s="9">
         <v>5147.7</v>
       </c>
-      <c r="E35" s="9"/>
+      <c r="E35" s="9">
+        <v>5147.7</v>
+      </c>
       <c r="F35" s="9"/>
       <c r="G35" s="10"/>
       <c r="I35" s="13" t="s">
@@ -16535,7 +17048,9 @@
       <c r="K35" s="9">
         <v>10407.58</v>
       </c>
-      <c r="L35" s="9"/>
+      <c r="L35" s="9">
+        <v>10419.42</v>
+      </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10"/>
       <c r="P35" s="3" t="s">
@@ -16547,7 +17062,9 @@
       <c r="R35" s="9">
         <v>16211.51</v>
       </c>
-      <c r="S35" s="9"/>
+      <c r="S35" s="9">
+        <v>16169.86</v>
+      </c>
       <c r="T35" s="9"/>
       <c r="U35" s="10"/>
     </row>
@@ -16561,7 +17078,9 @@
       <c r="D36" s="9">
         <v>6211.1</v>
       </c>
-      <c r="E36" s="9"/>
+      <c r="E36" s="9">
+        <v>6211.1</v>
+      </c>
       <c r="F36" s="9"/>
       <c r="G36" s="10"/>
       <c r="I36" s="13" t="s">
@@ -16573,7 +17092,9 @@
       <c r="K36" s="9">
         <v>14760.14</v>
       </c>
-      <c r="L36" s="9"/>
+      <c r="L36" s="9">
+        <v>14555.29</v>
+      </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10"/>
       <c r="P36" s="3" t="s">
@@ -16585,7 +17106,9 @@
       <c r="R36" s="9">
         <v>21652.18</v>
       </c>
-      <c r="S36" s="9"/>
+      <c r="S36" s="9">
+        <v>21434.67</v>
+      </c>
       <c r="T36" s="9"/>
       <c r="U36" s="10"/>
     </row>
@@ -16599,7 +17122,9 @@
       <c r="D37" s="9">
         <v>8522.77</v>
       </c>
-      <c r="E37" s="9"/>
+      <c r="E37" s="9">
+        <v>8203.64</v>
+      </c>
       <c r="F37" s="9"/>
       <c r="G37" s="10"/>
       <c r="I37" s="13" t="s">
@@ -16611,7 +17136,9 @@
       <c r="K37" s="9">
         <v>16881.78</v>
       </c>
-      <c r="L37" s="9"/>
+      <c r="L37" s="9">
+        <v>15913.5</v>
+      </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10"/>
       <c r="P37" s="3" t="s">
@@ -16623,7 +17150,9 @@
       <c r="R37" s="9">
         <v>25496.33</v>
       </c>
-      <c r="S37" s="9"/>
+      <c r="S37" s="9">
+        <v>23904.62</v>
+      </c>
       <c r="T37" s="9"/>
       <c r="U37" s="10"/>
     </row>
@@ -16637,7 +17166,9 @@
       <c r="D38" s="9">
         <v>5352.24</v>
       </c>
-      <c r="E38" s="9"/>
+      <c r="E38" s="9">
+        <v>5435.63</v>
+      </c>
       <c r="F38" s="9"/>
       <c r="G38" s="10"/>
       <c r="I38" s="13" t="s">
@@ -16649,7 +17180,9 @@
       <c r="K38" s="9">
         <v>12254.11</v>
       </c>
-      <c r="L38" s="9"/>
+      <c r="L38" s="9">
+        <v>12178.68</v>
+      </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10"/>
       <c r="P38" s="3" t="s">
@@ -16661,7 +17194,9 @@
       <c r="R38" s="9">
         <v>19444.83</v>
       </c>
-      <c r="S38" s="9"/>
+      <c r="S38" s="9">
+        <v>18331.68</v>
+      </c>
       <c r="T38" s="9"/>
       <c r="U38" s="10"/>
     </row>
@@ -16675,7 +17210,9 @@
       <c r="D39" s="9">
         <v>5134.25</v>
       </c>
-      <c r="E39" s="9"/>
+      <c r="E39" s="9">
+        <v>5134.25</v>
+      </c>
       <c r="F39" s="9"/>
       <c r="G39" s="10"/>
       <c r="I39" s="13" t="s">
@@ -16687,7 +17224,9 @@
       <c r="K39" s="9">
         <v>13454.86</v>
       </c>
-      <c r="L39" s="9"/>
+      <c r="L39" s="9">
+        <v>13393.48</v>
+      </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10"/>
       <c r="P39" s="3" t="s">
@@ -16699,7 +17238,9 @@
       <c r="R39" s="9">
         <v>20592</v>
       </c>
-      <c r="S39" s="9"/>
+      <c r="S39" s="9">
+        <v>20217.2</v>
+      </c>
       <c r="T39" s="9"/>
       <c r="U39" s="10"/>
     </row>
@@ -16713,7 +17254,9 @@
       <c r="D40" s="9">
         <v>6530.42</v>
       </c>
-      <c r="E40" s="9"/>
+      <c r="E40" s="9">
+        <v>6530.42</v>
+      </c>
       <c r="F40" s="9"/>
       <c r="G40" s="10"/>
       <c r="I40" s="13" t="s">
@@ -16725,7 +17268,9 @@
       <c r="K40" s="9">
         <v>16248.17</v>
       </c>
-      <c r="L40" s="9"/>
+      <c r="L40" s="9">
+        <v>15898.3</v>
+      </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10"/>
       <c r="P40" s="3" t="s">
@@ -16737,7 +17282,9 @@
       <c r="R40" s="9">
         <v>25183.07</v>
       </c>
-      <c r="S40" s="9"/>
+      <c r="S40" s="9">
+        <v>24153.98</v>
+      </c>
       <c r="T40" s="9"/>
       <c r="U40" s="10"/>
     </row>
@@ -16751,7 +17298,9 @@
       <c r="D41" s="9">
         <v>4625.3</v>
       </c>
-      <c r="E41" s="9"/>
+      <c r="E41" s="9">
+        <v>4625.3</v>
+      </c>
       <c r="F41" s="9"/>
       <c r="G41" s="10"/>
       <c r="I41" s="13" t="s">
@@ -16763,7 +17312,9 @@
       <c r="K41" s="9">
         <v>12446.75</v>
       </c>
-      <c r="L41" s="9"/>
+      <c r="L41" s="9">
+        <v>11809.74</v>
+      </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10"/>
       <c r="P41" s="3" t="s">
@@ -16775,7 +17326,9 @@
       <c r="R41" s="9">
         <v>17552.17</v>
       </c>
-      <c r="S41" s="9"/>
+      <c r="S41" s="9">
+        <v>16002.74</v>
+      </c>
       <c r="T41" s="9"/>
       <c r="U41" s="10"/>
     </row>
@@ -16789,7 +17342,9 @@
       <c r="D42" s="9">
         <v>5084.95</v>
       </c>
-      <c r="E42" s="9"/>
+      <c r="E42" s="9">
+        <v>5005.47</v>
+      </c>
       <c r="F42" s="9"/>
       <c r="G42" s="10"/>
       <c r="I42" s="13" t="s">
@@ -16801,7 +17356,9 @@
       <c r="K42" s="9">
         <v>10587.26</v>
       </c>
-      <c r="L42" s="9"/>
+      <c r="L42" s="9">
+        <v>10587.26</v>
+      </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10"/>
       <c r="P42" s="3" t="s">
@@ -16813,7 +17370,9 @@
       <c r="R42" s="9">
         <v>16463.92</v>
       </c>
-      <c r="S42" s="9"/>
+      <c r="S42" s="9">
+        <v>15643.33</v>
+      </c>
       <c r="T42" s="9"/>
       <c r="U42" s="10"/>
     </row>
@@ -16827,7 +17386,9 @@
       <c r="D43" s="9">
         <v>3470.35</v>
       </c>
-      <c r="E43" s="9"/>
+      <c r="E43" s="9">
+        <v>3470.35</v>
+      </c>
       <c r="F43" s="9"/>
       <c r="G43" s="10"/>
       <c r="I43" s="13" t="s">
@@ -16839,7 +17400,9 @@
       <c r="K43" s="9">
         <v>9429.83</v>
       </c>
-      <c r="L43" s="9"/>
+      <c r="L43" s="9">
+        <v>9401.94</v>
+      </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10"/>
       <c r="P43" s="3" t="s">
@@ -16851,7 +17414,9 @@
       <c r="R43" s="9">
         <v>16439.86</v>
       </c>
-      <c r="S43" s="9"/>
+      <c r="S43" s="9">
+        <v>16258.33</v>
+      </c>
       <c r="T43" s="9"/>
       <c r="U43" s="10"/>
     </row>
@@ -16865,7 +17430,9 @@
       <c r="D44" s="9">
         <v>1887.65</v>
       </c>
-      <c r="E44" s="9"/>
+      <c r="E44" s="9">
+        <v>1853.13</v>
+      </c>
       <c r="F44" s="9"/>
       <c r="G44" s="10"/>
       <c r="I44" s="13" t="s">
@@ -16877,7 +17444,9 @@
       <c r="K44" s="9">
         <v>5234.72</v>
       </c>
-      <c r="L44" s="9"/>
+      <c r="L44" s="9">
+        <v>5234.72</v>
+      </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10"/>
       <c r="P44" s="3" t="s">
@@ -16889,7 +17458,9 @@
       <c r="R44" s="9">
         <v>8462</v>
       </c>
-      <c r="S44" s="9"/>
+      <c r="S44" s="9">
+        <v>8412.64</v>
+      </c>
       <c r="T44" s="9"/>
       <c r="U44" s="10"/>
     </row>
@@ -16903,7 +17474,9 @@
       <c r="D45" s="9">
         <v>8671.3</v>
       </c>
-      <c r="E45" s="9"/>
+      <c r="E45" s="9">
+        <v>8406.05</v>
+      </c>
       <c r="F45" s="9"/>
       <c r="G45" s="10"/>
       <c r="I45" s="13" t="s">
@@ -16915,7 +17488,9 @@
       <c r="K45" s="9">
         <v>21025.38</v>
       </c>
-      <c r="L45" s="9"/>
+      <c r="L45" s="9">
+        <v>20839.81</v>
+      </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10"/>
       <c r="P45" s="3" t="s">
@@ -16927,7 +17502,9 @@
       <c r="R45" s="9">
         <v>31190.71</v>
       </c>
-      <c r="S45" s="9"/>
+      <c r="S45" s="9">
+        <v>30571.43</v>
+      </c>
       <c r="T45" s="9"/>
       <c r="U45" s="10"/>
     </row>
@@ -16941,7 +17518,9 @@
       <c r="D46" s="9">
         <v>15371.08</v>
       </c>
-      <c r="E46" s="9"/>
+      <c r="E46" s="9">
+        <v>14968.31</v>
+      </c>
       <c r="F46" s="9"/>
       <c r="G46" s="10"/>
       <c r="I46" s="13" t="s">
@@ -16975,7 +17554,9 @@
       <c r="D47" s="9">
         <v>850</v>
       </c>
-      <c r="E47" s="9"/>
+      <c r="E47" s="9">
+        <v>828</v>
+      </c>
       <c r="F47" s="9"/>
       <c r="G47" s="10"/>
       <c r="I47" s="13" t="s">
@@ -16987,7 +17568,9 @@
       <c r="K47" s="9">
         <v>1552</v>
       </c>
-      <c r="L47" s="9"/>
+      <c r="L47" s="9">
+        <v>1505</v>
+      </c>
       <c r="M47" s="9"/>
       <c r="N47" s="10"/>
       <c r="P47" s="3" t="s">
@@ -16999,7 +17582,9 @@
       <c r="R47" s="9">
         <v>2386</v>
       </c>
-      <c r="S47" s="9"/>
+      <c r="S47" s="9">
+        <v>2330</v>
+      </c>
       <c r="T47" s="9"/>
       <c r="U47" s="10"/>
     </row>
@@ -17013,7 +17598,9 @@
       <c r="D48" s="9">
         <v>23774.86</v>
       </c>
-      <c r="E48" s="9"/>
+      <c r="E48" s="9">
+        <v>23774.86</v>
+      </c>
       <c r="F48" s="9"/>
       <c r="G48" s="10"/>
       <c r="I48" s="13" t="s">
@@ -17025,7 +17612,9 @@
       <c r="K48" s="9">
         <v>54614.58</v>
       </c>
-      <c r="L48" s="9"/>
+      <c r="L48" s="9">
+        <v>50744.31</v>
+      </c>
       <c r="M48" s="9"/>
       <c r="N48" s="10"/>
       <c r="P48" s="3" t="s">
@@ -17035,9 +17624,11 @@
         <v>57</v>
       </c>
       <c r="R48" s="9">
-        <v>76145.68</v>
-      </c>
-      <c r="S48" s="9"/>
+        <v>76146</v>
+      </c>
+      <c r="S48" s="9">
+        <v>74958.07</v>
+      </c>
       <c r="T48" s="9"/>
       <c r="U48" s="10"/>
     </row>
@@ -17051,7 +17642,9 @@
       <c r="D49" s="9">
         <v>6938.06</v>
       </c>
-      <c r="E49" s="9"/>
+      <c r="E49" s="9">
+        <v>6938.06</v>
+      </c>
       <c r="F49" s="9"/>
       <c r="G49" s="10"/>
       <c r="I49" s="13" t="s">
@@ -17063,7 +17656,9 @@
       <c r="K49" s="9">
         <v>14221.33</v>
       </c>
-      <c r="L49" s="9"/>
+      <c r="L49" s="9">
+        <v>14221.33</v>
+      </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10"/>
       <c r="P49" s="3" t="s">
@@ -17075,7 +17670,9 @@
       <c r="R49" s="9">
         <v>29207.41</v>
       </c>
-      <c r="S49" s="9"/>
+      <c r="S49" s="9">
+        <v>29207.41</v>
+      </c>
       <c r="T49" s="9"/>
       <c r="U49" s="10"/>
     </row>
@@ -17089,7 +17686,9 @@
       <c r="D50" s="9">
         <v>10213</v>
       </c>
-      <c r="E50" s="9"/>
+      <c r="E50" s="9">
+        <v>10213</v>
+      </c>
       <c r="F50" s="9"/>
       <c r="G50" s="10"/>
       <c r="I50" s="13" t="s">
@@ -17101,7 +17700,9 @@
       <c r="K50" s="9">
         <v>23409.6</v>
       </c>
-      <c r="L50" s="9"/>
+      <c r="L50" s="9">
+        <v>22900.39</v>
+      </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10"/>
       <c r="P50" s="3" t="s">
@@ -17113,7 +17714,9 @@
       <c r="R50" s="9">
         <v>39298.44</v>
       </c>
-      <c r="S50" s="9"/>
+      <c r="S50" s="9">
+        <v>39040.23</v>
+      </c>
       <c r="T50" s="9"/>
       <c r="U50" s="10"/>
     </row>
@@ -17127,7 +17730,9 @@
       <c r="D51" s="9">
         <v>22834.71</v>
       </c>
-      <c r="E51" s="9"/>
+      <c r="E51" s="9">
+        <v>22807.35</v>
+      </c>
       <c r="F51" s="9"/>
       <c r="G51" s="10"/>
       <c r="I51" s="13" t="s">
@@ -17139,7 +17744,9 @@
       <c r="K51" s="9">
         <v>53186.52</v>
       </c>
-      <c r="L51" s="9"/>
+      <c r="L51" s="9">
+        <v>52630.18</v>
+      </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10"/>
       <c r="P51" s="3" t="s">
@@ -17151,7 +17758,9 @@
       <c r="R51" s="9">
         <v>76308.07</v>
       </c>
-      <c r="S51" s="9"/>
+      <c r="S51" s="9">
+        <v>75165.33</v>
+      </c>
       <c r="T51" s="9"/>
       <c r="U51" s="10"/>
     </row>
@@ -17165,7 +17774,9 @@
       <c r="D52" s="9">
         <v>11848.52</v>
       </c>
-      <c r="E52" s="9"/>
+      <c r="E52" s="9">
+        <v>11683.79</v>
+      </c>
       <c r="F52" s="9"/>
       <c r="G52" s="10"/>
       <c r="I52" s="13" t="s">
@@ -17177,7 +17788,9 @@
       <c r="K52" s="9">
         <v>26591.22</v>
       </c>
-      <c r="L52" s="9"/>
+      <c r="L52" s="9">
+        <v>26533.4</v>
+      </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10"/>
       <c r="P52" s="3" t="s">
@@ -17189,7 +17802,9 @@
       <c r="R52" s="9">
         <v>41765.99</v>
       </c>
-      <c r="S52" s="9"/>
+      <c r="S52" s="9">
+        <v>41612.52</v>
+      </c>
       <c r="T52" s="9"/>
       <c r="U52" s="10"/>
     </row>
@@ -17203,7 +17818,9 @@
       <c r="D53" s="9">
         <v>14453.64</v>
       </c>
-      <c r="E53" s="9"/>
+      <c r="E53" s="9">
+        <v>14514.92</v>
+      </c>
       <c r="F53" s="9"/>
       <c r="G53" s="10"/>
       <c r="I53" s="13" t="s">
@@ -17215,7 +17832,9 @@
       <c r="K53" s="9">
         <v>32889.71</v>
       </c>
-      <c r="L53" s="9"/>
+      <c r="L53" s="9">
+        <v>33023.75</v>
+      </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10"/>
       <c r="P53" s="3" t="s">
@@ -17227,7 +17846,9 @@
       <c r="R53" s="9">
         <v>48947.8</v>
       </c>
-      <c r="S53" s="9"/>
+      <c r="S53" s="9">
+        <v>48003.91</v>
+      </c>
       <c r="T53" s="9"/>
       <c r="U53" s="10"/>
     </row>
@@ -17241,7 +17862,9 @@
       <c r="D54" s="9">
         <v>23797.96</v>
       </c>
-      <c r="E54" s="9"/>
+      <c r="E54" s="9">
+        <v>23797.96</v>
+      </c>
       <c r="F54" s="9"/>
       <c r="G54" s="10"/>
       <c r="I54" s="13" t="s">
@@ -17253,7 +17876,9 @@
       <c r="K54" s="9">
         <v>45649.55</v>
       </c>
-      <c r="L54" s="9"/>
+      <c r="L54" s="9">
+        <v>45053.7</v>
+      </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10"/>
       <c r="P54" s="3" t="s">
@@ -17265,7 +17890,9 @@
       <c r="R54" s="9">
         <v>68534.27</v>
       </c>
-      <c r="S54" s="9"/>
+      <c r="S54" s="9">
+        <v>66996.81</v>
+      </c>
       <c r="T54" s="9"/>
       <c r="U54" s="10"/>
     </row>
@@ -17279,7 +17906,9 @@
       <c r="D55" s="9">
         <v>7800</v>
       </c>
-      <c r="E55" s="9"/>
+      <c r="E55" s="9">
+        <v>7800</v>
+      </c>
       <c r="F55" s="9"/>
       <c r="G55" s="10"/>
       <c r="I55" s="13" t="s">
@@ -17291,7 +17920,9 @@
       <c r="K55" s="9">
         <v>25802.87</v>
       </c>
-      <c r="L55" s="9"/>
+      <c r="L55" s="9">
+        <v>25681.09</v>
+      </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10"/>
       <c r="P55" s="3" t="s">
@@ -17303,7 +17934,9 @@
       <c r="R55" s="9">
         <v>34225.03</v>
       </c>
-      <c r="S55" s="9"/>
+      <c r="S55" s="9">
+        <v>33911.27</v>
+      </c>
       <c r="T55" s="9"/>
       <c r="U55" s="10"/>
     </row>
@@ -17317,7 +17950,9 @@
       <c r="D56" s="9">
         <v>12419.6</v>
       </c>
-      <c r="E56" s="9"/>
+      <c r="E56" s="9">
+        <v>12243.81</v>
+      </c>
       <c r="F56" s="9"/>
       <c r="G56" s="10"/>
       <c r="I56" s="13" t="s">
@@ -17329,7 +17964,9 @@
       <c r="K56" s="9">
         <v>26268.82</v>
       </c>
-      <c r="L56" s="9"/>
+      <c r="L56" s="9">
+        <v>25762.61</v>
+      </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10"/>
       <c r="P56" s="3" t="s">
@@ -17341,7 +17978,9 @@
       <c r="R56" s="9">
         <v>39729.09</v>
       </c>
-      <c r="S56" s="9"/>
+      <c r="S56" s="9">
+        <v>37232.98</v>
+      </c>
       <c r="T56" s="9"/>
       <c r="U56" s="10"/>
     </row>
@@ -17355,7 +17994,9 @@
       <c r="D57" s="9">
         <v>23928.26</v>
       </c>
-      <c r="E57" s="9"/>
+      <c r="E57" s="9">
+        <v>23528.55</v>
+      </c>
       <c r="F57" s="9"/>
       <c r="G57" s="10"/>
       <c r="I57" s="13" t="s">
@@ -17367,7 +18008,9 @@
       <c r="K57" s="9">
         <v>44307.49</v>
       </c>
-      <c r="L57" s="9"/>
+      <c r="L57" s="9">
+        <v>41769.18</v>
+      </c>
       <c r="M57" s="9"/>
       <c r="N57" s="10"/>
       <c r="P57" s="3" t="s">
@@ -17379,7 +18022,9 @@
       <c r="R57" s="9">
         <v>72059.64</v>
       </c>
-      <c r="S57" s="9"/>
+      <c r="S57" s="9">
+        <v>69827.25</v>
+      </c>
       <c r="T57" s="9"/>
       <c r="U57" s="10"/>
     </row>
@@ -17393,7 +18038,9 @@
       <c r="D58" s="9">
         <v>78465.41</v>
       </c>
-      <c r="E58" s="9"/>
+      <c r="E58" s="9">
+        <v>73426.02</v>
+      </c>
       <c r="F58" s="9"/>
       <c r="G58" s="10"/>
       <c r="I58" s="13" t="s">
@@ -17427,7 +18074,9 @@
       <c r="D59" s="9">
         <v>310.75</v>
       </c>
-      <c r="E59" s="9"/>
+      <c r="E59" s="9">
+        <v>310.75</v>
+      </c>
       <c r="F59" s="9"/>
       <c r="G59" s="10"/>
       <c r="I59" s="13" t="s">
@@ -17439,7 +18088,9 @@
       <c r="K59" s="9">
         <v>675.05</v>
       </c>
-      <c r="L59" s="9"/>
+      <c r="L59" s="9">
+        <v>631.96</v>
+      </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10"/>
       <c r="P59" s="3" t="s">
@@ -17451,7 +18102,9 @@
       <c r="R59" s="9">
         <v>998.97</v>
       </c>
-      <c r="S59" s="9"/>
+      <c r="S59" s="9">
+        <v>967.17</v>
+      </c>
       <c r="T59" s="9"/>
       <c r="U59" s="10"/>
     </row>
@@ -17465,7 +18118,9 @@
       <c r="D60" s="9">
         <v>578.86</v>
       </c>
-      <c r="E60" s="9"/>
+      <c r="E60" s="9">
+        <v>565.93</v>
+      </c>
       <c r="F60" s="9"/>
       <c r="G60" s="10"/>
       <c r="I60" s="13" t="s">
@@ -17477,7 +18132,9 @@
       <c r="K60" s="9">
         <v>1261.31</v>
       </c>
-      <c r="L60" s="9"/>
+      <c r="L60" s="9">
+        <v>1230.56</v>
+      </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10"/>
       <c r="P60" s="3" t="s">
@@ -17489,7 +18146,9 @@
       <c r="R60" s="9">
         <v>1884.35</v>
       </c>
-      <c r="S60" s="9"/>
+      <c r="S60" s="9">
+        <v>1878.64</v>
+      </c>
       <c r="T60" s="9"/>
       <c r="U60" s="10"/>
     </row>
@@ -17503,7 +18162,9 @@
       <c r="D61" s="9">
         <v>1747.84</v>
       </c>
-      <c r="E61" s="9"/>
+      <c r="E61" s="9">
+        <v>1708.22</v>
+      </c>
       <c r="F61" s="9"/>
       <c r="G61" s="10"/>
       <c r="I61" s="13" t="s">
@@ -17515,7 +18176,9 @@
       <c r="K61" s="9">
         <v>3684.15</v>
       </c>
-      <c r="L61" s="9"/>
+      <c r="L61" s="9">
+        <v>3615.8</v>
+      </c>
       <c r="M61" s="9"/>
       <c r="N61" s="10"/>
       <c r="P61" s="3" t="s">
@@ -17527,7 +18190,9 @@
       <c r="R61" s="9">
         <v>5630.88</v>
       </c>
-      <c r="S61" s="9"/>
+      <c r="S61" s="9">
+        <v>5491.92</v>
+      </c>
       <c r="T61" s="9"/>
       <c r="U61" s="10"/>
     </row>
@@ -17541,7 +18206,9 @@
       <c r="D62" s="9">
         <v>2392.03</v>
       </c>
-      <c r="E62" s="9"/>
+      <c r="E62" s="9">
+        <v>2307.33</v>
+      </c>
       <c r="F62" s="9"/>
       <c r="G62" s="10"/>
       <c r="I62" s="13" t="s">
@@ -17553,7 +18220,9 @@
       <c r="K62" s="9">
         <v>4980.35</v>
       </c>
-      <c r="L62" s="9"/>
+      <c r="L62" s="9">
+        <v>4870.89</v>
+      </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10"/>
       <c r="P62" s="3" t="s">
@@ -17577,7 +18246,9 @@
       <c r="D63" s="9">
         <v>5108</v>
       </c>
-      <c r="E63" s="9"/>
+      <c r="E63" s="9">
+        <v>5040</v>
+      </c>
       <c r="F63" s="9"/>
       <c r="G63" s="10"/>
       <c r="I63" s="13" t="s">
@@ -17589,7 +18260,9 @@
       <c r="K63" s="9">
         <v>10294</v>
       </c>
-      <c r="L63" s="9"/>
+      <c r="L63" s="9">
+        <v>10272</v>
+      </c>
       <c r="M63" s="9"/>
       <c r="N63" s="10"/>
       <c r="P63" s="3" t="s">
@@ -17601,7 +18274,9 @@
       <c r="R63" s="9">
         <v>15520</v>
       </c>
-      <c r="S63" s="9"/>
+      <c r="S63" s="9">
+        <v>15499</v>
+      </c>
       <c r="T63" s="9"/>
       <c r="U63" s="10"/>
     </row>
@@ -17615,7 +18290,9 @@
       <c r="D64" s="9">
         <v>11607</v>
       </c>
-      <c r="E64" s="9"/>
+      <c r="E64" s="9">
+        <v>11603</v>
+      </c>
       <c r="F64" s="9"/>
       <c r="G64" s="10"/>
       <c r="I64" s="13" t="s">
@@ -17627,7 +18304,9 @@
       <c r="K64" s="9">
         <v>23096</v>
       </c>
-      <c r="L64" s="9"/>
+      <c r="L64" s="9">
+        <v>23089</v>
+      </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10"/>
       <c r="P64" s="3" t="s">
@@ -17639,7 +18318,9 @@
       <c r="R64" s="9">
         <v>35241</v>
       </c>
-      <c r="S64" s="9"/>
+      <c r="S64" s="9">
+        <v>35177</v>
+      </c>
       <c r="T64" s="9"/>
       <c r="U64" s="10"/>
     </row>
@@ -17653,7 +18334,9 @@
       <c r="D65" s="9">
         <v>22435</v>
       </c>
-      <c r="E65" s="9"/>
+      <c r="E65" s="9">
+        <v>22435</v>
+      </c>
       <c r="F65" s="9"/>
       <c r="G65" s="10"/>
       <c r="I65" s="13" t="s">
@@ -17687,7 +18370,9 @@
       <c r="D66" s="9">
         <v>102.42</v>
       </c>
-      <c r="E66" s="9"/>
+      <c r="E66" s="9">
+        <v>102.42</v>
+      </c>
       <c r="F66" s="9"/>
       <c r="G66" s="10"/>
       <c r="I66" s="13" t="s">
@@ -17699,7 +18384,9 @@
       <c r="K66" s="9">
         <v>243.1</v>
       </c>
-      <c r="L66" s="9"/>
+      <c r="L66" s="9">
+        <v>243.1</v>
+      </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10"/>
       <c r="P66" s="3" t="s">
@@ -17711,7 +18398,9 @@
       <c r="R66" s="9">
         <v>448.35</v>
       </c>
-      <c r="S66" s="9"/>
+      <c r="S66" s="9">
+        <v>444.58</v>
+      </c>
       <c r="T66" s="9"/>
       <c r="U66" s="10"/>
     </row>
@@ -17725,7 +18414,9 @@
       <c r="D67" s="9">
         <v>152</v>
       </c>
-      <c r="E67" s="9"/>
+      <c r="E67" s="9">
+        <v>152</v>
+      </c>
       <c r="F67" s="9"/>
       <c r="G67" s="10"/>
       <c r="I67" s="13" t="s">
@@ -17737,7 +18428,9 @@
       <c r="K67" s="9">
         <v>507</v>
       </c>
-      <c r="L67" s="9"/>
+      <c r="L67" s="9">
+        <v>505</v>
+      </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10"/>
       <c r="P67" s="3" t="s">
@@ -17749,7 +18442,9 @@
       <c r="R67" s="9">
         <v>805</v>
       </c>
-      <c r="S67" s="9"/>
+      <c r="S67" s="9">
+        <v>805</v>
+      </c>
       <c r="T67" s="9"/>
       <c r="U67" s="10"/>
     </row>
@@ -17763,7 +18458,9 @@
       <c r="D68" s="9">
         <v>30239.35</v>
       </c>
-      <c r="E68" s="9"/>
+      <c r="E68" s="9">
+        <v>30239.35</v>
+      </c>
       <c r="F68" s="9"/>
       <c r="G68" s="10"/>
       <c r="I68" s="13" t="s">
@@ -17775,7 +18472,9 @@
       <c r="K68" s="9">
         <v>63849.22</v>
       </c>
-      <c r="L68" s="9"/>
+      <c r="L68" s="9">
+        <v>63347.41</v>
+      </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10"/>
       <c r="P68" s="3" t="s">
@@ -17787,7 +18486,9 @@
       <c r="R68" s="9">
         <v>110528.02</v>
       </c>
-      <c r="S68" s="9"/>
+      <c r="S68" s="9">
+        <v>106440.37</v>
+      </c>
       <c r="T68" s="9"/>
       <c r="U68" s="10"/>
     </row>
@@ -17801,7 +18502,9 @@
       <c r="D69" s="9">
         <v>1012.26</v>
       </c>
-      <c r="E69" s="9"/>
+      <c r="E69" s="9">
+        <v>964.77</v>
+      </c>
       <c r="F69" s="9"/>
       <c r="G69" s="10"/>
       <c r="I69" s="13" t="s">
@@ -17813,7 +18516,9 @@
       <c r="K69" s="9">
         <v>2122.89</v>
       </c>
-      <c r="L69" s="9"/>
+      <c r="L69" s="9">
+        <v>2028.57</v>
+      </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10"/>
       <c r="P69" s="3" t="s">
@@ -17825,7 +18530,9 @@
       <c r="R69" s="9">
         <v>3139.83</v>
       </c>
-      <c r="S69" s="9"/>
+      <c r="S69" s="9">
+        <v>2978.11</v>
+      </c>
       <c r="T69" s="9"/>
       <c r="U69" s="10"/>
     </row>
@@ -17839,7 +18546,9 @@
       <c r="D70" s="9">
         <v>751.06</v>
       </c>
-      <c r="E70" s="9"/>
+      <c r="E70" s="9">
+        <v>751.06</v>
+      </c>
       <c r="F70" s="9"/>
       <c r="G70" s="10"/>
       <c r="I70" s="13" t="s">
@@ -17851,7 +18560,9 @@
       <c r="K70" s="9">
         <v>1463.06</v>
       </c>
-      <c r="L70" s="9"/>
+      <c r="L70" s="9">
+        <v>1463.06</v>
+      </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10"/>
       <c r="P70" s="3" t="s">
@@ -17863,7 +18574,9 @@
       <c r="R70" s="9">
         <v>2279.3</v>
       </c>
-      <c r="S70" s="9"/>
+      <c r="S70" s="9">
+        <v>2279.3</v>
+      </c>
       <c r="T70" s="9"/>
       <c r="U70" s="10"/>
     </row>
@@ -17877,7 +18590,9 @@
       <c r="D71" s="9">
         <v>456.58</v>
       </c>
-      <c r="E71" s="9"/>
+      <c r="E71" s="9">
+        <v>456.58</v>
+      </c>
       <c r="F71" s="9"/>
       <c r="G71" s="10"/>
       <c r="I71" s="13" t="s">
@@ -17889,7 +18604,9 @@
       <c r="K71" s="9">
         <v>2171.85</v>
       </c>
-      <c r="L71" s="9"/>
+      <c r="L71" s="9">
+        <v>2171.85</v>
+      </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10"/>
       <c r="P71" s="3" t="s">
@@ -17901,7 +18618,9 @@
       <c r="R71" s="9">
         <v>2772.63</v>
       </c>
-      <c r="S71" s="9"/>
+      <c r="S71" s="9">
+        <v>2772.63</v>
+      </c>
       <c r="T71" s="9"/>
       <c r="U71" s="10"/>
     </row>

--- a/Comparaçoes/BuscasLocais.xlsx
+++ b/Comparaçoes/BuscasLocais.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12885" tabRatio="500"/>
+    <workbookView windowWidth="13725" windowHeight="12885" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="k = n|4" sheetId="1" r:id="rId1"/>
@@ -327,11 +327,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="181" formatCode="0_ "/>
   </numFmts>
   <fonts count="21">
@@ -355,7 +355,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -366,16 +373,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -401,14 +400,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="15"/>
+      <color rgb="FF44546A"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -428,13 +421,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color rgb="FF44546A"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color rgb="FF44546A"/>
       <name val="Calibri"/>
@@ -449,7 +435,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -461,8 +460,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -488,13 +488,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE697"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBEBEB"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CAAB"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5DFB3"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD964"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA8D08C"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFBE3D5"/>
+        <fgColor rgb="FFF4AF82"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -506,103 +578,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF8CAAB"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5B9BD5"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE697"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC5DFB3"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEBEBEB"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CA"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9BC2E6"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4472C4"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF70AD47"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD964"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -620,7 +596,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBDD7EE"/>
+        <fgColor rgb="FF70AD47"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -632,7 +614,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EA9DB"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -644,25 +662,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9E1F2"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4AF82"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8EA9DB"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4C6E7"/>
+        <fgColor rgb="FFFBE3D5"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -876,30 +876,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -915,6 +891,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -926,21 +911,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -963,6 +933,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -978,31 +978,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1011,10 +1011,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1023,43 +1023,43 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1068,62 +1068,62 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1133,10 +1133,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1157,16 +1157,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1175,19 +1175,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1208,7 +1208,7 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1217,13 +1217,10 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1235,16 +1232,16 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1253,13 +1250,10 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1581,8 +1575,8 @@
   <sheetPr/>
   <dimension ref="B2:BT28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35:J36"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="BC1" workbookViewId="0">
+      <selection activeCell="BO32" sqref="BO32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1886,25 +1880,25 @@
       <c r="AC4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="AD4" s="38" t="s">
+      <c r="AD4" s="37" t="s">
         <v>12</v>
       </c>
       <c r="AE4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AF4" s="39" t="s">
+      <c r="AF4" s="38" t="s">
         <v>10</v>
       </c>
       <c r="AG4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="AH4" s="38" t="s">
+      <c r="AH4" s="37" t="s">
         <v>12</v>
       </c>
       <c r="AI4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AJ4" s="39" t="s">
+      <c r="AJ4" s="38" t="s">
         <v>10</v>
       </c>
       <c r="AK4" s="32" t="s">
@@ -1916,7 +1910,7 @@
       <c r="AM4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AN4" s="39" t="s">
+      <c r="AN4" s="38" t="s">
         <v>10</v>
       </c>
       <c r="AO4" s="32" t="s">
@@ -1961,19 +1955,19 @@
       <c r="BC4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="BD4" s="39" t="s">
+      <c r="BD4" s="38" t="s">
         <v>10</v>
       </c>
       <c r="BE4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="BF4" s="38" t="s">
+      <c r="BF4" s="37" t="s">
         <v>12</v>
       </c>
       <c r="BG4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="BH4" s="39" t="s">
+      <c r="BH4" s="38" t="s">
         <v>10</v>
       </c>
       <c r="BI4" s="32" t="s">
@@ -1985,7 +1979,7 @@
       <c r="BK4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="BL4" s="39" t="s">
+      <c r="BL4" s="38" t="s">
         <v>10</v>
       </c>
       <c r="BM4" s="32" t="s">
@@ -2071,14 +2065,16 @@
       <c r="T5" s="24">
         <v>809.16</v>
       </c>
-      <c r="U5" s="25">
+      <c r="U5" s="24">
         <v>789.21</v>
       </c>
-      <c r="V5" s="21"/>
-      <c r="W5" s="41">
+      <c r="V5" s="25">
+        <v>791.65</v>
+      </c>
+      <c r="W5" s="40">
         <v>606</v>
       </c>
-      <c r="X5" s="42">
+      <c r="X5" s="41">
         <v>606</v>
       </c>
       <c r="Z5" s="3" t="s">
@@ -2099,7 +2095,7 @@
       <c r="AE5" s="13">
         <v>655</v>
       </c>
-      <c r="AF5" s="37">
+      <c r="AF5" s="36">
         <v>558</v>
       </c>
       <c r="AG5" s="3">
@@ -2111,7 +2107,7 @@
       <c r="AI5" s="13">
         <v>558</v>
       </c>
-      <c r="AJ5" s="37">
+      <c r="AJ5" s="36">
         <v>582</v>
       </c>
       <c r="AK5" s="3">
@@ -2138,14 +2134,16 @@
       <c r="AR5" s="24">
         <v>509</v>
       </c>
-      <c r="AS5" s="25">
+      <c r="AS5" s="24">
         <v>509</v>
       </c>
-      <c r="AT5" s="21"/>
-      <c r="AU5" s="42">
+      <c r="AT5" s="25">
+        <v>509</v>
+      </c>
+      <c r="AU5" s="41">
         <v>558</v>
       </c>
-      <c r="AV5" s="42">
+      <c r="AV5" s="41">
         <v>558</v>
       </c>
       <c r="AX5" s="3" t="s">
@@ -2160,13 +2158,13 @@
       <c r="BA5" s="32">
         <v>25126.84</v>
       </c>
-      <c r="BB5" s="38">
+      <c r="BB5" s="37">
         <v>25126.84</v>
       </c>
       <c r="BC5" s="18">
         <v>23589.53</v>
       </c>
-      <c r="BD5" s="37">
+      <c r="BD5" s="36">
         <v>25126.84</v>
       </c>
       <c r="BE5" s="3">
@@ -2178,7 +2176,7 @@
       <c r="BG5" s="13">
         <v>23589.53</v>
       </c>
-      <c r="BH5" s="37">
+      <c r="BH5" s="36">
         <v>25126.84</v>
       </c>
       <c r="BI5" s="3">
@@ -2205,10 +2203,12 @@
       <c r="BP5" s="24">
         <v>23774.86</v>
       </c>
-      <c r="BQ5" s="25">
+      <c r="BQ5" s="24">
         <v>23774.86</v>
       </c>
-      <c r="BR5" s="21"/>
+      <c r="BR5" s="25">
+        <v>23774.86</v>
+      </c>
       <c r="BS5" s="30">
         <v>17728</v>
       </c>
@@ -2240,10 +2240,10 @@
       <c r="R6" s="21"/>
       <c r="S6" s="21"/>
       <c r="T6" s="24"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="42"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="41"/>
       <c r="Z6" s="3" t="s">
         <v>23</v>
       </c>
@@ -2262,7 +2262,7 @@
       <c r="AE6" s="13">
         <v>10900.24</v>
       </c>
-      <c r="AF6" s="37">
+      <c r="AF6" s="36">
         <v>9818.95</v>
       </c>
       <c r="AG6" s="3">
@@ -2274,7 +2274,7 @@
       <c r="AI6" s="13">
         <v>9934.05</v>
       </c>
-      <c r="AJ6" s="37">
+      <c r="AJ6" s="36">
         <v>10082.97</v>
       </c>
       <c r="AK6" s="3">
@@ -2301,14 +2301,16 @@
       <c r="AR6" s="24">
         <v>9090.91</v>
       </c>
-      <c r="AS6" s="25">
+      <c r="AS6" s="24">
         <v>9090.91</v>
       </c>
-      <c r="AT6" s="21"/>
-      <c r="AU6" s="42">
+      <c r="AT6" s="25">
+        <v>9090.91</v>
+      </c>
+      <c r="AU6" s="41">
         <v>7704</v>
       </c>
-      <c r="AV6" s="42">
+      <c r="AV6" s="41">
         <v>7704</v>
       </c>
       <c r="AX6" s="3" t="s">
@@ -2329,7 +2331,7 @@
       <c r="BC6" s="13">
         <v>7918.17</v>
       </c>
-      <c r="BD6" s="37">
+      <c r="BD6" s="36">
         <v>7165.83</v>
       </c>
       <c r="BE6" s="3">
@@ -2341,7 +2343,7 @@
       <c r="BG6" s="13">
         <v>7379.46</v>
       </c>
-      <c r="BH6" s="37">
+      <c r="BH6" s="36">
         <v>7537.29</v>
       </c>
       <c r="BI6" s="3">
@@ -2368,10 +2370,12 @@
       <c r="BP6" s="24">
         <v>6938.06</v>
       </c>
-      <c r="BQ6" s="25">
+      <c r="BQ6" s="24">
         <v>6938.06</v>
       </c>
-      <c r="BR6" s="21"/>
+      <c r="BR6" s="25">
+        <v>6938.06</v>
+      </c>
       <c r="BS6" s="30">
         <v>6981</v>
       </c>
@@ -2437,12 +2441,14 @@
       <c r="T7" s="24">
         <v>1193</v>
       </c>
-      <c r="U7" s="25">
+      <c r="U7" s="24">
         <v>1193</v>
       </c>
-      <c r="V7" s="21"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="42"/>
+      <c r="V7" s="25">
+        <v>1193</v>
+      </c>
+      <c r="W7" s="40"/>
+      <c r="X7" s="41"/>
       <c r="Z7" s="3" t="s">
         <v>26</v>
       </c>
@@ -2461,7 +2467,7 @@
       <c r="AE7" s="13">
         <v>1369</v>
       </c>
-      <c r="AF7" s="37">
+      <c r="AF7" s="36">
         <v>1404</v>
       </c>
       <c r="AG7" s="3">
@@ -2473,7 +2479,7 @@
       <c r="AI7" s="13">
         <v>1405</v>
       </c>
-      <c r="AJ7" s="37">
+      <c r="AJ7" s="36">
         <v>1356</v>
       </c>
       <c r="AK7" s="3">
@@ -2500,12 +2506,14 @@
       <c r="AR7" s="24">
         <v>1593</v>
       </c>
-      <c r="AS7" s="25">
+      <c r="AS7" s="24">
         <v>1590</v>
       </c>
-      <c r="AT7" s="21"/>
-      <c r="AU7" s="42"/>
-      <c r="AV7" s="42"/>
+      <c r="AT7" s="25">
+        <v>1593</v>
+      </c>
+      <c r="AU7" s="41"/>
+      <c r="AV7" s="41"/>
       <c r="AX7" s="3" t="s">
         <v>27</v>
       </c>
@@ -2524,7 +2532,7 @@
       <c r="BC7" s="13">
         <v>10306.54</v>
       </c>
-      <c r="BD7" s="37">
+      <c r="BD7" s="36">
         <v>14065.44</v>
       </c>
       <c r="BE7" s="3">
@@ -2536,7 +2544,7 @@
       <c r="BG7" s="13">
         <v>12877.05</v>
       </c>
-      <c r="BH7" s="37">
+      <c r="BH7" s="36">
         <v>14065.44</v>
       </c>
       <c r="BI7" s="3">
@@ -2563,10 +2571,12 @@
       <c r="BP7" s="24">
         <v>10213</v>
       </c>
-      <c r="BQ7" s="25">
+      <c r="BQ7" s="24">
         <v>10213</v>
       </c>
-      <c r="BR7" s="21"/>
+      <c r="BR7" s="25">
+        <v>10213</v>
+      </c>
       <c r="BS7" s="30">
         <v>9596</v>
       </c>
@@ -2632,12 +2642,14 @@
       <c r="T8" s="24">
         <v>6624</v>
       </c>
-      <c r="U8" s="25">
+      <c r="U8" s="24">
         <v>6365</v>
       </c>
-      <c r="V8" s="21"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="42"/>
+      <c r="V8" s="25">
+        <v>6520</v>
+      </c>
+      <c r="W8" s="40"/>
+      <c r="X8" s="41"/>
       <c r="Z8" s="3" t="s">
         <v>29</v>
       </c>
@@ -2648,11 +2660,11 @@
       <c r="AC8" s="3"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="13"/>
-      <c r="AF8" s="37"/>
+      <c r="AF8" s="36"/>
       <c r="AG8" s="3"/>
       <c r="AH8" s="4"/>
       <c r="AI8" s="13"/>
-      <c r="AJ8" s="37"/>
+      <c r="AJ8" s="36"/>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
@@ -2661,12 +2673,12 @@
       <c r="AP8" s="21"/>
       <c r="AQ8" s="21"/>
       <c r="AR8" s="24"/>
-      <c r="AS8" s="25"/>
-      <c r="AT8" s="21"/>
-      <c r="AU8" s="42">
+      <c r="AS8" s="24"/>
+      <c r="AT8" s="25"/>
+      <c r="AU8" s="41">
         <v>14784</v>
       </c>
-      <c r="AV8" s="42">
+      <c r="AV8" s="41">
         <v>14784</v>
       </c>
       <c r="AX8" s="3" t="s">
@@ -2687,7 +2699,7 @@
       <c r="BC8" s="13">
         <v>22376.19</v>
       </c>
-      <c r="BD8" s="37">
+      <c r="BD8" s="36">
         <v>23341.46</v>
       </c>
       <c r="BE8" s="3">
@@ -2699,7 +2711,7 @@
       <c r="BG8" s="13">
         <v>23907.89</v>
       </c>
-      <c r="BH8" s="37">
+      <c r="BH8" s="36">
         <v>23147.12</v>
       </c>
       <c r="BI8" s="3">
@@ -2726,10 +2738,12 @@
       <c r="BP8" s="24">
         <v>22834.71</v>
       </c>
-      <c r="BQ8" s="25">
+      <c r="BQ8" s="24">
         <v>22807.35</v>
       </c>
-      <c r="BR8" s="21"/>
+      <c r="BR8" s="25">
+        <v>21090.81</v>
+      </c>
       <c r="BS8" s="30">
         <v>20928</v>
       </c>
@@ -2795,14 +2809,16 @@
       <c r="T9" s="24">
         <v>282</v>
       </c>
-      <c r="U9" s="25">
+      <c r="U9" s="24">
         <v>282</v>
       </c>
-      <c r="V9" s="21"/>
-      <c r="W9" s="41">
+      <c r="V9" s="25">
+        <v>282</v>
+      </c>
+      <c r="W9" s="40">
         <v>246</v>
       </c>
-      <c r="X9" s="42">
+      <c r="X9" s="41">
         <v>246</v>
       </c>
       <c r="Z9" s="3" t="s">
@@ -2815,11 +2831,11 @@
       <c r="AC9" s="3"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="13"/>
-      <c r="AF9" s="37"/>
+      <c r="AF9" s="36"/>
       <c r="AG9" s="3"/>
       <c r="AH9" s="4"/>
       <c r="AI9" s="13"/>
-      <c r="AJ9" s="37"/>
+      <c r="AJ9" s="36"/>
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
@@ -2828,12 +2844,12 @@
       <c r="AP9" s="21"/>
       <c r="AQ9" s="21"/>
       <c r="AR9" s="24"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="21"/>
-      <c r="AU9" s="42">
+      <c r="AS9" s="24"/>
+      <c r="AT9" s="25"/>
+      <c r="AU9" s="41">
         <v>6977</v>
       </c>
-      <c r="AV9" s="42">
+      <c r="AV9" s="41">
         <v>6977</v>
       </c>
       <c r="AX9" s="3" t="s">
@@ -2854,7 +2870,7 @@
       <c r="BC9" s="13">
         <v>10893.75</v>
       </c>
-      <c r="BD9" s="37">
+      <c r="BD9" s="36">
         <v>12001.03</v>
       </c>
       <c r="BE9" s="3">
@@ -2866,7 +2882,7 @@
       <c r="BG9" s="13">
         <v>12001.03</v>
       </c>
-      <c r="BH9" s="37">
+      <c r="BH9" s="36">
         <v>11480.73</v>
       </c>
       <c r="BI9" s="3">
@@ -2893,10 +2909,12 @@
       <c r="BP9" s="24">
         <v>11848.52</v>
       </c>
-      <c r="BQ9" s="25">
+      <c r="BQ9" s="24">
         <v>11683.79</v>
       </c>
-      <c r="BR9" s="21"/>
+      <c r="BR9" s="25">
+        <v>11683.79</v>
+      </c>
       <c r="BS9" s="30">
         <v>10743</v>
       </c>
@@ -2962,14 +2980,16 @@
       <c r="T10" s="24">
         <v>376</v>
       </c>
-      <c r="U10" s="25">
+      <c r="U10" s="24">
         <v>376</v>
       </c>
-      <c r="V10" s="21"/>
-      <c r="W10" s="41">
+      <c r="V10" s="25">
+        <v>376</v>
+      </c>
+      <c r="W10" s="40">
         <v>282</v>
       </c>
-      <c r="X10" s="42">
+      <c r="X10" s="41">
         <v>282</v>
       </c>
       <c r="Z10" s="3" t="s">
@@ -2982,11 +3002,11 @@
       <c r="AC10" s="3"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="13"/>
-      <c r="AF10" s="37"/>
+      <c r="AF10" s="36"/>
       <c r="AG10" s="3"/>
       <c r="AH10" s="4"/>
       <c r="AI10" s="13"/>
-      <c r="AJ10" s="37"/>
+      <c r="AJ10" s="36"/>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
@@ -2995,12 +3015,12 @@
       <c r="AP10" s="21"/>
       <c r="AQ10" s="21"/>
       <c r="AR10" s="24"/>
-      <c r="AS10" s="25"/>
-      <c r="AT10" s="21"/>
-      <c r="AU10" s="42">
+      <c r="AS10" s="24"/>
+      <c r="AT10" s="25"/>
+      <c r="AU10" s="41">
         <v>18471</v>
       </c>
-      <c r="AV10" s="42">
+      <c r="AV10" s="41">
         <v>18471</v>
       </c>
       <c r="AX10" s="3" t="s">
@@ -3021,7 +3041,7 @@
       <c r="BC10" s="13">
         <v>16537.99</v>
       </c>
-      <c r="BD10" s="37">
+      <c r="BD10" s="36">
         <v>15403.26</v>
       </c>
       <c r="BE10" s="3">
@@ -3033,7 +3053,7 @@
       <c r="BG10" s="13">
         <v>16537.99</v>
       </c>
-      <c r="BH10" s="37">
+      <c r="BH10" s="36">
         <v>15403.26</v>
       </c>
       <c r="BI10" s="3">
@@ -3060,10 +3080,12 @@
       <c r="BP10" s="24">
         <v>14453.64</v>
       </c>
-      <c r="BQ10" s="25">
+      <c r="BQ10" s="24">
         <v>14514.92</v>
       </c>
-      <c r="BR10" s="21"/>
+      <c r="BR10" s="25">
+        <v>14453.64</v>
+      </c>
       <c r="BS10" s="30">
         <v>15403</v>
       </c>
@@ -3129,14 +3151,16 @@
       <c r="T11" s="24">
         <v>456.38</v>
       </c>
-      <c r="U11" s="25">
+      <c r="U11" s="24">
         <v>456.38</v>
       </c>
-      <c r="V11" s="21"/>
-      <c r="W11" s="41">
+      <c r="V11" s="25">
+        <v>456.38</v>
+      </c>
+      <c r="W11" s="40">
         <v>489</v>
       </c>
-      <c r="X11" s="42">
+      <c r="X11" s="41">
         <v>489</v>
       </c>
       <c r="Z11" s="3" t="s">
@@ -3149,11 +3173,11 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="13"/>
-      <c r="AF11" s="37"/>
+      <c r="AF11" s="36"/>
       <c r="AG11" s="3"/>
       <c r="AH11" s="4"/>
       <c r="AI11" s="13"/>
-      <c r="AJ11" s="37"/>
+      <c r="AJ11" s="36"/>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
       <c r="AM11" s="3"/>
@@ -3162,10 +3186,10 @@
       <c r="AP11" s="21"/>
       <c r="AQ11" s="21"/>
       <c r="AR11" s="24"/>
-      <c r="AS11" s="25"/>
-      <c r="AT11" s="21"/>
-      <c r="AU11" s="42"/>
-      <c r="AV11" s="42"/>
+      <c r="AS11" s="24"/>
+      <c r="AT11" s="25"/>
+      <c r="AU11" s="41"/>
+      <c r="AV11" s="41"/>
       <c r="AX11" s="3" t="s">
         <v>39</v>
       </c>
@@ -3184,7 +3208,7 @@
       <c r="BC11" s="13">
         <v>22638.14</v>
       </c>
-      <c r="BD11" s="37">
+      <c r="BD11" s="36">
         <v>23231.19</v>
       </c>
       <c r="BE11" s="3">
@@ -3196,7 +3220,7 @@
       <c r="BG11" s="13">
         <v>23248.9</v>
       </c>
-      <c r="BH11" s="37">
+      <c r="BH11" s="36">
         <v>23231.19</v>
       </c>
       <c r="BI11" s="3">
@@ -3223,10 +3247,12 @@
       <c r="BP11" s="24">
         <v>23797.96</v>
       </c>
-      <c r="BQ11" s="25">
+      <c r="BQ11" s="24">
         <v>23797.96</v>
       </c>
-      <c r="BR11" s="21"/>
+      <c r="BR11" s="25">
+        <v>23797.96</v>
+      </c>
       <c r="BS11" s="30">
         <v>18594</v>
       </c>
@@ -3292,14 +3318,16 @@
       <c r="T12" s="24">
         <v>11360.52</v>
       </c>
-      <c r="U12" s="25">
+      <c r="U12" s="24">
         <v>11363.99</v>
       </c>
-      <c r="V12" s="21"/>
-      <c r="W12" s="41">
+      <c r="V12" s="25">
+        <v>11245.08</v>
+      </c>
+      <c r="W12" s="40">
         <v>9840</v>
       </c>
-      <c r="X12" s="42">
+      <c r="X12" s="41">
         <v>10132</v>
       </c>
       <c r="Z12" s="3" t="s">
@@ -3312,11 +3340,11 @@
       <c r="AC12" s="3"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="13"/>
-      <c r="AF12" s="37"/>
+      <c r="AF12" s="36"/>
       <c r="AG12" s="3"/>
       <c r="AH12" s="4"/>
       <c r="AI12" s="13"/>
-      <c r="AJ12" s="37"/>
+      <c r="AJ12" s="36"/>
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
@@ -3325,10 +3353,10 @@
       <c r="AP12" s="21"/>
       <c r="AQ12" s="21"/>
       <c r="AR12" s="24"/>
-      <c r="AS12" s="25"/>
-      <c r="AT12" s="21"/>
-      <c r="AU12" s="42"/>
-      <c r="AV12" s="42"/>
+      <c r="AS12" s="24"/>
+      <c r="AT12" s="25"/>
+      <c r="AU12" s="41"/>
+      <c r="AV12" s="41"/>
       <c r="AX12" s="3" t="s">
         <v>42</v>
       </c>
@@ -3347,7 +3375,7 @@
       <c r="BC12" s="13">
         <v>7800</v>
       </c>
-      <c r="BD12" s="37">
+      <c r="BD12" s="36">
         <v>8023.61</v>
       </c>
       <c r="BE12" s="3">
@@ -3359,7 +3387,7 @@
       <c r="BG12" s="13">
         <v>7800</v>
       </c>
-      <c r="BH12" s="37">
+      <c r="BH12" s="36">
         <v>8023.61</v>
       </c>
       <c r="BI12" s="3">
@@ -3386,10 +3414,12 @@
       <c r="BP12" s="24">
         <v>7800</v>
       </c>
-      <c r="BQ12" s="25">
+      <c r="BQ12" s="24">
         <v>7800</v>
       </c>
-      <c r="BR12" s="21"/>
+      <c r="BR12" s="25">
+        <v>7800</v>
+      </c>
       <c r="BS12" s="30"/>
       <c r="BT12" s="30"/>
     </row>
@@ -3451,12 +3481,14 @@
       <c r="T13" s="24">
         <v>4161</v>
       </c>
-      <c r="U13" s="25">
+      <c r="U13" s="24">
         <v>4161</v>
       </c>
-      <c r="V13" s="21"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="42"/>
+      <c r="V13" s="25">
+        <v>4161</v>
+      </c>
+      <c r="W13" s="40"/>
+      <c r="X13" s="41"/>
       <c r="Z13" s="3" t="s">
         <v>44</v>
       </c>
@@ -3475,7 +3507,7 @@
       <c r="AE13" s="13">
         <v>3454</v>
       </c>
-      <c r="AF13" s="37">
+      <c r="AF13" s="36">
         <v>3155</v>
       </c>
       <c r="AG13" s="3">
@@ -3487,7 +3519,7 @@
       <c r="AI13" s="13">
         <v>2884</v>
       </c>
-      <c r="AJ13" s="37">
+      <c r="AJ13" s="36">
         <v>3155</v>
       </c>
       <c r="AK13" s="3">
@@ -3514,14 +3546,16 @@
       <c r="AR13" s="24">
         <v>3454</v>
       </c>
-      <c r="AS13" s="25">
+      <c r="AS13" s="24">
         <v>3454</v>
       </c>
-      <c r="AT13" s="21"/>
-      <c r="AU13" s="42">
+      <c r="AT13" s="25">
+        <v>3454</v>
+      </c>
+      <c r="AU13" s="41">
         <v>2094</v>
       </c>
-      <c r="AV13" s="42">
+      <c r="AV13" s="41">
         <v>2094</v>
       </c>
       <c r="AX13" s="3" t="s">
@@ -3542,7 +3576,7 @@
       <c r="BC13" s="13">
         <v>11693.22</v>
       </c>
-      <c r="BD13" s="37">
+      <c r="BD13" s="36">
         <v>12127.29</v>
       </c>
       <c r="BE13" s="3">
@@ -3554,7 +3588,7 @@
       <c r="BG13" s="13">
         <v>12256.31</v>
       </c>
-      <c r="BH13" s="37">
+      <c r="BH13" s="36">
         <v>10546.96</v>
       </c>
       <c r="BI13" s="3">
@@ -3581,10 +3615,12 @@
       <c r="BP13" s="24">
         <v>12419.6</v>
       </c>
-      <c r="BQ13" s="25">
+      <c r="BQ13" s="24">
         <v>12243.81</v>
       </c>
-      <c r="BR13" s="21"/>
+      <c r="BR13" s="25">
+        <v>10706.39</v>
+      </c>
       <c r="BS13" s="30"/>
       <c r="BT13" s="30"/>
     </row>
@@ -3646,12 +3682,14 @@
       <c r="T14" s="24">
         <v>510</v>
       </c>
-      <c r="U14" s="25">
+      <c r="U14" s="24">
         <v>510</v>
       </c>
-      <c r="V14" s="21"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="42"/>
+      <c r="V14" s="25">
+        <v>510</v>
+      </c>
+      <c r="W14" s="40"/>
+      <c r="X14" s="41"/>
       <c r="Z14" s="3" t="s">
         <v>47</v>
       </c>
@@ -3670,7 +3708,7 @@
       <c r="AE14" s="13">
         <v>5037.2</v>
       </c>
-      <c r="AF14" s="37">
+      <c r="AF14" s="36">
         <v>4792.31</v>
       </c>
       <c r="AG14" s="3">
@@ -3682,7 +3720,7 @@
       <c r="AI14" s="13">
         <v>4492.73</v>
       </c>
-      <c r="AJ14" s="37">
+      <c r="AJ14" s="36">
         <v>4788.84</v>
       </c>
       <c r="AK14" s="3">
@@ -3709,14 +3747,16 @@
       <c r="AR14" s="24">
         <v>5147.7</v>
       </c>
-      <c r="AS14" s="25">
+      <c r="AS14" s="24">
         <v>5147.7</v>
       </c>
-      <c r="AT14" s="21"/>
-      <c r="AU14" s="42">
+      <c r="AT14" s="25">
+        <v>5147.7</v>
+      </c>
+      <c r="AU14" s="41">
         <v>4369</v>
       </c>
-      <c r="AV14" s="42">
+      <c r="AV14" s="41">
         <v>4369</v>
       </c>
       <c r="AX14" s="3" t="s">
@@ -3737,7 +3777,7 @@
       <c r="BC14" s="13">
         <v>21666.36</v>
       </c>
-      <c r="BD14" s="37">
+      <c r="BD14" s="36">
         <v>22904.63</v>
       </c>
       <c r="BE14" s="3">
@@ -3749,7 +3789,7 @@
       <c r="BG14" s="13">
         <v>23304.76</v>
       </c>
-      <c r="BH14" s="37">
+      <c r="BH14" s="36">
         <v>21586.45</v>
       </c>
       <c r="BI14" s="3">
@@ -3776,10 +3816,12 @@
       <c r="BP14" s="24">
         <v>23928.26</v>
       </c>
-      <c r="BQ14" s="25">
+      <c r="BQ14" s="24">
         <v>23528.55</v>
       </c>
-      <c r="BR14" s="21"/>
+      <c r="BR14" s="25">
+        <v>23799.84</v>
+      </c>
       <c r="BS14" s="30"/>
       <c r="BT14" s="30"/>
     </row>
@@ -3841,14 +3883,16 @@
       <c r="T15" s="24">
         <v>249.88</v>
       </c>
-      <c r="U15" s="25">
+      <c r="U15" s="24">
         <v>249.88</v>
       </c>
-      <c r="V15" s="21"/>
-      <c r="W15" s="41">
+      <c r="V15" s="25">
+        <v>249.888</v>
+      </c>
+      <c r="W15" s="40">
         <v>151</v>
       </c>
-      <c r="X15" s="42">
+      <c r="X15" s="41">
         <v>151</v>
       </c>
       <c r="Z15" s="3" t="s">
@@ -3869,7 +3913,7 @@
       <c r="AE15" s="13">
         <v>6400.64</v>
       </c>
-      <c r="AF15" s="37">
+      <c r="AF15" s="36">
         <v>7646.9</v>
       </c>
       <c r="AG15" s="3">
@@ -3881,7 +3925,7 @@
       <c r="AI15" s="13">
         <v>7429.09</v>
       </c>
-      <c r="AJ15" s="37">
+      <c r="AJ15" s="36">
         <v>7646.9</v>
       </c>
       <c r="AK15" s="3">
@@ -3908,14 +3952,16 @@
       <c r="AR15" s="24">
         <v>6211.1</v>
       </c>
-      <c r="AS15" s="25">
+      <c r="AS15" s="24">
         <v>6211.1</v>
       </c>
-      <c r="AT15" s="21"/>
-      <c r="AU15" s="42">
+      <c r="AT15" s="25">
+        <v>6211.1</v>
+      </c>
+      <c r="AU15" s="41">
         <v>5286</v>
       </c>
-      <c r="AV15" s="42">
+      <c r="AV15" s="41">
         <v>5286</v>
       </c>
       <c r="AX15" s="3" t="s">
@@ -3936,13 +3982,13 @@
       <c r="BC15" s="13">
         <v>66131.75</v>
       </c>
-      <c r="BD15" s="37">
+      <c r="BD15" s="36">
         <v>65571.91</v>
       </c>
       <c r="BE15" s="3"/>
       <c r="BF15" s="4"/>
       <c r="BG15" s="13"/>
-      <c r="BH15" s="37"/>
+      <c r="BH15" s="36"/>
       <c r="BI15" s="3"/>
       <c r="BJ15" s="3"/>
       <c r="BK15" s="3"/>
@@ -3953,10 +3999,12 @@
       <c r="BP15" s="24">
         <v>78465.41</v>
       </c>
-      <c r="BQ15" s="25">
+      <c r="BQ15" s="24">
         <v>73426.02</v>
       </c>
-      <c r="BR15" s="21"/>
+      <c r="BR15" s="25">
+        <v>74072.3</v>
+      </c>
       <c r="BS15" s="30"/>
       <c r="BT15" s="30"/>
     </row>
@@ -4018,14 +4066,16 @@
       <c r="T16" s="24">
         <v>1275.54</v>
       </c>
-      <c r="U16" s="25">
+      <c r="U16" s="24">
         <v>1275.54</v>
       </c>
-      <c r="V16" s="21"/>
-      <c r="W16" s="41">
+      <c r="V16" s="25">
+        <v>1275.54</v>
+      </c>
+      <c r="W16" s="40">
         <v>1116</v>
       </c>
-      <c r="X16" s="42">
+      <c r="X16" s="41">
         <v>1119</v>
       </c>
       <c r="Z16" s="3" t="s">
@@ -4046,7 +4096,7 @@
       <c r="AE16" s="13">
         <v>6863.81</v>
       </c>
-      <c r="AF16" s="37">
+      <c r="AF16" s="36">
         <v>6772.97</v>
       </c>
       <c r="AG16" s="3">
@@ -4058,7 +4108,7 @@
       <c r="AI16" s="13">
         <v>6899.46</v>
       </c>
-      <c r="AJ16" s="37">
+      <c r="AJ16" s="36">
         <v>6741.11</v>
       </c>
       <c r="AK16" s="3">
@@ -4085,14 +4135,16 @@
       <c r="AR16" s="24">
         <v>8522.77</v>
       </c>
-      <c r="AS16" s="25">
+      <c r="AS16" s="24">
         <v>8203.64</v>
       </c>
-      <c r="AT16" s="21"/>
-      <c r="AU16" s="42">
+      <c r="AT16" s="25">
+        <v>6735.71</v>
+      </c>
+      <c r="AU16" s="41">
         <v>6138</v>
       </c>
-      <c r="AV16" s="42">
+      <c r="AV16" s="41">
         <v>6138</v>
       </c>
       <c r="AX16" s="3" t="s">
@@ -4113,7 +4165,7 @@
       <c r="BC16" s="13">
         <v>255.03</v>
       </c>
-      <c r="BD16" s="37">
+      <c r="BD16" s="36">
         <v>323.19</v>
       </c>
       <c r="BE16" s="3">
@@ -4125,7 +4177,7 @@
       <c r="BG16" s="13">
         <v>341.87</v>
       </c>
-      <c r="BH16" s="37">
+      <c r="BH16" s="36">
         <v>292.55</v>
       </c>
       <c r="BI16" s="3">
@@ -4152,10 +4204,12 @@
       <c r="BP16" s="24">
         <v>310.75</v>
       </c>
-      <c r="BQ16" s="25">
+      <c r="BQ16" s="24">
         <v>310.75</v>
       </c>
-      <c r="BR16" s="21"/>
+      <c r="BR16" s="25">
+        <v>310.75</v>
+      </c>
       <c r="BS16" s="30">
         <v>260</v>
       </c>
@@ -4221,14 +4275,16 @@
       <c r="T17" s="24">
         <v>1614.05</v>
       </c>
-      <c r="U17" s="25">
+      <c r="U17" s="24">
         <v>1566.24</v>
       </c>
-      <c r="V17" s="21"/>
-      <c r="W17" s="41">
+      <c r="V17" s="25">
+        <v>1400.38</v>
+      </c>
+      <c r="W17" s="40">
         <v>1204</v>
       </c>
-      <c r="X17" s="42">
+      <c r="X17" s="41">
         <v>1204</v>
       </c>
       <c r="Z17" s="3" t="s">
@@ -4249,7 +4305,7 @@
       <c r="AE17" s="13">
         <v>5474.72</v>
       </c>
-      <c r="AF17" s="37">
+      <c r="AF17" s="36">
         <v>4469.81</v>
       </c>
       <c r="AG17" s="3">
@@ -4261,7 +4317,7 @@
       <c r="AI17" s="13">
         <v>4405.8</v>
       </c>
-      <c r="AJ17" s="37">
+      <c r="AJ17" s="36">
         <v>5384.91</v>
       </c>
       <c r="AK17" s="3">
@@ -4288,14 +4344,16 @@
       <c r="AR17" s="24">
         <v>5352.24</v>
       </c>
-      <c r="AS17" s="25">
+      <c r="AS17" s="24">
         <v>5435.63</v>
       </c>
-      <c r="AT17" s="21"/>
-      <c r="AU17" s="42">
+      <c r="AT17" s="25">
+        <v>5352.24</v>
+      </c>
+      <c r="AU17" s="41">
         <v>4014</v>
       </c>
-      <c r="AV17" s="42">
+      <c r="AV17" s="41">
         <v>4014</v>
       </c>
       <c r="AX17" s="3" t="s">
@@ -4316,7 +4374,7 @@
       <c r="BC17" s="13">
         <v>559.05</v>
       </c>
-      <c r="BD17" s="37">
+      <c r="BD17" s="36">
         <v>593.08</v>
       </c>
       <c r="BE17" s="3">
@@ -4328,7 +4386,7 @@
       <c r="BG17" s="13">
         <v>594.47</v>
       </c>
-      <c r="BH17" s="37">
+      <c r="BH17" s="36">
         <v>546.13</v>
       </c>
       <c r="BI17" s="3">
@@ -4355,10 +4413,12 @@
       <c r="BP17" s="24">
         <v>578.86</v>
       </c>
-      <c r="BQ17" s="25">
+      <c r="BQ17" s="24">
         <v>565.93</v>
       </c>
-      <c r="BR17" s="21"/>
+      <c r="BR17" s="25">
+        <v>585.32</v>
+      </c>
       <c r="BS17" s="30">
         <v>538</v>
       </c>
@@ -4424,14 +4484,16 @@
       <c r="T18" s="24">
         <v>114</v>
       </c>
-      <c r="U18" s="25">
+      <c r="U18" s="24">
         <v>114</v>
       </c>
-      <c r="V18" s="21"/>
-      <c r="W18" s="41">
+      <c r="V18" s="25">
+        <v>114</v>
+      </c>
+      <c r="W18" s="40">
         <v>99</v>
       </c>
-      <c r="X18" s="42">
+      <c r="X18" s="41">
         <v>99</v>
       </c>
       <c r="Z18" s="3" t="s">
@@ -4452,7 +4514,7 @@
       <c r="AE18" s="13">
         <v>5133.8</v>
       </c>
-      <c r="AF18" s="37">
+      <c r="AF18" s="36">
         <v>5396.33</v>
       </c>
       <c r="AG18" s="3">
@@ -4464,7 +4526,7 @@
       <c r="AI18" s="13">
         <v>5281.26</v>
       </c>
-      <c r="AJ18" s="37">
+      <c r="AJ18" s="36">
         <v>5396.33</v>
       </c>
       <c r="AK18" s="3">
@@ -4491,14 +4553,16 @@
       <c r="AR18" s="24">
         <v>5134.25</v>
       </c>
-      <c r="AS18" s="25">
+      <c r="AS18" s="24">
         <v>5134.25</v>
       </c>
-      <c r="AT18" s="21"/>
-      <c r="AU18" s="42">
+      <c r="AT18" s="25">
+        <v>5132.4</v>
+      </c>
+      <c r="AU18" s="41">
         <v>5119</v>
       </c>
-      <c r="AV18" s="42">
+      <c r="AV18" s="41">
         <v>5119</v>
       </c>
       <c r="AX18" s="3" t="s">
@@ -4519,7 +4583,7 @@
       <c r="BC18" s="13">
         <v>1721.77</v>
       </c>
-      <c r="BD18" s="37">
+      <c r="BD18" s="36">
         <v>1730.98</v>
       </c>
       <c r="BE18" s="3">
@@ -4531,7 +4595,7 @@
       <c r="BG18" s="13">
         <v>1724.74</v>
       </c>
-      <c r="BH18" s="37">
+      <c r="BH18" s="36">
         <v>1700.81</v>
       </c>
       <c r="BI18" s="3">
@@ -4558,10 +4622,12 @@
       <c r="BP18" s="24">
         <v>1747.84</v>
       </c>
-      <c r="BQ18" s="25">
+      <c r="BQ18" s="24">
         <v>1708.22</v>
       </c>
-      <c r="BR18" s="21"/>
+      <c r="BR18" s="25">
+        <v>1732.64</v>
+      </c>
       <c r="BS18" s="30"/>
       <c r="BT18" s="30"/>
     </row>
@@ -4623,14 +4689,16 @@
       <c r="T19" s="24">
         <v>69.08</v>
       </c>
-      <c r="U19" s="25">
+      <c r="U19" s="24">
         <v>69.08</v>
       </c>
-      <c r="V19" s="21"/>
-      <c r="W19" s="41">
+      <c r="V19" s="25">
+        <v>69.08</v>
+      </c>
+      <c r="W19" s="40">
         <v>71</v>
       </c>
-      <c r="X19" s="42">
+      <c r="X19" s="41">
         <v>71</v>
       </c>
       <c r="Z19" s="3" t="s">
@@ -4651,7 +4719,7 @@
       <c r="AE19" s="13">
         <v>6783.23</v>
       </c>
-      <c r="AF19" s="37">
+      <c r="AF19" s="36">
         <v>8301.6</v>
       </c>
       <c r="AG19" s="3">
@@ -4663,7 +4731,7 @@
       <c r="AI19" s="13">
         <v>7915.92</v>
       </c>
-      <c r="AJ19" s="37">
+      <c r="AJ19" s="36">
         <v>7231.98</v>
       </c>
       <c r="AK19" s="3">
@@ -4690,14 +4758,16 @@
       <c r="AR19" s="24">
         <v>6530.42</v>
       </c>
-      <c r="AS19" s="25">
+      <c r="AS19" s="24">
         <v>6530.42</v>
       </c>
-      <c r="AT19" s="21"/>
-      <c r="AU19" s="42">
+      <c r="AT19" s="25">
+        <v>6503.68</v>
+      </c>
+      <c r="AU19" s="41">
         <v>5890</v>
       </c>
-      <c r="AV19" s="42">
+      <c r="AV19" s="41">
         <v>5890</v>
       </c>
       <c r="AX19" s="3" t="s">
@@ -4718,7 +4788,7 @@
       <c r="BC19" s="13">
         <v>2364.1</v>
       </c>
-      <c r="BD19" s="37">
+      <c r="BD19" s="36">
         <v>2372.35</v>
       </c>
       <c r="BE19" s="3"/>
@@ -4728,7 +4798,7 @@
       <c r="BG19" s="13">
         <v>2434.48</v>
       </c>
-      <c r="BH19" s="37">
+      <c r="BH19" s="36">
         <v>2218.16</v>
       </c>
       <c r="BI19" s="3" t="s">
@@ -4755,10 +4825,12 @@
       <c r="BP19" s="24">
         <v>2392.03</v>
       </c>
-      <c r="BQ19" s="25">
+      <c r="BQ19" s="24">
         <v>2307.33</v>
       </c>
-      <c r="BR19" s="21"/>
+      <c r="BR19" s="25">
+        <v>2326.26</v>
+      </c>
       <c r="BS19" s="30"/>
       <c r="BT19" s="30"/>
     </row>
@@ -4820,14 +4892,16 @@
       <c r="T20" s="24">
         <v>103.67</v>
       </c>
-      <c r="U20" s="25">
+      <c r="U20" s="24">
         <v>103.23</v>
       </c>
-      <c r="V20" s="21"/>
-      <c r="W20" s="41">
+      <c r="V20" s="25">
+        <v>103.67</v>
+      </c>
+      <c r="W20" s="40">
         <v>99</v>
       </c>
-      <c r="X20" s="42">
+      <c r="X20" s="41">
         <v>99</v>
       </c>
       <c r="Z20" s="3" t="s">
@@ -4848,7 +4922,7 @@
       <c r="AE20" s="13">
         <v>4318.56</v>
       </c>
-      <c r="AF20" s="37">
+      <c r="AF20" s="36">
         <v>5853.33</v>
       </c>
       <c r="AG20" s="3">
@@ -4860,7 +4934,7 @@
       <c r="AI20" s="13">
         <v>5811.52</v>
       </c>
-      <c r="AJ20" s="37">
+      <c r="AJ20" s="36">
         <v>4293.02</v>
       </c>
       <c r="AK20" s="3">
@@ -4887,14 +4961,16 @@
       <c r="AR20" s="24">
         <v>4625.3</v>
       </c>
-      <c r="AS20" s="25">
+      <c r="AS20" s="24">
         <v>4625.3</v>
       </c>
-      <c r="AT20" s="21"/>
-      <c r="AU20" s="42">
+      <c r="AT20" s="25">
+        <v>4625.3</v>
+      </c>
+      <c r="AU20" s="41">
         <v>4293</v>
       </c>
-      <c r="AV20" s="42">
+      <c r="AV20" s="41">
         <v>4293</v>
       </c>
       <c r="AX20" s="3" t="s">
@@ -4915,7 +4991,7 @@
       <c r="BC20" s="13">
         <v>5145</v>
       </c>
-      <c r="BD20" s="37">
+      <c r="BD20" s="36">
         <v>5478</v>
       </c>
       <c r="BE20" s="3">
@@ -4927,7 +5003,7 @@
       <c r="BG20" s="13">
         <v>5382</v>
       </c>
-      <c r="BH20" s="37">
+      <c r="BH20" s="36">
         <v>5420</v>
       </c>
       <c r="BI20" s="3">
@@ -4954,10 +5030,12 @@
       <c r="BP20" s="24">
         <v>5108</v>
       </c>
-      <c r="BQ20" s="25">
+      <c r="BQ20" s="24">
         <v>5040</v>
       </c>
-      <c r="BR20" s="21"/>
+      <c r="BR20" s="25">
+        <v>4975</v>
+      </c>
       <c r="BS20" s="30"/>
       <c r="BT20" s="30"/>
     </row>
@@ -5019,14 +5097,16 @@
       <c r="T21" s="24">
         <v>120.93</v>
       </c>
-      <c r="U21" s="25">
+      <c r="U21" s="24">
         <v>119.08</v>
       </c>
-      <c r="V21" s="21"/>
-      <c r="W21" s="41">
+      <c r="V21" s="25">
+        <v>119.37</v>
+      </c>
+      <c r="W21" s="40">
         <v>101</v>
       </c>
-      <c r="X21" s="42">
+      <c r="X21" s="41">
         <v>101</v>
       </c>
       <c r="Z21" s="3" t="s">
@@ -5047,7 +5127,7 @@
       <c r="AE21" s="13">
         <v>5220.64</v>
       </c>
-      <c r="AF21" s="37">
+      <c r="AF21" s="36">
         <v>5246.28</v>
       </c>
       <c r="AG21" s="3">
@@ -5059,7 +5139,7 @@
       <c r="AI21" s="13">
         <v>5220.64</v>
       </c>
-      <c r="AJ21" s="37">
+      <c r="AJ21" s="36">
         <v>5246.28</v>
       </c>
       <c r="AK21" s="3">
@@ -5086,14 +5166,16 @@
       <c r="AR21" s="24">
         <v>5084.95</v>
       </c>
-      <c r="AS21" s="25">
+      <c r="AS21" s="24">
         <v>5005.47</v>
       </c>
-      <c r="AT21" s="21"/>
-      <c r="AU21" s="42">
+      <c r="AT21" s="25">
+        <v>5084.95</v>
+      </c>
+      <c r="AU21" s="41">
         <v>3991</v>
       </c>
-      <c r="AV21" s="42">
+      <c r="AV21" s="41">
         <v>3991</v>
       </c>
       <c r="AX21" s="3" t="s">
@@ -5114,7 +5196,7 @@
       <c r="BC21" s="13">
         <v>12025</v>
       </c>
-      <c r="BD21" s="37">
+      <c r="BD21" s="36">
         <v>12196</v>
       </c>
       <c r="BE21" s="3">
@@ -5126,7 +5208,7 @@
       <c r="BG21" s="13">
         <v>0</v>
       </c>
-      <c r="BH21" s="37">
+      <c r="BH21" s="36">
         <v>12196</v>
       </c>
       <c r="BI21" s="3">
@@ -5153,10 +5235,12 @@
       <c r="BP21" s="24">
         <v>11607</v>
       </c>
-      <c r="BQ21" s="25">
+      <c r="BQ21" s="24">
         <v>11603</v>
       </c>
-      <c r="BR21" s="21"/>
+      <c r="BR21" s="25">
+        <v>11495</v>
+      </c>
       <c r="BS21" s="30"/>
       <c r="BT21" s="30"/>
     </row>
@@ -5218,14 +5302,16 @@
       <c r="T22" s="24">
         <v>148</v>
       </c>
-      <c r="U22" s="25">
+      <c r="U22" s="24">
         <v>145</v>
       </c>
-      <c r="V22" s="21"/>
-      <c r="W22" s="41">
+      <c r="V22" s="25">
+        <v>148</v>
+      </c>
+      <c r="W22" s="40">
         <v>145</v>
       </c>
-      <c r="X22" s="42">
+      <c r="X22" s="41">
         <v>145</v>
       </c>
       <c r="Z22" s="3" t="s">
@@ -5246,7 +5332,7 @@
       <c r="AE22" s="13">
         <v>3984.43</v>
       </c>
-      <c r="AF22" s="37">
+      <c r="AF22" s="36">
         <v>3842.76</v>
       </c>
       <c r="AG22" s="3">
@@ -5258,7 +5344,7 @@
       <c r="AI22" s="13">
         <v>3842.76</v>
       </c>
-      <c r="AJ22" s="37">
+      <c r="AJ22" s="36">
         <v>3919.58</v>
       </c>
       <c r="AK22" s="3">
@@ -5285,14 +5371,16 @@
       <c r="AR22" s="24">
         <v>3470.35</v>
       </c>
-      <c r="AS22" s="25">
+      <c r="AS22" s="24">
         <v>3470.35</v>
       </c>
-      <c r="AT22" s="21"/>
-      <c r="AU22" s="42">
+      <c r="AT22" s="25">
+        <v>3470.35</v>
+      </c>
+      <c r="AU22" s="41">
         <v>3663</v>
       </c>
-      <c r="AV22" s="42">
+      <c r="AV22" s="41">
         <v>3663</v>
       </c>
       <c r="AX22" s="3" t="s">
@@ -5313,7 +5401,7 @@
       <c r="BC22" s="13">
         <v>22289</v>
       </c>
-      <c r="BD22" s="37">
+      <c r="BD22" s="36">
         <v>22414</v>
       </c>
       <c r="BE22" s="3">
@@ -5321,7 +5409,7 @@
       </c>
       <c r="BF22" s="4"/>
       <c r="BG22" s="13"/>
-      <c r="BH22" s="37"/>
+      <c r="BH22" s="36"/>
       <c r="BI22" s="3"/>
       <c r="BJ22" s="3"/>
       <c r="BK22" s="3"/>
@@ -5332,10 +5420,12 @@
       <c r="BP22" s="24">
         <v>22435</v>
       </c>
-      <c r="BQ22" s="25">
+      <c r="BQ22" s="24">
         <v>22435</v>
       </c>
-      <c r="BR22" s="21"/>
+      <c r="BR22" s="25">
+        <v>22289</v>
+      </c>
       <c r="BS22" s="30"/>
       <c r="BT22" s="30"/>
     </row>
@@ -5397,14 +5487,16 @@
       <c r="T23" s="24">
         <v>590.3</v>
       </c>
-      <c r="U23" s="25">
+      <c r="U23" s="24">
         <v>575.69</v>
       </c>
-      <c r="V23" s="21"/>
-      <c r="W23" s="41">
+      <c r="V23" s="25">
+        <v>585.71</v>
+      </c>
+      <c r="W23" s="40">
         <v>509</v>
       </c>
-      <c r="X23" s="42">
+      <c r="X23" s="41">
         <v>509</v>
       </c>
       <c r="Z23" s="3" t="s">
@@ -5425,7 +5517,7 @@
       <c r="AE23" s="13">
         <v>2084.1</v>
       </c>
-      <c r="AF23" s="37">
+      <c r="AF23" s="36">
         <v>2067.87</v>
       </c>
       <c r="AG23" s="3">
@@ -5437,7 +5529,7 @@
       <c r="AI23" s="13">
         <v>2067.87</v>
       </c>
-      <c r="AJ23" s="37">
+      <c r="AJ23" s="36">
         <v>2002.98</v>
       </c>
       <c r="AK23" s="3">
@@ -5464,14 +5556,16 @@
       <c r="AR23" s="24">
         <v>1887.65</v>
       </c>
-      <c r="AS23" s="25">
+      <c r="AS23" s="24">
         <v>1853.13</v>
       </c>
-      <c r="AT23" s="21"/>
-      <c r="AU23" s="42">
+      <c r="AT23" s="25">
+        <v>1853.13</v>
+      </c>
+      <c r="AU23" s="41">
         <v>2108</v>
       </c>
-      <c r="AV23" s="42">
+      <c r="AV23" s="41">
         <v>2108</v>
       </c>
       <c r="AX23" s="3" t="s">
@@ -5492,7 +5586,7 @@
       <c r="BC23" s="13">
         <v>127.21</v>
       </c>
-      <c r="BD23" s="37">
+      <c r="BD23" s="36">
         <v>127.18</v>
       </c>
       <c r="BE23" s="3">
@@ -5504,7 +5598,7 @@
       <c r="BG23" s="13">
         <v>119.95</v>
       </c>
-      <c r="BH23" s="37">
+      <c r="BH23" s="36">
         <v>127.18</v>
       </c>
       <c r="BI23" s="3">
@@ -5531,10 +5625,12 @@
       <c r="BP23" s="24">
         <v>102.42</v>
       </c>
-      <c r="BQ23" s="25">
+      <c r="BQ23" s="24">
         <v>102.42</v>
       </c>
-      <c r="BR23" s="21"/>
+      <c r="BR23" s="25">
+        <v>102.42</v>
+      </c>
       <c r="BS23" s="30">
         <v>110</v>
       </c>
@@ -5600,14 +5696,16 @@
       <c r="T24" s="24">
         <v>154</v>
       </c>
-      <c r="U24" s="25">
+      <c r="U24" s="24">
         <v>154</v>
       </c>
-      <c r="V24" s="21"/>
-      <c r="W24" s="41">
+      <c r="V24" s="25">
+        <v>154</v>
+      </c>
+      <c r="W24" s="40">
         <v>143</v>
       </c>
-      <c r="X24" s="42">
+      <c r="X24" s="41">
         <v>143</v>
       </c>
       <c r="Z24" s="3" t="s">
@@ -5628,7 +5726,7 @@
       <c r="AE24" s="13">
         <v>9122.72</v>
       </c>
-      <c r="AF24" s="37">
+      <c r="AF24" s="36">
         <v>9230.75</v>
       </c>
       <c r="AG24" s="3">
@@ -5640,7 +5738,7 @@
       <c r="AI24" s="13">
         <v>9131.48</v>
       </c>
-      <c r="AJ24" s="37">
+      <c r="AJ24" s="36">
         <v>9406.35</v>
       </c>
       <c r="AK24" s="3">
@@ -5667,14 +5765,16 @@
       <c r="AR24" s="24">
         <v>8671.3</v>
       </c>
-      <c r="AS24" s="25">
+      <c r="AS24" s="24">
         <v>8406.05</v>
       </c>
-      <c r="AT24" s="21"/>
-      <c r="AU24" s="42">
+      <c r="AT24" s="25">
+        <v>8081.43</v>
+      </c>
+      <c r="AU24" s="41">
         <v>8705</v>
       </c>
-      <c r="AV24" s="42">
+      <c r="AV24" s="41">
         <v>8705</v>
       </c>
       <c r="AX24" s="3" t="s">
@@ -5695,7 +5795,7 @@
       <c r="BC24" s="13">
         <v>146</v>
       </c>
-      <c r="BD24" s="37">
+      <c r="BD24" s="36">
         <v>146</v>
       </c>
       <c r="BE24" s="3">
@@ -5707,7 +5807,7 @@
       <c r="BG24" s="13">
         <v>146</v>
       </c>
-      <c r="BH24" s="37">
+      <c r="BH24" s="36">
         <v>146</v>
       </c>
       <c r="BI24" s="3">
@@ -5734,10 +5834,12 @@
       <c r="BP24" s="24">
         <v>152</v>
       </c>
-      <c r="BQ24" s="25">
+      <c r="BQ24" s="24">
         <v>152</v>
       </c>
-      <c r="BR24" s="21"/>
+      <c r="BR24" s="25">
+        <v>152</v>
+      </c>
       <c r="BS24" s="30">
         <v>66</v>
       </c>
@@ -5752,40 +5854,40 @@
       <c r="C25" s="12">
         <v>5</v>
       </c>
-      <c r="D25" s="40">
+      <c r="D25" s="39">
         <v>258</v>
       </c>
-      <c r="E25" s="40">
+      <c r="E25" s="39">
         <v>258</v>
       </c>
-      <c r="F25" s="40">
+      <c r="F25" s="39">
         <v>258</v>
       </c>
-      <c r="G25" s="40">
+      <c r="G25" s="39">
         <v>224</v>
       </c>
-      <c r="H25" s="40">
+      <c r="H25" s="39">
         <v>248</v>
       </c>
-      <c r="I25" s="40">
+      <c r="I25" s="39">
         <v>248</v>
       </c>
-      <c r="J25" s="40">
+      <c r="J25" s="39">
         <v>248</v>
       </c>
-      <c r="K25" s="40">
+      <c r="K25" s="39">
         <v>233</v>
       </c>
-      <c r="L25" s="40">
+      <c r="L25" s="39">
         <v>248</v>
       </c>
-      <c r="M25" s="40">
+      <c r="M25" s="39">
         <v>248</v>
       </c>
-      <c r="N25" s="40">
+      <c r="N25" s="39">
         <v>292</v>
       </c>
-      <c r="O25" s="40">
+      <c r="O25" s="39">
         <v>299</v>
       </c>
       <c r="P25" s="21">
@@ -5803,14 +5905,16 @@
       <c r="T25" s="24">
         <v>181</v>
       </c>
-      <c r="U25" s="25">
+      <c r="U25" s="24">
         <v>181</v>
       </c>
-      <c r="V25" s="21"/>
-      <c r="W25" s="41">
+      <c r="V25" s="25">
+        <v>181</v>
+      </c>
+      <c r="W25" s="40">
         <v>178</v>
       </c>
-      <c r="X25" s="42">
+      <c r="X25" s="41">
         <v>178</v>
       </c>
       <c r="Z25" s="11" t="s">
@@ -5828,16 +5932,16 @@
       <c r="AD25" s="12">
         <v>13100.47</v>
       </c>
-      <c r="AE25" s="40">
+      <c r="AE25" s="39">
         <v>13078.98</v>
       </c>
-      <c r="AF25" s="45">
+      <c r="AF25" s="43">
         <v>12801.82</v>
       </c>
       <c r="AG25" s="11"/>
       <c r="AH25" s="12"/>
-      <c r="AI25" s="40"/>
-      <c r="AJ25" s="45"/>
+      <c r="AI25" s="39"/>
+      <c r="AJ25" s="43"/>
       <c r="AK25" s="11"/>
       <c r="AL25" s="11"/>
       <c r="AM25" s="11">
@@ -5850,12 +5954,14 @@
       <c r="AR25" s="24">
         <v>15371.08</v>
       </c>
-      <c r="AS25" s="25">
+      <c r="AS25" s="24">
         <v>14968.31</v>
       </c>
-      <c r="AT25" s="21"/>
-      <c r="AU25" s="42"/>
-      <c r="AV25" s="42"/>
+      <c r="AT25" s="25">
+        <v>15023.62</v>
+      </c>
+      <c r="AU25" s="41"/>
+      <c r="AV25" s="41"/>
       <c r="AX25" s="3" t="s">
         <v>83</v>
       </c>
@@ -5874,7 +5980,7 @@
       <c r="BC25" s="13">
         <v>27500</v>
       </c>
-      <c r="BD25" s="37">
+      <c r="BD25" s="36">
         <v>27500</v>
       </c>
       <c r="BE25" s="3">
@@ -5886,7 +5992,7 @@
       <c r="BG25" s="13">
         <v>27500</v>
       </c>
-      <c r="BH25" s="37">
+      <c r="BH25" s="36">
         <v>27500</v>
       </c>
       <c r="BI25" s="3">
@@ -5913,10 +6019,12 @@
       <c r="BP25" s="24">
         <v>30239.35</v>
       </c>
-      <c r="BQ25" s="25">
+      <c r="BQ25" s="24">
         <v>30239.35</v>
       </c>
-      <c r="BR25" s="21"/>
+      <c r="BR25" s="25">
+        <v>30239.35</v>
+      </c>
       <c r="BS25" s="30"/>
       <c r="BT25" s="30"/>
     </row>
@@ -5978,14 +6086,16 @@
       <c r="T26" s="24">
         <v>162</v>
       </c>
-      <c r="U26" s="25">
+      <c r="U26" s="24">
         <v>162</v>
       </c>
-      <c r="V26" s="43"/>
-      <c r="W26" s="44">
+      <c r="V26" s="25">
+        <v>162</v>
+      </c>
+      <c r="W26" s="42">
         <v>231</v>
       </c>
-      <c r="X26" s="42">
+      <c r="X26" s="41">
         <v>231</v>
       </c>
       <c r="Z26" s="13" t="s">
@@ -6045,12 +6155,14 @@
       <c r="AR26" s="24">
         <v>850</v>
       </c>
-      <c r="AS26" s="25">
+      <c r="AS26" s="24">
         <v>828</v>
       </c>
-      <c r="AT26" s="43"/>
-      <c r="AU26" s="46"/>
-      <c r="AV26" s="42"/>
+      <c r="AT26" s="25">
+        <v>809</v>
+      </c>
+      <c r="AU26" s="44"/>
+      <c r="AV26" s="41"/>
       <c r="AX26" s="3" t="s">
         <v>86</v>
       </c>
@@ -6069,7 +6181,7 @@
       <c r="BC26" s="13">
         <v>986.19</v>
       </c>
-      <c r="BD26" s="37">
+      <c r="BD26" s="36">
         <v>1038.03</v>
       </c>
       <c r="BE26" s="3">
@@ -6081,7 +6193,7 @@
       <c r="BG26" s="13">
         <v>1018.34</v>
       </c>
-      <c r="BH26" s="37">
+      <c r="BH26" s="36">
         <v>1094.89</v>
       </c>
       <c r="BI26" s="3">
@@ -6108,10 +6220,12 @@
       <c r="BP26" s="24">
         <v>1012.26</v>
       </c>
-      <c r="BQ26" s="25">
+      <c r="BQ26" s="24">
         <v>964.77</v>
       </c>
-      <c r="BR26" s="21"/>
+      <c r="BR26" s="25">
+        <v>992.22</v>
+      </c>
       <c r="BS26" s="30"/>
       <c r="BT26" s="30"/>
     </row>
@@ -6134,7 +6248,7 @@
       <c r="BC27" s="13">
         <v>751.06</v>
       </c>
-      <c r="BD27" s="37">
+      <c r="BD27" s="36">
         <v>751.06</v>
       </c>
       <c r="BE27" s="3">
@@ -6146,7 +6260,7 @@
       <c r="BG27" s="13">
         <v>751.06</v>
       </c>
-      <c r="BH27" s="37">
+      <c r="BH27" s="36">
         <v>751.06</v>
       </c>
       <c r="BI27" s="3">
@@ -6173,10 +6287,12 @@
       <c r="BP27" s="24">
         <v>751.06</v>
       </c>
-      <c r="BQ27" s="25">
+      <c r="BQ27" s="24">
         <v>751.06</v>
       </c>
-      <c r="BR27" s="21"/>
+      <c r="BR27" s="25">
+        <v>751.06</v>
+      </c>
       <c r="BS27" s="30">
         <v>618</v>
       </c>
@@ -6203,7 +6319,7 @@
       <c r="BC28" s="13">
         <v>456.58</v>
       </c>
-      <c r="BD28" s="37">
+      <c r="BD28" s="36">
         <v>456.58</v>
       </c>
       <c r="BE28" s="3">
@@ -6215,7 +6331,7 @@
       <c r="BG28" s="13">
         <v>456.58</v>
       </c>
-      <c r="BH28" s="37">
+      <c r="BH28" s="36">
         <v>456.58</v>
       </c>
       <c r="BI28" s="3">
@@ -6242,10 +6358,12 @@
       <c r="BP28" s="24">
         <v>456.58</v>
       </c>
-      <c r="BQ28" s="25">
+      <c r="BQ28" s="24">
         <v>456.58</v>
       </c>
-      <c r="BR28" s="21"/>
+      <c r="BR28" s="25">
+        <v>456.58</v>
+      </c>
       <c r="BS28" s="30">
         <v>447</v>
       </c>
@@ -6288,8 +6406,8 @@
   <sheetPr/>
   <dimension ref="B2:BT28"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5:U26"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="BC1" workbookViewId="0">
+      <selection activeCell="BI41" sqref="BI41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -6578,7 +6696,7 @@
       <c r="Z4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="37" t="s">
+      <c r="AA4" s="36" t="s">
         <v>9</v>
       </c>
       <c r="AB4" s="32" t="s">
@@ -6587,25 +6705,25 @@
       <c r="AC4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="AD4" s="38" t="s">
+      <c r="AD4" s="37" t="s">
         <v>12</v>
       </c>
       <c r="AE4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AF4" s="39" t="s">
+      <c r="AF4" s="38" t="s">
         <v>10</v>
       </c>
       <c r="AG4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="AH4" s="38" t="s">
+      <c r="AH4" s="37" t="s">
         <v>12</v>
       </c>
       <c r="AI4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AJ4" s="39" t="s">
+      <c r="AJ4" s="38" t="s">
         <v>10</v>
       </c>
       <c r="AK4" s="32" t="s">
@@ -6617,7 +6735,7 @@
       <c r="AM4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AN4" s="39" t="s">
+      <c r="AN4" s="38" t="s">
         <v>10</v>
       </c>
       <c r="AO4" s="32" t="s">
@@ -6772,14 +6890,16 @@
       <c r="T5" s="24">
         <v>1531.81</v>
       </c>
-      <c r="U5" s="25">
+      <c r="U5" s="24">
         <v>1469.76</v>
       </c>
-      <c r="V5" s="33"/>
-      <c r="W5" s="34">
+      <c r="V5" s="25">
+        <v>1485.28</v>
+      </c>
+      <c r="W5" s="33">
         <v>1234</v>
       </c>
-      <c r="X5" s="35">
+      <c r="X5" s="34">
         <v>1354</v>
       </c>
       <c r="Z5" s="32" t="s">
@@ -6800,7 +6920,7 @@
       <c r="AE5" s="13">
         <v>1979</v>
       </c>
-      <c r="AF5" s="37">
+      <c r="AF5" s="36">
         <v>1691</v>
       </c>
       <c r="AG5" s="3">
@@ -6812,7 +6932,7 @@
       <c r="AI5" s="13">
         <v>1691</v>
       </c>
-      <c r="AJ5" s="37">
+      <c r="AJ5" s="36">
         <v>1691</v>
       </c>
       <c r="AK5" s="3">
@@ -6839,11 +6959,13 @@
       <c r="AR5" s="24">
         <v>1548</v>
       </c>
-      <c r="AS5" s="25">
+      <c r="AS5" s="24">
         <v>1548</v>
       </c>
-      <c r="AT5" s="21"/>
-      <c r="AU5" s="36">
+      <c r="AT5" s="25">
+        <v>1548</v>
+      </c>
+      <c r="AU5" s="35">
         <v>1691</v>
       </c>
       <c r="AV5" s="30">
@@ -6906,10 +7028,12 @@
       <c r="BP5" s="24">
         <v>54614.58</v>
       </c>
-      <c r="BQ5" s="25">
+      <c r="BQ5" s="24">
         <v>50744.31</v>
       </c>
-      <c r="BR5" s="21"/>
+      <c r="BR5" s="25">
+        <v>48864.85</v>
+      </c>
       <c r="BS5" s="30">
         <v>37793</v>
       </c>
@@ -6941,9 +7065,9 @@
       <c r="R6" s="21"/>
       <c r="S6" s="21"/>
       <c r="T6" s="24"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="36"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="35"/>
       <c r="X6" s="30"/>
       <c r="Z6" s="3" t="s">
         <v>23</v>
@@ -6963,7 +7087,7 @@
       <c r="AE6" s="13">
         <v>21545.48</v>
       </c>
-      <c r="AF6" s="37">
+      <c r="AF6" s="36">
         <v>23146.59</v>
       </c>
       <c r="AG6" s="3">
@@ -6975,7 +7099,7 @@
       <c r="AI6" s="13">
         <v>23160.51</v>
       </c>
-      <c r="AJ6" s="37">
+      <c r="AJ6" s="36">
         <v>26964.52</v>
       </c>
       <c r="AK6" s="3">
@@ -7002,11 +7126,13 @@
       <c r="AR6" s="24">
         <v>21543.77</v>
       </c>
-      <c r="AS6" s="25">
+      <c r="AS6" s="24">
         <v>21609.52</v>
       </c>
-      <c r="AT6" s="21"/>
-      <c r="AU6" s="36">
+      <c r="AT6" s="25">
+        <v>19866.06</v>
+      </c>
+      <c r="AU6" s="35">
         <v>17634</v>
       </c>
       <c r="AV6" s="30">
@@ -7069,10 +7195,12 @@
       <c r="BP6" s="24">
         <v>14221.33</v>
       </c>
-      <c r="BQ6" s="25">
+      <c r="BQ6" s="24">
         <v>14221.33</v>
       </c>
-      <c r="BR6" s="21"/>
+      <c r="BR6" s="25">
+        <v>14236.2</v>
+      </c>
       <c r="BS6" s="30">
         <v>14839</v>
       </c>
@@ -7138,11 +7266,13 @@
       <c r="T7" s="24">
         <v>3618</v>
       </c>
-      <c r="U7" s="25">
+      <c r="U7" s="24">
         <v>3618</v>
       </c>
-      <c r="V7" s="21"/>
-      <c r="W7" s="36"/>
+      <c r="V7" s="25">
+        <v>3618</v>
+      </c>
+      <c r="W7" s="35"/>
       <c r="X7" s="30"/>
       <c r="Z7" s="3" t="s">
         <v>26</v>
@@ -7162,7 +7292,7 @@
       <c r="AE7" s="13">
         <v>3142</v>
       </c>
-      <c r="AF7" s="37">
+      <c r="AF7" s="36">
         <v>3062</v>
       </c>
       <c r="AG7" s="3">
@@ -7174,7 +7304,7 @@
       <c r="AI7" s="13">
         <v>3062</v>
       </c>
-      <c r="AJ7" s="37">
+      <c r="AJ7" s="36">
         <v>2950</v>
       </c>
       <c r="AK7" s="3">
@@ -7201,11 +7331,13 @@
       <c r="AR7" s="24">
         <v>3201</v>
       </c>
-      <c r="AS7" s="25">
+      <c r="AS7" s="24">
         <v>3199</v>
       </c>
-      <c r="AT7" s="21"/>
-      <c r="AU7" s="36"/>
+      <c r="AT7" s="25">
+        <v>3201</v>
+      </c>
+      <c r="AU7" s="35"/>
       <c r="AV7" s="30"/>
       <c r="AX7" s="3" t="s">
         <v>27</v>
@@ -7264,10 +7396,12 @@
       <c r="BP7" s="24">
         <v>23409.6</v>
       </c>
-      <c r="BQ7" s="25">
+      <c r="BQ7" s="24">
         <v>22900.39</v>
       </c>
-      <c r="BR7" s="21"/>
+      <c r="BR7" s="25">
+        <v>22940.02</v>
+      </c>
       <c r="BS7" s="30">
         <v>21420</v>
       </c>
@@ -7333,11 +7467,13 @@
       <c r="T8" s="24">
         <v>15683</v>
       </c>
-      <c r="U8" s="25">
+      <c r="U8" s="24">
         <v>14965</v>
       </c>
-      <c r="V8" s="21"/>
-      <c r="W8" s="36"/>
+      <c r="V8" s="25">
+        <v>14938</v>
+      </c>
+      <c r="W8" s="35"/>
       <c r="X8" s="30"/>
       <c r="Z8" s="3" t="s">
         <v>29</v>
@@ -7349,11 +7485,11 @@
       <c r="AC8" s="3"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="13"/>
-      <c r="AF8" s="37"/>
+      <c r="AF8" s="36"/>
       <c r="AG8" s="3"/>
       <c r="AH8" s="4"/>
       <c r="AI8" s="13"/>
-      <c r="AJ8" s="37"/>
+      <c r="AJ8" s="36"/>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
@@ -7362,9 +7498,9 @@
       <c r="AP8" s="21"/>
       <c r="AQ8" s="21"/>
       <c r="AR8" s="24"/>
-      <c r="AS8" s="25"/>
-      <c r="AT8" s="21"/>
-      <c r="AU8" s="36">
+      <c r="AS8" s="24"/>
+      <c r="AT8" s="25"/>
+      <c r="AU8" s="35">
         <v>29108</v>
       </c>
       <c r="AV8" s="30">
@@ -7427,10 +7563,12 @@
       <c r="BP8" s="24">
         <v>53186.52</v>
       </c>
-      <c r="BQ8" s="25">
+      <c r="BQ8" s="24">
         <v>52630.18</v>
       </c>
-      <c r="BR8" s="21"/>
+      <c r="BR8" s="25">
+        <v>52366.9</v>
+      </c>
       <c r="BS8" s="30">
         <v>47911</v>
       </c>
@@ -7496,11 +7634,13 @@
       <c r="T9" s="24">
         <v>655</v>
       </c>
-      <c r="U9" s="25">
+      <c r="U9" s="24">
         <v>655</v>
       </c>
-      <c r="V9" s="21"/>
-      <c r="W9" s="36">
+      <c r="V9" s="25">
+        <v>655</v>
+      </c>
+      <c r="W9" s="35">
         <v>581</v>
       </c>
       <c r="X9" s="30">
@@ -7516,11 +7656,11 @@
       <c r="AC9" s="3"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="13"/>
-      <c r="AF9" s="37"/>
+      <c r="AF9" s="36"/>
       <c r="AG9" s="3"/>
       <c r="AH9" s="4"/>
       <c r="AI9" s="13"/>
-      <c r="AJ9" s="37"/>
+      <c r="AJ9" s="36"/>
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
@@ -7529,9 +7669,9 @@
       <c r="AP9" s="21"/>
       <c r="AQ9" s="21"/>
       <c r="AR9" s="24"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="21"/>
-      <c r="AU9" s="36">
+      <c r="AS9" s="24"/>
+      <c r="AT9" s="25"/>
+      <c r="AU9" s="35">
         <v>13996</v>
       </c>
       <c r="AV9" s="30">
@@ -7594,10 +7734,12 @@
       <c r="BP9" s="24">
         <v>26591.22</v>
       </c>
-      <c r="BQ9" s="25">
+      <c r="BQ9" s="24">
         <v>26533.4</v>
       </c>
-      <c r="BR9" s="21"/>
+      <c r="BR9" s="25">
+        <v>26582.43</v>
+      </c>
       <c r="BS9" s="30">
         <v>26296</v>
       </c>
@@ -7663,11 +7805,13 @@
       <c r="T10" s="24">
         <v>752</v>
       </c>
-      <c r="U10" s="25">
+      <c r="U10" s="24">
         <v>752</v>
       </c>
-      <c r="V10" s="21"/>
-      <c r="W10" s="36">
+      <c r="V10" s="25">
+        <v>752</v>
+      </c>
+      <c r="W10" s="35">
         <v>672</v>
       </c>
       <c r="X10" s="30">
@@ -7683,11 +7827,11 @@
       <c r="AC10" s="3"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="13"/>
-      <c r="AF10" s="37"/>
+      <c r="AF10" s="36"/>
       <c r="AG10" s="3"/>
       <c r="AH10" s="4"/>
       <c r="AI10" s="13"/>
-      <c r="AJ10" s="37"/>
+      <c r="AJ10" s="36"/>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
@@ -7696,9 +7840,9 @@
       <c r="AP10" s="21"/>
       <c r="AQ10" s="21"/>
       <c r="AR10" s="24"/>
-      <c r="AS10" s="25"/>
-      <c r="AT10" s="21"/>
-      <c r="AU10" s="36">
+      <c r="AS10" s="24"/>
+      <c r="AT10" s="25"/>
+      <c r="AU10" s="35">
         <v>41661</v>
       </c>
       <c r="AV10" s="30">
@@ -7761,10 +7905,12 @@
       <c r="BP10" s="24">
         <v>32889.71</v>
       </c>
-      <c r="BQ10" s="25">
+      <c r="BQ10" s="24">
         <v>33023.75</v>
       </c>
-      <c r="BR10" s="21"/>
+      <c r="BR10" s="25">
+        <v>32889.71</v>
+      </c>
       <c r="BS10" s="30">
         <v>30712</v>
       </c>
@@ -7830,11 +7976,13 @@
       <c r="T11" s="24">
         <v>2183.91</v>
       </c>
-      <c r="U11" s="25">
+      <c r="U11" s="24">
         <v>2106.37</v>
       </c>
-      <c r="V11" s="21"/>
-      <c r="W11" s="36">
+      <c r="V11" s="25">
+        <v>2033.99</v>
+      </c>
+      <c r="W11" s="35">
         <v>1766</v>
       </c>
       <c r="X11" s="30">
@@ -7850,11 +7998,11 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="13"/>
-      <c r="AF11" s="37"/>
+      <c r="AF11" s="36"/>
       <c r="AG11" s="3"/>
       <c r="AH11" s="4"/>
       <c r="AI11" s="13"/>
-      <c r="AJ11" s="37"/>
+      <c r="AJ11" s="36"/>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
       <c r="AM11" s="3"/>
@@ -7863,9 +8011,9 @@
       <c r="AP11" s="21"/>
       <c r="AQ11" s="21"/>
       <c r="AR11" s="24"/>
-      <c r="AS11" s="25"/>
-      <c r="AT11" s="21"/>
-      <c r="AU11" s="36"/>
+      <c r="AS11" s="24"/>
+      <c r="AT11" s="25"/>
+      <c r="AU11" s="35"/>
       <c r="AV11" s="30"/>
       <c r="AX11" s="3" t="s">
         <v>39</v>
@@ -7924,10 +8072,12 @@
       <c r="BP11" s="24">
         <v>45649.55</v>
       </c>
-      <c r="BQ11" s="25">
+      <c r="BQ11" s="24">
         <v>45053.7</v>
       </c>
-      <c r="BR11" s="21"/>
+      <c r="BR11" s="25">
+        <v>45615.73</v>
+      </c>
       <c r="BS11" s="30">
         <v>33349</v>
       </c>
@@ -7993,11 +8143,13 @@
       <c r="T12" s="24">
         <v>28669.19</v>
       </c>
-      <c r="U12" s="25">
+      <c r="U12" s="24">
         <v>27999.03</v>
       </c>
-      <c r="V12" s="21"/>
-      <c r="W12" s="36">
+      <c r="V12" s="25">
+        <v>28657.67</v>
+      </c>
+      <c r="W12" s="35">
         <v>24862</v>
       </c>
       <c r="X12" s="30">
@@ -8013,11 +8165,11 @@
       <c r="AC12" s="3"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="13"/>
-      <c r="AF12" s="37"/>
+      <c r="AF12" s="36"/>
       <c r="AG12" s="3"/>
       <c r="AH12" s="4"/>
       <c r="AI12" s="13"/>
-      <c r="AJ12" s="37"/>
+      <c r="AJ12" s="36"/>
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
@@ -8026,9 +8178,9 @@
       <c r="AP12" s="21"/>
       <c r="AQ12" s="21"/>
       <c r="AR12" s="24"/>
-      <c r="AS12" s="25"/>
-      <c r="AT12" s="21"/>
-      <c r="AU12" s="36"/>
+      <c r="AS12" s="24"/>
+      <c r="AT12" s="25"/>
+      <c r="AU12" s="35"/>
       <c r="AV12" s="30"/>
       <c r="AX12" s="3" t="s">
         <v>42</v>
@@ -8087,10 +8239,12 @@
       <c r="BP12" s="24">
         <v>25802.87</v>
       </c>
-      <c r="BQ12" s="25">
+      <c r="BQ12" s="24">
         <v>25681.09</v>
       </c>
-      <c r="BR12" s="21"/>
+      <c r="BR12" s="25">
+        <v>24375.1</v>
+      </c>
       <c r="BS12" s="30"/>
       <c r="BT12" s="30"/>
     </row>
@@ -8152,11 +8306,13 @@
       <c r="T13" s="24">
         <v>8423</v>
       </c>
-      <c r="U13" s="25">
+      <c r="U13" s="24">
         <v>8201</v>
       </c>
-      <c r="V13" s="21"/>
-      <c r="W13" s="36"/>
+      <c r="V13" s="25">
+        <v>7685</v>
+      </c>
+      <c r="W13" s="35"/>
       <c r="X13" s="30"/>
       <c r="Z13" s="3" t="s">
         <v>44</v>
@@ -8176,7 +8332,7 @@
       <c r="AE13" s="13">
         <v>5977</v>
       </c>
-      <c r="AF13" s="37">
+      <c r="AF13" s="36">
         <v>5381</v>
       </c>
       <c r="AG13" s="3">
@@ -8188,7 +8344,7 @@
       <c r="AI13" s="13">
         <v>5412</v>
       </c>
-      <c r="AJ13" s="37">
+      <c r="AJ13" s="36">
         <v>6289</v>
       </c>
       <c r="AK13" s="3">
@@ -8215,11 +8371,13 @@
       <c r="AR13" s="24">
         <v>6166</v>
       </c>
-      <c r="AS13" s="25">
+      <c r="AS13" s="24">
         <v>6166</v>
       </c>
-      <c r="AT13" s="21"/>
-      <c r="AU13" s="36">
+      <c r="AT13" s="25">
+        <v>6030</v>
+      </c>
+      <c r="AU13" s="35">
         <v>4238</v>
       </c>
       <c r="AV13" s="30">
@@ -8282,10 +8440,12 @@
       <c r="BP13" s="24">
         <v>26268.82</v>
       </c>
-      <c r="BQ13" s="25">
+      <c r="BQ13" s="24">
         <v>25762.61</v>
       </c>
-      <c r="BR13" s="21"/>
+      <c r="BR13" s="25">
+        <v>25536.99</v>
+      </c>
       <c r="BS13" s="30"/>
       <c r="BT13" s="30"/>
     </row>
@@ -8347,11 +8507,13 @@
       <c r="T14" s="24">
         <v>1300</v>
       </c>
-      <c r="U14" s="25">
+      <c r="U14" s="24">
         <v>1160</v>
       </c>
-      <c r="V14" s="21"/>
-      <c r="W14" s="36"/>
+      <c r="V14" s="25">
+        <v>1180</v>
+      </c>
+      <c r="W14" s="35"/>
       <c r="X14" s="30"/>
       <c r="Z14" s="3" t="s">
         <v>47</v>
@@ -8371,7 +8533,7 @@
       <c r="AE14" s="13">
         <v>11256.35</v>
       </c>
-      <c r="AF14" s="37">
+      <c r="AF14" s="36">
         <v>10171.17</v>
       </c>
       <c r="AG14" s="3">
@@ -8383,7 +8545,7 @@
       <c r="AI14" s="13">
         <v>9795.47</v>
       </c>
-      <c r="AJ14" s="37">
+      <c r="AJ14" s="36">
         <v>10444.9</v>
       </c>
       <c r="AK14" s="3">
@@ -8410,11 +8572,13 @@
       <c r="AR14" s="24">
         <v>10407.58</v>
       </c>
-      <c r="AS14" s="25">
+      <c r="AS14" s="24">
         <v>10419.42</v>
       </c>
-      <c r="AT14" s="21"/>
-      <c r="AU14" s="36">
+      <c r="AT14" s="25">
+        <v>10392.04</v>
+      </c>
+      <c r="AU14" s="35">
         <v>9073</v>
       </c>
       <c r="AV14" s="30">
@@ -8477,10 +8641,12 @@
       <c r="BP14" s="24">
         <v>44307.49</v>
       </c>
-      <c r="BQ14" s="25">
+      <c r="BQ14" s="24">
         <v>41769.18</v>
       </c>
-      <c r="BR14" s="21"/>
+      <c r="BR14" s="25">
+        <v>42206.22</v>
+      </c>
       <c r="BS14" s="30"/>
       <c r="BT14" s="30"/>
     </row>
@@ -8542,11 +8708,13 @@
       <c r="T15" s="24">
         <v>967.86</v>
       </c>
-      <c r="U15" s="25">
+      <c r="U15" s="24">
         <v>967.86</v>
       </c>
-      <c r="V15" s="21"/>
-      <c r="W15" s="36">
+      <c r="V15" s="25">
+        <v>967.86</v>
+      </c>
+      <c r="W15" s="35">
         <v>842</v>
       </c>
       <c r="X15" s="30">
@@ -8570,7 +8738,7 @@
       <c r="AE15" s="13">
         <v>15463.93</v>
       </c>
-      <c r="AF15" s="37">
+      <c r="AF15" s="36">
         <v>15194.75</v>
       </c>
       <c r="AG15" s="3">
@@ -8582,7 +8750,7 @@
       <c r="AI15" s="13">
         <v>15235.59</v>
       </c>
-      <c r="AJ15" s="37">
+      <c r="AJ15" s="36">
         <v>13836.8</v>
       </c>
       <c r="AK15" s="3">
@@ -8609,11 +8777,13 @@
       <c r="AR15" s="24">
         <v>14760.14</v>
       </c>
-      <c r="AS15" s="25">
+      <c r="AS15" s="24">
         <v>14555.29</v>
       </c>
-      <c r="AT15" s="21"/>
-      <c r="AU15" s="36">
+      <c r="AT15" s="25">
+        <v>13859.2</v>
+      </c>
+      <c r="AU15" s="35">
         <v>11412</v>
       </c>
       <c r="AV15" s="30">
@@ -8652,8 +8822,8 @@
       <c r="BN15" s="21"/>
       <c r="BO15" s="21"/>
       <c r="BP15" s="24"/>
-      <c r="BQ15" s="25"/>
-      <c r="BR15" s="21"/>
+      <c r="BQ15" s="24"/>
+      <c r="BR15" s="25"/>
       <c r="BS15" s="30"/>
       <c r="BT15" s="30"/>
     </row>
@@ -8715,11 +8885,13 @@
       <c r="T16" s="24">
         <v>2790.49</v>
       </c>
-      <c r="U16" s="25">
+      <c r="U16" s="24">
         <v>2597.19</v>
       </c>
-      <c r="V16" s="21"/>
-      <c r="W16" s="36">
+      <c r="V16" s="25">
+        <v>2668.1</v>
+      </c>
+      <c r="W16" s="35">
         <v>2492</v>
       </c>
       <c r="X16" s="30">
@@ -8743,7 +8915,7 @@
       <c r="AE16" s="13">
         <v>13519.19</v>
       </c>
-      <c r="AF16" s="37">
+      <c r="AF16" s="36">
         <v>15518.81</v>
       </c>
       <c r="AG16" s="3">
@@ -8755,7 +8927,7 @@
       <c r="AI16" s="13">
         <v>15796.78</v>
       </c>
-      <c r="AJ16" s="37">
+      <c r="AJ16" s="36">
         <v>15428.8</v>
       </c>
       <c r="AK16" s="3">
@@ -8782,11 +8954,13 @@
       <c r="AR16" s="24">
         <v>16881.78</v>
       </c>
-      <c r="AS16" s="25">
+      <c r="AS16" s="24">
         <v>15913.5</v>
       </c>
-      <c r="AT16" s="21"/>
-      <c r="AU16" s="36">
+      <c r="AT16" s="25">
+        <v>15521.44</v>
+      </c>
+      <c r="AU16" s="35">
         <v>13315</v>
       </c>
       <c r="AV16" s="30">
@@ -8849,10 +9023,12 @@
       <c r="BP16" s="24">
         <v>675.05</v>
       </c>
-      <c r="BQ16" s="25">
+      <c r="BQ16" s="24">
         <v>631.96</v>
       </c>
-      <c r="BR16" s="21"/>
+      <c r="BR16" s="25">
+        <v>625.72</v>
+      </c>
       <c r="BS16" s="30">
         <v>554</v>
       </c>
@@ -8918,11 +9094,13 @@
       <c r="T17" s="24">
         <v>3610.09</v>
       </c>
-      <c r="U17" s="25">
+      <c r="U17" s="24">
         <v>3421.42</v>
       </c>
-      <c r="V17" s="21"/>
-      <c r="W17" s="36">
+      <c r="V17" s="25">
+        <v>3474.26</v>
+      </c>
+      <c r="W17" s="35">
         <v>2772</v>
       </c>
       <c r="X17" s="30">
@@ -8946,7 +9124,7 @@
       <c r="AE17" s="13">
         <v>11415.84</v>
       </c>
-      <c r="AF17" s="37">
+      <c r="AF17" s="36">
         <v>11529.81</v>
       </c>
       <c r="AG17" s="3">
@@ -8958,7 +9136,7 @@
       <c r="AI17" s="13">
         <v>11768</v>
       </c>
-      <c r="AJ17" s="37">
+      <c r="AJ17" s="36">
         <v>10913.61</v>
       </c>
       <c r="AK17" s="3">
@@ -8985,11 +9163,13 @@
       <c r="AR17" s="24">
         <v>12254.11</v>
       </c>
-      <c r="AS17" s="25">
+      <c r="AS17" s="24">
         <v>12178.68</v>
       </c>
-      <c r="AT17" s="21"/>
-      <c r="AU17" s="36">
+      <c r="AT17" s="25">
+        <v>11812.97</v>
+      </c>
+      <c r="AU17" s="35">
         <v>9071</v>
       </c>
       <c r="AV17" s="30">
@@ -9052,10 +9232,12 @@
       <c r="BP17" s="24">
         <v>1261.31</v>
       </c>
-      <c r="BQ17" s="25">
+      <c r="BQ17" s="24">
         <v>1230.56</v>
       </c>
-      <c r="BR17" s="21"/>
+      <c r="BR17" s="25">
+        <v>1250.85</v>
+      </c>
       <c r="BS17" s="30">
         <v>1106</v>
       </c>
@@ -9121,11 +9303,13 @@
       <c r="T18" s="24">
         <v>266</v>
       </c>
-      <c r="U18" s="25">
+      <c r="U18" s="24">
         <v>261</v>
       </c>
-      <c r="V18" s="21"/>
-      <c r="W18" s="36">
+      <c r="V18" s="25">
+        <v>252</v>
+      </c>
+      <c r="W18" s="35">
         <v>227</v>
       </c>
       <c r="X18" s="30">
@@ -9149,7 +9333,7 @@
       <c r="AE18" s="13">
         <v>11979.07</v>
       </c>
-      <c r="AF18" s="37">
+      <c r="AF18" s="36">
         <v>13325.39</v>
       </c>
       <c r="AG18" s="3">
@@ -9161,7 +9345,7 @@
       <c r="AI18" s="13">
         <v>13373.56</v>
       </c>
-      <c r="AJ18" s="37">
+      <c r="AJ18" s="36">
         <v>11828.96</v>
       </c>
       <c r="AK18" s="3">
@@ -9188,11 +9372,13 @@
       <c r="AR18" s="24">
         <v>13454.86</v>
       </c>
-      <c r="AS18" s="25">
+      <c r="AS18" s="24">
         <v>13393.48</v>
       </c>
-      <c r="AT18" s="21"/>
-      <c r="AU18" s="36">
+      <c r="AT18" s="25">
+        <v>13391.56</v>
+      </c>
+      <c r="AU18" s="35">
         <v>11501</v>
       </c>
       <c r="AV18" s="30">
@@ -9255,10 +9441,12 @@
       <c r="BP18" s="24">
         <v>3684.15</v>
       </c>
-      <c r="BQ18" s="25">
+      <c r="BQ18" s="24">
         <v>3615.8</v>
       </c>
-      <c r="BR18" s="21"/>
+      <c r="BR18" s="25">
+        <v>3605.48</v>
+      </c>
       <c r="BS18" s="30"/>
       <c r="BT18" s="30"/>
     </row>
@@ -9320,11 +9508,13 @@
       <c r="T19" s="24">
         <v>174.24</v>
       </c>
-      <c r="U19" s="25">
+      <c r="U19" s="24">
         <v>173.53</v>
       </c>
-      <c r="V19" s="21"/>
-      <c r="W19" s="36">
+      <c r="V19" s="25">
+        <v>158.57</v>
+      </c>
+      <c r="W19" s="35">
         <v>179</v>
       </c>
       <c r="X19" s="30">
@@ -9348,7 +9538,7 @@
       <c r="AE19" s="13">
         <v>16727.82</v>
       </c>
-      <c r="AF19" s="37">
+      <c r="AF19" s="36">
         <v>17045.05</v>
       </c>
       <c r="AG19" s="3">
@@ -9360,7 +9550,7 @@
       <c r="AI19" s="13">
         <v>17120.65</v>
       </c>
-      <c r="AJ19" s="37">
+      <c r="AJ19" s="36">
         <v>15996.61</v>
       </c>
       <c r="AK19" s="3">
@@ -9387,11 +9577,13 @@
       <c r="AR19" s="24">
         <v>16248.17</v>
       </c>
-      <c r="AS19" s="25">
+      <c r="AS19" s="24">
         <v>15898.3</v>
       </c>
-      <c r="AT19" s="21"/>
-      <c r="AU19" s="36">
+      <c r="AT19" s="25">
+        <v>16248.17</v>
+      </c>
+      <c r="AU19" s="35">
         <v>12787</v>
       </c>
       <c r="AV19" s="30">
@@ -9438,10 +9630,12 @@
       <c r="BP19" s="24">
         <v>4980.35</v>
       </c>
-      <c r="BQ19" s="25">
+      <c r="BQ19" s="24">
         <v>4870.89</v>
       </c>
-      <c r="BR19" s="21"/>
+      <c r="BR19" s="25">
+        <v>4920.37</v>
+      </c>
       <c r="BS19" s="30"/>
       <c r="BT19" s="30"/>
     </row>
@@ -9503,11 +9697,13 @@
       <c r="T20" s="24">
         <v>228.32</v>
       </c>
-      <c r="U20" s="25">
+      <c r="U20" s="24">
         <v>226.74</v>
       </c>
-      <c r="V20" s="21"/>
-      <c r="W20" s="36">
+      <c r="V20" s="25">
+        <v>292.57</v>
+      </c>
+      <c r="W20" s="35">
         <v>217</v>
       </c>
       <c r="X20" s="30">
@@ -9531,7 +9727,7 @@
       <c r="AE20" s="13">
         <v>9412.28</v>
       </c>
-      <c r="AF20" s="37">
+      <c r="AF20" s="36">
         <v>11703.58</v>
       </c>
       <c r="AG20" s="3">
@@ -9543,7 +9739,7 @@
       <c r="AI20" s="13">
         <v>12035.93</v>
       </c>
-      <c r="AJ20" s="37">
+      <c r="AJ20" s="36">
         <v>10824.74</v>
       </c>
       <c r="AK20" s="3">
@@ -9570,11 +9766,13 @@
       <c r="AR20" s="24">
         <v>12446.75</v>
       </c>
-      <c r="AS20" s="25">
+      <c r="AS20" s="24">
         <v>11809.74</v>
       </c>
-      <c r="AT20" s="21"/>
-      <c r="AU20" s="36">
+      <c r="AT20" s="25">
+        <v>10837.48</v>
+      </c>
+      <c r="AU20" s="35">
         <v>9428</v>
       </c>
       <c r="AV20" s="30">
@@ -9637,10 +9835,12 @@
       <c r="BP20" s="24">
         <v>10294</v>
       </c>
-      <c r="BQ20" s="25">
+      <c r="BQ20" s="24">
         <v>10272</v>
       </c>
-      <c r="BR20" s="21"/>
+      <c r="BR20" s="25">
+        <v>10010</v>
+      </c>
       <c r="BS20" s="30"/>
       <c r="BT20" s="30"/>
     </row>
@@ -9702,11 +9902,13 @@
       <c r="T21" s="24">
         <v>287.88</v>
       </c>
-      <c r="U21" s="25">
+      <c r="U21" s="24">
         <v>282.53</v>
       </c>
-      <c r="V21" s="21"/>
-      <c r="W21" s="36">
+      <c r="V21" s="25">
+        <v>284.66</v>
+      </c>
+      <c r="W21" s="35">
         <v>249</v>
       </c>
       <c r="X21" s="30">
@@ -9730,7 +9932,7 @@
       <c r="AE21" s="13">
         <v>10720.17</v>
       </c>
-      <c r="AF21" s="37">
+      <c r="AF21" s="36">
         <v>11197.73</v>
       </c>
       <c r="AG21" s="3">
@@ -9742,7 +9944,7 @@
       <c r="AI21" s="13">
         <v>11092.2</v>
       </c>
-      <c r="AJ21" s="37">
+      <c r="AJ21" s="36">
         <v>11197.73</v>
       </c>
       <c r="AK21" s="3">
@@ -9769,11 +9971,13 @@
       <c r="AR21" s="24">
         <v>10587.26</v>
       </c>
-      <c r="AS21" s="25">
+      <c r="AS21" s="24">
         <v>10587.26</v>
       </c>
-      <c r="AT21" s="21"/>
-      <c r="AU21" s="36">
+      <c r="AT21" s="25">
+        <v>10587.26</v>
+      </c>
+      <c r="AU21" s="35">
         <v>8808</v>
       </c>
       <c r="AV21" s="30">
@@ -9836,10 +10040,12 @@
       <c r="BP21" s="24">
         <v>23096</v>
       </c>
-      <c r="BQ21" s="25">
+      <c r="BQ21" s="24">
         <v>23089</v>
       </c>
-      <c r="BR21" s="21"/>
+      <c r="BR21" s="25">
+        <v>22935</v>
+      </c>
       <c r="BS21" s="30"/>
       <c r="BT21" s="30"/>
     </row>
@@ -9901,11 +10107,13 @@
       <c r="T22" s="24">
         <v>361</v>
       </c>
-      <c r="U22" s="25">
+      <c r="U22" s="24">
         <v>361</v>
       </c>
-      <c r="V22" s="21"/>
-      <c r="W22" s="36">
+      <c r="V22" s="25">
+        <v>361</v>
+      </c>
+      <c r="W22" s="35">
         <v>308</v>
       </c>
       <c r="X22" s="30">
@@ -9929,7 +10137,7 @@
       <c r="AE22" s="13">
         <v>10023.72</v>
       </c>
-      <c r="AF22" s="37">
+      <c r="AF22" s="36">
         <v>10160.41</v>
       </c>
       <c r="AG22" s="3">
@@ -9941,7 +10149,7 @@
       <c r="AI22" s="13">
         <v>9535.85</v>
       </c>
-      <c r="AJ22" s="37">
+      <c r="AJ22" s="36">
         <v>9449.58</v>
       </c>
       <c r="AK22" s="3">
@@ -9968,11 +10176,13 @@
       <c r="AR22" s="24">
         <v>9429.83</v>
       </c>
-      <c r="AS22" s="25">
+      <c r="AS22" s="24">
         <v>9401.94</v>
       </c>
-      <c r="AT22" s="21"/>
-      <c r="AU22" s="36">
+      <c r="AT22" s="25">
+        <v>9215.14</v>
+      </c>
+      <c r="AU22" s="35">
         <v>9370</v>
       </c>
       <c r="AV22" s="30">
@@ -10011,8 +10221,8 @@
       <c r="BN22" s="21"/>
       <c r="BO22" s="21"/>
       <c r="BP22" s="24"/>
-      <c r="BQ22" s="25"/>
-      <c r="BR22" s="21"/>
+      <c r="BQ22" s="24"/>
+      <c r="BR22" s="25"/>
       <c r="BS22" s="30"/>
       <c r="BT22" s="30"/>
     </row>
@@ -10074,11 +10284,13 @@
       <c r="T23" s="24">
         <v>1234.19</v>
       </c>
-      <c r="U23" s="25">
+      <c r="U23" s="24">
         <v>1228.27</v>
       </c>
-      <c r="V23" s="21"/>
-      <c r="W23" s="36">
+      <c r="V23" s="25">
+        <v>1226.4</v>
+      </c>
+      <c r="W23" s="35">
         <v>1049</v>
       </c>
       <c r="X23" s="30">
@@ -10102,7 +10314,7 @@
       <c r="AE23" s="13">
         <v>5835.44</v>
       </c>
-      <c r="AF23" s="37">
+      <c r="AF23" s="36">
         <v>5290</v>
       </c>
       <c r="AG23" s="3">
@@ -10114,7 +10326,7 @@
       <c r="AI23" s="13">
         <v>5350.1</v>
       </c>
-      <c r="AJ23" s="37">
+      <c r="AJ23" s="36">
         <v>5838.62</v>
       </c>
       <c r="AK23" s="3">
@@ -10141,11 +10353,13 @@
       <c r="AR23" s="24">
         <v>5234.72</v>
       </c>
-      <c r="AS23" s="25">
+      <c r="AS23" s="24">
         <v>5234.72</v>
       </c>
-      <c r="AT23" s="21"/>
-      <c r="AU23" s="36">
+      <c r="AT23" s="25">
+        <v>5055.67</v>
+      </c>
+      <c r="AU23" s="35">
         <v>5532</v>
       </c>
       <c r="AV23" s="30">
@@ -10208,10 +10422,12 @@
       <c r="BP23" s="24">
         <v>243.1</v>
       </c>
-      <c r="BQ23" s="25">
+      <c r="BQ23" s="24">
         <v>243.1</v>
       </c>
-      <c r="BR23" s="21"/>
+      <c r="BR23" s="25">
+        <v>243.1</v>
+      </c>
       <c r="BS23" s="30">
         <v>250</v>
       </c>
@@ -10277,11 +10493,13 @@
       <c r="T24" s="24">
         <v>426</v>
       </c>
-      <c r="U24" s="25">
+      <c r="U24" s="24">
         <v>426</v>
       </c>
-      <c r="V24" s="21"/>
-      <c r="W24" s="36">
+      <c r="V24" s="25">
+        <v>426</v>
+      </c>
+      <c r="W24" s="35">
         <v>359</v>
       </c>
       <c r="X24" s="30">
@@ -10305,7 +10523,7 @@
       <c r="AE24" s="13">
         <v>22398.66</v>
       </c>
-      <c r="AF24" s="37">
+      <c r="AF24" s="36">
         <v>20659.25</v>
       </c>
       <c r="AG24" s="3">
@@ -10317,7 +10535,7 @@
       <c r="AI24" s="13">
         <v>20562.68</v>
       </c>
-      <c r="AJ24" s="37">
+      <c r="AJ24" s="36">
         <v>21122.47</v>
       </c>
       <c r="AK24" s="3">
@@ -10344,11 +10562,13 @@
       <c r="AR24" s="24">
         <v>21025.38</v>
       </c>
-      <c r="AS24" s="25">
+      <c r="AS24" s="24">
         <v>20839.81</v>
       </c>
-      <c r="AT24" s="21"/>
-      <c r="AU24" s="36">
+      <c r="AT24" s="25">
+        <v>19911.69</v>
+      </c>
+      <c r="AU24" s="35">
         <v>17655</v>
       </c>
       <c r="AV24" s="30">
@@ -10411,10 +10631,12 @@
       <c r="BP24" s="24">
         <v>507</v>
       </c>
-      <c r="BQ24" s="25">
+      <c r="BQ24" s="24">
         <v>505</v>
       </c>
-      <c r="BR24" s="21"/>
+      <c r="BR24" s="25">
+        <v>473</v>
+      </c>
       <c r="BS24" s="30">
         <v>132</v>
       </c>
@@ -10480,11 +10702,13 @@
       <c r="T25" s="24">
         <v>456</v>
       </c>
-      <c r="U25" s="25">
+      <c r="U25" s="24">
         <v>456</v>
       </c>
-      <c r="V25" s="21"/>
-      <c r="W25" s="36">
+      <c r="V25" s="25">
+        <v>456</v>
+      </c>
+      <c r="W25" s="35">
         <v>683</v>
       </c>
       <c r="X25" s="30">
@@ -10508,13 +10732,13 @@
       <c r="AE25" s="13">
         <v>28205.78</v>
       </c>
-      <c r="AF25" s="37">
+      <c r="AF25" s="36">
         <v>27917.4</v>
       </c>
       <c r="AG25" s="3"/>
       <c r="AH25" s="4"/>
       <c r="AI25" s="13"/>
-      <c r="AJ25" s="37"/>
+      <c r="AJ25" s="36"/>
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
       <c r="AM25" s="3"/>
@@ -10523,9 +10747,9 @@
       <c r="AP25" s="21"/>
       <c r="AQ25" s="21"/>
       <c r="AR25" s="24"/>
-      <c r="AS25" s="25"/>
-      <c r="AT25" s="21"/>
-      <c r="AU25" s="36"/>
+      <c r="AS25" s="24"/>
+      <c r="AT25" s="25"/>
+      <c r="AU25" s="35"/>
       <c r="AV25" s="30"/>
       <c r="AX25" s="3" t="s">
         <v>83</v>
@@ -10584,10 +10808,12 @@
       <c r="BP25" s="24">
         <v>63849.22</v>
       </c>
-      <c r="BQ25" s="25">
+      <c r="BQ25" s="24">
         <v>63347.41</v>
       </c>
-      <c r="BR25" s="21"/>
+      <c r="BR25" s="25">
+        <v>59631.2</v>
+      </c>
       <c r="BS25" s="30"/>
       <c r="BT25" s="30"/>
     </row>
@@ -10649,11 +10875,13 @@
       <c r="T26" s="24">
         <v>402</v>
       </c>
-      <c r="U26" s="25">
+      <c r="U26" s="24">
         <v>402</v>
       </c>
-      <c r="V26" s="21"/>
-      <c r="W26" s="36">
+      <c r="V26" s="25">
+        <v>402</v>
+      </c>
+      <c r="W26" s="35">
         <v>396</v>
       </c>
       <c r="X26" s="30">
@@ -10677,7 +10905,7 @@
       <c r="AE26" s="13">
         <v>1277</v>
       </c>
-      <c r="AF26" s="37">
+      <c r="AF26" s="36">
         <v>1219</v>
       </c>
       <c r="AG26" s="3">
@@ -10689,7 +10917,7 @@
       <c r="AI26" s="13">
         <v>1241</v>
       </c>
-      <c r="AJ26" s="37">
+      <c r="AJ26" s="36">
         <v>1298</v>
       </c>
       <c r="AK26" s="3">
@@ -10716,11 +10944,13 @@
       <c r="AR26" s="24">
         <v>1552</v>
       </c>
-      <c r="AS26" s="25">
+      <c r="AS26" s="24">
         <v>1505</v>
       </c>
-      <c r="AT26" s="21"/>
-      <c r="AU26" s="36"/>
+      <c r="AT26" s="25">
+        <v>1434</v>
+      </c>
+      <c r="AU26" s="35"/>
       <c r="AV26" s="30"/>
       <c r="AX26" s="3" t="s">
         <v>86</v>
@@ -10779,10 +11009,12 @@
       <c r="BP26" s="24">
         <v>2122.89</v>
       </c>
-      <c r="BQ26" s="25">
+      <c r="BQ26" s="24">
         <v>2028.57</v>
       </c>
-      <c r="BR26" s="21"/>
+      <c r="BR26" s="25">
+        <v>2101.47</v>
+      </c>
       <c r="BS26" s="30"/>
       <c r="BT26" s="30"/>
     </row>
@@ -10844,10 +11076,12 @@
       <c r="BP27" s="24">
         <v>1463.06</v>
       </c>
-      <c r="BQ27" s="25">
+      <c r="BQ27" s="24">
         <v>1463.06</v>
       </c>
-      <c r="BR27" s="21"/>
+      <c r="BR27" s="25">
+        <v>1463.06</v>
+      </c>
       <c r="BS27" s="30">
         <v>1329</v>
       </c>
@@ -10913,10 +11147,12 @@
       <c r="BP28" s="24">
         <v>2171.85</v>
       </c>
-      <c r="BQ28" s="25">
+      <c r="BQ28" s="24">
         <v>2171.85</v>
       </c>
-      <c r="BR28" s="21"/>
+      <c r="BR28" s="25">
+        <v>2171.85</v>
+      </c>
       <c r="BS28" s="30">
         <v>1473</v>
       </c>
@@ -10959,8 +11195,8 @@
   <sheetPr/>
   <dimension ref="B2:BT28"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="BQ36" sqref="BQ36"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="BC1" workbookViewId="0">
+      <selection activeCell="BQ41" sqref="BQ41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -11448,10 +11684,12 @@
       <c r="T5" s="24">
         <v>2110.24</v>
       </c>
-      <c r="U5" s="25">
+      <c r="U5" s="24">
         <v>2032.33</v>
       </c>
-      <c r="V5" s="21"/>
+      <c r="V5" s="25">
+        <v>2083.22</v>
+      </c>
       <c r="W5" s="26">
         <v>1894</v>
       </c>
@@ -11515,10 +11753,12 @@
       <c r="AR5" s="24">
         <v>2917</v>
       </c>
-      <c r="AS5" s="25">
+      <c r="AS5" s="24">
         <v>2887</v>
       </c>
-      <c r="AT5" s="21"/>
+      <c r="AT5" s="25">
+        <v>2880</v>
+      </c>
       <c r="AU5" s="30">
         <v>3135</v>
       </c>
@@ -11582,10 +11822,12 @@
       <c r="BP5" s="24">
         <v>76145.68</v>
       </c>
-      <c r="BQ5" s="25">
+      <c r="BQ5" s="24">
         <v>74958.07</v>
       </c>
-      <c r="BR5" s="21"/>
+      <c r="BR5" s="25">
+        <v>69578.7</v>
+      </c>
       <c r="BS5" s="30">
         <v>62262</v>
       </c>
@@ -11617,8 +11859,8 @@
       <c r="R6" s="21"/>
       <c r="S6" s="21"/>
       <c r="T6" s="24"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="21"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="25"/>
       <c r="W6" s="26"/>
       <c r="X6" s="27"/>
       <c r="Z6" s="3" t="s">
@@ -11678,10 +11920,12 @@
       <c r="AR6" s="24">
         <v>41850.97</v>
       </c>
-      <c r="AS6" s="25">
+      <c r="AS6" s="24">
         <v>40913.06</v>
       </c>
-      <c r="AT6" s="21"/>
+      <c r="AT6" s="25">
+        <v>39635.44</v>
+      </c>
       <c r="AU6" s="30">
         <v>29257</v>
       </c>
@@ -11745,10 +11989,12 @@
       <c r="BP6" s="24">
         <v>29207.41</v>
       </c>
-      <c r="BQ6" s="25">
+      <c r="BQ6" s="24">
         <v>29207.41</v>
       </c>
-      <c r="BR6" s="21"/>
+      <c r="BR6" s="25">
+        <v>29207.41</v>
+      </c>
       <c r="BS6" s="30">
         <v>29684</v>
       </c>
@@ -11814,10 +12060,12 @@
       <c r="T7" s="24">
         <v>6030</v>
       </c>
-      <c r="U7" s="25">
+      <c r="U7" s="24">
         <v>6020</v>
       </c>
-      <c r="V7" s="21"/>
+      <c r="V7" s="25">
+        <v>5933</v>
+      </c>
       <c r="W7" s="26"/>
       <c r="X7" s="27"/>
       <c r="Z7" s="3" t="s">
@@ -11877,10 +12125,12 @@
       <c r="AR7" s="24">
         <v>4815</v>
       </c>
-      <c r="AS7" s="25">
+      <c r="AS7" s="24">
         <v>4803</v>
       </c>
-      <c r="AT7" s="21"/>
+      <c r="AT7" s="25">
+        <v>4815</v>
+      </c>
       <c r="AU7" s="30"/>
       <c r="AV7" s="30"/>
       <c r="AX7" s="3" t="s">
@@ -11940,10 +12190,12 @@
       <c r="BP7" s="24">
         <v>39298.44</v>
       </c>
-      <c r="BQ7" s="25">
+      <c r="BQ7" s="24">
         <v>39040.23</v>
       </c>
-      <c r="BR7" s="21"/>
+      <c r="BR7" s="25">
+        <v>38668.15</v>
+      </c>
       <c r="BS7" s="30">
         <v>36977</v>
       </c>
@@ -12009,10 +12261,12 @@
       <c r="T8" s="24">
         <v>22343</v>
       </c>
-      <c r="U8" s="25">
+      <c r="U8" s="24">
         <v>21465</v>
       </c>
-      <c r="V8" s="21"/>
+      <c r="V8" s="25">
+        <v>21796</v>
+      </c>
       <c r="W8" s="26"/>
       <c r="X8" s="27"/>
       <c r="Z8" s="3" t="s">
@@ -12038,8 +12292,8 @@
       <c r="AP8" s="21"/>
       <c r="AQ8" s="21"/>
       <c r="AR8" s="24"/>
-      <c r="AS8" s="25"/>
-      <c r="AT8" s="21"/>
+      <c r="AS8" s="24"/>
+      <c r="AT8" s="25"/>
       <c r="AU8" s="30">
         <v>44147</v>
       </c>
@@ -12103,10 +12357,12 @@
       <c r="BP8" s="24">
         <v>76308.07</v>
       </c>
-      <c r="BQ8" s="25">
+      <c r="BQ8" s="24">
         <v>75165.33</v>
       </c>
-      <c r="BR8" s="21"/>
+      <c r="BR8" s="25">
+        <v>72681.7</v>
+      </c>
       <c r="BS8" s="30">
         <v>67879</v>
       </c>
@@ -12172,10 +12428,12 @@
       <c r="T9" s="24">
         <v>971</v>
       </c>
-      <c r="U9" s="25">
+      <c r="U9" s="24">
         <v>983</v>
       </c>
-      <c r="V9" s="21"/>
+      <c r="V9" s="25">
+        <v>971</v>
+      </c>
       <c r="W9" s="26">
         <v>929</v>
       </c>
@@ -12205,8 +12463,8 @@
       <c r="AP9" s="21"/>
       <c r="AQ9" s="21"/>
       <c r="AR9" s="24"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="21"/>
+      <c r="AS9" s="24"/>
+      <c r="AT9" s="25"/>
       <c r="AU9" s="30">
         <v>22000</v>
       </c>
@@ -12270,10 +12528,12 @@
       <c r="BP9" s="24">
         <v>41765.99</v>
       </c>
-      <c r="BQ9" s="25">
+      <c r="BQ9" s="24">
         <v>41612.52</v>
       </c>
-      <c r="BR9" s="21"/>
+      <c r="BR9" s="25">
+        <v>41755.64</v>
+      </c>
       <c r="BS9" s="30">
         <v>40274</v>
       </c>
@@ -12339,10 +12599,12 @@
       <c r="T10" s="24">
         <v>1128</v>
       </c>
-      <c r="U10" s="25">
+      <c r="U10" s="24">
         <v>1103</v>
       </c>
-      <c r="V10" s="21"/>
+      <c r="V10" s="25">
+        <v>1106</v>
+      </c>
       <c r="W10" s="26">
         <v>1090</v>
       </c>
@@ -12372,8 +12634,8 @@
       <c r="AP10" s="21"/>
       <c r="AQ10" s="21"/>
       <c r="AR10" s="24"/>
-      <c r="AS10" s="25"/>
-      <c r="AT10" s="21"/>
+      <c r="AS10" s="24"/>
+      <c r="AT10" s="25"/>
       <c r="AU10" s="30">
         <v>65832</v>
       </c>
@@ -12437,10 +12699,12 @@
       <c r="BP10" s="24">
         <v>48947.8</v>
       </c>
-      <c r="BQ10" s="25">
+      <c r="BQ10" s="24">
         <v>48003.91</v>
       </c>
-      <c r="BR10" s="21"/>
+      <c r="BR10" s="25">
+        <v>48073.99</v>
+      </c>
       <c r="BS10" s="30">
         <v>46434</v>
       </c>
@@ -12506,10 +12770,12 @@
       <c r="T11" s="24">
         <v>3870.51</v>
       </c>
-      <c r="U11" s="25">
+      <c r="U11" s="24">
         <v>3870.51</v>
       </c>
-      <c r="V11" s="21"/>
+      <c r="V11" s="25">
+        <v>3870.51</v>
+      </c>
       <c r="W11" s="26">
         <v>3853</v>
       </c>
@@ -12539,8 +12805,8 @@
       <c r="AP11" s="21"/>
       <c r="AQ11" s="21"/>
       <c r="AR11" s="24"/>
-      <c r="AS11" s="25"/>
-      <c r="AT11" s="21"/>
+      <c r="AS11" s="24"/>
+      <c r="AT11" s="25"/>
       <c r="AU11" s="30"/>
       <c r="AV11" s="30"/>
       <c r="AX11" s="3" t="s">
@@ -12600,10 +12866,12 @@
       <c r="BP11" s="24">
         <v>68534.27</v>
       </c>
-      <c r="BQ11" s="25">
+      <c r="BQ11" s="24">
         <v>66996.81</v>
       </c>
-      <c r="BR11" s="21"/>
+      <c r="BR11" s="25">
+        <v>67858.17</v>
+      </c>
       <c r="BS11" s="30">
         <v>49022</v>
       </c>
@@ -12669,10 +12937,12 @@
       <c r="T12" s="24">
         <v>54718</v>
       </c>
-      <c r="U12" s="25">
+      <c r="U12" s="24">
         <v>52702.99</v>
       </c>
-      <c r="V12" s="21"/>
+      <c r="V12" s="25">
+        <v>54299.16</v>
+      </c>
       <c r="W12" s="26">
         <v>51542</v>
       </c>
@@ -12702,8 +12972,8 @@
       <c r="AP12" s="21"/>
       <c r="AQ12" s="21"/>
       <c r="AR12" s="24"/>
-      <c r="AS12" s="25"/>
-      <c r="AT12" s="21"/>
+      <c r="AS12" s="24"/>
+      <c r="AT12" s="25"/>
       <c r="AU12" s="30"/>
       <c r="AV12" s="30"/>
       <c r="AX12" s="3" t="s">
@@ -12763,10 +13033,12 @@
       <c r="BP12" s="24">
         <v>34225.03</v>
       </c>
-      <c r="BQ12" s="25">
+      <c r="BQ12" s="24">
         <v>33911.27</v>
       </c>
-      <c r="BR12" s="21"/>
+      <c r="BR12" s="25">
+        <v>32757.94</v>
+      </c>
       <c r="BS12" s="30"/>
       <c r="BT12" s="30"/>
     </row>
@@ -12828,10 +13100,12 @@
       <c r="T13" s="24">
         <v>12252</v>
       </c>
-      <c r="U13" s="25">
+      <c r="U13" s="24">
         <v>12026</v>
       </c>
-      <c r="V13" s="21"/>
+      <c r="V13" s="25">
+        <v>11509</v>
+      </c>
       <c r="W13" s="26"/>
       <c r="X13" s="27"/>
       <c r="Z13" s="3" t="s">
@@ -12891,10 +13165,12 @@
       <c r="AR13" s="24">
         <v>8345</v>
       </c>
-      <c r="AS13" s="25">
+      <c r="AS13" s="24">
         <v>8004</v>
       </c>
-      <c r="AT13" s="21"/>
+      <c r="AT13" s="25">
+        <v>8258</v>
+      </c>
       <c r="AU13" s="30">
         <v>6937</v>
       </c>
@@ -12958,10 +13234,12 @@
       <c r="BP13" s="24">
         <v>39729.09</v>
       </c>
-      <c r="BQ13" s="25">
+      <c r="BQ13" s="24">
         <v>37232.98</v>
       </c>
-      <c r="BR13" s="21"/>
+      <c r="BR13" s="25">
+        <v>38040.4</v>
+      </c>
       <c r="BS13" s="30"/>
       <c r="BT13" s="30"/>
     </row>
@@ -13023,10 +13301,12 @@
       <c r="T14" s="24">
         <v>1850</v>
       </c>
-      <c r="U14" s="25">
+      <c r="U14" s="24">
         <v>1690</v>
       </c>
-      <c r="V14" s="21"/>
+      <c r="V14" s="25">
+        <v>1720</v>
+      </c>
       <c r="W14" s="26"/>
       <c r="X14" s="27"/>
       <c r="Z14" s="3" t="s">
@@ -13086,10 +13366,12 @@
       <c r="AR14" s="24">
         <v>16211.51</v>
       </c>
-      <c r="AS14" s="25">
+      <c r="AS14" s="24">
         <v>16169.86</v>
       </c>
-      <c r="AT14" s="21"/>
+      <c r="AT14" s="25">
+        <v>15829.78</v>
+      </c>
       <c r="AU14" s="30">
         <v>13982</v>
       </c>
@@ -13153,10 +13435,12 @@
       <c r="BP14" s="24">
         <v>72059.64</v>
       </c>
-      <c r="BQ14" s="25">
+      <c r="BQ14" s="24">
         <v>69827.25</v>
       </c>
-      <c r="BR14" s="21"/>
+      <c r="BR14" s="25">
+        <v>68450</v>
+      </c>
       <c r="BS14" s="30"/>
       <c r="BT14" s="30"/>
     </row>
@@ -13218,10 +13502,12 @@
       <c r="T15" s="24">
         <v>1528.5</v>
       </c>
-      <c r="U15" s="25">
+      <c r="U15" s="24">
         <v>1528.5</v>
       </c>
-      <c r="V15" s="21"/>
+      <c r="V15" s="25">
+        <v>1528.5</v>
+      </c>
       <c r="W15" s="26">
         <v>1349</v>
       </c>
@@ -13285,10 +13571,12 @@
       <c r="AR15" s="24">
         <v>21652.18</v>
       </c>
-      <c r="AS15" s="25">
+      <c r="AS15" s="24">
         <v>21434.67</v>
       </c>
-      <c r="AT15" s="21"/>
+      <c r="AT15" s="25">
+        <v>20964.76</v>
+      </c>
       <c r="AU15" s="30">
         <v>17787</v>
       </c>
@@ -13324,8 +13612,8 @@
       <c r="BN15" s="21"/>
       <c r="BO15" s="21"/>
       <c r="BP15" s="24"/>
-      <c r="BQ15" s="25"/>
-      <c r="BR15" s="21"/>
+      <c r="BQ15" s="24"/>
+      <c r="BR15" s="25"/>
       <c r="BS15" s="30"/>
       <c r="BT15" s="30"/>
     </row>
@@ -13387,10 +13675,12 @@
       <c r="T16" s="24">
         <v>4768.79</v>
       </c>
-      <c r="U16" s="25">
+      <c r="U16" s="24">
         <v>4425.87</v>
       </c>
-      <c r="V16" s="21"/>
+      <c r="V16" s="25">
+        <v>4382.3</v>
+      </c>
       <c r="W16" s="26">
         <v>4062</v>
       </c>
@@ -13454,10 +13744,12 @@
       <c r="AR16" s="24">
         <v>25496.33</v>
       </c>
-      <c r="AS16" s="25">
+      <c r="AS16" s="24">
         <v>23904.62</v>
       </c>
-      <c r="AT16" s="21"/>
+      <c r="AT16" s="25">
+        <v>24102.88</v>
+      </c>
       <c r="AU16" s="30">
         <v>20705</v>
       </c>
@@ -13521,10 +13813,12 @@
       <c r="BP16" s="24">
         <v>998.97</v>
       </c>
-      <c r="BQ16" s="25">
+      <c r="BQ16" s="24">
         <v>967.17</v>
       </c>
-      <c r="BR16" s="21"/>
+      <c r="BR16" s="25">
+        <v>971.93</v>
+      </c>
       <c r="BS16" s="30">
         <v>868</v>
       </c>
@@ -13590,10 +13884,12 @@
       <c r="T17" s="24">
         <v>5252.79</v>
       </c>
-      <c r="U17" s="25">
+      <c r="U17" s="24">
         <v>5145.74</v>
       </c>
-      <c r="V17" s="21"/>
+      <c r="V17" s="25">
+        <v>4981.58</v>
+      </c>
       <c r="W17" s="26">
         <v>4480</v>
       </c>
@@ -13657,10 +13953,12 @@
       <c r="AR17" s="24">
         <v>19444.83</v>
       </c>
-      <c r="AS17" s="25">
+      <c r="AS17" s="24">
         <v>18331.68</v>
       </c>
-      <c r="AT17" s="21"/>
+      <c r="AT17" s="25">
+        <v>17123.9</v>
+      </c>
       <c r="AU17" s="30">
         <v>14648</v>
       </c>
@@ -13724,10 +14022,12 @@
       <c r="BP17" s="24">
         <v>1884.35</v>
       </c>
-      <c r="BQ17" s="25">
+      <c r="BQ17" s="24">
         <v>1878.64</v>
       </c>
-      <c r="BR17" s="21"/>
+      <c r="BR17" s="25">
+        <v>1868.65</v>
+      </c>
       <c r="BS17" s="30">
         <v>1669</v>
       </c>
@@ -13793,10 +14093,12 @@
       <c r="T18" s="24">
         <v>444</v>
       </c>
-      <c r="U18" s="25">
+      <c r="U18" s="24">
         <v>431</v>
       </c>
-      <c r="V18" s="21"/>
+      <c r="V18" s="25">
+        <v>404</v>
+      </c>
       <c r="W18" s="26">
         <v>404</v>
       </c>
@@ -13860,10 +14162,12 @@
       <c r="AR18" s="24">
         <v>20592</v>
       </c>
-      <c r="AS18" s="25">
+      <c r="AS18" s="24">
         <v>20217.2</v>
       </c>
-      <c r="AT18" s="21"/>
+      <c r="AT18" s="25">
+        <v>20290.41</v>
+      </c>
       <c r="AU18" s="30">
         <v>17090</v>
       </c>
@@ -13925,10 +14229,12 @@
       <c r="BP18" s="24">
         <v>5630.88</v>
       </c>
-      <c r="BQ18" s="25">
+      <c r="BQ18" s="24">
         <v>5491.92</v>
       </c>
-      <c r="BR18" s="21"/>
+      <c r="BR18" s="25">
+        <v>5573.08</v>
+      </c>
       <c r="BS18" s="30"/>
       <c r="BT18" s="30"/>
     </row>
@@ -13990,10 +14296,12 @@
       <c r="T19" s="24">
         <v>315.17</v>
       </c>
-      <c r="U19" s="25">
+      <c r="U19" s="24">
         <v>312.87</v>
       </c>
-      <c r="V19" s="21"/>
+      <c r="V19" s="25">
+        <v>308.34</v>
+      </c>
       <c r="W19" s="26">
         <v>278</v>
       </c>
@@ -14057,10 +14365,12 @@
       <c r="AR19" s="24">
         <v>25183.07</v>
       </c>
-      <c r="AS19" s="25">
+      <c r="AS19" s="24">
         <v>24153.98</v>
       </c>
-      <c r="AT19" s="21"/>
+      <c r="AT19" s="25">
+        <v>24450.23</v>
+      </c>
       <c r="AU19" s="30">
         <v>20553</v>
       </c>
@@ -14110,8 +14420,8 @@
         <v>7602.39</v>
       </c>
       <c r="BP19" s="24"/>
-      <c r="BQ19" s="25"/>
-      <c r="BR19" s="21"/>
+      <c r="BQ19" s="24"/>
+      <c r="BR19" s="25"/>
       <c r="BS19" s="30"/>
       <c r="BT19" s="30"/>
     </row>
@@ -14173,10 +14483,12 @@
       <c r="T20" s="24">
         <v>369.64</v>
       </c>
-      <c r="U20" s="25">
+      <c r="U20" s="24">
         <v>368.49</v>
       </c>
-      <c r="V20" s="21"/>
+      <c r="V20" s="25">
+        <v>360.15</v>
+      </c>
       <c r="W20" s="26">
         <v>345</v>
       </c>
@@ -14240,10 +14552,12 @@
       <c r="AR20" s="24">
         <v>17552.17</v>
       </c>
-      <c r="AS20" s="25">
+      <c r="AS20" s="24">
         <v>16002.74</v>
       </c>
-      <c r="AT20" s="21"/>
+      <c r="AT20" s="25">
+        <v>16030.37</v>
+      </c>
       <c r="AU20" s="30">
         <v>14295</v>
       </c>
@@ -14307,10 +14621,12 @@
       <c r="BP20" s="24">
         <v>15520</v>
       </c>
-      <c r="BQ20" s="25">
+      <c r="BQ20" s="24">
         <v>15499</v>
       </c>
-      <c r="BR20" s="21"/>
+      <c r="BR20" s="25">
+        <v>15324</v>
+      </c>
       <c r="BS20" s="30"/>
       <c r="BT20" s="30"/>
     </row>
@@ -14372,10 +14688,12 @@
       <c r="T21" s="24">
         <v>437.53</v>
       </c>
-      <c r="U21" s="25">
+      <c r="U21" s="24">
         <v>434.91</v>
       </c>
-      <c r="V21" s="21"/>
+      <c r="V21" s="25">
+        <v>437.53</v>
+      </c>
       <c r="W21" s="26">
         <v>398</v>
       </c>
@@ -14439,10 +14757,12 @@
       <c r="AR21" s="24">
         <v>16463.92</v>
       </c>
-      <c r="AS21" s="25">
+      <c r="AS21" s="24">
         <v>15643.33</v>
       </c>
-      <c r="AT21" s="21"/>
+      <c r="AT21" s="25">
+        <v>16187.74</v>
+      </c>
       <c r="AU21" s="30">
         <v>13884</v>
       </c>
@@ -14506,10 +14826,12 @@
       <c r="BP21" s="24">
         <v>35241</v>
       </c>
-      <c r="BQ21" s="25">
+      <c r="BQ21" s="24">
         <v>35177</v>
       </c>
-      <c r="BR21" s="21"/>
+      <c r="BR21" s="25">
+        <v>35050</v>
+      </c>
       <c r="BS21" s="30"/>
       <c r="BT21" s="30"/>
     </row>
@@ -14571,10 +14893,12 @@
       <c r="T22" s="24">
         <v>501</v>
       </c>
-      <c r="U22" s="25">
+      <c r="U22" s="24">
         <v>507</v>
       </c>
-      <c r="V22" s="21"/>
+      <c r="V22" s="25">
+        <v>444</v>
+      </c>
       <c r="W22" s="26">
         <v>492</v>
       </c>
@@ -14638,10 +14962,12 @@
       <c r="AR22" s="24">
         <v>16439.86</v>
       </c>
-      <c r="AS22" s="25">
+      <c r="AS22" s="24">
         <v>16258.33</v>
       </c>
-      <c r="AT22" s="21"/>
+      <c r="AT22" s="25">
+        <v>16439.86</v>
+      </c>
       <c r="AU22" s="30">
         <v>15347</v>
       </c>
@@ -14677,8 +15003,8 @@
       <c r="BN22" s="21"/>
       <c r="BO22" s="21"/>
       <c r="BP22" s="24"/>
-      <c r="BQ22" s="25"/>
-      <c r="BR22" s="21"/>
+      <c r="BQ22" s="24"/>
+      <c r="BR22" s="25"/>
       <c r="BS22" s="30"/>
       <c r="BT22" s="30"/>
     </row>
@@ -14740,10 +15066,12 @@
       <c r="T23" s="24">
         <v>1890.27</v>
       </c>
-      <c r="U23" s="25">
+      <c r="U23" s="24">
         <v>1840.52</v>
       </c>
-      <c r="V23" s="21"/>
+      <c r="V23" s="25">
+        <v>1843.88</v>
+      </c>
       <c r="W23" s="26">
         <v>1671</v>
       </c>
@@ -14807,10 +15135,12 @@
       <c r="AR23" s="24">
         <v>8462</v>
       </c>
-      <c r="AS23" s="25">
+      <c r="AS23" s="24">
         <v>8412.64</v>
       </c>
-      <c r="AT23" s="21"/>
+      <c r="AT23" s="25">
+        <v>8427.48</v>
+      </c>
       <c r="AU23" s="30">
         <v>8412</v>
       </c>
@@ -14874,10 +15204,12 @@
       <c r="BP23" s="24">
         <v>448.35</v>
       </c>
-      <c r="BQ23" s="25">
+      <c r="BQ23" s="24">
         <v>444.58</v>
       </c>
-      <c r="BR23" s="21"/>
+      <c r="BR23" s="25">
+        <v>445.1</v>
+      </c>
       <c r="BS23" s="30">
         <v>437</v>
       </c>
@@ -14943,10 +15275,12 @@
       <c r="T24" s="24">
         <v>718</v>
       </c>
-      <c r="U24" s="25">
+      <c r="U24" s="24">
         <v>718</v>
       </c>
-      <c r="V24" s="21"/>
+      <c r="V24" s="25">
+        <v>718</v>
+      </c>
       <c r="W24" s="26">
         <v>640</v>
       </c>
@@ -15010,10 +15344,12 @@
       <c r="AR24" s="24">
         <v>31190.71</v>
       </c>
-      <c r="AS24" s="25">
+      <c r="AS24" s="24">
         <v>30571.43</v>
       </c>
-      <c r="AT24" s="21"/>
+      <c r="AT24" s="25">
+        <v>30301.29</v>
+      </c>
       <c r="AU24" s="30">
         <v>27963</v>
       </c>
@@ -15077,10 +15413,12 @@
       <c r="BP24" s="24">
         <v>805</v>
       </c>
-      <c r="BQ24" s="25">
+      <c r="BQ24" s="24">
         <v>805</v>
       </c>
-      <c r="BR24" s="21"/>
+      <c r="BR24" s="25">
+        <v>805</v>
+      </c>
       <c r="BS24" s="30">
         <v>281</v>
       </c>
@@ -15146,10 +15484,12 @@
       <c r="T25" s="24">
         <v>1196</v>
       </c>
-      <c r="U25" s="25">
+      <c r="U25" s="24">
         <v>1271</v>
       </c>
-      <c r="V25" s="21"/>
+      <c r="V25" s="25">
+        <v>1196</v>
+      </c>
       <c r="W25" s="26">
         <v>1276</v>
       </c>
@@ -15185,8 +15525,8 @@
       <c r="AP25" s="21"/>
       <c r="AQ25" s="21"/>
       <c r="AR25" s="24"/>
-      <c r="AS25" s="25"/>
-      <c r="AT25" s="21"/>
+      <c r="AS25" s="24"/>
+      <c r="AT25" s="25"/>
       <c r="AU25" s="30"/>
       <c r="AV25" s="30"/>
       <c r="AX25" s="3" t="s">
@@ -15246,10 +15586,12 @@
       <c r="BP25" s="24">
         <v>110528.02</v>
       </c>
-      <c r="BQ25" s="25">
+      <c r="BQ25" s="24">
         <v>106440.37</v>
       </c>
-      <c r="BR25" s="21"/>
+      <c r="BR25" s="25">
+        <v>99494.24</v>
+      </c>
       <c r="BS25" s="30"/>
       <c r="BT25" s="30"/>
     </row>
@@ -15311,10 +15653,12 @@
       <c r="T26" s="24">
         <v>718</v>
       </c>
-      <c r="U26" s="25">
+      <c r="U26" s="24">
         <v>718</v>
       </c>
-      <c r="V26" s="21"/>
+      <c r="V26" s="25">
+        <v>718</v>
+      </c>
       <c r="W26" s="26">
         <v>763</v>
       </c>
@@ -15378,10 +15722,12 @@
       <c r="AR26" s="24">
         <v>2386</v>
       </c>
-      <c r="AS26" s="25">
+      <c r="AS26" s="24">
         <v>2330</v>
       </c>
-      <c r="AT26" s="21"/>
+      <c r="AT26" s="25">
+        <v>2212</v>
+      </c>
       <c r="AU26" s="30"/>
       <c r="AV26" s="30"/>
       <c r="AX26" s="3" t="s">
@@ -15441,10 +15787,12 @@
       <c r="BP26" s="24">
         <v>3139.83</v>
       </c>
-      <c r="BQ26" s="25">
+      <c r="BQ26" s="24">
         <v>2978.11</v>
       </c>
-      <c r="BR26" s="21"/>
+      <c r="BR26" s="25">
+        <v>3072.66</v>
+      </c>
       <c r="BS26" s="30"/>
       <c r="BT26" s="30"/>
     </row>
@@ -15506,10 +15854,12 @@
       <c r="BP27" s="24">
         <v>2279.3</v>
       </c>
-      <c r="BQ27" s="25">
+      <c r="BQ27" s="24">
         <v>2279.3</v>
       </c>
-      <c r="BR27" s="21"/>
+      <c r="BR27" s="25">
+        <v>2279.3</v>
+      </c>
       <c r="BS27" s="30">
         <v>2704</v>
       </c>
@@ -15575,10 +15925,12 @@
       <c r="BP28" s="24">
         <v>2772.63</v>
       </c>
-      <c r="BQ28" s="25">
+      <c r="BQ28" s="24">
         <v>2772.63</v>
       </c>
-      <c r="BR28" s="21"/>
+      <c r="BR28" s="25">
+        <v>2772.63</v>
+      </c>
       <c r="BS28" s="30">
         <v>2618</v>
       </c>
@@ -15621,8 +15973,8 @@
   <sheetPr/>
   <dimension ref="B1:U71"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="L43" workbookViewId="0">
-      <selection activeCell="S48" sqref="S48:S71"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="H34" workbookViewId="0">
+      <selection activeCell="T48" sqref="T48:T71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.75"/>
@@ -15630,16 +15982,17 @@
     <col min="1" max="1" width="9.14285714285714" style="1"/>
     <col min="2" max="2" width="11.1428571428571" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.14285714285714" style="1"/>
-    <col min="4" max="5" width="10.7142857142857" style="1"/>
-    <col min="6" max="8" width="9.14285714285714" style="1"/>
+    <col min="4" max="6" width="10.7142857142857" style="1"/>
+    <col min="7" max="8" width="9.14285714285714" style="1"/>
     <col min="9" max="9" width="11.1428571428571" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.14285714285714" style="1"/>
-    <col min="11" max="12" width="10.7142857142857" style="1"/>
-    <col min="13" max="15" width="9.14285714285714" style="1"/>
+    <col min="11" max="13" width="10.7142857142857" style="1"/>
+    <col min="14" max="15" width="9.14285714285714" style="1"/>
     <col min="16" max="16" width="11.1428571428571" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.14285714285714" style="1"/>
     <col min="18" max="19" width="12" style="1"/>
-    <col min="20" max="16384" width="9.14285714285714" style="1"/>
+    <col min="20" max="20" width="10.7142857142857" style="1"/>
+    <col min="21" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:18">
@@ -15749,7 +16102,9 @@
       <c r="E4" s="9">
         <v>789.21</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="9">
+        <v>791.65</v>
+      </c>
       <c r="G4" s="10"/>
       <c r="I4" s="13" t="s">
         <v>19</v>
@@ -15763,7 +16118,9 @@
       <c r="L4" s="9">
         <v>1469.76</v>
       </c>
-      <c r="M4" s="9"/>
+      <c r="M4" s="9">
+        <v>1485.28</v>
+      </c>
       <c r="N4" s="10"/>
       <c r="P4" s="13" t="s">
         <v>19</v>
@@ -15777,7 +16134,9 @@
       <c r="S4" s="9">
         <v>2032.33</v>
       </c>
-      <c r="T4" s="9"/>
+      <c r="T4" s="9">
+        <v>2083.22</v>
+      </c>
       <c r="U4" s="10"/>
     </row>
     <row r="5" spans="2:21">
@@ -15825,7 +16184,9 @@
       <c r="E6" s="9">
         <v>1193</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="9">
+        <v>1193</v>
+      </c>
       <c r="G6" s="10"/>
       <c r="I6" s="13" t="s">
         <v>25</v>
@@ -15839,7 +16200,9 @@
       <c r="L6" s="9">
         <v>3618</v>
       </c>
-      <c r="M6" s="9"/>
+      <c r="M6" s="9">
+        <v>3618</v>
+      </c>
       <c r="N6" s="10"/>
       <c r="P6" s="13" t="s">
         <v>25</v>
@@ -15853,7 +16216,9 @@
       <c r="S6" s="9">
         <v>6020</v>
       </c>
-      <c r="T6" s="9"/>
+      <c r="T6" s="9">
+        <v>5933</v>
+      </c>
       <c r="U6" s="10"/>
     </row>
     <row r="7" spans="2:21">
@@ -15869,7 +16234,9 @@
       <c r="E7" s="9">
         <v>6365</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="9">
+        <v>6520</v>
+      </c>
       <c r="G7" s="10"/>
       <c r="I7" s="13" t="s">
         <v>28</v>
@@ -15883,7 +16250,9 @@
       <c r="L7" s="9">
         <v>14965</v>
       </c>
-      <c r="M7" s="9"/>
+      <c r="M7" s="9">
+        <v>14938</v>
+      </c>
       <c r="N7" s="10"/>
       <c r="P7" s="13" t="s">
         <v>28</v>
@@ -15897,7 +16266,9 @@
       <c r="S7" s="9">
         <v>21465</v>
       </c>
-      <c r="T7" s="9"/>
+      <c r="T7" s="9">
+        <v>21796</v>
+      </c>
       <c r="U7" s="10"/>
     </row>
     <row r="8" spans="2:21">
@@ -15913,7 +16284,9 @@
       <c r="E8" s="9">
         <v>282</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="9">
+        <v>282</v>
+      </c>
       <c r="G8" s="10"/>
       <c r="I8" s="13" t="s">
         <v>31</v>
@@ -15927,7 +16300,9 @@
       <c r="L8" s="9">
         <v>655</v>
       </c>
-      <c r="M8" s="9"/>
+      <c r="M8" s="9">
+        <v>655</v>
+      </c>
       <c r="N8" s="10"/>
       <c r="P8" s="13" t="s">
         <v>31</v>
@@ -15941,7 +16316,9 @@
       <c r="S8" s="9">
         <v>983</v>
       </c>
-      <c r="T8" s="9"/>
+      <c r="T8" s="9">
+        <v>971</v>
+      </c>
       <c r="U8" s="10"/>
     </row>
     <row r="9" spans="2:21">
@@ -15957,7 +16334,9 @@
       <c r="E9" s="9">
         <v>376</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="9">
+        <v>376</v>
+      </c>
       <c r="G9" s="10"/>
       <c r="I9" s="13" t="s">
         <v>34</v>
@@ -15971,7 +16350,9 @@
       <c r="L9" s="9">
         <v>752</v>
       </c>
-      <c r="M9" s="9"/>
+      <c r="M9" s="9">
+        <v>752</v>
+      </c>
       <c r="N9" s="10"/>
       <c r="P9" s="13" t="s">
         <v>34</v>
@@ -15985,7 +16366,9 @@
       <c r="S9" s="9">
         <v>1103</v>
       </c>
-      <c r="T9" s="9"/>
+      <c r="T9" s="9">
+        <v>1106</v>
+      </c>
       <c r="U9" s="10"/>
     </row>
     <row r="10" spans="2:21">
@@ -16001,7 +16384,9 @@
       <c r="E10" s="9">
         <v>456.38</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="9">
+        <v>456.38</v>
+      </c>
       <c r="G10" s="10"/>
       <c r="I10" s="13" t="s">
         <v>37</v>
@@ -16015,7 +16400,9 @@
       <c r="L10" s="9">
         <v>2106.37</v>
       </c>
-      <c r="M10" s="9"/>
+      <c r="M10" s="9">
+        <v>2033.99</v>
+      </c>
       <c r="N10" s="10"/>
       <c r="P10" s="13" t="s">
         <v>37</v>
@@ -16029,7 +16416,9 @@
       <c r="S10" s="9">
         <v>3870.51</v>
       </c>
-      <c r="T10" s="9"/>
+      <c r="T10" s="9">
+        <v>3870.51</v>
+      </c>
       <c r="U10" s="10"/>
     </row>
     <row r="11" spans="2:21">
@@ -16045,7 +16434,9 @@
       <c r="E11" s="9">
         <v>11363.99</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="9">
+        <v>11245.08</v>
+      </c>
       <c r="G11" s="10"/>
       <c r="I11" s="13" t="s">
         <v>40</v>
@@ -16059,7 +16450,9 @@
       <c r="L11" s="9">
         <v>27999.03</v>
       </c>
-      <c r="M11" s="9"/>
+      <c r="M11" s="9">
+        <v>28657.67</v>
+      </c>
       <c r="N11" s="10"/>
       <c r="P11" s="13" t="s">
         <v>40</v>
@@ -16073,7 +16466,9 @@
       <c r="S11" s="9">
         <v>52702.99</v>
       </c>
-      <c r="T11" s="9"/>
+      <c r="T11" s="9">
+        <v>54299.16</v>
+      </c>
       <c r="U11" s="10"/>
     </row>
     <row r="12" spans="2:21">
@@ -16089,7 +16484,9 @@
       <c r="E12" s="9">
         <v>4161</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="9">
+        <v>4161</v>
+      </c>
       <c r="G12" s="10"/>
       <c r="I12" s="13" t="s">
         <v>43</v>
@@ -16103,7 +16500,9 @@
       <c r="L12" s="9">
         <v>8201</v>
       </c>
-      <c r="M12" s="9"/>
+      <c r="M12" s="9">
+        <v>7685</v>
+      </c>
       <c r="N12" s="10"/>
       <c r="P12" s="13" t="s">
         <v>43</v>
@@ -16117,7 +16516,9 @@
       <c r="S12" s="9">
         <v>12026</v>
       </c>
-      <c r="T12" s="9"/>
+      <c r="T12" s="9">
+        <v>11509</v>
+      </c>
       <c r="U12" s="10"/>
     </row>
     <row r="13" spans="2:21">
@@ -16133,7 +16534,9 @@
       <c r="E13" s="9">
         <v>510</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="9">
+        <v>510</v>
+      </c>
       <c r="G13" s="10"/>
       <c r="I13" s="13" t="s">
         <v>46</v>
@@ -16147,7 +16550,9 @@
       <c r="L13" s="9">
         <v>1160</v>
       </c>
-      <c r="M13" s="9"/>
+      <c r="M13" s="9">
+        <v>1180</v>
+      </c>
       <c r="N13" s="10"/>
       <c r="P13" s="13" t="s">
         <v>46</v>
@@ -16161,7 +16566,9 @@
       <c r="S13" s="9">
         <v>1690</v>
       </c>
-      <c r="T13" s="9"/>
+      <c r="T13" s="9">
+        <v>1720</v>
+      </c>
       <c r="U13" s="10"/>
     </row>
     <row r="14" spans="2:21">
@@ -16177,7 +16584,9 @@
       <c r="E14" s="9">
         <v>249.88</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="9">
+        <v>249.888</v>
+      </c>
       <c r="G14" s="10"/>
       <c r="I14" s="13" t="s">
         <v>49</v>
@@ -16191,7 +16600,9 @@
       <c r="L14" s="9">
         <v>967.86</v>
       </c>
-      <c r="M14" s="9"/>
+      <c r="M14" s="9">
+        <v>967.86</v>
+      </c>
       <c r="N14" s="10"/>
       <c r="P14" s="13" t="s">
         <v>49</v>
@@ -16205,7 +16616,9 @@
       <c r="S14" s="9">
         <v>1528.5</v>
       </c>
-      <c r="T14" s="9"/>
+      <c r="T14" s="9">
+        <v>1528.5</v>
+      </c>
       <c r="U14" s="10"/>
     </row>
     <row r="15" spans="2:21">
@@ -16221,7 +16634,9 @@
       <c r="E15" s="9">
         <v>1275.54</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="9">
+        <v>1275.54</v>
+      </c>
       <c r="G15" s="10"/>
       <c r="I15" s="13" t="s">
         <v>52</v>
@@ -16235,7 +16650,9 @@
       <c r="L15" s="9">
         <v>2597.19</v>
       </c>
-      <c r="M15" s="9"/>
+      <c r="M15" s="9">
+        <v>2668.1</v>
+      </c>
       <c r="N15" s="10"/>
       <c r="P15" s="13" t="s">
         <v>52</v>
@@ -16249,7 +16666,9 @@
       <c r="S15" s="9">
         <v>4425.87</v>
       </c>
-      <c r="T15" s="9"/>
+      <c r="T15" s="9">
+        <v>4382.3</v>
+      </c>
       <c r="U15" s="10"/>
     </row>
     <row r="16" spans="2:21">
@@ -16265,7 +16684,9 @@
       <c r="E16" s="9">
         <v>1566.24</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="9">
+        <v>1400.38</v>
+      </c>
       <c r="G16" s="10"/>
       <c r="I16" s="13" t="s">
         <v>55</v>
@@ -16279,7 +16700,9 @@
       <c r="L16" s="9">
         <v>3421.42</v>
       </c>
-      <c r="M16" s="9"/>
+      <c r="M16" s="9">
+        <v>3474.26</v>
+      </c>
       <c r="N16" s="10"/>
       <c r="P16" s="13" t="s">
         <v>55</v>
@@ -16293,7 +16716,9 @@
       <c r="S16" s="9">
         <v>5145.74</v>
       </c>
-      <c r="T16" s="9"/>
+      <c r="T16" s="9">
+        <v>4981.58</v>
+      </c>
       <c r="U16" s="10"/>
     </row>
     <row r="17" spans="2:21">
@@ -16309,7 +16734,9 @@
       <c r="E17" s="9">
         <v>114</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="9">
+        <v>114</v>
+      </c>
       <c r="G17" s="10"/>
       <c r="I17" s="13" t="s">
         <v>58</v>
@@ -16323,7 +16750,9 @@
       <c r="L17" s="9">
         <v>261</v>
       </c>
-      <c r="M17" s="9"/>
+      <c r="M17" s="9">
+        <v>252</v>
+      </c>
       <c r="N17" s="10"/>
       <c r="P17" s="13" t="s">
         <v>58</v>
@@ -16337,7 +16766,9 @@
       <c r="S17" s="9">
         <v>431</v>
       </c>
-      <c r="T17" s="9"/>
+      <c r="T17" s="9">
+        <v>404</v>
+      </c>
       <c r="U17" s="10"/>
     </row>
     <row r="18" spans="2:21">
@@ -16353,7 +16784,9 @@
       <c r="E18" s="9">
         <v>69.08</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="9">
+        <v>69.08</v>
+      </c>
       <c r="G18" s="10"/>
       <c r="I18" s="13" t="s">
         <v>61</v>
@@ -16367,7 +16800,9 @@
       <c r="L18" s="9">
         <v>173.53</v>
       </c>
-      <c r="M18" s="9"/>
+      <c r="M18" s="9">
+        <v>158.57</v>
+      </c>
       <c r="N18" s="10"/>
       <c r="P18" s="13" t="s">
         <v>61</v>
@@ -16381,7 +16816,9 @@
       <c r="S18" s="9">
         <v>312.87</v>
       </c>
-      <c r="T18" s="9"/>
+      <c r="T18" s="9">
+        <v>308.34</v>
+      </c>
       <c r="U18" s="10"/>
     </row>
     <row r="19" spans="2:21">
@@ -16397,7 +16834,9 @@
       <c r="E19" s="9">
         <v>103.23</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="9">
+        <v>103.67</v>
+      </c>
       <c r="G19" s="10"/>
       <c r="I19" s="13" t="s">
         <v>66</v>
@@ -16411,7 +16850,9 @@
       <c r="L19" s="9">
         <v>226.74</v>
       </c>
-      <c r="M19" s="9"/>
+      <c r="M19" s="9">
+        <v>292.57</v>
+      </c>
       <c r="N19" s="10"/>
       <c r="P19" s="13" t="s">
         <v>66</v>
@@ -16425,7 +16866,9 @@
       <c r="S19" s="9">
         <v>368.49</v>
       </c>
-      <c r="T19" s="9"/>
+      <c r="T19" s="9">
+        <v>360.15</v>
+      </c>
       <c r="U19" s="10"/>
     </row>
     <row r="20" spans="2:21">
@@ -16441,7 +16884,9 @@
       <c r="E20" s="9">
         <v>119.08</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="9">
+        <v>119.37</v>
+      </c>
       <c r="G20" s="10"/>
       <c r="I20" s="13" t="s">
         <v>69</v>
@@ -16455,7 +16900,9 @@
       <c r="L20" s="9">
         <v>282.53</v>
       </c>
-      <c r="M20" s="9"/>
+      <c r="M20" s="9">
+        <v>284.66</v>
+      </c>
       <c r="N20" s="10"/>
       <c r="P20" s="13" t="s">
         <v>69</v>
@@ -16469,7 +16916,9 @@
       <c r="S20" s="9">
         <v>434.91</v>
       </c>
-      <c r="T20" s="9"/>
+      <c r="T20" s="9">
+        <v>437.53</v>
+      </c>
       <c r="U20" s="10"/>
     </row>
     <row r="21" spans="2:21">
@@ -16485,7 +16934,9 @@
       <c r="E21" s="9">
         <v>145</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="9">
+        <v>148</v>
+      </c>
       <c r="G21" s="10"/>
       <c r="I21" s="13" t="s">
         <v>72</v>
@@ -16499,7 +16950,9 @@
       <c r="L21" s="9">
         <v>361</v>
       </c>
-      <c r="M21" s="9"/>
+      <c r="M21" s="9">
+        <v>361</v>
+      </c>
       <c r="N21" s="10"/>
       <c r="P21" s="13" t="s">
         <v>72</v>
@@ -16513,7 +16966,9 @@
       <c r="S21" s="9">
         <v>507</v>
       </c>
-      <c r="T21" s="9"/>
+      <c r="T21" s="9">
+        <v>444</v>
+      </c>
       <c r="U21" s="10"/>
     </row>
     <row r="22" spans="2:21">
@@ -16529,7 +16984,9 @@
       <c r="E22" s="9">
         <v>575.69</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="9">
+        <v>585.71</v>
+      </c>
       <c r="G22" s="10"/>
       <c r="I22" s="13" t="s">
         <v>75</v>
@@ -16543,7 +17000,9 @@
       <c r="L22" s="9">
         <v>1228.27</v>
       </c>
-      <c r="M22" s="9"/>
+      <c r="M22" s="9">
+        <v>1226.4</v>
+      </c>
       <c r="N22" s="10"/>
       <c r="P22" s="13" t="s">
         <v>75</v>
@@ -16557,7 +17016,9 @@
       <c r="S22" s="9">
         <v>1840.52</v>
       </c>
-      <c r="T22" s="9"/>
+      <c r="T22" s="9">
+        <v>1843.88</v>
+      </c>
       <c r="U22" s="10"/>
     </row>
     <row r="23" spans="2:21">
@@ -16573,7 +17034,9 @@
       <c r="E23" s="9">
         <v>154</v>
       </c>
-      <c r="F23" s="9"/>
+      <c r="F23" s="9">
+        <v>154</v>
+      </c>
       <c r="G23" s="10"/>
       <c r="I23" s="13" t="s">
         <v>78</v>
@@ -16587,7 +17050,9 @@
       <c r="L23" s="9">
         <v>426</v>
       </c>
-      <c r="M23" s="9"/>
+      <c r="M23" s="9">
+        <v>426</v>
+      </c>
       <c r="N23" s="10"/>
       <c r="P23" s="13" t="s">
         <v>78</v>
@@ -16601,7 +17066,9 @@
       <c r="S23" s="9">
         <v>718</v>
       </c>
-      <c r="T23" s="9"/>
+      <c r="T23" s="9">
+        <v>718</v>
+      </c>
       <c r="U23" s="10"/>
     </row>
     <row r="24" spans="2:21">
@@ -16617,7 +17084,9 @@
       <c r="E24" s="9">
         <v>181</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="9">
+        <v>181</v>
+      </c>
       <c r="G24" s="10"/>
       <c r="I24" s="13" t="s">
         <v>81</v>
@@ -16631,7 +17100,9 @@
       <c r="L24" s="9">
         <v>456</v>
       </c>
-      <c r="M24" s="9"/>
+      <c r="M24" s="9">
+        <v>456</v>
+      </c>
       <c r="N24" s="10"/>
       <c r="P24" s="13" t="s">
         <v>81</v>
@@ -16645,7 +17116,9 @@
       <c r="S24" s="9">
         <v>1271</v>
       </c>
-      <c r="T24" s="9"/>
+      <c r="T24" s="9">
+        <v>1196</v>
+      </c>
       <c r="U24" s="10"/>
     </row>
     <row r="25" spans="2:21">
@@ -16661,7 +17134,9 @@
       <c r="E25" s="9">
         <v>162</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="9">
+        <v>162</v>
+      </c>
       <c r="G25" s="10"/>
       <c r="I25" s="13" t="s">
         <v>84</v>
@@ -16675,7 +17150,9 @@
       <c r="L25" s="9">
         <v>402</v>
       </c>
-      <c r="M25" s="9"/>
+      <c r="M25" s="9">
+        <v>402</v>
+      </c>
       <c r="N25" s="10"/>
       <c r="P25" s="13" t="s">
         <v>84</v>
@@ -16689,7 +17166,9 @@
       <c r="S25" s="9">
         <v>718</v>
       </c>
-      <c r="T25" s="9"/>
+      <c r="T25" s="9">
+        <v>718</v>
+      </c>
       <c r="U25" s="10"/>
     </row>
     <row r="26" spans="2:21">
@@ -16705,7 +17184,9 @@
       <c r="E26" s="9">
         <v>509</v>
       </c>
-      <c r="F26" s="9"/>
+      <c r="F26" s="9">
+        <v>509</v>
+      </c>
       <c r="G26" s="10"/>
       <c r="I26" s="13" t="s">
         <v>20</v>
@@ -16719,7 +17200,9 @@
       <c r="L26" s="9">
         <v>1548</v>
       </c>
-      <c r="M26" s="9"/>
+      <c r="M26" s="9">
+        <v>1548</v>
+      </c>
       <c r="N26" s="10"/>
       <c r="P26" s="3" t="s">
         <v>20</v>
@@ -16733,7 +17216,9 @@
       <c r="S26" s="9">
         <v>2887</v>
       </c>
-      <c r="T26" s="9"/>
+      <c r="T26" s="9">
+        <v>2880</v>
+      </c>
       <c r="U26" s="10"/>
     </row>
     <row r="27" spans="2:21">
@@ -16747,7 +17232,9 @@
       <c r="E27" s="9">
         <v>9090.91</v>
       </c>
-      <c r="F27" s="9"/>
+      <c r="F27" s="9">
+        <v>9090.91</v>
+      </c>
       <c r="G27" s="10"/>
       <c r="I27" s="13" t="s">
         <v>23</v>
@@ -16761,7 +17248,9 @@
       <c r="L27" s="9">
         <v>21609.52</v>
       </c>
-      <c r="M27" s="9"/>
+      <c r="M27" s="9">
+        <v>19866.06</v>
+      </c>
       <c r="N27" s="10"/>
       <c r="P27" s="3" t="s">
         <v>23</v>
@@ -16775,7 +17264,9 @@
       <c r="S27" s="9">
         <v>40913.06</v>
       </c>
-      <c r="T27" s="9"/>
+      <c r="T27" s="9">
+        <v>39635.44</v>
+      </c>
       <c r="U27" s="10"/>
     </row>
     <row r="28" spans="2:21">
@@ -16789,7 +17280,9 @@
       <c r="E28" s="9">
         <v>1590</v>
       </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="9">
+        <v>1593</v>
+      </c>
       <c r="G28" s="10"/>
       <c r="I28" s="13" t="s">
         <v>26</v>
@@ -16803,7 +17296,9 @@
       <c r="L28" s="9">
         <v>3199</v>
       </c>
-      <c r="M28" s="9"/>
+      <c r="M28" s="9">
+        <v>3201</v>
+      </c>
       <c r="N28" s="10"/>
       <c r="P28" s="3" t="s">
         <v>26</v>
@@ -16817,7 +17312,9 @@
       <c r="S28" s="9">
         <v>4803</v>
       </c>
-      <c r="T28" s="9"/>
+      <c r="T28" s="9">
+        <v>4815</v>
+      </c>
       <c r="U28" s="10"/>
     </row>
     <row r="29" spans="2:21">
@@ -16993,7 +17490,9 @@
       <c r="E34" s="9">
         <v>3454</v>
       </c>
-      <c r="F34" s="9"/>
+      <c r="F34" s="9">
+        <v>3454</v>
+      </c>
       <c r="G34" s="10"/>
       <c r="I34" s="13" t="s">
         <v>44</v>
@@ -17007,7 +17506,9 @@
       <c r="L34" s="9">
         <v>6166</v>
       </c>
-      <c r="M34" s="9"/>
+      <c r="M34" s="9">
+        <v>6030</v>
+      </c>
       <c r="N34" s="10"/>
       <c r="P34" s="3" t="s">
         <v>44</v>
@@ -17021,7 +17522,9 @@
       <c r="S34" s="9">
         <v>8004</v>
       </c>
-      <c r="T34" s="9"/>
+      <c r="T34" s="9">
+        <v>8258</v>
+      </c>
       <c r="U34" s="10"/>
     </row>
     <row r="35" spans="2:21">
@@ -17037,7 +17540,9 @@
       <c r="E35" s="9">
         <v>5147.7</v>
       </c>
-      <c r="F35" s="9"/>
+      <c r="F35" s="9">
+        <v>5147.7</v>
+      </c>
       <c r="G35" s="10"/>
       <c r="I35" s="13" t="s">
         <v>47</v>
@@ -17051,7 +17556,9 @@
       <c r="L35" s="9">
         <v>10419.42</v>
       </c>
-      <c r="M35" s="9"/>
+      <c r="M35" s="9">
+        <v>10392.04</v>
+      </c>
       <c r="N35" s="10"/>
       <c r="P35" s="3" t="s">
         <v>47</v>
@@ -17065,7 +17572,9 @@
       <c r="S35" s="9">
         <v>16169.86</v>
       </c>
-      <c r="T35" s="9"/>
+      <c r="T35" s="9">
+        <v>15829.78</v>
+      </c>
       <c r="U35" s="10"/>
     </row>
     <row r="36" spans="2:21">
@@ -17081,7 +17590,9 @@
       <c r="E36" s="9">
         <v>6211.1</v>
       </c>
-      <c r="F36" s="9"/>
+      <c r="F36" s="9">
+        <v>6211.1</v>
+      </c>
       <c r="G36" s="10"/>
       <c r="I36" s="13" t="s">
         <v>50</v>
@@ -17095,7 +17606,9 @@
       <c r="L36" s="9">
         <v>14555.29</v>
       </c>
-      <c r="M36" s="9"/>
+      <c r="M36" s="9">
+        <v>13859.2</v>
+      </c>
       <c r="N36" s="10"/>
       <c r="P36" s="3" t="s">
         <v>50</v>
@@ -17109,7 +17622,9 @@
       <c r="S36" s="9">
         <v>21434.67</v>
       </c>
-      <c r="T36" s="9"/>
+      <c r="T36" s="9">
+        <v>20964.76</v>
+      </c>
       <c r="U36" s="10"/>
     </row>
     <row r="37" spans="2:21">
@@ -17125,7 +17640,9 @@
       <c r="E37" s="9">
         <v>8203.64</v>
       </c>
-      <c r="F37" s="9"/>
+      <c r="F37" s="9">
+        <v>6735.71</v>
+      </c>
       <c r="G37" s="10"/>
       <c r="I37" s="13" t="s">
         <v>53</v>
@@ -17139,7 +17656,9 @@
       <c r="L37" s="9">
         <v>15913.5</v>
       </c>
-      <c r="M37" s="9"/>
+      <c r="M37" s="9">
+        <v>15521.44</v>
+      </c>
       <c r="N37" s="10"/>
       <c r="P37" s="3" t="s">
         <v>53</v>
@@ -17153,7 +17672,9 @@
       <c r="S37" s="9">
         <v>23904.62</v>
       </c>
-      <c r="T37" s="9"/>
+      <c r="T37" s="9">
+        <v>24102.88</v>
+      </c>
       <c r="U37" s="10"/>
     </row>
     <row r="38" spans="2:21">
@@ -17169,7 +17690,9 @@
       <c r="E38" s="9">
         <v>5435.63</v>
       </c>
-      <c r="F38" s="9"/>
+      <c r="F38" s="9">
+        <v>5352.24</v>
+      </c>
       <c r="G38" s="10"/>
       <c r="I38" s="13" t="s">
         <v>56</v>
@@ -17183,7 +17706,9 @@
       <c r="L38" s="9">
         <v>12178.68</v>
       </c>
-      <c r="M38" s="9"/>
+      <c r="M38" s="9">
+        <v>11812.97</v>
+      </c>
       <c r="N38" s="10"/>
       <c r="P38" s="3" t="s">
         <v>56</v>
@@ -17197,7 +17722,9 @@
       <c r="S38" s="9">
         <v>18331.68</v>
       </c>
-      <c r="T38" s="9"/>
+      <c r="T38" s="9">
+        <v>17123.9</v>
+      </c>
       <c r="U38" s="10"/>
     </row>
     <row r="39" spans="2:21">
@@ -17213,7 +17740,9 @@
       <c r="E39" s="9">
         <v>5134.25</v>
       </c>
-      <c r="F39" s="9"/>
+      <c r="F39" s="9">
+        <v>5132.4</v>
+      </c>
       <c r="G39" s="10"/>
       <c r="I39" s="13" t="s">
         <v>59</v>
@@ -17227,7 +17756,9 @@
       <c r="L39" s="9">
         <v>13393.48</v>
       </c>
-      <c r="M39" s="9"/>
+      <c r="M39" s="9">
+        <v>13391.56</v>
+      </c>
       <c r="N39" s="10"/>
       <c r="P39" s="3" t="s">
         <v>59</v>
@@ -17241,7 +17772,9 @@
       <c r="S39" s="9">
         <v>20217.2</v>
       </c>
-      <c r="T39" s="9"/>
+      <c r="T39" s="9">
+        <v>20290.41</v>
+      </c>
       <c r="U39" s="10"/>
     </row>
     <row r="40" spans="2:21">
@@ -17257,7 +17790,9 @@
       <c r="E40" s="9">
         <v>6530.42</v>
       </c>
-      <c r="F40" s="9"/>
+      <c r="F40" s="9">
+        <v>6503.68</v>
+      </c>
       <c r="G40" s="10"/>
       <c r="I40" s="13" t="s">
         <v>62</v>
@@ -17271,7 +17806,9 @@
       <c r="L40" s="9">
         <v>15898.3</v>
       </c>
-      <c r="M40" s="9"/>
+      <c r="M40" s="9">
+        <v>16248.17</v>
+      </c>
       <c r="N40" s="10"/>
       <c r="P40" s="3" t="s">
         <v>62</v>
@@ -17285,7 +17822,9 @@
       <c r="S40" s="9">
         <v>24153.98</v>
       </c>
-      <c r="T40" s="9"/>
+      <c r="T40" s="9">
+        <v>24450.23</v>
+      </c>
       <c r="U40" s="10"/>
     </row>
     <row r="41" spans="2:21">
@@ -17301,7 +17840,9 @@
       <c r="E41" s="9">
         <v>4625.3</v>
       </c>
-      <c r="F41" s="9"/>
+      <c r="F41" s="9">
+        <v>4625.3</v>
+      </c>
       <c r="G41" s="10"/>
       <c r="I41" s="13" t="s">
         <v>67</v>
@@ -17315,7 +17856,9 @@
       <c r="L41" s="9">
         <v>11809.74</v>
       </c>
-      <c r="M41" s="9"/>
+      <c r="M41" s="9">
+        <v>10837.48</v>
+      </c>
       <c r="N41" s="10"/>
       <c r="P41" s="3" t="s">
         <v>67</v>
@@ -17329,7 +17872,9 @@
       <c r="S41" s="9">
         <v>16002.74</v>
       </c>
-      <c r="T41" s="9"/>
+      <c r="T41" s="9">
+        <v>16030.37</v>
+      </c>
       <c r="U41" s="10"/>
     </row>
     <row r="42" spans="2:21">
@@ -17345,7 +17890,9 @@
       <c r="E42" s="9">
         <v>5005.47</v>
       </c>
-      <c r="F42" s="9"/>
+      <c r="F42" s="9">
+        <v>5084.95</v>
+      </c>
       <c r="G42" s="10"/>
       <c r="I42" s="13" t="s">
         <v>70</v>
@@ -17359,7 +17906,9 @@
       <c r="L42" s="9">
         <v>10587.26</v>
       </c>
-      <c r="M42" s="9"/>
+      <c r="M42" s="9">
+        <v>10587.26</v>
+      </c>
       <c r="N42" s="10"/>
       <c r="P42" s="3" t="s">
         <v>70</v>
@@ -17373,7 +17922,9 @@
       <c r="S42" s="9">
         <v>15643.33</v>
       </c>
-      <c r="T42" s="9"/>
+      <c r="T42" s="9">
+        <v>16187.74</v>
+      </c>
       <c r="U42" s="10"/>
     </row>
     <row r="43" spans="2:21">
@@ -17389,7 +17940,9 @@
       <c r="E43" s="9">
         <v>3470.35</v>
       </c>
-      <c r="F43" s="9"/>
+      <c r="F43" s="9">
+        <v>3470.35</v>
+      </c>
       <c r="G43" s="10"/>
       <c r="I43" s="13" t="s">
         <v>73</v>
@@ -17403,7 +17956,9 @@
       <c r="L43" s="9">
         <v>9401.94</v>
       </c>
-      <c r="M43" s="9"/>
+      <c r="M43" s="9">
+        <v>9215.14</v>
+      </c>
       <c r="N43" s="10"/>
       <c r="P43" s="3" t="s">
         <v>73</v>
@@ -17417,7 +17972,9 @@
       <c r="S43" s="9">
         <v>16258.33</v>
       </c>
-      <c r="T43" s="9"/>
+      <c r="T43" s="9">
+        <v>16439.86</v>
+      </c>
       <c r="U43" s="10"/>
     </row>
     <row r="44" spans="2:21">
@@ -17433,7 +17990,9 @@
       <c r="E44" s="9">
         <v>1853.13</v>
       </c>
-      <c r="F44" s="9"/>
+      <c r="F44" s="9">
+        <v>1853.13</v>
+      </c>
       <c r="G44" s="10"/>
       <c r="I44" s="13" t="s">
         <v>76</v>
@@ -17447,7 +18006,9 @@
       <c r="L44" s="9">
         <v>5234.72</v>
       </c>
-      <c r="M44" s="9"/>
+      <c r="M44" s="9">
+        <v>5055.67</v>
+      </c>
       <c r="N44" s="10"/>
       <c r="P44" s="3" t="s">
         <v>76</v>
@@ -17461,7 +18022,9 @@
       <c r="S44" s="9">
         <v>8412.64</v>
       </c>
-      <c r="T44" s="9"/>
+      <c r="T44" s="9">
+        <v>8427.48</v>
+      </c>
       <c r="U44" s="10"/>
     </row>
     <row r="45" spans="2:21">
@@ -17477,7 +18040,9 @@
       <c r="E45" s="9">
         <v>8406.05</v>
       </c>
-      <c r="F45" s="9"/>
+      <c r="F45" s="9">
+        <v>8081.43</v>
+      </c>
       <c r="G45" s="10"/>
       <c r="I45" s="13" t="s">
         <v>79</v>
@@ -17491,7 +18056,9 @@
       <c r="L45" s="9">
         <v>20839.81</v>
       </c>
-      <c r="M45" s="9"/>
+      <c r="M45" s="9">
+        <v>19911.69</v>
+      </c>
       <c r="N45" s="10"/>
       <c r="P45" s="3" t="s">
         <v>79</v>
@@ -17505,7 +18072,9 @@
       <c r="S45" s="9">
         <v>30571.43</v>
       </c>
-      <c r="T45" s="9"/>
+      <c r="T45" s="9">
+        <v>30301.29</v>
+      </c>
       <c r="U45" s="10"/>
     </row>
     <row r="46" spans="2:21">
@@ -17521,7 +18090,9 @@
       <c r="E46" s="9">
         <v>14968.31</v>
       </c>
-      <c r="F46" s="9"/>
+      <c r="F46" s="9">
+        <v>15023.62</v>
+      </c>
       <c r="G46" s="10"/>
       <c r="I46" s="13" t="s">
         <v>82</v>
@@ -17557,7 +18128,9 @@
       <c r="E47" s="9">
         <v>828</v>
       </c>
-      <c r="F47" s="9"/>
+      <c r="F47" s="9">
+        <v>809</v>
+      </c>
       <c r="G47" s="10"/>
       <c r="I47" s="13" t="s">
         <v>85</v>
@@ -17571,7 +18144,9 @@
       <c r="L47" s="9">
         <v>1505</v>
       </c>
-      <c r="M47" s="9"/>
+      <c r="M47" s="9">
+        <v>1434</v>
+      </c>
       <c r="N47" s="10"/>
       <c r="P47" s="3" t="s">
         <v>85</v>
@@ -17585,7 +18160,9 @@
       <c r="S47" s="9">
         <v>2330</v>
       </c>
-      <c r="T47" s="9"/>
+      <c r="T47" s="9">
+        <v>2212</v>
+      </c>
       <c r="U47" s="10"/>
     </row>
     <row r="48" spans="2:21">
@@ -17601,7 +18178,9 @@
       <c r="E48" s="9">
         <v>23774.86</v>
       </c>
-      <c r="F48" s="9"/>
+      <c r="F48" s="9">
+        <v>23774.86</v>
+      </c>
       <c r="G48" s="10"/>
       <c r="I48" s="13" t="s">
         <v>21</v>
@@ -17615,7 +18194,9 @@
       <c r="L48" s="9">
         <v>50744.31</v>
       </c>
-      <c r="M48" s="9"/>
+      <c r="M48" s="9">
+        <v>48864.85</v>
+      </c>
       <c r="N48" s="10"/>
       <c r="P48" s="3" t="s">
         <v>21</v>
@@ -17629,7 +18210,9 @@
       <c r="S48" s="9">
         <v>74958.07</v>
       </c>
-      <c r="T48" s="9"/>
+      <c r="T48" s="9">
+        <v>69578.7</v>
+      </c>
       <c r="U48" s="10"/>
     </row>
     <row r="49" spans="2:21">
@@ -17645,7 +18228,9 @@
       <c r="E49" s="9">
         <v>6938.06</v>
       </c>
-      <c r="F49" s="9"/>
+      <c r="F49" s="9">
+        <v>6938.06</v>
+      </c>
       <c r="G49" s="10"/>
       <c r="I49" s="13" t="s">
         <v>24</v>
@@ -17659,7 +18244,9 @@
       <c r="L49" s="9">
         <v>14221.33</v>
       </c>
-      <c r="M49" s="9"/>
+      <c r="M49" s="9">
+        <v>14236.2</v>
+      </c>
       <c r="N49" s="10"/>
       <c r="P49" s="3" t="s">
         <v>24</v>
@@ -17673,7 +18260,9 @@
       <c r="S49" s="9">
         <v>29207.41</v>
       </c>
-      <c r="T49" s="9"/>
+      <c r="T49" s="9">
+        <v>29207.41</v>
+      </c>
       <c r="U49" s="10"/>
     </row>
     <row r="50" spans="2:21">
@@ -17689,7 +18278,9 @@
       <c r="E50" s="9">
         <v>10213</v>
       </c>
-      <c r="F50" s="9"/>
+      <c r="F50" s="9">
+        <v>10213</v>
+      </c>
       <c r="G50" s="10"/>
       <c r="I50" s="13" t="s">
         <v>27</v>
@@ -17703,7 +18294,9 @@
       <c r="L50" s="9">
         <v>22900.39</v>
       </c>
-      <c r="M50" s="9"/>
+      <c r="M50" s="9">
+        <v>22940.02</v>
+      </c>
       <c r="N50" s="10"/>
       <c r="P50" s="3" t="s">
         <v>27</v>
@@ -17717,7 +18310,9 @@
       <c r="S50" s="9">
         <v>39040.23</v>
       </c>
-      <c r="T50" s="9"/>
+      <c r="T50" s="9">
+        <v>38668.15</v>
+      </c>
       <c r="U50" s="10"/>
     </row>
     <row r="51" spans="2:21">
@@ -17733,7 +18328,9 @@
       <c r="E51" s="9">
         <v>22807.35</v>
       </c>
-      <c r="F51" s="9"/>
+      <c r="F51" s="9">
+        <v>21090.81</v>
+      </c>
       <c r="G51" s="10"/>
       <c r="I51" s="13" t="s">
         <v>30</v>
@@ -17747,7 +18344,9 @@
       <c r="L51" s="9">
         <v>52630.18</v>
       </c>
-      <c r="M51" s="9"/>
+      <c r="M51" s="9">
+        <v>52366.9</v>
+      </c>
       <c r="N51" s="10"/>
       <c r="P51" s="3" t="s">
         <v>30</v>
@@ -17761,7 +18360,9 @@
       <c r="S51" s="9">
         <v>75165.33</v>
       </c>
-      <c r="T51" s="9"/>
+      <c r="T51" s="9">
+        <v>72681.7</v>
+      </c>
       <c r="U51" s="10"/>
     </row>
     <row r="52" spans="2:21">
@@ -17777,7 +18378,9 @@
       <c r="E52" s="9">
         <v>11683.79</v>
       </c>
-      <c r="F52" s="9"/>
+      <c r="F52" s="9">
+        <v>11683.79</v>
+      </c>
       <c r="G52" s="10"/>
       <c r="I52" s="13" t="s">
         <v>33</v>
@@ -17791,7 +18394,9 @@
       <c r="L52" s="9">
         <v>26533.4</v>
       </c>
-      <c r="M52" s="9"/>
+      <c r="M52" s="9">
+        <v>26582.43</v>
+      </c>
       <c r="N52" s="10"/>
       <c r="P52" s="3" t="s">
         <v>33</v>
@@ -17805,7 +18410,9 @@
       <c r="S52" s="9">
         <v>41612.52</v>
       </c>
-      <c r="T52" s="9"/>
+      <c r="T52" s="9">
+        <v>41755.64</v>
+      </c>
       <c r="U52" s="10"/>
     </row>
     <row r="53" spans="2:21">
@@ -17821,7 +18428,9 @@
       <c r="E53" s="9">
         <v>14514.92</v>
       </c>
-      <c r="F53" s="9"/>
+      <c r="F53" s="9">
+        <v>14453.64</v>
+      </c>
       <c r="G53" s="10"/>
       <c r="I53" s="13" t="s">
         <v>36</v>
@@ -17835,7 +18444,9 @@
       <c r="L53" s="9">
         <v>33023.75</v>
       </c>
-      <c r="M53" s="9"/>
+      <c r="M53" s="9">
+        <v>32889.71</v>
+      </c>
       <c r="N53" s="10"/>
       <c r="P53" s="3" t="s">
         <v>36</v>
@@ -17849,7 +18460,9 @@
       <c r="S53" s="9">
         <v>48003.91</v>
       </c>
-      <c r="T53" s="9"/>
+      <c r="T53" s="9">
+        <v>48073.99</v>
+      </c>
       <c r="U53" s="10"/>
     </row>
     <row r="54" spans="2:21">
@@ -17865,7 +18478,9 @@
       <c r="E54" s="9">
         <v>23797.96</v>
       </c>
-      <c r="F54" s="9"/>
+      <c r="F54" s="9">
+        <v>23797.96</v>
+      </c>
       <c r="G54" s="10"/>
       <c r="I54" s="13" t="s">
         <v>39</v>
@@ -17879,7 +18494,9 @@
       <c r="L54" s="9">
         <v>45053.7</v>
       </c>
-      <c r="M54" s="9"/>
+      <c r="M54" s="9">
+        <v>45615.73</v>
+      </c>
       <c r="N54" s="10"/>
       <c r="P54" s="3" t="s">
         <v>39</v>
@@ -17893,7 +18510,9 @@
       <c r="S54" s="9">
         <v>66996.81</v>
       </c>
-      <c r="T54" s="9"/>
+      <c r="T54" s="9">
+        <v>67858.17</v>
+      </c>
       <c r="U54" s="10"/>
     </row>
     <row r="55" spans="2:21">
@@ -17909,7 +18528,9 @@
       <c r="E55" s="9">
         <v>7800</v>
       </c>
-      <c r="F55" s="9"/>
+      <c r="F55" s="9">
+        <v>7800</v>
+      </c>
       <c r="G55" s="10"/>
       <c r="I55" s="13" t="s">
         <v>42</v>
@@ -17923,7 +18544,9 @@
       <c r="L55" s="9">
         <v>25681.09</v>
       </c>
-      <c r="M55" s="9"/>
+      <c r="M55" s="9">
+        <v>24375.1</v>
+      </c>
       <c r="N55" s="10"/>
       <c r="P55" s="3" t="s">
         <v>42</v>
@@ -17937,7 +18560,9 @@
       <c r="S55" s="9">
         <v>33911.27</v>
       </c>
-      <c r="T55" s="9"/>
+      <c r="T55" s="9">
+        <v>32757.94</v>
+      </c>
       <c r="U55" s="10"/>
     </row>
     <row r="56" spans="2:21">
@@ -17953,7 +18578,9 @@
       <c r="E56" s="9">
         <v>12243.81</v>
       </c>
-      <c r="F56" s="9"/>
+      <c r="F56" s="9">
+        <v>10706.39</v>
+      </c>
       <c r="G56" s="10"/>
       <c r="I56" s="13" t="s">
         <v>45</v>
@@ -17967,7 +18594,9 @@
       <c r="L56" s="9">
         <v>25762.61</v>
       </c>
-      <c r="M56" s="9"/>
+      <c r="M56" s="9">
+        <v>25536.99</v>
+      </c>
       <c r="N56" s="10"/>
       <c r="P56" s="3" t="s">
         <v>45</v>
@@ -17981,7 +18610,9 @@
       <c r="S56" s="9">
         <v>37232.98</v>
       </c>
-      <c r="T56" s="9"/>
+      <c r="T56" s="9">
+        <v>38040.4</v>
+      </c>
       <c r="U56" s="10"/>
     </row>
     <row r="57" spans="2:21">
@@ -17997,7 +18628,9 @@
       <c r="E57" s="9">
         <v>23528.55</v>
       </c>
-      <c r="F57" s="9"/>
+      <c r="F57" s="9">
+        <v>23799.84</v>
+      </c>
       <c r="G57" s="10"/>
       <c r="I57" s="13" t="s">
         <v>48</v>
@@ -18011,7 +18644,9 @@
       <c r="L57" s="9">
         <v>41769.18</v>
       </c>
-      <c r="M57" s="9"/>
+      <c r="M57" s="9">
+        <v>42206.22</v>
+      </c>
       <c r="N57" s="10"/>
       <c r="P57" s="3" t="s">
         <v>48</v>
@@ -18025,7 +18660,9 @@
       <c r="S57" s="9">
         <v>69827.25</v>
       </c>
-      <c r="T57" s="9"/>
+      <c r="T57" s="9">
+        <v>68450</v>
+      </c>
       <c r="U57" s="10"/>
     </row>
     <row r="58" spans="2:21">
@@ -18041,7 +18678,9 @@
       <c r="E58" s="9">
         <v>73426.02</v>
       </c>
-      <c r="F58" s="9"/>
+      <c r="F58" s="9">
+        <v>74072.3</v>
+      </c>
       <c r="G58" s="10"/>
       <c r="I58" s="13" t="s">
         <v>51</v>
@@ -18077,7 +18716,9 @@
       <c r="E59" s="9">
         <v>310.75</v>
       </c>
-      <c r="F59" s="9"/>
+      <c r="F59" s="9">
+        <v>310.75</v>
+      </c>
       <c r="G59" s="10"/>
       <c r="I59" s="13" t="s">
         <v>54</v>
@@ -18091,7 +18732,9 @@
       <c r="L59" s="9">
         <v>631.96</v>
       </c>
-      <c r="M59" s="9"/>
+      <c r="M59" s="9">
+        <v>625.72</v>
+      </c>
       <c r="N59" s="10"/>
       <c r="P59" s="3" t="s">
         <v>54</v>
@@ -18105,7 +18748,9 @@
       <c r="S59" s="9">
         <v>967.17</v>
       </c>
-      <c r="T59" s="9"/>
+      <c r="T59" s="9">
+        <v>971.93</v>
+      </c>
       <c r="U59" s="10"/>
     </row>
     <row r="60" spans="2:21">
@@ -18121,7 +18766,9 @@
       <c r="E60" s="9">
         <v>565.93</v>
       </c>
-      <c r="F60" s="9"/>
+      <c r="F60" s="9">
+        <v>585.32</v>
+      </c>
       <c r="G60" s="10"/>
       <c r="I60" s="13" t="s">
         <v>57</v>
@@ -18135,7 +18782,9 @@
       <c r="L60" s="9">
         <v>1230.56</v>
       </c>
-      <c r="M60" s="9"/>
+      <c r="M60" s="9">
+        <v>1250.85</v>
+      </c>
       <c r="N60" s="10"/>
       <c r="P60" s="3" t="s">
         <v>57</v>
@@ -18149,7 +18798,9 @@
       <c r="S60" s="9">
         <v>1878.64</v>
       </c>
-      <c r="T60" s="9"/>
+      <c r="T60" s="9">
+        <v>1868.65</v>
+      </c>
       <c r="U60" s="10"/>
     </row>
     <row r="61" spans="2:21">
@@ -18165,7 +18816,9 @@
       <c r="E61" s="9">
         <v>1708.22</v>
       </c>
-      <c r="F61" s="9"/>
+      <c r="F61" s="9">
+        <v>1732.64</v>
+      </c>
       <c r="G61" s="10"/>
       <c r="I61" s="13" t="s">
         <v>60</v>
@@ -18179,7 +18832,9 @@
       <c r="L61" s="9">
         <v>3615.8</v>
       </c>
-      <c r="M61" s="9"/>
+      <c r="M61" s="9">
+        <v>3605.48</v>
+      </c>
       <c r="N61" s="10"/>
       <c r="P61" s="3" t="s">
         <v>60</v>
@@ -18193,7 +18848,9 @@
       <c r="S61" s="9">
         <v>5491.92</v>
       </c>
-      <c r="T61" s="9"/>
+      <c r="T61" s="9">
+        <v>5573.08</v>
+      </c>
       <c r="U61" s="10"/>
     </row>
     <row r="62" spans="2:21">
@@ -18209,7 +18866,9 @@
       <c r="E62" s="9">
         <v>2307.33</v>
       </c>
-      <c r="F62" s="9"/>
+      <c r="F62" s="9">
+        <v>2326.26</v>
+      </c>
       <c r="G62" s="10"/>
       <c r="I62" s="13" t="s">
         <v>64</v>
@@ -18223,7 +18882,9 @@
       <c r="L62" s="9">
         <v>4870.89</v>
       </c>
-      <c r="M62" s="9"/>
+      <c r="M62" s="9">
+        <v>4920.37</v>
+      </c>
       <c r="N62" s="10"/>
       <c r="P62" s="3" t="s">
         <v>64</v>
@@ -18249,7 +18910,9 @@
       <c r="E63" s="9">
         <v>5040</v>
       </c>
-      <c r="F63" s="9"/>
+      <c r="F63" s="9">
+        <v>4975</v>
+      </c>
       <c r="G63" s="10"/>
       <c r="I63" s="13" t="s">
         <v>68</v>
@@ -18263,7 +18926,9 @@
       <c r="L63" s="9">
         <v>10272</v>
       </c>
-      <c r="M63" s="9"/>
+      <c r="M63" s="9">
+        <v>10010</v>
+      </c>
       <c r="N63" s="10"/>
       <c r="P63" s="3" t="s">
         <v>68</v>
@@ -18277,7 +18942,9 @@
       <c r="S63" s="9">
         <v>15499</v>
       </c>
-      <c r="T63" s="9"/>
+      <c r="T63" s="9">
+        <v>15324</v>
+      </c>
       <c r="U63" s="10"/>
     </row>
     <row r="64" spans="2:21">
@@ -18293,7 +18960,9 @@
       <c r="E64" s="9">
         <v>11603</v>
       </c>
-      <c r="F64" s="9"/>
+      <c r="F64" s="9">
+        <v>11495</v>
+      </c>
       <c r="G64" s="10"/>
       <c r="I64" s="13" t="s">
         <v>71</v>
@@ -18307,7 +18976,9 @@
       <c r="L64" s="9">
         <v>23089</v>
       </c>
-      <c r="M64" s="9"/>
+      <c r="M64" s="9">
+        <v>22935</v>
+      </c>
       <c r="N64" s="10"/>
       <c r="P64" s="3" t="s">
         <v>71</v>
@@ -18321,7 +18992,9 @@
       <c r="S64" s="9">
         <v>35177</v>
       </c>
-      <c r="T64" s="9"/>
+      <c r="T64" s="9">
+        <v>35050</v>
+      </c>
       <c r="U64" s="10"/>
     </row>
     <row r="65" spans="2:21">
@@ -18337,7 +19010,9 @@
       <c r="E65" s="9">
         <v>22435</v>
       </c>
-      <c r="F65" s="9"/>
+      <c r="F65" s="9">
+        <v>22289</v>
+      </c>
       <c r="G65" s="10"/>
       <c r="I65" s="13" t="s">
         <v>74</v>
@@ -18373,7 +19048,9 @@
       <c r="E66" s="9">
         <v>102.42</v>
       </c>
-      <c r="F66" s="9"/>
+      <c r="F66" s="9">
+        <v>102.42</v>
+      </c>
       <c r="G66" s="10"/>
       <c r="I66" s="13" t="s">
         <v>77</v>
@@ -18387,7 +19064,9 @@
       <c r="L66" s="9">
         <v>243.1</v>
       </c>
-      <c r="M66" s="9"/>
+      <c r="M66" s="9">
+        <v>243.1</v>
+      </c>
       <c r="N66" s="10"/>
       <c r="P66" s="3" t="s">
         <v>77</v>
@@ -18401,7 +19080,9 @@
       <c r="S66" s="9">
         <v>444.58</v>
       </c>
-      <c r="T66" s="9"/>
+      <c r="T66" s="9">
+        <v>445.1</v>
+      </c>
       <c r="U66" s="10"/>
     </row>
     <row r="67" spans="2:21">
@@ -18417,7 +19098,9 @@
       <c r="E67" s="9">
         <v>152</v>
       </c>
-      <c r="F67" s="9"/>
+      <c r="F67" s="9">
+        <v>152</v>
+      </c>
       <c r="G67" s="10"/>
       <c r="I67" s="13" t="s">
         <v>80</v>
@@ -18431,7 +19114,9 @@
       <c r="L67" s="9">
         <v>505</v>
       </c>
-      <c r="M67" s="9"/>
+      <c r="M67" s="9">
+        <v>473</v>
+      </c>
       <c r="N67" s="10"/>
       <c r="P67" s="3" t="s">
         <v>80</v>
@@ -18445,7 +19130,9 @@
       <c r="S67" s="9">
         <v>805</v>
       </c>
-      <c r="T67" s="9"/>
+      <c r="T67" s="9">
+        <v>805</v>
+      </c>
       <c r="U67" s="10"/>
     </row>
     <row r="68" spans="2:21">
@@ -18461,7 +19148,9 @@
       <c r="E68" s="9">
         <v>30239.35</v>
       </c>
-      <c r="F68" s="9"/>
+      <c r="F68" s="9">
+        <v>30239.35</v>
+      </c>
       <c r="G68" s="10"/>
       <c r="I68" s="13" t="s">
         <v>83</v>
@@ -18475,7 +19164,9 @@
       <c r="L68" s="9">
         <v>63347.41</v>
       </c>
-      <c r="M68" s="9"/>
+      <c r="M68" s="9">
+        <v>59631.2</v>
+      </c>
       <c r="N68" s="10"/>
       <c r="P68" s="3" t="s">
         <v>83</v>
@@ -18489,7 +19180,9 @@
       <c r="S68" s="9">
         <v>106440.37</v>
       </c>
-      <c r="T68" s="9"/>
+      <c r="T68" s="9">
+        <v>99494.24</v>
+      </c>
       <c r="U68" s="10"/>
     </row>
     <row r="69" spans="2:21">
@@ -18505,7 +19198,9 @@
       <c r="E69" s="9">
         <v>964.77</v>
       </c>
-      <c r="F69" s="9"/>
+      <c r="F69" s="9">
+        <v>992.22</v>
+      </c>
       <c r="G69" s="10"/>
       <c r="I69" s="13" t="s">
         <v>86</v>
@@ -18519,7 +19214,9 @@
       <c r="L69" s="9">
         <v>2028.57</v>
       </c>
-      <c r="M69" s="9"/>
+      <c r="M69" s="9">
+        <v>2101.47</v>
+      </c>
       <c r="N69" s="10"/>
       <c r="P69" s="3" t="s">
         <v>86</v>
@@ -18533,7 +19230,9 @@
       <c r="S69" s="9">
         <v>2978.11</v>
       </c>
-      <c r="T69" s="9"/>
+      <c r="T69" s="9">
+        <v>3072.66</v>
+      </c>
       <c r="U69" s="10"/>
     </row>
     <row r="70" spans="2:21">
@@ -18549,7 +19248,9 @@
       <c r="E70" s="9">
         <v>751.06</v>
       </c>
-      <c r="F70" s="9"/>
+      <c r="F70" s="9">
+        <v>751.06</v>
+      </c>
       <c r="G70" s="10"/>
       <c r="I70" s="13" t="s">
         <v>87</v>
@@ -18563,7 +19264,9 @@
       <c r="L70" s="9">
         <v>1463.06</v>
       </c>
-      <c r="M70" s="9"/>
+      <c r="M70" s="9">
+        <v>1463.06</v>
+      </c>
       <c r="N70" s="10"/>
       <c r="P70" s="3" t="s">
         <v>87</v>
@@ -18577,7 +19280,9 @@
       <c r="S70" s="9">
         <v>2279.3</v>
       </c>
-      <c r="T70" s="9"/>
+      <c r="T70" s="9">
+        <v>2279.3</v>
+      </c>
       <c r="U70" s="10"/>
     </row>
     <row r="71" spans="2:21">
@@ -18593,7 +19298,9 @@
       <c r="E71" s="9">
         <v>456.58</v>
       </c>
-      <c r="F71" s="9"/>
+      <c r="F71" s="9">
+        <v>456.58</v>
+      </c>
       <c r="G71" s="10"/>
       <c r="I71" s="13" t="s">
         <v>88</v>
@@ -18607,7 +19314,9 @@
       <c r="L71" s="9">
         <v>2171.85</v>
       </c>
-      <c r="M71" s="9"/>
+      <c r="M71" s="9">
+        <v>2171.85</v>
+      </c>
       <c r="N71" s="10"/>
       <c r="P71" s="3" t="s">
         <v>88</v>
@@ -18621,7 +19330,9 @@
       <c r="S71" s="9">
         <v>2772.63</v>
       </c>
-      <c r="T71" s="9"/>
+      <c r="T71" s="9">
+        <v>2772.63</v>
+      </c>
       <c r="U71" s="10"/>
     </row>
   </sheetData>

--- a/Comparaçoes/BuscasLocais.xlsx
+++ b/Comparaçoes/BuscasLocais.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12885" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="13725" windowHeight="12885" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="k = n|4" sheetId="1" r:id="rId1"/>
@@ -328,11 +328,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="0_ "/>
+    <numFmt numFmtId="181" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -354,8 +354,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF44546A"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -367,18 +394,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -386,22 +401,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color rgb="FF44546A"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -421,41 +422,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color rgb="FF44546A"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color rgb="FF44546A"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -468,7 +443,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -488,7 +488,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA8D08C"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CAAB"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE697"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -500,13 +524,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4472C4"/>
+        <fgColor rgb="FFFFD964"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE697"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBEBEB"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -518,7 +548,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEBEBEB"/>
+        <fgColor rgb="FFF4AF82"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE3D5"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5DFB3"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7C7C7"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1EFD8"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -530,49 +632,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
+        <fgColor rgb="FF9BC2E6"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF8CAAB"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC5DFB3"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4C6E7"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD964"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA8D08C"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4AF82"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FF8EA9DB"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -590,79 +656,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE1EFD8"/>
+        <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF70AD47"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBDD7EE"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5B9BD5"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8EA9DB"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9E1F2"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9BC2E6"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7C7C7"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBE3D5"/>
+        <fgColor rgb="FFB4C6E7"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -876,6 +876,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF5B9BD5"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF5B9BD5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -887,15 +907,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -924,15 +935,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFACCCEA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -944,6 +946,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFACCCEA"/>
       </bottom>
       <diagonal/>
     </border>
@@ -962,17 +973,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF5B9BD5"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF5B9BD5"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -981,7 +981,7 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -990,37 +990,37 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1029,101 +1029,101 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1196,10 +1196,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1575,8 +1572,8 @@
   <sheetPr/>
   <dimension ref="B2:BT28"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="BC1" workbookViewId="0">
-      <selection activeCell="BO32" sqref="BO32"/>
+    <sheetView topLeftCell="BA1" workbookViewId="0">
+      <selection activeCell="BR28" sqref="BR28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1814,7 +1811,7 @@
       <c r="F4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="31" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="18" t="s">
@@ -1826,7 +1823,7 @@
       <c r="J4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="31" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="18" t="s">
@@ -1838,7 +1835,7 @@
       <c r="N4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="32" t="s">
+      <c r="O4" s="31" t="s">
         <v>13</v>
       </c>
       <c r="P4" s="15" t="s">
@@ -1862,10 +1859,10 @@
       <c r="V4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="W4" s="29" t="s">
+      <c r="W4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="X4" s="29" t="s">
+      <c r="X4" s="28" t="s">
         <v>17</v>
       </c>
       <c r="Z4" s="3" t="s">
@@ -1874,52 +1871,52 @@
       <c r="AA4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AB4" s="32" t="s">
+      <c r="AB4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="AC4" s="32" t="s">
+      <c r="AC4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="AD4" s="37" t="s">
+      <c r="AD4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AE4" s="32" t="s">
+      <c r="AE4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AF4" s="38" t="s">
+      <c r="AF4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AG4" s="32" t="s">
+      <c r="AG4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="AH4" s="37" t="s">
+      <c r="AH4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AI4" s="32" t="s">
+      <c r="AI4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AJ4" s="38" t="s">
+      <c r="AJ4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AK4" s="32" t="s">
+      <c r="AK4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="AL4" s="32" t="s">
+      <c r="AL4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="AM4" s="32" t="s">
+      <c r="AM4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AN4" s="38" t="s">
+      <c r="AN4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AO4" s="32" t="s">
+      <c r="AO4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="AP4" s="32" t="s">
+      <c r="AP4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="AQ4" s="32" t="s">
+      <c r="AQ4" s="31" t="s">
         <v>13</v>
       </c>
       <c r="AR4" s="22" t="s">
@@ -1931,10 +1928,10 @@
       <c r="AT4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AU4" s="29" t="s">
+      <c r="AU4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="AV4" s="29" t="s">
+      <c r="AV4" s="28" t="s">
         <v>17</v>
       </c>
       <c r="AX4" s="3" t="s">
@@ -1952,43 +1949,43 @@
       <c r="BB4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="BC4" s="32" t="s">
+      <c r="BC4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="BD4" s="38" t="s">
+      <c r="BD4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="BE4" s="32" t="s">
+      <c r="BE4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="BF4" s="37" t="s">
+      <c r="BF4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="BG4" s="32" t="s">
+      <c r="BG4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="BH4" s="38" t="s">
+      <c r="BH4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="BI4" s="32" t="s">
+      <c r="BI4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="BJ4" s="32" t="s">
+      <c r="BJ4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="BK4" s="32" t="s">
+      <c r="BK4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="BL4" s="38" t="s">
+      <c r="BL4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="BM4" s="32" t="s">
+      <c r="BM4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="BN4" s="32" t="s">
+      <c r="BN4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="BO4" s="32" t="s">
+      <c r="BO4" s="31" t="s">
         <v>13</v>
       </c>
       <c r="BP4" s="22" t="s">
@@ -2000,10 +1997,10 @@
       <c r="BR4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="BS4" s="29" t="s">
+      <c r="BS4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="BT4" s="29" t="s">
+      <c r="BT4" s="28" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2068,13 +2065,13 @@
       <c r="U5" s="24">
         <v>789.21</v>
       </c>
-      <c r="V5" s="25">
+      <c r="V5" s="24">
         <v>791.65</v>
       </c>
-      <c r="W5" s="40">
+      <c r="W5" s="39">
         <v>606</v>
       </c>
-      <c r="X5" s="41">
+      <c r="X5" s="40">
         <v>606</v>
       </c>
       <c r="Z5" s="3" t="s">
@@ -2095,7 +2092,7 @@
       <c r="AE5" s="13">
         <v>655</v>
       </c>
-      <c r="AF5" s="36">
+      <c r="AF5" s="35">
         <v>558</v>
       </c>
       <c r="AG5" s="3">
@@ -2107,7 +2104,7 @@
       <c r="AI5" s="13">
         <v>558</v>
       </c>
-      <c r="AJ5" s="36">
+      <c r="AJ5" s="35">
         <v>582</v>
       </c>
       <c r="AK5" s="3">
@@ -2137,13 +2134,13 @@
       <c r="AS5" s="24">
         <v>509</v>
       </c>
-      <c r="AT5" s="25">
+      <c r="AT5" s="24">
         <v>509</v>
       </c>
-      <c r="AU5" s="41">
+      <c r="AU5" s="40">
         <v>558</v>
       </c>
-      <c r="AV5" s="41">
+      <c r="AV5" s="40">
         <v>558</v>
       </c>
       <c r="AX5" s="3" t="s">
@@ -2152,19 +2149,19 @@
       <c r="AY5" s="3">
         <v>19</v>
       </c>
-      <c r="AZ5" s="32">
+      <c r="AZ5" s="31">
         <v>25126.84</v>
       </c>
-      <c r="BA5" s="32">
+      <c r="BA5" s="31">
         <v>25126.84</v>
       </c>
-      <c r="BB5" s="37">
+      <c r="BB5" s="36">
         <v>25126.84</v>
       </c>
       <c r="BC5" s="18">
         <v>23589.53</v>
       </c>
-      <c r="BD5" s="36">
+      <c r="BD5" s="35">
         <v>25126.84</v>
       </c>
       <c r="BE5" s="3">
@@ -2176,7 +2173,7 @@
       <c r="BG5" s="13">
         <v>23589.53</v>
       </c>
-      <c r="BH5" s="36">
+      <c r="BH5" s="35">
         <v>25126.84</v>
       </c>
       <c r="BI5" s="3">
@@ -2206,13 +2203,13 @@
       <c r="BQ5" s="24">
         <v>23774.86</v>
       </c>
-      <c r="BR5" s="25">
+      <c r="BR5" s="24">
         <v>23774.86</v>
       </c>
-      <c r="BS5" s="30">
+      <c r="BS5" s="29">
         <v>17728</v>
       </c>
-      <c r="BT5" s="30">
+      <c r="BT5" s="29">
         <v>17728</v>
       </c>
     </row>
@@ -2241,9 +2238,9 @@
       <c r="S6" s="21"/>
       <c r="T6" s="24"/>
       <c r="U6" s="24"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="41"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="40"/>
       <c r="Z6" s="3" t="s">
         <v>23</v>
       </c>
@@ -2262,7 +2259,7 @@
       <c r="AE6" s="13">
         <v>10900.24</v>
       </c>
-      <c r="AF6" s="36">
+      <c r="AF6" s="35">
         <v>9818.95</v>
       </c>
       <c r="AG6" s="3">
@@ -2274,7 +2271,7 @@
       <c r="AI6" s="13">
         <v>9934.05</v>
       </c>
-      <c r="AJ6" s="36">
+      <c r="AJ6" s="35">
         <v>10082.97</v>
       </c>
       <c r="AK6" s="3">
@@ -2304,13 +2301,13 @@
       <c r="AS6" s="24">
         <v>9090.91</v>
       </c>
-      <c r="AT6" s="25">
+      <c r="AT6" s="24">
         <v>9090.91</v>
       </c>
-      <c r="AU6" s="41">
+      <c r="AU6" s="40">
         <v>7704</v>
       </c>
-      <c r="AV6" s="41">
+      <c r="AV6" s="40">
         <v>7704</v>
       </c>
       <c r="AX6" s="3" t="s">
@@ -2331,7 +2328,7 @@
       <c r="BC6" s="13">
         <v>7918.17</v>
       </c>
-      <c r="BD6" s="36">
+      <c r="BD6" s="35">
         <v>7165.83</v>
       </c>
       <c r="BE6" s="3">
@@ -2343,7 +2340,7 @@
       <c r="BG6" s="13">
         <v>7379.46</v>
       </c>
-      <c r="BH6" s="36">
+      <c r="BH6" s="35">
         <v>7537.29</v>
       </c>
       <c r="BI6" s="3">
@@ -2373,13 +2370,13 @@
       <c r="BQ6" s="24">
         <v>6938.06</v>
       </c>
-      <c r="BR6" s="25">
+      <c r="BR6" s="24">
         <v>6938.06</v>
       </c>
-      <c r="BS6" s="30">
+      <c r="BS6" s="29">
         <v>6981</v>
       </c>
-      <c r="BT6" s="30">
+      <c r="BT6" s="29">
         <v>6981</v>
       </c>
     </row>
@@ -2444,11 +2441,11 @@
       <c r="U7" s="24">
         <v>1193</v>
       </c>
-      <c r="V7" s="25">
+      <c r="V7" s="24">
         <v>1193</v>
       </c>
-      <c r="W7" s="40"/>
-      <c r="X7" s="41"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="40"/>
       <c r="Z7" s="3" t="s">
         <v>26</v>
       </c>
@@ -2467,7 +2464,7 @@
       <c r="AE7" s="13">
         <v>1369</v>
       </c>
-      <c r="AF7" s="36">
+      <c r="AF7" s="35">
         <v>1404</v>
       </c>
       <c r="AG7" s="3">
@@ -2479,7 +2476,7 @@
       <c r="AI7" s="13">
         <v>1405</v>
       </c>
-      <c r="AJ7" s="36">
+      <c r="AJ7" s="35">
         <v>1356</v>
       </c>
       <c r="AK7" s="3">
@@ -2509,11 +2506,11 @@
       <c r="AS7" s="24">
         <v>1590</v>
       </c>
-      <c r="AT7" s="25">
+      <c r="AT7" s="24">
         <v>1593</v>
       </c>
-      <c r="AU7" s="41"/>
-      <c r="AV7" s="41"/>
+      <c r="AU7" s="40"/>
+      <c r="AV7" s="40"/>
       <c r="AX7" s="3" t="s">
         <v>27</v>
       </c>
@@ -2532,7 +2529,7 @@
       <c r="BC7" s="13">
         <v>10306.54</v>
       </c>
-      <c r="BD7" s="36">
+      <c r="BD7" s="35">
         <v>14065.44</v>
       </c>
       <c r="BE7" s="3">
@@ -2544,7 +2541,7 @@
       <c r="BG7" s="13">
         <v>12877.05</v>
       </c>
-      <c r="BH7" s="36">
+      <c r="BH7" s="35">
         <v>14065.44</v>
       </c>
       <c r="BI7" s="3">
@@ -2574,13 +2571,13 @@
       <c r="BQ7" s="24">
         <v>10213</v>
       </c>
-      <c r="BR7" s="25">
+      <c r="BR7" s="24">
         <v>10213</v>
       </c>
-      <c r="BS7" s="30">
+      <c r="BS7" s="29">
         <v>9596</v>
       </c>
-      <c r="BT7" s="30">
+      <c r="BT7" s="29">
         <v>9596</v>
       </c>
     </row>
@@ -2645,11 +2642,11 @@
       <c r="U8" s="24">
         <v>6365</v>
       </c>
-      <c r="V8" s="25">
+      <c r="V8" s="24">
         <v>6520</v>
       </c>
-      <c r="W8" s="40"/>
-      <c r="X8" s="41"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="40"/>
       <c r="Z8" s="3" t="s">
         <v>29</v>
       </c>
@@ -2660,11 +2657,11 @@
       <c r="AC8" s="3"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="13"/>
-      <c r="AF8" s="36"/>
+      <c r="AF8" s="35"/>
       <c r="AG8" s="3"/>
       <c r="AH8" s="4"/>
       <c r="AI8" s="13"/>
-      <c r="AJ8" s="36"/>
+      <c r="AJ8" s="35"/>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
@@ -2674,11 +2671,11 @@
       <c r="AQ8" s="21"/>
       <c r="AR8" s="24"/>
       <c r="AS8" s="24"/>
-      <c r="AT8" s="25"/>
-      <c r="AU8" s="41">
+      <c r="AT8" s="24"/>
+      <c r="AU8" s="40">
         <v>14784</v>
       </c>
-      <c r="AV8" s="41">
+      <c r="AV8" s="40">
         <v>14784</v>
       </c>
       <c r="AX8" s="3" t="s">
@@ -2699,7 +2696,7 @@
       <c r="BC8" s="13">
         <v>22376.19</v>
       </c>
-      <c r="BD8" s="36">
+      <c r="BD8" s="35">
         <v>23341.46</v>
       </c>
       <c r="BE8" s="3">
@@ -2711,7 +2708,7 @@
       <c r="BG8" s="13">
         <v>23907.89</v>
       </c>
-      <c r="BH8" s="36">
+      <c r="BH8" s="35">
         <v>23147.12</v>
       </c>
       <c r="BI8" s="3">
@@ -2741,13 +2738,13 @@
       <c r="BQ8" s="24">
         <v>22807.35</v>
       </c>
-      <c r="BR8" s="25">
+      <c r="BR8" s="24">
         <v>21090.81</v>
       </c>
-      <c r="BS8" s="30">
+      <c r="BS8" s="29">
         <v>20928</v>
       </c>
-      <c r="BT8" s="30">
+      <c r="BT8" s="29">
         <v>20928</v>
       </c>
     </row>
@@ -2812,13 +2809,13 @@
       <c r="U9" s="24">
         <v>282</v>
       </c>
-      <c r="V9" s="25">
+      <c r="V9" s="24">
         <v>282</v>
       </c>
-      <c r="W9" s="40">
+      <c r="W9" s="39">
         <v>246</v>
       </c>
-      <c r="X9" s="41">
+      <c r="X9" s="40">
         <v>246</v>
       </c>
       <c r="Z9" s="3" t="s">
@@ -2831,11 +2828,11 @@
       <c r="AC9" s="3"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="13"/>
-      <c r="AF9" s="36"/>
+      <c r="AF9" s="35"/>
       <c r="AG9" s="3"/>
       <c r="AH9" s="4"/>
       <c r="AI9" s="13"/>
-      <c r="AJ9" s="36"/>
+      <c r="AJ9" s="35"/>
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
@@ -2845,11 +2842,11 @@
       <c r="AQ9" s="21"/>
       <c r="AR9" s="24"/>
       <c r="AS9" s="24"/>
-      <c r="AT9" s="25"/>
-      <c r="AU9" s="41">
+      <c r="AT9" s="24"/>
+      <c r="AU9" s="40">
         <v>6977</v>
       </c>
-      <c r="AV9" s="41">
+      <c r="AV9" s="40">
         <v>6977</v>
       </c>
       <c r="AX9" s="3" t="s">
@@ -2870,7 +2867,7 @@
       <c r="BC9" s="13">
         <v>10893.75</v>
       </c>
-      <c r="BD9" s="36">
+      <c r="BD9" s="35">
         <v>12001.03</v>
       </c>
       <c r="BE9" s="3">
@@ -2882,7 +2879,7 @@
       <c r="BG9" s="13">
         <v>12001.03</v>
       </c>
-      <c r="BH9" s="36">
+      <c r="BH9" s="35">
         <v>11480.73</v>
       </c>
       <c r="BI9" s="3">
@@ -2912,13 +2909,13 @@
       <c r="BQ9" s="24">
         <v>11683.79</v>
       </c>
-      <c r="BR9" s="25">
+      <c r="BR9" s="24">
         <v>11683.79</v>
       </c>
-      <c r="BS9" s="30">
+      <c r="BS9" s="29">
         <v>10743</v>
       </c>
-      <c r="BT9" s="30">
+      <c r="BT9" s="29">
         <v>10743</v>
       </c>
     </row>
@@ -2983,13 +2980,13 @@
       <c r="U10" s="24">
         <v>376</v>
       </c>
-      <c r="V10" s="25">
+      <c r="V10" s="24">
         <v>376</v>
       </c>
-      <c r="W10" s="40">
+      <c r="W10" s="39">
         <v>282</v>
       </c>
-      <c r="X10" s="41">
+      <c r="X10" s="40">
         <v>282</v>
       </c>
       <c r="Z10" s="3" t="s">
@@ -3002,11 +2999,11 @@
       <c r="AC10" s="3"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="13"/>
-      <c r="AF10" s="36"/>
+      <c r="AF10" s="35"/>
       <c r="AG10" s="3"/>
       <c r="AH10" s="4"/>
       <c r="AI10" s="13"/>
-      <c r="AJ10" s="36"/>
+      <c r="AJ10" s="35"/>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
@@ -3016,11 +3013,11 @@
       <c r="AQ10" s="21"/>
       <c r="AR10" s="24"/>
       <c r="AS10" s="24"/>
-      <c r="AT10" s="25"/>
-      <c r="AU10" s="41">
+      <c r="AT10" s="24"/>
+      <c r="AU10" s="40">
         <v>18471</v>
       </c>
-      <c r="AV10" s="41">
+      <c r="AV10" s="40">
         <v>18471</v>
       </c>
       <c r="AX10" s="3" t="s">
@@ -3041,7 +3038,7 @@
       <c r="BC10" s="13">
         <v>16537.99</v>
       </c>
-      <c r="BD10" s="36">
+      <c r="BD10" s="35">
         <v>15403.26</v>
       </c>
       <c r="BE10" s="3">
@@ -3053,7 +3050,7 @@
       <c r="BG10" s="13">
         <v>16537.99</v>
       </c>
-      <c r="BH10" s="36">
+      <c r="BH10" s="35">
         <v>15403.26</v>
       </c>
       <c r="BI10" s="3">
@@ -3083,13 +3080,13 @@
       <c r="BQ10" s="24">
         <v>14514.92</v>
       </c>
-      <c r="BR10" s="25">
+      <c r="BR10" s="24">
         <v>14453.64</v>
       </c>
-      <c r="BS10" s="30">
+      <c r="BS10" s="29">
         <v>15403</v>
       </c>
-      <c r="BT10" s="30">
+      <c r="BT10" s="29">
         <v>15403</v>
       </c>
     </row>
@@ -3154,13 +3151,13 @@
       <c r="U11" s="24">
         <v>456.38</v>
       </c>
-      <c r="V11" s="25">
+      <c r="V11" s="24">
         <v>456.38</v>
       </c>
-      <c r="W11" s="40">
+      <c r="W11" s="39">
         <v>489</v>
       </c>
-      <c r="X11" s="41">
+      <c r="X11" s="40">
         <v>489</v>
       </c>
       <c r="Z11" s="3" t="s">
@@ -3173,11 +3170,11 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="13"/>
-      <c r="AF11" s="36"/>
+      <c r="AF11" s="35"/>
       <c r="AG11" s="3"/>
       <c r="AH11" s="4"/>
       <c r="AI11" s="13"/>
-      <c r="AJ11" s="36"/>
+      <c r="AJ11" s="35"/>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
       <c r="AM11" s="3"/>
@@ -3187,9 +3184,9 @@
       <c r="AQ11" s="21"/>
       <c r="AR11" s="24"/>
       <c r="AS11" s="24"/>
-      <c r="AT11" s="25"/>
-      <c r="AU11" s="41"/>
-      <c r="AV11" s="41"/>
+      <c r="AT11" s="24"/>
+      <c r="AU11" s="40"/>
+      <c r="AV11" s="40"/>
       <c r="AX11" s="3" t="s">
         <v>39</v>
       </c>
@@ -3208,7 +3205,7 @@
       <c r="BC11" s="13">
         <v>22638.14</v>
       </c>
-      <c r="BD11" s="36">
+      <c r="BD11" s="35">
         <v>23231.19</v>
       </c>
       <c r="BE11" s="3">
@@ -3220,7 +3217,7 @@
       <c r="BG11" s="13">
         <v>23248.9</v>
       </c>
-      <c r="BH11" s="36">
+      <c r="BH11" s="35">
         <v>23231.19</v>
       </c>
       <c r="BI11" s="3">
@@ -3250,13 +3247,13 @@
       <c r="BQ11" s="24">
         <v>23797.96</v>
       </c>
-      <c r="BR11" s="25">
+      <c r="BR11" s="24">
         <v>23797.96</v>
       </c>
-      <c r="BS11" s="30">
+      <c r="BS11" s="29">
         <v>18594</v>
       </c>
-      <c r="BT11" s="30">
+      <c r="BT11" s="29">
         <v>18645</v>
       </c>
     </row>
@@ -3321,13 +3318,13 @@
       <c r="U12" s="24">
         <v>11363.99</v>
       </c>
-      <c r="V12" s="25">
+      <c r="V12" s="24">
         <v>11245.08</v>
       </c>
-      <c r="W12" s="40">
+      <c r="W12" s="39">
         <v>9840</v>
       </c>
-      <c r="X12" s="41">
+      <c r="X12" s="40">
         <v>10132</v>
       </c>
       <c r="Z12" s="3" t="s">
@@ -3340,11 +3337,11 @@
       <c r="AC12" s="3"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="13"/>
-      <c r="AF12" s="36"/>
+      <c r="AF12" s="35"/>
       <c r="AG12" s="3"/>
       <c r="AH12" s="4"/>
       <c r="AI12" s="13"/>
-      <c r="AJ12" s="36"/>
+      <c r="AJ12" s="35"/>
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
@@ -3354,9 +3351,9 @@
       <c r="AQ12" s="21"/>
       <c r="AR12" s="24"/>
       <c r="AS12" s="24"/>
-      <c r="AT12" s="25"/>
-      <c r="AU12" s="41"/>
-      <c r="AV12" s="41"/>
+      <c r="AT12" s="24"/>
+      <c r="AU12" s="40"/>
+      <c r="AV12" s="40"/>
       <c r="AX12" s="3" t="s">
         <v>42</v>
       </c>
@@ -3375,7 +3372,7 @@
       <c r="BC12" s="13">
         <v>7800</v>
       </c>
-      <c r="BD12" s="36">
+      <c r="BD12" s="35">
         <v>8023.61</v>
       </c>
       <c r="BE12" s="3">
@@ -3387,7 +3384,7 @@
       <c r="BG12" s="13">
         <v>7800</v>
       </c>
-      <c r="BH12" s="36">
+      <c r="BH12" s="35">
         <v>8023.61</v>
       </c>
       <c r="BI12" s="3">
@@ -3417,11 +3414,11 @@
       <c r="BQ12" s="24">
         <v>7800</v>
       </c>
-      <c r="BR12" s="25">
+      <c r="BR12" s="24">
         <v>7800</v>
       </c>
-      <c r="BS12" s="30"/>
-      <c r="BT12" s="30"/>
+      <c r="BS12" s="29"/>
+      <c r="BT12" s="29"/>
     </row>
     <row r="13" spans="2:72">
       <c r="B13" s="3" t="s">
@@ -3484,11 +3481,11 @@
       <c r="U13" s="24">
         <v>4161</v>
       </c>
-      <c r="V13" s="25">
+      <c r="V13" s="24">
         <v>4161</v>
       </c>
-      <c r="W13" s="40"/>
-      <c r="X13" s="41"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="40"/>
       <c r="Z13" s="3" t="s">
         <v>44</v>
       </c>
@@ -3507,7 +3504,7 @@
       <c r="AE13" s="13">
         <v>3454</v>
       </c>
-      <c r="AF13" s="36">
+      <c r="AF13" s="35">
         <v>3155</v>
       </c>
       <c r="AG13" s="3">
@@ -3519,7 +3516,7 @@
       <c r="AI13" s="13">
         <v>2884</v>
       </c>
-      <c r="AJ13" s="36">
+      <c r="AJ13" s="35">
         <v>3155</v>
       </c>
       <c r="AK13" s="3">
@@ -3549,13 +3546,13 @@
       <c r="AS13" s="24">
         <v>3454</v>
       </c>
-      <c r="AT13" s="25">
+      <c r="AT13" s="24">
         <v>3454</v>
       </c>
-      <c r="AU13" s="41">
+      <c r="AU13" s="40">
         <v>2094</v>
       </c>
-      <c r="AV13" s="41">
+      <c r="AV13" s="40">
         <v>2094</v>
       </c>
       <c r="AX13" s="3" t="s">
@@ -3576,7 +3573,7 @@
       <c r="BC13" s="13">
         <v>11693.22</v>
       </c>
-      <c r="BD13" s="36">
+      <c r="BD13" s="35">
         <v>12127.29</v>
       </c>
       <c r="BE13" s="3">
@@ -3588,7 +3585,7 @@
       <c r="BG13" s="13">
         <v>12256.31</v>
       </c>
-      <c r="BH13" s="36">
+      <c r="BH13" s="35">
         <v>10546.96</v>
       </c>
       <c r="BI13" s="3">
@@ -3618,11 +3615,11 @@
       <c r="BQ13" s="24">
         <v>12243.81</v>
       </c>
-      <c r="BR13" s="25">
+      <c r="BR13" s="24">
         <v>10706.39</v>
       </c>
-      <c r="BS13" s="30"/>
-      <c r="BT13" s="30"/>
+      <c r="BS13" s="29"/>
+      <c r="BT13" s="29"/>
     </row>
     <row r="14" spans="2:72">
       <c r="B14" s="3" t="s">
@@ -3685,11 +3682,11 @@
       <c r="U14" s="24">
         <v>510</v>
       </c>
-      <c r="V14" s="25">
+      <c r="V14" s="24">
         <v>510</v>
       </c>
-      <c r="W14" s="40"/>
-      <c r="X14" s="41"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="40"/>
       <c r="Z14" s="3" t="s">
         <v>47</v>
       </c>
@@ -3708,7 +3705,7 @@
       <c r="AE14" s="13">
         <v>5037.2</v>
       </c>
-      <c r="AF14" s="36">
+      <c r="AF14" s="35">
         <v>4792.31</v>
       </c>
       <c r="AG14" s="3">
@@ -3720,7 +3717,7 @@
       <c r="AI14" s="13">
         <v>4492.73</v>
       </c>
-      <c r="AJ14" s="36">
+      <c r="AJ14" s="35">
         <v>4788.84</v>
       </c>
       <c r="AK14" s="3">
@@ -3750,13 +3747,13 @@
       <c r="AS14" s="24">
         <v>5147.7</v>
       </c>
-      <c r="AT14" s="25">
+      <c r="AT14" s="24">
         <v>5147.7</v>
       </c>
-      <c r="AU14" s="41">
+      <c r="AU14" s="40">
         <v>4369</v>
       </c>
-      <c r="AV14" s="41">
+      <c r="AV14" s="40">
         <v>4369</v>
       </c>
       <c r="AX14" s="3" t="s">
@@ -3777,7 +3774,7 @@
       <c r="BC14" s="13">
         <v>21666.36</v>
       </c>
-      <c r="BD14" s="36">
+      <c r="BD14" s="35">
         <v>22904.63</v>
       </c>
       <c r="BE14" s="3">
@@ -3789,7 +3786,7 @@
       <c r="BG14" s="13">
         <v>23304.76</v>
       </c>
-      <c r="BH14" s="36">
+      <c r="BH14" s="35">
         <v>21586.45</v>
       </c>
       <c r="BI14" s="3">
@@ -3819,11 +3816,11 @@
       <c r="BQ14" s="24">
         <v>23528.55</v>
       </c>
-      <c r="BR14" s="25">
+      <c r="BR14" s="24">
         <v>23799.84</v>
       </c>
-      <c r="BS14" s="30"/>
-      <c r="BT14" s="30"/>
+      <c r="BS14" s="29"/>
+      <c r="BT14" s="29"/>
     </row>
     <row r="15" spans="2:72">
       <c r="B15" s="3" t="s">
@@ -3886,13 +3883,13 @@
       <c r="U15" s="24">
         <v>249.88</v>
       </c>
-      <c r="V15" s="25">
+      <c r="V15" s="24">
         <v>249.888</v>
       </c>
-      <c r="W15" s="40">
+      <c r="W15" s="39">
         <v>151</v>
       </c>
-      <c r="X15" s="41">
+      <c r="X15" s="40">
         <v>151</v>
       </c>
       <c r="Z15" s="3" t="s">
@@ -3913,7 +3910,7 @@
       <c r="AE15" s="13">
         <v>6400.64</v>
       </c>
-      <c r="AF15" s="36">
+      <c r="AF15" s="35">
         <v>7646.9</v>
       </c>
       <c r="AG15" s="3">
@@ -3925,7 +3922,7 @@
       <c r="AI15" s="13">
         <v>7429.09</v>
       </c>
-      <c r="AJ15" s="36">
+      <c r="AJ15" s="35">
         <v>7646.9</v>
       </c>
       <c r="AK15" s="3">
@@ -3955,13 +3952,13 @@
       <c r="AS15" s="24">
         <v>6211.1</v>
       </c>
-      <c r="AT15" s="25">
+      <c r="AT15" s="24">
         <v>6211.1</v>
       </c>
-      <c r="AU15" s="41">
+      <c r="AU15" s="40">
         <v>5286</v>
       </c>
-      <c r="AV15" s="41">
+      <c r="AV15" s="40">
         <v>5286</v>
       </c>
       <c r="AX15" s="3" t="s">
@@ -3982,13 +3979,13 @@
       <c r="BC15" s="13">
         <v>66131.75</v>
       </c>
-      <c r="BD15" s="36">
+      <c r="BD15" s="35">
         <v>65571.91</v>
       </c>
       <c r="BE15" s="3"/>
       <c r="BF15" s="4"/>
       <c r="BG15" s="13"/>
-      <c r="BH15" s="36"/>
+      <c r="BH15" s="35"/>
       <c r="BI15" s="3"/>
       <c r="BJ15" s="3"/>
       <c r="BK15" s="3"/>
@@ -4002,11 +3999,11 @@
       <c r="BQ15" s="24">
         <v>73426.02</v>
       </c>
-      <c r="BR15" s="25">
+      <c r="BR15" s="24">
         <v>74072.3</v>
       </c>
-      <c r="BS15" s="30"/>
-      <c r="BT15" s="30"/>
+      <c r="BS15" s="29"/>
+      <c r="BT15" s="29"/>
     </row>
     <row r="16" spans="2:72">
       <c r="B16" s="3" t="s">
@@ -4069,13 +4066,13 @@
       <c r="U16" s="24">
         <v>1275.54</v>
       </c>
-      <c r="V16" s="25">
+      <c r="V16" s="24">
         <v>1275.54</v>
       </c>
-      <c r="W16" s="40">
+      <c r="W16" s="39">
         <v>1116</v>
       </c>
-      <c r="X16" s="41">
+      <c r="X16" s="40">
         <v>1119</v>
       </c>
       <c r="Z16" s="3" t="s">
@@ -4096,7 +4093,7 @@
       <c r="AE16" s="13">
         <v>6863.81</v>
       </c>
-      <c r="AF16" s="36">
+      <c r="AF16" s="35">
         <v>6772.97</v>
       </c>
       <c r="AG16" s="3">
@@ -4108,7 +4105,7 @@
       <c r="AI16" s="13">
         <v>6899.46</v>
       </c>
-      <c r="AJ16" s="36">
+      <c r="AJ16" s="35">
         <v>6741.11</v>
       </c>
       <c r="AK16" s="3">
@@ -4138,13 +4135,13 @@
       <c r="AS16" s="24">
         <v>8203.64</v>
       </c>
-      <c r="AT16" s="25">
+      <c r="AT16" s="24">
         <v>6735.71</v>
       </c>
-      <c r="AU16" s="41">
+      <c r="AU16" s="40">
         <v>6138</v>
       </c>
-      <c r="AV16" s="41">
+      <c r="AV16" s="40">
         <v>6138</v>
       </c>
       <c r="AX16" s="3" t="s">
@@ -4165,7 +4162,7 @@
       <c r="BC16" s="13">
         <v>255.03</v>
       </c>
-      <c r="BD16" s="36">
+      <c r="BD16" s="35">
         <v>323.19</v>
       </c>
       <c r="BE16" s="3">
@@ -4177,7 +4174,7 @@
       <c r="BG16" s="13">
         <v>341.87</v>
       </c>
-      <c r="BH16" s="36">
+      <c r="BH16" s="35">
         <v>292.55</v>
       </c>
       <c r="BI16" s="3">
@@ -4207,13 +4204,13 @@
       <c r="BQ16" s="24">
         <v>310.75</v>
       </c>
-      <c r="BR16" s="25">
+      <c r="BR16" s="24">
         <v>310.75</v>
       </c>
-      <c r="BS16" s="30">
+      <c r="BS16" s="29">
         <v>260</v>
       </c>
-      <c r="BT16" s="30">
+      <c r="BT16" s="29">
         <v>260</v>
       </c>
     </row>
@@ -4278,13 +4275,13 @@
       <c r="U17" s="24">
         <v>1566.24</v>
       </c>
-      <c r="V17" s="25">
+      <c r="V17" s="24">
         <v>1400.38</v>
       </c>
-      <c r="W17" s="40">
+      <c r="W17" s="39">
         <v>1204</v>
       </c>
-      <c r="X17" s="41">
+      <c r="X17" s="40">
         <v>1204</v>
       </c>
       <c r="Z17" s="3" t="s">
@@ -4305,7 +4302,7 @@
       <c r="AE17" s="13">
         <v>5474.72</v>
       </c>
-      <c r="AF17" s="36">
+      <c r="AF17" s="35">
         <v>4469.81</v>
       </c>
       <c r="AG17" s="3">
@@ -4317,7 +4314,7 @@
       <c r="AI17" s="13">
         <v>4405.8</v>
       </c>
-      <c r="AJ17" s="36">
+      <c r="AJ17" s="35">
         <v>5384.91</v>
       </c>
       <c r="AK17" s="3">
@@ -4347,13 +4344,13 @@
       <c r="AS17" s="24">
         <v>5435.63</v>
       </c>
-      <c r="AT17" s="25">
+      <c r="AT17" s="24">
         <v>5352.24</v>
       </c>
-      <c r="AU17" s="41">
+      <c r="AU17" s="40">
         <v>4014</v>
       </c>
-      <c r="AV17" s="41">
+      <c r="AV17" s="40">
         <v>4014</v>
       </c>
       <c r="AX17" s="3" t="s">
@@ -4374,7 +4371,7 @@
       <c r="BC17" s="13">
         <v>559.05</v>
       </c>
-      <c r="BD17" s="36">
+      <c r="BD17" s="35">
         <v>593.08</v>
       </c>
       <c r="BE17" s="3">
@@ -4386,7 +4383,7 @@
       <c r="BG17" s="13">
         <v>594.47</v>
       </c>
-      <c r="BH17" s="36">
+      <c r="BH17" s="35">
         <v>546.13</v>
       </c>
       <c r="BI17" s="3">
@@ -4416,13 +4413,13 @@
       <c r="BQ17" s="24">
         <v>565.93</v>
       </c>
-      <c r="BR17" s="25">
+      <c r="BR17" s="24">
         <v>585.32</v>
       </c>
-      <c r="BS17" s="30">
+      <c r="BS17" s="29">
         <v>538</v>
       </c>
-      <c r="BT17" s="30">
+      <c r="BT17" s="29">
         <v>538</v>
       </c>
     </row>
@@ -4487,13 +4484,13 @@
       <c r="U18" s="24">
         <v>114</v>
       </c>
-      <c r="V18" s="25">
+      <c r="V18" s="24">
         <v>114</v>
       </c>
-      <c r="W18" s="40">
+      <c r="W18" s="39">
         <v>99</v>
       </c>
-      <c r="X18" s="41">
+      <c r="X18" s="40">
         <v>99</v>
       </c>
       <c r="Z18" s="3" t="s">
@@ -4514,7 +4511,7 @@
       <c r="AE18" s="13">
         <v>5133.8</v>
       </c>
-      <c r="AF18" s="36">
+      <c r="AF18" s="35">
         <v>5396.33</v>
       </c>
       <c r="AG18" s="3">
@@ -4526,7 +4523,7 @@
       <c r="AI18" s="13">
         <v>5281.26</v>
       </c>
-      <c r="AJ18" s="36">
+      <c r="AJ18" s="35">
         <v>5396.33</v>
       </c>
       <c r="AK18" s="3">
@@ -4556,13 +4553,13 @@
       <c r="AS18" s="24">
         <v>5134.25</v>
       </c>
-      <c r="AT18" s="25">
+      <c r="AT18" s="24">
         <v>5132.4</v>
       </c>
-      <c r="AU18" s="41">
+      <c r="AU18" s="40">
         <v>5119</v>
       </c>
-      <c r="AV18" s="41">
+      <c r="AV18" s="40">
         <v>5119</v>
       </c>
       <c r="AX18" s="3" t="s">
@@ -4583,7 +4580,7 @@
       <c r="BC18" s="13">
         <v>1721.77</v>
       </c>
-      <c r="BD18" s="36">
+      <c r="BD18" s="35">
         <v>1730.98</v>
       </c>
       <c r="BE18" s="3">
@@ -4595,7 +4592,7 @@
       <c r="BG18" s="13">
         <v>1724.74</v>
       </c>
-      <c r="BH18" s="36">
+      <c r="BH18" s="35">
         <v>1700.81</v>
       </c>
       <c r="BI18" s="3">
@@ -4625,11 +4622,11 @@
       <c r="BQ18" s="24">
         <v>1708.22</v>
       </c>
-      <c r="BR18" s="25">
+      <c r="BR18" s="24">
         <v>1732.64</v>
       </c>
-      <c r="BS18" s="30"/>
-      <c r="BT18" s="30"/>
+      <c r="BS18" s="29"/>
+      <c r="BT18" s="29"/>
     </row>
     <row r="19" spans="2:72">
       <c r="B19" s="3" t="s">
@@ -4692,13 +4689,13 @@
       <c r="U19" s="24">
         <v>69.08</v>
       </c>
-      <c r="V19" s="25">
+      <c r="V19" s="24">
         <v>69.08</v>
       </c>
-      <c r="W19" s="40">
+      <c r="W19" s="39">
         <v>71</v>
       </c>
-      <c r="X19" s="41">
+      <c r="X19" s="40">
         <v>71</v>
       </c>
       <c r="Z19" s="3" t="s">
@@ -4719,7 +4716,7 @@
       <c r="AE19" s="13">
         <v>6783.23</v>
       </c>
-      <c r="AF19" s="36">
+      <c r="AF19" s="35">
         <v>8301.6</v>
       </c>
       <c r="AG19" s="3">
@@ -4731,7 +4728,7 @@
       <c r="AI19" s="13">
         <v>7915.92</v>
       </c>
-      <c r="AJ19" s="36">
+      <c r="AJ19" s="35">
         <v>7231.98</v>
       </c>
       <c r="AK19" s="3">
@@ -4761,13 +4758,13 @@
       <c r="AS19" s="24">
         <v>6530.42</v>
       </c>
-      <c r="AT19" s="25">
+      <c r="AT19" s="24">
         <v>6503.68</v>
       </c>
-      <c r="AU19" s="41">
+      <c r="AU19" s="40">
         <v>5890</v>
       </c>
-      <c r="AV19" s="41">
+      <c r="AV19" s="40">
         <v>5890</v>
       </c>
       <c r="AX19" s="3" t="s">
@@ -4788,7 +4785,7 @@
       <c r="BC19" s="13">
         <v>2364.1</v>
       </c>
-      <c r="BD19" s="36">
+      <c r="BD19" s="35">
         <v>2372.35</v>
       </c>
       <c r="BE19" s="3"/>
@@ -4798,7 +4795,7 @@
       <c r="BG19" s="13">
         <v>2434.48</v>
       </c>
-      <c r="BH19" s="36">
+      <c r="BH19" s="35">
         <v>2218.16</v>
       </c>
       <c r="BI19" s="3" t="s">
@@ -4828,11 +4825,11 @@
       <c r="BQ19" s="24">
         <v>2307.33</v>
       </c>
-      <c r="BR19" s="25">
+      <c r="BR19" s="24">
         <v>2326.26</v>
       </c>
-      <c r="BS19" s="30"/>
-      <c r="BT19" s="30"/>
+      <c r="BS19" s="29"/>
+      <c r="BT19" s="29"/>
     </row>
     <row r="20" spans="2:72">
       <c r="B20" s="3" t="s">
@@ -4895,13 +4892,13 @@
       <c r="U20" s="24">
         <v>103.23</v>
       </c>
-      <c r="V20" s="25">
+      <c r="V20" s="24">
         <v>103.67</v>
       </c>
-      <c r="W20" s="40">
+      <c r="W20" s="39">
         <v>99</v>
       </c>
-      <c r="X20" s="41">
+      <c r="X20" s="40">
         <v>99</v>
       </c>
       <c r="Z20" s="3" t="s">
@@ -4922,7 +4919,7 @@
       <c r="AE20" s="13">
         <v>4318.56</v>
       </c>
-      <c r="AF20" s="36">
+      <c r="AF20" s="35">
         <v>5853.33</v>
       </c>
       <c r="AG20" s="3">
@@ -4934,7 +4931,7 @@
       <c r="AI20" s="13">
         <v>5811.52</v>
       </c>
-      <c r="AJ20" s="36">
+      <c r="AJ20" s="35">
         <v>4293.02</v>
       </c>
       <c r="AK20" s="3">
@@ -4964,13 +4961,13 @@
       <c r="AS20" s="24">
         <v>4625.3</v>
       </c>
-      <c r="AT20" s="25">
+      <c r="AT20" s="24">
         <v>4625.3</v>
       </c>
-      <c r="AU20" s="41">
+      <c r="AU20" s="40">
         <v>4293</v>
       </c>
-      <c r="AV20" s="41">
+      <c r="AV20" s="40">
         <v>4293</v>
       </c>
       <c r="AX20" s="3" t="s">
@@ -4991,7 +4988,7 @@
       <c r="BC20" s="13">
         <v>5145</v>
       </c>
-      <c r="BD20" s="36">
+      <c r="BD20" s="35">
         <v>5478</v>
       </c>
       <c r="BE20" s="3">
@@ -5003,7 +5000,7 @@
       <c r="BG20" s="13">
         <v>5382</v>
       </c>
-      <c r="BH20" s="36">
+      <c r="BH20" s="35">
         <v>5420</v>
       </c>
       <c r="BI20" s="3">
@@ -5033,11 +5030,11 @@
       <c r="BQ20" s="24">
         <v>5040</v>
       </c>
-      <c r="BR20" s="25">
+      <c r="BR20" s="24">
         <v>4975</v>
       </c>
-      <c r="BS20" s="30"/>
-      <c r="BT20" s="30"/>
+      <c r="BS20" s="29"/>
+      <c r="BT20" s="29"/>
     </row>
     <row r="21" spans="2:72">
       <c r="B21" s="3" t="s">
@@ -5100,13 +5097,13 @@
       <c r="U21" s="24">
         <v>119.08</v>
       </c>
-      <c r="V21" s="25">
+      <c r="V21" s="24">
         <v>119.37</v>
       </c>
-      <c r="W21" s="40">
+      <c r="W21" s="39">
         <v>101</v>
       </c>
-      <c r="X21" s="41">
+      <c r="X21" s="40">
         <v>101</v>
       </c>
       <c r="Z21" s="3" t="s">
@@ -5127,7 +5124,7 @@
       <c r="AE21" s="13">
         <v>5220.64</v>
       </c>
-      <c r="AF21" s="36">
+      <c r="AF21" s="35">
         <v>5246.28</v>
       </c>
       <c r="AG21" s="3">
@@ -5139,7 +5136,7 @@
       <c r="AI21" s="13">
         <v>5220.64</v>
       </c>
-      <c r="AJ21" s="36">
+      <c r="AJ21" s="35">
         <v>5246.28</v>
       </c>
       <c r="AK21" s="3">
@@ -5169,13 +5166,13 @@
       <c r="AS21" s="24">
         <v>5005.47</v>
       </c>
-      <c r="AT21" s="25">
+      <c r="AT21" s="24">
         <v>5084.95</v>
       </c>
-      <c r="AU21" s="41">
+      <c r="AU21" s="40">
         <v>3991</v>
       </c>
-      <c r="AV21" s="41">
+      <c r="AV21" s="40">
         <v>3991</v>
       </c>
       <c r="AX21" s="3" t="s">
@@ -5196,7 +5193,7 @@
       <c r="BC21" s="13">
         <v>12025</v>
       </c>
-      <c r="BD21" s="36">
+      <c r="BD21" s="35">
         <v>12196</v>
       </c>
       <c r="BE21" s="3">
@@ -5208,7 +5205,7 @@
       <c r="BG21" s="13">
         <v>0</v>
       </c>
-      <c r="BH21" s="36">
+      <c r="BH21" s="35">
         <v>12196</v>
       </c>
       <c r="BI21" s="3">
@@ -5238,11 +5235,11 @@
       <c r="BQ21" s="24">
         <v>11603</v>
       </c>
-      <c r="BR21" s="25">
+      <c r="BR21" s="24">
         <v>11495</v>
       </c>
-      <c r="BS21" s="30"/>
-      <c r="BT21" s="30"/>
+      <c r="BS21" s="29"/>
+      <c r="BT21" s="29"/>
     </row>
     <row r="22" spans="2:72">
       <c r="B22" s="3" t="s">
@@ -5305,13 +5302,13 @@
       <c r="U22" s="24">
         <v>145</v>
       </c>
-      <c r="V22" s="25">
+      <c r="V22" s="24">
         <v>148</v>
       </c>
-      <c r="W22" s="40">
+      <c r="W22" s="39">
         <v>145</v>
       </c>
-      <c r="X22" s="41">
+      <c r="X22" s="40">
         <v>145</v>
       </c>
       <c r="Z22" s="3" t="s">
@@ -5332,7 +5329,7 @@
       <c r="AE22" s="13">
         <v>3984.43</v>
       </c>
-      <c r="AF22" s="36">
+      <c r="AF22" s="35">
         <v>3842.76</v>
       </c>
       <c r="AG22" s="3">
@@ -5344,7 +5341,7 @@
       <c r="AI22" s="13">
         <v>3842.76</v>
       </c>
-      <c r="AJ22" s="36">
+      <c r="AJ22" s="35">
         <v>3919.58</v>
       </c>
       <c r="AK22" s="3">
@@ -5374,13 +5371,13 @@
       <c r="AS22" s="24">
         <v>3470.35</v>
       </c>
-      <c r="AT22" s="25">
+      <c r="AT22" s="24">
         <v>3470.35</v>
       </c>
-      <c r="AU22" s="41">
+      <c r="AU22" s="40">
         <v>3663</v>
       </c>
-      <c r="AV22" s="41">
+      <c r="AV22" s="40">
         <v>3663</v>
       </c>
       <c r="AX22" s="3" t="s">
@@ -5401,7 +5398,7 @@
       <c r="BC22" s="13">
         <v>22289</v>
       </c>
-      <c r="BD22" s="36">
+      <c r="BD22" s="35">
         <v>22414</v>
       </c>
       <c r="BE22" s="3">
@@ -5409,7 +5406,7 @@
       </c>
       <c r="BF22" s="4"/>
       <c r="BG22" s="13"/>
-      <c r="BH22" s="36"/>
+      <c r="BH22" s="35"/>
       <c r="BI22" s="3"/>
       <c r="BJ22" s="3"/>
       <c r="BK22" s="3"/>
@@ -5423,11 +5420,11 @@
       <c r="BQ22" s="24">
         <v>22435</v>
       </c>
-      <c r="BR22" s="25">
+      <c r="BR22" s="24">
         <v>22289</v>
       </c>
-      <c r="BS22" s="30"/>
-      <c r="BT22" s="30"/>
+      <c r="BS22" s="29"/>
+      <c r="BT22" s="29"/>
     </row>
     <row r="23" spans="2:72">
       <c r="B23" s="3" t="s">
@@ -5490,13 +5487,13 @@
       <c r="U23" s="24">
         <v>575.69</v>
       </c>
-      <c r="V23" s="25">
+      <c r="V23" s="24">
         <v>585.71</v>
       </c>
-      <c r="W23" s="40">
+      <c r="W23" s="39">
         <v>509</v>
       </c>
-      <c r="X23" s="41">
+      <c r="X23" s="40">
         <v>509</v>
       </c>
       <c r="Z23" s="3" t="s">
@@ -5517,7 +5514,7 @@
       <c r="AE23" s="13">
         <v>2084.1</v>
       </c>
-      <c r="AF23" s="36">
+      <c r="AF23" s="35">
         <v>2067.87</v>
       </c>
       <c r="AG23" s="3">
@@ -5529,7 +5526,7 @@
       <c r="AI23" s="13">
         <v>2067.87</v>
       </c>
-      <c r="AJ23" s="36">
+      <c r="AJ23" s="35">
         <v>2002.98</v>
       </c>
       <c r="AK23" s="3">
@@ -5559,13 +5556,13 @@
       <c r="AS23" s="24">
         <v>1853.13</v>
       </c>
-      <c r="AT23" s="25">
+      <c r="AT23" s="24">
         <v>1853.13</v>
       </c>
-      <c r="AU23" s="41">
+      <c r="AU23" s="40">
         <v>2108</v>
       </c>
-      <c r="AV23" s="41">
+      <c r="AV23" s="40">
         <v>2108</v>
       </c>
       <c r="AX23" s="3" t="s">
@@ -5586,7 +5583,7 @@
       <c r="BC23" s="13">
         <v>127.21</v>
       </c>
-      <c r="BD23" s="36">
+      <c r="BD23" s="35">
         <v>127.18</v>
       </c>
       <c r="BE23" s="3">
@@ -5598,7 +5595,7 @@
       <c r="BG23" s="13">
         <v>119.95</v>
       </c>
-      <c r="BH23" s="36">
+      <c r="BH23" s="35">
         <v>127.18</v>
       </c>
       <c r="BI23" s="3">
@@ -5628,13 +5625,13 @@
       <c r="BQ23" s="24">
         <v>102.42</v>
       </c>
-      <c r="BR23" s="25">
+      <c r="BR23" s="24">
         <v>102.42</v>
       </c>
-      <c r="BS23" s="30">
+      <c r="BS23" s="29">
         <v>110</v>
       </c>
-      <c r="BT23" s="30">
+      <c r="BT23" s="29">
         <v>114</v>
       </c>
     </row>
@@ -5699,13 +5696,13 @@
       <c r="U24" s="24">
         <v>154</v>
       </c>
-      <c r="V24" s="25">
+      <c r="V24" s="24">
         <v>154</v>
       </c>
-      <c r="W24" s="40">
+      <c r="W24" s="39">
         <v>143</v>
       </c>
-      <c r="X24" s="41">
+      <c r="X24" s="40">
         <v>143</v>
       </c>
       <c r="Z24" s="3" t="s">
@@ -5726,7 +5723,7 @@
       <c r="AE24" s="13">
         <v>9122.72</v>
       </c>
-      <c r="AF24" s="36">
+      <c r="AF24" s="35">
         <v>9230.75</v>
       </c>
       <c r="AG24" s="3">
@@ -5738,7 +5735,7 @@
       <c r="AI24" s="13">
         <v>9131.48</v>
       </c>
-      <c r="AJ24" s="36">
+      <c r="AJ24" s="35">
         <v>9406.35</v>
       </c>
       <c r="AK24" s="3">
@@ -5768,13 +5765,13 @@
       <c r="AS24" s="24">
         <v>8406.05</v>
       </c>
-      <c r="AT24" s="25">
+      <c r="AT24" s="24">
         <v>8081.43</v>
       </c>
-      <c r="AU24" s="41">
+      <c r="AU24" s="40">
         <v>8705</v>
       </c>
-      <c r="AV24" s="41">
+      <c r="AV24" s="40">
         <v>8705</v>
       </c>
       <c r="AX24" s="3" t="s">
@@ -5795,7 +5792,7 @@
       <c r="BC24" s="13">
         <v>146</v>
       </c>
-      <c r="BD24" s="36">
+      <c r="BD24" s="35">
         <v>146</v>
       </c>
       <c r="BE24" s="3">
@@ -5807,7 +5804,7 @@
       <c r="BG24" s="13">
         <v>146</v>
       </c>
-      <c r="BH24" s="36">
+      <c r="BH24" s="35">
         <v>146</v>
       </c>
       <c r="BI24" s="3">
@@ -5837,13 +5834,13 @@
       <c r="BQ24" s="24">
         <v>152</v>
       </c>
-      <c r="BR24" s="25">
+      <c r="BR24" s="24">
         <v>152</v>
       </c>
-      <c r="BS24" s="30">
+      <c r="BS24" s="29">
         <v>66</v>
       </c>
-      <c r="BT24" s="30">
+      <c r="BT24" s="29">
         <v>66</v>
       </c>
     </row>
@@ -5854,40 +5851,40 @@
       <c r="C25" s="12">
         <v>5</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D25" s="38">
         <v>258</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="38">
         <v>258</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F25" s="38">
         <v>258</v>
       </c>
-      <c r="G25" s="39">
+      <c r="G25" s="38">
         <v>224</v>
       </c>
-      <c r="H25" s="39">
+      <c r="H25" s="38">
         <v>248</v>
       </c>
-      <c r="I25" s="39">
+      <c r="I25" s="38">
         <v>248</v>
       </c>
-      <c r="J25" s="39">
+      <c r="J25" s="38">
         <v>248</v>
       </c>
-      <c r="K25" s="39">
+      <c r="K25" s="38">
         <v>233</v>
       </c>
-      <c r="L25" s="39">
+      <c r="L25" s="38">
         <v>248</v>
       </c>
-      <c r="M25" s="39">
+      <c r="M25" s="38">
         <v>248</v>
       </c>
-      <c r="N25" s="39">
+      <c r="N25" s="38">
         <v>292</v>
       </c>
-      <c r="O25" s="39">
+      <c r="O25" s="38">
         <v>299</v>
       </c>
       <c r="P25" s="21">
@@ -5908,13 +5905,13 @@
       <c r="U25" s="24">
         <v>181</v>
       </c>
-      <c r="V25" s="25">
+      <c r="V25" s="24">
         <v>181</v>
       </c>
-      <c r="W25" s="40">
+      <c r="W25" s="39">
         <v>178</v>
       </c>
-      <c r="X25" s="41">
+      <c r="X25" s="40">
         <v>178</v>
       </c>
       <c r="Z25" s="11" t="s">
@@ -5932,16 +5929,16 @@
       <c r="AD25" s="12">
         <v>13100.47</v>
       </c>
-      <c r="AE25" s="39">
+      <c r="AE25" s="38">
         <v>13078.98</v>
       </c>
-      <c r="AF25" s="43">
+      <c r="AF25" s="42">
         <v>12801.82</v>
       </c>
       <c r="AG25" s="11"/>
       <c r="AH25" s="12"/>
-      <c r="AI25" s="39"/>
-      <c r="AJ25" s="43"/>
+      <c r="AI25" s="38"/>
+      <c r="AJ25" s="42"/>
       <c r="AK25" s="11"/>
       <c r="AL25" s="11"/>
       <c r="AM25" s="11">
@@ -5957,11 +5954,11 @@
       <c r="AS25" s="24">
         <v>14968.31</v>
       </c>
-      <c r="AT25" s="25">
+      <c r="AT25" s="24">
         <v>15023.62</v>
       </c>
-      <c r="AU25" s="41"/>
-      <c r="AV25" s="41"/>
+      <c r="AU25" s="40"/>
+      <c r="AV25" s="40"/>
       <c r="AX25" s="3" t="s">
         <v>83</v>
       </c>
@@ -5980,7 +5977,7 @@
       <c r="BC25" s="13">
         <v>27500</v>
       </c>
-      <c r="BD25" s="36">
+      <c r="BD25" s="35">
         <v>27500</v>
       </c>
       <c r="BE25" s="3">
@@ -5992,7 +5989,7 @@
       <c r="BG25" s="13">
         <v>27500</v>
       </c>
-      <c r="BH25" s="36">
+      <c r="BH25" s="35">
         <v>27500</v>
       </c>
       <c r="BI25" s="3">
@@ -6022,11 +6019,11 @@
       <c r="BQ25" s="24">
         <v>30239.35</v>
       </c>
-      <c r="BR25" s="25">
+      <c r="BR25" s="24">
         <v>30239.35</v>
       </c>
-      <c r="BS25" s="30"/>
-      <c r="BT25" s="30"/>
+      <c r="BS25" s="29"/>
+      <c r="BT25" s="29"/>
     </row>
     <row r="26" spans="2:72">
       <c r="B26" s="13" t="s">
@@ -6089,13 +6086,13 @@
       <c r="U26" s="24">
         <v>162</v>
       </c>
-      <c r="V26" s="25">
+      <c r="V26" s="24">
         <v>162</v>
       </c>
-      <c r="W26" s="42">
+      <c r="W26" s="41">
         <v>231</v>
       </c>
-      <c r="X26" s="41">
+      <c r="X26" s="40">
         <v>231</v>
       </c>
       <c r="Z26" s="13" t="s">
@@ -6158,11 +6155,11 @@
       <c r="AS26" s="24">
         <v>828</v>
       </c>
-      <c r="AT26" s="25">
+      <c r="AT26" s="24">
         <v>809</v>
       </c>
-      <c r="AU26" s="44"/>
-      <c r="AV26" s="41"/>
+      <c r="AU26" s="43"/>
+      <c r="AV26" s="40"/>
       <c r="AX26" s="3" t="s">
         <v>86</v>
       </c>
@@ -6181,7 +6178,7 @@
       <c r="BC26" s="13">
         <v>986.19</v>
       </c>
-      <c r="BD26" s="36">
+      <c r="BD26" s="35">
         <v>1038.03</v>
       </c>
       <c r="BE26" s="3">
@@ -6193,7 +6190,7 @@
       <c r="BG26" s="13">
         <v>1018.34</v>
       </c>
-      <c r="BH26" s="36">
+      <c r="BH26" s="35">
         <v>1094.89</v>
       </c>
       <c r="BI26" s="3">
@@ -6223,11 +6220,11 @@
       <c r="BQ26" s="24">
         <v>964.77</v>
       </c>
-      <c r="BR26" s="25">
+      <c r="BR26" s="24">
         <v>992.22</v>
       </c>
-      <c r="BS26" s="30"/>
-      <c r="BT26" s="30"/>
+      <c r="BS26" s="29"/>
+      <c r="BT26" s="29"/>
     </row>
     <row r="27" spans="50:72">
       <c r="AX27" s="3" t="s">
@@ -6248,7 +6245,7 @@
       <c r="BC27" s="13">
         <v>751.06</v>
       </c>
-      <c r="BD27" s="36">
+      <c r="BD27" s="35">
         <v>751.06</v>
       </c>
       <c r="BE27" s="3">
@@ -6260,7 +6257,7 @@
       <c r="BG27" s="13">
         <v>751.06</v>
       </c>
-      <c r="BH27" s="36">
+      <c r="BH27" s="35">
         <v>751.06</v>
       </c>
       <c r="BI27" s="3">
@@ -6290,13 +6287,13 @@
       <c r="BQ27" s="24">
         <v>751.06</v>
       </c>
-      <c r="BR27" s="25">
+      <c r="BR27" s="24">
         <v>751.06</v>
       </c>
-      <c r="BS27" s="30">
+      <c r="BS27" s="29">
         <v>618</v>
       </c>
-      <c r="BT27" s="30">
+      <c r="BT27" s="29">
         <v>618</v>
       </c>
     </row>
@@ -6319,7 +6316,7 @@
       <c r="BC28" s="13">
         <v>456.58</v>
       </c>
-      <c r="BD28" s="36">
+      <c r="BD28" s="35">
         <v>456.58</v>
       </c>
       <c r="BE28" s="3">
@@ -6331,7 +6328,7 @@
       <c r="BG28" s="13">
         <v>456.58</v>
       </c>
-      <c r="BH28" s="36">
+      <c r="BH28" s="35">
         <v>456.58</v>
       </c>
       <c r="BI28" s="3">
@@ -6361,13 +6358,13 @@
       <c r="BQ28" s="24">
         <v>456.58</v>
       </c>
-      <c r="BR28" s="25">
+      <c r="BR28" s="24">
         <v>456.58</v>
       </c>
-      <c r="BS28" s="30">
+      <c r="BS28" s="29">
         <v>447</v>
       </c>
-      <c r="BT28" s="30">
+      <c r="BT28" s="29">
         <v>447</v>
       </c>
     </row>
@@ -6406,8 +6403,8 @@
   <sheetPr/>
   <dimension ref="B2:BT28"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="BC1" workbookViewId="0">
-      <selection activeCell="BI41" sqref="BI41"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="AY1" workbookViewId="0">
+      <selection activeCell="BG38" sqref="BG38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -6434,8 +6431,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:72">
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="13" t="s">
         <v>0</v>
       </c>
@@ -6459,8 +6456,8 @@
       <c r="V2" s="13"/>
       <c r="W2" s="13"/>
       <c r="X2" s="13"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
       <c r="AB2" s="13" t="s">
         <v>0</v>
       </c>
@@ -6484,8 +6481,8 @@
       <c r="AT2" s="13"/>
       <c r="AU2" s="13"/>
       <c r="AV2" s="13"/>
-      <c r="AX2" s="28"/>
-      <c r="AY2" s="28"/>
+      <c r="AX2" s="27"/>
+      <c r="AY2" s="27"/>
       <c r="AZ2" s="13" t="s">
         <v>0</v>
       </c>
@@ -6627,7 +6624,7 @@
       <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="30" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -6696,52 +6693,52 @@
       <c r="Z4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="36" t="s">
+      <c r="AA4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="AB4" s="32" t="s">
+      <c r="AB4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="AC4" s="32" t="s">
+      <c r="AC4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="AD4" s="37" t="s">
+      <c r="AD4" s="36" t="s">
         <v>12</v>
       </c>
       <c r="AE4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AF4" s="38" t="s">
+      <c r="AF4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AG4" s="32" t="s">
+      <c r="AG4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="AH4" s="37" t="s">
+      <c r="AH4" s="36" t="s">
         <v>12</v>
       </c>
       <c r="AI4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AJ4" s="38" t="s">
+      <c r="AJ4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AK4" s="32" t="s">
+      <c r="AK4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="AL4" s="32" t="s">
+      <c r="AL4" s="31" t="s">
         <v>12</v>
       </c>
       <c r="AM4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AN4" s="38" t="s">
+      <c r="AN4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AO4" s="32" t="s">
+      <c r="AO4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="AP4" s="32" t="s">
+      <c r="AP4" s="31" t="s">
         <v>18</v>
       </c>
       <c r="AQ4" s="18" t="s">
@@ -6756,16 +6753,16 @@
       <c r="AT4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AU4" s="29" t="s">
+      <c r="AU4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="AV4" s="29" t="s">
+      <c r="AV4" s="28" t="s">
         <v>17</v>
       </c>
       <c r="AX4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AY4" s="31" t="s">
+      <c r="AY4" s="30" t="s">
         <v>9</v>
       </c>
       <c r="AZ4" s="18" t="s">
@@ -6825,15 +6822,15 @@
       <c r="BR4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="BS4" s="29" t="s">
+      <c r="BS4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="BT4" s="29" t="s">
+      <c r="BT4" s="28" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:72">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="4">
@@ -6893,16 +6890,16 @@
       <c r="U5" s="24">
         <v>1469.76</v>
       </c>
-      <c r="V5" s="25">
+      <c r="V5" s="24">
         <v>1485.28</v>
       </c>
-      <c r="W5" s="33">
+      <c r="W5" s="32">
         <v>1234</v>
       </c>
-      <c r="X5" s="34">
+      <c r="X5" s="33">
         <v>1354</v>
       </c>
-      <c r="Z5" s="32" t="s">
+      <c r="Z5" s="31" t="s">
         <v>20</v>
       </c>
       <c r="AA5" s="3">
@@ -6920,7 +6917,7 @@
       <c r="AE5" s="13">
         <v>1979</v>
       </c>
-      <c r="AF5" s="36">
+      <c r="AF5" s="35">
         <v>1691</v>
       </c>
       <c r="AG5" s="3">
@@ -6932,7 +6929,7 @@
       <c r="AI5" s="13">
         <v>1691</v>
       </c>
-      <c r="AJ5" s="36">
+      <c r="AJ5" s="35">
         <v>1691</v>
       </c>
       <c r="AK5" s="3">
@@ -6962,16 +6959,16 @@
       <c r="AS5" s="24">
         <v>1548</v>
       </c>
-      <c r="AT5" s="25">
+      <c r="AT5" s="24">
         <v>1548</v>
       </c>
-      <c r="AU5" s="35">
+      <c r="AU5" s="34">
         <v>1691</v>
       </c>
-      <c r="AV5" s="30">
+      <c r="AV5" s="29">
         <v>1691</v>
       </c>
-      <c r="AX5" s="32" t="s">
+      <c r="AX5" s="31" t="s">
         <v>21</v>
       </c>
       <c r="AY5" s="4">
@@ -7031,13 +7028,13 @@
       <c r="BQ5" s="24">
         <v>50744.31</v>
       </c>
-      <c r="BR5" s="25">
+      <c r="BR5" s="24">
         <v>48864.85</v>
       </c>
-      <c r="BS5" s="30">
+      <c r="BS5" s="29">
         <v>37793</v>
       </c>
-      <c r="BT5" s="30">
+      <c r="BT5" s="29">
         <v>37793</v>
       </c>
     </row>
@@ -7066,9 +7063,9 @@
       <c r="S6" s="21"/>
       <c r="T6" s="24"/>
       <c r="U6" s="24"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="30"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="29"/>
       <c r="Z6" s="3" t="s">
         <v>23</v>
       </c>
@@ -7087,7 +7084,7 @@
       <c r="AE6" s="13">
         <v>21545.48</v>
       </c>
-      <c r="AF6" s="36">
+      <c r="AF6" s="35">
         <v>23146.59</v>
       </c>
       <c r="AG6" s="3">
@@ -7099,7 +7096,7 @@
       <c r="AI6" s="13">
         <v>23160.51</v>
       </c>
-      <c r="AJ6" s="36">
+      <c r="AJ6" s="35">
         <v>26964.52</v>
       </c>
       <c r="AK6" s="3">
@@ -7129,13 +7126,13 @@
       <c r="AS6" s="24">
         <v>21609.52</v>
       </c>
-      <c r="AT6" s="25">
+      <c r="AT6" s="24">
         <v>19866.06</v>
       </c>
-      <c r="AU6" s="35">
+      <c r="AU6" s="34">
         <v>17634</v>
       </c>
-      <c r="AV6" s="30">
+      <c r="AV6" s="29">
         <v>17634</v>
       </c>
       <c r="AX6" s="3" t="s">
@@ -7198,13 +7195,13 @@
       <c r="BQ6" s="24">
         <v>14221.33</v>
       </c>
-      <c r="BR6" s="25">
+      <c r="BR6" s="24">
         <v>14236.2</v>
       </c>
-      <c r="BS6" s="30">
+      <c r="BS6" s="29">
         <v>14839</v>
       </c>
-      <c r="BT6" s="30">
+      <c r="BT6" s="29">
         <v>14839</v>
       </c>
     </row>
@@ -7269,11 +7266,11 @@
       <c r="U7" s="24">
         <v>3618</v>
       </c>
-      <c r="V7" s="25">
+      <c r="V7" s="24">
         <v>3618</v>
       </c>
-      <c r="W7" s="35"/>
-      <c r="X7" s="30"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="29"/>
       <c r="Z7" s="3" t="s">
         <v>26</v>
       </c>
@@ -7292,7 +7289,7 @@
       <c r="AE7" s="13">
         <v>3142</v>
       </c>
-      <c r="AF7" s="36">
+      <c r="AF7" s="35">
         <v>3062</v>
       </c>
       <c r="AG7" s="3">
@@ -7304,7 +7301,7 @@
       <c r="AI7" s="13">
         <v>3062</v>
       </c>
-      <c r="AJ7" s="36">
+      <c r="AJ7" s="35">
         <v>2950</v>
       </c>
       <c r="AK7" s="3">
@@ -7334,11 +7331,11 @@
       <c r="AS7" s="24">
         <v>3199</v>
       </c>
-      <c r="AT7" s="25">
+      <c r="AT7" s="24">
         <v>3201</v>
       </c>
-      <c r="AU7" s="35"/>
-      <c r="AV7" s="30"/>
+      <c r="AU7" s="34"/>
+      <c r="AV7" s="29"/>
       <c r="AX7" s="3" t="s">
         <v>27</v>
       </c>
@@ -7399,13 +7396,13 @@
       <c r="BQ7" s="24">
         <v>22900.39</v>
       </c>
-      <c r="BR7" s="25">
+      <c r="BR7" s="24">
         <v>22940.02</v>
       </c>
-      <c r="BS7" s="30">
+      <c r="BS7" s="29">
         <v>21420</v>
       </c>
-      <c r="BT7" s="30">
+      <c r="BT7" s="29">
         <v>21564</v>
       </c>
     </row>
@@ -7470,11 +7467,11 @@
       <c r="U8" s="24">
         <v>14965</v>
       </c>
-      <c r="V8" s="25">
+      <c r="V8" s="24">
         <v>14938</v>
       </c>
-      <c r="W8" s="35"/>
-      <c r="X8" s="30"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="29"/>
       <c r="Z8" s="3" t="s">
         <v>29</v>
       </c>
@@ -7485,11 +7482,11 @@
       <c r="AC8" s="3"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="13"/>
-      <c r="AF8" s="36"/>
+      <c r="AF8" s="35"/>
       <c r="AG8" s="3"/>
       <c r="AH8" s="4"/>
       <c r="AI8" s="13"/>
-      <c r="AJ8" s="36"/>
+      <c r="AJ8" s="35"/>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
@@ -7499,11 +7496,11 @@
       <c r="AQ8" s="21"/>
       <c r="AR8" s="24"/>
       <c r="AS8" s="24"/>
-      <c r="AT8" s="25"/>
-      <c r="AU8" s="35">
+      <c r="AT8" s="24"/>
+      <c r="AU8" s="34">
         <v>29108</v>
       </c>
-      <c r="AV8" s="30">
+      <c r="AV8" s="29">
         <v>29108</v>
       </c>
       <c r="AX8" s="3" t="s">
@@ -7566,13 +7563,13 @@
       <c r="BQ8" s="24">
         <v>52630.18</v>
       </c>
-      <c r="BR8" s="25">
+      <c r="BR8" s="24">
         <v>52366.9</v>
       </c>
-      <c r="BS8" s="30">
+      <c r="BS8" s="29">
         <v>47911</v>
       </c>
-      <c r="BT8" s="30">
+      <c r="BT8" s="29">
         <v>48960</v>
       </c>
     </row>
@@ -7637,13 +7634,13 @@
       <c r="U9" s="24">
         <v>655</v>
       </c>
-      <c r="V9" s="25">
+      <c r="V9" s="24">
         <v>655</v>
       </c>
-      <c r="W9" s="35">
+      <c r="W9" s="34">
         <v>581</v>
       </c>
-      <c r="X9" s="30">
+      <c r="X9" s="29">
         <v>581</v>
       </c>
       <c r="Z9" s="3" t="s">
@@ -7656,11 +7653,11 @@
       <c r="AC9" s="3"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="13"/>
-      <c r="AF9" s="36"/>
+      <c r="AF9" s="35"/>
       <c r="AG9" s="3"/>
       <c r="AH9" s="4"/>
       <c r="AI9" s="13"/>
-      <c r="AJ9" s="36"/>
+      <c r="AJ9" s="35"/>
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
@@ -7670,11 +7667,11 @@
       <c r="AQ9" s="21"/>
       <c r="AR9" s="24"/>
       <c r="AS9" s="24"/>
-      <c r="AT9" s="25"/>
-      <c r="AU9" s="35">
+      <c r="AT9" s="24"/>
+      <c r="AU9" s="34">
         <v>13996</v>
       </c>
-      <c r="AV9" s="30">
+      <c r="AV9" s="29">
         <v>14131</v>
       </c>
       <c r="AX9" s="3" t="s">
@@ -7737,13 +7734,13 @@
       <c r="BQ9" s="24">
         <v>26533.4</v>
       </c>
-      <c r="BR9" s="25">
+      <c r="BR9" s="24">
         <v>26582.43</v>
       </c>
-      <c r="BS9" s="30">
+      <c r="BS9" s="29">
         <v>26296</v>
       </c>
-      <c r="BT9" s="30">
+      <c r="BT9" s="29">
         <v>26296</v>
       </c>
     </row>
@@ -7808,13 +7805,13 @@
       <c r="U10" s="24">
         <v>752</v>
       </c>
-      <c r="V10" s="25">
+      <c r="V10" s="24">
         <v>752</v>
       </c>
-      <c r="W10" s="35">
+      <c r="W10" s="34">
         <v>672</v>
       </c>
-      <c r="X10" s="30">
+      <c r="X10" s="29">
         <v>672</v>
       </c>
       <c r="Z10" s="3" t="s">
@@ -7827,11 +7824,11 @@
       <c r="AC10" s="3"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="13"/>
-      <c r="AF10" s="36"/>
+      <c r="AF10" s="35"/>
       <c r="AG10" s="3"/>
       <c r="AH10" s="4"/>
       <c r="AI10" s="13"/>
-      <c r="AJ10" s="36"/>
+      <c r="AJ10" s="35"/>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
@@ -7841,11 +7838,11 @@
       <c r="AQ10" s="21"/>
       <c r="AR10" s="24"/>
       <c r="AS10" s="24"/>
-      <c r="AT10" s="25"/>
-      <c r="AU10" s="35">
+      <c r="AT10" s="24"/>
+      <c r="AU10" s="34">
         <v>41661</v>
       </c>
-      <c r="AV10" s="30">
+      <c r="AV10" s="29">
         <v>41877</v>
       </c>
       <c r="AX10" s="3" t="s">
@@ -7908,13 +7905,13 @@
       <c r="BQ10" s="24">
         <v>33023.75</v>
       </c>
-      <c r="BR10" s="25">
+      <c r="BR10" s="24">
         <v>32889.71</v>
       </c>
-      <c r="BS10" s="30">
+      <c r="BS10" s="29">
         <v>30712</v>
       </c>
-      <c r="BT10" s="30">
+      <c r="BT10" s="29">
         <v>30718</v>
       </c>
     </row>
@@ -7979,13 +7976,13 @@
       <c r="U11" s="24">
         <v>2106.37</v>
       </c>
-      <c r="V11" s="25">
+      <c r="V11" s="24">
         <v>2033.99</v>
       </c>
-      <c r="W11" s="35">
+      <c r="W11" s="34">
         <v>1766</v>
       </c>
-      <c r="X11" s="30">
+      <c r="X11" s="29">
         <v>1766</v>
       </c>
       <c r="Z11" s="3" t="s">
@@ -7998,11 +7995,11 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="13"/>
-      <c r="AF11" s="36"/>
+      <c r="AF11" s="35"/>
       <c r="AG11" s="3"/>
       <c r="AH11" s="4"/>
       <c r="AI11" s="13"/>
-      <c r="AJ11" s="36"/>
+      <c r="AJ11" s="35"/>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
       <c r="AM11" s="3"/>
@@ -8012,9 +8009,9 @@
       <c r="AQ11" s="21"/>
       <c r="AR11" s="24"/>
       <c r="AS11" s="24"/>
-      <c r="AT11" s="25"/>
-      <c r="AU11" s="35"/>
-      <c r="AV11" s="30"/>
+      <c r="AT11" s="24"/>
+      <c r="AU11" s="34"/>
+      <c r="AV11" s="29"/>
       <c r="AX11" s="3" t="s">
         <v>39</v>
       </c>
@@ -8075,13 +8072,13 @@
       <c r="BQ11" s="24">
         <v>45053.7</v>
       </c>
-      <c r="BR11" s="25">
+      <c r="BR11" s="24">
         <v>45615.73</v>
       </c>
-      <c r="BS11" s="30">
+      <c r="BS11" s="29">
         <v>33349</v>
       </c>
-      <c r="BT11" s="30">
+      <c r="BT11" s="29">
         <v>33349</v>
       </c>
     </row>
@@ -8146,13 +8143,13 @@
       <c r="U12" s="24">
         <v>27999.03</v>
       </c>
-      <c r="V12" s="25">
+      <c r="V12" s="24">
         <v>28657.67</v>
       </c>
-      <c r="W12" s="35">
+      <c r="W12" s="34">
         <v>24862</v>
       </c>
-      <c r="X12" s="30">
+      <c r="X12" s="29">
         <v>24862</v>
       </c>
       <c r="Z12" s="3" t="s">
@@ -8165,11 +8162,11 @@
       <c r="AC12" s="3"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="13"/>
-      <c r="AF12" s="36"/>
+      <c r="AF12" s="35"/>
       <c r="AG12" s="3"/>
       <c r="AH12" s="4"/>
       <c r="AI12" s="13"/>
-      <c r="AJ12" s="36"/>
+      <c r="AJ12" s="35"/>
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
@@ -8179,9 +8176,9 @@
       <c r="AQ12" s="21"/>
       <c r="AR12" s="24"/>
       <c r="AS12" s="24"/>
-      <c r="AT12" s="25"/>
-      <c r="AU12" s="35"/>
-      <c r="AV12" s="30"/>
+      <c r="AT12" s="24"/>
+      <c r="AU12" s="34"/>
+      <c r="AV12" s="29"/>
       <c r="AX12" s="3" t="s">
         <v>42</v>
       </c>
@@ -8242,11 +8239,11 @@
       <c r="BQ12" s="24">
         <v>25681.09</v>
       </c>
-      <c r="BR12" s="25">
+      <c r="BR12" s="24">
         <v>24375.1</v>
       </c>
-      <c r="BS12" s="30"/>
-      <c r="BT12" s="30"/>
+      <c r="BS12" s="29"/>
+      <c r="BT12" s="29"/>
     </row>
     <row r="13" spans="2:72">
       <c r="B13" s="3" t="s">
@@ -8309,11 +8306,11 @@
       <c r="U13" s="24">
         <v>8201</v>
       </c>
-      <c r="V13" s="25">
+      <c r="V13" s="24">
         <v>7685</v>
       </c>
-      <c r="W13" s="35"/>
-      <c r="X13" s="30"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="29"/>
       <c r="Z13" s="3" t="s">
         <v>44</v>
       </c>
@@ -8332,7 +8329,7 @@
       <c r="AE13" s="13">
         <v>5977</v>
       </c>
-      <c r="AF13" s="36">
+      <c r="AF13" s="35">
         <v>5381</v>
       </c>
       <c r="AG13" s="3">
@@ -8344,7 +8341,7 @@
       <c r="AI13" s="13">
         <v>5412</v>
       </c>
-      <c r="AJ13" s="36">
+      <c r="AJ13" s="35">
         <v>6289</v>
       </c>
       <c r="AK13" s="3">
@@ -8374,13 +8371,13 @@
       <c r="AS13" s="24">
         <v>6166</v>
       </c>
-      <c r="AT13" s="25">
+      <c r="AT13" s="24">
         <v>6030</v>
       </c>
-      <c r="AU13" s="35">
+      <c r="AU13" s="34">
         <v>4238</v>
       </c>
-      <c r="AV13" s="30">
+      <c r="AV13" s="29">
         <v>4300</v>
       </c>
       <c r="AX13" s="3" t="s">
@@ -8443,11 +8440,11 @@
       <c r="BQ13" s="24">
         <v>25762.61</v>
       </c>
-      <c r="BR13" s="25">
+      <c r="BR13" s="24">
         <v>25536.99</v>
       </c>
-      <c r="BS13" s="30"/>
-      <c r="BT13" s="30"/>
+      <c r="BS13" s="29"/>
+      <c r="BT13" s="29"/>
     </row>
     <row r="14" spans="2:72">
       <c r="B14" s="3" t="s">
@@ -8510,11 +8507,11 @@
       <c r="U14" s="24">
         <v>1160</v>
       </c>
-      <c r="V14" s="25">
+      <c r="V14" s="24">
         <v>1180</v>
       </c>
-      <c r="W14" s="35"/>
-      <c r="X14" s="30"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="29"/>
       <c r="Z14" s="3" t="s">
         <v>47</v>
       </c>
@@ -8533,7 +8530,7 @@
       <c r="AE14" s="13">
         <v>11256.35</v>
       </c>
-      <c r="AF14" s="36">
+      <c r="AF14" s="35">
         <v>10171.17</v>
       </c>
       <c r="AG14" s="3">
@@ -8545,7 +8542,7 @@
       <c r="AI14" s="13">
         <v>9795.47</v>
       </c>
-      <c r="AJ14" s="36">
+      <c r="AJ14" s="35">
         <v>10444.9</v>
       </c>
       <c r="AK14" s="3">
@@ -8575,13 +8572,13 @@
       <c r="AS14" s="24">
         <v>10419.42</v>
       </c>
-      <c r="AT14" s="25">
+      <c r="AT14" s="24">
         <v>10392.04</v>
       </c>
-      <c r="AU14" s="35">
+      <c r="AU14" s="34">
         <v>9073</v>
       </c>
-      <c r="AV14" s="30">
+      <c r="AV14" s="29">
         <v>9098</v>
       </c>
       <c r="AX14" s="3" t="s">
@@ -8644,11 +8641,11 @@
       <c r="BQ14" s="24">
         <v>41769.18</v>
       </c>
-      <c r="BR14" s="25">
+      <c r="BR14" s="24">
         <v>42206.22</v>
       </c>
-      <c r="BS14" s="30"/>
-      <c r="BT14" s="30"/>
+      <c r="BS14" s="29"/>
+      <c r="BT14" s="29"/>
     </row>
     <row r="15" spans="2:72">
       <c r="B15" s="3" t="s">
@@ -8711,13 +8708,13 @@
       <c r="U15" s="24">
         <v>967.86</v>
       </c>
-      <c r="V15" s="25">
+      <c r="V15" s="24">
         <v>967.86</v>
       </c>
-      <c r="W15" s="35">
+      <c r="W15" s="34">
         <v>842</v>
       </c>
-      <c r="X15" s="30">
+      <c r="X15" s="29">
         <v>842</v>
       </c>
       <c r="Z15" s="3" t="s">
@@ -8738,7 +8735,7 @@
       <c r="AE15" s="13">
         <v>15463.93</v>
       </c>
-      <c r="AF15" s="36">
+      <c r="AF15" s="35">
         <v>15194.75</v>
       </c>
       <c r="AG15" s="3">
@@ -8750,7 +8747,7 @@
       <c r="AI15" s="13">
         <v>15235.59</v>
       </c>
-      <c r="AJ15" s="36">
+      <c r="AJ15" s="35">
         <v>13836.8</v>
       </c>
       <c r="AK15" s="3">
@@ -8780,13 +8777,13 @@
       <c r="AS15" s="24">
         <v>14555.29</v>
       </c>
-      <c r="AT15" s="25">
+      <c r="AT15" s="24">
         <v>13859.2</v>
       </c>
-      <c r="AU15" s="35">
+      <c r="AU15" s="34">
         <v>11412</v>
       </c>
-      <c r="AV15" s="30">
+      <c r="AV15" s="29">
         <v>11483</v>
       </c>
       <c r="AX15" s="3" t="s">
@@ -8823,9 +8820,9 @@
       <c r="BO15" s="21"/>
       <c r="BP15" s="24"/>
       <c r="BQ15" s="24"/>
-      <c r="BR15" s="25"/>
-      <c r="BS15" s="30"/>
-      <c r="BT15" s="30"/>
+      <c r="BR15" s="24"/>
+      <c r="BS15" s="29"/>
+      <c r="BT15" s="29"/>
     </row>
     <row r="16" spans="2:72">
       <c r="B16" s="3" t="s">
@@ -8888,13 +8885,13 @@
       <c r="U16" s="24">
         <v>2597.19</v>
       </c>
-      <c r="V16" s="25">
+      <c r="V16" s="24">
         <v>2668.1</v>
       </c>
-      <c r="W16" s="35">
+      <c r="W16" s="34">
         <v>2492</v>
       </c>
-      <c r="X16" s="30">
+      <c r="X16" s="29">
         <v>2492</v>
       </c>
       <c r="Z16" s="3" t="s">
@@ -8915,7 +8912,7 @@
       <c r="AE16" s="13">
         <v>13519.19</v>
       </c>
-      <c r="AF16" s="36">
+      <c r="AF16" s="35">
         <v>15518.81</v>
       </c>
       <c r="AG16" s="3">
@@ -8927,7 +8924,7 @@
       <c r="AI16" s="13">
         <v>15796.78</v>
       </c>
-      <c r="AJ16" s="36">
+      <c r="AJ16" s="35">
         <v>15428.8</v>
       </c>
       <c r="AK16" s="3">
@@ -8957,13 +8954,13 @@
       <c r="AS16" s="24">
         <v>15913.5</v>
       </c>
-      <c r="AT16" s="25">
+      <c r="AT16" s="24">
         <v>15521.44</v>
       </c>
-      <c r="AU16" s="35">
+      <c r="AU16" s="34">
         <v>13315</v>
       </c>
-      <c r="AV16" s="30">
+      <c r="AV16" s="29">
         <v>13315</v>
       </c>
       <c r="AX16" s="3" t="s">
@@ -9026,13 +9023,13 @@
       <c r="BQ16" s="24">
         <v>631.96</v>
       </c>
-      <c r="BR16" s="25">
+      <c r="BR16" s="24">
         <v>625.72</v>
       </c>
-      <c r="BS16" s="30">
+      <c r="BS16" s="29">
         <v>554</v>
       </c>
-      <c r="BT16" s="30">
+      <c r="BT16" s="29">
         <v>554</v>
       </c>
     </row>
@@ -9097,13 +9094,13 @@
       <c r="U17" s="24">
         <v>3421.42</v>
       </c>
-      <c r="V17" s="25">
+      <c r="V17" s="24">
         <v>3474.26</v>
       </c>
-      <c r="W17" s="35">
+      <c r="W17" s="34">
         <v>2772</v>
       </c>
-      <c r="X17" s="30">
+      <c r="X17" s="29">
         <v>2790</v>
       </c>
       <c r="Z17" s="3" t="s">
@@ -9124,7 +9121,7 @@
       <c r="AE17" s="13">
         <v>11415.84</v>
       </c>
-      <c r="AF17" s="36">
+      <c r="AF17" s="35">
         <v>11529.81</v>
       </c>
       <c r="AG17" s="3">
@@ -9136,7 +9133,7 @@
       <c r="AI17" s="13">
         <v>11768</v>
       </c>
-      <c r="AJ17" s="36">
+      <c r="AJ17" s="35">
         <v>10913.61</v>
       </c>
       <c r="AK17" s="3">
@@ -9166,13 +9163,13 @@
       <c r="AS17" s="24">
         <v>12178.68</v>
       </c>
-      <c r="AT17" s="25">
+      <c r="AT17" s="24">
         <v>11812.97</v>
       </c>
-      <c r="AU17" s="35">
+      <c r="AU17" s="34">
         <v>9071</v>
       </c>
-      <c r="AV17" s="30">
+      <c r="AV17" s="29">
         <v>9071</v>
       </c>
       <c r="AX17" s="3" t="s">
@@ -9235,13 +9232,13 @@
       <c r="BQ17" s="24">
         <v>1230.56</v>
       </c>
-      <c r="BR17" s="25">
+      <c r="BR17" s="24">
         <v>1250.85</v>
       </c>
-      <c r="BS17" s="30">
+      <c r="BS17" s="29">
         <v>1106</v>
       </c>
-      <c r="BT17" s="30">
+      <c r="BT17" s="29">
         <v>1108</v>
       </c>
     </row>
@@ -9306,13 +9303,13 @@
       <c r="U18" s="24">
         <v>261</v>
       </c>
-      <c r="V18" s="25">
+      <c r="V18" s="24">
         <v>252</v>
       </c>
-      <c r="W18" s="35">
+      <c r="W18" s="34">
         <v>227</v>
       </c>
-      <c r="X18" s="30">
+      <c r="X18" s="29">
         <v>227</v>
       </c>
       <c r="Z18" s="3" t="s">
@@ -9333,7 +9330,7 @@
       <c r="AE18" s="13">
         <v>11979.07</v>
       </c>
-      <c r="AF18" s="36">
+      <c r="AF18" s="35">
         <v>13325.39</v>
       </c>
       <c r="AG18" s="3">
@@ -9345,7 +9342,7 @@
       <c r="AI18" s="13">
         <v>13373.56</v>
       </c>
-      <c r="AJ18" s="36">
+      <c r="AJ18" s="35">
         <v>11828.96</v>
       </c>
       <c r="AK18" s="3">
@@ -9375,13 +9372,13 @@
       <c r="AS18" s="24">
         <v>13393.48</v>
       </c>
-      <c r="AT18" s="25">
+      <c r="AT18" s="24">
         <v>13391.56</v>
       </c>
-      <c r="AU18" s="35">
+      <c r="AU18" s="34">
         <v>11501</v>
       </c>
-      <c r="AV18" s="30">
+      <c r="AV18" s="29">
         <v>11501</v>
       </c>
       <c r="AX18" s="3" t="s">
@@ -9444,11 +9441,11 @@
       <c r="BQ18" s="24">
         <v>3615.8</v>
       </c>
-      <c r="BR18" s="25">
+      <c r="BR18" s="24">
         <v>3605.48</v>
       </c>
-      <c r="BS18" s="30"/>
-      <c r="BT18" s="30"/>
+      <c r="BS18" s="29"/>
+      <c r="BT18" s="29"/>
     </row>
     <row r="19" spans="2:72">
       <c r="B19" s="3" t="s">
@@ -9511,13 +9508,13 @@
       <c r="U19" s="24">
         <v>173.53</v>
       </c>
-      <c r="V19" s="25">
+      <c r="V19" s="24">
         <v>158.57</v>
       </c>
-      <c r="W19" s="35">
+      <c r="W19" s="34">
         <v>179</v>
       </c>
-      <c r="X19" s="30">
+      <c r="X19" s="29">
         <v>181</v>
       </c>
       <c r="Z19" s="3" t="s">
@@ -9538,7 +9535,7 @@
       <c r="AE19" s="13">
         <v>16727.82</v>
       </c>
-      <c r="AF19" s="36">
+      <c r="AF19" s="35">
         <v>17045.05</v>
       </c>
       <c r="AG19" s="3">
@@ -9550,7 +9547,7 @@
       <c r="AI19" s="13">
         <v>17120.65</v>
       </c>
-      <c r="AJ19" s="36">
+      <c r="AJ19" s="35">
         <v>15996.61</v>
       </c>
       <c r="AK19" s="3">
@@ -9580,13 +9577,13 @@
       <c r="AS19" s="24">
         <v>15898.3</v>
       </c>
-      <c r="AT19" s="25">
+      <c r="AT19" s="24">
         <v>16248.17</v>
       </c>
-      <c r="AU19" s="35">
+      <c r="AU19" s="34">
         <v>12787</v>
       </c>
-      <c r="AV19" s="30">
+      <c r="AV19" s="29">
         <v>12787</v>
       </c>
       <c r="AX19" s="3" t="s">
@@ -9633,11 +9630,11 @@
       <c r="BQ19" s="24">
         <v>4870.89</v>
       </c>
-      <c r="BR19" s="25">
+      <c r="BR19" s="24">
         <v>4920.37</v>
       </c>
-      <c r="BS19" s="30"/>
-      <c r="BT19" s="30"/>
+      <c r="BS19" s="29"/>
+      <c r="BT19" s="29"/>
     </row>
     <row r="20" spans="2:72">
       <c r="B20" s="3" t="s">
@@ -9700,13 +9697,13 @@
       <c r="U20" s="24">
         <v>226.74</v>
       </c>
-      <c r="V20" s="25">
+      <c r="V20" s="24">
         <v>292.57</v>
       </c>
-      <c r="W20" s="35">
+      <c r="W20" s="34">
         <v>217</v>
       </c>
-      <c r="X20" s="30">
+      <c r="X20" s="29">
         <v>219</v>
       </c>
       <c r="Z20" s="3" t="s">
@@ -9727,7 +9724,7 @@
       <c r="AE20" s="13">
         <v>9412.28</v>
       </c>
-      <c r="AF20" s="36">
+      <c r="AF20" s="35">
         <v>11703.58</v>
       </c>
       <c r="AG20" s="3">
@@ -9739,7 +9736,7 @@
       <c r="AI20" s="13">
         <v>12035.93</v>
       </c>
-      <c r="AJ20" s="36">
+      <c r="AJ20" s="35">
         <v>10824.74</v>
       </c>
       <c r="AK20" s="3">
@@ -9769,13 +9766,13 @@
       <c r="AS20" s="24">
         <v>11809.74</v>
       </c>
-      <c r="AT20" s="25">
+      <c r="AT20" s="24">
         <v>10837.48</v>
       </c>
-      <c r="AU20" s="35">
+      <c r="AU20" s="34">
         <v>9428</v>
       </c>
-      <c r="AV20" s="30">
+      <c r="AV20" s="29">
         <v>9498</v>
       </c>
       <c r="AX20" s="3" t="s">
@@ -9838,11 +9835,11 @@
       <c r="BQ20" s="24">
         <v>10272</v>
       </c>
-      <c r="BR20" s="25">
+      <c r="BR20" s="24">
         <v>10010</v>
       </c>
-      <c r="BS20" s="30"/>
-      <c r="BT20" s="30"/>
+      <c r="BS20" s="29"/>
+      <c r="BT20" s="29"/>
     </row>
     <row r="21" spans="2:72">
       <c r="B21" s="3" t="s">
@@ -9905,13 +9902,13 @@
       <c r="U21" s="24">
         <v>282.53</v>
       </c>
-      <c r="V21" s="25">
+      <c r="V21" s="24">
         <v>284.66</v>
       </c>
-      <c r="W21" s="35">
+      <c r="W21" s="34">
         <v>249</v>
       </c>
-      <c r="X21" s="30">
+      <c r="X21" s="29">
         <v>249</v>
       </c>
       <c r="Z21" s="3" t="s">
@@ -9932,7 +9929,7 @@
       <c r="AE21" s="13">
         <v>10720.17</v>
       </c>
-      <c r="AF21" s="36">
+      <c r="AF21" s="35">
         <v>11197.73</v>
       </c>
       <c r="AG21" s="3">
@@ -9944,7 +9941,7 @@
       <c r="AI21" s="13">
         <v>11092.2</v>
       </c>
-      <c r="AJ21" s="36">
+      <c r="AJ21" s="35">
         <v>11197.73</v>
       </c>
       <c r="AK21" s="3">
@@ -9974,13 +9971,13 @@
       <c r="AS21" s="24">
         <v>10587.26</v>
       </c>
-      <c r="AT21" s="25">
+      <c r="AT21" s="24">
         <v>10587.26</v>
       </c>
-      <c r="AU21" s="35">
+      <c r="AU21" s="34">
         <v>8808</v>
       </c>
-      <c r="AV21" s="30">
+      <c r="AV21" s="29">
         <v>8808</v>
       </c>
       <c r="AX21" s="3" t="s">
@@ -10043,11 +10040,11 @@
       <c r="BQ21" s="24">
         <v>23089</v>
       </c>
-      <c r="BR21" s="25">
+      <c r="BR21" s="24">
         <v>22935</v>
       </c>
-      <c r="BS21" s="30"/>
-      <c r="BT21" s="30"/>
+      <c r="BS21" s="29"/>
+      <c r="BT21" s="29"/>
     </row>
     <row r="22" spans="2:72">
       <c r="B22" s="3" t="s">
@@ -10110,13 +10107,13 @@
       <c r="U22" s="24">
         <v>361</v>
       </c>
-      <c r="V22" s="25">
+      <c r="V22" s="24">
         <v>361</v>
       </c>
-      <c r="W22" s="35">
+      <c r="W22" s="34">
         <v>308</v>
       </c>
-      <c r="X22" s="30">
+      <c r="X22" s="29">
         <v>339</v>
       </c>
       <c r="Z22" s="3" t="s">
@@ -10137,7 +10134,7 @@
       <c r="AE22" s="13">
         <v>10023.72</v>
       </c>
-      <c r="AF22" s="36">
+      <c r="AF22" s="35">
         <v>10160.41</v>
       </c>
       <c r="AG22" s="3">
@@ -10149,7 +10146,7 @@
       <c r="AI22" s="13">
         <v>9535.85</v>
       </c>
-      <c r="AJ22" s="36">
+      <c r="AJ22" s="35">
         <v>9449.58</v>
       </c>
       <c r="AK22" s="3">
@@ -10179,13 +10176,13 @@
       <c r="AS22" s="24">
         <v>9401.94</v>
       </c>
-      <c r="AT22" s="25">
+      <c r="AT22" s="24">
         <v>9215.14</v>
       </c>
-      <c r="AU22" s="35">
+      <c r="AU22" s="34">
         <v>9370</v>
       </c>
-      <c r="AV22" s="30">
+      <c r="AV22" s="29">
         <v>9370</v>
       </c>
       <c r="AX22" s="3" t="s">
@@ -10222,9 +10219,9 @@
       <c r="BO22" s="21"/>
       <c r="BP22" s="24"/>
       <c r="BQ22" s="24"/>
-      <c r="BR22" s="25"/>
-      <c r="BS22" s="30"/>
-      <c r="BT22" s="30"/>
+      <c r="BR22" s="24"/>
+      <c r="BS22" s="29"/>
+      <c r="BT22" s="29"/>
     </row>
     <row r="23" spans="2:72">
       <c r="B23" s="3" t="s">
@@ -10287,13 +10284,13 @@
       <c r="U23" s="24">
         <v>1228.27</v>
       </c>
-      <c r="V23" s="25">
+      <c r="V23" s="24">
         <v>1226.4</v>
       </c>
-      <c r="W23" s="35">
+      <c r="W23" s="34">
         <v>1049</v>
       </c>
-      <c r="X23" s="30">
+      <c r="X23" s="29">
         <v>1049</v>
       </c>
       <c r="Z23" s="3" t="s">
@@ -10314,7 +10311,7 @@
       <c r="AE23" s="13">
         <v>5835.44</v>
       </c>
-      <c r="AF23" s="36">
+      <c r="AF23" s="35">
         <v>5290</v>
       </c>
       <c r="AG23" s="3">
@@ -10326,7 +10323,7 @@
       <c r="AI23" s="13">
         <v>5350.1</v>
       </c>
-      <c r="AJ23" s="36">
+      <c r="AJ23" s="35">
         <v>5838.62</v>
       </c>
       <c r="AK23" s="3">
@@ -10356,13 +10353,13 @@
       <c r="AS23" s="24">
         <v>5234.72</v>
       </c>
-      <c r="AT23" s="25">
+      <c r="AT23" s="24">
         <v>5055.67</v>
       </c>
-      <c r="AU23" s="35">
+      <c r="AU23" s="34">
         <v>5532</v>
       </c>
-      <c r="AV23" s="30">
+      <c r="AV23" s="29">
         <v>5532</v>
       </c>
       <c r="AX23" s="3" t="s">
@@ -10425,13 +10422,13 @@
       <c r="BQ23" s="24">
         <v>243.1</v>
       </c>
-      <c r="BR23" s="25">
+      <c r="BR23" s="24">
         <v>243.1</v>
       </c>
-      <c r="BS23" s="30">
+      <c r="BS23" s="29">
         <v>250</v>
       </c>
-      <c r="BT23" s="30">
+      <c r="BT23" s="29">
         <v>264</v>
       </c>
     </row>
@@ -10496,13 +10493,13 @@
       <c r="U24" s="24">
         <v>426</v>
       </c>
-      <c r="V24" s="25">
+      <c r="V24" s="24">
         <v>426</v>
       </c>
-      <c r="W24" s="35">
+      <c r="W24" s="34">
         <v>359</v>
       </c>
-      <c r="X24" s="30">
+      <c r="X24" s="29">
         <v>368</v>
       </c>
       <c r="Z24" s="3" t="s">
@@ -10523,7 +10520,7 @@
       <c r="AE24" s="13">
         <v>22398.66</v>
       </c>
-      <c r="AF24" s="36">
+      <c r="AF24" s="35">
         <v>20659.25</v>
       </c>
       <c r="AG24" s="3">
@@ -10535,7 +10532,7 @@
       <c r="AI24" s="13">
         <v>20562.68</v>
       </c>
-      <c r="AJ24" s="36">
+      <c r="AJ24" s="35">
         <v>21122.47</v>
       </c>
       <c r="AK24" s="3">
@@ -10565,13 +10562,13 @@
       <c r="AS24" s="24">
         <v>20839.81</v>
       </c>
-      <c r="AT24" s="25">
+      <c r="AT24" s="24">
         <v>19911.69</v>
       </c>
-      <c r="AU24" s="35">
+      <c r="AU24" s="34">
         <v>17655</v>
       </c>
-      <c r="AV24" s="30">
+      <c r="AV24" s="29">
         <v>17655</v>
       </c>
       <c r="AX24" s="3" t="s">
@@ -10634,13 +10631,13 @@
       <c r="BQ24" s="24">
         <v>505</v>
       </c>
-      <c r="BR24" s="25">
+      <c r="BR24" s="24">
         <v>473</v>
       </c>
-      <c r="BS24" s="30">
+      <c r="BS24" s="29">
         <v>132</v>
       </c>
-      <c r="BT24" s="30">
+      <c r="BT24" s="29">
         <v>141</v>
       </c>
     </row>
@@ -10705,13 +10702,13 @@
       <c r="U25" s="24">
         <v>456</v>
       </c>
-      <c r="V25" s="25">
+      <c r="V25" s="24">
         <v>456</v>
       </c>
-      <c r="W25" s="35">
+      <c r="W25" s="34">
         <v>683</v>
       </c>
-      <c r="X25" s="30">
+      <c r="X25" s="29">
         <v>683</v>
       </c>
       <c r="Z25" s="3" t="s">
@@ -10732,13 +10729,13 @@
       <c r="AE25" s="13">
         <v>28205.78</v>
       </c>
-      <c r="AF25" s="36">
+      <c r="AF25" s="35">
         <v>27917.4</v>
       </c>
       <c r="AG25" s="3"/>
       <c r="AH25" s="4"/>
       <c r="AI25" s="13"/>
-      <c r="AJ25" s="36"/>
+      <c r="AJ25" s="35"/>
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
       <c r="AM25" s="3"/>
@@ -10748,9 +10745,9 @@
       <c r="AQ25" s="21"/>
       <c r="AR25" s="24"/>
       <c r="AS25" s="24"/>
-      <c r="AT25" s="25"/>
-      <c r="AU25" s="35"/>
-      <c r="AV25" s="30"/>
+      <c r="AT25" s="24"/>
+      <c r="AU25" s="34"/>
+      <c r="AV25" s="29"/>
       <c r="AX25" s="3" t="s">
         <v>83</v>
       </c>
@@ -10811,11 +10808,11 @@
       <c r="BQ25" s="24">
         <v>63347.41</v>
       </c>
-      <c r="BR25" s="25">
+      <c r="BR25" s="24">
         <v>59631.2</v>
       </c>
-      <c r="BS25" s="30"/>
-      <c r="BT25" s="30"/>
+      <c r="BS25" s="29"/>
+      <c r="BT25" s="29"/>
     </row>
     <row r="26" spans="2:72">
       <c r="B26" s="3" t="s">
@@ -10878,13 +10875,13 @@
       <c r="U26" s="24">
         <v>402</v>
       </c>
-      <c r="V26" s="25">
+      <c r="V26" s="24">
         <v>402</v>
       </c>
-      <c r="W26" s="35">
+      <c r="W26" s="34">
         <v>396</v>
       </c>
-      <c r="X26" s="30">
+      <c r="X26" s="29">
         <v>396</v>
       </c>
       <c r="Z26" s="3" t="s">
@@ -10905,7 +10902,7 @@
       <c r="AE26" s="13">
         <v>1277</v>
       </c>
-      <c r="AF26" s="36">
+      <c r="AF26" s="35">
         <v>1219</v>
       </c>
       <c r="AG26" s="3">
@@ -10917,7 +10914,7 @@
       <c r="AI26" s="13">
         <v>1241</v>
       </c>
-      <c r="AJ26" s="36">
+      <c r="AJ26" s="35">
         <v>1298</v>
       </c>
       <c r="AK26" s="3">
@@ -10947,11 +10944,11 @@
       <c r="AS26" s="24">
         <v>1505</v>
       </c>
-      <c r="AT26" s="25">
+      <c r="AT26" s="24">
         <v>1434</v>
       </c>
-      <c r="AU26" s="35"/>
-      <c r="AV26" s="30"/>
+      <c r="AU26" s="34"/>
+      <c r="AV26" s="29"/>
       <c r="AX26" s="3" t="s">
         <v>86</v>
       </c>
@@ -11012,11 +11009,11 @@
       <c r="BQ26" s="24">
         <v>2028.57</v>
       </c>
-      <c r="BR26" s="25">
+      <c r="BR26" s="24">
         <v>2101.47</v>
       </c>
-      <c r="BS26" s="30"/>
-      <c r="BT26" s="30"/>
+      <c r="BS26" s="29"/>
+      <c r="BT26" s="29"/>
     </row>
     <row r="27" spans="50:72">
       <c r="AX27" s="3" t="s">
@@ -11079,13 +11076,13 @@
       <c r="BQ27" s="24">
         <v>1463.06</v>
       </c>
-      <c r="BR27" s="25">
+      <c r="BR27" s="24">
         <v>1463.06</v>
       </c>
-      <c r="BS27" s="30">
+      <c r="BS27" s="29">
         <v>1329</v>
       </c>
-      <c r="BT27" s="30">
+      <c r="BT27" s="29">
         <v>1329</v>
       </c>
     </row>
@@ -11150,13 +11147,13 @@
       <c r="BQ28" s="24">
         <v>2171.85</v>
       </c>
-      <c r="BR28" s="25">
+      <c r="BR28" s="24">
         <v>2171.85</v>
       </c>
-      <c r="BS28" s="30">
+      <c r="BS28" s="29">
         <v>1473</v>
       </c>
-      <c r="BT28" s="30">
+      <c r="BT28" s="29">
         <v>1473</v>
       </c>
     </row>
@@ -11195,8 +11192,8 @@
   <sheetPr/>
   <dimension ref="B2:BT28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="BC1" workbookViewId="0">
-      <selection activeCell="BQ41" sqref="BQ41"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="BA1" workbookViewId="0">
+      <selection activeCell="BM40" sqref="BM40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -11253,8 +11250,8 @@
       <c r="V2" s="13"/>
       <c r="W2" s="13"/>
       <c r="X2" s="13"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
       <c r="AB2" s="13" t="s">
         <v>0</v>
       </c>
@@ -11278,8 +11275,8 @@
       <c r="AT2" s="13"/>
       <c r="AU2" s="13"/>
       <c r="AV2" s="13"/>
-      <c r="AX2" s="28"/>
-      <c r="AY2" s="28"/>
+      <c r="AX2" s="27"/>
+      <c r="AY2" s="27"/>
       <c r="AZ2" s="13" t="s">
         <v>0</v>
       </c>
@@ -11550,10 +11547,10 @@
       <c r="AT4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AU4" s="29" t="s">
+      <c r="AU4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="AV4" s="29" t="s">
+      <c r="AV4" s="28" t="s">
         <v>17</v>
       </c>
       <c r="AX4" s="3" t="s">
@@ -11619,10 +11616,10 @@
       <c r="BR4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="BS4" s="29" t="s">
+      <c r="BS4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="BT4" s="29" t="s">
+      <c r="BT4" s="28" t="s">
         <v>17</v>
       </c>
     </row>
@@ -11687,13 +11684,13 @@
       <c r="U5" s="24">
         <v>2032.33</v>
       </c>
-      <c r="V5" s="25">
+      <c r="V5" s="24">
         <v>2083.22</v>
       </c>
-      <c r="W5" s="26">
+      <c r="W5" s="25">
         <v>1894</v>
       </c>
-      <c r="X5" s="27">
+      <c r="X5" s="26">
         <v>1925</v>
       </c>
       <c r="Z5" s="3" t="s">
@@ -11756,13 +11753,13 @@
       <c r="AS5" s="24">
         <v>2887</v>
       </c>
-      <c r="AT5" s="25">
+      <c r="AT5" s="24">
         <v>2880</v>
       </c>
-      <c r="AU5" s="30">
+      <c r="AU5" s="29">
         <v>3135</v>
       </c>
-      <c r="AV5" s="30">
+      <c r="AV5" s="29">
         <v>3135</v>
       </c>
       <c r="AX5" s="3" t="s">
@@ -11825,13 +11822,13 @@
       <c r="BQ5" s="24">
         <v>74958.07</v>
       </c>
-      <c r="BR5" s="25">
+      <c r="BR5" s="24">
         <v>69578.7</v>
       </c>
-      <c r="BS5" s="30">
+      <c r="BS5" s="29">
         <v>62262</v>
       </c>
-      <c r="BT5" s="30">
+      <c r="BT5" s="29">
         <v>62262</v>
       </c>
     </row>
@@ -11860,9 +11857,9 @@
       <c r="S6" s="21"/>
       <c r="T6" s="24"/>
       <c r="U6" s="24"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="27"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="26"/>
       <c r="Z6" s="3" t="s">
         <v>23</v>
       </c>
@@ -11923,13 +11920,13 @@
       <c r="AS6" s="24">
         <v>40913.06</v>
       </c>
-      <c r="AT6" s="25">
+      <c r="AT6" s="24">
         <v>39635.44</v>
       </c>
-      <c r="AU6" s="30">
+      <c r="AU6" s="29">
         <v>29257</v>
       </c>
-      <c r="AV6" s="30">
+      <c r="AV6" s="29">
         <v>30083</v>
       </c>
       <c r="AX6" s="3" t="s">
@@ -11992,13 +11989,13 @@
       <c r="BQ6" s="24">
         <v>29207.41</v>
       </c>
-      <c r="BR6" s="25">
+      <c r="BR6" s="24">
         <v>29207.41</v>
       </c>
-      <c r="BS6" s="30">
+      <c r="BS6" s="29">
         <v>29684</v>
       </c>
-      <c r="BT6" s="30">
+      <c r="BT6" s="29">
         <v>29684</v>
       </c>
     </row>
@@ -12063,11 +12060,11 @@
       <c r="U7" s="24">
         <v>6020</v>
       </c>
-      <c r="V7" s="25">
+      <c r="V7" s="24">
         <v>5933</v>
       </c>
-      <c r="W7" s="26"/>
-      <c r="X7" s="27"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="26"/>
       <c r="Z7" s="3" t="s">
         <v>26</v>
       </c>
@@ -12128,11 +12125,11 @@
       <c r="AS7" s="24">
         <v>4803</v>
       </c>
-      <c r="AT7" s="25">
+      <c r="AT7" s="24">
         <v>4815</v>
       </c>
-      <c r="AU7" s="30"/>
-      <c r="AV7" s="30"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="29"/>
       <c r="AX7" s="3" t="s">
         <v>27</v>
       </c>
@@ -12193,13 +12190,13 @@
       <c r="BQ7" s="24">
         <v>39040.23</v>
       </c>
-      <c r="BR7" s="25">
+      <c r="BR7" s="24">
         <v>38668.15</v>
       </c>
-      <c r="BS7" s="30">
+      <c r="BS7" s="29">
         <v>36977</v>
       </c>
-      <c r="BT7" s="30">
+      <c r="BT7" s="29">
         <v>36977</v>
       </c>
     </row>
@@ -12264,11 +12261,11 @@
       <c r="U8" s="24">
         <v>21465</v>
       </c>
-      <c r="V8" s="25">
+      <c r="V8" s="24">
         <v>21796</v>
       </c>
-      <c r="W8" s="26"/>
-      <c r="X8" s="27"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="26"/>
       <c r="Z8" s="3" t="s">
         <v>29</v>
       </c>
@@ -12293,11 +12290,11 @@
       <c r="AQ8" s="21"/>
       <c r="AR8" s="24"/>
       <c r="AS8" s="24"/>
-      <c r="AT8" s="25"/>
-      <c r="AU8" s="30">
+      <c r="AT8" s="24"/>
+      <c r="AU8" s="29">
         <v>44147</v>
       </c>
-      <c r="AV8" s="30">
+      <c r="AV8" s="29">
         <v>44286</v>
       </c>
       <c r="AX8" s="3" t="s">
@@ -12360,13 +12357,13 @@
       <c r="BQ8" s="24">
         <v>75165.33</v>
       </c>
-      <c r="BR8" s="25">
+      <c r="BR8" s="24">
         <v>72681.7</v>
       </c>
-      <c r="BS8" s="30">
+      <c r="BS8" s="29">
         <v>67879</v>
       </c>
-      <c r="BT8" s="30">
+      <c r="BT8" s="29">
         <v>69818</v>
       </c>
     </row>
@@ -12431,13 +12428,13 @@
       <c r="U9" s="24">
         <v>983</v>
       </c>
-      <c r="V9" s="25">
+      <c r="V9" s="24">
         <v>971</v>
       </c>
-      <c r="W9" s="26">
+      <c r="W9" s="25">
         <v>929</v>
       </c>
-      <c r="X9" s="27">
+      <c r="X9" s="26">
         <v>929</v>
       </c>
       <c r="Z9" s="3" t="s">
@@ -12464,11 +12461,11 @@
       <c r="AQ9" s="21"/>
       <c r="AR9" s="24"/>
       <c r="AS9" s="24"/>
-      <c r="AT9" s="25"/>
-      <c r="AU9" s="30">
+      <c r="AT9" s="24"/>
+      <c r="AU9" s="29">
         <v>22000</v>
       </c>
-      <c r="AV9" s="30">
+      <c r="AV9" s="29">
         <v>22528</v>
       </c>
       <c r="AX9" s="3" t="s">
@@ -12531,13 +12528,13 @@
       <c r="BQ9" s="24">
         <v>41612.52</v>
       </c>
-      <c r="BR9" s="25">
+      <c r="BR9" s="24">
         <v>41755.64</v>
       </c>
-      <c r="BS9" s="30">
+      <c r="BS9" s="29">
         <v>40274</v>
       </c>
-      <c r="BT9" s="30">
+      <c r="BT9" s="29">
         <v>40832</v>
       </c>
     </row>
@@ -12602,13 +12599,13 @@
       <c r="U10" s="24">
         <v>1103</v>
       </c>
-      <c r="V10" s="25">
+      <c r="V10" s="24">
         <v>1106</v>
       </c>
-      <c r="W10" s="26">
+      <c r="W10" s="25">
         <v>1090</v>
       </c>
-      <c r="X10" s="27">
+      <c r="X10" s="26">
         <v>1090</v>
       </c>
       <c r="Z10" s="3" t="s">
@@ -12635,11 +12632,11 @@
       <c r="AQ10" s="21"/>
       <c r="AR10" s="24"/>
       <c r="AS10" s="24"/>
-      <c r="AT10" s="25"/>
-      <c r="AU10" s="30">
+      <c r="AT10" s="24"/>
+      <c r="AU10" s="29">
         <v>65832</v>
       </c>
-      <c r="AV10" s="30">
+      <c r="AV10" s="29">
         <v>66183</v>
       </c>
       <c r="AX10" s="3" t="s">
@@ -12702,13 +12699,13 @@
       <c r="BQ10" s="24">
         <v>48003.91</v>
       </c>
-      <c r="BR10" s="25">
+      <c r="BR10" s="24">
         <v>48073.99</v>
       </c>
-      <c r="BS10" s="30">
+      <c r="BS10" s="29">
         <v>46434</v>
       </c>
-      <c r="BT10" s="30">
+      <c r="BT10" s="29">
         <v>46635</v>
       </c>
     </row>
@@ -12773,13 +12770,13 @@
       <c r="U11" s="24">
         <v>3870.51</v>
       </c>
-      <c r="V11" s="25">
+      <c r="V11" s="24">
         <v>3870.51</v>
       </c>
-      <c r="W11" s="26">
+      <c r="W11" s="25">
         <v>3853</v>
       </c>
-      <c r="X11" s="27">
+      <c r="X11" s="26">
         <v>3904</v>
       </c>
       <c r="Z11" s="3" t="s">
@@ -12806,9 +12803,9 @@
       <c r="AQ11" s="21"/>
       <c r="AR11" s="24"/>
       <c r="AS11" s="24"/>
-      <c r="AT11" s="25"/>
-      <c r="AU11" s="30"/>
-      <c r="AV11" s="30"/>
+      <c r="AT11" s="24"/>
+      <c r="AU11" s="29"/>
+      <c r="AV11" s="29"/>
       <c r="AX11" s="3" t="s">
         <v>39</v>
       </c>
@@ -12869,13 +12866,13 @@
       <c r="BQ11" s="24">
         <v>66996.81</v>
       </c>
-      <c r="BR11" s="25">
+      <c r="BR11" s="24">
         <v>67858.17</v>
       </c>
-      <c r="BS11" s="30">
+      <c r="BS11" s="29">
         <v>49022</v>
       </c>
-      <c r="BT11" s="30">
+      <c r="BT11" s="29">
         <v>49588</v>
       </c>
     </row>
@@ -12940,13 +12937,13 @@
       <c r="U12" s="24">
         <v>52702.99</v>
       </c>
-      <c r="V12" s="25">
+      <c r="V12" s="24">
         <v>54299.16</v>
       </c>
-      <c r="W12" s="26">
+      <c r="W12" s="25">
         <v>51542</v>
       </c>
-      <c r="X12" s="27">
+      <c r="X12" s="26">
         <v>51604</v>
       </c>
       <c r="Z12" s="3" t="s">
@@ -12973,9 +12970,9 @@
       <c r="AQ12" s="21"/>
       <c r="AR12" s="24"/>
       <c r="AS12" s="24"/>
-      <c r="AT12" s="25"/>
-      <c r="AU12" s="30"/>
-      <c r="AV12" s="30"/>
+      <c r="AT12" s="24"/>
+      <c r="AU12" s="29"/>
+      <c r="AV12" s="29"/>
       <c r="AX12" s="3" t="s">
         <v>42</v>
       </c>
@@ -13036,11 +13033,11 @@
       <c r="BQ12" s="24">
         <v>33911.27</v>
       </c>
-      <c r="BR12" s="25">
+      <c r="BR12" s="24">
         <v>32757.94</v>
       </c>
-      <c r="BS12" s="30"/>
-      <c r="BT12" s="30"/>
+      <c r="BS12" s="29"/>
+      <c r="BT12" s="29"/>
     </row>
     <row r="13" spans="2:72">
       <c r="B13" s="13" t="s">
@@ -13103,11 +13100,11 @@
       <c r="U13" s="24">
         <v>12026</v>
       </c>
-      <c r="V13" s="25">
+      <c r="V13" s="24">
         <v>11509</v>
       </c>
-      <c r="W13" s="26"/>
-      <c r="X13" s="27"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="26"/>
       <c r="Z13" s="3" t="s">
         <v>44</v>
       </c>
@@ -13168,13 +13165,13 @@
       <c r="AS13" s="24">
         <v>8004</v>
       </c>
-      <c r="AT13" s="25">
+      <c r="AT13" s="24">
         <v>8258</v>
       </c>
-      <c r="AU13" s="30">
+      <c r="AU13" s="29">
         <v>6937</v>
       </c>
-      <c r="AV13" s="30">
+      <c r="AV13" s="29">
         <v>6937</v>
       </c>
       <c r="AX13" s="3" t="s">
@@ -13237,11 +13234,11 @@
       <c r="BQ13" s="24">
         <v>37232.98</v>
       </c>
-      <c r="BR13" s="25">
+      <c r="BR13" s="24">
         <v>38040.4</v>
       </c>
-      <c r="BS13" s="30"/>
-      <c r="BT13" s="30"/>
+      <c r="BS13" s="29"/>
+      <c r="BT13" s="29"/>
     </row>
     <row r="14" spans="2:72">
       <c r="B14" s="13" t="s">
@@ -13304,11 +13301,11 @@
       <c r="U14" s="24">
         <v>1690</v>
       </c>
-      <c r="V14" s="25">
+      <c r="V14" s="24">
         <v>1720</v>
       </c>
-      <c r="W14" s="26"/>
-      <c r="X14" s="27"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="26"/>
       <c r="Z14" s="3" t="s">
         <v>47</v>
       </c>
@@ -13369,13 +13366,13 @@
       <c r="AS14" s="24">
         <v>16169.86</v>
       </c>
-      <c r="AT14" s="25">
+      <c r="AT14" s="24">
         <v>15829.78</v>
       </c>
-      <c r="AU14" s="30">
+      <c r="AU14" s="29">
         <v>13982</v>
       </c>
-      <c r="AV14" s="30">
+      <c r="AV14" s="29">
         <v>14229</v>
       </c>
       <c r="AX14" s="3" t="s">
@@ -13438,11 +13435,11 @@
       <c r="BQ14" s="24">
         <v>69827.25</v>
       </c>
-      <c r="BR14" s="25">
+      <c r="BR14" s="24">
         <v>68450</v>
       </c>
-      <c r="BS14" s="30"/>
-      <c r="BT14" s="30"/>
+      <c r="BS14" s="29"/>
+      <c r="BT14" s="29"/>
     </row>
     <row r="15" spans="2:72">
       <c r="B15" s="13" t="s">
@@ -13505,13 +13502,13 @@
       <c r="U15" s="24">
         <v>1528.5</v>
       </c>
-      <c r="V15" s="25">
+      <c r="V15" s="24">
         <v>1528.5</v>
       </c>
-      <c r="W15" s="26">
+      <c r="W15" s="25">
         <v>1349</v>
       </c>
-      <c r="X15" s="27">
+      <c r="X15" s="26">
         <v>1349</v>
       </c>
       <c r="Z15" s="3" t="s">
@@ -13574,13 +13571,13 @@
       <c r="AS15" s="24">
         <v>21434.67</v>
       </c>
-      <c r="AT15" s="25">
+      <c r="AT15" s="24">
         <v>20964.76</v>
       </c>
-      <c r="AU15" s="30">
+      <c r="AU15" s="29">
         <v>17787</v>
       </c>
-      <c r="AV15" s="30">
+      <c r="AV15" s="29">
         <v>17953</v>
       </c>
       <c r="AX15" s="3" t="s">
@@ -13613,9 +13610,9 @@
       <c r="BO15" s="21"/>
       <c r="BP15" s="24"/>
       <c r="BQ15" s="24"/>
-      <c r="BR15" s="25"/>
-      <c r="BS15" s="30"/>
-      <c r="BT15" s="30"/>
+      <c r="BR15" s="24"/>
+      <c r="BS15" s="29"/>
+      <c r="BT15" s="29"/>
     </row>
     <row r="16" spans="2:72">
       <c r="B16" s="13" t="s">
@@ -13678,13 +13675,13 @@
       <c r="U16" s="24">
         <v>4425.87</v>
       </c>
-      <c r="V16" s="25">
+      <c r="V16" s="24">
         <v>4382.3</v>
       </c>
-      <c r="W16" s="26">
+      <c r="W16" s="25">
         <v>4062</v>
       </c>
-      <c r="X16" s="27">
+      <c r="X16" s="26">
         <v>4127</v>
       </c>
       <c r="Z16" s="3" t="s">
@@ -13747,13 +13744,13 @@
       <c r="AS16" s="24">
         <v>23904.62</v>
       </c>
-      <c r="AT16" s="25">
+      <c r="AT16" s="24">
         <v>24102.88</v>
       </c>
-      <c r="AU16" s="30">
+      <c r="AU16" s="29">
         <v>20705</v>
       </c>
-      <c r="AV16" s="30">
+      <c r="AV16" s="29">
         <v>20855</v>
       </c>
       <c r="AX16" s="3" t="s">
@@ -13816,13 +13813,13 @@
       <c r="BQ16" s="24">
         <v>967.17</v>
       </c>
-      <c r="BR16" s="25">
+      <c r="BR16" s="24">
         <v>971.93</v>
       </c>
-      <c r="BS16" s="30">
+      <c r="BS16" s="29">
         <v>868</v>
       </c>
-      <c r="BT16" s="30">
+      <c r="BT16" s="29">
         <v>868</v>
       </c>
     </row>
@@ -13887,13 +13884,13 @@
       <c r="U17" s="24">
         <v>5145.74</v>
       </c>
-      <c r="V17" s="25">
+      <c r="V17" s="24">
         <v>4981.58</v>
       </c>
-      <c r="W17" s="26">
+      <c r="W17" s="25">
         <v>4480</v>
       </c>
-      <c r="X17" s="27">
+      <c r="X17" s="26">
         <v>4480</v>
       </c>
       <c r="Z17" s="3" t="s">
@@ -13956,13 +13953,13 @@
       <c r="AS17" s="24">
         <v>18331.68</v>
       </c>
-      <c r="AT17" s="25">
+      <c r="AT17" s="24">
         <v>17123.9</v>
       </c>
-      <c r="AU17" s="30">
+      <c r="AU17" s="29">
         <v>14648</v>
       </c>
-      <c r="AV17" s="30">
+      <c r="AV17" s="29">
         <v>14787</v>
       </c>
       <c r="AX17" s="3" t="s">
@@ -14025,13 +14022,13 @@
       <c r="BQ17" s="24">
         <v>1878.64</v>
       </c>
-      <c r="BR17" s="25">
+      <c r="BR17" s="24">
         <v>1868.65</v>
       </c>
-      <c r="BS17" s="30">
+      <c r="BS17" s="29">
         <v>1669</v>
       </c>
-      <c r="BT17" s="30">
+      <c r="BT17" s="29">
         <v>1670</v>
       </c>
     </row>
@@ -14096,13 +14093,13 @@
       <c r="U18" s="24">
         <v>431</v>
       </c>
-      <c r="V18" s="25">
+      <c r="V18" s="24">
         <v>404</v>
       </c>
-      <c r="W18" s="26">
+      <c r="W18" s="25">
         <v>404</v>
       </c>
-      <c r="X18" s="27">
+      <c r="X18" s="26">
         <v>404</v>
       </c>
       <c r="Z18" s="3" t="s">
@@ -14165,13 +14162,13 @@
       <c r="AS18" s="24">
         <v>20217.2</v>
       </c>
-      <c r="AT18" s="25">
+      <c r="AT18" s="24">
         <v>20290.41</v>
       </c>
-      <c r="AU18" s="30">
+      <c r="AU18" s="29">
         <v>17090</v>
       </c>
-      <c r="AV18" s="30">
+      <c r="AV18" s="29">
         <v>17193</v>
       </c>
       <c r="AX18" s="3" t="s">
@@ -14232,11 +14229,11 @@
       <c r="BQ18" s="24">
         <v>5491.92</v>
       </c>
-      <c r="BR18" s="25">
+      <c r="BR18" s="24">
         <v>5573.08</v>
       </c>
-      <c r="BS18" s="30"/>
-      <c r="BT18" s="30"/>
+      <c r="BS18" s="29"/>
+      <c r="BT18" s="29"/>
     </row>
     <row r="19" spans="2:72">
       <c r="B19" s="13" t="s">
@@ -14299,13 +14296,13 @@
       <c r="U19" s="24">
         <v>312.87</v>
       </c>
-      <c r="V19" s="25">
+      <c r="V19" s="24">
         <v>308.34</v>
       </c>
-      <c r="W19" s="26">
+      <c r="W19" s="25">
         <v>278</v>
       </c>
-      <c r="X19" s="27">
+      <c r="X19" s="26">
         <v>286</v>
       </c>
       <c r="Z19" s="3" t="s">
@@ -14368,13 +14365,13 @@
       <c r="AS19" s="24">
         <v>24153.98</v>
       </c>
-      <c r="AT19" s="25">
+      <c r="AT19" s="24">
         <v>24450.23</v>
       </c>
-      <c r="AU19" s="30">
+      <c r="AU19" s="29">
         <v>20553</v>
       </c>
-      <c r="AV19" s="30">
+      <c r="AV19" s="29">
         <v>20851</v>
       </c>
       <c r="AX19" s="3" t="s">
@@ -14421,9 +14418,9 @@
       </c>
       <c r="BP19" s="24"/>
       <c r="BQ19" s="24"/>
-      <c r="BR19" s="25"/>
-      <c r="BS19" s="30"/>
-      <c r="BT19" s="30"/>
+      <c r="BR19" s="24"/>
+      <c r="BS19" s="29"/>
+      <c r="BT19" s="29"/>
     </row>
     <row r="20" spans="2:72">
       <c r="B20" s="13" t="s">
@@ -14486,13 +14483,13 @@
       <c r="U20" s="24">
         <v>368.49</v>
       </c>
-      <c r="V20" s="25">
+      <c r="V20" s="24">
         <v>360.15</v>
       </c>
-      <c r="W20" s="26">
+      <c r="W20" s="25">
         <v>345</v>
       </c>
-      <c r="X20" s="27">
+      <c r="X20" s="26">
         <v>348</v>
       </c>
       <c r="Z20" s="3" t="s">
@@ -14555,13 +14552,13 @@
       <c r="AS20" s="24">
         <v>16002.74</v>
       </c>
-      <c r="AT20" s="25">
+      <c r="AT20" s="24">
         <v>16030.37</v>
       </c>
-      <c r="AU20" s="30">
+      <c r="AU20" s="29">
         <v>14295</v>
       </c>
-      <c r="AV20" s="30">
+      <c r="AV20" s="29">
         <v>14419</v>
       </c>
       <c r="AX20" s="3" t="s">
@@ -14624,11 +14621,11 @@
       <c r="BQ20" s="24">
         <v>15499</v>
       </c>
-      <c r="BR20" s="25">
+      <c r="BR20" s="24">
         <v>15324</v>
       </c>
-      <c r="BS20" s="30"/>
-      <c r="BT20" s="30"/>
+      <c r="BS20" s="29"/>
+      <c r="BT20" s="29"/>
     </row>
     <row r="21" spans="2:72">
       <c r="B21" s="13" t="s">
@@ -14691,13 +14688,13 @@
       <c r="U21" s="24">
         <v>434.91</v>
       </c>
-      <c r="V21" s="25">
+      <c r="V21" s="24">
         <v>437.53</v>
       </c>
-      <c r="W21" s="26">
+      <c r="W21" s="25">
         <v>398</v>
       </c>
-      <c r="X21" s="27">
+      <c r="X21" s="26">
         <v>398</v>
       </c>
       <c r="Z21" s="3" t="s">
@@ -14760,13 +14757,13 @@
       <c r="AS21" s="24">
         <v>15643.33</v>
       </c>
-      <c r="AT21" s="25">
+      <c r="AT21" s="24">
         <v>16187.74</v>
       </c>
-      <c r="AU21" s="30">
+      <c r="AU21" s="29">
         <v>13884</v>
       </c>
-      <c r="AV21" s="30">
+      <c r="AV21" s="29">
         <v>14120</v>
       </c>
       <c r="AX21" s="3" t="s">
@@ -14829,11 +14826,11 @@
       <c r="BQ21" s="24">
         <v>35177</v>
       </c>
-      <c r="BR21" s="25">
+      <c r="BR21" s="24">
         <v>35050</v>
       </c>
-      <c r="BS21" s="30"/>
-      <c r="BT21" s="30"/>
+      <c r="BS21" s="29"/>
+      <c r="BT21" s="29"/>
     </row>
     <row r="22" spans="2:72">
       <c r="B22" s="13" t="s">
@@ -14896,13 +14893,13 @@
       <c r="U22" s="24">
         <v>507</v>
       </c>
-      <c r="V22" s="25">
+      <c r="V22" s="24">
         <v>444</v>
       </c>
-      <c r="W22" s="26">
+      <c r="W22" s="25">
         <v>492</v>
       </c>
-      <c r="X22" s="27">
+      <c r="X22" s="26">
         <v>492</v>
       </c>
       <c r="Z22" s="3" t="s">
@@ -14965,13 +14962,13 @@
       <c r="AS22" s="24">
         <v>16258.33</v>
       </c>
-      <c r="AT22" s="25">
+      <c r="AT22" s="24">
         <v>16439.86</v>
       </c>
-      <c r="AU22" s="30">
+      <c r="AU22" s="29">
         <v>15347</v>
       </c>
-      <c r="AV22" s="30">
+      <c r="AV22" s="29">
         <v>15347</v>
       </c>
       <c r="AX22" s="3" t="s">
@@ -15004,9 +15001,9 @@
       <c r="BO22" s="21"/>
       <c r="BP22" s="24"/>
       <c r="BQ22" s="24"/>
-      <c r="BR22" s="25"/>
-      <c r="BS22" s="30"/>
-      <c r="BT22" s="30"/>
+      <c r="BR22" s="24"/>
+      <c r="BS22" s="29"/>
+      <c r="BT22" s="29"/>
     </row>
     <row r="23" spans="2:72">
       <c r="B23" s="13" t="s">
@@ -15069,13 +15066,13 @@
       <c r="U23" s="24">
         <v>1840.52</v>
       </c>
-      <c r="V23" s="25">
+      <c r="V23" s="24">
         <v>1843.88</v>
       </c>
-      <c r="W23" s="26">
+      <c r="W23" s="25">
         <v>1671</v>
       </c>
-      <c r="X23" s="27">
+      <c r="X23" s="26">
         <v>1671</v>
       </c>
       <c r="Z23" s="3" t="s">
@@ -15138,13 +15135,13 @@
       <c r="AS23" s="24">
         <v>8412.64</v>
       </c>
-      <c r="AT23" s="25">
+      <c r="AT23" s="24">
         <v>8427.48</v>
       </c>
-      <c r="AU23" s="30">
+      <c r="AU23" s="29">
         <v>8412</v>
       </c>
-      <c r="AV23" s="30">
+      <c r="AV23" s="29">
         <v>8412</v>
       </c>
       <c r="AX23" s="3" t="s">
@@ -15207,13 +15204,13 @@
       <c r="BQ23" s="24">
         <v>444.58</v>
       </c>
-      <c r="BR23" s="25">
+      <c r="BR23" s="24">
         <v>445.1</v>
       </c>
-      <c r="BS23" s="30">
+      <c r="BS23" s="29">
         <v>437</v>
       </c>
-      <c r="BT23" s="30">
+      <c r="BT23" s="29">
         <v>446</v>
       </c>
     </row>
@@ -15278,13 +15275,13 @@
       <c r="U24" s="24">
         <v>718</v>
       </c>
-      <c r="V24" s="25">
+      <c r="V24" s="24">
         <v>718</v>
       </c>
-      <c r="W24" s="26">
+      <c r="W24" s="25">
         <v>640</v>
       </c>
-      <c r="X24" s="27">
+      <c r="X24" s="26">
         <v>640</v>
       </c>
       <c r="Z24" s="3" t="s">
@@ -15347,13 +15344,13 @@
       <c r="AS24" s="24">
         <v>30571.43</v>
       </c>
-      <c r="AT24" s="25">
+      <c r="AT24" s="24">
         <v>30301.29</v>
       </c>
-      <c r="AU24" s="30">
+      <c r="AU24" s="29">
         <v>27963</v>
       </c>
-      <c r="AV24" s="30">
+      <c r="AV24" s="29">
         <v>28051</v>
       </c>
       <c r="AX24" s="3" t="s">
@@ -15416,13 +15413,13 @@
       <c r="BQ24" s="24">
         <v>805</v>
       </c>
-      <c r="BR24" s="25">
+      <c r="BR24" s="24">
         <v>805</v>
       </c>
-      <c r="BS24" s="30">
+      <c r="BS24" s="29">
         <v>281</v>
       </c>
-      <c r="BT24" s="30">
+      <c r="BT24" s="29">
         <v>281</v>
       </c>
     </row>
@@ -15487,13 +15484,13 @@
       <c r="U25" s="24">
         <v>1271</v>
       </c>
-      <c r="V25" s="25">
+      <c r="V25" s="24">
         <v>1196</v>
       </c>
-      <c r="W25" s="26">
+      <c r="W25" s="25">
         <v>1276</v>
       </c>
-      <c r="X25" s="27">
+      <c r="X25" s="26">
         <v>1276</v>
       </c>
       <c r="Z25" s="3" t="s">
@@ -15526,9 +15523,9 @@
       <c r="AQ25" s="21"/>
       <c r="AR25" s="24"/>
       <c r="AS25" s="24"/>
-      <c r="AT25" s="25"/>
-      <c r="AU25" s="30"/>
-      <c r="AV25" s="30"/>
+      <c r="AT25" s="24"/>
+      <c r="AU25" s="29"/>
+      <c r="AV25" s="29"/>
       <c r="AX25" s="3" t="s">
         <v>83</v>
       </c>
@@ -15589,11 +15586,11 @@
       <c r="BQ25" s="24">
         <v>106440.37</v>
       </c>
-      <c r="BR25" s="25">
+      <c r="BR25" s="24">
         <v>99494.24</v>
       </c>
-      <c r="BS25" s="30"/>
-      <c r="BT25" s="30"/>
+      <c r="BS25" s="29"/>
+      <c r="BT25" s="29"/>
     </row>
     <row r="26" spans="2:72">
       <c r="B26" s="13" t="s">
@@ -15656,13 +15653,13 @@
       <c r="U26" s="24">
         <v>718</v>
       </c>
-      <c r="V26" s="25">
+      <c r="V26" s="24">
         <v>718</v>
       </c>
-      <c r="W26" s="26">
+      <c r="W26" s="25">
         <v>763</v>
       </c>
-      <c r="X26" s="27">
+      <c r="X26" s="26">
         <v>763</v>
       </c>
       <c r="Z26" s="3" t="s">
@@ -15725,11 +15722,11 @@
       <c r="AS26" s="24">
         <v>2330</v>
       </c>
-      <c r="AT26" s="25">
+      <c r="AT26" s="24">
         <v>2212</v>
       </c>
-      <c r="AU26" s="30"/>
-      <c r="AV26" s="30"/>
+      <c r="AU26" s="29"/>
+      <c r="AV26" s="29"/>
       <c r="AX26" s="3" t="s">
         <v>86</v>
       </c>
@@ -15790,11 +15787,11 @@
       <c r="BQ26" s="24">
         <v>2978.11</v>
       </c>
-      <c r="BR26" s="25">
+      <c r="BR26" s="24">
         <v>3072.66</v>
       </c>
-      <c r="BS26" s="30"/>
-      <c r="BT26" s="30"/>
+      <c r="BS26" s="29"/>
+      <c r="BT26" s="29"/>
     </row>
     <row r="27" spans="50:72">
       <c r="AX27" s="3" t="s">
@@ -15857,13 +15854,13 @@
       <c r="BQ27" s="24">
         <v>2279.3</v>
       </c>
-      <c r="BR27" s="25">
+      <c r="BR27" s="24">
         <v>2279.3</v>
       </c>
-      <c r="BS27" s="30">
+      <c r="BS27" s="29">
         <v>2704</v>
       </c>
-      <c r="BT27" s="30">
+      <c r="BT27" s="29">
         <v>2704</v>
       </c>
     </row>
@@ -15928,13 +15925,13 @@
       <c r="BQ28" s="24">
         <v>2772.63</v>
       </c>
-      <c r="BR28" s="25">
+      <c r="BR28" s="24">
         <v>2772.63</v>
       </c>
-      <c r="BS28" s="30">
+      <c r="BS28" s="29">
         <v>2618</v>
       </c>
-      <c r="BT28" s="30">
+      <c r="BT28" s="29">
         <v>2618</v>
       </c>
     </row>
